--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -218,12 +218,33 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Germany Bundesliga</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>Borussia M'gladbach</t>
+  </si>
+  <si>
+    <t>Bayer Leverkusen</t>
+  </si>
+  <si>
+    <t>['59', '85']</t>
+  </si>
+  <si>
+    <t>['12', '38', '90+11']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -276,11 +297,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +809,212 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7491814</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45527.64583333334</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2">
+        <v>4.75</v>
+      </c>
+      <c r="R2">
+        <v>2.5</v>
+      </c>
+      <c r="S2">
+        <v>2.1</v>
+      </c>
+      <c r="T2">
+        <v>1.25</v>
+      </c>
+      <c r="U2">
+        <v>3.75</v>
+      </c>
+      <c r="V2">
+        <v>2.2</v>
+      </c>
+      <c r="W2">
+        <v>1.62</v>
+      </c>
+      <c r="X2">
+        <v>5</v>
+      </c>
+      <c r="Y2">
+        <v>1.17</v>
+      </c>
+      <c r="Z2">
+        <v>4.35</v>
+      </c>
+      <c r="AA2">
+        <v>4.18</v>
+      </c>
+      <c r="AB2">
+        <v>1.64</v>
+      </c>
+      <c r="AC2">
+        <v>1.01</v>
+      </c>
+      <c r="AD2">
+        <v>21</v>
+      </c>
+      <c r="AE2">
+        <v>1.16</v>
+      </c>
+      <c r="AF2">
+        <v>5.5</v>
+      </c>
+      <c r="AG2">
+        <v>1.57</v>
+      </c>
+      <c r="AH2">
+        <v>2.26</v>
+      </c>
+      <c r="AI2">
+        <v>1.57</v>
+      </c>
+      <c r="AJ2">
+        <v>2.25</v>
+      </c>
+      <c r="AK2">
+        <v>2.3</v>
+      </c>
+      <c r="AL2">
+        <v>1.22</v>
+      </c>
+      <c r="AM2">
+        <v>1.19</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>3</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>8</v>
+      </c>
+      <c r="AV2">
+        <v>11</v>
+      </c>
+      <c r="AW2">
+        <v>3</v>
+      </c>
+      <c r="AX2">
+        <v>8</v>
+      </c>
+      <c r="AY2">
+        <v>11</v>
+      </c>
+      <c r="AZ2">
+        <v>19</v>
+      </c>
+      <c r="BA2">
+        <v>2</v>
+      </c>
+      <c r="BB2">
+        <v>4</v>
+      </c>
+      <c r="BC2">
+        <v>6</v>
+      </c>
+      <c r="BD2">
+        <v>3.54</v>
+      </c>
+      <c r="BE2">
+        <v>9.5</v>
+      </c>
+      <c r="BF2">
+        <v>1.43</v>
+      </c>
+      <c r="BG2">
+        <v>1.21</v>
+      </c>
+      <c r="BH2">
+        <v>3.74</v>
+      </c>
+      <c r="BI2">
+        <v>1.43</v>
+      </c>
+      <c r="BJ2">
+        <v>2.66</v>
+      </c>
+      <c r="BK2">
+        <v>1.76</v>
+      </c>
+      <c r="BL2">
+        <v>2.02</v>
+      </c>
+      <c r="BM2">
+        <v>2.22</v>
+      </c>
+      <c r="BN2">
+        <v>1.6</v>
+      </c>
+      <c r="BO2">
+        <v>2.88</v>
+      </c>
+      <c r="BP2">
+        <v>1.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -229,13 +229,82 @@
     <t>Borussia M'gladbach</t>
   </si>
   <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Mainz 05</t>
+  </si>
+  <si>
+    <t>Borussia Dortmund</t>
+  </si>
+  <si>
     <t>Bayer Leverkusen</t>
   </si>
   <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt</t>
+  </si>
+  <si>
     <t>['59', '85']</t>
   </si>
   <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['6', '37', '87']</t>
+  </si>
+  <si>
+    <t>['26', '54', '61']</t>
+  </si>
+  <si>
+    <t>['16', '35']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['72', '90+3']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['63', '89']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['12', '58']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
 </sst>
 </file>
@@ -597,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP2"/>
+  <dimension ref="A1:BP8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,7 +901,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -853,10 +922,10 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1013,6 +1082,1242 @@
       </c>
       <c r="BP2">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7491815</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45528.4375</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3">
+        <v>1.67</v>
+      </c>
+      <c r="R3">
+        <v>2.88</v>
+      </c>
+      <c r="S3">
+        <v>7.5</v>
+      </c>
+      <c r="T3">
+        <v>1.2</v>
+      </c>
+      <c r="U3">
+        <v>4.33</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>1.73</v>
+      </c>
+      <c r="X3">
+        <v>4.33</v>
+      </c>
+      <c r="Y3">
+        <v>1.2</v>
+      </c>
+      <c r="Z3">
+        <v>1.33</v>
+      </c>
+      <c r="AA3">
+        <v>5.75</v>
+      </c>
+      <c r="AB3">
+        <v>8.25</v>
+      </c>
+      <c r="AC3">
+        <v>1.02</v>
+      </c>
+      <c r="AD3">
+        <v>21</v>
+      </c>
+      <c r="AE3">
+        <v>1.08</v>
+      </c>
+      <c r="AF3">
+        <v>5.9</v>
+      </c>
+      <c r="AG3">
+        <v>1.35</v>
+      </c>
+      <c r="AH3">
+        <v>3.04</v>
+      </c>
+      <c r="AI3">
+        <v>1.75</v>
+      </c>
+      <c r="AJ3">
+        <v>2</v>
+      </c>
+      <c r="AK3">
+        <v>1.05</v>
+      </c>
+      <c r="AL3">
+        <v>1.1</v>
+      </c>
+      <c r="AM3">
+        <v>3.19</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>3</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>4</v>
+      </c>
+      <c r="AV3">
+        <v>5</v>
+      </c>
+      <c r="AW3">
+        <v>5</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>9</v>
+      </c>
+      <c r="AZ3">
+        <v>5</v>
+      </c>
+      <c r="BA3">
+        <v>9</v>
+      </c>
+      <c r="BB3">
+        <v>3</v>
+      </c>
+      <c r="BC3">
+        <v>12</v>
+      </c>
+      <c r="BD3">
+        <v>1.2</v>
+      </c>
+      <c r="BE3">
+        <v>11</v>
+      </c>
+      <c r="BF3">
+        <v>5.5</v>
+      </c>
+      <c r="BG3">
+        <v>1.23</v>
+      </c>
+      <c r="BH3">
+        <v>3.65</v>
+      </c>
+      <c r="BI3">
+        <v>1.37</v>
+      </c>
+      <c r="BJ3">
+        <v>2.85</v>
+      </c>
+      <c r="BK3">
+        <v>1.67</v>
+      </c>
+      <c r="BL3">
+        <v>2.07</v>
+      </c>
+      <c r="BM3">
+        <v>2.1</v>
+      </c>
+      <c r="BN3">
+        <v>1.65</v>
+      </c>
+      <c r="BO3">
+        <v>2.77</v>
+      </c>
+      <c r="BP3">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7491817</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45528.4375</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4">
+        <v>2.1</v>
+      </c>
+      <c r="R4">
+        <v>2.5</v>
+      </c>
+      <c r="S4">
+        <v>4.75</v>
+      </c>
+      <c r="T4">
+        <v>1.29</v>
+      </c>
+      <c r="U4">
+        <v>3.5</v>
+      </c>
+      <c r="V4">
+        <v>2.25</v>
+      </c>
+      <c r="W4">
+        <v>1.57</v>
+      </c>
+      <c r="X4">
+        <v>5.5</v>
+      </c>
+      <c r="Y4">
+        <v>1.14</v>
+      </c>
+      <c r="Z4">
+        <v>1.65</v>
+      </c>
+      <c r="AA4">
+        <v>4.2</v>
+      </c>
+      <c r="AB4">
+        <v>4.8</v>
+      </c>
+      <c r="AC4">
+        <v>1.02</v>
+      </c>
+      <c r="AD4">
+        <v>19</v>
+      </c>
+      <c r="AE4">
+        <v>1.19</v>
+      </c>
+      <c r="AF4">
+        <v>4.75</v>
+      </c>
+      <c r="AG4">
+        <v>1.55</v>
+      </c>
+      <c r="AH4">
+        <v>2.38</v>
+      </c>
+      <c r="AI4">
+        <v>1.57</v>
+      </c>
+      <c r="AJ4">
+        <v>2.25</v>
+      </c>
+      <c r="AK4">
+        <v>1.13</v>
+      </c>
+      <c r="AL4">
+        <v>1.17</v>
+      </c>
+      <c r="AM4">
+        <v>2.31</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>3</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>9</v>
+      </c>
+      <c r="AV4">
+        <v>7</v>
+      </c>
+      <c r="AW4">
+        <v>9</v>
+      </c>
+      <c r="AX4">
+        <v>7</v>
+      </c>
+      <c r="AY4">
+        <v>18</v>
+      </c>
+      <c r="AZ4">
+        <v>14</v>
+      </c>
+      <c r="BA4">
+        <v>8</v>
+      </c>
+      <c r="BB4">
+        <v>6</v>
+      </c>
+      <c r="BC4">
+        <v>14</v>
+      </c>
+      <c r="BD4">
+        <v>1.36</v>
+      </c>
+      <c r="BE4">
+        <v>9.5</v>
+      </c>
+      <c r="BF4">
+        <v>3.6</v>
+      </c>
+      <c r="BG4">
+        <v>1.19</v>
+      </c>
+      <c r="BH4">
+        <v>4.1</v>
+      </c>
+      <c r="BI4">
+        <v>1.28</v>
+      </c>
+      <c r="BJ4">
+        <v>3.35</v>
+      </c>
+      <c r="BK4">
+        <v>1.51</v>
+      </c>
+      <c r="BL4">
+        <v>2.37</v>
+      </c>
+      <c r="BM4">
+        <v>1.9</v>
+      </c>
+      <c r="BN4">
+        <v>1.8</v>
+      </c>
+      <c r="BO4">
+        <v>2.45</v>
+      </c>
+      <c r="BP4">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7491818</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45528.4375</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5">
+        <v>3.75</v>
+      </c>
+      <c r="R5">
+        <v>2.3</v>
+      </c>
+      <c r="S5">
+        <v>2.63</v>
+      </c>
+      <c r="T5">
+        <v>1.33</v>
+      </c>
+      <c r="U5">
+        <v>3.25</v>
+      </c>
+      <c r="V5">
+        <v>2.5</v>
+      </c>
+      <c r="W5">
+        <v>1.5</v>
+      </c>
+      <c r="X5">
+        <v>6.5</v>
+      </c>
+      <c r="Y5">
+        <v>1.11</v>
+      </c>
+      <c r="Z5">
+        <v>3.45</v>
+      </c>
+      <c r="AA5">
+        <v>3.6</v>
+      </c>
+      <c r="AB5">
+        <v>2.1</v>
+      </c>
+      <c r="AC5">
+        <v>1.04</v>
+      </c>
+      <c r="AD5">
+        <v>13</v>
+      </c>
+      <c r="AE5">
+        <v>1.26</v>
+      </c>
+      <c r="AF5">
+        <v>4</v>
+      </c>
+      <c r="AG5">
+        <v>1.79</v>
+      </c>
+      <c r="AH5">
+        <v>1.98</v>
+      </c>
+      <c r="AI5">
+        <v>1.62</v>
+      </c>
+      <c r="AJ5">
+        <v>2.2</v>
+      </c>
+      <c r="AK5">
+        <v>1.71</v>
+      </c>
+      <c r="AL5">
+        <v>1.24</v>
+      </c>
+      <c r="AM5">
+        <v>1.28</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>3</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>7</v>
+      </c>
+      <c r="AV5">
+        <v>3</v>
+      </c>
+      <c r="AW5">
+        <v>5</v>
+      </c>
+      <c r="AX5">
+        <v>5</v>
+      </c>
+      <c r="AY5">
+        <v>12</v>
+      </c>
+      <c r="AZ5">
+        <v>8</v>
+      </c>
+      <c r="BA5">
+        <v>6</v>
+      </c>
+      <c r="BB5">
+        <v>3</v>
+      </c>
+      <c r="BC5">
+        <v>9</v>
+      </c>
+      <c r="BD5">
+        <v>2.3</v>
+      </c>
+      <c r="BE5">
+        <v>8</v>
+      </c>
+      <c r="BF5">
+        <v>1.8</v>
+      </c>
+      <c r="BG5">
+        <v>1.3</v>
+      </c>
+      <c r="BH5">
+        <v>3.2</v>
+      </c>
+      <c r="BI5">
+        <v>1.56</v>
+      </c>
+      <c r="BJ5">
+        <v>2.27</v>
+      </c>
+      <c r="BK5">
+        <v>2.03</v>
+      </c>
+      <c r="BL5">
+        <v>1.7</v>
+      </c>
+      <c r="BM5">
+        <v>2.7</v>
+      </c>
+      <c r="BN5">
+        <v>1.41</v>
+      </c>
+      <c r="BO5">
+        <v>3.65</v>
+      </c>
+      <c r="BP5">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7491819</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45528.4375</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q6">
+        <v>2.75</v>
+      </c>
+      <c r="R6">
+        <v>2.25</v>
+      </c>
+      <c r="S6">
+        <v>3.5</v>
+      </c>
+      <c r="T6">
+        <v>1.33</v>
+      </c>
+      <c r="U6">
+        <v>3.25</v>
+      </c>
+      <c r="V6">
+        <v>2.63</v>
+      </c>
+      <c r="W6">
+        <v>1.44</v>
+      </c>
+      <c r="X6">
+        <v>6.5</v>
+      </c>
+      <c r="Y6">
+        <v>1.11</v>
+      </c>
+      <c r="Z6">
+        <v>2.15</v>
+      </c>
+      <c r="AA6">
+        <v>3.65</v>
+      </c>
+      <c r="AB6">
+        <v>3.15</v>
+      </c>
+      <c r="AC6">
+        <v>1.03</v>
+      </c>
+      <c r="AD6">
+        <v>11</v>
+      </c>
+      <c r="AE6">
+        <v>1.21</v>
+      </c>
+      <c r="AF6">
+        <v>3.92</v>
+      </c>
+      <c r="AG6">
+        <v>1.68</v>
+      </c>
+      <c r="AH6">
+        <v>2.1</v>
+      </c>
+      <c r="AI6">
+        <v>1.62</v>
+      </c>
+      <c r="AJ6">
+        <v>2.2</v>
+      </c>
+      <c r="AK6">
+        <v>1.39</v>
+      </c>
+      <c r="AL6">
+        <v>1.3</v>
+      </c>
+      <c r="AM6">
+        <v>1.7</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>4</v>
+      </c>
+      <c r="AV6">
+        <v>6</v>
+      </c>
+      <c r="AW6">
+        <v>6</v>
+      </c>
+      <c r="AX6">
+        <v>4</v>
+      </c>
+      <c r="AY6">
+        <v>10</v>
+      </c>
+      <c r="AZ6">
+        <v>10</v>
+      </c>
+      <c r="BA6">
+        <v>4</v>
+      </c>
+      <c r="BB6">
+        <v>2</v>
+      </c>
+      <c r="BC6">
+        <v>6</v>
+      </c>
+      <c r="BD6">
+        <v>1.44</v>
+      </c>
+      <c r="BE6">
+        <v>8.5</v>
+      </c>
+      <c r="BF6">
+        <v>3.2</v>
+      </c>
+      <c r="BG6">
+        <v>1.32</v>
+      </c>
+      <c r="BH6">
+        <v>3.05</v>
+      </c>
+      <c r="BI6">
+        <v>1.49</v>
+      </c>
+      <c r="BJ6">
+        <v>2.45</v>
+      </c>
+      <c r="BK6">
+        <v>1.87</v>
+      </c>
+      <c r="BL6">
+        <v>1.83</v>
+      </c>
+      <c r="BM6">
+        <v>2.45</v>
+      </c>
+      <c r="BN6">
+        <v>1.49</v>
+      </c>
+      <c r="BO6">
+        <v>3.3</v>
+      </c>
+      <c r="BP6">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7491821</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45528.4375</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7">
+        <v>2.75</v>
+      </c>
+      <c r="R7">
+        <v>2.05</v>
+      </c>
+      <c r="S7">
+        <v>4.33</v>
+      </c>
+      <c r="T7">
+        <v>1.44</v>
+      </c>
+      <c r="U7">
+        <v>2.63</v>
+      </c>
+      <c r="V7">
+        <v>3.25</v>
+      </c>
+      <c r="W7">
+        <v>1.33</v>
+      </c>
+      <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <v>1.06</v>
+      </c>
+      <c r="Z7">
+        <v>2.05</v>
+      </c>
+      <c r="AA7">
+        <v>3.4</v>
+      </c>
+      <c r="AB7">
+        <v>3.8</v>
+      </c>
+      <c r="AC7">
+        <v>1.09</v>
+      </c>
+      <c r="AD7">
+        <v>8.6</v>
+      </c>
+      <c r="AE7">
+        <v>1.4</v>
+      </c>
+      <c r="AF7">
+        <v>3</v>
+      </c>
+      <c r="AG7">
+        <v>2.2</v>
+      </c>
+      <c r="AH7">
+        <v>1.64</v>
+      </c>
+      <c r="AI7">
+        <v>1.95</v>
+      </c>
+      <c r="AJ7">
+        <v>1.8</v>
+      </c>
+      <c r="AK7">
+        <v>1.22</v>
+      </c>
+      <c r="AL7">
+        <v>1.28</v>
+      </c>
+      <c r="AM7">
+        <v>1.81</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>4</v>
+      </c>
+      <c r="AV7">
+        <v>6</v>
+      </c>
+      <c r="AW7">
+        <v>8</v>
+      </c>
+      <c r="AX7">
+        <v>6</v>
+      </c>
+      <c r="AY7">
+        <v>12</v>
+      </c>
+      <c r="AZ7">
+        <v>12</v>
+      </c>
+      <c r="BA7">
+        <v>8</v>
+      </c>
+      <c r="BB7">
+        <v>9</v>
+      </c>
+      <c r="BC7">
+        <v>17</v>
+      </c>
+      <c r="BD7">
+        <v>1.4</v>
+      </c>
+      <c r="BE7">
+        <v>9</v>
+      </c>
+      <c r="BF7">
+        <v>3.4</v>
+      </c>
+      <c r="BG7">
+        <v>1.27</v>
+      </c>
+      <c r="BH7">
+        <v>3.3</v>
+      </c>
+      <c r="BI7">
+        <v>1.45</v>
+      </c>
+      <c r="BJ7">
+        <v>2.55</v>
+      </c>
+      <c r="BK7">
+        <v>1.8</v>
+      </c>
+      <c r="BL7">
+        <v>1.9</v>
+      </c>
+      <c r="BM7">
+        <v>2.32</v>
+      </c>
+      <c r="BN7">
+        <v>1.54</v>
+      </c>
+      <c r="BO7">
+        <v>3.1</v>
+      </c>
+      <c r="BP7">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7491816</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45528.5625</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8">
+        <v>2.2</v>
+      </c>
+      <c r="R8">
+        <v>2.5</v>
+      </c>
+      <c r="S8">
+        <v>4.33</v>
+      </c>
+      <c r="T8">
+        <v>1.25</v>
+      </c>
+      <c r="U8">
+        <v>3.75</v>
+      </c>
+      <c r="V8">
+        <v>2.1</v>
+      </c>
+      <c r="W8">
+        <v>1.67</v>
+      </c>
+      <c r="X8">
+        <v>5</v>
+      </c>
+      <c r="Y8">
+        <v>1.17</v>
+      </c>
+      <c r="Z8">
+        <v>1.68</v>
+      </c>
+      <c r="AA8">
+        <v>4.04</v>
+      </c>
+      <c r="AB8">
+        <v>4.15</v>
+      </c>
+      <c r="AC8">
+        <v>1.01</v>
+      </c>
+      <c r="AD8">
+        <v>19.5</v>
+      </c>
+      <c r="AE8">
+        <v>1.11</v>
+      </c>
+      <c r="AF8">
+        <v>5.25</v>
+      </c>
+      <c r="AG8">
+        <v>1.45</v>
+      </c>
+      <c r="AH8">
+        <v>2.5</v>
+      </c>
+      <c r="AI8">
+        <v>1.5</v>
+      </c>
+      <c r="AJ8">
+        <v>2.5</v>
+      </c>
+      <c r="AK8">
+        <v>1.24</v>
+      </c>
+      <c r="AL8">
+        <v>1.24</v>
+      </c>
+      <c r="AM8">
+        <v>2.21</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>3</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>6</v>
+      </c>
+      <c r="AV8">
+        <v>4</v>
+      </c>
+      <c r="AW8">
+        <v>7</v>
+      </c>
+      <c r="AX8">
+        <v>4</v>
+      </c>
+      <c r="AY8">
+        <v>13</v>
+      </c>
+      <c r="AZ8">
+        <v>8</v>
+      </c>
+      <c r="BA8">
+        <v>7</v>
+      </c>
+      <c r="BB8">
+        <v>7</v>
+      </c>
+      <c r="BC8">
+        <v>14</v>
+      </c>
+      <c r="BD8">
+        <v>1.57</v>
+      </c>
+      <c r="BE8">
+        <v>8.5</v>
+      </c>
+      <c r="BF8">
+        <v>2.75</v>
+      </c>
+      <c r="BG8">
+        <v>1.28</v>
+      </c>
+      <c r="BH8">
+        <v>3.3</v>
+      </c>
+      <c r="BI8">
+        <v>1.4</v>
+      </c>
+      <c r="BJ8">
+        <v>2.75</v>
+      </c>
+      <c r="BK8">
+        <v>1.7</v>
+      </c>
+      <c r="BL8">
+        <v>2.03</v>
+      </c>
+      <c r="BM8">
+        <v>2.17</v>
+      </c>
+      <c r="BN8">
+        <v>1.61</v>
+      </c>
+      <c r="BO8">
+        <v>2.85</v>
+      </c>
+      <c r="BP8">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -247,6 +247,12 @@
     <t>Borussia Dortmund</t>
   </si>
   <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>St. Pauli</t>
+  </si>
+  <si>
     <t>Bayer Leverkusen</t>
   </si>
   <si>
@@ -268,6 +274,12 @@
     <t>Eintracht Frankfurt</t>
   </si>
   <si>
+    <t>Bayern München</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
     <t>['59', '85']</t>
   </si>
   <si>
@@ -289,12 +301,15 @@
     <t>['72', '90+3']</t>
   </si>
   <si>
+    <t>['47', '55']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>['63', '89']</t>
   </si>
   <si>
@@ -305,6 +320,12 @@
   </si>
   <si>
     <t>['74']</t>
+  </si>
+  <si>
+    <t>['19', '65', '82']</t>
+  </si>
+  <si>
+    <t>['66', '82']</t>
   </si>
 </sst>
 </file>
@@ -666,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP8"/>
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -901,7 +922,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -922,10 +943,10 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1107,7 +1128,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1128,10 +1149,10 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q3">
         <v>1.67</v>
@@ -1313,7 +1334,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1334,10 +1355,10 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1519,7 +1540,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1540,10 +1561,10 @@
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1725,7 +1746,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1746,10 +1767,10 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -1931,7 +1952,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1952,10 +1973,10 @@
         <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2137,7 +2158,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2158,10 +2179,10 @@
         <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2318,6 +2339,418 @@
       </c>
       <c r="BP8">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7491820</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45529.4375</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9">
+        <v>5.5</v>
+      </c>
+      <c r="R9">
+        <v>2.63</v>
+      </c>
+      <c r="S9">
+        <v>1.91</v>
+      </c>
+      <c r="T9">
+        <v>1.25</v>
+      </c>
+      <c r="U9">
+        <v>3.75</v>
+      </c>
+      <c r="V9">
+        <v>2.1</v>
+      </c>
+      <c r="W9">
+        <v>1.67</v>
+      </c>
+      <c r="X9">
+        <v>4.5</v>
+      </c>
+      <c r="Y9">
+        <v>1.18</v>
+      </c>
+      <c r="Z9">
+        <v>5.5</v>
+      </c>
+      <c r="AA9">
+        <v>4.8</v>
+      </c>
+      <c r="AB9">
+        <v>1.5</v>
+      </c>
+      <c r="AC9">
+        <v>1.02</v>
+      </c>
+      <c r="AD9">
+        <v>25</v>
+      </c>
+      <c r="AE9">
+        <v>1.12</v>
+      </c>
+      <c r="AF9">
+        <v>5.75</v>
+      </c>
+      <c r="AG9">
+        <v>1.44</v>
+      </c>
+      <c r="AH9">
+        <v>2.53</v>
+      </c>
+      <c r="AI9">
+        <v>1.62</v>
+      </c>
+      <c r="AJ9">
+        <v>2.2</v>
+      </c>
+      <c r="AK9">
+        <v>2.73</v>
+      </c>
+      <c r="AL9">
+        <v>1.19</v>
+      </c>
+      <c r="AM9">
+        <v>1.14</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>3</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>3</v>
+      </c>
+      <c r="AV9">
+        <v>9</v>
+      </c>
+      <c r="AW9">
+        <v>7</v>
+      </c>
+      <c r="AX9">
+        <v>2</v>
+      </c>
+      <c r="AY9">
+        <v>10</v>
+      </c>
+      <c r="AZ9">
+        <v>11</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>7</v>
+      </c>
+      <c r="BC9">
+        <v>8</v>
+      </c>
+      <c r="BD9">
+        <v>3.65</v>
+      </c>
+      <c r="BE9">
+        <v>9.5</v>
+      </c>
+      <c r="BF9">
+        <v>1.35</v>
+      </c>
+      <c r="BG9">
+        <v>1.33</v>
+      </c>
+      <c r="BH9">
+        <v>2.95</v>
+      </c>
+      <c r="BI9">
+        <v>1.49</v>
+      </c>
+      <c r="BJ9">
+        <v>2.45</v>
+      </c>
+      <c r="BK9">
+        <v>1.9</v>
+      </c>
+      <c r="BL9">
+        <v>1.8</v>
+      </c>
+      <c r="BM9">
+        <v>2.47</v>
+      </c>
+      <c r="BN9">
+        <v>1.48</v>
+      </c>
+      <c r="BO9">
+        <v>3.15</v>
+      </c>
+      <c r="BP9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7491822</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45529.52083333334</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10">
+        <v>2.75</v>
+      </c>
+      <c r="R10">
+        <v>2.2</v>
+      </c>
+      <c r="S10">
+        <v>3.75</v>
+      </c>
+      <c r="T10">
+        <v>1.36</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>2.75</v>
+      </c>
+      <c r="W10">
+        <v>1.4</v>
+      </c>
+      <c r="X10">
+        <v>7</v>
+      </c>
+      <c r="Y10">
+        <v>1.1</v>
+      </c>
+      <c r="Z10">
+        <v>2.1</v>
+      </c>
+      <c r="AA10">
+        <v>3.5</v>
+      </c>
+      <c r="AB10">
+        <v>3.4</v>
+      </c>
+      <c r="AC10">
+        <v>1.05</v>
+      </c>
+      <c r="AD10">
+        <v>12</v>
+      </c>
+      <c r="AE10">
+        <v>1.3</v>
+      </c>
+      <c r="AF10">
+        <v>3.6</v>
+      </c>
+      <c r="AG10">
+        <v>1.98</v>
+      </c>
+      <c r="AH10">
+        <v>1.9</v>
+      </c>
+      <c r="AI10">
+        <v>1.7</v>
+      </c>
+      <c r="AJ10">
+        <v>2.05</v>
+      </c>
+      <c r="AK10">
+        <v>1.3</v>
+      </c>
+      <c r="AL10">
+        <v>1.32</v>
+      </c>
+      <c r="AM10">
+        <v>1.72</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>3</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>4</v>
+      </c>
+      <c r="AV10">
+        <v>4</v>
+      </c>
+      <c r="AW10">
+        <v>7</v>
+      </c>
+      <c r="AX10">
+        <v>2</v>
+      </c>
+      <c r="AY10">
+        <v>11</v>
+      </c>
+      <c r="AZ10">
+        <v>6</v>
+      </c>
+      <c r="BA10">
+        <v>4</v>
+      </c>
+      <c r="BB10">
+        <v>2</v>
+      </c>
+      <c r="BC10">
+        <v>6</v>
+      </c>
+      <c r="BD10">
+        <v>1.91</v>
+      </c>
+      <c r="BE10">
+        <v>8</v>
+      </c>
+      <c r="BF10">
+        <v>2.2</v>
+      </c>
+      <c r="BG10">
+        <v>1.3</v>
+      </c>
+      <c r="BH10">
+        <v>3.2</v>
+      </c>
+      <c r="BI10">
+        <v>1.48</v>
+      </c>
+      <c r="BJ10">
+        <v>2.47</v>
+      </c>
+      <c r="BK10">
+        <v>1.9</v>
+      </c>
+      <c r="BL10">
+        <v>1.8</v>
+      </c>
+      <c r="BM10">
+        <v>2.47</v>
+      </c>
+      <c r="BN10">
+        <v>1.48</v>
+      </c>
+      <c r="BO10">
+        <v>3</v>
+      </c>
+      <c r="BP10">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="105">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -253,6 +253,9 @@
     <t>St. Pauli</t>
   </si>
   <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
     <t>Bayer Leverkusen</t>
   </si>
   <si>
@@ -268,9 +271,6 @@
     <t>Werder Bremen</t>
   </si>
   <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
     <t>Eintracht Frankfurt</t>
   </si>
   <si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>['34']</t>
   </si>
   <si>
     <t>['12', '38', '90+11']</t>
@@ -687,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP10"/>
+  <dimension ref="A1:BP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,7 +925,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -946,7 +949,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1128,7 +1131,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1334,7 +1337,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1358,7 +1361,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1540,7 +1543,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1564,7 +1567,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1746,7 +1749,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1770,7 +1773,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -1952,7 +1955,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1976,7 +1979,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2388,7 +2391,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2594,7 +2597,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2751,6 +2754,212 @@
       </c>
       <c r="BP10">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7491829</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45534.64583333334</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q11">
+        <v>2.6</v>
+      </c>
+      <c r="R11">
+        <v>2.2</v>
+      </c>
+      <c r="S11">
+        <v>4.33</v>
+      </c>
+      <c r="T11">
+        <v>1.36</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>2.75</v>
+      </c>
+      <c r="W11">
+        <v>1.4</v>
+      </c>
+      <c r="X11">
+        <v>8</v>
+      </c>
+      <c r="Y11">
+        <v>1.08</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11">
+        <v>3.55</v>
+      </c>
+      <c r="AB11">
+        <v>3.7</v>
+      </c>
+      <c r="AC11">
+        <v>1.01</v>
+      </c>
+      <c r="AD11">
+        <v>9.5</v>
+      </c>
+      <c r="AE11">
+        <v>1.26</v>
+      </c>
+      <c r="AF11">
+        <v>3.48</v>
+      </c>
+      <c r="AG11">
+        <v>1.77</v>
+      </c>
+      <c r="AH11">
+        <v>1.97</v>
+      </c>
+      <c r="AI11">
+        <v>1.75</v>
+      </c>
+      <c r="AJ11">
+        <v>2</v>
+      </c>
+      <c r="AK11">
+        <v>1.28</v>
+      </c>
+      <c r="AL11">
+        <v>1.3</v>
+      </c>
+      <c r="AM11">
+        <v>1.88</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>3</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>6</v>
+      </c>
+      <c r="AV11">
+        <v>2</v>
+      </c>
+      <c r="AW11">
+        <v>5</v>
+      </c>
+      <c r="AX11">
+        <v>4</v>
+      </c>
+      <c r="AY11">
+        <v>11</v>
+      </c>
+      <c r="AZ11">
+        <v>6</v>
+      </c>
+      <c r="BA11">
+        <v>5</v>
+      </c>
+      <c r="BB11">
+        <v>4</v>
+      </c>
+      <c r="BC11">
+        <v>9</v>
+      </c>
+      <c r="BD11">
+        <v>1.57</v>
+      </c>
+      <c r="BE11">
+        <v>6.75</v>
+      </c>
+      <c r="BF11">
+        <v>2.65</v>
+      </c>
+      <c r="BG11">
+        <v>1.29</v>
+      </c>
+      <c r="BH11">
+        <v>3.2</v>
+      </c>
+      <c r="BI11">
+        <v>1.5</v>
+      </c>
+      <c r="BJ11">
+        <v>2.38</v>
+      </c>
+      <c r="BK11">
+        <v>1.82</v>
+      </c>
+      <c r="BL11">
+        <v>1.98</v>
+      </c>
+      <c r="BM11">
+        <v>2.23</v>
+      </c>
+      <c r="BN11">
+        <v>1.56</v>
+      </c>
+      <c r="BO11">
+        <v>2.9</v>
+      </c>
+      <c r="BP11">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="113">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,24 +256,24 @@
     <t>Union Berlin</t>
   </si>
   <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
     <t>Bayer Leverkusen</t>
   </si>
   <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Holstein Kiel</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>Eintracht Frankfurt</t>
-  </si>
-  <si>
     <t>Bayern München</t>
   </si>
   <si>
@@ -310,6 +310,15 @@
     <t>['34']</t>
   </si>
   <si>
+    <t>['8', '15', '88']</t>
+  </si>
+  <si>
+    <t>['24', '33', '56']</t>
+  </si>
+  <si>
+    <t>['38', '45']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -329,6 +338,21 @@
   </si>
   <si>
     <t>['66', '82']</t>
+  </si>
+  <si>
+    <t>['43', '61', '90+4']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['66', '78']</t>
+  </si>
+  <si>
+    <t>['27', '30']</t>
+  </si>
+  <si>
+    <t>['45+7', '57', '80']</t>
   </si>
 </sst>
 </file>
@@ -690,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP11"/>
+  <dimension ref="A1:BP17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -925,7 +949,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -949,7 +973,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1131,7 +1155,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1337,7 +1361,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1361,7 +1385,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1543,7 +1567,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1567,7 +1591,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1749,7 +1773,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1773,7 +1797,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -1979,7 +2003,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2161,7 +2185,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2391,7 +2415,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2597,7 +2621,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2960,6 +2984,1242 @@
       </c>
       <c r="BP11">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7491824</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45535.4375</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q12">
+        <v>2.2</v>
+      </c>
+      <c r="R12">
+        <v>2.4</v>
+      </c>
+      <c r="S12">
+        <v>4.75</v>
+      </c>
+      <c r="T12">
+        <v>1.29</v>
+      </c>
+      <c r="U12">
+        <v>3.5</v>
+      </c>
+      <c r="V12">
+        <v>2.38</v>
+      </c>
+      <c r="W12">
+        <v>1.53</v>
+      </c>
+      <c r="X12">
+        <v>5.5</v>
+      </c>
+      <c r="Y12">
+        <v>1.14</v>
+      </c>
+      <c r="Z12">
+        <v>1.53</v>
+      </c>
+      <c r="AA12">
+        <v>4.4</v>
+      </c>
+      <c r="AB12">
+        <v>5.75</v>
+      </c>
+      <c r="AC12">
+        <v>1.03</v>
+      </c>
+      <c r="AD12">
+        <v>17</v>
+      </c>
+      <c r="AE12">
+        <v>1.18</v>
+      </c>
+      <c r="AF12">
+        <v>4.35</v>
+      </c>
+      <c r="AG12">
+        <v>1.54</v>
+      </c>
+      <c r="AH12">
+        <v>2.35</v>
+      </c>
+      <c r="AI12">
+        <v>1.67</v>
+      </c>
+      <c r="AJ12">
+        <v>2.1</v>
+      </c>
+      <c r="AK12">
+        <v>1.18</v>
+      </c>
+      <c r="AL12">
+        <v>1.19</v>
+      </c>
+      <c r="AM12">
+        <v>2.3</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>13</v>
+      </c>
+      <c r="AV12">
+        <v>8</v>
+      </c>
+      <c r="AW12">
+        <v>8</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
+      </c>
+      <c r="AY12">
+        <v>21</v>
+      </c>
+      <c r="AZ12">
+        <v>9</v>
+      </c>
+      <c r="BA12">
+        <v>11</v>
+      </c>
+      <c r="BB12">
+        <v>2</v>
+      </c>
+      <c r="BC12">
+        <v>13</v>
+      </c>
+      <c r="BD12">
+        <v>1.48</v>
+      </c>
+      <c r="BE12">
+        <v>6.75</v>
+      </c>
+      <c r="BF12">
+        <v>2.95</v>
+      </c>
+      <c r="BG12">
+        <v>1.3</v>
+      </c>
+      <c r="BH12">
+        <v>3.15</v>
+      </c>
+      <c r="BI12">
+        <v>1.53</v>
+      </c>
+      <c r="BJ12">
+        <v>2.32</v>
+      </c>
+      <c r="BK12">
+        <v>1.95</v>
+      </c>
+      <c r="BL12">
+        <v>1.85</v>
+      </c>
+      <c r="BM12">
+        <v>2.33</v>
+      </c>
+      <c r="BN12">
+        <v>1.52</v>
+      </c>
+      <c r="BO12">
+        <v>3.05</v>
+      </c>
+      <c r="BP12">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7491826</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45535.4375</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q13">
+        <v>2.3</v>
+      </c>
+      <c r="R13">
+        <v>2.5</v>
+      </c>
+      <c r="S13">
+        <v>4</v>
+      </c>
+      <c r="T13">
+        <v>1.25</v>
+      </c>
+      <c r="U13">
+        <v>3.75</v>
+      </c>
+      <c r="V13">
+        <v>2.2</v>
+      </c>
+      <c r="W13">
+        <v>1.62</v>
+      </c>
+      <c r="X13">
+        <v>5</v>
+      </c>
+      <c r="Y13">
+        <v>1.17</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AA13">
+        <v>3.75</v>
+      </c>
+      <c r="AB13">
+        <v>3.4</v>
+      </c>
+      <c r="AC13">
+        <v>1.02</v>
+      </c>
+      <c r="AD13">
+        <v>21</v>
+      </c>
+      <c r="AE13">
+        <v>1.11</v>
+      </c>
+      <c r="AF13">
+        <v>5.15</v>
+      </c>
+      <c r="AG13">
+        <v>1.63</v>
+      </c>
+      <c r="AH13">
+        <v>2.29</v>
+      </c>
+      <c r="AI13">
+        <v>1.5</v>
+      </c>
+      <c r="AJ13">
+        <v>2.5</v>
+      </c>
+      <c r="AK13">
+        <v>1.27</v>
+      </c>
+      <c r="AL13">
+        <v>1.25</v>
+      </c>
+      <c r="AM13">
+        <v>2.02</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>3</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>8</v>
+      </c>
+      <c r="AV13">
+        <v>4</v>
+      </c>
+      <c r="AW13">
+        <v>8</v>
+      </c>
+      <c r="AX13">
+        <v>4</v>
+      </c>
+      <c r="AY13">
+        <v>16</v>
+      </c>
+      <c r="AZ13">
+        <v>8</v>
+      </c>
+      <c r="BA13">
+        <v>1</v>
+      </c>
+      <c r="BB13">
+        <v>4</v>
+      </c>
+      <c r="BC13">
+        <v>5</v>
+      </c>
+      <c r="BD13">
+        <v>1.45</v>
+      </c>
+      <c r="BE13">
+        <v>6.75</v>
+      </c>
+      <c r="BF13">
+        <v>3.05</v>
+      </c>
+      <c r="BG13">
+        <v>1.26</v>
+      </c>
+      <c r="BH13">
+        <v>3.4</v>
+      </c>
+      <c r="BI13">
+        <v>1.48</v>
+      </c>
+      <c r="BJ13">
+        <v>2.45</v>
+      </c>
+      <c r="BK13">
+        <v>1.8</v>
+      </c>
+      <c r="BL13">
+        <v>2</v>
+      </c>
+      <c r="BM13">
+        <v>2.18</v>
+      </c>
+      <c r="BN13">
+        <v>1.58</v>
+      </c>
+      <c r="BO13">
+        <v>2.8</v>
+      </c>
+      <c r="BP13">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7491828</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45535.4375</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>2.5</v>
+      </c>
+      <c r="S14">
+        <v>2.3</v>
+      </c>
+      <c r="T14">
+        <v>1.22</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+      <c r="V14">
+        <v>2.1</v>
+      </c>
+      <c r="W14">
+        <v>1.67</v>
+      </c>
+      <c r="X14">
+        <v>4.5</v>
+      </c>
+      <c r="Y14">
+        <v>1.18</v>
+      </c>
+      <c r="Z14">
+        <v>3.9</v>
+      </c>
+      <c r="AA14">
+        <v>4.1</v>
+      </c>
+      <c r="AB14">
+        <v>1.78</v>
+      </c>
+      <c r="AC14">
+        <v>1.01</v>
+      </c>
+      <c r="AD14">
+        <v>23</v>
+      </c>
+      <c r="AE14">
+        <v>1.1</v>
+      </c>
+      <c r="AF14">
+        <v>5.5</v>
+      </c>
+      <c r="AG14">
+        <v>1.45</v>
+      </c>
+      <c r="AH14">
+        <v>2.7</v>
+      </c>
+      <c r="AI14">
+        <v>1.44</v>
+      </c>
+      <c r="AJ14">
+        <v>2.63</v>
+      </c>
+      <c r="AK14">
+        <v>2</v>
+      </c>
+      <c r="AL14">
+        <v>1.2</v>
+      </c>
+      <c r="AM14">
+        <v>1.28</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>2</v>
+      </c>
+      <c r="AV14">
+        <v>5</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>3</v>
+      </c>
+      <c r="AY14">
+        <v>2</v>
+      </c>
+      <c r="AZ14">
+        <v>8</v>
+      </c>
+      <c r="BA14">
+        <v>5</v>
+      </c>
+      <c r="BB14">
+        <v>6</v>
+      </c>
+      <c r="BC14">
+        <v>11</v>
+      </c>
+      <c r="BD14">
+        <v>2.55</v>
+      </c>
+      <c r="BE14">
+        <v>6.5</v>
+      </c>
+      <c r="BF14">
+        <v>1.6</v>
+      </c>
+      <c r="BG14">
+        <v>1.28</v>
+      </c>
+      <c r="BH14">
+        <v>3.3</v>
+      </c>
+      <c r="BI14">
+        <v>1.48</v>
+      </c>
+      <c r="BJ14">
+        <v>2.43</v>
+      </c>
+      <c r="BK14">
+        <v>1.79</v>
+      </c>
+      <c r="BL14">
+        <v>1.9</v>
+      </c>
+      <c r="BM14">
+        <v>2.23</v>
+      </c>
+      <c r="BN14">
+        <v>1.56</v>
+      </c>
+      <c r="BO14">
+        <v>2.85</v>
+      </c>
+      <c r="BP14">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7491830</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45535.4375</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>2.3</v>
+      </c>
+      <c r="S15">
+        <v>3.1</v>
+      </c>
+      <c r="T15">
+        <v>1.3</v>
+      </c>
+      <c r="U15">
+        <v>3.4</v>
+      </c>
+      <c r="V15">
+        <v>2.5</v>
+      </c>
+      <c r="W15">
+        <v>1.5</v>
+      </c>
+      <c r="X15">
+        <v>6</v>
+      </c>
+      <c r="Y15">
+        <v>1.13</v>
+      </c>
+      <c r="Z15">
+        <v>2.35</v>
+      </c>
+      <c r="AA15">
+        <v>3.7</v>
+      </c>
+      <c r="AB15">
+        <v>2.75</v>
+      </c>
+      <c r="AC15">
+        <v>1.03</v>
+      </c>
+      <c r="AD15">
+        <v>17</v>
+      </c>
+      <c r="AE15">
+        <v>1.17</v>
+      </c>
+      <c r="AF15">
+        <v>4.45</v>
+      </c>
+      <c r="AG15">
+        <v>1.58</v>
+      </c>
+      <c r="AH15">
+        <v>2.25</v>
+      </c>
+      <c r="AI15">
+        <v>1.53</v>
+      </c>
+      <c r="AJ15">
+        <v>2.38</v>
+      </c>
+      <c r="AK15">
+        <v>1.5</v>
+      </c>
+      <c r="AL15">
+        <v>1.24</v>
+      </c>
+      <c r="AM15">
+        <v>1.55</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>3</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>5</v>
+      </c>
+      <c r="AV15">
+        <v>7</v>
+      </c>
+      <c r="AW15">
+        <v>9</v>
+      </c>
+      <c r="AX15">
+        <v>5</v>
+      </c>
+      <c r="AY15">
+        <v>14</v>
+      </c>
+      <c r="AZ15">
+        <v>12</v>
+      </c>
+      <c r="BA15">
+        <v>3</v>
+      </c>
+      <c r="BB15">
+        <v>4</v>
+      </c>
+      <c r="BC15">
+        <v>7</v>
+      </c>
+      <c r="BD15">
+        <v>1.66</v>
+      </c>
+      <c r="BE15">
+        <v>6.4</v>
+      </c>
+      <c r="BF15">
+        <v>2.48</v>
+      </c>
+      <c r="BG15">
+        <v>1.3</v>
+      </c>
+      <c r="BH15">
+        <v>3.05</v>
+      </c>
+      <c r="BI15">
+        <v>1.53</v>
+      </c>
+      <c r="BJ15">
+        <v>2.32</v>
+      </c>
+      <c r="BK15">
+        <v>1.88</v>
+      </c>
+      <c r="BL15">
+        <v>1.81</v>
+      </c>
+      <c r="BM15">
+        <v>2</v>
+      </c>
+      <c r="BN15">
+        <v>1.8</v>
+      </c>
+      <c r="BO15">
+        <v>3.05</v>
+      </c>
+      <c r="BP15">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7491831</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45535.4375</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16">
+        <v>3.6</v>
+      </c>
+      <c r="R16">
+        <v>2.25</v>
+      </c>
+      <c r="S16">
+        <v>2.75</v>
+      </c>
+      <c r="T16">
+        <v>1.33</v>
+      </c>
+      <c r="U16">
+        <v>3.25</v>
+      </c>
+      <c r="V16">
+        <v>2.63</v>
+      </c>
+      <c r="W16">
+        <v>1.44</v>
+      </c>
+      <c r="X16">
+        <v>6.5</v>
+      </c>
+      <c r="Y16">
+        <v>1.11</v>
+      </c>
+      <c r="Z16">
+        <v>3</v>
+      </c>
+      <c r="AA16">
+        <v>3.5</v>
+      </c>
+      <c r="AB16">
+        <v>2.25</v>
+      </c>
+      <c r="AC16">
+        <v>1.04</v>
+      </c>
+      <c r="AD16">
+        <v>14.75</v>
+      </c>
+      <c r="AE16">
+        <v>1.23</v>
+      </c>
+      <c r="AF16">
+        <v>4.2</v>
+      </c>
+      <c r="AG16">
+        <v>1.77</v>
+      </c>
+      <c r="AH16">
+        <v>1.97</v>
+      </c>
+      <c r="AI16">
+        <v>1.62</v>
+      </c>
+      <c r="AJ16">
+        <v>2.2</v>
+      </c>
+      <c r="AK16">
+        <v>1.7</v>
+      </c>
+      <c r="AL16">
+        <v>1.29</v>
+      </c>
+      <c r="AM16">
+        <v>1.36</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>3</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>6</v>
+      </c>
+      <c r="AV16">
+        <v>6</v>
+      </c>
+      <c r="AW16">
+        <v>6</v>
+      </c>
+      <c r="AX16">
+        <v>4</v>
+      </c>
+      <c r="AY16">
+        <v>12</v>
+      </c>
+      <c r="AZ16">
+        <v>10</v>
+      </c>
+      <c r="BA16">
+        <v>1</v>
+      </c>
+      <c r="BB16">
+        <v>7</v>
+      </c>
+      <c r="BC16">
+        <v>8</v>
+      </c>
+      <c r="BD16">
+        <v>1.98</v>
+      </c>
+      <c r="BE16">
+        <v>6.5</v>
+      </c>
+      <c r="BF16">
+        <v>1.98</v>
+      </c>
+      <c r="BG16">
+        <v>1.25</v>
+      </c>
+      <c r="BH16">
+        <v>3.45</v>
+      </c>
+      <c r="BI16">
+        <v>1.44</v>
+      </c>
+      <c r="BJ16">
+        <v>2.55</v>
+      </c>
+      <c r="BK16">
+        <v>1.71</v>
+      </c>
+      <c r="BL16">
+        <v>2</v>
+      </c>
+      <c r="BM16">
+        <v>2.08</v>
+      </c>
+      <c r="BN16">
+        <v>1.65</v>
+      </c>
+      <c r="BO16">
+        <v>2.65</v>
+      </c>
+      <c r="BP16">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7491823</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45535.5625</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17">
+        <v>2.3</v>
+      </c>
+      <c r="R17">
+        <v>2.5</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>1.25</v>
+      </c>
+      <c r="U17">
+        <v>3.75</v>
+      </c>
+      <c r="V17">
+        <v>2.2</v>
+      </c>
+      <c r="W17">
+        <v>1.62</v>
+      </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <v>1.17</v>
+      </c>
+      <c r="Z17">
+        <v>1.8</v>
+      </c>
+      <c r="AA17">
+        <v>4</v>
+      </c>
+      <c r="AB17">
+        <v>3.75</v>
+      </c>
+      <c r="AC17">
+        <v>1.02</v>
+      </c>
+      <c r="AD17">
+        <v>21.5</v>
+      </c>
+      <c r="AE17">
+        <v>1.12</v>
+      </c>
+      <c r="AF17">
+        <v>5.1</v>
+      </c>
+      <c r="AG17">
+        <v>1.58</v>
+      </c>
+      <c r="AH17">
+        <v>2.23</v>
+      </c>
+      <c r="AI17">
+        <v>1.5</v>
+      </c>
+      <c r="AJ17">
+        <v>2.5</v>
+      </c>
+      <c r="AK17">
+        <v>1.25</v>
+      </c>
+      <c r="AL17">
+        <v>1.25</v>
+      </c>
+      <c r="AM17">
+        <v>2</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>3</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>11</v>
+      </c>
+      <c r="AV17">
+        <v>5</v>
+      </c>
+      <c r="AW17">
+        <v>9</v>
+      </c>
+      <c r="AX17">
+        <v>3</v>
+      </c>
+      <c r="AY17">
+        <v>20</v>
+      </c>
+      <c r="AZ17">
+        <v>8</v>
+      </c>
+      <c r="BA17">
+        <v>18</v>
+      </c>
+      <c r="BB17">
+        <v>2</v>
+      </c>
+      <c r="BC17">
+        <v>20</v>
+      </c>
+      <c r="BD17">
+        <v>1.5</v>
+      </c>
+      <c r="BE17">
+        <v>6.5</v>
+      </c>
+      <c r="BF17">
+        <v>2.9</v>
+      </c>
+      <c r="BG17">
+        <v>1.36</v>
+      </c>
+      <c r="BH17">
+        <v>2.8</v>
+      </c>
+      <c r="BI17">
+        <v>1.62</v>
+      </c>
+      <c r="BJ17">
+        <v>2.14</v>
+      </c>
+      <c r="BK17">
+        <v>1.82</v>
+      </c>
+      <c r="BL17">
+        <v>1.98</v>
+      </c>
+      <c r="BM17">
+        <v>2.55</v>
+      </c>
+      <c r="BN17">
+        <v>1.44</v>
+      </c>
+      <c r="BO17">
+        <v>3.3</v>
+      </c>
+      <c r="BP17">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="115">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -274,12 +274,12 @@
     <t>Bayer Leverkusen</t>
   </si>
   <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
     <t>Bayern München</t>
   </si>
   <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
     <t>['59', '85']</t>
   </si>
   <si>
@@ -319,6 +319,12 @@
     <t>['38', '45']</t>
   </si>
   <si>
+    <t>['9', '30', '69', '73']</t>
+  </si>
+  <si>
+    <t>['38', '78']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -340,13 +346,13 @@
     <t>['66', '82']</t>
   </si>
   <si>
-    <t>['43', '61', '90+4']</t>
+    <t>['43', '62', '90+4']</t>
   </si>
   <si>
     <t>['54']</t>
   </si>
   <si>
-    <t>['66', '78']</t>
+    <t>['67', '78']</t>
   </si>
   <si>
     <t>['27', '30']</t>
@@ -714,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP17"/>
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -973,7 +979,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1385,7 +1391,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1591,7 +1597,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1797,7 +1803,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2003,7 +2009,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2391,7 +2397,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2415,7 +2421,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2597,7 +2603,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2621,7 +2627,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3033,7 +3039,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3239,7 +3245,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q13">
         <v>2.3</v>
@@ -3651,7 +3657,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3857,7 +3863,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4063,7 +4069,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4220,6 +4226,418 @@
       </c>
       <c r="BP17">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7491827</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45536.4375</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>2.25</v>
+      </c>
+      <c r="S18">
+        <v>3.25</v>
+      </c>
+      <c r="T18">
+        <v>1.33</v>
+      </c>
+      <c r="U18">
+        <v>3.25</v>
+      </c>
+      <c r="V18">
+        <v>2.63</v>
+      </c>
+      <c r="W18">
+        <v>1.44</v>
+      </c>
+      <c r="X18">
+        <v>6.5</v>
+      </c>
+      <c r="Y18">
+        <v>1.11</v>
+      </c>
+      <c r="Z18">
+        <v>2.25</v>
+      </c>
+      <c r="AA18">
+        <v>3.45</v>
+      </c>
+      <c r="AB18">
+        <v>3</v>
+      </c>
+      <c r="AC18">
+        <v>1.05</v>
+      </c>
+      <c r="AD18">
+        <v>10.5</v>
+      </c>
+      <c r="AE18">
+        <v>1.22</v>
+      </c>
+      <c r="AF18">
+        <v>3.82</v>
+      </c>
+      <c r="AG18">
+        <v>1.64</v>
+      </c>
+      <c r="AH18">
+        <v>2.15</v>
+      </c>
+      <c r="AI18">
+        <v>1.57</v>
+      </c>
+      <c r="AJ18">
+        <v>2.25</v>
+      </c>
+      <c r="AK18">
+        <v>1.38</v>
+      </c>
+      <c r="AL18">
+        <v>1.27</v>
+      </c>
+      <c r="AM18">
+        <v>1.52</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>3</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>9</v>
+      </c>
+      <c r="AV18">
+        <v>2</v>
+      </c>
+      <c r="AW18">
+        <v>5</v>
+      </c>
+      <c r="AX18">
+        <v>11</v>
+      </c>
+      <c r="AY18">
+        <v>14</v>
+      </c>
+      <c r="AZ18">
+        <v>13</v>
+      </c>
+      <c r="BA18">
+        <v>5</v>
+      </c>
+      <c r="BB18">
+        <v>6</v>
+      </c>
+      <c r="BC18">
+        <v>11</v>
+      </c>
+      <c r="BD18">
+        <v>1.75</v>
+      </c>
+      <c r="BE18">
+        <v>6.4</v>
+      </c>
+      <c r="BF18">
+        <v>2.32</v>
+      </c>
+      <c r="BG18">
+        <v>1.26</v>
+      </c>
+      <c r="BH18">
+        <v>3.4</v>
+      </c>
+      <c r="BI18">
+        <v>1.34</v>
+      </c>
+      <c r="BJ18">
+        <v>3</v>
+      </c>
+      <c r="BK18">
+        <v>1.63</v>
+      </c>
+      <c r="BL18">
+        <v>2.13</v>
+      </c>
+      <c r="BM18">
+        <v>2.1</v>
+      </c>
+      <c r="BN18">
+        <v>1.65</v>
+      </c>
+      <c r="BO18">
+        <v>2.75</v>
+      </c>
+      <c r="BP18">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7491825</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45536.52083333334</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q19">
+        <v>1.53</v>
+      </c>
+      <c r="R19">
+        <v>3.25</v>
+      </c>
+      <c r="S19">
+        <v>8.5</v>
+      </c>
+      <c r="T19">
+        <v>1.14</v>
+      </c>
+      <c r="U19">
+        <v>5.5</v>
+      </c>
+      <c r="V19">
+        <v>1.73</v>
+      </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19">
+        <v>3.4</v>
+      </c>
+      <c r="Y19">
+        <v>1.3</v>
+      </c>
+      <c r="Z19">
+        <v>1.2</v>
+      </c>
+      <c r="AA19">
+        <v>7</v>
+      </c>
+      <c r="AB19">
+        <v>12</v>
+      </c>
+      <c r="AC19">
+        <v>1.01</v>
+      </c>
+      <c r="AD19">
+        <v>46.5</v>
+      </c>
+      <c r="AE19">
+        <v>1.03</v>
+      </c>
+      <c r="AF19">
+        <v>8</v>
+      </c>
+      <c r="AG19">
+        <v>1.28</v>
+      </c>
+      <c r="AH19">
+        <v>3.55</v>
+      </c>
+      <c r="AI19">
+        <v>1.67</v>
+      </c>
+      <c r="AJ19">
+        <v>2.1</v>
+      </c>
+      <c r="AK19">
+        <v>1.06</v>
+      </c>
+      <c r="AL19">
+        <v>1.09</v>
+      </c>
+      <c r="AM19">
+        <v>4.5</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>3</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>4</v>
+      </c>
+      <c r="AV19">
+        <v>4</v>
+      </c>
+      <c r="AW19">
+        <v>4</v>
+      </c>
+      <c r="AX19">
+        <v>4</v>
+      </c>
+      <c r="AY19">
+        <v>8</v>
+      </c>
+      <c r="AZ19">
+        <v>8</v>
+      </c>
+      <c r="BA19">
+        <v>2</v>
+      </c>
+      <c r="BB19">
+        <v>4</v>
+      </c>
+      <c r="BC19">
+        <v>6</v>
+      </c>
+      <c r="BD19">
+        <v>1.12</v>
+      </c>
+      <c r="BE19">
+        <v>10</v>
+      </c>
+      <c r="BF19">
+        <v>6.4</v>
+      </c>
+      <c r="BG19">
+        <v>1.27</v>
+      </c>
+      <c r="BH19">
+        <v>3.55</v>
+      </c>
+      <c r="BI19">
+        <v>1.48</v>
+      </c>
+      <c r="BJ19">
+        <v>2.5</v>
+      </c>
+      <c r="BK19">
+        <v>1.8</v>
+      </c>
+      <c r="BL19">
+        <v>1.95</v>
+      </c>
+      <c r="BM19">
+        <v>2.25</v>
+      </c>
+      <c r="BN19">
+        <v>1.57</v>
+      </c>
+      <c r="BO19">
+        <v>3</v>
+      </c>
+      <c r="BP19">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="117">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -325,6 +325,9 @@
     <t>['38', '78']</t>
   </si>
   <si>
+    <t>['11', '17', '41', '90+3']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -359,6 +362,9 @@
   </si>
   <si>
     <t>['45+7', '57', '80']</t>
+  </si>
+  <si>
+    <t>['39', '74']</t>
   </si>
 </sst>
 </file>
@@ -720,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -979,7 +985,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1391,7 +1397,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1597,7 +1603,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1803,7 +1809,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2009,7 +2015,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2421,7 +2427,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2627,7 +2633,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2708,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3039,7 +3045,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3245,7 +3251,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q13">
         <v>2.3</v>
@@ -3657,7 +3663,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3863,7 +3869,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4069,7 +4075,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4638,6 +4644,212 @@
       </c>
       <c r="BP19">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7491833</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45548.64583333334</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>6</v>
+      </c>
+      <c r="O20" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q20">
+        <v>1.8</v>
+      </c>
+      <c r="R20">
+        <v>2.63</v>
+      </c>
+      <c r="S20">
+        <v>7</v>
+      </c>
+      <c r="T20">
+        <v>1.25</v>
+      </c>
+      <c r="U20">
+        <v>3.75</v>
+      </c>
+      <c r="V20">
+        <v>2.2</v>
+      </c>
+      <c r="W20">
+        <v>1.62</v>
+      </c>
+      <c r="X20">
+        <v>5</v>
+      </c>
+      <c r="Y20">
+        <v>1.17</v>
+      </c>
+      <c r="Z20">
+        <v>1.37</v>
+      </c>
+      <c r="AA20">
+        <v>5.5</v>
+      </c>
+      <c r="AB20">
+        <v>7.5</v>
+      </c>
+      <c r="AC20">
+        <v>1.02</v>
+      </c>
+      <c r="AD20">
+        <v>21</v>
+      </c>
+      <c r="AE20">
+        <v>1.13</v>
+      </c>
+      <c r="AF20">
+        <v>4.85</v>
+      </c>
+      <c r="AG20">
+        <v>1.49</v>
+      </c>
+      <c r="AH20">
+        <v>2.51</v>
+      </c>
+      <c r="AI20">
+        <v>1.8</v>
+      </c>
+      <c r="AJ20">
+        <v>1.95</v>
+      </c>
+      <c r="AK20">
+        <v>1.1</v>
+      </c>
+      <c r="AL20">
+        <v>1.18</v>
+      </c>
+      <c r="AM20">
+        <v>3.36</v>
+      </c>
+      <c r="AN20">
+        <v>3</v>
+      </c>
+      <c r="AO20">
+        <v>3</v>
+      </c>
+      <c r="AP20">
+        <v>3</v>
+      </c>
+      <c r="AQ20">
+        <v>1.5</v>
+      </c>
+      <c r="AR20">
+        <v>1.89</v>
+      </c>
+      <c r="AS20">
+        <v>0.87</v>
+      </c>
+      <c r="AT20">
+        <v>2.76</v>
+      </c>
+      <c r="AU20">
+        <v>7</v>
+      </c>
+      <c r="AV20">
+        <v>5</v>
+      </c>
+      <c r="AW20">
+        <v>4</v>
+      </c>
+      <c r="AX20">
+        <v>2</v>
+      </c>
+      <c r="AY20">
+        <v>11</v>
+      </c>
+      <c r="AZ20">
+        <v>7</v>
+      </c>
+      <c r="BA20">
+        <v>8</v>
+      </c>
+      <c r="BB20">
+        <v>1</v>
+      </c>
+      <c r="BC20">
+        <v>9</v>
+      </c>
+      <c r="BD20">
+        <v>1.33</v>
+      </c>
+      <c r="BE20">
+        <v>7.5</v>
+      </c>
+      <c r="BF20">
+        <v>3.65</v>
+      </c>
+      <c r="BG20">
+        <v>1.21</v>
+      </c>
+      <c r="BH20">
+        <v>3.8</v>
+      </c>
+      <c r="BI20">
+        <v>1.38</v>
+      </c>
+      <c r="BJ20">
+        <v>2.75</v>
+      </c>
+      <c r="BK20">
+        <v>1.62</v>
+      </c>
+      <c r="BL20">
+        <v>2.14</v>
+      </c>
+      <c r="BM20">
+        <v>1.98</v>
+      </c>
+      <c r="BN20">
+        <v>1.73</v>
+      </c>
+      <c r="BO20">
+        <v>2.45</v>
+      </c>
+      <c r="BP20">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -328,6 +328,21 @@
     <t>['11', '17', '41', '90+3']</t>
   </si>
   <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['58', '61']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -365,6 +380,21 @@
   </si>
   <si>
     <t>['39', '74']</t>
+  </si>
+  <si>
+    <t>['17', '30', '72', '75']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['30', '82']</t>
+  </si>
+  <si>
+    <t>['21', '57', '61']</t>
+  </si>
+  <si>
+    <t>['1', '7', '13', '43', '65', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -726,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP20"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -985,7 +1015,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1269,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1397,7 +1427,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1475,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1603,7 +1633,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1684,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1809,7 +1839,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2015,7 +2045,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2302,7 +2332,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2427,7 +2457,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2633,7 +2663,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3045,7 +3075,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3251,7 +3281,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>2.3</v>
@@ -3663,7 +3693,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3869,7 +3899,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4075,7 +4105,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4693,7 +4723,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4850,6 +4880,1242 @@
       </c>
       <c r="BP20">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7491834</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45549.4375</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21" t="s">
+        <v>104</v>
+      </c>
+      <c r="P21" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q21">
+        <v>4.75</v>
+      </c>
+      <c r="R21">
+        <v>2.75</v>
+      </c>
+      <c r="S21">
+        <v>1.95</v>
+      </c>
+      <c r="T21">
+        <v>1.18</v>
+      </c>
+      <c r="U21">
+        <v>4.5</v>
+      </c>
+      <c r="V21">
+        <v>1.83</v>
+      </c>
+      <c r="W21">
+        <v>1.83</v>
+      </c>
+      <c r="X21">
+        <v>4</v>
+      </c>
+      <c r="Y21">
+        <v>1.22</v>
+      </c>
+      <c r="Z21">
+        <v>5.25</v>
+      </c>
+      <c r="AA21">
+        <v>5</v>
+      </c>
+      <c r="AB21">
+        <v>1.53</v>
+      </c>
+      <c r="AC21">
+        <v>1.01</v>
+      </c>
+      <c r="AD21">
+        <v>34</v>
+      </c>
+      <c r="AE21">
+        <v>1.09</v>
+      </c>
+      <c r="AF21">
+        <v>7.5</v>
+      </c>
+      <c r="AG21">
+        <v>1.45</v>
+      </c>
+      <c r="AH21">
+        <v>2.7</v>
+      </c>
+      <c r="AI21">
+        <v>1.44</v>
+      </c>
+      <c r="AJ21">
+        <v>2.63</v>
+      </c>
+      <c r="AK21">
+        <v>2.45</v>
+      </c>
+      <c r="AL21">
+        <v>1.15</v>
+      </c>
+      <c r="AM21">
+        <v>1.18</v>
+      </c>
+      <c r="AN21">
+        <v>3</v>
+      </c>
+      <c r="AO21">
+        <v>3</v>
+      </c>
+      <c r="AP21">
+        <v>1.5</v>
+      </c>
+      <c r="AQ21">
+        <v>3</v>
+      </c>
+      <c r="AR21">
+        <v>2.26</v>
+      </c>
+      <c r="AS21">
+        <v>2.43</v>
+      </c>
+      <c r="AT21">
+        <v>4.69</v>
+      </c>
+      <c r="AU21">
+        <v>6</v>
+      </c>
+      <c r="AV21">
+        <v>9</v>
+      </c>
+      <c r="AW21">
+        <v>4</v>
+      </c>
+      <c r="AX21">
+        <v>6</v>
+      </c>
+      <c r="AY21">
+        <v>10</v>
+      </c>
+      <c r="AZ21">
+        <v>15</v>
+      </c>
+      <c r="BA21">
+        <v>4</v>
+      </c>
+      <c r="BB21">
+        <v>12</v>
+      </c>
+      <c r="BC21">
+        <v>16</v>
+      </c>
+      <c r="BD21">
+        <v>3.3</v>
+      </c>
+      <c r="BE21">
+        <v>7</v>
+      </c>
+      <c r="BF21">
+        <v>1.4</v>
+      </c>
+      <c r="BG21">
+        <v>1.2</v>
+      </c>
+      <c r="BH21">
+        <v>3.9</v>
+      </c>
+      <c r="BI21">
+        <v>1.37</v>
+      </c>
+      <c r="BJ21">
+        <v>2.8</v>
+      </c>
+      <c r="BK21">
+        <v>1.6</v>
+      </c>
+      <c r="BL21">
+        <v>2.17</v>
+      </c>
+      <c r="BM21">
+        <v>1.96</v>
+      </c>
+      <c r="BN21">
+        <v>1.74</v>
+      </c>
+      <c r="BO21">
+        <v>2.43</v>
+      </c>
+      <c r="BP21">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7491835</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45549.4375</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q22">
+        <v>2.25</v>
+      </c>
+      <c r="R22">
+        <v>2.38</v>
+      </c>
+      <c r="S22">
+        <v>4.5</v>
+      </c>
+      <c r="T22">
+        <v>1.3</v>
+      </c>
+      <c r="U22">
+        <v>3.4</v>
+      </c>
+      <c r="V22">
+        <v>2.5</v>
+      </c>
+      <c r="W22">
+        <v>1.5</v>
+      </c>
+      <c r="X22">
+        <v>6</v>
+      </c>
+      <c r="Y22">
+        <v>1.13</v>
+      </c>
+      <c r="Z22">
+        <v>1.7</v>
+      </c>
+      <c r="AA22">
+        <v>4</v>
+      </c>
+      <c r="AB22">
+        <v>4.6</v>
+      </c>
+      <c r="AC22">
+        <v>1.03</v>
+      </c>
+      <c r="AD22">
+        <v>15</v>
+      </c>
+      <c r="AE22">
+        <v>1.22</v>
+      </c>
+      <c r="AF22">
+        <v>4.33</v>
+      </c>
+      <c r="AG22">
+        <v>1.62</v>
+      </c>
+      <c r="AH22">
+        <v>2.25</v>
+      </c>
+      <c r="AI22">
+        <v>1.67</v>
+      </c>
+      <c r="AJ22">
+        <v>2.1</v>
+      </c>
+      <c r="AK22">
+        <v>1.2</v>
+      </c>
+      <c r="AL22">
+        <v>1.2</v>
+      </c>
+      <c r="AM22">
+        <v>2.15</v>
+      </c>
+      <c r="AN22">
+        <v>3</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>3</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>1.5</v>
+      </c>
+      <c r="AS22">
+        <v>0.87</v>
+      </c>
+      <c r="AT22">
+        <v>2.37</v>
+      </c>
+      <c r="AU22">
+        <v>7</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>5</v>
+      </c>
+      <c r="AX22">
+        <v>5</v>
+      </c>
+      <c r="AY22">
+        <v>12</v>
+      </c>
+      <c r="AZ22">
+        <v>5</v>
+      </c>
+      <c r="BA22">
+        <v>5</v>
+      </c>
+      <c r="BB22">
+        <v>6</v>
+      </c>
+      <c r="BC22">
+        <v>11</v>
+      </c>
+      <c r="BD22">
+        <v>1.64</v>
+      </c>
+      <c r="BE22">
+        <v>6.75</v>
+      </c>
+      <c r="BF22">
+        <v>2.5</v>
+      </c>
+      <c r="BG22">
+        <v>1.3</v>
+      </c>
+      <c r="BH22">
+        <v>3.15</v>
+      </c>
+      <c r="BI22">
+        <v>1.52</v>
+      </c>
+      <c r="BJ22">
+        <v>2.33</v>
+      </c>
+      <c r="BK22">
+        <v>1.85</v>
+      </c>
+      <c r="BL22">
+        <v>1.83</v>
+      </c>
+      <c r="BM22">
+        <v>2.32</v>
+      </c>
+      <c r="BN22">
+        <v>1.52</v>
+      </c>
+      <c r="BO22">
+        <v>2.95</v>
+      </c>
+      <c r="BP22">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7491837</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45549.4375</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23">
+        <v>3.2</v>
+      </c>
+      <c r="R23">
+        <v>2.3</v>
+      </c>
+      <c r="S23">
+        <v>3.1</v>
+      </c>
+      <c r="T23">
+        <v>1.33</v>
+      </c>
+      <c r="U23">
+        <v>3.25</v>
+      </c>
+      <c r="V23">
+        <v>2.5</v>
+      </c>
+      <c r="W23">
+        <v>1.5</v>
+      </c>
+      <c r="X23">
+        <v>6.5</v>
+      </c>
+      <c r="Y23">
+        <v>1.11</v>
+      </c>
+      <c r="Z23">
+        <v>2.7</v>
+      </c>
+      <c r="AA23">
+        <v>3.6</v>
+      </c>
+      <c r="AB23">
+        <v>2.5</v>
+      </c>
+      <c r="AC23">
+        <v>1.03</v>
+      </c>
+      <c r="AD23">
+        <v>13</v>
+      </c>
+      <c r="AE23">
+        <v>1.22</v>
+      </c>
+      <c r="AF23">
+        <v>4.33</v>
+      </c>
+      <c r="AG23">
+        <v>1.67</v>
+      </c>
+      <c r="AH23">
+        <v>2.15</v>
+      </c>
+      <c r="AI23">
+        <v>1.57</v>
+      </c>
+      <c r="AJ23">
+        <v>2.25</v>
+      </c>
+      <c r="AK23">
+        <v>1.53</v>
+      </c>
+      <c r="AL23">
+        <v>1.26</v>
+      </c>
+      <c r="AM23">
+        <v>1.5</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>1.5</v>
+      </c>
+      <c r="AR23">
+        <v>1.03</v>
+      </c>
+      <c r="AS23">
+        <v>1.12</v>
+      </c>
+      <c r="AT23">
+        <v>2.15</v>
+      </c>
+      <c r="AU23">
+        <v>4</v>
+      </c>
+      <c r="AV23">
+        <v>5</v>
+      </c>
+      <c r="AW23">
+        <v>6</v>
+      </c>
+      <c r="AX23">
+        <v>2</v>
+      </c>
+      <c r="AY23">
+        <v>10</v>
+      </c>
+      <c r="AZ23">
+        <v>7</v>
+      </c>
+      <c r="BA23">
+        <v>5</v>
+      </c>
+      <c r="BB23">
+        <v>4</v>
+      </c>
+      <c r="BC23">
+        <v>9</v>
+      </c>
+      <c r="BD23">
+        <v>1.93</v>
+      </c>
+      <c r="BE23">
+        <v>6.4</v>
+      </c>
+      <c r="BF23">
+        <v>2.07</v>
+      </c>
+      <c r="BG23">
+        <v>1.25</v>
+      </c>
+      <c r="BH23">
+        <v>3.4</v>
+      </c>
+      <c r="BI23">
+        <v>1.44</v>
+      </c>
+      <c r="BJ23">
+        <v>2.55</v>
+      </c>
+      <c r="BK23">
+        <v>1.73</v>
+      </c>
+      <c r="BL23">
+        <v>1.96</v>
+      </c>
+      <c r="BM23">
+        <v>2.15</v>
+      </c>
+      <c r="BN23">
+        <v>1.61</v>
+      </c>
+      <c r="BO23">
+        <v>2.7</v>
+      </c>
+      <c r="BP23">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7491839</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45549.4375</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24" t="s">
+        <v>107</v>
+      </c>
+      <c r="P24" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q24">
+        <v>3.1</v>
+      </c>
+      <c r="R24">
+        <v>2.5</v>
+      </c>
+      <c r="S24">
+        <v>2.75</v>
+      </c>
+      <c r="T24">
+        <v>1.25</v>
+      </c>
+      <c r="U24">
+        <v>3.75</v>
+      </c>
+      <c r="V24">
+        <v>2.1</v>
+      </c>
+      <c r="W24">
+        <v>1.67</v>
+      </c>
+      <c r="X24">
+        <v>4.5</v>
+      </c>
+      <c r="Y24">
+        <v>1.18</v>
+      </c>
+      <c r="Z24">
+        <v>2.75</v>
+      </c>
+      <c r="AA24">
+        <v>3.95</v>
+      </c>
+      <c r="AB24">
+        <v>2.3</v>
+      </c>
+      <c r="AC24">
+        <v>1.01</v>
+      </c>
+      <c r="AD24">
+        <v>23</v>
+      </c>
+      <c r="AE24">
+        <v>1.14</v>
+      </c>
+      <c r="AF24">
+        <v>6</v>
+      </c>
+      <c r="AG24">
+        <v>1.5</v>
+      </c>
+      <c r="AH24">
+        <v>2.55</v>
+      </c>
+      <c r="AI24">
+        <v>1.44</v>
+      </c>
+      <c r="AJ24">
+        <v>2.63</v>
+      </c>
+      <c r="AK24">
+        <v>1.68</v>
+      </c>
+      <c r="AL24">
+        <v>1.22</v>
+      </c>
+      <c r="AM24">
+        <v>1.45</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>1.5</v>
+      </c>
+      <c r="AR24">
+        <v>1.46</v>
+      </c>
+      <c r="AS24">
+        <v>1.03</v>
+      </c>
+      <c r="AT24">
+        <v>2.49</v>
+      </c>
+      <c r="AU24">
+        <v>7</v>
+      </c>
+      <c r="AV24">
+        <v>6</v>
+      </c>
+      <c r="AW24">
+        <v>6</v>
+      </c>
+      <c r="AX24">
+        <v>1</v>
+      </c>
+      <c r="AY24">
+        <v>13</v>
+      </c>
+      <c r="AZ24">
+        <v>7</v>
+      </c>
+      <c r="BA24">
+        <v>6</v>
+      </c>
+      <c r="BB24">
+        <v>2</v>
+      </c>
+      <c r="BC24">
+        <v>8</v>
+      </c>
+      <c r="BD24">
+        <v>2.17</v>
+      </c>
+      <c r="BE24">
+        <v>6.75</v>
+      </c>
+      <c r="BF24">
+        <v>1.82</v>
+      </c>
+      <c r="BG24">
+        <v>1.19</v>
+      </c>
+      <c r="BH24">
+        <v>3.9</v>
+      </c>
+      <c r="BI24">
+        <v>1.36</v>
+      </c>
+      <c r="BJ24">
+        <v>2.8</v>
+      </c>
+      <c r="BK24">
+        <v>1.61</v>
+      </c>
+      <c r="BL24">
+        <v>2.15</v>
+      </c>
+      <c r="BM24">
+        <v>1.95</v>
+      </c>
+      <c r="BN24">
+        <v>1.74</v>
+      </c>
+      <c r="BO24">
+        <v>2.43</v>
+      </c>
+      <c r="BP24">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7491832</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45549.4375</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q25">
+        <v>1.95</v>
+      </c>
+      <c r="R25">
+        <v>2.5</v>
+      </c>
+      <c r="S25">
+        <v>6</v>
+      </c>
+      <c r="T25">
+        <v>1.3</v>
+      </c>
+      <c r="U25">
+        <v>3.4</v>
+      </c>
+      <c r="V25">
+        <v>2.5</v>
+      </c>
+      <c r="W25">
+        <v>1.5</v>
+      </c>
+      <c r="X25">
+        <v>6</v>
+      </c>
+      <c r="Y25">
+        <v>1.13</v>
+      </c>
+      <c r="Z25">
+        <v>1.47</v>
+      </c>
+      <c r="AA25">
+        <v>4.6</v>
+      </c>
+      <c r="AB25">
+        <v>6.25</v>
+      </c>
+      <c r="AC25">
+        <v>1.02</v>
+      </c>
+      <c r="AD25">
+        <v>17</v>
+      </c>
+      <c r="AE25">
+        <v>1.19</v>
+      </c>
+      <c r="AF25">
+        <v>4.75</v>
+      </c>
+      <c r="AG25">
+        <v>1.62</v>
+      </c>
+      <c r="AH25">
+        <v>2.25</v>
+      </c>
+      <c r="AI25">
+        <v>1.8</v>
+      </c>
+      <c r="AJ25">
+        <v>1.95</v>
+      </c>
+      <c r="AK25">
+        <v>1.09</v>
+      </c>
+      <c r="AL25">
+        <v>1.15</v>
+      </c>
+      <c r="AM25">
+        <v>2.85</v>
+      </c>
+      <c r="AN25">
+        <v>3</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>1.16</v>
+      </c>
+      <c r="AS25">
+        <v>1.54</v>
+      </c>
+      <c r="AT25">
+        <v>2.7</v>
+      </c>
+      <c r="AU25">
+        <v>4</v>
+      </c>
+      <c r="AV25">
+        <v>4</v>
+      </c>
+      <c r="AW25">
+        <v>5</v>
+      </c>
+      <c r="AX25">
+        <v>4</v>
+      </c>
+      <c r="AY25">
+        <v>9</v>
+      </c>
+      <c r="AZ25">
+        <v>8</v>
+      </c>
+      <c r="BA25">
+        <v>6</v>
+      </c>
+      <c r="BB25">
+        <v>5</v>
+      </c>
+      <c r="BC25">
+        <v>11</v>
+      </c>
+      <c r="BD25">
+        <v>1.28</v>
+      </c>
+      <c r="BE25">
+        <v>7.5</v>
+      </c>
+      <c r="BF25">
+        <v>4.1</v>
+      </c>
+      <c r="BG25">
+        <v>1.28</v>
+      </c>
+      <c r="BH25">
+        <v>3.25</v>
+      </c>
+      <c r="BI25">
+        <v>1.48</v>
+      </c>
+      <c r="BJ25">
+        <v>2.43</v>
+      </c>
+      <c r="BK25">
+        <v>1.79</v>
+      </c>
+      <c r="BL25">
+        <v>1.9</v>
+      </c>
+      <c r="BM25">
+        <v>2.23</v>
+      </c>
+      <c r="BN25">
+        <v>1.57</v>
+      </c>
+      <c r="BO25">
+        <v>2.85</v>
+      </c>
+      <c r="BP25">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7491840</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45549.5625</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>7</v>
+      </c>
+      <c r="O26" t="s">
+        <v>108</v>
+      </c>
+      <c r="P26" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q26">
+        <v>7.5</v>
+      </c>
+      <c r="R26">
+        <v>3.1</v>
+      </c>
+      <c r="S26">
+        <v>1.62</v>
+      </c>
+      <c r="T26">
+        <v>1.17</v>
+      </c>
+      <c r="U26">
+        <v>5</v>
+      </c>
+      <c r="V26">
+        <v>1.8</v>
+      </c>
+      <c r="W26">
+        <v>1.91</v>
+      </c>
+      <c r="X26">
+        <v>3.5</v>
+      </c>
+      <c r="Y26">
+        <v>1.29</v>
+      </c>
+      <c r="Z26">
+        <v>10</v>
+      </c>
+      <c r="AA26">
+        <v>7</v>
+      </c>
+      <c r="AB26">
+        <v>1.22</v>
+      </c>
+      <c r="AC26">
+        <v>1.01</v>
+      </c>
+      <c r="AD26">
+        <v>41</v>
+      </c>
+      <c r="AE26">
+        <v>1.04</v>
+      </c>
+      <c r="AF26">
+        <v>7.5</v>
+      </c>
+      <c r="AG26">
+        <v>1.27</v>
+      </c>
+      <c r="AH26">
+        <v>3.54</v>
+      </c>
+      <c r="AI26">
+        <v>1.62</v>
+      </c>
+      <c r="AJ26">
+        <v>2.2</v>
+      </c>
+      <c r="AK26">
+        <v>4.48</v>
+      </c>
+      <c r="AL26">
+        <v>1.12</v>
+      </c>
+      <c r="AM26">
+        <v>1.07</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>3</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>3</v>
+      </c>
+      <c r="AR26">
+        <v>1.4</v>
+      </c>
+      <c r="AS26">
+        <v>1.77</v>
+      </c>
+      <c r="AT26">
+        <v>3.17</v>
+      </c>
+      <c r="AU26">
+        <v>2</v>
+      </c>
+      <c r="AV26">
+        <v>13</v>
+      </c>
+      <c r="AW26">
+        <v>3</v>
+      </c>
+      <c r="AX26">
+        <v>6</v>
+      </c>
+      <c r="AY26">
+        <v>5</v>
+      </c>
+      <c r="AZ26">
+        <v>19</v>
+      </c>
+      <c r="BA26">
+        <v>2</v>
+      </c>
+      <c r="BB26">
+        <v>10</v>
+      </c>
+      <c r="BC26">
+        <v>12</v>
+      </c>
+      <c r="BD26">
+        <v>4.1</v>
+      </c>
+      <c r="BE26">
+        <v>8</v>
+      </c>
+      <c r="BF26">
+        <v>1.26</v>
+      </c>
+      <c r="BG26">
+        <v>1.24</v>
+      </c>
+      <c r="BH26">
+        <v>3.55</v>
+      </c>
+      <c r="BI26">
+        <v>1.43</v>
+      </c>
+      <c r="BJ26">
+        <v>2.6</v>
+      </c>
+      <c r="BK26">
+        <v>1.68</v>
+      </c>
+      <c r="BL26">
+        <v>2.02</v>
+      </c>
+      <c r="BM26">
+        <v>2.06</v>
+      </c>
+      <c r="BN26">
+        <v>1.66</v>
+      </c>
+      <c r="BO26">
+        <v>2.65</v>
+      </c>
+      <c r="BP26">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="129">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,6 +343,9 @@
     <t>['82']</t>
   </si>
   <si>
+    <t>['47', '66', '90+6']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -395,6 +398,9 @@
   </si>
   <si>
     <t>['1', '7', '13', '43', '65', '90+1']</t>
+  </si>
+  <si>
+    <t>['8', '69']</t>
   </si>
 </sst>
 </file>
@@ -756,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+  <dimension ref="A1:BP28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1015,7 +1021,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1427,7 +1433,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1633,7 +1639,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1839,7 +1845,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -1917,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2045,7 +2051,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2123,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2457,7 +2463,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2663,7 +2669,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3075,7 +3081,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3281,7 +3287,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>2.3</v>
@@ -3693,7 +3699,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3899,7 +3905,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4105,7 +4111,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4723,7 +4729,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4929,7 +4935,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5135,7 +5141,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q22">
         <v>2.25</v>
@@ -5228,22 +5234,22 @@
         <v>2.37</v>
       </c>
       <c r="AU22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY22">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA22">
         <v>5</v>
@@ -5341,7 +5347,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5434,22 +5440,22 @@
         <v>2.15</v>
       </c>
       <c r="AU23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW23">
         <v>6</v>
       </c>
       <c r="AX23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ23">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA23">
         <v>5</v>
@@ -5547,7 +5553,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5640,22 +5646,22 @@
         <v>2.49</v>
       </c>
       <c r="AU24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA24">
         <v>6</v>
@@ -5959,7 +5965,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6116,6 +6122,418 @@
       </c>
       <c r="BP26">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7491836</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45550.4375</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27" t="s">
+        <v>109</v>
+      </c>
+      <c r="P27" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q27">
+        <v>2.63</v>
+      </c>
+      <c r="R27">
+        <v>2.25</v>
+      </c>
+      <c r="S27">
+        <v>3.75</v>
+      </c>
+      <c r="T27">
+        <v>1.33</v>
+      </c>
+      <c r="U27">
+        <v>3.25</v>
+      </c>
+      <c r="V27">
+        <v>2.63</v>
+      </c>
+      <c r="W27">
+        <v>1.44</v>
+      </c>
+      <c r="X27">
+        <v>6.5</v>
+      </c>
+      <c r="Y27">
+        <v>1.11</v>
+      </c>
+      <c r="Z27">
+        <v>1.89</v>
+      </c>
+      <c r="AA27">
+        <v>3.5</v>
+      </c>
+      <c r="AB27">
+        <v>3.75</v>
+      </c>
+      <c r="AC27">
+        <v>1.04</v>
+      </c>
+      <c r="AD27">
+        <v>13</v>
+      </c>
+      <c r="AE27">
+        <v>1.25</v>
+      </c>
+      <c r="AF27">
+        <v>4</v>
+      </c>
+      <c r="AG27">
+        <v>1.78</v>
+      </c>
+      <c r="AH27">
+        <v>2</v>
+      </c>
+      <c r="AI27">
+        <v>1.62</v>
+      </c>
+      <c r="AJ27">
+        <v>2.2</v>
+      </c>
+      <c r="AK27">
+        <v>1.26</v>
+      </c>
+      <c r="AL27">
+        <v>1.24</v>
+      </c>
+      <c r="AM27">
+        <v>1.75</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>2</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>1.22</v>
+      </c>
+      <c r="AS27">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT27">
+        <v>2.03</v>
+      </c>
+      <c r="AU27">
+        <v>10</v>
+      </c>
+      <c r="AV27">
+        <v>4</v>
+      </c>
+      <c r="AW27">
+        <v>7</v>
+      </c>
+      <c r="AX27">
+        <v>4</v>
+      </c>
+      <c r="AY27">
+        <v>17</v>
+      </c>
+      <c r="AZ27">
+        <v>8</v>
+      </c>
+      <c r="BA27">
+        <v>7</v>
+      </c>
+      <c r="BB27">
+        <v>7</v>
+      </c>
+      <c r="BC27">
+        <v>14</v>
+      </c>
+      <c r="BD27">
+        <v>1.7</v>
+      </c>
+      <c r="BE27">
+        <v>6.5</v>
+      </c>
+      <c r="BF27">
+        <v>2.4</v>
+      </c>
+      <c r="BG27">
+        <v>1.34</v>
+      </c>
+      <c r="BH27">
+        <v>2.9</v>
+      </c>
+      <c r="BI27">
+        <v>1.58</v>
+      </c>
+      <c r="BJ27">
+        <v>2.2</v>
+      </c>
+      <c r="BK27">
+        <v>1.95</v>
+      </c>
+      <c r="BL27">
+        <v>1.74</v>
+      </c>
+      <c r="BM27">
+        <v>2.45</v>
+      </c>
+      <c r="BN27">
+        <v>1.48</v>
+      </c>
+      <c r="BO27">
+        <v>3.2</v>
+      </c>
+      <c r="BP27">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7491838</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45550.52083333334</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q28">
+        <v>2.6</v>
+      </c>
+      <c r="R28">
+        <v>2.3</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>1.33</v>
+      </c>
+      <c r="U28">
+        <v>3.25</v>
+      </c>
+      <c r="V28">
+        <v>2.63</v>
+      </c>
+      <c r="W28">
+        <v>1.44</v>
+      </c>
+      <c r="X28">
+        <v>6.5</v>
+      </c>
+      <c r="Y28">
+        <v>1.11</v>
+      </c>
+      <c r="Z28">
+        <v>2</v>
+      </c>
+      <c r="AA28">
+        <v>3.7</v>
+      </c>
+      <c r="AB28">
+        <v>3.64</v>
+      </c>
+      <c r="AC28">
+        <v>1.02</v>
+      </c>
+      <c r="AD28">
+        <v>11</v>
+      </c>
+      <c r="AE28">
+        <v>1.22</v>
+      </c>
+      <c r="AF28">
+        <v>4</v>
+      </c>
+      <c r="AG28">
+        <v>1.72</v>
+      </c>
+      <c r="AH28">
+        <v>2.05</v>
+      </c>
+      <c r="AI28">
+        <v>1.67</v>
+      </c>
+      <c r="AJ28">
+        <v>2.1</v>
+      </c>
+      <c r="AK28">
+        <v>1.25</v>
+      </c>
+      <c r="AL28">
+        <v>1.23</v>
+      </c>
+      <c r="AM28">
+        <v>1.78</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
+        <v>1</v>
+      </c>
+      <c r="AP28">
+        <v>0.5</v>
+      </c>
+      <c r="AQ28">
+        <v>2</v>
+      </c>
+      <c r="AR28">
+        <v>1.23</v>
+      </c>
+      <c r="AS28">
+        <v>1.32</v>
+      </c>
+      <c r="AT28">
+        <v>2.55</v>
+      </c>
+      <c r="AU28">
+        <v>6</v>
+      </c>
+      <c r="AV28">
+        <v>6</v>
+      </c>
+      <c r="AW28">
+        <v>6</v>
+      </c>
+      <c r="AX28">
+        <v>6</v>
+      </c>
+      <c r="AY28">
+        <v>12</v>
+      </c>
+      <c r="AZ28">
+        <v>12</v>
+      </c>
+      <c r="BA28">
+        <v>10</v>
+      </c>
+      <c r="BB28">
+        <v>4</v>
+      </c>
+      <c r="BC28">
+        <v>14</v>
+      </c>
+      <c r="BD28">
+        <v>1.41</v>
+      </c>
+      <c r="BE28">
+        <v>7</v>
+      </c>
+      <c r="BF28">
+        <v>3.3</v>
+      </c>
+      <c r="BG28">
+        <v>1.22</v>
+      </c>
+      <c r="BH28">
+        <v>3.64</v>
+      </c>
+      <c r="BI28">
+        <v>1.45</v>
+      </c>
+      <c r="BJ28">
+        <v>2.59</v>
+      </c>
+      <c r="BK28">
+        <v>1.8</v>
+      </c>
+      <c r="BL28">
+        <v>1.97</v>
+      </c>
+      <c r="BM28">
+        <v>2.28</v>
+      </c>
+      <c r="BN28">
+        <v>1.57</v>
+      </c>
+      <c r="BO28">
+        <v>2.98</v>
+      </c>
+      <c r="BP28">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="131">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,9 @@
     <t>['47', '66', '90+6']</t>
   </si>
   <si>
+    <t>['25', '57']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -401,6 +404,9 @@
   </si>
   <si>
     <t>['8', '69']</t>
+  </si>
+  <si>
+    <t>['13', '15', '49']</t>
   </si>
 </sst>
 </file>
@@ -762,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP28"/>
+  <dimension ref="A1:BP29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1021,7 +1027,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1433,7 +1439,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1639,7 +1645,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1845,7 +1851,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -1923,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6">
         <v>2</v>
@@ -2051,7 +2057,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2463,7 +2469,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2669,7 +2675,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3081,7 +3087,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3162,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3287,7 +3293,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q13">
         <v>2.3</v>
@@ -3699,7 +3705,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3905,7 +3911,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4111,7 +4117,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4729,7 +4735,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4935,7 +4941,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5141,7 +5147,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q22">
         <v>2.25</v>
@@ -5347,7 +5353,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5553,7 +5559,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5965,7 +5971,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6171,7 +6177,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6249,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6377,7 +6383,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6534,6 +6540,212 @@
       </c>
       <c r="BP28">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7491846</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45555.64583333334</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
+      </c>
+      <c r="O29" t="s">
+        <v>110</v>
+      </c>
+      <c r="P29" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <v>2.25</v>
+      </c>
+      <c r="S29">
+        <v>3.25</v>
+      </c>
+      <c r="T29">
+        <v>1.33</v>
+      </c>
+      <c r="U29">
+        <v>3.25</v>
+      </c>
+      <c r="V29">
+        <v>2.63</v>
+      </c>
+      <c r="W29">
+        <v>1.44</v>
+      </c>
+      <c r="X29">
+        <v>6.5</v>
+      </c>
+      <c r="Y29">
+        <v>1.11</v>
+      </c>
+      <c r="Z29">
+        <v>2.63</v>
+      </c>
+      <c r="AA29">
+        <v>3.65</v>
+      </c>
+      <c r="AB29">
+        <v>2.5</v>
+      </c>
+      <c r="AC29">
+        <v>1.04</v>
+      </c>
+      <c r="AD29">
+        <v>11</v>
+      </c>
+      <c r="AE29">
+        <v>1.21</v>
+      </c>
+      <c r="AF29">
+        <v>3.92</v>
+      </c>
+      <c r="AG29">
+        <v>1.7</v>
+      </c>
+      <c r="AH29">
+        <v>2.16</v>
+      </c>
+      <c r="AI29">
+        <v>1.57</v>
+      </c>
+      <c r="AJ29">
+        <v>2.25</v>
+      </c>
+      <c r="AK29">
+        <v>1.45</v>
+      </c>
+      <c r="AL29">
+        <v>1.32</v>
+      </c>
+      <c r="AM29">
+        <v>1.55</v>
+      </c>
+      <c r="AN29">
+        <v>2</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29">
+        <v>1.33</v>
+      </c>
+      <c r="AQ29">
+        <v>2</v>
+      </c>
+      <c r="AR29">
+        <v>1.7</v>
+      </c>
+      <c r="AS29">
+        <v>1.27</v>
+      </c>
+      <c r="AT29">
+        <v>2.97</v>
+      </c>
+      <c r="AU29">
+        <v>9</v>
+      </c>
+      <c r="AV29">
+        <v>4</v>
+      </c>
+      <c r="AW29">
+        <v>12</v>
+      </c>
+      <c r="AX29">
+        <v>2</v>
+      </c>
+      <c r="AY29">
+        <v>21</v>
+      </c>
+      <c r="AZ29">
+        <v>6</v>
+      </c>
+      <c r="BA29">
+        <v>14</v>
+      </c>
+      <c r="BB29">
+        <v>1</v>
+      </c>
+      <c r="BC29">
+        <v>15</v>
+      </c>
+      <c r="BD29">
+        <v>1.86</v>
+      </c>
+      <c r="BE29">
+        <v>6.4</v>
+      </c>
+      <c r="BF29">
+        <v>2.15</v>
+      </c>
+      <c r="BG29">
+        <v>1.3</v>
+      </c>
+      <c r="BH29">
+        <v>3.05</v>
+      </c>
+      <c r="BI29">
+        <v>1.54</v>
+      </c>
+      <c r="BJ29">
+        <v>2.3</v>
+      </c>
+      <c r="BK29">
+        <v>1.89</v>
+      </c>
+      <c r="BL29">
+        <v>1.8</v>
+      </c>
+      <c r="BM29">
+        <v>2.4</v>
+      </c>
+      <c r="BN29">
+        <v>1.5</v>
+      </c>
+      <c r="BO29">
+        <v>3.05</v>
+      </c>
+      <c r="BP29">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="138">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,15 @@
     <t>['25', '57']</t>
   </si>
   <si>
+    <t>['22', '35']</t>
+  </si>
+  <si>
+    <t>['4', '6']</t>
+  </si>
+  <si>
+    <t>['30', '80']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -407,6 +416,18 @@
   </si>
   <si>
     <t>['13', '15', '49']</t>
+  </si>
+  <si>
+    <t>['15', '89']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['54', '59', '65']</t>
+  </si>
+  <si>
+    <t>['23', '32', '57', '60', '65']</t>
   </si>
 </sst>
 </file>
@@ -768,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP29"/>
+  <dimension ref="A1:BP34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1027,7 +1048,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1439,7 +1460,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1520,7 +1541,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1645,7 +1666,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1851,7 +1872,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2057,7 +2078,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2469,7 +2490,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2675,7 +2696,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3087,7 +3108,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3293,7 +3314,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>2.3</v>
@@ -3577,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3705,7 +3726,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3783,10 +3804,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ15">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3911,7 +3932,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4117,7 +4138,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4401,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4610,7 +4631,7 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4735,7 +4756,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4941,7 +4962,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5147,7 +5168,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q22">
         <v>2.25</v>
@@ -5353,7 +5374,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5559,7 +5580,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5971,7 +5992,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6177,7 +6198,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6383,7 +6404,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6589,7 +6610,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6746,6 +6767,1036 @@
       </c>
       <c r="BP29">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7491848</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45556.4375</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>111</v>
+      </c>
+      <c r="P30" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q30">
+        <v>2.5</v>
+      </c>
+      <c r="R30">
+        <v>2.38</v>
+      </c>
+      <c r="S30">
+        <v>3.75</v>
+      </c>
+      <c r="T30">
+        <v>1.29</v>
+      </c>
+      <c r="U30">
+        <v>3.5</v>
+      </c>
+      <c r="V30">
+        <v>2.38</v>
+      </c>
+      <c r="W30">
+        <v>1.53</v>
+      </c>
+      <c r="X30">
+        <v>5.5</v>
+      </c>
+      <c r="Y30">
+        <v>1.14</v>
+      </c>
+      <c r="Z30">
+        <v>1.95</v>
+      </c>
+      <c r="AA30">
+        <v>3.6</v>
+      </c>
+      <c r="AB30">
+        <v>3.7</v>
+      </c>
+      <c r="AC30">
+        <v>1.03</v>
+      </c>
+      <c r="AD30">
+        <v>17.25</v>
+      </c>
+      <c r="AE30">
+        <v>1.19</v>
+      </c>
+      <c r="AF30">
+        <v>4.83</v>
+      </c>
+      <c r="AG30">
+        <v>1.6</v>
+      </c>
+      <c r="AH30">
+        <v>2.2</v>
+      </c>
+      <c r="AI30">
+        <v>1.53</v>
+      </c>
+      <c r="AJ30">
+        <v>2.38</v>
+      </c>
+      <c r="AK30">
+        <v>1.32</v>
+      </c>
+      <c r="AL30">
+        <v>1.28</v>
+      </c>
+      <c r="AM30">
+        <v>1.86</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0.5</v>
+      </c>
+      <c r="AQ30">
+        <v>0.5</v>
+      </c>
+      <c r="AR30">
+        <v>1.57</v>
+      </c>
+      <c r="AS30">
+        <v>1.61</v>
+      </c>
+      <c r="AT30">
+        <v>3.18</v>
+      </c>
+      <c r="AU30">
+        <v>4</v>
+      </c>
+      <c r="AV30">
+        <v>5</v>
+      </c>
+      <c r="AW30">
+        <v>7</v>
+      </c>
+      <c r="AX30">
+        <v>8</v>
+      </c>
+      <c r="AY30">
+        <v>11</v>
+      </c>
+      <c r="AZ30">
+        <v>13</v>
+      </c>
+      <c r="BA30">
+        <v>2</v>
+      </c>
+      <c r="BB30">
+        <v>5</v>
+      </c>
+      <c r="BC30">
+        <v>7</v>
+      </c>
+      <c r="BD30">
+        <v>1.54</v>
+      </c>
+      <c r="BE30">
+        <v>7</v>
+      </c>
+      <c r="BF30">
+        <v>2.7</v>
+      </c>
+      <c r="BG30">
+        <v>1.19</v>
+      </c>
+      <c r="BH30">
+        <v>4.1</v>
+      </c>
+      <c r="BI30">
+        <v>1.32</v>
+      </c>
+      <c r="BJ30">
+        <v>3</v>
+      </c>
+      <c r="BK30">
+        <v>1.54</v>
+      </c>
+      <c r="BL30">
+        <v>2.3</v>
+      </c>
+      <c r="BM30">
+        <v>1.85</v>
+      </c>
+      <c r="BN30">
+        <v>1.83</v>
+      </c>
+      <c r="BO30">
+        <v>2.28</v>
+      </c>
+      <c r="BP30">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7491847</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45556.4375</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>112</v>
+      </c>
+      <c r="P31" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q31">
+        <v>2.63</v>
+      </c>
+      <c r="R31">
+        <v>2.3</v>
+      </c>
+      <c r="S31">
+        <v>3.75</v>
+      </c>
+      <c r="T31">
+        <v>1.33</v>
+      </c>
+      <c r="U31">
+        <v>3.25</v>
+      </c>
+      <c r="V31">
+        <v>2.63</v>
+      </c>
+      <c r="W31">
+        <v>1.44</v>
+      </c>
+      <c r="X31">
+        <v>6.5</v>
+      </c>
+      <c r="Y31">
+        <v>1.11</v>
+      </c>
+      <c r="Z31">
+        <v>2.1</v>
+      </c>
+      <c r="AA31">
+        <v>3.4</v>
+      </c>
+      <c r="AB31">
+        <v>3.4</v>
+      </c>
+      <c r="AC31">
+        <v>1.03</v>
+      </c>
+      <c r="AD31">
+        <v>13</v>
+      </c>
+      <c r="AE31">
+        <v>1.24</v>
+      </c>
+      <c r="AF31">
+        <v>4.2</v>
+      </c>
+      <c r="AG31">
+        <v>1.7</v>
+      </c>
+      <c r="AH31">
+        <v>2.05</v>
+      </c>
+      <c r="AI31">
+        <v>1.62</v>
+      </c>
+      <c r="AJ31">
+        <v>2.2</v>
+      </c>
+      <c r="AK31">
+        <v>1.33</v>
+      </c>
+      <c r="AL31">
+        <v>1.25</v>
+      </c>
+      <c r="AM31">
+        <v>1.78</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>3</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>1.36</v>
+      </c>
+      <c r="AS31">
+        <v>1.08</v>
+      </c>
+      <c r="AT31">
+        <v>2.44</v>
+      </c>
+      <c r="AU31">
+        <v>3</v>
+      </c>
+      <c r="AV31">
+        <v>4</v>
+      </c>
+      <c r="AW31">
+        <v>4</v>
+      </c>
+      <c r="AX31">
+        <v>2</v>
+      </c>
+      <c r="AY31">
+        <v>7</v>
+      </c>
+      <c r="AZ31">
+        <v>6</v>
+      </c>
+      <c r="BA31">
+        <v>5</v>
+      </c>
+      <c r="BB31">
+        <v>5</v>
+      </c>
+      <c r="BC31">
+        <v>10</v>
+      </c>
+      <c r="BD31">
+        <v>1.65</v>
+      </c>
+      <c r="BE31">
+        <v>6.75</v>
+      </c>
+      <c r="BF31">
+        <v>2.48</v>
+      </c>
+      <c r="BG31">
+        <v>1.25</v>
+      </c>
+      <c r="BH31">
+        <v>3.45</v>
+      </c>
+      <c r="BI31">
+        <v>1.44</v>
+      </c>
+      <c r="BJ31">
+        <v>2.55</v>
+      </c>
+      <c r="BK31">
+        <v>1.72</v>
+      </c>
+      <c r="BL31">
+        <v>1.98</v>
+      </c>
+      <c r="BM31">
+        <v>2.12</v>
+      </c>
+      <c r="BN31">
+        <v>1.62</v>
+      </c>
+      <c r="BO31">
+        <v>2.65</v>
+      </c>
+      <c r="BP31">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7491844</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45556.4375</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>96</v>
+      </c>
+      <c r="P32" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q32">
+        <v>3.25</v>
+      </c>
+      <c r="R32">
+        <v>2.25</v>
+      </c>
+      <c r="S32">
+        <v>3</v>
+      </c>
+      <c r="T32">
+        <v>1.33</v>
+      </c>
+      <c r="U32">
+        <v>3.25</v>
+      </c>
+      <c r="V32">
+        <v>2.63</v>
+      </c>
+      <c r="W32">
+        <v>1.44</v>
+      </c>
+      <c r="X32">
+        <v>6.5</v>
+      </c>
+      <c r="Y32">
+        <v>1.11</v>
+      </c>
+      <c r="Z32">
+        <v>2.7</v>
+      </c>
+      <c r="AA32">
+        <v>3.4</v>
+      </c>
+      <c r="AB32">
+        <v>2.55</v>
+      </c>
+      <c r="AC32">
+        <v>1.04</v>
+      </c>
+      <c r="AD32">
+        <v>13</v>
+      </c>
+      <c r="AE32">
+        <v>1.24</v>
+      </c>
+      <c r="AF32">
+        <v>4.2</v>
+      </c>
+      <c r="AG32">
+        <v>1.67</v>
+      </c>
+      <c r="AH32">
+        <v>2.1</v>
+      </c>
+      <c r="AI32">
+        <v>1.57</v>
+      </c>
+      <c r="AJ32">
+        <v>2.25</v>
+      </c>
+      <c r="AK32">
+        <v>1.58</v>
+      </c>
+      <c r="AL32">
+        <v>1.26</v>
+      </c>
+      <c r="AM32">
+        <v>1.47</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>1.5</v>
+      </c>
+      <c r="AQ32">
+        <v>1.5</v>
+      </c>
+      <c r="AR32">
+        <v>1.69</v>
+      </c>
+      <c r="AS32">
+        <v>1.03</v>
+      </c>
+      <c r="AT32">
+        <v>2.72</v>
+      </c>
+      <c r="AU32">
+        <v>2</v>
+      </c>
+      <c r="AV32">
+        <v>6</v>
+      </c>
+      <c r="AW32">
+        <v>5</v>
+      </c>
+      <c r="AX32">
+        <v>6</v>
+      </c>
+      <c r="AY32">
+        <v>7</v>
+      </c>
+      <c r="AZ32">
+        <v>12</v>
+      </c>
+      <c r="BA32">
+        <v>3</v>
+      </c>
+      <c r="BB32">
+        <v>9</v>
+      </c>
+      <c r="BC32">
+        <v>12</v>
+      </c>
+      <c r="BD32">
+        <v>1.55</v>
+      </c>
+      <c r="BE32">
+        <v>6.5</v>
+      </c>
+      <c r="BF32">
+        <v>2.7</v>
+      </c>
+      <c r="BG32">
+        <v>1.3</v>
+      </c>
+      <c r="BH32">
+        <v>3.15</v>
+      </c>
+      <c r="BI32">
+        <v>1.5</v>
+      </c>
+      <c r="BJ32">
+        <v>2.33</v>
+      </c>
+      <c r="BK32">
+        <v>1.83</v>
+      </c>
+      <c r="BL32">
+        <v>1.85</v>
+      </c>
+      <c r="BM32">
+        <v>2.3</v>
+      </c>
+      <c r="BN32">
+        <v>1.54</v>
+      </c>
+      <c r="BO32">
+        <v>2.9</v>
+      </c>
+      <c r="BP32">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7491845</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45556.4375</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33">
+        <v>5</v>
+      </c>
+      <c r="O33" t="s">
+        <v>96</v>
+      </c>
+      <c r="P33" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q33">
+        <v>5.5</v>
+      </c>
+      <c r="R33">
+        <v>2.75</v>
+      </c>
+      <c r="S33">
+        <v>1.83</v>
+      </c>
+      <c r="T33">
+        <v>1.2</v>
+      </c>
+      <c r="U33">
+        <v>4.33</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>1.73</v>
+      </c>
+      <c r="X33">
+        <v>4</v>
+      </c>
+      <c r="Y33">
+        <v>1.22</v>
+      </c>
+      <c r="Z33">
+        <v>6.5</v>
+      </c>
+      <c r="AA33">
+        <v>4.75</v>
+      </c>
+      <c r="AB33">
+        <v>1.4</v>
+      </c>
+      <c r="AC33">
+        <v>1.01</v>
+      </c>
+      <c r="AD33">
+        <v>15</v>
+      </c>
+      <c r="AE33">
+        <v>1.06</v>
+      </c>
+      <c r="AF33">
+        <v>5.75</v>
+      </c>
+      <c r="AG33">
+        <v>1.34</v>
+      </c>
+      <c r="AH33">
+        <v>3.09</v>
+      </c>
+      <c r="AI33">
+        <v>1.53</v>
+      </c>
+      <c r="AJ33">
+        <v>2.38</v>
+      </c>
+      <c r="AK33">
+        <v>2.98</v>
+      </c>
+      <c r="AL33">
+        <v>1.18</v>
+      </c>
+      <c r="AM33">
+        <v>1.12</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <v>0.5</v>
+      </c>
+      <c r="AQ33">
+        <v>3</v>
+      </c>
+      <c r="AR33">
+        <v>0.65</v>
+      </c>
+      <c r="AS33">
+        <v>2.21</v>
+      </c>
+      <c r="AT33">
+        <v>2.86</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>8</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>5</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>13</v>
+      </c>
+      <c r="BA33">
+        <v>1</v>
+      </c>
+      <c r="BB33">
+        <v>4</v>
+      </c>
+      <c r="BC33">
+        <v>5</v>
+      </c>
+      <c r="BD33">
+        <v>3.9</v>
+      </c>
+      <c r="BE33">
+        <v>7</v>
+      </c>
+      <c r="BF33">
+        <v>1.3</v>
+      </c>
+      <c r="BG33">
+        <v>1.32</v>
+      </c>
+      <c r="BH33">
+        <v>3</v>
+      </c>
+      <c r="BI33">
+        <v>1.56</v>
+      </c>
+      <c r="BJ33">
+        <v>2.23</v>
+      </c>
+      <c r="BK33">
+        <v>1.91</v>
+      </c>
+      <c r="BL33">
+        <v>1.77</v>
+      </c>
+      <c r="BM33">
+        <v>2.4</v>
+      </c>
+      <c r="BN33">
+        <v>1.49</v>
+      </c>
+      <c r="BO33">
+        <v>3.15</v>
+      </c>
+      <c r="BP33">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7491843</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45556.5625</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>113</v>
+      </c>
+      <c r="P34" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q34">
+        <v>2.25</v>
+      </c>
+      <c r="R34">
+        <v>2.5</v>
+      </c>
+      <c r="S34">
+        <v>4.33</v>
+      </c>
+      <c r="T34">
+        <v>1.25</v>
+      </c>
+      <c r="U34">
+        <v>3.75</v>
+      </c>
+      <c r="V34">
+        <v>2.2</v>
+      </c>
+      <c r="W34">
+        <v>1.62</v>
+      </c>
+      <c r="X34">
+        <v>5</v>
+      </c>
+      <c r="Y34">
+        <v>1.17</v>
+      </c>
+      <c r="Z34">
+        <v>1.73</v>
+      </c>
+      <c r="AA34">
+        <v>4</v>
+      </c>
+      <c r="AB34">
+        <v>4.4</v>
+      </c>
+      <c r="AC34">
+        <v>1.02</v>
+      </c>
+      <c r="AD34">
+        <v>21.5</v>
+      </c>
+      <c r="AE34">
+        <v>1.1</v>
+      </c>
+      <c r="AF34">
+        <v>4.9</v>
+      </c>
+      <c r="AG34">
+        <v>1.43</v>
+      </c>
+      <c r="AH34">
+        <v>2.7</v>
+      </c>
+      <c r="AI34">
+        <v>1.5</v>
+      </c>
+      <c r="AJ34">
+        <v>2.5</v>
+      </c>
+      <c r="AK34">
+        <v>1.24</v>
+      </c>
+      <c r="AL34">
+        <v>1.25</v>
+      </c>
+      <c r="AM34">
+        <v>2</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>3</v>
+      </c>
+      <c r="AP34">
+        <v>3</v>
+      </c>
+      <c r="AQ34">
+        <v>1.5</v>
+      </c>
+      <c r="AR34">
+        <v>1.86</v>
+      </c>
+      <c r="AS34">
+        <v>1.59</v>
+      </c>
+      <c r="AT34">
+        <v>3.45</v>
+      </c>
+      <c r="AU34">
+        <v>5</v>
+      </c>
+      <c r="AV34">
+        <v>8</v>
+      </c>
+      <c r="AW34">
+        <v>8</v>
+      </c>
+      <c r="AX34">
+        <v>6</v>
+      </c>
+      <c r="AY34">
+        <v>13</v>
+      </c>
+      <c r="AZ34">
+        <v>14</v>
+      </c>
+      <c r="BA34">
+        <v>8</v>
+      </c>
+      <c r="BB34">
+        <v>5</v>
+      </c>
+      <c r="BC34">
+        <v>13</v>
+      </c>
+      <c r="BD34">
+        <v>1.41</v>
+      </c>
+      <c r="BE34">
+        <v>7</v>
+      </c>
+      <c r="BF34">
+        <v>3.3</v>
+      </c>
+      <c r="BG34">
+        <v>1.19</v>
+      </c>
+      <c r="BH34">
+        <v>4.1</v>
+      </c>
+      <c r="BI34">
+        <v>1.32</v>
+      </c>
+      <c r="BJ34">
+        <v>3</v>
+      </c>
+      <c r="BK34">
+        <v>1.54</v>
+      </c>
+      <c r="BL34">
+        <v>2.3</v>
+      </c>
+      <c r="BM34">
+        <v>1.85</v>
+      </c>
+      <c r="BN34">
+        <v>1.83</v>
+      </c>
+      <c r="BO34">
+        <v>2.3</v>
+      </c>
+      <c r="BP34">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="141">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -355,7 +355,10 @@
     <t>['4', '6']</t>
   </si>
   <si>
-    <t>['30', '80']</t>
+    <t>['14', '32', '48', '90+3']</t>
+  </si>
+  <si>
+    <t>['4', '21', '62', '80', '90']</t>
   </si>
   <si>
     <t>['12', '38', '90+11']</t>
@@ -428,6 +431,12 @@
   </si>
   <si>
     <t>['23', '32', '57', '60', '65']</t>
+  </si>
+  <si>
+    <t>['5', '37', '45+1']</t>
+  </si>
+  <si>
+    <t>['75']</t>
   </si>
 </sst>
 </file>
@@ -789,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP34"/>
+  <dimension ref="A1:BP35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1048,7 +1057,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1460,7 +1469,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1666,7 +1675,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1872,7 +1881,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2078,7 +2087,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2490,7 +2499,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2696,7 +2705,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3108,7 +3117,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3186,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3314,7 +3323,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q13">
         <v>2.3</v>
@@ -3601,7 +3610,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3726,7 +3735,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3807,7 +3816,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3932,7 +3941,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4013,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4138,7 +4147,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4216,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>3</v>
@@ -4756,7 +4765,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4962,7 +4971,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5168,7 +5177,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>2.25</v>
@@ -5374,7 +5383,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5580,7 +5589,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5992,7 +6001,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6198,7 +6207,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6404,7 +6413,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6610,7 +6619,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6816,7 +6825,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q30">
         <v>2.5</v>
@@ -7022,7 +7031,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q31">
         <v>2.63</v>
@@ -7228,7 +7237,7 @@
         <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q32">
         <v>3.25</v>
@@ -7434,7 +7443,7 @@
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -7598,7 +7607,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7491843</v>
+        <v>7491841</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -7607,49 +7616,49 @@
         <v>69</v>
       </c>
       <c r="E34" s="2">
-        <v>45556.5625</v>
+        <v>45556.875</v>
       </c>
       <c r="F34">
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O34" t="s">
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="Q34">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="R34">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="S34">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="T34">
         <v>1.25</v>
@@ -7658,145 +7667,351 @@
         <v>3.75</v>
       </c>
       <c r="V34">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W34">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X34">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Y34">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Z34">
-        <v>1.73</v>
+        <v>1.34</v>
       </c>
       <c r="AA34">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="AB34">
-        <v>4.4</v>
+        <v>8.75</v>
       </c>
       <c r="AC34">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD34">
-        <v>21.5</v>
+        <v>23</v>
       </c>
       <c r="AE34">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="AF34">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="AG34">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="AH34">
-        <v>2.7</v>
+        <v>2.39</v>
       </c>
       <c r="AI34">
+        <v>1.8</v>
+      </c>
+      <c r="AJ34">
+        <v>1.95</v>
+      </c>
+      <c r="AK34">
+        <v>1.04</v>
+      </c>
+      <c r="AL34">
+        <v>1.11</v>
+      </c>
+      <c r="AM34">
+        <v>3.6</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>3</v>
+      </c>
+      <c r="AP34">
         <v>1.5</v>
-      </c>
-      <c r="AJ34">
-        <v>2.5</v>
-      </c>
-      <c r="AK34">
-        <v>1.24</v>
-      </c>
-      <c r="AL34">
-        <v>1.25</v>
-      </c>
-      <c r="AM34">
-        <v>2</v>
-      </c>
-      <c r="AN34">
-        <v>3</v>
-      </c>
-      <c r="AO34">
-        <v>3</v>
-      </c>
-      <c r="AP34">
-        <v>3</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
       </c>
       <c r="AR34">
-        <v>1.86</v>
+        <v>2.58</v>
       </c>
       <c r="AS34">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="AT34">
-        <v>3.45</v>
+        <v>4.04</v>
       </c>
       <c r="AU34">
+        <v>4</v>
+      </c>
+      <c r="AV34">
+        <v>3</v>
+      </c>
+      <c r="AW34">
         <v>5</v>
       </c>
-      <c r="AV34">
+      <c r="AX34">
+        <v>3</v>
+      </c>
+      <c r="AY34">
+        <v>9</v>
+      </c>
+      <c r="AZ34">
+        <v>6</v>
+      </c>
+      <c r="BA34">
+        <v>6</v>
+      </c>
+      <c r="BB34">
+        <v>2</v>
+      </c>
+      <c r="BC34">
         <v>8</v>
       </c>
-      <c r="AW34">
-        <v>8</v>
-      </c>
-      <c r="AX34">
+      <c r="BD34">
+        <v>1.18</v>
+      </c>
+      <c r="BE34">
+        <v>9</v>
+      </c>
+      <c r="BF34">
+        <v>5.1</v>
+      </c>
+      <c r="BG34">
+        <v>1.2</v>
+      </c>
+      <c r="BH34">
+        <v>3.95</v>
+      </c>
+      <c r="BI34">
+        <v>1.34</v>
+      </c>
+      <c r="BJ34">
+        <v>2.9</v>
+      </c>
+      <c r="BK34">
+        <v>1.57</v>
+      </c>
+      <c r="BL34">
+        <v>2.23</v>
+      </c>
+      <c r="BM34">
+        <v>1.9</v>
+      </c>
+      <c r="BN34">
+        <v>1.79</v>
+      </c>
+      <c r="BO34">
+        <v>2.35</v>
+      </c>
+      <c r="BP34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7491842</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
         <v>6</v>
       </c>
-      <c r="AY34">
-        <v>13</v>
-      </c>
-      <c r="AZ34">
-        <v>14</v>
-      </c>
-      <c r="BA34">
-        <v>8</v>
-      </c>
-      <c r="BB34">
+      <c r="O35" t="s">
+        <v>114</v>
+      </c>
+      <c r="P35" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q35">
+        <v>2.75</v>
+      </c>
+      <c r="R35">
+        <v>2.5</v>
+      </c>
+      <c r="S35">
+        <v>3.2</v>
+      </c>
+      <c r="T35">
+        <v>1.25</v>
+      </c>
+      <c r="U35">
+        <v>3.75</v>
+      </c>
+      <c r="V35">
+        <v>2.1</v>
+      </c>
+      <c r="W35">
+        <v>1.67</v>
+      </c>
+      <c r="X35">
+        <v>4.5</v>
+      </c>
+      <c r="Y35">
+        <v>1.18</v>
+      </c>
+      <c r="Z35">
+        <v>2.14</v>
+      </c>
+      <c r="AA35">
+        <v>4</v>
+      </c>
+      <c r="AB35">
+        <v>2.95</v>
+      </c>
+      <c r="AC35">
+        <v>1.01</v>
+      </c>
+      <c r="AD35">
+        <v>21</v>
+      </c>
+      <c r="AE35">
+        <v>1.14</v>
+      </c>
+      <c r="AF35">
+        <v>6</v>
+      </c>
+      <c r="AG35">
+        <v>1.45</v>
+      </c>
+      <c r="AH35">
+        <v>2.7</v>
+      </c>
+      <c r="AI35">
+        <v>1.4</v>
+      </c>
+      <c r="AJ35">
+        <v>2.75</v>
+      </c>
+      <c r="AK35">
+        <v>1.45</v>
+      </c>
+      <c r="AL35">
+        <v>1.22</v>
+      </c>
+      <c r="AM35">
+        <v>1.63</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AP35">
+        <v>2</v>
+      </c>
+      <c r="AQ35">
+        <v>0.5</v>
+      </c>
+      <c r="AR35">
+        <v>2.62</v>
+      </c>
+      <c r="AS35">
+        <v>1.08</v>
+      </c>
+      <c r="AT35">
+        <v>3.7</v>
+      </c>
+      <c r="AU35">
         <v>5</v>
       </c>
-      <c r="BC34">
-        <v>13</v>
-      </c>
-      <c r="BD34">
-        <v>1.41</v>
-      </c>
-      <c r="BE34">
+      <c r="AV35">
+        <v>2</v>
+      </c>
+      <c r="AW35">
+        <v>5</v>
+      </c>
+      <c r="AX35">
+        <v>5</v>
+      </c>
+      <c r="AY35">
+        <v>10</v>
+      </c>
+      <c r="AZ35">
         <v>7</v>
       </c>
-      <c r="BF34">
+      <c r="BA35">
+        <v>6</v>
+      </c>
+      <c r="BB35">
+        <v>4</v>
+      </c>
+      <c r="BC35">
+        <v>10</v>
+      </c>
+      <c r="BD35">
+        <v>1.68</v>
+      </c>
+      <c r="BE35">
+        <v>6.4</v>
+      </c>
+      <c r="BF35">
+        <v>2.45</v>
+      </c>
+      <c r="BG35">
+        <v>1.28</v>
+      </c>
+      <c r="BH35">
         <v>3.3</v>
       </c>
-      <c r="BG34">
-        <v>1.19</v>
-      </c>
-      <c r="BH34">
-        <v>4.1</v>
-      </c>
-      <c r="BI34">
-        <v>1.32</v>
-      </c>
-      <c r="BJ34">
-        <v>3</v>
-      </c>
-      <c r="BK34">
-        <v>1.54</v>
-      </c>
-      <c r="BL34">
-        <v>2.3</v>
-      </c>
-      <c r="BM34">
-        <v>1.85</v>
-      </c>
-      <c r="BN34">
-        <v>1.83</v>
-      </c>
-      <c r="BO34">
-        <v>2.3</v>
-      </c>
-      <c r="BP34">
-        <v>1.53</v>
+      <c r="BI35">
+        <v>1.49</v>
+      </c>
+      <c r="BJ35">
+        <v>2.4</v>
+      </c>
+      <c r="BK35">
+        <v>1.79</v>
+      </c>
+      <c r="BL35">
+        <v>1.9</v>
+      </c>
+      <c r="BM35">
+        <v>2.23</v>
+      </c>
+      <c r="BN35">
+        <v>1.56</v>
+      </c>
+      <c r="BO35">
+        <v>2.9</v>
+      </c>
+      <c r="BP35">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="142">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>['4', '6']</t>
+  </si>
+  <si>
+    <t>['30', '80']</t>
   </si>
   <si>
     <t>['14', '32', '48', '90+3']</t>
@@ -798,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP35"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1057,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1469,7 +1472,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1675,7 +1678,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1881,7 +1884,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2087,7 +2090,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2499,7 +2502,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2705,7 +2708,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2783,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3117,7 +3120,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3323,7 +3326,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>2.3</v>
@@ -3735,7 +3738,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3816,7 +3819,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ15">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3941,7 +3944,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4147,7 +4150,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4228,7 +4231,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4765,7 +4768,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4971,7 +4974,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5177,7 +5180,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22">
         <v>2.25</v>
@@ -5383,7 +5386,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5589,7 +5592,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6001,7 +6004,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6207,7 +6210,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6413,7 +6416,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6619,7 +6622,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6825,7 +6828,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q30">
         <v>2.5</v>
@@ -7031,7 +7034,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>2.63</v>
@@ -7237,7 +7240,7 @@
         <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>3.25</v>
@@ -7443,7 +7446,7 @@
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -7607,7 +7610,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7491841</v>
+        <v>7491843</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -7616,49 +7619,49 @@
         <v>69</v>
       </c>
       <c r="E34" s="2">
-        <v>45556.875</v>
+        <v>45556.5625</v>
       </c>
       <c r="F34">
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O34" t="s">
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="Q34">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="R34">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="S34">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="T34">
         <v>1.25</v>
@@ -7667,145 +7670,145 @@
         <v>3.75</v>
       </c>
       <c r="V34">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W34">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X34">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Y34">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Z34">
-        <v>1.34</v>
+        <v>1.73</v>
       </c>
       <c r="AA34">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="AB34">
-        <v>8.75</v>
+        <v>4.4</v>
       </c>
       <c r="AC34">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD34">
-        <v>23</v>
+        <v>21.5</v>
       </c>
       <c r="AE34">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AF34">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="AG34">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="AH34">
-        <v>2.39</v>
+        <v>2.7</v>
       </c>
       <c r="AI34">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AJ34">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="AK34">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="AL34">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AM34">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO34">
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
       </c>
       <c r="AR34">
-        <v>2.58</v>
+        <v>1.86</v>
       </c>
       <c r="AS34">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="AT34">
-        <v>4.04</v>
+        <v>3.45</v>
       </c>
       <c r="AU34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV34">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW34">
+        <v>8</v>
+      </c>
+      <c r="AX34">
+        <v>6</v>
+      </c>
+      <c r="AY34">
+        <v>13</v>
+      </c>
+      <c r="AZ34">
+        <v>14</v>
+      </c>
+      <c r="BA34">
+        <v>8</v>
+      </c>
+      <c r="BB34">
         <v>5</v>
       </c>
-      <c r="AX34">
-        <v>3</v>
-      </c>
-      <c r="AY34">
-        <v>9</v>
-      </c>
-      <c r="AZ34">
-        <v>6</v>
-      </c>
-      <c r="BA34">
-        <v>6</v>
-      </c>
-      <c r="BB34">
-        <v>2</v>
-      </c>
       <c r="BC34">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD34">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="BE34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BF34">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="BG34">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="BH34">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="BI34">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="BJ34">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="BK34">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="BL34">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="BM34">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="BN34">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="BO34">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="BP34">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -7813,7 +7816,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7491842</v>
+        <v>7491841</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7828,28 +7831,28 @@
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O35" t="s">
         <v>114</v>
@@ -7858,13 +7861,13 @@
         <v>140</v>
       </c>
       <c r="Q35">
+        <v>1.73</v>
+      </c>
+      <c r="R35">
         <v>2.75</v>
       </c>
-      <c r="R35">
-        <v>2.5</v>
-      </c>
       <c r="S35">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="T35">
         <v>1.25</v>
@@ -7885,133 +7888,545 @@
         <v>1.18</v>
       </c>
       <c r="Z35">
-        <v>2.14</v>
+        <v>1.34</v>
       </c>
       <c r="AA35">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="AB35">
-        <v>2.95</v>
+        <v>8.75</v>
       </c>
       <c r="AC35">
         <v>1.01</v>
       </c>
       <c r="AD35">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE35">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AF35">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG35">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AH35">
-        <v>2.7</v>
+        <v>2.39</v>
       </c>
       <c r="AI35">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AJ35">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="AK35">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="AL35">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AM35">
-        <v>1.63</v>
+        <v>3.6</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="AS35">
-        <v>1.08</v>
+        <v>1.46</v>
       </c>
       <c r="AT35">
-        <v>3.7</v>
+        <v>4.04</v>
       </c>
       <c r="AU35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW35">
         <v>5</v>
       </c>
       <c r="AX35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA35">
         <v>6</v>
       </c>
       <c r="BB35">
+        <v>2</v>
+      </c>
+      <c r="BC35">
+        <v>8</v>
+      </c>
+      <c r="BD35">
+        <v>1.18</v>
+      </c>
+      <c r="BE35">
+        <v>9</v>
+      </c>
+      <c r="BF35">
+        <v>5.1</v>
+      </c>
+      <c r="BG35">
+        <v>1.2</v>
+      </c>
+      <c r="BH35">
+        <v>3.95</v>
+      </c>
+      <c r="BI35">
+        <v>1.34</v>
+      </c>
+      <c r="BJ35">
+        <v>2.9</v>
+      </c>
+      <c r="BK35">
+        <v>1.57</v>
+      </c>
+      <c r="BL35">
+        <v>2.23</v>
+      </c>
+      <c r="BM35">
+        <v>1.9</v>
+      </c>
+      <c r="BN35">
+        <v>1.79</v>
+      </c>
+      <c r="BO35">
+        <v>2.35</v>
+      </c>
+      <c r="BP35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7491842</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F36">
         <v>4</v>
       </c>
-      <c r="BC35">
+      <c r="G36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>6</v>
+      </c>
+      <c r="O36" t="s">
+        <v>115</v>
+      </c>
+      <c r="P36" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q36">
+        <v>2.75</v>
+      </c>
+      <c r="R36">
+        <v>2.5</v>
+      </c>
+      <c r="S36">
+        <v>3.2</v>
+      </c>
+      <c r="T36">
+        <v>1.25</v>
+      </c>
+      <c r="U36">
+        <v>3.75</v>
+      </c>
+      <c r="V36">
+        <v>2.1</v>
+      </c>
+      <c r="W36">
+        <v>1.67</v>
+      </c>
+      <c r="X36">
+        <v>4.5</v>
+      </c>
+      <c r="Y36">
+        <v>1.18</v>
+      </c>
+      <c r="Z36">
+        <v>2.14</v>
+      </c>
+      <c r="AA36">
+        <v>4</v>
+      </c>
+      <c r="AB36">
+        <v>2.95</v>
+      </c>
+      <c r="AC36">
+        <v>1.01</v>
+      </c>
+      <c r="AD36">
+        <v>21</v>
+      </c>
+      <c r="AE36">
+        <v>1.14</v>
+      </c>
+      <c r="AF36">
+        <v>6</v>
+      </c>
+      <c r="AG36">
+        <v>1.45</v>
+      </c>
+      <c r="AH36">
+        <v>2.7</v>
+      </c>
+      <c r="AI36">
+        <v>1.4</v>
+      </c>
+      <c r="AJ36">
+        <v>2.75</v>
+      </c>
+      <c r="AK36">
+        <v>1.45</v>
+      </c>
+      <c r="AL36">
+        <v>1.22</v>
+      </c>
+      <c r="AM36">
+        <v>1.63</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AP36">
+        <v>2</v>
+      </c>
+      <c r="AQ36">
+        <v>0.5</v>
+      </c>
+      <c r="AR36">
+        <v>2.62</v>
+      </c>
+      <c r="AS36">
+        <v>1.08</v>
+      </c>
+      <c r="AT36">
+        <v>3.7</v>
+      </c>
+      <c r="AU36">
+        <v>5</v>
+      </c>
+      <c r="AV36">
+        <v>2</v>
+      </c>
+      <c r="AW36">
+        <v>5</v>
+      </c>
+      <c r="AX36">
+        <v>5</v>
+      </c>
+      <c r="AY36">
         <v>10</v>
       </c>
-      <c r="BD35">
+      <c r="AZ36">
+        <v>7</v>
+      </c>
+      <c r="BA36">
+        <v>6</v>
+      </c>
+      <c r="BB36">
+        <v>4</v>
+      </c>
+      <c r="BC36">
+        <v>10</v>
+      </c>
+      <c r="BD36">
         <v>1.68</v>
       </c>
-      <c r="BE35">
+      <c r="BE36">
         <v>6.4</v>
       </c>
-      <c r="BF35">
+      <c r="BF36">
         <v>2.45</v>
       </c>
-      <c r="BG35">
+      <c r="BG36">
         <v>1.28</v>
       </c>
-      <c r="BH35">
+      <c r="BH36">
         <v>3.3</v>
       </c>
-      <c r="BI35">
+      <c r="BI36">
         <v>1.49</v>
       </c>
-      <c r="BJ35">
+      <c r="BJ36">
         <v>2.4</v>
       </c>
-      <c r="BK35">
+      <c r="BK36">
         <v>1.79</v>
       </c>
-      <c r="BL35">
+      <c r="BL36">
         <v>1.9</v>
       </c>
-      <c r="BM35">
+      <c r="BM36">
         <v>2.23</v>
       </c>
-      <c r="BN35">
+      <c r="BN36">
         <v>1.56</v>
       </c>
-      <c r="BO35">
+      <c r="BO36">
         <v>2.9</v>
       </c>
-      <c r="BP35">
+      <c r="BP36">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7491849</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45557.60416666666</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>96</v>
+      </c>
+      <c r="P37" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q37">
+        <v>5</v>
+      </c>
+      <c r="R37">
+        <v>2.38</v>
+      </c>
+      <c r="S37">
+        <v>2.2</v>
+      </c>
+      <c r="T37">
+        <v>1.3</v>
+      </c>
+      <c r="U37">
+        <v>3.4</v>
+      </c>
+      <c r="V37">
+        <v>2.5</v>
+      </c>
+      <c r="W37">
+        <v>1.5</v>
+      </c>
+      <c r="X37">
+        <v>6</v>
+      </c>
+      <c r="Y37">
+        <v>1.13</v>
+      </c>
+      <c r="Z37">
+        <v>4.9</v>
+      </c>
+      <c r="AA37">
+        <v>4.2</v>
+      </c>
+      <c r="AB37">
+        <v>1.65</v>
+      </c>
+      <c r="AC37">
+        <v>1.03</v>
+      </c>
+      <c r="AD37">
+        <v>15</v>
+      </c>
+      <c r="AE37">
+        <v>1.2</v>
+      </c>
+      <c r="AF37">
+        <v>4.5</v>
+      </c>
+      <c r="AG37">
+        <v>1.63</v>
+      </c>
+      <c r="AH37">
+        <v>2.28</v>
+      </c>
+      <c r="AI37">
+        <v>1.67</v>
+      </c>
+      <c r="AJ37">
+        <v>2.1</v>
+      </c>
+      <c r="AK37">
+        <v>2.3</v>
+      </c>
+      <c r="AL37">
+        <v>1.2</v>
+      </c>
+      <c r="AM37">
+        <v>1.18</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>3</v>
+      </c>
+      <c r="AP37">
+        <v>0.5</v>
+      </c>
+      <c r="AQ37">
+        <v>2</v>
+      </c>
+      <c r="AR37">
+        <v>1.27</v>
+      </c>
+      <c r="AS37">
+        <v>1.06</v>
+      </c>
+      <c r="AT37">
+        <v>2.33</v>
+      </c>
+      <c r="AU37">
+        <v>6</v>
+      </c>
+      <c r="AV37">
+        <v>6</v>
+      </c>
+      <c r="AW37">
+        <v>10</v>
+      </c>
+      <c r="AX37">
+        <v>4</v>
+      </c>
+      <c r="AY37">
+        <v>16</v>
+      </c>
+      <c r="AZ37">
+        <v>10</v>
+      </c>
+      <c r="BA37">
+        <v>3</v>
+      </c>
+      <c r="BB37">
+        <v>1</v>
+      </c>
+      <c r="BC37">
+        <v>4</v>
+      </c>
+      <c r="BD37">
+        <v>2.55</v>
+      </c>
+      <c r="BE37">
+        <v>6.25</v>
+      </c>
+      <c r="BF37">
+        <v>1.63</v>
+      </c>
+      <c r="BG37">
+        <v>1.35</v>
+      </c>
+      <c r="BH37">
+        <v>2.88</v>
+      </c>
+      <c r="BI37">
+        <v>1.58</v>
+      </c>
+      <c r="BJ37">
+        <v>2.17</v>
+      </c>
+      <c r="BK37">
+        <v>1.95</v>
+      </c>
+      <c r="BL37">
+        <v>1.75</v>
+      </c>
+      <c r="BM37">
+        <v>2.48</v>
+      </c>
+      <c r="BN37">
+        <v>1.47</v>
+      </c>
+      <c r="BO37">
+        <v>3.3</v>
+      </c>
+      <c r="BP37">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -364,6 +364,9 @@
     <t>['4', '21', '62', '80', '90']</t>
   </si>
   <si>
+    <t>['44', '62', '75', '81']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -440,6 +443,9 @@
   </si>
   <si>
     <t>['75']</t>
+  </si>
+  <si>
+    <t>['16', '21']</t>
   </si>
 </sst>
 </file>
@@ -801,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1060,7 +1066,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1472,7 +1478,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1678,7 +1684,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1884,7 +1890,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2090,7 +2096,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2502,7 +2508,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2708,7 +2714,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3120,7 +3126,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3326,7 +3332,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q13">
         <v>2.3</v>
@@ -3738,7 +3744,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3944,7 +3950,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4150,7 +4156,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4768,7 +4774,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4974,7 +4980,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5180,7 +5186,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>2.25</v>
@@ -5386,7 +5392,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5592,7 +5598,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6004,7 +6010,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6210,7 +6216,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6416,7 +6422,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6622,7 +6628,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6828,7 +6834,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>2.5</v>
@@ -7034,7 +7040,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>2.63</v>
@@ -7240,7 +7246,7 @@
         <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>3.25</v>
@@ -7446,7 +7452,7 @@
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -7858,7 +7864,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8064,7 +8070,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8427,6 +8433,212 @@
       </c>
       <c r="BP37">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7491852</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45562.64583333334</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>6</v>
+      </c>
+      <c r="O38" t="s">
+        <v>116</v>
+      </c>
+      <c r="P38" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q38">
+        <v>1.62</v>
+      </c>
+      <c r="R38">
+        <v>3</v>
+      </c>
+      <c r="S38">
+        <v>7.5</v>
+      </c>
+      <c r="T38">
+        <v>1.18</v>
+      </c>
+      <c r="U38">
+        <v>4.5</v>
+      </c>
+      <c r="V38">
+        <v>1.83</v>
+      </c>
+      <c r="W38">
+        <v>1.83</v>
+      </c>
+      <c r="X38">
+        <v>3.75</v>
+      </c>
+      <c r="Y38">
+        <v>1.25</v>
+      </c>
+      <c r="Z38">
+        <v>1.35</v>
+      </c>
+      <c r="AA38">
+        <v>6.06</v>
+      </c>
+      <c r="AB38">
+        <v>9</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>32.5</v>
+      </c>
+      <c r="AE38">
+        <v>1.1</v>
+      </c>
+      <c r="AF38">
+        <v>6.95</v>
+      </c>
+      <c r="AG38">
+        <v>1.31</v>
+      </c>
+      <c r="AH38">
+        <v>3.27</v>
+      </c>
+      <c r="AI38">
+        <v>1.67</v>
+      </c>
+      <c r="AJ38">
+        <v>2.1</v>
+      </c>
+      <c r="AK38">
+        <v>1.08</v>
+      </c>
+      <c r="AL38">
+        <v>1.12</v>
+      </c>
+      <c r="AM38">
+        <v>3.8</v>
+      </c>
+      <c r="AN38">
+        <v>3</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>3</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>1.73</v>
+      </c>
+      <c r="AS38">
+        <v>1.03</v>
+      </c>
+      <c r="AT38">
+        <v>2.76</v>
+      </c>
+      <c r="AU38">
+        <v>9</v>
+      </c>
+      <c r="AV38">
+        <v>6</v>
+      </c>
+      <c r="AW38">
+        <v>8</v>
+      </c>
+      <c r="AX38">
+        <v>3</v>
+      </c>
+      <c r="AY38">
+        <v>17</v>
+      </c>
+      <c r="AZ38">
+        <v>9</v>
+      </c>
+      <c r="BA38">
+        <v>11</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>11</v>
+      </c>
+      <c r="BD38">
+        <v>1.25</v>
+      </c>
+      <c r="BE38">
+        <v>8</v>
+      </c>
+      <c r="BF38">
+        <v>4.3</v>
+      </c>
+      <c r="BG38">
+        <v>1.21</v>
+      </c>
+      <c r="BH38">
+        <v>3.8</v>
+      </c>
+      <c r="BI38">
+        <v>1.37</v>
+      </c>
+      <c r="BJ38">
+        <v>2.8</v>
+      </c>
+      <c r="BK38">
+        <v>1.61</v>
+      </c>
+      <c r="BL38">
+        <v>2.14</v>
+      </c>
+      <c r="BM38">
+        <v>2</v>
+      </c>
+      <c r="BN38">
+        <v>1.8</v>
+      </c>
+      <c r="BO38">
+        <v>2.48</v>
+      </c>
+      <c r="BP38">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="156">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,24 @@
     <t>['44', '62', '75', '81']</t>
   </si>
   <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['20', '68']</t>
+  </si>
+  <si>
+    <t>['11', '15', '46', '57']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['30', '50']</t>
+  </si>
+  <si>
+    <t>['5', '8', '12']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -446,6 +464,24 @@
   </si>
   <si>
     <t>['16', '21']</t>
+  </si>
+  <si>
+    <t>['15', '86']</t>
+  </si>
+  <si>
+    <t>['32', '90+7']</t>
+  </si>
+  <si>
+    <t>['12', '45', '72']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['25', '47', '65', '74']</t>
+  </si>
+  <si>
+    <t>['21', '26', '39', '49']</t>
   </si>
 </sst>
 </file>
@@ -807,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP38"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,7 +1102,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1144,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1350,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1478,7 +1514,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1556,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>0.5</v>
@@ -1684,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1762,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1890,7 +1926,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -1971,7 +2007,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2096,7 +2132,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2174,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2383,7 +2419,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2508,7 +2544,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2586,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ9">
         <v>3</v>
@@ -2714,7 +2750,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2795,7 +2831,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3001,7 +3037,7 @@
         <v>3</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3126,7 +3162,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3332,7 +3368,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q13">
         <v>2.3</v>
@@ -3744,7 +3780,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3950,7 +3986,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4156,7 +4192,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4646,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -4774,7 +4810,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4855,7 +4891,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR20">
         <v>1.89</v>
@@ -4980,7 +5016,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5058,10 +5094,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR21">
         <v>2.26</v>
@@ -5186,7 +5222,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>2.25</v>
@@ -5264,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -5392,7 +5428,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5470,10 +5506,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.03</v>
@@ -5598,7 +5634,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5676,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.46</v>
@@ -5882,10 +5918,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR25">
         <v>1.16</v>
@@ -6010,7 +6046,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6216,7 +6252,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6297,7 +6333,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6422,7 +6458,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6500,10 +6536,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR28">
         <v>1.23</v>
@@ -6628,7 +6664,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6834,7 +6870,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>2.5</v>
@@ -7040,7 +7076,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q31">
         <v>2.63</v>
@@ -7246,7 +7282,7 @@
         <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>3.25</v>
@@ -7452,7 +7488,7 @@
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -7864,7 +7900,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8070,7 +8106,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8482,7 +8518,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -8639,6 +8675,1654 @@
       </c>
       <c r="BP38">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7491856</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45563.4375</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39" t="s">
+        <v>96</v>
+      </c>
+      <c r="P39" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q39">
+        <v>2.38</v>
+      </c>
+      <c r="R39">
+        <v>2.3</v>
+      </c>
+      <c r="S39">
+        <v>4.5</v>
+      </c>
+      <c r="T39">
+        <v>1.33</v>
+      </c>
+      <c r="U39">
+        <v>3.25</v>
+      </c>
+      <c r="V39">
+        <v>2.63</v>
+      </c>
+      <c r="W39">
+        <v>1.44</v>
+      </c>
+      <c r="X39">
+        <v>6.5</v>
+      </c>
+      <c r="Y39">
+        <v>1.11</v>
+      </c>
+      <c r="Z39">
+        <v>1.65</v>
+      </c>
+      <c r="AA39">
+        <v>4</v>
+      </c>
+      <c r="AB39">
+        <v>4.5</v>
+      </c>
+      <c r="AC39">
+        <v>1.03</v>
+      </c>
+      <c r="AD39">
+        <v>13</v>
+      </c>
+      <c r="AE39">
+        <v>1.25</v>
+      </c>
+      <c r="AF39">
+        <v>4</v>
+      </c>
+      <c r="AG39">
+        <v>1.58</v>
+      </c>
+      <c r="AH39">
+        <v>2.23</v>
+      </c>
+      <c r="AI39">
+        <v>1.67</v>
+      </c>
+      <c r="AJ39">
+        <v>2.1</v>
+      </c>
+      <c r="AK39">
+        <v>1.22</v>
+      </c>
+      <c r="AL39">
+        <v>1.22</v>
+      </c>
+      <c r="AM39">
+        <v>2.1</v>
+      </c>
+      <c r="AN39">
+        <v>0.5</v>
+      </c>
+      <c r="AO39">
+        <v>1.5</v>
+      </c>
+      <c r="AP39">
+        <v>0.33</v>
+      </c>
+      <c r="AQ39">
+        <v>2</v>
+      </c>
+      <c r="AR39">
+        <v>1.48</v>
+      </c>
+      <c r="AS39">
+        <v>0.96</v>
+      </c>
+      <c r="AT39">
+        <v>2.44</v>
+      </c>
+      <c r="AU39">
+        <v>3</v>
+      </c>
+      <c r="AV39">
+        <v>7</v>
+      </c>
+      <c r="AW39">
+        <v>3</v>
+      </c>
+      <c r="AX39">
+        <v>6</v>
+      </c>
+      <c r="AY39">
+        <v>6</v>
+      </c>
+      <c r="AZ39">
+        <v>13</v>
+      </c>
+      <c r="BA39">
+        <v>7</v>
+      </c>
+      <c r="BB39">
+        <v>6</v>
+      </c>
+      <c r="BC39">
+        <v>13</v>
+      </c>
+      <c r="BD39">
+        <v>1.45</v>
+      </c>
+      <c r="BE39">
+        <v>7</v>
+      </c>
+      <c r="BF39">
+        <v>3.05</v>
+      </c>
+      <c r="BG39">
+        <v>1.25</v>
+      </c>
+      <c r="BH39">
+        <v>3.45</v>
+      </c>
+      <c r="BI39">
+        <v>1.43</v>
+      </c>
+      <c r="BJ39">
+        <v>2.55</v>
+      </c>
+      <c r="BK39">
+        <v>1.72</v>
+      </c>
+      <c r="BL39">
+        <v>1.98</v>
+      </c>
+      <c r="BM39">
+        <v>2.12</v>
+      </c>
+      <c r="BN39">
+        <v>1.63</v>
+      </c>
+      <c r="BO39">
+        <v>2.65</v>
+      </c>
+      <c r="BP39">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7491857</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45563.4375</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>117</v>
+      </c>
+      <c r="P40" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q40">
+        <v>2.75</v>
+      </c>
+      <c r="R40">
+        <v>2.25</v>
+      </c>
+      <c r="S40">
+        <v>3.75</v>
+      </c>
+      <c r="T40">
+        <v>1.36</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+      <c r="V40">
+        <v>2.63</v>
+      </c>
+      <c r="W40">
+        <v>1.44</v>
+      </c>
+      <c r="X40">
+        <v>7</v>
+      </c>
+      <c r="Y40">
+        <v>1.1</v>
+      </c>
+      <c r="Z40">
+        <v>2.19</v>
+      </c>
+      <c r="AA40">
+        <v>3.48</v>
+      </c>
+      <c r="AB40">
+        <v>2.98</v>
+      </c>
+      <c r="AC40">
+        <v>1.04</v>
+      </c>
+      <c r="AD40">
+        <v>10.5</v>
+      </c>
+      <c r="AE40">
+        <v>1.21</v>
+      </c>
+      <c r="AF40">
+        <v>3.6</v>
+      </c>
+      <c r="AG40">
+        <v>1.55</v>
+      </c>
+      <c r="AH40">
+        <v>2.3</v>
+      </c>
+      <c r="AI40">
+        <v>1.67</v>
+      </c>
+      <c r="AJ40">
+        <v>2.1</v>
+      </c>
+      <c r="AK40">
+        <v>1.34</v>
+      </c>
+      <c r="AL40">
+        <v>1.3</v>
+      </c>
+      <c r="AM40">
+        <v>1.76</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>1</v>
+      </c>
+      <c r="AP40">
+        <v>1</v>
+      </c>
+      <c r="AQ40">
+        <v>0.67</v>
+      </c>
+      <c r="AR40">
+        <v>1.56</v>
+      </c>
+      <c r="AS40">
+        <v>1.26</v>
+      </c>
+      <c r="AT40">
+        <v>2.82</v>
+      </c>
+      <c r="AU40">
+        <v>3</v>
+      </c>
+      <c r="AV40">
+        <v>3</v>
+      </c>
+      <c r="AW40">
+        <v>3</v>
+      </c>
+      <c r="AX40">
+        <v>6</v>
+      </c>
+      <c r="AY40">
+        <v>6</v>
+      </c>
+      <c r="AZ40">
+        <v>9</v>
+      </c>
+      <c r="BA40">
+        <v>2</v>
+      </c>
+      <c r="BB40">
+        <v>4</v>
+      </c>
+      <c r="BC40">
+        <v>6</v>
+      </c>
+      <c r="BD40">
+        <v>1.68</v>
+      </c>
+      <c r="BE40">
+        <v>6.5</v>
+      </c>
+      <c r="BF40">
+        <v>2.43</v>
+      </c>
+      <c r="BG40">
+        <v>1.26</v>
+      </c>
+      <c r="BH40">
+        <v>3.4</v>
+      </c>
+      <c r="BI40">
+        <v>1.47</v>
+      </c>
+      <c r="BJ40">
+        <v>2.48</v>
+      </c>
+      <c r="BK40">
+        <v>1.74</v>
+      </c>
+      <c r="BL40">
+        <v>1.95</v>
+      </c>
+      <c r="BM40">
+        <v>2.17</v>
+      </c>
+      <c r="BN40">
+        <v>1.58</v>
+      </c>
+      <c r="BO40">
+        <v>2.8</v>
+      </c>
+      <c r="BP40">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7491855</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45563.4375</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="O41" t="s">
+        <v>118</v>
+      </c>
+      <c r="P41" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q41">
+        <v>3.5</v>
+      </c>
+      <c r="R41">
+        <v>2.4</v>
+      </c>
+      <c r="S41">
+        <v>2.6</v>
+      </c>
+      <c r="T41">
+        <v>1.29</v>
+      </c>
+      <c r="U41">
+        <v>3.5</v>
+      </c>
+      <c r="V41">
+        <v>2.25</v>
+      </c>
+      <c r="W41">
+        <v>1.57</v>
+      </c>
+      <c r="X41">
+        <v>5.5</v>
+      </c>
+      <c r="Y41">
+        <v>1.14</v>
+      </c>
+      <c r="Z41">
+        <v>3.27</v>
+      </c>
+      <c r="AA41">
+        <v>3.82</v>
+      </c>
+      <c r="AB41">
+        <v>1.96</v>
+      </c>
+      <c r="AC41">
+        <v>1.02</v>
+      </c>
+      <c r="AD41">
+        <v>19</v>
+      </c>
+      <c r="AE41">
+        <v>1.18</v>
+      </c>
+      <c r="AF41">
+        <v>5</v>
+      </c>
+      <c r="AG41">
+        <v>1.58</v>
+      </c>
+      <c r="AH41">
+        <v>2.23</v>
+      </c>
+      <c r="AI41">
+        <v>1.5</v>
+      </c>
+      <c r="AJ41">
+        <v>2.5</v>
+      </c>
+      <c r="AK41">
+        <v>1.78</v>
+      </c>
+      <c r="AL41">
+        <v>1.22</v>
+      </c>
+      <c r="AM41">
+        <v>1.35</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>1.5</v>
+      </c>
+      <c r="AP41">
+        <v>0.33</v>
+      </c>
+      <c r="AQ41">
+        <v>1.33</v>
+      </c>
+      <c r="AR41">
+        <v>1.28</v>
+      </c>
+      <c r="AS41">
+        <v>1.25</v>
+      </c>
+      <c r="AT41">
+        <v>2.53</v>
+      </c>
+      <c r="AU41">
+        <v>3</v>
+      </c>
+      <c r="AV41">
+        <v>5</v>
+      </c>
+      <c r="AW41">
+        <v>2</v>
+      </c>
+      <c r="AX41">
+        <v>6</v>
+      </c>
+      <c r="AY41">
+        <v>5</v>
+      </c>
+      <c r="AZ41">
+        <v>11</v>
+      </c>
+      <c r="BA41">
+        <v>1</v>
+      </c>
+      <c r="BB41">
+        <v>3</v>
+      </c>
+      <c r="BC41">
+        <v>4</v>
+      </c>
+      <c r="BD41">
+        <v>2.1</v>
+      </c>
+      <c r="BE41">
+        <v>6.4</v>
+      </c>
+      <c r="BF41">
+        <v>1.9</v>
+      </c>
+      <c r="BG41">
+        <v>1.3</v>
+      </c>
+      <c r="BH41">
+        <v>3.05</v>
+      </c>
+      <c r="BI41">
+        <v>1.52</v>
+      </c>
+      <c r="BJ41">
+        <v>2.3</v>
+      </c>
+      <c r="BK41">
+        <v>1.92</v>
+      </c>
+      <c r="BL41">
+        <v>1.88</v>
+      </c>
+      <c r="BM41">
+        <v>2.32</v>
+      </c>
+      <c r="BN41">
+        <v>1.52</v>
+      </c>
+      <c r="BO41">
+        <v>3</v>
+      </c>
+      <c r="BP41">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7491851</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45563.4375</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s">
+        <v>74</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>4</v>
+      </c>
+      <c r="O42" t="s">
+        <v>119</v>
+      </c>
+      <c r="P42" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q42">
+        <v>1.83</v>
+      </c>
+      <c r="R42">
+        <v>2.75</v>
+      </c>
+      <c r="S42">
+        <v>6</v>
+      </c>
+      <c r="T42">
+        <v>1.22</v>
+      </c>
+      <c r="U42">
+        <v>4</v>
+      </c>
+      <c r="V42">
+        <v>2.1</v>
+      </c>
+      <c r="W42">
+        <v>1.67</v>
+      </c>
+      <c r="X42">
+        <v>4.5</v>
+      </c>
+      <c r="Y42">
+        <v>1.18</v>
+      </c>
+      <c r="Z42">
+        <v>1.4</v>
+      </c>
+      <c r="AA42">
+        <v>4.5</v>
+      </c>
+      <c r="AB42">
+        <v>7</v>
+      </c>
+      <c r="AC42">
+        <v>1.01</v>
+      </c>
+      <c r="AD42">
+        <v>26</v>
+      </c>
+      <c r="AE42">
+        <v>1.08</v>
+      </c>
+      <c r="AF42">
+        <v>5.3</v>
+      </c>
+      <c r="AG42">
+        <v>1.41</v>
+      </c>
+      <c r="AH42">
+        <v>2.78</v>
+      </c>
+      <c r="AI42">
+        <v>1.62</v>
+      </c>
+      <c r="AJ42">
+        <v>2.2</v>
+      </c>
+      <c r="AK42">
+        <v>1.1</v>
+      </c>
+      <c r="AL42">
+        <v>1.12</v>
+      </c>
+      <c r="AM42">
+        <v>2.95</v>
+      </c>
+      <c r="AN42">
+        <v>2</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>2.33</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>1.14</v>
+      </c>
+      <c r="AS42">
+        <v>1.49</v>
+      </c>
+      <c r="AT42">
+        <v>2.63</v>
+      </c>
+      <c r="AU42">
+        <v>8</v>
+      </c>
+      <c r="AV42">
+        <v>2</v>
+      </c>
+      <c r="AW42">
+        <v>5</v>
+      </c>
+      <c r="AX42">
+        <v>3</v>
+      </c>
+      <c r="AY42">
+        <v>13</v>
+      </c>
+      <c r="AZ42">
+        <v>5</v>
+      </c>
+      <c r="BA42">
+        <v>8</v>
+      </c>
+      <c r="BB42">
+        <v>5</v>
+      </c>
+      <c r="BC42">
+        <v>13</v>
+      </c>
+      <c r="BD42">
+        <v>1.26</v>
+      </c>
+      <c r="BE42">
+        <v>8</v>
+      </c>
+      <c r="BF42">
+        <v>4.1</v>
+      </c>
+      <c r="BG42">
+        <v>1.2</v>
+      </c>
+      <c r="BH42">
+        <v>3.9</v>
+      </c>
+      <c r="BI42">
+        <v>1.36</v>
+      </c>
+      <c r="BJ42">
+        <v>2.8</v>
+      </c>
+      <c r="BK42">
+        <v>1.58</v>
+      </c>
+      <c r="BL42">
+        <v>2.18</v>
+      </c>
+      <c r="BM42">
+        <v>1.94</v>
+      </c>
+      <c r="BN42">
+        <v>1.76</v>
+      </c>
+      <c r="BO42">
+        <v>2.4</v>
+      </c>
+      <c r="BP42">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7491854</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45563.4375</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>96</v>
+      </c>
+      <c r="P43" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q43">
+        <v>2.2</v>
+      </c>
+      <c r="R43">
+        <v>2.3</v>
+      </c>
+      <c r="S43">
+        <v>5.5</v>
+      </c>
+      <c r="T43">
+        <v>1.36</v>
+      </c>
+      <c r="U43">
+        <v>3</v>
+      </c>
+      <c r="V43">
+        <v>2.63</v>
+      </c>
+      <c r="W43">
+        <v>1.44</v>
+      </c>
+      <c r="X43">
+        <v>7</v>
+      </c>
+      <c r="Y43">
+        <v>1.1</v>
+      </c>
+      <c r="Z43">
+        <v>1.83</v>
+      </c>
+      <c r="AA43">
+        <v>3.75</v>
+      </c>
+      <c r="AB43">
+        <v>3.75</v>
+      </c>
+      <c r="AC43">
+        <v>1.01</v>
+      </c>
+      <c r="AD43">
+        <v>9.4</v>
+      </c>
+      <c r="AE43">
+        <v>1.22</v>
+      </c>
+      <c r="AF43">
+        <v>3.52</v>
+      </c>
+      <c r="AG43">
+        <v>1.58</v>
+      </c>
+      <c r="AH43">
+        <v>2.23</v>
+      </c>
+      <c r="AI43">
+        <v>1.8</v>
+      </c>
+      <c r="AJ43">
+        <v>1.95</v>
+      </c>
+      <c r="AK43">
+        <v>1.2</v>
+      </c>
+      <c r="AL43">
+        <v>1.27</v>
+      </c>
+      <c r="AM43">
+        <v>2.15</v>
+      </c>
+      <c r="AN43">
+        <v>3</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>2</v>
+      </c>
+      <c r="AQ43">
+        <v>1</v>
+      </c>
+      <c r="AR43">
+        <v>1.82</v>
+      </c>
+      <c r="AS43">
+        <v>0.97</v>
+      </c>
+      <c r="AT43">
+        <v>2.79</v>
+      </c>
+      <c r="AU43">
+        <v>4</v>
+      </c>
+      <c r="AV43">
+        <v>5</v>
+      </c>
+      <c r="AW43">
+        <v>6</v>
+      </c>
+      <c r="AX43">
+        <v>4</v>
+      </c>
+      <c r="AY43">
+        <v>10</v>
+      </c>
+      <c r="AZ43">
+        <v>9</v>
+      </c>
+      <c r="BA43">
+        <v>4</v>
+      </c>
+      <c r="BB43">
+        <v>2</v>
+      </c>
+      <c r="BC43">
+        <v>6</v>
+      </c>
+      <c r="BD43">
+        <v>1.63</v>
+      </c>
+      <c r="BE43">
+        <v>6.75</v>
+      </c>
+      <c r="BF43">
+        <v>2.55</v>
+      </c>
+      <c r="BG43">
+        <v>1.27</v>
+      </c>
+      <c r="BH43">
+        <v>3.3</v>
+      </c>
+      <c r="BI43">
+        <v>1.47</v>
+      </c>
+      <c r="BJ43">
+        <v>2.4</v>
+      </c>
+      <c r="BK43">
+        <v>2</v>
+      </c>
+      <c r="BL43">
+        <v>1.8</v>
+      </c>
+      <c r="BM43">
+        <v>2.23</v>
+      </c>
+      <c r="BN43">
+        <v>1.58</v>
+      </c>
+      <c r="BO43">
+        <v>2.8</v>
+      </c>
+      <c r="BP43">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7491850</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45563.5625</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" t="s">
+        <v>85</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>120</v>
+      </c>
+      <c r="P44" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q44">
+        <v>2.2</v>
+      </c>
+      <c r="R44">
+        <v>2.63</v>
+      </c>
+      <c r="S44">
+        <v>4</v>
+      </c>
+      <c r="T44">
+        <v>1.2</v>
+      </c>
+      <c r="U44">
+        <v>4.33</v>
+      </c>
+      <c r="V44">
+        <v>1.91</v>
+      </c>
+      <c r="W44">
+        <v>1.8</v>
+      </c>
+      <c r="X44">
+        <v>4</v>
+      </c>
+      <c r="Y44">
+        <v>1.22</v>
+      </c>
+      <c r="Z44">
+        <v>1.73</v>
+      </c>
+      <c r="AA44">
+        <v>4.4</v>
+      </c>
+      <c r="AB44">
+        <v>3.8</v>
+      </c>
+      <c r="AC44">
+        <v>1.01</v>
+      </c>
+      <c r="AD44">
+        <v>29</v>
+      </c>
+      <c r="AE44">
+        <v>1.05</v>
+      </c>
+      <c r="AF44">
+        <v>6.1</v>
+      </c>
+      <c r="AG44">
+        <v>1.31</v>
+      </c>
+      <c r="AH44">
+        <v>3.27</v>
+      </c>
+      <c r="AI44">
+        <v>1.4</v>
+      </c>
+      <c r="AJ44">
+        <v>2.75</v>
+      </c>
+      <c r="AK44">
+        <v>1.22</v>
+      </c>
+      <c r="AL44">
+        <v>1.17</v>
+      </c>
+      <c r="AM44">
+        <v>2.1</v>
+      </c>
+      <c r="AN44">
+        <v>3</v>
+      </c>
+      <c r="AO44">
+        <v>3</v>
+      </c>
+      <c r="AP44">
+        <v>2</v>
+      </c>
+      <c r="AQ44">
+        <v>2.33</v>
+      </c>
+      <c r="AR44">
+        <v>1.17</v>
+      </c>
+      <c r="AS44">
+        <v>2.29</v>
+      </c>
+      <c r="AT44">
+        <v>3.46</v>
+      </c>
+      <c r="AU44">
+        <v>4</v>
+      </c>
+      <c r="AV44">
+        <v>3</v>
+      </c>
+      <c r="AW44">
+        <v>11</v>
+      </c>
+      <c r="AX44">
+        <v>1</v>
+      </c>
+      <c r="AY44">
+        <v>15</v>
+      </c>
+      <c r="AZ44">
+        <v>4</v>
+      </c>
+      <c r="BA44">
+        <v>6</v>
+      </c>
+      <c r="BB44">
+        <v>1</v>
+      </c>
+      <c r="BC44">
+        <v>7</v>
+      </c>
+      <c r="BD44">
+        <v>1.57</v>
+      </c>
+      <c r="BE44">
+        <v>6.5</v>
+      </c>
+      <c r="BF44">
+        <v>2.65</v>
+      </c>
+      <c r="BG44">
+        <v>1.26</v>
+      </c>
+      <c r="BH44">
+        <v>3.4</v>
+      </c>
+      <c r="BI44">
+        <v>1.48</v>
+      </c>
+      <c r="BJ44">
+        <v>2.45</v>
+      </c>
+      <c r="BK44">
+        <v>1.9</v>
+      </c>
+      <c r="BL44">
+        <v>1.9</v>
+      </c>
+      <c r="BM44">
+        <v>2.23</v>
+      </c>
+      <c r="BN44">
+        <v>1.57</v>
+      </c>
+      <c r="BO44">
+        <v>2.8</v>
+      </c>
+      <c r="BP44">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7491858</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45564.4375</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>4</v>
+      </c>
+      <c r="N45">
+        <v>6</v>
+      </c>
+      <c r="O45" t="s">
+        <v>121</v>
+      </c>
+      <c r="P45" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q45">
+        <v>4.5</v>
+      </c>
+      <c r="R45">
+        <v>2.5</v>
+      </c>
+      <c r="S45">
+        <v>2.2</v>
+      </c>
+      <c r="T45">
+        <v>1.25</v>
+      </c>
+      <c r="U45">
+        <v>3.75</v>
+      </c>
+      <c r="V45">
+        <v>2.2</v>
+      </c>
+      <c r="W45">
+        <v>1.62</v>
+      </c>
+      <c r="X45">
+        <v>5</v>
+      </c>
+      <c r="Y45">
+        <v>1.17</v>
+      </c>
+      <c r="Z45">
+        <v>4</v>
+      </c>
+      <c r="AA45">
+        <v>4.2</v>
+      </c>
+      <c r="AB45">
+        <v>1.75</v>
+      </c>
+      <c r="AC45">
+        <v>1.02</v>
+      </c>
+      <c r="AD45">
+        <v>21</v>
+      </c>
+      <c r="AE45">
+        <v>1.1</v>
+      </c>
+      <c r="AF45">
+        <v>4.85</v>
+      </c>
+      <c r="AG45">
+        <v>1.5</v>
+      </c>
+      <c r="AH45">
+        <v>2.55</v>
+      </c>
+      <c r="AI45">
+        <v>1.53</v>
+      </c>
+      <c r="AJ45">
+        <v>2.38</v>
+      </c>
+      <c r="AK45">
+        <v>2.2</v>
+      </c>
+      <c r="AL45">
+        <v>1.18</v>
+      </c>
+      <c r="AM45">
+        <v>1.18</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>1.5</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <v>2</v>
+      </c>
+      <c r="AR45">
+        <v>1</v>
+      </c>
+      <c r="AS45">
+        <v>1.28</v>
+      </c>
+      <c r="AT45">
+        <v>2.28</v>
+      </c>
+      <c r="AU45">
+        <v>6</v>
+      </c>
+      <c r="AV45">
+        <v>11</v>
+      </c>
+      <c r="AW45">
+        <v>2</v>
+      </c>
+      <c r="AX45">
+        <v>3</v>
+      </c>
+      <c r="AY45">
+        <v>8</v>
+      </c>
+      <c r="AZ45">
+        <v>14</v>
+      </c>
+      <c r="BA45">
+        <v>4</v>
+      </c>
+      <c r="BB45">
+        <v>9</v>
+      </c>
+      <c r="BC45">
+        <v>13</v>
+      </c>
+      <c r="BD45">
+        <v>2.7</v>
+      </c>
+      <c r="BE45">
+        <v>6.75</v>
+      </c>
+      <c r="BF45">
+        <v>1.54</v>
+      </c>
+      <c r="BG45">
+        <v>1.23</v>
+      </c>
+      <c r="BH45">
+        <v>3.55</v>
+      </c>
+      <c r="BI45">
+        <v>1.41</v>
+      </c>
+      <c r="BJ45">
+        <v>2.65</v>
+      </c>
+      <c r="BK45">
+        <v>1.67</v>
+      </c>
+      <c r="BL45">
+        <v>2.05</v>
+      </c>
+      <c r="BM45">
+        <v>2.04</v>
+      </c>
+      <c r="BN45">
+        <v>1.68</v>
+      </c>
+      <c r="BO45">
+        <v>2.55</v>
+      </c>
+      <c r="BP45">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7491853</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45564.52083333334</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>6</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <v>7</v>
+      </c>
+      <c r="O46" t="s">
+        <v>122</v>
+      </c>
+      <c r="P46" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q46">
+        <v>2.75</v>
+      </c>
+      <c r="R46">
+        <v>2.5</v>
+      </c>
+      <c r="S46">
+        <v>3.1</v>
+      </c>
+      <c r="T46">
+        <v>1.25</v>
+      </c>
+      <c r="U46">
+        <v>3.75</v>
+      </c>
+      <c r="V46">
+        <v>2.1</v>
+      </c>
+      <c r="W46">
+        <v>1.67</v>
+      </c>
+      <c r="X46">
+        <v>4.5</v>
+      </c>
+      <c r="Y46">
+        <v>1.18</v>
+      </c>
+      <c r="Z46">
+        <v>2.06</v>
+      </c>
+      <c r="AA46">
+        <v>3.85</v>
+      </c>
+      <c r="AB46">
+        <v>3.1</v>
+      </c>
+      <c r="AC46">
+        <v>1.01</v>
+      </c>
+      <c r="AD46">
+        <v>21</v>
+      </c>
+      <c r="AE46">
+        <v>1.08</v>
+      </c>
+      <c r="AF46">
+        <v>5.25</v>
+      </c>
+      <c r="AG46">
+        <v>1.4</v>
+      </c>
+      <c r="AH46">
+        <v>2.9</v>
+      </c>
+      <c r="AI46">
+        <v>1.4</v>
+      </c>
+      <c r="AJ46">
+        <v>2.75</v>
+      </c>
+      <c r="AK46">
+        <v>1.34</v>
+      </c>
+      <c r="AL46">
+        <v>1.21</v>
+      </c>
+      <c r="AM46">
+        <v>1.67</v>
+      </c>
+      <c r="AN46">
+        <v>1.5</v>
+      </c>
+      <c r="AO46">
+        <v>2</v>
+      </c>
+      <c r="AP46">
+        <v>1</v>
+      </c>
+      <c r="AQ46">
+        <v>2.33</v>
+      </c>
+      <c r="AR46">
+        <v>1.82</v>
+      </c>
+      <c r="AS46">
+        <v>1.36</v>
+      </c>
+      <c r="AT46">
+        <v>3.18</v>
+      </c>
+      <c r="AU46">
+        <v>7</v>
+      </c>
+      <c r="AV46">
+        <v>11</v>
+      </c>
+      <c r="AW46">
+        <v>4</v>
+      </c>
+      <c r="AX46">
+        <v>4</v>
+      </c>
+      <c r="AY46">
+        <v>11</v>
+      </c>
+      <c r="AZ46">
+        <v>15</v>
+      </c>
+      <c r="BA46">
+        <v>2</v>
+      </c>
+      <c r="BB46">
+        <v>6</v>
+      </c>
+      <c r="BC46">
+        <v>8</v>
+      </c>
+      <c r="BD46">
+        <v>1.72</v>
+      </c>
+      <c r="BE46">
+        <v>6.5</v>
+      </c>
+      <c r="BF46">
+        <v>2.38</v>
+      </c>
+      <c r="BG46">
+        <v>1.26</v>
+      </c>
+      <c r="BH46">
+        <v>3.4</v>
+      </c>
+      <c r="BI46">
+        <v>1.47</v>
+      </c>
+      <c r="BJ46">
+        <v>2.48</v>
+      </c>
+      <c r="BK46">
+        <v>1.75</v>
+      </c>
+      <c r="BL46">
+        <v>1.95</v>
+      </c>
+      <c r="BM46">
+        <v>2.17</v>
+      </c>
+      <c r="BN46">
+        <v>1.6</v>
+      </c>
+      <c r="BO46">
+        <v>2.75</v>
+      </c>
+      <c r="BP46">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -256,21 +256,21 @@
     <t>Union Berlin</t>
   </si>
   <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
     <t>Stuttgart</t>
   </si>
   <si>
     <t>Eintracht Frankfurt</t>
   </si>
   <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Holstein Kiel</t>
-  </si>
-  <si>
     <t>Bayer Leverkusen</t>
   </si>
   <si>
@@ -328,18 +328,18 @@
     <t>['11', '17', '41', '90+3']</t>
   </si>
   <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['37']</t>
   </si>
   <si>
     <t>['58', '61']</t>
   </si>
   <si>
-    <t>['76']</t>
-  </si>
-  <si>
-    <t>['27']</t>
-  </si>
-  <si>
     <t>['82']</t>
   </si>
   <si>
@@ -349,12 +349,12 @@
     <t>['25', '57']</t>
   </si>
   <si>
+    <t>['4', '6']</t>
+  </si>
+  <si>
     <t>['22', '35']</t>
   </si>
   <si>
-    <t>['4', '6']</t>
-  </si>
-  <si>
     <t>['30', '80']</t>
   </si>
   <si>
@@ -367,18 +367,18 @@
     <t>['44', '62', '75', '81']</t>
   </si>
   <si>
+    <t>['11', '15', '46', '57']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['20', '68']</t>
+  </si>
+  <si>
     <t>['90+6']</t>
   </si>
   <si>
-    <t>['20', '68']</t>
-  </si>
-  <si>
-    <t>['11', '15', '46', '57']</t>
-  </si>
-  <si>
-    <t>['39']</t>
-  </si>
-  <si>
     <t>['30', '50']</t>
   </si>
   <si>
@@ -406,36 +406,36 @@
     <t>['66', '82']</t>
   </si>
   <si>
+    <t>['27', '30']</t>
+  </si>
+  <si>
+    <t>['67', '78']</t>
+  </si>
+  <si>
     <t>['43', '62', '90+4']</t>
   </si>
   <si>
     <t>['54']</t>
   </si>
   <si>
-    <t>['67', '78']</t>
-  </si>
-  <si>
-    <t>['27', '30']</t>
-  </si>
-  <si>
     <t>['45+7', '57', '80']</t>
   </si>
   <si>
     <t>['39', '74']</t>
   </si>
   <si>
+    <t>['21', '57', '61']</t>
+  </si>
+  <si>
+    <t>['30', '82']</t>
+  </si>
+  <si>
     <t>['17', '30', '72', '75']</t>
   </si>
   <si>
     <t>['45']</t>
   </si>
   <si>
-    <t>['30', '82']</t>
-  </si>
-  <si>
-    <t>['21', '57', '61']</t>
-  </si>
-  <si>
     <t>['1', '7', '13', '43', '65', '90+1']</t>
   </si>
   <si>
@@ -445,18 +445,18 @@
     <t>['13', '15', '49']</t>
   </si>
   <si>
+    <t>['54', '59', '65']</t>
+  </si>
+  <si>
+    <t>['23', '32', '57', '60', '65']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['15', '89']</t>
   </si>
   <si>
-    <t>['67']</t>
-  </si>
-  <si>
-    <t>['54', '59', '65']</t>
-  </si>
-  <si>
-    <t>['23', '32', '57', '60', '65']</t>
-  </si>
-  <si>
     <t>['5', '37', '45+1']</t>
   </si>
   <si>
@@ -466,16 +466,16 @@
     <t>['16', '21']</t>
   </si>
   <si>
+    <t>['12', '45', '72']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['32', '90+7']</t>
+  </si>
+  <si>
     <t>['15', '86']</t>
-  </si>
-  <si>
-    <t>['32', '90+7']</t>
-  </si>
-  <si>
-    <t>['12', '45', '72']</t>
-  </si>
-  <si>
-    <t>['31']</t>
   </si>
   <si>
     <t>['25', '47', '65', '74']</t>
@@ -1284,7 +1284,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1696,7 +1696,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2314,7 +2314,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7491824</v>
+        <v>7491831</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3138,100 +3138,100 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P12" t="s">
         <v>130</v>
       </c>
       <c r="Q12">
+        <v>3.6</v>
+      </c>
+      <c r="R12">
+        <v>2.25</v>
+      </c>
+      <c r="S12">
+        <v>2.75</v>
+      </c>
+      <c r="T12">
+        <v>1.33</v>
+      </c>
+      <c r="U12">
+        <v>3.25</v>
+      </c>
+      <c r="V12">
+        <v>2.63</v>
+      </c>
+      <c r="W12">
+        <v>1.44</v>
+      </c>
+      <c r="X12">
+        <v>6.5</v>
+      </c>
+      <c r="Y12">
+        <v>1.11</v>
+      </c>
+      <c r="Z12">
+        <v>3</v>
+      </c>
+      <c r="AA12">
+        <v>3.5</v>
+      </c>
+      <c r="AB12">
+        <v>2.25</v>
+      </c>
+      <c r="AC12">
+        <v>1.04</v>
+      </c>
+      <c r="AD12">
+        <v>14.75</v>
+      </c>
+      <c r="AE12">
+        <v>1.23</v>
+      </c>
+      <c r="AF12">
+        <v>4.2</v>
+      </c>
+      <c r="AG12">
+        <v>1.77</v>
+      </c>
+      <c r="AH12">
+        <v>1.97</v>
+      </c>
+      <c r="AI12">
+        <v>1.62</v>
+      </c>
+      <c r="AJ12">
         <v>2.2</v>
       </c>
-      <c r="R12">
-        <v>2.4</v>
-      </c>
-      <c r="S12">
-        <v>4.75</v>
-      </c>
-      <c r="T12">
+      <c r="AK12">
+        <v>1.7</v>
+      </c>
+      <c r="AL12">
         <v>1.29</v>
       </c>
-      <c r="U12">
-        <v>3.5</v>
-      </c>
-      <c r="V12">
-        <v>2.38</v>
-      </c>
-      <c r="W12">
-        <v>1.53</v>
-      </c>
-      <c r="X12">
-        <v>5.5</v>
-      </c>
-      <c r="Y12">
-        <v>1.14</v>
-      </c>
-      <c r="Z12">
-        <v>1.53</v>
-      </c>
-      <c r="AA12">
-        <v>4.4</v>
-      </c>
-      <c r="AB12">
-        <v>5.75</v>
-      </c>
-      <c r="AC12">
-        <v>1.03</v>
-      </c>
-      <c r="AD12">
-        <v>17</v>
-      </c>
-      <c r="AE12">
-        <v>1.18</v>
-      </c>
-      <c r="AF12">
-        <v>4.35</v>
-      </c>
-      <c r="AG12">
-        <v>1.54</v>
-      </c>
-      <c r="AH12">
-        <v>2.35</v>
-      </c>
-      <c r="AI12">
-        <v>1.67</v>
-      </c>
-      <c r="AJ12">
-        <v>2.1</v>
-      </c>
-      <c r="AK12">
-        <v>1.18</v>
-      </c>
-      <c r="AL12">
-        <v>1.19</v>
-      </c>
       <c r="AM12">
-        <v>2.3</v>
+        <v>1.36</v>
       </c>
       <c r="AN12">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3255,70 +3255,70 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AV12">
+        <v>6</v>
+      </c>
+      <c r="AW12">
+        <v>6</v>
+      </c>
+      <c r="AX12">
+        <v>4</v>
+      </c>
+      <c r="AY12">
+        <v>12</v>
+      </c>
+      <c r="AZ12">
+        <v>10</v>
+      </c>
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>7</v>
+      </c>
+      <c r="BC12">
         <v>8</v>
       </c>
-      <c r="AW12">
-        <v>8</v>
-      </c>
-      <c r="AX12">
-        <v>1</v>
-      </c>
-      <c r="AY12">
-        <v>21</v>
-      </c>
-      <c r="AZ12">
-        <v>9</v>
-      </c>
-      <c r="BA12">
-        <v>11</v>
-      </c>
-      <c r="BB12">
-        <v>2</v>
-      </c>
-      <c r="BC12">
-        <v>13</v>
-      </c>
       <c r="BD12">
-        <v>1.48</v>
+        <v>1.98</v>
       </c>
       <c r="BE12">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF12">
-        <v>2.95</v>
+        <v>1.98</v>
       </c>
       <c r="BG12">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BH12">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="BI12">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="BJ12">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="BK12">
-        <v>1.95</v>
+        <v>1.71</v>
       </c>
       <c r="BL12">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BM12">
-        <v>2.33</v>
+        <v>2.08</v>
       </c>
       <c r="BN12">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="BO12">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="BP12">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -3326,7 +3326,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7491826</v>
+        <v>7491830</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3344,187 +3344,187 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P13" t="s">
         <v>131</v>
       </c>
       <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
         <v>2.3</v>
       </c>
-      <c r="R13">
+      <c r="S13">
+        <v>3.1</v>
+      </c>
+      <c r="T13">
+        <v>1.3</v>
+      </c>
+      <c r="U13">
+        <v>3.4</v>
+      </c>
+      <c r="V13">
         <v>2.5</v>
       </c>
-      <c r="S13">
-        <v>4</v>
-      </c>
-      <c r="T13">
-        <v>1.25</v>
-      </c>
-      <c r="U13">
-        <v>3.75</v>
-      </c>
-      <c r="V13">
-        <v>2.2</v>
-      </c>
       <c r="W13">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="X13">
+        <v>6</v>
+      </c>
+      <c r="Y13">
+        <v>1.13</v>
+      </c>
+      <c r="Z13">
+        <v>2.35</v>
+      </c>
+      <c r="AA13">
+        <v>3.7</v>
+      </c>
+      <c r="AB13">
+        <v>2.75</v>
+      </c>
+      <c r="AC13">
+        <v>1.03</v>
+      </c>
+      <c r="AD13">
+        <v>17</v>
+      </c>
+      <c r="AE13">
+        <v>1.17</v>
+      </c>
+      <c r="AF13">
+        <v>4.45</v>
+      </c>
+      <c r="AG13">
+        <v>1.58</v>
+      </c>
+      <c r="AH13">
+        <v>2.25</v>
+      </c>
+      <c r="AI13">
+        <v>1.53</v>
+      </c>
+      <c r="AJ13">
+        <v>2.38</v>
+      </c>
+      <c r="AK13">
+        <v>1.5</v>
+      </c>
+      <c r="AL13">
+        <v>1.24</v>
+      </c>
+      <c r="AM13">
+        <v>1.55</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0.5</v>
+      </c>
+      <c r="AQ13">
+        <v>1.5</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
         <v>5</v>
       </c>
-      <c r="Y13">
-        <v>1.17</v>
-      </c>
-      <c r="Z13">
-        <v>2</v>
-      </c>
-      <c r="AA13">
-        <v>3.75</v>
-      </c>
-      <c r="AB13">
-        <v>3.4</v>
-      </c>
-      <c r="AC13">
-        <v>1.02</v>
-      </c>
-      <c r="AD13">
-        <v>21</v>
-      </c>
-      <c r="AE13">
-        <v>1.11</v>
-      </c>
-      <c r="AF13">
-        <v>5.15</v>
-      </c>
-      <c r="AG13">
-        <v>1.63</v>
-      </c>
-      <c r="AH13">
-        <v>2.29</v>
-      </c>
-      <c r="AI13">
-        <v>1.5</v>
-      </c>
-      <c r="AJ13">
-        <v>2.5</v>
-      </c>
-      <c r="AK13">
-        <v>1.27</v>
-      </c>
-      <c r="AL13">
-        <v>1.25</v>
-      </c>
-      <c r="AM13">
-        <v>2.02</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>3</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>8</v>
-      </c>
       <c r="AV13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB13">
         <v>4</v>
       </c>
       <c r="BC13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD13">
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="BE13">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF13">
+        <v>2.48</v>
+      </c>
+      <c r="BG13">
+        <v>1.3</v>
+      </c>
+      <c r="BH13">
         <v>3.05</v>
       </c>
-      <c r="BG13">
-        <v>1.26</v>
-      </c>
-      <c r="BH13">
-        <v>3.4</v>
-      </c>
       <c r="BI13">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="BJ13">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="BK13">
+        <v>1.88</v>
+      </c>
+      <c r="BL13">
+        <v>1.81</v>
+      </c>
+      <c r="BM13">
+        <v>2</v>
+      </c>
+      <c r="BN13">
         <v>1.8</v>
       </c>
-      <c r="BL13">
-        <v>2</v>
-      </c>
-      <c r="BM13">
-        <v>2.18</v>
-      </c>
-      <c r="BN13">
-        <v>1.58</v>
-      </c>
       <c r="BO13">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="BP13">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3738,7 +3738,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7491830</v>
+        <v>7491824</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3756,67 +3756,67 @@
         <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P15" t="s">
         <v>132</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="R15">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S15">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="T15">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V15">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W15">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X15">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y15">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z15">
-        <v>2.35</v>
+        <v>1.53</v>
       </c>
       <c r="AA15">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="AB15">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="AC15">
         <v>1.03</v>
@@ -3825,31 +3825,31 @@
         <v>17</v>
       </c>
       <c r="AE15">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AF15">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="AG15">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AH15">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="AI15">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AJ15">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="AK15">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AL15">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AM15">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -3858,10 +3858,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3873,46 +3873,46 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AV15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW15">
+        <v>8</v>
+      </c>
+      <c r="AX15">
+        <v>1</v>
+      </c>
+      <c r="AY15">
+        <v>21</v>
+      </c>
+      <c r="AZ15">
         <v>9</v>
       </c>
-      <c r="AX15">
-        <v>5</v>
-      </c>
-      <c r="AY15">
-        <v>14</v>
-      </c>
-      <c r="AZ15">
-        <v>12</v>
-      </c>
       <c r="BA15">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BB15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC15">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD15">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="BE15">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF15">
-        <v>2.48</v>
+        <v>2.95</v>
       </c>
       <c r="BG15">
         <v>1.3</v>
       </c>
       <c r="BH15">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="BI15">
         <v>1.53</v>
@@ -3921,16 +3921,16 @@
         <v>2.32</v>
       </c>
       <c r="BK15">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="BL15">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="BM15">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="BN15">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="BO15">
         <v>3.05</v>
@@ -3944,7 +3944,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7491831</v>
+        <v>7491826</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -3962,100 +3962,100 @@
         <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P16" t="s">
         <v>133</v>
       </c>
       <c r="Q16">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="R16">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S16">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="T16">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U16">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V16">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="W16">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="X16">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Y16">
+        <v>1.17</v>
+      </c>
+      <c r="Z16">
+        <v>2</v>
+      </c>
+      <c r="AA16">
+        <v>3.75</v>
+      </c>
+      <c r="AB16">
+        <v>3.4</v>
+      </c>
+      <c r="AC16">
+        <v>1.02</v>
+      </c>
+      <c r="AD16">
+        <v>21</v>
+      </c>
+      <c r="AE16">
         <v>1.11</v>
       </c>
-      <c r="Z16">
-        <v>3</v>
-      </c>
-      <c r="AA16">
-        <v>3.5</v>
-      </c>
-      <c r="AB16">
-        <v>2.25</v>
-      </c>
-      <c r="AC16">
-        <v>1.04</v>
-      </c>
-      <c r="AD16">
-        <v>14.75</v>
-      </c>
-      <c r="AE16">
-        <v>1.23</v>
-      </c>
       <c r="AF16">
-        <v>4.2</v>
+        <v>5.15</v>
       </c>
       <c r="AG16">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="AH16">
-        <v>1.97</v>
+        <v>2.29</v>
       </c>
       <c r="AI16">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AJ16">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AK16">
-        <v>1.7</v>
+        <v>1.27</v>
       </c>
       <c r="AL16">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AM16">
-        <v>1.36</v>
+        <v>2.02</v>
       </c>
       <c r="AN16">
         <v>0</v>
@@ -4064,10 +4064,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4079,70 +4079,70 @@
         <v>0</v>
       </c>
       <c r="AU16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX16">
         <v>4</v>
       </c>
       <c r="AY16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA16">
         <v>1</v>
       </c>
       <c r="BB16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BD16">
-        <v>1.98</v>
+        <v>1.45</v>
       </c>
       <c r="BE16">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF16">
-        <v>1.98</v>
+        <v>3.05</v>
       </c>
       <c r="BG16">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="BH16">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="BI16">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="BJ16">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="BK16">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="BL16">
         <v>2</v>
       </c>
       <c r="BM16">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="BN16">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="BO16">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BP16">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4974,7 +4974,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7491834</v>
+        <v>7491839</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -4989,28 +4989,28 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O21" t="s">
         <v>104</v>
@@ -5019,58 +5019,58 @@
         <v>136</v>
       </c>
       <c r="Q21">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="R21">
+        <v>2.5</v>
+      </c>
+      <c r="S21">
         <v>2.75</v>
       </c>
-      <c r="S21">
-        <v>1.95</v>
-      </c>
       <c r="T21">
+        <v>1.25</v>
+      </c>
+      <c r="U21">
+        <v>3.75</v>
+      </c>
+      <c r="V21">
+        <v>2.1</v>
+      </c>
+      <c r="W21">
+        <v>1.67</v>
+      </c>
+      <c r="X21">
+        <v>4.5</v>
+      </c>
+      <c r="Y21">
         <v>1.18</v>
       </c>
-      <c r="U21">
-        <v>4.5</v>
-      </c>
-      <c r="V21">
-        <v>1.83</v>
-      </c>
-      <c r="W21">
-        <v>1.83</v>
-      </c>
-      <c r="X21">
-        <v>4</v>
-      </c>
-      <c r="Y21">
-        <v>1.22</v>
-      </c>
       <c r="Z21">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="AA21">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="AB21">
-        <v>1.53</v>
+        <v>2.3</v>
       </c>
       <c r="AC21">
         <v>1.01</v>
       </c>
       <c r="AD21">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AE21">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AF21">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AG21">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AH21">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AI21">
         <v>1.44</v>
@@ -5079,91 +5079,91 @@
         <v>2.63</v>
       </c>
       <c r="AK21">
-        <v>2.45</v>
+        <v>1.68</v>
       </c>
       <c r="AL21">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AM21">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="AN21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP21">
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
-        <v>2.26</v>
+        <v>1.46</v>
       </c>
       <c r="AS21">
-        <v>2.43</v>
+        <v>1.03</v>
       </c>
       <c r="AT21">
-        <v>4.69</v>
+        <v>2.49</v>
       </c>
       <c r="AU21">
+        <v>8</v>
+      </c>
+      <c r="AV21">
+        <v>8</v>
+      </c>
+      <c r="AW21">
+        <v>4</v>
+      </c>
+      <c r="AX21">
+        <v>2</v>
+      </c>
+      <c r="AY21">
+        <v>12</v>
+      </c>
+      <c r="AZ21">
+        <v>10</v>
+      </c>
+      <c r="BA21">
         <v>6</v>
       </c>
-      <c r="AV21">
-        <v>9</v>
-      </c>
-      <c r="AW21">
-        <v>4</v>
-      </c>
-      <c r="AX21">
-        <v>6</v>
-      </c>
-      <c r="AY21">
-        <v>10</v>
-      </c>
-      <c r="AZ21">
-        <v>15</v>
-      </c>
-      <c r="BA21">
-        <v>4</v>
-      </c>
       <c r="BB21">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BC21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BD21">
-        <v>3.3</v>
+        <v>2.17</v>
       </c>
       <c r="BE21">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF21">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="BG21">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="BH21">
         <v>3.9</v>
       </c>
       <c r="BI21">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="BJ21">
         <v>2.8</v>
       </c>
       <c r="BK21">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="BL21">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="BM21">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="BN21">
         <v>1.74</v>
@@ -5180,7 +5180,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7491835</v>
+        <v>7491837</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5195,10 +5195,10 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -5210,10 +5210,10 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22">
         <v>3</v>
@@ -5225,19 +5225,19 @@
         <v>137</v>
       </c>
       <c r="Q22">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="R22">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S22">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="T22">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U22">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V22">
         <v>2.5</v>
@@ -5246,25 +5246,25 @@
         <v>1.5</v>
       </c>
       <c r="X22">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y22">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z22">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="AA22">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AB22">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="AC22">
         <v>1.03</v>
       </c>
       <c r="AD22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE22">
         <v>1.22</v>
@@ -5273,112 +5273,112 @@
         <v>4.33</v>
       </c>
       <c r="AG22">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AH22">
+        <v>2.15</v>
+      </c>
+      <c r="AI22">
+        <v>1.57</v>
+      </c>
+      <c r="AJ22">
         <v>2.25</v>
       </c>
-      <c r="AI22">
-        <v>1.67</v>
-      </c>
-      <c r="AJ22">
-        <v>2.1</v>
-      </c>
       <c r="AK22">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="AL22">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AM22">
+        <v>1.5</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0.33</v>
+      </c>
+      <c r="AQ22">
+        <v>2</v>
+      </c>
+      <c r="AR22">
+        <v>1.03</v>
+      </c>
+      <c r="AS22">
+        <v>1.12</v>
+      </c>
+      <c r="AT22">
         <v>2.15</v>
       </c>
-      <c r="AN22">
-        <v>3</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>2</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>1.5</v>
-      </c>
-      <c r="AS22">
-        <v>0.87</v>
-      </c>
-      <c r="AT22">
-        <v>2.37</v>
-      </c>
       <c r="AU22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV22">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY22">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AZ22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA22">
         <v>5</v>
       </c>
       <c r="BB22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD22">
-        <v>1.64</v>
+        <v>1.93</v>
       </c>
       <c r="BE22">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF22">
-        <v>2.5</v>
+        <v>2.07</v>
       </c>
       <c r="BG22">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BH22">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BI22">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="BJ22">
-        <v>2.33</v>
+        <v>2.55</v>
       </c>
       <c r="BK22">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="BL22">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="BM22">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="BN22">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="BO22">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="BP22">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -5386,7 +5386,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7491837</v>
+        <v>7491832</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -5401,49 +5401,49 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="Q23">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="R23">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S23">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="T23">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U23">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V23">
         <v>2.5</v>
@@ -5452,139 +5452,139 @@
         <v>1.5</v>
       </c>
       <c r="X23">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y23">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z23">
+        <v>1.47</v>
+      </c>
+      <c r="AA23">
+        <v>4.6</v>
+      </c>
+      <c r="AB23">
+        <v>6.25</v>
+      </c>
+      <c r="AC23">
+        <v>1.02</v>
+      </c>
+      <c r="AD23">
+        <v>17</v>
+      </c>
+      <c r="AE23">
+        <v>1.19</v>
+      </c>
+      <c r="AF23">
+        <v>4.75</v>
+      </c>
+      <c r="AG23">
+        <v>1.62</v>
+      </c>
+      <c r="AH23">
+        <v>2.25</v>
+      </c>
+      <c r="AI23">
+        <v>1.8</v>
+      </c>
+      <c r="AJ23">
+        <v>1.95</v>
+      </c>
+      <c r="AK23">
+        <v>1.09</v>
+      </c>
+      <c r="AL23">
+        <v>1.15</v>
+      </c>
+      <c r="AM23">
+        <v>2.85</v>
+      </c>
+      <c r="AN23">
+        <v>3</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>2.33</v>
+      </c>
+      <c r="AQ23">
+        <v>0.67</v>
+      </c>
+      <c r="AR23">
+        <v>1.16</v>
+      </c>
+      <c r="AS23">
+        <v>1.54</v>
+      </c>
+      <c r="AT23">
         <v>2.7</v>
       </c>
-      <c r="AA23">
-        <v>3.6</v>
-      </c>
-      <c r="AB23">
-        <v>2.5</v>
-      </c>
-      <c r="AC23">
-        <v>1.03</v>
-      </c>
-      <c r="AD23">
-        <v>13</v>
-      </c>
-      <c r="AE23">
-        <v>1.22</v>
-      </c>
-      <c r="AF23">
-        <v>4.33</v>
-      </c>
-      <c r="AG23">
-        <v>1.67</v>
-      </c>
-      <c r="AH23">
-        <v>2.15</v>
-      </c>
-      <c r="AI23">
+      <c r="AU23">
+        <v>4</v>
+      </c>
+      <c r="AV23">
+        <v>4</v>
+      </c>
+      <c r="AW23">
+        <v>5</v>
+      </c>
+      <c r="AX23">
+        <v>4</v>
+      </c>
+      <c r="AY23">
+        <v>9</v>
+      </c>
+      <c r="AZ23">
+        <v>8</v>
+      </c>
+      <c r="BA23">
+        <v>6</v>
+      </c>
+      <c r="BB23">
+        <v>5</v>
+      </c>
+      <c r="BC23">
+        <v>11</v>
+      </c>
+      <c r="BD23">
+        <v>1.28</v>
+      </c>
+      <c r="BE23">
+        <v>7.5</v>
+      </c>
+      <c r="BF23">
+        <v>4.1</v>
+      </c>
+      <c r="BG23">
+        <v>1.28</v>
+      </c>
+      <c r="BH23">
+        <v>3.25</v>
+      </c>
+      <c r="BI23">
+        <v>1.48</v>
+      </c>
+      <c r="BJ23">
+        <v>2.43</v>
+      </c>
+      <c r="BK23">
+        <v>1.79</v>
+      </c>
+      <c r="BL23">
+        <v>1.9</v>
+      </c>
+      <c r="BM23">
+        <v>2.23</v>
+      </c>
+      <c r="BN23">
         <v>1.57</v>
       </c>
-      <c r="AJ23">
-        <v>2.25</v>
-      </c>
-      <c r="AK23">
-        <v>1.53</v>
-      </c>
-      <c r="AL23">
-        <v>1.26</v>
-      </c>
-      <c r="AM23">
-        <v>1.5</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0.33</v>
-      </c>
-      <c r="AQ23">
-        <v>2</v>
-      </c>
-      <c r="AR23">
-        <v>1.03</v>
-      </c>
-      <c r="AS23">
-        <v>1.12</v>
-      </c>
-      <c r="AT23">
-        <v>2.15</v>
-      </c>
-      <c r="AU23">
-        <v>5</v>
-      </c>
-      <c r="AV23">
-        <v>7</v>
-      </c>
-      <c r="AW23">
-        <v>6</v>
-      </c>
-      <c r="AX23">
-        <v>4</v>
-      </c>
-      <c r="AY23">
-        <v>11</v>
-      </c>
-      <c r="AZ23">
-        <v>11</v>
-      </c>
-      <c r="BA23">
-        <v>5</v>
-      </c>
-      <c r="BB23">
-        <v>4</v>
-      </c>
-      <c r="BC23">
-        <v>9</v>
-      </c>
-      <c r="BD23">
-        <v>1.93</v>
-      </c>
-      <c r="BE23">
-        <v>6.4</v>
-      </c>
-      <c r="BF23">
-        <v>2.07</v>
-      </c>
-      <c r="BG23">
-        <v>1.25</v>
-      </c>
-      <c r="BH23">
-        <v>3.4</v>
-      </c>
-      <c r="BI23">
-        <v>1.44</v>
-      </c>
-      <c r="BJ23">
-        <v>2.55</v>
-      </c>
-      <c r="BK23">
-        <v>1.73</v>
-      </c>
-      <c r="BL23">
-        <v>1.96</v>
-      </c>
-      <c r="BM23">
-        <v>2.15</v>
-      </c>
-      <c r="BN23">
-        <v>1.61</v>
-      </c>
       <c r="BO23">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="BP23">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="24" spans="1:68">
@@ -5592,7 +5592,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7491839</v>
+        <v>7491834</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -5607,88 +5607,88 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q24">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="R24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="S24">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="U24">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="V24">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="W24">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="X24">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Y24">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="Z24">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="AA24">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="AB24">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="AC24">
         <v>1.01</v>
       </c>
       <c r="AD24">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AE24">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AF24">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AG24">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AH24">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="AI24">
         <v>1.44</v>
@@ -5697,91 +5697,91 @@
         <v>2.63</v>
       </c>
       <c r="AK24">
-        <v>1.68</v>
+        <v>2.45</v>
       </c>
       <c r="AL24">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AM24">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP24">
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AR24">
-        <v>1.46</v>
+        <v>2.26</v>
       </c>
       <c r="AS24">
-        <v>1.03</v>
+        <v>2.43</v>
       </c>
       <c r="AT24">
-        <v>2.49</v>
+        <v>4.69</v>
       </c>
       <c r="AU24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW24">
         <v>4</v>
       </c>
       <c r="AX24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY24">
+        <v>10</v>
+      </c>
+      <c r="AZ24">
+        <v>15</v>
+      </c>
+      <c r="BA24">
+        <v>4</v>
+      </c>
+      <c r="BB24">
         <v>12</v>
       </c>
-      <c r="AZ24">
-        <v>10</v>
-      </c>
-      <c r="BA24">
-        <v>6</v>
-      </c>
-      <c r="BB24">
-        <v>2</v>
-      </c>
       <c r="BC24">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BD24">
-        <v>2.17</v>
+        <v>3.3</v>
       </c>
       <c r="BE24">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF24">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="BG24">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="BH24">
         <v>3.9</v>
       </c>
       <c r="BI24">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="BJ24">
         <v>2.8</v>
       </c>
       <c r="BK24">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="BL24">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="BM24">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="BN24">
         <v>1.74</v>
@@ -5798,7 +5798,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7491832</v>
+        <v>7491835</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -5813,43 +5813,43 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O25" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="Q25">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="R25">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S25">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="T25">
         <v>1.3</v>
@@ -5870,25 +5870,25 @@
         <v>1.13</v>
       </c>
       <c r="Z25">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="AA25">
+        <v>4</v>
+      </c>
+      <c r="AB25">
         <v>4.6</v>
       </c>
-      <c r="AB25">
-        <v>6.25</v>
-      </c>
       <c r="AC25">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD25">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE25">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AF25">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AG25">
         <v>1.62</v>
@@ -5897,106 +5897,106 @@
         <v>2.25</v>
       </c>
       <c r="AI25">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AJ25">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AK25">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AL25">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AM25">
-        <v>2.85</v>
+        <v>2.15</v>
       </c>
       <c r="AN25">
         <v>3</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AR25">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AS25">
-        <v>1.54</v>
+        <v>0.87</v>
       </c>
       <c r="AT25">
-        <v>2.7</v>
+        <v>2.37</v>
       </c>
       <c r="AU25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV25">
         <v>4</v>
       </c>
       <c r="AW25">
+        <v>8</v>
+      </c>
+      <c r="AX25">
+        <v>6</v>
+      </c>
+      <c r="AY25">
+        <v>18</v>
+      </c>
+      <c r="AZ25">
+        <v>10</v>
+      </c>
+      <c r="BA25">
         <v>5</v>
       </c>
-      <c r="AX25">
-        <v>4</v>
-      </c>
-      <c r="AY25">
-        <v>9</v>
-      </c>
-      <c r="AZ25">
-        <v>8</v>
-      </c>
-      <c r="BA25">
+      <c r="BB25">
         <v>6</v>
-      </c>
-      <c r="BB25">
-        <v>5</v>
       </c>
       <c r="BC25">
         <v>11</v>
       </c>
       <c r="BD25">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
       <c r="BE25">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF25">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="BG25">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="BH25">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="BI25">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="BJ25">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="BK25">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="BL25">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="BM25">
-        <v>2.23</v>
+        <v>2.32</v>
       </c>
       <c r="BN25">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="BO25">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="BP25">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -6019,7 +6019,7 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
         <v>87</v>
@@ -6455,7 +6455,7 @@
         <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P28" t="s">
         <v>141</v>
@@ -6828,7 +6828,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7491848</v>
+        <v>7491844</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -6843,190 +6843,190 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O30" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="P30" t="s">
         <v>143</v>
       </c>
       <c r="Q30">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="R30">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S30">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T30">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U30">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V30">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W30">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X30">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y30">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Z30">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="AA30">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AB30">
-        <v>3.7</v>
+        <v>2.55</v>
       </c>
       <c r="AC30">
+        <v>1.04</v>
+      </c>
+      <c r="AD30">
+        <v>13</v>
+      </c>
+      <c r="AE30">
+        <v>1.24</v>
+      </c>
+      <c r="AF30">
+        <v>4.2</v>
+      </c>
+      <c r="AG30">
+        <v>1.67</v>
+      </c>
+      <c r="AH30">
+        <v>2.1</v>
+      </c>
+      <c r="AI30">
+        <v>1.57</v>
+      </c>
+      <c r="AJ30">
+        <v>2.25</v>
+      </c>
+      <c r="AK30">
+        <v>1.58</v>
+      </c>
+      <c r="AL30">
+        <v>1.26</v>
+      </c>
+      <c r="AM30">
+        <v>1.47</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>1.5</v>
+      </c>
+      <c r="AQ30">
+        <v>1.5</v>
+      </c>
+      <c r="AR30">
+        <v>1.69</v>
+      </c>
+      <c r="AS30">
         <v>1.03</v>
       </c>
-      <c r="AD30">
-        <v>17.25</v>
-      </c>
-      <c r="AE30">
-        <v>1.19</v>
-      </c>
-      <c r="AF30">
-        <v>4.83</v>
-      </c>
-      <c r="AG30">
-        <v>1.6</v>
-      </c>
-      <c r="AH30">
-        <v>2.2</v>
-      </c>
-      <c r="AI30">
-        <v>1.53</v>
-      </c>
-      <c r="AJ30">
-        <v>2.38</v>
-      </c>
-      <c r="AK30">
-        <v>1.32</v>
-      </c>
-      <c r="AL30">
-        <v>1.28</v>
-      </c>
-      <c r="AM30">
-        <v>1.86</v>
-      </c>
-      <c r="AN30">
-        <v>0</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0.5</v>
-      </c>
-      <c r="AQ30">
-        <v>0.5</v>
-      </c>
-      <c r="AR30">
-        <v>1.57</v>
-      </c>
-      <c r="AS30">
-        <v>1.61</v>
-      </c>
       <c r="AT30">
-        <v>3.18</v>
+        <v>2.72</v>
       </c>
       <c r="AU30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV30">
+        <v>6</v>
+      </c>
+      <c r="AW30">
         <v>5</v>
       </c>
-      <c r="AW30">
+      <c r="AX30">
+        <v>6</v>
+      </c>
+      <c r="AY30">
         <v>7</v>
       </c>
-      <c r="AX30">
-        <v>8</v>
-      </c>
-      <c r="AY30">
-        <v>11</v>
-      </c>
       <c r="AZ30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC30">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD30">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="BE30">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF30">
         <v>2.7</v>
       </c>
       <c r="BG30">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="BH30">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="BI30">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="BJ30">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="BK30">
+        <v>1.83</v>
+      </c>
+      <c r="BL30">
+        <v>1.85</v>
+      </c>
+      <c r="BM30">
+        <v>2.3</v>
+      </c>
+      <c r="BN30">
         <v>1.54</v>
       </c>
-      <c r="BL30">
-        <v>2.3</v>
-      </c>
-      <c r="BM30">
-        <v>1.85</v>
-      </c>
-      <c r="BN30">
-        <v>1.83</v>
-      </c>
       <c r="BO30">
-        <v>2.28</v>
+        <v>2.9</v>
       </c>
       <c r="BP30">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7034,7 +7034,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7491847</v>
+        <v>7491845</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7049,190 +7049,190 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31">
         <v>2</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O31" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P31" t="s">
         <v>144</v>
       </c>
       <c r="Q31">
-        <v>2.63</v>
+        <v>5.5</v>
       </c>
       <c r="R31">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="S31">
-        <v>3.75</v>
+        <v>1.83</v>
       </c>
       <c r="T31">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="U31">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="V31">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="X31">
+        <v>4</v>
+      </c>
+      <c r="Y31">
+        <v>1.22</v>
+      </c>
+      <c r="Z31">
         <v>6.5</v>
       </c>
-      <c r="Y31">
-        <v>1.11</v>
-      </c>
-      <c r="Z31">
-        <v>2.1</v>
-      </c>
       <c r="AA31">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="AB31">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="AC31">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD31">
+        <v>15</v>
+      </c>
+      <c r="AE31">
+        <v>1.06</v>
+      </c>
+      <c r="AF31">
+        <v>5.75</v>
+      </c>
+      <c r="AG31">
+        <v>1.34</v>
+      </c>
+      <c r="AH31">
+        <v>3.09</v>
+      </c>
+      <c r="AI31">
+        <v>1.53</v>
+      </c>
+      <c r="AJ31">
+        <v>2.38</v>
+      </c>
+      <c r="AK31">
+        <v>2.98</v>
+      </c>
+      <c r="AL31">
+        <v>1.18</v>
+      </c>
+      <c r="AM31">
+        <v>1.12</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>3</v>
+      </c>
+      <c r="AP31">
+        <v>0.5</v>
+      </c>
+      <c r="AQ31">
+        <v>3</v>
+      </c>
+      <c r="AR31">
+        <v>0.65</v>
+      </c>
+      <c r="AS31">
+        <v>2.21</v>
+      </c>
+      <c r="AT31">
+        <v>2.86</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>8</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>5</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
         <v>13</v>
       </c>
-      <c r="AE31">
-        <v>1.24</v>
-      </c>
-      <c r="AF31">
-        <v>4.2</v>
-      </c>
-      <c r="AG31">
-        <v>1.7</v>
-      </c>
-      <c r="AH31">
-        <v>2.05</v>
-      </c>
-      <c r="AI31">
-        <v>1.62</v>
-      </c>
-      <c r="AJ31">
-        <v>2.2</v>
-      </c>
-      <c r="AK31">
-        <v>1.33</v>
-      </c>
-      <c r="AL31">
-        <v>1.25</v>
-      </c>
-      <c r="AM31">
-        <v>1.78</v>
-      </c>
-      <c r="AN31">
-        <v>3</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>3</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>1.36</v>
-      </c>
-      <c r="AS31">
-        <v>1.08</v>
-      </c>
-      <c r="AT31">
-        <v>2.44</v>
-      </c>
-      <c r="AU31">
-        <v>3</v>
-      </c>
-      <c r="AV31">
-        <v>4</v>
-      </c>
-      <c r="AW31">
-        <v>4</v>
-      </c>
-      <c r="AX31">
-        <v>2</v>
-      </c>
-      <c r="AY31">
+      <c r="BA31">
+        <v>1</v>
+      </c>
+      <c r="BB31">
+        <v>4</v>
+      </c>
+      <c r="BC31">
+        <v>5</v>
+      </c>
+      <c r="BD31">
+        <v>3.9</v>
+      </c>
+      <c r="BE31">
         <v>7</v>
       </c>
-      <c r="AZ31">
-        <v>6</v>
-      </c>
-      <c r="BA31">
-        <v>5</v>
-      </c>
-      <c r="BB31">
-        <v>5</v>
-      </c>
-      <c r="BC31">
-        <v>10</v>
-      </c>
-      <c r="BD31">
-        <v>1.65</v>
-      </c>
-      <c r="BE31">
-        <v>6.75</v>
-      </c>
       <c r="BF31">
-        <v>2.48</v>
+        <v>1.3</v>
       </c>
       <c r="BG31">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="BH31">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="BI31">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="BJ31">
-        <v>2.55</v>
+        <v>2.23</v>
       </c>
       <c r="BK31">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="BL31">
-        <v>1.98</v>
+        <v>1.77</v>
       </c>
       <c r="BM31">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="BN31">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="BO31">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="BP31">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -7240,7 +7240,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7491844</v>
+        <v>7491847</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7255,43 +7255,43 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>3</v>
       </c>
       <c r="O32" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="P32" t="s">
         <v>145</v>
       </c>
       <c r="Q32">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="R32">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S32">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T32">
         <v>1.33</v>
@@ -7312,16 +7312,16 @@
         <v>1.11</v>
       </c>
       <c r="Z32">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="AA32">
         <v>3.4</v>
       </c>
       <c r="AB32">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="AC32">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD32">
         <v>13</v>
@@ -7333,25 +7333,25 @@
         <v>4.2</v>
       </c>
       <c r="AG32">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AH32">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AI32">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AJ32">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AK32">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="AL32">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AM32">
-        <v>1.47</v>
+        <v>1.78</v>
       </c>
       <c r="AN32">
         <v>3</v>
@@ -7360,85 +7360,85 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR32">
-        <v>1.69</v>
+        <v>1.36</v>
       </c>
       <c r="AS32">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="AT32">
-        <v>2.72</v>
+        <v>2.44</v>
       </c>
       <c r="AU32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY32">
         <v>7</v>
       </c>
       <c r="AZ32">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BA32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB32">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BC32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD32">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="BE32">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF32">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="BG32">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BH32">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="BI32">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="BJ32">
-        <v>2.33</v>
+        <v>2.55</v>
       </c>
       <c r="BK32">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="BL32">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="BM32">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="BN32">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="BO32">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="BP32">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="33" spans="1:68">
@@ -7446,7 +7446,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>7491845</v>
+        <v>7491848</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -7461,88 +7461,88 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O33" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="P33" t="s">
         <v>146</v>
       </c>
       <c r="Q33">
+        <v>2.5</v>
+      </c>
+      <c r="R33">
+        <v>2.38</v>
+      </c>
+      <c r="S33">
+        <v>3.75</v>
+      </c>
+      <c r="T33">
+        <v>1.29</v>
+      </c>
+      <c r="U33">
+        <v>3.5</v>
+      </c>
+      <c r="V33">
+        <v>2.38</v>
+      </c>
+      <c r="W33">
+        <v>1.53</v>
+      </c>
+      <c r="X33">
         <v>5.5</v>
       </c>
-      <c r="R33">
-        <v>2.75</v>
-      </c>
-      <c r="S33">
-        <v>1.83</v>
-      </c>
-      <c r="T33">
-        <v>1.2</v>
-      </c>
-      <c r="U33">
-        <v>4.33</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
-      <c r="W33">
-        <v>1.73</v>
-      </c>
-      <c r="X33">
-        <v>4</v>
-      </c>
       <c r="Y33">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="Z33">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="AA33">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="AB33">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="AC33">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD33">
-        <v>15</v>
+        <v>17.25</v>
       </c>
       <c r="AE33">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="AF33">
-        <v>5.75</v>
+        <v>4.83</v>
       </c>
       <c r="AG33">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="AH33">
-        <v>3.09</v>
+        <v>2.2</v>
       </c>
       <c r="AI33">
         <v>1.53</v>
@@ -7551,100 +7551,100 @@
         <v>2.38</v>
       </c>
       <c r="AK33">
-        <v>2.98</v>
+        <v>1.32</v>
       </c>
       <c r="AL33">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AM33">
-        <v>1.12</v>
+        <v>1.86</v>
       </c>
       <c r="AN33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP33">
         <v>0.5</v>
       </c>
       <c r="AQ33">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
-        <v>0.65</v>
+        <v>1.57</v>
       </c>
       <c r="AS33">
-        <v>2.21</v>
+        <v>1.61</v>
       </c>
       <c r="AT33">
-        <v>2.86</v>
+        <v>3.18</v>
       </c>
       <c r="AU33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV33">
+        <v>5</v>
+      </c>
+      <c r="AW33">
+        <v>7</v>
+      </c>
+      <c r="AX33">
         <v>8</v>
       </c>
-      <c r="AW33">
-        <v>0</v>
-      </c>
-      <c r="AX33">
-        <v>5</v>
-      </c>
       <c r="AY33">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AZ33">
         <v>13</v>
       </c>
       <c r="BA33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD33">
-        <v>3.9</v>
+        <v>1.54</v>
       </c>
       <c r="BE33">
         <v>7</v>
       </c>
       <c r="BF33">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="BG33">
+        <v>1.19</v>
+      </c>
+      <c r="BH33">
+        <v>4.1</v>
+      </c>
+      <c r="BI33">
         <v>1.32</v>
       </c>
-      <c r="BH33">
-        <v>3</v>
-      </c>
-      <c r="BI33">
-        <v>1.56</v>
-      </c>
       <c r="BJ33">
-        <v>2.23</v>
+        <v>3</v>
       </c>
       <c r="BK33">
-        <v>1.91</v>
+        <v>1.54</v>
       </c>
       <c r="BL33">
-        <v>1.77</v>
+        <v>2.3</v>
       </c>
       <c r="BM33">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="BN33">
-        <v>1.49</v>
+        <v>1.83</v>
       </c>
       <c r="BO33">
-        <v>3.15</v>
+        <v>2.28</v>
       </c>
       <c r="BP33">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="34" spans="1:68">
@@ -7667,7 +7667,7 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s">
         <v>70</v>
@@ -8079,7 +8079,7 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s">
         <v>76</v>
@@ -8279,7 +8279,7 @@
         <v>69</v>
       </c>
       <c r="E37" s="2">
-        <v>45557.60416666666</v>
+        <v>45556.875</v>
       </c>
       <c r="F37">
         <v>4</v>
@@ -8405,19 +8405,19 @@
         <v>2.33</v>
       </c>
       <c r="AU37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV37">
         <v>6</v>
       </c>
       <c r="AW37">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX37">
         <v>4</v>
       </c>
       <c r="AY37">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ37">
         <v>10</v>
@@ -8485,7 +8485,7 @@
         <v>69</v>
       </c>
       <c r="E38" s="2">
-        <v>45562.64583333334</v>
+        <v>45561.875</v>
       </c>
       <c r="F38">
         <v>5</v>
@@ -8494,7 +8494,7 @@
         <v>76</v>
       </c>
       <c r="H38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -8611,22 +8611,22 @@
         <v>2.76</v>
       </c>
       <c r="AU38">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW38">
         <v>8</v>
       </c>
       <c r="AX38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY38">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ38">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA38">
         <v>11</v>
@@ -8682,7 +8682,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7491856</v>
+        <v>7491854</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8691,34 +8691,34 @@
         <v>69</v>
       </c>
       <c r="E39" s="2">
-        <v>45563.4375</v>
+        <v>45562.875</v>
       </c>
       <c r="F39">
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O39" t="s">
         <v>96</v>
@@ -8727,19 +8727,19 @@
         <v>150</v>
       </c>
       <c r="Q39">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="R39">
         <v>2.3</v>
       </c>
       <c r="S39">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="T39">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U39">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V39">
         <v>2.63</v>
@@ -8748,31 +8748,31 @@
         <v>1.44</v>
       </c>
       <c r="X39">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y39">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z39">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="AA39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AB39">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AC39">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD39">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AE39">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF39">
-        <v>4</v>
+        <v>3.52</v>
       </c>
       <c r="AG39">
         <v>1.58</v>
@@ -8781,106 +8781,106 @@
         <v>2.23</v>
       </c>
       <c r="AI39">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AJ39">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AK39">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AL39">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AM39">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AN39">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AO39">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR39">
-        <v>1.48</v>
+        <v>1.82</v>
       </c>
       <c r="AS39">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="AT39">
-        <v>2.44</v>
+        <v>2.79</v>
       </c>
       <c r="AU39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV39">
+        <v>3</v>
+      </c>
+      <c r="AW39">
+        <v>3</v>
+      </c>
+      <c r="AX39">
+        <v>1</v>
+      </c>
+      <c r="AY39">
         <v>7</v>
       </c>
-      <c r="AW39">
-        <v>3</v>
-      </c>
-      <c r="AX39">
+      <c r="AZ39">
+        <v>4</v>
+      </c>
+      <c r="BA39">
+        <v>4</v>
+      </c>
+      <c r="BB39">
+        <v>2</v>
+      </c>
+      <c r="BC39">
         <v>6</v>
       </c>
-      <c r="AY39">
-        <v>6</v>
-      </c>
-      <c r="AZ39">
-        <v>13</v>
-      </c>
-      <c r="BA39">
-        <v>7</v>
-      </c>
-      <c r="BB39">
-        <v>6</v>
-      </c>
-      <c r="BC39">
-        <v>13</v>
-      </c>
       <c r="BD39">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="BE39">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF39">
-        <v>3.05</v>
+        <v>2.55</v>
       </c>
       <c r="BG39">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="BH39">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="BI39">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="BJ39">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="BK39">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="BL39">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="BM39">
-        <v>2.12</v>
+        <v>2.23</v>
       </c>
       <c r="BN39">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="BO39">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BP39">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -8888,7 +8888,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7491857</v>
+        <v>7491851</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -8897,34 +8897,34 @@
         <v>69</v>
       </c>
       <c r="E40" s="2">
-        <v>45563.4375</v>
+        <v>45562.875</v>
       </c>
       <c r="F40">
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H40" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O40" t="s">
         <v>117</v>
@@ -8933,160 +8933,160 @@
         <v>96</v>
       </c>
       <c r="Q40">
+        <v>1.83</v>
+      </c>
+      <c r="R40">
         <v>2.75</v>
       </c>
-      <c r="R40">
-        <v>2.25</v>
-      </c>
       <c r="S40">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="T40">
+        <v>1.22</v>
+      </c>
+      <c r="U40">
+        <v>4</v>
+      </c>
+      <c r="V40">
+        <v>2.1</v>
+      </c>
+      <c r="W40">
+        <v>1.67</v>
+      </c>
+      <c r="X40">
+        <v>4.5</v>
+      </c>
+      <c r="Y40">
+        <v>1.18</v>
+      </c>
+      <c r="Z40">
+        <v>1.4</v>
+      </c>
+      <c r="AA40">
+        <v>4.5</v>
+      </c>
+      <c r="AB40">
+        <v>7</v>
+      </c>
+      <c r="AC40">
+        <v>1.01</v>
+      </c>
+      <c r="AD40">
+        <v>26</v>
+      </c>
+      <c r="AE40">
+        <v>1.08</v>
+      </c>
+      <c r="AF40">
+        <v>5.3</v>
+      </c>
+      <c r="AG40">
+        <v>1.41</v>
+      </c>
+      <c r="AH40">
+        <v>2.78</v>
+      </c>
+      <c r="AI40">
+        <v>1.62</v>
+      </c>
+      <c r="AJ40">
+        <v>2.2</v>
+      </c>
+      <c r="AK40">
+        <v>1.1</v>
+      </c>
+      <c r="AL40">
+        <v>1.12</v>
+      </c>
+      <c r="AM40">
+        <v>2.95</v>
+      </c>
+      <c r="AN40">
+        <v>2</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>2.33</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>1.14</v>
+      </c>
+      <c r="AS40">
+        <v>1.49</v>
+      </c>
+      <c r="AT40">
+        <v>2.63</v>
+      </c>
+      <c r="AU40">
+        <v>3</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>4</v>
+      </c>
+      <c r="AX40">
+        <v>3</v>
+      </c>
+      <c r="AY40">
+        <v>7</v>
+      </c>
+      <c r="AZ40">
+        <v>3</v>
+      </c>
+      <c r="BA40">
+        <v>8</v>
+      </c>
+      <c r="BB40">
+        <v>5</v>
+      </c>
+      <c r="BC40">
+        <v>13</v>
+      </c>
+      <c r="BD40">
+        <v>1.26</v>
+      </c>
+      <c r="BE40">
+        <v>8</v>
+      </c>
+      <c r="BF40">
+        <v>4.1</v>
+      </c>
+      <c r="BG40">
+        <v>1.2</v>
+      </c>
+      <c r="BH40">
+        <v>3.9</v>
+      </c>
+      <c r="BI40">
         <v>1.36</v>
       </c>
-      <c r="U40">
-        <v>3</v>
-      </c>
-      <c r="V40">
-        <v>2.63</v>
-      </c>
-      <c r="W40">
-        <v>1.44</v>
-      </c>
-      <c r="X40">
-        <v>7</v>
-      </c>
-      <c r="Y40">
-        <v>1.1</v>
-      </c>
-      <c r="Z40">
-        <v>2.19</v>
-      </c>
-      <c r="AA40">
-        <v>3.48</v>
-      </c>
-      <c r="AB40">
-        <v>2.98</v>
-      </c>
-      <c r="AC40">
-        <v>1.04</v>
-      </c>
-      <c r="AD40">
-        <v>10.5</v>
-      </c>
-      <c r="AE40">
-        <v>1.21</v>
-      </c>
-      <c r="AF40">
-        <v>3.6</v>
-      </c>
-      <c r="AG40">
-        <v>1.55</v>
-      </c>
-      <c r="AH40">
-        <v>2.3</v>
-      </c>
-      <c r="AI40">
-        <v>1.67</v>
-      </c>
-      <c r="AJ40">
-        <v>2.1</v>
-      </c>
-      <c r="AK40">
-        <v>1.34</v>
-      </c>
-      <c r="AL40">
-        <v>1.3</v>
-      </c>
-      <c r="AM40">
+      <c r="BJ40">
+        <v>2.8</v>
+      </c>
+      <c r="BK40">
+        <v>1.58</v>
+      </c>
+      <c r="BL40">
+        <v>2.18</v>
+      </c>
+      <c r="BM40">
+        <v>1.94</v>
+      </c>
+      <c r="BN40">
         <v>1.76</v>
       </c>
-      <c r="AN40">
-        <v>0</v>
-      </c>
-      <c r="AO40">
-        <v>1</v>
-      </c>
-      <c r="AP40">
-        <v>1</v>
-      </c>
-      <c r="AQ40">
-        <v>0.67</v>
-      </c>
-      <c r="AR40">
-        <v>1.56</v>
-      </c>
-      <c r="AS40">
-        <v>1.26</v>
-      </c>
-      <c r="AT40">
-        <v>2.82</v>
-      </c>
-      <c r="AU40">
-        <v>3</v>
-      </c>
-      <c r="AV40">
-        <v>3</v>
-      </c>
-      <c r="AW40">
-        <v>3</v>
-      </c>
-      <c r="AX40">
-        <v>6</v>
-      </c>
-      <c r="AY40">
-        <v>6</v>
-      </c>
-      <c r="AZ40">
-        <v>9</v>
-      </c>
-      <c r="BA40">
-        <v>2</v>
-      </c>
-      <c r="BB40">
-        <v>4</v>
-      </c>
-      <c r="BC40">
-        <v>6</v>
-      </c>
-      <c r="BD40">
-        <v>1.68</v>
-      </c>
-      <c r="BE40">
-        <v>6.5</v>
-      </c>
-      <c r="BF40">
-        <v>2.43</v>
-      </c>
-      <c r="BG40">
-        <v>1.26</v>
-      </c>
-      <c r="BH40">
-        <v>3.4</v>
-      </c>
-      <c r="BI40">
-        <v>1.47</v>
-      </c>
-      <c r="BJ40">
-        <v>2.48</v>
-      </c>
-      <c r="BK40">
-        <v>1.74</v>
-      </c>
-      <c r="BL40">
-        <v>1.95</v>
-      </c>
-      <c r="BM40">
-        <v>2.17</v>
-      </c>
-      <c r="BN40">
-        <v>1.58</v>
-      </c>
       <c r="BO40">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="BP40">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9094,7 +9094,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7491855</v>
+        <v>7491850</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9103,16 +9103,16 @@
         <v>69</v>
       </c>
       <c r="E41" s="2">
-        <v>45563.4375</v>
+        <v>45562.875</v>
       </c>
       <c r="F41">
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -9124,13 +9124,13 @@
         <v>2</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O41" t="s">
         <v>118</v>
@@ -9139,160 +9139,160 @@
         <v>151</v>
       </c>
       <c r="Q41">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="R41">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="S41">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="T41">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="U41">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="V41">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="W41">
+        <v>1.8</v>
+      </c>
+      <c r="X41">
+        <v>4</v>
+      </c>
+      <c r="Y41">
+        <v>1.22</v>
+      </c>
+      <c r="Z41">
+        <v>1.73</v>
+      </c>
+      <c r="AA41">
+        <v>4.4</v>
+      </c>
+      <c r="AB41">
+        <v>3.8</v>
+      </c>
+      <c r="AC41">
+        <v>1.01</v>
+      </c>
+      <c r="AD41">
+        <v>29</v>
+      </c>
+      <c r="AE41">
+        <v>1.05</v>
+      </c>
+      <c r="AF41">
+        <v>6.1</v>
+      </c>
+      <c r="AG41">
+        <v>1.31</v>
+      </c>
+      <c r="AH41">
+        <v>3.27</v>
+      </c>
+      <c r="AI41">
+        <v>1.4</v>
+      </c>
+      <c r="AJ41">
+        <v>2.75</v>
+      </c>
+      <c r="AK41">
+        <v>1.22</v>
+      </c>
+      <c r="AL41">
+        <v>1.17</v>
+      </c>
+      <c r="AM41">
+        <v>2.1</v>
+      </c>
+      <c r="AN41">
+        <v>3</v>
+      </c>
+      <c r="AO41">
+        <v>3</v>
+      </c>
+      <c r="AP41">
+        <v>2</v>
+      </c>
+      <c r="AQ41">
+        <v>2.33</v>
+      </c>
+      <c r="AR41">
+        <v>1.17</v>
+      </c>
+      <c r="AS41">
+        <v>2.29</v>
+      </c>
+      <c r="AT41">
+        <v>3.46</v>
+      </c>
+      <c r="AU41">
+        <v>3</v>
+      </c>
+      <c r="AV41">
+        <v>3</v>
+      </c>
+      <c r="AW41">
+        <v>9</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>12</v>
+      </c>
+      <c r="AZ41">
+        <v>3</v>
+      </c>
+      <c r="BA41">
+        <v>6</v>
+      </c>
+      <c r="BB41">
+        <v>1</v>
+      </c>
+      <c r="BC41">
+        <v>7</v>
+      </c>
+      <c r="BD41">
         <v>1.57</v>
       </c>
-      <c r="X41">
-        <v>5.5</v>
-      </c>
-      <c r="Y41">
-        <v>1.14</v>
-      </c>
-      <c r="Z41">
-        <v>3.27</v>
-      </c>
-      <c r="AA41">
-        <v>3.82</v>
-      </c>
-      <c r="AB41">
-        <v>1.96</v>
-      </c>
-      <c r="AC41">
-        <v>1.02</v>
-      </c>
-      <c r="AD41">
-        <v>19</v>
-      </c>
-      <c r="AE41">
-        <v>1.18</v>
-      </c>
-      <c r="AF41">
-        <v>5</v>
-      </c>
-      <c r="AG41">
-        <v>1.58</v>
-      </c>
-      <c r="AH41">
+      <c r="BE41">
+        <v>6.5</v>
+      </c>
+      <c r="BF41">
+        <v>2.65</v>
+      </c>
+      <c r="BG41">
+        <v>1.26</v>
+      </c>
+      <c r="BH41">
+        <v>3.4</v>
+      </c>
+      <c r="BI41">
+        <v>1.48</v>
+      </c>
+      <c r="BJ41">
+        <v>2.45</v>
+      </c>
+      <c r="BK41">
+        <v>1.9</v>
+      </c>
+      <c r="BL41">
+        <v>1.9</v>
+      </c>
+      <c r="BM41">
         <v>2.23</v>
       </c>
-      <c r="AI41">
-        <v>1.5</v>
-      </c>
-      <c r="AJ41">
-        <v>2.5</v>
-      </c>
-      <c r="AK41">
-        <v>1.78</v>
-      </c>
-      <c r="AL41">
-        <v>1.22</v>
-      </c>
-      <c r="AM41">
-        <v>1.35</v>
-      </c>
-      <c r="AN41">
-        <v>0</v>
-      </c>
-      <c r="AO41">
-        <v>1.5</v>
-      </c>
-      <c r="AP41">
-        <v>0.33</v>
-      </c>
-      <c r="AQ41">
-        <v>1.33</v>
-      </c>
-      <c r="AR41">
-        <v>1.28</v>
-      </c>
-      <c r="AS41">
-        <v>1.25</v>
-      </c>
-      <c r="AT41">
-        <v>2.53</v>
-      </c>
-      <c r="AU41">
-        <v>3</v>
-      </c>
-      <c r="AV41">
-        <v>5</v>
-      </c>
-      <c r="AW41">
-        <v>2</v>
-      </c>
-      <c r="AX41">
-        <v>6</v>
-      </c>
-      <c r="AY41">
-        <v>5</v>
-      </c>
-      <c r="AZ41">
-        <v>11</v>
-      </c>
-      <c r="BA41">
-        <v>1</v>
-      </c>
-      <c r="BB41">
-        <v>3</v>
-      </c>
-      <c r="BC41">
-        <v>4</v>
-      </c>
-      <c r="BD41">
-        <v>2.1</v>
-      </c>
-      <c r="BE41">
-        <v>6.4</v>
-      </c>
-      <c r="BF41">
-        <v>1.9</v>
-      </c>
-      <c r="BG41">
-        <v>1.3</v>
-      </c>
-      <c r="BH41">
-        <v>3.05</v>
-      </c>
-      <c r="BI41">
-        <v>1.52</v>
-      </c>
-      <c r="BJ41">
-        <v>2.3</v>
-      </c>
-      <c r="BK41">
-        <v>1.92</v>
-      </c>
-      <c r="BL41">
-        <v>1.88</v>
-      </c>
-      <c r="BM41">
-        <v>2.32</v>
-      </c>
       <c r="BN41">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="BO41">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="BP41">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9300,7 +9300,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7491851</v>
+        <v>7491855</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9315,25 +9315,25 @@
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>2</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N42">
         <v>4</v>
@@ -9342,163 +9342,163 @@
         <v>119</v>
       </c>
       <c r="P42" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="Q42">
-        <v>1.83</v>
+        <v>3.5</v>
       </c>
       <c r="R42">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="S42">
+        <v>2.6</v>
+      </c>
+      <c r="T42">
+        <v>1.29</v>
+      </c>
+      <c r="U42">
+        <v>3.5</v>
+      </c>
+      <c r="V42">
+        <v>2.25</v>
+      </c>
+      <c r="W42">
+        <v>1.57</v>
+      </c>
+      <c r="X42">
+        <v>5.5</v>
+      </c>
+      <c r="Y42">
+        <v>1.14</v>
+      </c>
+      <c r="Z42">
+        <v>3.27</v>
+      </c>
+      <c r="AA42">
+        <v>3.82</v>
+      </c>
+      <c r="AB42">
+        <v>1.96</v>
+      </c>
+      <c r="AC42">
+        <v>1.02</v>
+      </c>
+      <c r="AD42">
+        <v>19</v>
+      </c>
+      <c r="AE42">
+        <v>1.18</v>
+      </c>
+      <c r="AF42">
+        <v>5</v>
+      </c>
+      <c r="AG42">
+        <v>1.58</v>
+      </c>
+      <c r="AH42">
+        <v>2.23</v>
+      </c>
+      <c r="AI42">
+        <v>1.5</v>
+      </c>
+      <c r="AJ42">
+        <v>2.5</v>
+      </c>
+      <c r="AK42">
+        <v>1.78</v>
+      </c>
+      <c r="AL42">
+        <v>1.22</v>
+      </c>
+      <c r="AM42">
+        <v>1.35</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>1.5</v>
+      </c>
+      <c r="AP42">
+        <v>0.33</v>
+      </c>
+      <c r="AQ42">
+        <v>1.33</v>
+      </c>
+      <c r="AR42">
+        <v>1.28</v>
+      </c>
+      <c r="AS42">
+        <v>1.25</v>
+      </c>
+      <c r="AT42">
+        <v>2.53</v>
+      </c>
+      <c r="AU42">
+        <v>3</v>
+      </c>
+      <c r="AV42">
+        <v>5</v>
+      </c>
+      <c r="AW42">
+        <v>2</v>
+      </c>
+      <c r="AX42">
         <v>6</v>
       </c>
-      <c r="T42">
-        <v>1.22</v>
-      </c>
-      <c r="U42">
-        <v>4</v>
-      </c>
-      <c r="V42">
+      <c r="AY42">
+        <v>5</v>
+      </c>
+      <c r="AZ42">
+        <v>11</v>
+      </c>
+      <c r="BA42">
+        <v>1</v>
+      </c>
+      <c r="BB42">
+        <v>3</v>
+      </c>
+      <c r="BC42">
+        <v>4</v>
+      </c>
+      <c r="BD42">
         <v>2.1</v>
       </c>
-      <c r="W42">
-        <v>1.67</v>
-      </c>
-      <c r="X42">
-        <v>4.5</v>
-      </c>
-      <c r="Y42">
-        <v>1.18</v>
-      </c>
-      <c r="Z42">
-        <v>1.4</v>
-      </c>
-      <c r="AA42">
-        <v>4.5</v>
-      </c>
-      <c r="AB42">
-        <v>7</v>
-      </c>
-      <c r="AC42">
-        <v>1.01</v>
-      </c>
-      <c r="AD42">
-        <v>26</v>
-      </c>
-      <c r="AE42">
-        <v>1.08</v>
-      </c>
-      <c r="AF42">
-        <v>5.3</v>
-      </c>
-      <c r="AG42">
-        <v>1.41</v>
-      </c>
-      <c r="AH42">
-        <v>2.78</v>
-      </c>
-      <c r="AI42">
-        <v>1.62</v>
-      </c>
-      <c r="AJ42">
-        <v>2.2</v>
-      </c>
-      <c r="AK42">
-        <v>1.1</v>
-      </c>
-      <c r="AL42">
-        <v>1.12</v>
-      </c>
-      <c r="AM42">
-        <v>2.95</v>
-      </c>
-      <c r="AN42">
-        <v>2</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>2.33</v>
-      </c>
-      <c r="AQ42">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>1.14</v>
-      </c>
-      <c r="AS42">
-        <v>1.49</v>
-      </c>
-      <c r="AT42">
-        <v>2.63</v>
-      </c>
-      <c r="AU42">
-        <v>8</v>
-      </c>
-      <c r="AV42">
-        <v>2</v>
-      </c>
-      <c r="AW42">
-        <v>5</v>
-      </c>
-      <c r="AX42">
-        <v>3</v>
-      </c>
-      <c r="AY42">
-        <v>13</v>
-      </c>
-      <c r="AZ42">
-        <v>5</v>
-      </c>
-      <c r="BA42">
-        <v>8</v>
-      </c>
-      <c r="BB42">
-        <v>5</v>
-      </c>
-      <c r="BC42">
-        <v>13</v>
-      </c>
-      <c r="BD42">
-        <v>1.26</v>
-      </c>
       <c r="BE42">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="BF42">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="BG42">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="BH42">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="BI42">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="BJ42">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="BK42">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="BL42">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="BM42">
-        <v>1.94</v>
+        <v>2.32</v>
       </c>
       <c r="BN42">
-        <v>1.76</v>
+        <v>1.52</v>
       </c>
       <c r="BO42">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="BP42">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9506,7 +9506,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7491854</v>
+        <v>7491856</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9521,49 +9521,49 @@
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O43" t="s">
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q43">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="R43">
         <v>2.3</v>
       </c>
       <c r="S43">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="T43">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U43">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V43">
         <v>2.63</v>
@@ -9572,31 +9572,31 @@
         <v>1.44</v>
       </c>
       <c r="X43">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y43">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z43">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="AA43">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AB43">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AC43">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD43">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="AE43">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF43">
-        <v>3.52</v>
+        <v>4</v>
       </c>
       <c r="AG43">
         <v>1.58</v>
@@ -9605,106 +9605,106 @@
         <v>2.23</v>
       </c>
       <c r="AI43">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AJ43">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AK43">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AL43">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AM43">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AN43">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR43">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
       <c r="AS43">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="AT43">
-        <v>2.79</v>
+        <v>2.44</v>
       </c>
       <c r="AU43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW43">
+        <v>3</v>
+      </c>
+      <c r="AX43">
         <v>6</v>
       </c>
-      <c r="AX43">
-        <v>4</v>
-      </c>
       <c r="AY43">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AZ43">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB43">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC43">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD43">
+        <v>1.45</v>
+      </c>
+      <c r="BE43">
+        <v>7</v>
+      </c>
+      <c r="BF43">
+        <v>3.05</v>
+      </c>
+      <c r="BG43">
+        <v>1.25</v>
+      </c>
+      <c r="BH43">
+        <v>3.45</v>
+      </c>
+      <c r="BI43">
+        <v>1.43</v>
+      </c>
+      <c r="BJ43">
+        <v>2.55</v>
+      </c>
+      <c r="BK43">
+        <v>1.72</v>
+      </c>
+      <c r="BL43">
+        <v>1.98</v>
+      </c>
+      <c r="BM43">
+        <v>2.12</v>
+      </c>
+      <c r="BN43">
         <v>1.63</v>
       </c>
-      <c r="BE43">
-        <v>6.75</v>
-      </c>
-      <c r="BF43">
-        <v>2.55</v>
-      </c>
-      <c r="BG43">
-        <v>1.27</v>
-      </c>
-      <c r="BH43">
-        <v>3.3</v>
-      </c>
-      <c r="BI43">
-        <v>1.47</v>
-      </c>
-      <c r="BJ43">
-        <v>2.4</v>
-      </c>
-      <c r="BK43">
-        <v>2</v>
-      </c>
-      <c r="BL43">
-        <v>1.8</v>
-      </c>
-      <c r="BM43">
-        <v>2.23</v>
-      </c>
-      <c r="BN43">
-        <v>1.58</v>
-      </c>
       <c r="BO43">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BP43">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -9712,7 +9712,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7491850</v>
+        <v>7491857</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -9721,166 +9721,166 @@
         <v>69</v>
       </c>
       <c r="E44" s="2">
-        <v>45563.5625</v>
+        <v>45563.4375</v>
       </c>
       <c r="F44">
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H44" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
         <v>1</v>
-      </c>
-      <c r="N44">
-        <v>2</v>
       </c>
       <c r="O44" t="s">
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="Q44">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="R44">
+        <v>2.25</v>
+      </c>
+      <c r="S44">
+        <v>3.75</v>
+      </c>
+      <c r="T44">
+        <v>1.36</v>
+      </c>
+      <c r="U44">
+        <v>3</v>
+      </c>
+      <c r="V44">
         <v>2.63</v>
       </c>
-      <c r="S44">
-        <v>4</v>
-      </c>
-      <c r="T44">
-        <v>1.2</v>
-      </c>
-      <c r="U44">
-        <v>4.33</v>
-      </c>
-      <c r="V44">
-        <v>1.91</v>
-      </c>
       <c r="W44">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="X44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y44">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="Z44">
-        <v>1.73</v>
+        <v>2.19</v>
       </c>
       <c r="AA44">
-        <v>4.4</v>
+        <v>3.48</v>
       </c>
       <c r="AB44">
-        <v>3.8</v>
+        <v>2.98</v>
       </c>
       <c r="AC44">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD44">
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="AE44">
-        <v>1.05</v>
+        <v>1.21</v>
       </c>
       <c r="AF44">
-        <v>6.1</v>
+        <v>3.6</v>
       </c>
       <c r="AG44">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="AH44">
-        <v>3.27</v>
+        <v>2.3</v>
       </c>
       <c r="AI44">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AJ44">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="AK44">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="AL44">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AM44">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="AN44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>2.33</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AS44">
-        <v>2.29</v>
+        <v>1.26</v>
       </c>
       <c r="AT44">
-        <v>3.46</v>
+        <v>2.82</v>
       </c>
       <c r="AU44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV44">
         <v>3</v>
       </c>
       <c r="AW44">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AX44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY44">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AZ44">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA44">
+        <v>2</v>
+      </c>
+      <c r="BB44">
+        <v>4</v>
+      </c>
+      <c r="BC44">
         <v>6</v>
       </c>
-      <c r="BB44">
-        <v>1</v>
-      </c>
-      <c r="BC44">
-        <v>7</v>
-      </c>
       <c r="BD44">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="BE44">
         <v>6.5</v>
       </c>
       <c r="BF44">
-        <v>2.65</v>
+        <v>2.43</v>
       </c>
       <c r="BG44">
         <v>1.26</v>
@@ -9889,28 +9889,28 @@
         <v>3.4</v>
       </c>
       <c r="BI44">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="BJ44">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="BK44">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="BL44">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BM44">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="BN44">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="BO44">
         <v>2.8</v>
       </c>
       <c r="BP44">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -9933,10 +9933,10 @@
         <v>5</v>
       </c>
       <c r="G45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s">
         <v>84</v>
-      </c>
-      <c r="H45" t="s">
-        <v>81</v>
       </c>
       <c r="I45">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="151">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,21 +256,21 @@
     <t>Union Berlin</t>
   </si>
   <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
     <t>Holstein Kiel</t>
   </si>
   <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Eintracht Frankfurt</t>
-  </si>
-  <si>
     <t>Bayer Leverkusen</t>
   </si>
   <si>
@@ -328,18 +328,18 @@
     <t>['11', '17', '41', '90+3']</t>
   </si>
   <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['58', '61']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['27']</t>
   </si>
   <si>
-    <t>['76']</t>
-  </si>
-  <si>
-    <t>['37']</t>
-  </si>
-  <si>
-    <t>['58', '61']</t>
-  </si>
-  <si>
     <t>['82']</t>
   </si>
   <si>
@@ -349,12 +349,12 @@
     <t>['25', '57']</t>
   </si>
   <si>
+    <t>['22', '35']</t>
+  </si>
+  <si>
     <t>['4', '6']</t>
   </si>
   <si>
-    <t>['22', '35']</t>
-  </si>
-  <si>
     <t>['30', '80']</t>
   </si>
   <si>
@@ -364,21 +364,15 @@
     <t>['4', '21', '62', '80', '90']</t>
   </si>
   <si>
-    <t>['44', '62', '75', '81']</t>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['20', '68']</t>
   </si>
   <si>
     <t>['11', '15', '46', '57']</t>
   </si>
   <si>
-    <t>['39']</t>
-  </si>
-  <si>
-    <t>['20', '68']</t>
-  </si>
-  <si>
-    <t>['90+6']</t>
-  </si>
-  <si>
     <t>['30', '50']</t>
   </si>
   <si>
@@ -406,36 +400,36 @@
     <t>['66', '82']</t>
   </si>
   <si>
+    <t>['43', '62', '90+4']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['67', '78']</t>
+  </si>
+  <si>
     <t>['27', '30']</t>
   </si>
   <si>
-    <t>['67', '78']</t>
-  </si>
-  <si>
-    <t>['43', '62', '90+4']</t>
-  </si>
-  <si>
-    <t>['54']</t>
-  </si>
-  <si>
     <t>['45+7', '57', '80']</t>
   </si>
   <si>
     <t>['39', '74']</t>
   </si>
   <si>
+    <t>['17', '30', '72', '75']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['30', '82']</t>
+  </si>
+  <si>
     <t>['21', '57', '61']</t>
   </si>
   <si>
-    <t>['30', '82']</t>
-  </si>
-  <si>
-    <t>['17', '30', '72', '75']</t>
-  </si>
-  <si>
-    <t>['45']</t>
-  </si>
-  <si>
     <t>['1', '7', '13', '43', '65', '90+1']</t>
   </si>
   <si>
@@ -445,37 +439,28 @@
     <t>['13', '15', '49']</t>
   </si>
   <si>
+    <t>['15', '89']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['54', '59', '65']</t>
   </si>
   <si>
     <t>['23', '32', '57', '60', '65']</t>
   </si>
   <si>
-    <t>['67']</t>
-  </si>
-  <si>
-    <t>['15', '89']</t>
-  </si>
-  <si>
     <t>['5', '37', '45+1']</t>
   </si>
   <si>
     <t>['75']</t>
   </si>
   <si>
-    <t>['16', '21']</t>
+    <t>['32', '90+7']</t>
   </si>
   <si>
     <t>['12', '45', '72']</t>
-  </si>
-  <si>
-    <t>['31']</t>
-  </si>
-  <si>
-    <t>['32', '90+7']</t>
-  </si>
-  <si>
-    <t>['15', '86']</t>
   </si>
   <si>
     <t>['25', '47', '65', '74']</t>
@@ -843,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1102,7 +1087,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1183,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1284,7 +1269,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1490,7 +1475,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1514,7 +1499,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1696,7 +1681,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1720,7 +1705,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1926,7 +1911,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2132,7 +2117,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2210,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7">
         <v>0.67</v>
@@ -2314,7 +2299,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2544,7 +2529,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2750,7 +2735,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2831,7 +2816,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3120,7 +3105,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7491831</v>
+        <v>7491824</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3138,100 +3123,100 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q12">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="R12">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="S12">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="T12">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U12">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V12">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W12">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X12">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y12">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z12">
-        <v>3</v>
+        <v>1.53</v>
       </c>
       <c r="AA12">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="AB12">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="AC12">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD12">
-        <v>14.75</v>
+        <v>17</v>
       </c>
       <c r="AE12">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="AF12">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="AG12">
-        <v>1.77</v>
+        <v>1.54</v>
       </c>
       <c r="AH12">
-        <v>1.97</v>
+        <v>2.35</v>
       </c>
       <c r="AI12">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AJ12">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AK12">
-        <v>1.7</v>
+        <v>1.18</v>
       </c>
       <c r="AL12">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AM12">
-        <v>1.36</v>
+        <v>2.3</v>
       </c>
       <c r="AN12">
         <v>0</v>
@@ -3240,10 +3225,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3255,70 +3240,70 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AV12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY12">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AZ12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BB12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD12">
-        <v>1.98</v>
+        <v>1.48</v>
       </c>
       <c r="BE12">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF12">
-        <v>1.98</v>
+        <v>2.95</v>
       </c>
       <c r="BG12">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="BH12">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="BI12">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="BJ12">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="BK12">
-        <v>1.71</v>
+        <v>1.95</v>
       </c>
       <c r="BL12">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BM12">
-        <v>2.08</v>
+        <v>2.33</v>
       </c>
       <c r="BN12">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="BO12">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="BP12">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -3326,7 +3311,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7491830</v>
+        <v>7491826</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3344,187 +3329,187 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="R13">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S13">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="T13">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U13">
+        <v>3.75</v>
+      </c>
+      <c r="V13">
+        <v>2.2</v>
+      </c>
+      <c r="W13">
+        <v>1.62</v>
+      </c>
+      <c r="X13">
+        <v>5</v>
+      </c>
+      <c r="Y13">
+        <v>1.17</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AA13">
+        <v>3.75</v>
+      </c>
+      <c r="AB13">
         <v>3.4</v>
       </c>
-      <c r="V13">
+      <c r="AC13">
+        <v>1.02</v>
+      </c>
+      <c r="AD13">
+        <v>21</v>
+      </c>
+      <c r="AE13">
+        <v>1.11</v>
+      </c>
+      <c r="AF13">
+        <v>5.15</v>
+      </c>
+      <c r="AG13">
+        <v>1.63</v>
+      </c>
+      <c r="AH13">
+        <v>2.29</v>
+      </c>
+      <c r="AI13">
+        <v>1.5</v>
+      </c>
+      <c r="AJ13">
         <v>2.5</v>
       </c>
-      <c r="W13">
-        <v>1.5</v>
-      </c>
-      <c r="X13">
-        <v>6</v>
-      </c>
-      <c r="Y13">
-        <v>1.13</v>
-      </c>
-      <c r="Z13">
-        <v>2.35</v>
-      </c>
-      <c r="AA13">
-        <v>3.7</v>
-      </c>
-      <c r="AB13">
-        <v>2.75</v>
-      </c>
-      <c r="AC13">
-        <v>1.03</v>
-      </c>
-      <c r="AD13">
-        <v>17</v>
-      </c>
-      <c r="AE13">
-        <v>1.17</v>
-      </c>
-      <c r="AF13">
-        <v>4.45</v>
-      </c>
-      <c r="AG13">
+      <c r="AK13">
+        <v>1.27</v>
+      </c>
+      <c r="AL13">
+        <v>1.25</v>
+      </c>
+      <c r="AM13">
+        <v>2.02</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>3</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>8</v>
+      </c>
+      <c r="AV13">
+        <v>4</v>
+      </c>
+      <c r="AW13">
+        <v>8</v>
+      </c>
+      <c r="AX13">
+        <v>4</v>
+      </c>
+      <c r="AY13">
+        <v>16</v>
+      </c>
+      <c r="AZ13">
+        <v>8</v>
+      </c>
+      <c r="BA13">
+        <v>1</v>
+      </c>
+      <c r="BB13">
+        <v>4</v>
+      </c>
+      <c r="BC13">
+        <v>5</v>
+      </c>
+      <c r="BD13">
+        <v>1.45</v>
+      </c>
+      <c r="BE13">
+        <v>6.75</v>
+      </c>
+      <c r="BF13">
+        <v>3.05</v>
+      </c>
+      <c r="BG13">
+        <v>1.26</v>
+      </c>
+      <c r="BH13">
+        <v>3.4</v>
+      </c>
+      <c r="BI13">
+        <v>1.48</v>
+      </c>
+      <c r="BJ13">
+        <v>2.45</v>
+      </c>
+      <c r="BK13">
+        <v>1.8</v>
+      </c>
+      <c r="BL13">
+        <v>2</v>
+      </c>
+      <c r="BM13">
+        <v>2.18</v>
+      </c>
+      <c r="BN13">
         <v>1.58</v>
       </c>
-      <c r="AH13">
-        <v>2.25</v>
-      </c>
-      <c r="AI13">
-        <v>1.53</v>
-      </c>
-      <c r="AJ13">
-        <v>2.38</v>
-      </c>
-      <c r="AK13">
-        <v>1.5</v>
-      </c>
-      <c r="AL13">
-        <v>1.24</v>
-      </c>
-      <c r="AM13">
-        <v>1.55</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0.5</v>
-      </c>
-      <c r="AQ13">
-        <v>1.5</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>5</v>
-      </c>
-      <c r="AV13">
-        <v>7</v>
-      </c>
-      <c r="AW13">
-        <v>9</v>
-      </c>
-      <c r="AX13">
-        <v>5</v>
-      </c>
-      <c r="AY13">
-        <v>14</v>
-      </c>
-      <c r="AZ13">
-        <v>12</v>
-      </c>
-      <c r="BA13">
-        <v>3</v>
-      </c>
-      <c r="BB13">
-        <v>4</v>
-      </c>
-      <c r="BC13">
-        <v>7</v>
-      </c>
-      <c r="BD13">
-        <v>1.66</v>
-      </c>
-      <c r="BE13">
-        <v>6.4</v>
-      </c>
-      <c r="BF13">
-        <v>2.48</v>
-      </c>
-      <c r="BG13">
-        <v>1.3</v>
-      </c>
-      <c r="BH13">
-        <v>3.05</v>
-      </c>
-      <c r="BI13">
-        <v>1.53</v>
-      </c>
-      <c r="BJ13">
-        <v>2.32</v>
-      </c>
-      <c r="BK13">
-        <v>1.88</v>
-      </c>
-      <c r="BL13">
-        <v>1.81</v>
-      </c>
-      <c r="BM13">
-        <v>2</v>
-      </c>
-      <c r="BN13">
-        <v>1.8</v>
-      </c>
       <c r="BO13">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="BP13">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3738,7 +3723,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7491824</v>
+        <v>7491830</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3756,67 +3741,67 @@
         <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>2.3</v>
+      </c>
+      <c r="S15">
+        <v>3.1</v>
+      </c>
+      <c r="T15">
+        <v>1.3</v>
+      </c>
+      <c r="U15">
+        <v>3.4</v>
+      </c>
+      <c r="V15">
+        <v>2.5</v>
+      </c>
+      <c r="W15">
+        <v>1.5</v>
+      </c>
+      <c r="X15">
         <v>6</v>
       </c>
-      <c r="O15" t="s">
-        <v>98</v>
-      </c>
-      <c r="P15" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q15">
-        <v>2.2</v>
-      </c>
-      <c r="R15">
-        <v>2.4</v>
-      </c>
-      <c r="S15">
-        <v>4.75</v>
-      </c>
-      <c r="T15">
-        <v>1.29</v>
-      </c>
-      <c r="U15">
-        <v>3.5</v>
-      </c>
-      <c r="V15">
-        <v>2.38</v>
-      </c>
-      <c r="W15">
-        <v>1.53</v>
-      </c>
-      <c r="X15">
-        <v>5.5</v>
-      </c>
       <c r="Y15">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z15">
-        <v>1.53</v>
+        <v>2.35</v>
       </c>
       <c r="AA15">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="AB15">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="AC15">
         <v>1.03</v>
@@ -3825,31 +3810,31 @@
         <v>17</v>
       </c>
       <c r="AE15">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AF15">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="AG15">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AH15">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="AI15">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AJ15">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AK15">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AL15">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="AM15">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -3858,10 +3843,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3873,46 +3858,46 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AV15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY15">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AZ15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA15">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BB15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC15">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BD15">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="BE15">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF15">
-        <v>2.95</v>
+        <v>2.48</v>
       </c>
       <c r="BG15">
         <v>1.3</v>
       </c>
       <c r="BH15">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="BI15">
         <v>1.53</v>
@@ -3921,16 +3906,16 @@
         <v>2.32</v>
       </c>
       <c r="BK15">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="BL15">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="BM15">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="BN15">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="BO15">
         <v>3.05</v>
@@ -3944,7 +3929,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7491826</v>
+        <v>7491831</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -3962,113 +3947,113 @@
         <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q16">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="R16">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S16">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="T16">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U16">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V16">
+        <v>2.63</v>
+      </c>
+      <c r="W16">
+        <v>1.44</v>
+      </c>
+      <c r="X16">
+        <v>6.5</v>
+      </c>
+      <c r="Y16">
+        <v>1.11</v>
+      </c>
+      <c r="Z16">
+        <v>3</v>
+      </c>
+      <c r="AA16">
+        <v>3.5</v>
+      </c>
+      <c r="AB16">
+        <v>2.25</v>
+      </c>
+      <c r="AC16">
+        <v>1.04</v>
+      </c>
+      <c r="AD16">
+        <v>14.75</v>
+      </c>
+      <c r="AE16">
+        <v>1.23</v>
+      </c>
+      <c r="AF16">
+        <v>4.2</v>
+      </c>
+      <c r="AG16">
+        <v>1.77</v>
+      </c>
+      <c r="AH16">
+        <v>1.97</v>
+      </c>
+      <c r="AI16">
+        <v>1.62</v>
+      </c>
+      <c r="AJ16">
         <v>2.2</v>
       </c>
-      <c r="W16">
-        <v>1.62</v>
-      </c>
-      <c r="X16">
-        <v>5</v>
-      </c>
-      <c r="Y16">
-        <v>1.17</v>
-      </c>
-      <c r="Z16">
-        <v>2</v>
-      </c>
-      <c r="AA16">
-        <v>3.75</v>
-      </c>
-      <c r="AB16">
-        <v>3.4</v>
-      </c>
-      <c r="AC16">
-        <v>1.02</v>
-      </c>
-      <c r="AD16">
-        <v>21</v>
-      </c>
-      <c r="AE16">
-        <v>1.11</v>
-      </c>
-      <c r="AF16">
-        <v>5.15</v>
-      </c>
-      <c r="AG16">
-        <v>1.63</v>
-      </c>
-      <c r="AH16">
-        <v>2.29</v>
-      </c>
-      <c r="AI16">
+      <c r="AK16">
+        <v>1.7</v>
+      </c>
+      <c r="AL16">
+        <v>1.29</v>
+      </c>
+      <c r="AM16">
+        <v>1.36</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
         <v>1.5</v>
       </c>
-      <c r="AJ16">
-        <v>2.5</v>
-      </c>
-      <c r="AK16">
-        <v>1.27</v>
-      </c>
-      <c r="AL16">
-        <v>1.25</v>
-      </c>
-      <c r="AM16">
-        <v>2.02</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>3</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
       <c r="AR16">
         <v>0</v>
       </c>
@@ -4079,70 +4064,70 @@
         <v>0</v>
       </c>
       <c r="AU16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX16">
         <v>4</v>
       </c>
       <c r="AY16">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA16">
         <v>1</v>
       </c>
       <c r="BB16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD16">
-        <v>1.45</v>
+        <v>1.98</v>
       </c>
       <c r="BE16">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF16">
-        <v>3.05</v>
+        <v>1.98</v>
       </c>
       <c r="BG16">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="BH16">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="BI16">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="BJ16">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="BK16">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="BL16">
         <v>2</v>
       </c>
       <c r="BM16">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="BN16">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="BO16">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BP16">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4192,7 +4177,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4682,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -4810,7 +4795,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4891,7 +4876,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>1.89</v>
@@ -4974,7 +4959,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7491839</v>
+        <v>7491834</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -4989,88 +4974,88 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O21" t="s">
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q21">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="R21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="S21">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="U21">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="V21">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="W21">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="X21">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Y21">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="Z21">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="AA21">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="AB21">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="AC21">
         <v>1.01</v>
       </c>
       <c r="AD21">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AE21">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AF21">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AG21">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AH21">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="AI21">
         <v>1.44</v>
@@ -5079,91 +5064,91 @@
         <v>2.63</v>
       </c>
       <c r="AK21">
-        <v>1.68</v>
+        <v>2.45</v>
       </c>
       <c r="AL21">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AM21">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP21">
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AR21">
-        <v>1.46</v>
+        <v>2.26</v>
       </c>
       <c r="AS21">
-        <v>1.03</v>
+        <v>2.43</v>
       </c>
       <c r="AT21">
-        <v>2.49</v>
+        <v>4.69</v>
       </c>
       <c r="AU21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW21">
         <v>4</v>
       </c>
       <c r="AX21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY21">
+        <v>10</v>
+      </c>
+      <c r="AZ21">
+        <v>15</v>
+      </c>
+      <c r="BA21">
+        <v>4</v>
+      </c>
+      <c r="BB21">
         <v>12</v>
       </c>
-      <c r="AZ21">
-        <v>10</v>
-      </c>
-      <c r="BA21">
-        <v>6</v>
-      </c>
-      <c r="BB21">
-        <v>2</v>
-      </c>
       <c r="BC21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BD21">
-        <v>2.17</v>
+        <v>3.3</v>
       </c>
       <c r="BE21">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF21">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="BG21">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="BH21">
         <v>3.9</v>
       </c>
       <c r="BI21">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="BJ21">
         <v>2.8</v>
       </c>
       <c r="BK21">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="BL21">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="BM21">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="BN21">
         <v>1.74</v>
@@ -5180,7 +5165,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7491837</v>
+        <v>7491835</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5195,10 +5180,10 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -5210,10 +5195,10 @@
         <v>1</v>
       </c>
       <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
         <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2</v>
       </c>
       <c r="N22">
         <v>3</v>
@@ -5222,22 +5207,22 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q22">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="R22">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S22">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="T22">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U22">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V22">
         <v>2.5</v>
@@ -5246,25 +5231,25 @@
         <v>1.5</v>
       </c>
       <c r="X22">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y22">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z22">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="AA22">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AB22">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="AC22">
         <v>1.03</v>
       </c>
       <c r="AD22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE22">
         <v>1.22</v>
@@ -5273,112 +5258,112 @@
         <v>4.33</v>
       </c>
       <c r="AG22">
+        <v>1.62</v>
+      </c>
+      <c r="AH22">
+        <v>2.25</v>
+      </c>
+      <c r="AI22">
         <v>1.67</v>
       </c>
-      <c r="AH22">
+      <c r="AJ22">
+        <v>2.1</v>
+      </c>
+      <c r="AK22">
+        <v>1.2</v>
+      </c>
+      <c r="AL22">
+        <v>1.2</v>
+      </c>
+      <c r="AM22">
         <v>2.15</v>
       </c>
-      <c r="AI22">
-        <v>1.57</v>
-      </c>
-      <c r="AJ22">
-        <v>2.25</v>
-      </c>
-      <c r="AK22">
-        <v>1.53</v>
-      </c>
-      <c r="AL22">
-        <v>1.26</v>
-      </c>
-      <c r="AM22">
+      <c r="AN22">
+        <v>3</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>2</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
         <v>1.5</v>
       </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0.33</v>
-      </c>
-      <c r="AQ22">
-        <v>2</v>
-      </c>
-      <c r="AR22">
-        <v>1.03</v>
-      </c>
       <c r="AS22">
-        <v>1.12</v>
+        <v>0.87</v>
       </c>
       <c r="AT22">
-        <v>2.15</v>
+        <v>2.37</v>
       </c>
       <c r="AU22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW22">
+        <v>8</v>
+      </c>
+      <c r="AX22">
         <v>6</v>
       </c>
-      <c r="AX22">
-        <v>4</v>
-      </c>
       <c r="AY22">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA22">
         <v>5</v>
       </c>
       <c r="BB22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD22">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="BE22">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF22">
-        <v>2.07</v>
+        <v>2.5</v>
       </c>
       <c r="BG22">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="BH22">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BI22">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="BJ22">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="BK22">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BL22">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="BM22">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="BN22">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="BO22">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="BP22">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -5386,7 +5371,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7491832</v>
+        <v>7491837</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -5401,49 +5386,49 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="Q23">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="R23">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="S23">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="T23">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U23">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V23">
         <v>2.5</v>
@@ -5452,139 +5437,139 @@
         <v>1.5</v>
       </c>
       <c r="X23">
+        <v>6.5</v>
+      </c>
+      <c r="Y23">
+        <v>1.11</v>
+      </c>
+      <c r="Z23">
+        <v>2.7</v>
+      </c>
+      <c r="AA23">
+        <v>3.6</v>
+      </c>
+      <c r="AB23">
+        <v>2.5</v>
+      </c>
+      <c r="AC23">
+        <v>1.03</v>
+      </c>
+      <c r="AD23">
+        <v>13</v>
+      </c>
+      <c r="AE23">
+        <v>1.22</v>
+      </c>
+      <c r="AF23">
+        <v>4.33</v>
+      </c>
+      <c r="AG23">
+        <v>1.67</v>
+      </c>
+      <c r="AH23">
+        <v>2.15</v>
+      </c>
+      <c r="AI23">
+        <v>1.57</v>
+      </c>
+      <c r="AJ23">
+        <v>2.25</v>
+      </c>
+      <c r="AK23">
+        <v>1.53</v>
+      </c>
+      <c r="AL23">
+        <v>1.26</v>
+      </c>
+      <c r="AM23">
+        <v>1.5</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0.33</v>
+      </c>
+      <c r="AQ23">
+        <v>2</v>
+      </c>
+      <c r="AR23">
+        <v>1.03</v>
+      </c>
+      <c r="AS23">
+        <v>1.12</v>
+      </c>
+      <c r="AT23">
+        <v>2.15</v>
+      </c>
+      <c r="AU23">
+        <v>5</v>
+      </c>
+      <c r="AV23">
+        <v>7</v>
+      </c>
+      <c r="AW23">
         <v>6</v>
       </c>
-      <c r="Y23">
-        <v>1.13</v>
-      </c>
-      <c r="Z23">
-        <v>1.47</v>
-      </c>
-      <c r="AA23">
-        <v>4.6</v>
-      </c>
-      <c r="AB23">
-        <v>6.25</v>
-      </c>
-      <c r="AC23">
-        <v>1.02</v>
-      </c>
-      <c r="AD23">
-        <v>17</v>
-      </c>
-      <c r="AE23">
-        <v>1.19</v>
-      </c>
-      <c r="AF23">
-        <v>4.75</v>
-      </c>
-      <c r="AG23">
-        <v>1.62</v>
-      </c>
-      <c r="AH23">
-        <v>2.25</v>
-      </c>
-      <c r="AI23">
-        <v>1.8</v>
-      </c>
-      <c r="AJ23">
-        <v>1.95</v>
-      </c>
-      <c r="AK23">
-        <v>1.09</v>
-      </c>
-      <c r="AL23">
-        <v>1.15</v>
-      </c>
-      <c r="AM23">
-        <v>2.85</v>
-      </c>
-      <c r="AN23">
-        <v>3</v>
-      </c>
-      <c r="AO23">
-        <v>1</v>
-      </c>
-      <c r="AP23">
-        <v>2.33</v>
-      </c>
-      <c r="AQ23">
-        <v>0.67</v>
-      </c>
-      <c r="AR23">
-        <v>1.16</v>
-      </c>
-      <c r="AS23">
-        <v>1.54</v>
-      </c>
-      <c r="AT23">
+      <c r="AX23">
+        <v>4</v>
+      </c>
+      <c r="AY23">
+        <v>11</v>
+      </c>
+      <c r="AZ23">
+        <v>11</v>
+      </c>
+      <c r="BA23">
+        <v>5</v>
+      </c>
+      <c r="BB23">
+        <v>4</v>
+      </c>
+      <c r="BC23">
+        <v>9</v>
+      </c>
+      <c r="BD23">
+        <v>1.93</v>
+      </c>
+      <c r="BE23">
+        <v>6.4</v>
+      </c>
+      <c r="BF23">
+        <v>2.07</v>
+      </c>
+      <c r="BG23">
+        <v>1.25</v>
+      </c>
+      <c r="BH23">
+        <v>3.4</v>
+      </c>
+      <c r="BI23">
+        <v>1.44</v>
+      </c>
+      <c r="BJ23">
+        <v>2.55</v>
+      </c>
+      <c r="BK23">
+        <v>1.73</v>
+      </c>
+      <c r="BL23">
+        <v>1.96</v>
+      </c>
+      <c r="BM23">
+        <v>2.15</v>
+      </c>
+      <c r="BN23">
+        <v>1.61</v>
+      </c>
+      <c r="BO23">
         <v>2.7</v>
       </c>
-      <c r="AU23">
-        <v>4</v>
-      </c>
-      <c r="AV23">
-        <v>4</v>
-      </c>
-      <c r="AW23">
-        <v>5</v>
-      </c>
-      <c r="AX23">
-        <v>4</v>
-      </c>
-      <c r="AY23">
-        <v>9</v>
-      </c>
-      <c r="AZ23">
-        <v>8</v>
-      </c>
-      <c r="BA23">
-        <v>6</v>
-      </c>
-      <c r="BB23">
-        <v>5</v>
-      </c>
-      <c r="BC23">
-        <v>11</v>
-      </c>
-      <c r="BD23">
-        <v>1.28</v>
-      </c>
-      <c r="BE23">
-        <v>7.5</v>
-      </c>
-      <c r="BF23">
-        <v>4.1</v>
-      </c>
-      <c r="BG23">
-        <v>1.28</v>
-      </c>
-      <c r="BH23">
-        <v>3.25</v>
-      </c>
-      <c r="BI23">
-        <v>1.48</v>
-      </c>
-      <c r="BJ23">
-        <v>2.43</v>
-      </c>
-      <c r="BK23">
-        <v>1.79</v>
-      </c>
-      <c r="BL23">
-        <v>1.9</v>
-      </c>
-      <c r="BM23">
-        <v>2.23</v>
-      </c>
-      <c r="BN23">
-        <v>1.57</v>
-      </c>
-      <c r="BO23">
-        <v>2.85</v>
-      </c>
       <c r="BP23">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="24" spans="1:68">
@@ -5592,7 +5577,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7491834</v>
+        <v>7491839</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -5607,88 +5592,88 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q24">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="R24">
+        <v>2.5</v>
+      </c>
+      <c r="S24">
         <v>2.75</v>
       </c>
-      <c r="S24">
-        <v>1.95</v>
-      </c>
       <c r="T24">
+        <v>1.25</v>
+      </c>
+      <c r="U24">
+        <v>3.75</v>
+      </c>
+      <c r="V24">
+        <v>2.1</v>
+      </c>
+      <c r="W24">
+        <v>1.67</v>
+      </c>
+      <c r="X24">
+        <v>4.5</v>
+      </c>
+      <c r="Y24">
         <v>1.18</v>
       </c>
-      <c r="U24">
-        <v>4.5</v>
-      </c>
-      <c r="V24">
-        <v>1.83</v>
-      </c>
-      <c r="W24">
-        <v>1.83</v>
-      </c>
-      <c r="X24">
-        <v>4</v>
-      </c>
-      <c r="Y24">
-        <v>1.22</v>
-      </c>
       <c r="Z24">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="AA24">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="AB24">
-        <v>1.53</v>
+        <v>2.3</v>
       </c>
       <c r="AC24">
         <v>1.01</v>
       </c>
       <c r="AD24">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AE24">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AF24">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AG24">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AH24">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AI24">
         <v>1.44</v>
@@ -5697,91 +5682,91 @@
         <v>2.63</v>
       </c>
       <c r="AK24">
-        <v>2.45</v>
+        <v>1.68</v>
       </c>
       <c r="AL24">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AM24">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP24">
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
-        <v>2.26</v>
+        <v>1.46</v>
       </c>
       <c r="AS24">
-        <v>2.43</v>
+        <v>1.03</v>
       </c>
       <c r="AT24">
-        <v>4.69</v>
+        <v>2.49</v>
       </c>
       <c r="AU24">
+        <v>8</v>
+      </c>
+      <c r="AV24">
+        <v>8</v>
+      </c>
+      <c r="AW24">
+        <v>4</v>
+      </c>
+      <c r="AX24">
+        <v>2</v>
+      </c>
+      <c r="AY24">
+        <v>12</v>
+      </c>
+      <c r="AZ24">
+        <v>10</v>
+      </c>
+      <c r="BA24">
         <v>6</v>
       </c>
-      <c r="AV24">
-        <v>9</v>
-      </c>
-      <c r="AW24">
-        <v>4</v>
-      </c>
-      <c r="AX24">
-        <v>6</v>
-      </c>
-      <c r="AY24">
-        <v>10</v>
-      </c>
-      <c r="AZ24">
-        <v>15</v>
-      </c>
-      <c r="BA24">
-        <v>4</v>
-      </c>
       <c r="BB24">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BC24">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BD24">
-        <v>3.3</v>
+        <v>2.17</v>
       </c>
       <c r="BE24">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF24">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="BG24">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="BH24">
         <v>3.9</v>
       </c>
       <c r="BI24">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="BJ24">
         <v>2.8</v>
       </c>
       <c r="BK24">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="BL24">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="BM24">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="BN24">
         <v>1.74</v>
@@ -5798,7 +5783,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7491835</v>
+        <v>7491832</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -5813,43 +5798,43 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="Q25">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="R25">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S25">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="T25">
         <v>1.3</v>
@@ -5870,25 +5855,25 @@
         <v>1.13</v>
       </c>
       <c r="Z25">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="AA25">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="AB25">
-        <v>4.6</v>
+        <v>6.25</v>
       </c>
       <c r="AC25">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD25">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE25">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AF25">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AG25">
         <v>1.62</v>
@@ -5897,106 +5882,106 @@
         <v>2.25</v>
       </c>
       <c r="AI25">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AJ25">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AK25">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AL25">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AM25">
-        <v>2.15</v>
+        <v>2.85</v>
       </c>
       <c r="AN25">
         <v>3</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AR25">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AS25">
-        <v>0.87</v>
+        <v>1.54</v>
       </c>
       <c r="AT25">
-        <v>2.37</v>
+        <v>2.7</v>
       </c>
       <c r="AU25">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV25">
         <v>4</v>
       </c>
       <c r="AW25">
+        <v>5</v>
+      </c>
+      <c r="AX25">
+        <v>4</v>
+      </c>
+      <c r="AY25">
+        <v>9</v>
+      </c>
+      <c r="AZ25">
         <v>8</v>
       </c>
-      <c r="AX25">
+      <c r="BA25">
         <v>6</v>
       </c>
-      <c r="AY25">
-        <v>18</v>
-      </c>
-      <c r="AZ25">
-        <v>10</v>
-      </c>
-      <c r="BA25">
+      <c r="BB25">
         <v>5</v>
-      </c>
-      <c r="BB25">
-        <v>6</v>
       </c>
       <c r="BC25">
         <v>11</v>
       </c>
       <c r="BD25">
-        <v>1.64</v>
+        <v>1.28</v>
       </c>
       <c r="BE25">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF25">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="BG25">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="BH25">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="BI25">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="BJ25">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="BK25">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="BL25">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="BM25">
-        <v>2.32</v>
+        <v>2.23</v>
       </c>
       <c r="BN25">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="BO25">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="BP25">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -6019,7 +6004,7 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s">
         <v>87</v>
@@ -6046,7 +6031,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6252,7 +6237,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6455,10 +6440,10 @@
         <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6536,7 +6521,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ28">
         <v>2.33</v>
@@ -6664,7 +6649,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6828,7 +6813,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7491844</v>
+        <v>7491848</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -6843,190 +6828,190 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O30" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q30">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="R30">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S30">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T30">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U30">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V30">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W30">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X30">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y30">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z30">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="AA30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AB30">
-        <v>2.55</v>
+        <v>3.7</v>
       </c>
       <c r="AC30">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD30">
+        <v>17.25</v>
+      </c>
+      <c r="AE30">
+        <v>1.19</v>
+      </c>
+      <c r="AF30">
+        <v>4.83</v>
+      </c>
+      <c r="AG30">
+        <v>1.6</v>
+      </c>
+      <c r="AH30">
+        <v>2.2</v>
+      </c>
+      <c r="AI30">
+        <v>1.53</v>
+      </c>
+      <c r="AJ30">
+        <v>2.38</v>
+      </c>
+      <c r="AK30">
+        <v>1.32</v>
+      </c>
+      <c r="AL30">
+        <v>1.28</v>
+      </c>
+      <c r="AM30">
+        <v>1.86</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0.5</v>
+      </c>
+      <c r="AQ30">
+        <v>0.5</v>
+      </c>
+      <c r="AR30">
+        <v>1.57</v>
+      </c>
+      <c r="AS30">
+        <v>1.61</v>
+      </c>
+      <c r="AT30">
+        <v>3.18</v>
+      </c>
+      <c r="AU30">
+        <v>4</v>
+      </c>
+      <c r="AV30">
+        <v>5</v>
+      </c>
+      <c r="AW30">
+        <v>7</v>
+      </c>
+      <c r="AX30">
+        <v>8</v>
+      </c>
+      <c r="AY30">
+        <v>11</v>
+      </c>
+      <c r="AZ30">
         <v>13</v>
       </c>
-      <c r="AE30">
-        <v>1.24</v>
-      </c>
-      <c r="AF30">
-        <v>4.2</v>
-      </c>
-      <c r="AG30">
-        <v>1.67</v>
-      </c>
-      <c r="AH30">
-        <v>2.1</v>
-      </c>
-      <c r="AI30">
-        <v>1.57</v>
-      </c>
-      <c r="AJ30">
-        <v>2.25</v>
-      </c>
-      <c r="AK30">
-        <v>1.58</v>
-      </c>
-      <c r="AL30">
-        <v>1.26</v>
-      </c>
-      <c r="AM30">
-        <v>1.47</v>
-      </c>
-      <c r="AN30">
-        <v>3</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>1.5</v>
-      </c>
-      <c r="AQ30">
-        <v>1.5</v>
-      </c>
-      <c r="AR30">
-        <v>1.69</v>
-      </c>
-      <c r="AS30">
-        <v>1.03</v>
-      </c>
-      <c r="AT30">
-        <v>2.72</v>
-      </c>
-      <c r="AU30">
-        <v>2</v>
-      </c>
-      <c r="AV30">
-        <v>6</v>
-      </c>
-      <c r="AW30">
+      <c r="BA30">
+        <v>2</v>
+      </c>
+      <c r="BB30">
         <v>5</v>
       </c>
-      <c r="AX30">
-        <v>6</v>
-      </c>
-      <c r="AY30">
+      <c r="BC30">
         <v>7</v>
       </c>
-      <c r="AZ30">
-        <v>12</v>
-      </c>
-      <c r="BA30">
-        <v>3</v>
-      </c>
-      <c r="BB30">
-        <v>9</v>
-      </c>
-      <c r="BC30">
-        <v>12</v>
-      </c>
       <c r="BD30">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="BE30">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="BF30">
         <v>2.7</v>
       </c>
       <c r="BG30">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="BH30">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="BI30">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="BJ30">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="BK30">
+        <v>1.54</v>
+      </c>
+      <c r="BL30">
+        <v>2.3</v>
+      </c>
+      <c r="BM30">
+        <v>1.85</v>
+      </c>
+      <c r="BN30">
         <v>1.83</v>
       </c>
-      <c r="BL30">
-        <v>1.85</v>
-      </c>
-      <c r="BM30">
-        <v>2.3</v>
-      </c>
-      <c r="BN30">
+      <c r="BO30">
+        <v>2.28</v>
+      </c>
+      <c r="BP30">
         <v>1.54</v>
-      </c>
-      <c r="BO30">
-        <v>2.9</v>
-      </c>
-      <c r="BP30">
-        <v>1.34</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7034,7 +7019,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7491845</v>
+        <v>7491847</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7049,190 +7034,190 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>2</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>112</v>
+      </c>
+      <c r="P31" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q31">
+        <v>2.63</v>
+      </c>
+      <c r="R31">
+        <v>2.3</v>
+      </c>
+      <c r="S31">
+        <v>3.75</v>
+      </c>
+      <c r="T31">
+        <v>1.33</v>
+      </c>
+      <c r="U31">
+        <v>3.25</v>
+      </c>
+      <c r="V31">
+        <v>2.63</v>
+      </c>
+      <c r="W31">
+        <v>1.44</v>
+      </c>
+      <c r="X31">
+        <v>6.5</v>
+      </c>
+      <c r="Y31">
+        <v>1.11</v>
+      </c>
+      <c r="Z31">
+        <v>2.1</v>
+      </c>
+      <c r="AA31">
+        <v>3.4</v>
+      </c>
+      <c r="AB31">
+        <v>3.4</v>
+      </c>
+      <c r="AC31">
+        <v>1.03</v>
+      </c>
+      <c r="AD31">
+        <v>13</v>
+      </c>
+      <c r="AE31">
+        <v>1.24</v>
+      </c>
+      <c r="AF31">
+        <v>4.2</v>
+      </c>
+      <c r="AG31">
+        <v>1.7</v>
+      </c>
+      <c r="AH31">
+        <v>2.05</v>
+      </c>
+      <c r="AI31">
+        <v>1.62</v>
+      </c>
+      <c r="AJ31">
+        <v>2.2</v>
+      </c>
+      <c r="AK31">
+        <v>1.33</v>
+      </c>
+      <c r="AL31">
+        <v>1.25</v>
+      </c>
+      <c r="AM31">
+        <v>1.78</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>3</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>1.36</v>
+      </c>
+      <c r="AS31">
+        <v>1.08</v>
+      </c>
+      <c r="AT31">
+        <v>2.44</v>
+      </c>
+      <c r="AU31">
+        <v>3</v>
+      </c>
+      <c r="AV31">
+        <v>4</v>
+      </c>
+      <c r="AW31">
+        <v>4</v>
+      </c>
+      <c r="AX31">
+        <v>2</v>
+      </c>
+      <c r="AY31">
+        <v>7</v>
+      </c>
+      <c r="AZ31">
+        <v>6</v>
+      </c>
+      <c r="BA31">
         <v>5</v>
       </c>
-      <c r="N31">
+      <c r="BB31">
         <v>5</v>
       </c>
-      <c r="O31" t="s">
-        <v>96</v>
-      </c>
-      <c r="P31" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q31">
-        <v>5.5</v>
-      </c>
-      <c r="R31">
-        <v>2.75</v>
-      </c>
-      <c r="S31">
-        <v>1.83</v>
-      </c>
-      <c r="T31">
-        <v>1.2</v>
-      </c>
-      <c r="U31">
-        <v>4.33</v>
-      </c>
-      <c r="V31">
-        <v>2</v>
-      </c>
-      <c r="W31">
-        <v>1.73</v>
-      </c>
-      <c r="X31">
-        <v>4</v>
-      </c>
-      <c r="Y31">
-        <v>1.22</v>
-      </c>
-      <c r="Z31">
-        <v>6.5</v>
-      </c>
-      <c r="AA31">
-        <v>4.75</v>
-      </c>
-      <c r="AB31">
+      <c r="BC31">
+        <v>10</v>
+      </c>
+      <c r="BD31">
+        <v>1.65</v>
+      </c>
+      <c r="BE31">
+        <v>6.75</v>
+      </c>
+      <c r="BF31">
+        <v>2.48</v>
+      </c>
+      <c r="BG31">
+        <v>1.25</v>
+      </c>
+      <c r="BH31">
+        <v>3.45</v>
+      </c>
+      <c r="BI31">
+        <v>1.44</v>
+      </c>
+      <c r="BJ31">
+        <v>2.55</v>
+      </c>
+      <c r="BK31">
+        <v>1.72</v>
+      </c>
+      <c r="BL31">
+        <v>1.98</v>
+      </c>
+      <c r="BM31">
+        <v>2.12</v>
+      </c>
+      <c r="BN31">
+        <v>1.62</v>
+      </c>
+      <c r="BO31">
+        <v>2.65</v>
+      </c>
+      <c r="BP31">
         <v>1.4</v>
-      </c>
-      <c r="AC31">
-        <v>1.01</v>
-      </c>
-      <c r="AD31">
-        <v>15</v>
-      </c>
-      <c r="AE31">
-        <v>1.06</v>
-      </c>
-      <c r="AF31">
-        <v>5.75</v>
-      </c>
-      <c r="AG31">
-        <v>1.34</v>
-      </c>
-      <c r="AH31">
-        <v>3.09</v>
-      </c>
-      <c r="AI31">
-        <v>1.53</v>
-      </c>
-      <c r="AJ31">
-        <v>2.38</v>
-      </c>
-      <c r="AK31">
-        <v>2.98</v>
-      </c>
-      <c r="AL31">
-        <v>1.18</v>
-      </c>
-      <c r="AM31">
-        <v>1.12</v>
-      </c>
-      <c r="AN31">
-        <v>1</v>
-      </c>
-      <c r="AO31">
-        <v>3</v>
-      </c>
-      <c r="AP31">
-        <v>0.5</v>
-      </c>
-      <c r="AQ31">
-        <v>3</v>
-      </c>
-      <c r="AR31">
-        <v>0.65</v>
-      </c>
-      <c r="AS31">
-        <v>2.21</v>
-      </c>
-      <c r="AT31">
-        <v>2.86</v>
-      </c>
-      <c r="AU31">
-        <v>0</v>
-      </c>
-      <c r="AV31">
-        <v>8</v>
-      </c>
-      <c r="AW31">
-        <v>0</v>
-      </c>
-      <c r="AX31">
-        <v>5</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
-      <c r="AZ31">
-        <v>13</v>
-      </c>
-      <c r="BA31">
-        <v>1</v>
-      </c>
-      <c r="BB31">
-        <v>4</v>
-      </c>
-      <c r="BC31">
-        <v>5</v>
-      </c>
-      <c r="BD31">
-        <v>3.9</v>
-      </c>
-      <c r="BE31">
-        <v>7</v>
-      </c>
-      <c r="BF31">
-        <v>1.3</v>
-      </c>
-      <c r="BG31">
-        <v>1.32</v>
-      </c>
-      <c r="BH31">
-        <v>3</v>
-      </c>
-      <c r="BI31">
-        <v>1.56</v>
-      </c>
-      <c r="BJ31">
-        <v>2.23</v>
-      </c>
-      <c r="BK31">
-        <v>1.91</v>
-      </c>
-      <c r="BL31">
-        <v>1.77</v>
-      </c>
-      <c r="BM31">
-        <v>2.4</v>
-      </c>
-      <c r="BN31">
-        <v>1.49</v>
-      </c>
-      <c r="BO31">
-        <v>3.15</v>
-      </c>
-      <c r="BP31">
-        <v>1.3</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -7240,7 +7225,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7491847</v>
+        <v>7491844</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7255,43 +7240,43 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32">
         <v>3</v>
       </c>
       <c r="O32" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q32">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="R32">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S32">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T32">
         <v>1.33</v>
@@ -7312,16 +7297,16 @@
         <v>1.11</v>
       </c>
       <c r="Z32">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AA32">
         <v>3.4</v>
       </c>
       <c r="AB32">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="AC32">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD32">
         <v>13</v>
@@ -7333,25 +7318,25 @@
         <v>4.2</v>
       </c>
       <c r="AG32">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AH32">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AI32">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AJ32">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AK32">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="AL32">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AM32">
-        <v>1.78</v>
+        <v>1.47</v>
       </c>
       <c r="AN32">
         <v>3</v>
@@ -7360,85 +7345,85 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
-        <v>1.36</v>
+        <v>1.69</v>
       </c>
       <c r="AS32">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="AT32">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="AU32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY32">
         <v>7</v>
       </c>
       <c r="AZ32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD32">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="BE32">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF32">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="BG32">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="BH32">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="BI32">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="BJ32">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="BK32">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="BL32">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="BM32">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="BN32">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="BO32">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="BP32">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="33" spans="1:68">
@@ -7446,7 +7431,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>7491848</v>
+        <v>7491845</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -7461,88 +7446,88 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O33" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q33">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="R33">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="S33">
-        <v>3.75</v>
+        <v>1.83</v>
       </c>
       <c r="T33">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="U33">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="V33">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="X33">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Y33">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="Z33">
-        <v>1.95</v>
+        <v>6.5</v>
       </c>
       <c r="AA33">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="AB33">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="AC33">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD33">
-        <v>17.25</v>
+        <v>15</v>
       </c>
       <c r="AE33">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="AF33">
-        <v>4.83</v>
+        <v>5.75</v>
       </c>
       <c r="AG33">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="AH33">
-        <v>2.2</v>
+        <v>3.09</v>
       </c>
       <c r="AI33">
         <v>1.53</v>
@@ -7551,100 +7536,100 @@
         <v>2.38</v>
       </c>
       <c r="AK33">
-        <v>1.32</v>
+        <v>2.98</v>
       </c>
       <c r="AL33">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AM33">
-        <v>1.86</v>
+        <v>1.12</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP33">
         <v>0.5</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AR33">
-        <v>1.57</v>
+        <v>0.65</v>
       </c>
       <c r="AS33">
-        <v>1.61</v>
+        <v>2.21</v>
       </c>
       <c r="AT33">
-        <v>3.18</v>
+        <v>2.86</v>
       </c>
       <c r="AU33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV33">
+        <v>8</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
         <v>5</v>
       </c>
-      <c r="AW33">
-        <v>7</v>
-      </c>
-      <c r="AX33">
-        <v>8</v>
-      </c>
       <c r="AY33">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AZ33">
         <v>13</v>
       </c>
       <c r="BA33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB33">
+        <v>4</v>
+      </c>
+      <c r="BC33">
         <v>5</v>
       </c>
-      <c r="BC33">
-        <v>7</v>
-      </c>
       <c r="BD33">
-        <v>1.54</v>
+        <v>3.9</v>
       </c>
       <c r="BE33">
         <v>7</v>
       </c>
       <c r="BF33">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="BG33">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="BH33">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="BI33">
-        <v>1.32</v>
+        <v>1.56</v>
       </c>
       <c r="BJ33">
-        <v>3</v>
+        <v>2.23</v>
       </c>
       <c r="BK33">
-        <v>1.54</v>
+        <v>1.91</v>
       </c>
       <c r="BL33">
-        <v>2.3</v>
+        <v>1.77</v>
       </c>
       <c r="BM33">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="BN33">
-        <v>1.83</v>
+        <v>1.49</v>
       </c>
       <c r="BO33">
-        <v>2.28</v>
+        <v>3.15</v>
       </c>
       <c r="BP33">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="34" spans="1:68">
@@ -7667,7 +7652,7 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s">
         <v>70</v>
@@ -7867,7 +7852,7 @@
         <v>69</v>
       </c>
       <c r="E35" s="2">
-        <v>45556.875</v>
+        <v>45557.4375</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -7900,7 +7885,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8073,13 +8058,13 @@
         <v>69</v>
       </c>
       <c r="E36" s="2">
-        <v>45556.875</v>
+        <v>45557.52083333334</v>
       </c>
       <c r="F36">
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s">
         <v>76</v>
@@ -8106,7 +8091,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8279,7 +8264,7 @@
         <v>69</v>
       </c>
       <c r="E37" s="2">
-        <v>45556.875</v>
+        <v>45557.60416666666</v>
       </c>
       <c r="F37">
         <v>4</v>
@@ -8476,7 +8461,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7491852</v>
+        <v>7491857</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -8485,94 +8470,94 @@
         <v>69</v>
       </c>
       <c r="E38" s="2">
-        <v>45561.875</v>
+        <v>45563.4375</v>
       </c>
       <c r="F38">
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>2</v>
-      </c>
-      <c r="K38">
-        <v>3</v>
-      </c>
-      <c r="L38">
-        <v>4</v>
-      </c>
       <c r="M38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O38" t="s">
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="Q38">
-        <v>1.62</v>
+        <v>2.75</v>
       </c>
       <c r="R38">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="S38">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="T38">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="U38">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="V38">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="W38">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="X38">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Y38">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="Z38">
-        <v>1.35</v>
+        <v>2.19</v>
       </c>
       <c r="AA38">
-        <v>6.06</v>
+        <v>3.48</v>
       </c>
       <c r="AB38">
-        <v>9</v>
+        <v>2.98</v>
       </c>
       <c r="AC38">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD38">
-        <v>32.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE38">
-        <v>1.1</v>
+        <v>1.21</v>
       </c>
       <c r="AF38">
-        <v>6.95</v>
+        <v>3.6</v>
       </c>
       <c r="AG38">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="AH38">
-        <v>3.27</v>
+        <v>2.3</v>
       </c>
       <c r="AI38">
         <v>1.67</v>
@@ -8581,100 +8566,100 @@
         <v>2.1</v>
       </c>
       <c r="AK38">
-        <v>1.08</v>
+        <v>1.34</v>
       </c>
       <c r="AL38">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AM38">
-        <v>3.8</v>
+        <v>1.76</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AR38">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="AS38">
-        <v>1.03</v>
+        <v>1.26</v>
       </c>
       <c r="AT38">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="AU38">
+        <v>3</v>
+      </c>
+      <c r="AV38">
+        <v>4</v>
+      </c>
+      <c r="AW38">
+        <v>2</v>
+      </c>
+      <c r="AX38">
+        <v>3</v>
+      </c>
+      <c r="AY38">
         <v>5</v>
       </c>
-      <c r="AV38">
-        <v>4</v>
-      </c>
-      <c r="AW38">
-        <v>8</v>
-      </c>
-      <c r="AX38">
-        <v>2</v>
-      </c>
-      <c r="AY38">
-        <v>13</v>
-      </c>
       <c r="AZ38">
+        <v>7</v>
+      </c>
+      <c r="BA38">
+        <v>2</v>
+      </c>
+      <c r="BB38">
+        <v>4</v>
+      </c>
+      <c r="BC38">
         <v>6</v>
       </c>
-      <c r="BA38">
-        <v>11</v>
-      </c>
-      <c r="BB38">
-        <v>0</v>
-      </c>
-      <c r="BC38">
-        <v>11</v>
-      </c>
       <c r="BD38">
-        <v>1.25</v>
+        <v>1.68</v>
       </c>
       <c r="BE38">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="BF38">
-        <v>4.3</v>
+        <v>2.43</v>
       </c>
       <c r="BG38">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="BH38">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="BI38">
+        <v>1.47</v>
+      </c>
+      <c r="BJ38">
+        <v>2.48</v>
+      </c>
+      <c r="BK38">
+        <v>1.74</v>
+      </c>
+      <c r="BL38">
+        <v>1.95</v>
+      </c>
+      <c r="BM38">
+        <v>2.17</v>
+      </c>
+      <c r="BN38">
+        <v>1.58</v>
+      </c>
+      <c r="BO38">
+        <v>2.8</v>
+      </c>
+      <c r="BP38">
         <v>1.37</v>
-      </c>
-      <c r="BJ38">
-        <v>2.8</v>
-      </c>
-      <c r="BK38">
-        <v>1.61</v>
-      </c>
-      <c r="BL38">
-        <v>2.14</v>
-      </c>
-      <c r="BM38">
-        <v>2</v>
-      </c>
-      <c r="BN38">
-        <v>1.8</v>
-      </c>
-      <c r="BO38">
-        <v>2.48</v>
-      </c>
-      <c r="BP38">
-        <v>1.47</v>
       </c>
     </row>
     <row r="39" spans="1:68">
@@ -8682,7 +8667,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7491854</v>
+        <v>7491855</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8691,88 +8676,88 @@
         <v>69</v>
       </c>
       <c r="E39" s="2">
-        <v>45562.875</v>
+        <v>45563.4375</v>
       </c>
       <c r="F39">
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <v>2</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O39" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q39">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="R39">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S39">
+        <v>2.6</v>
+      </c>
+      <c r="T39">
+        <v>1.29</v>
+      </c>
+      <c r="U39">
+        <v>3.5</v>
+      </c>
+      <c r="V39">
+        <v>2.25</v>
+      </c>
+      <c r="W39">
+        <v>1.57</v>
+      </c>
+      <c r="X39">
         <v>5.5</v>
       </c>
-      <c r="T39">
-        <v>1.36</v>
-      </c>
-      <c r="U39">
-        <v>3</v>
-      </c>
-      <c r="V39">
-        <v>2.63</v>
-      </c>
-      <c r="W39">
-        <v>1.44</v>
-      </c>
-      <c r="X39">
-        <v>7</v>
-      </c>
       <c r="Y39">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="Z39">
-        <v>1.83</v>
+        <v>3.27</v>
       </c>
       <c r="AA39">
-        <v>3.75</v>
+        <v>3.82</v>
       </c>
       <c r="AB39">
-        <v>3.75</v>
+        <v>1.96</v>
       </c>
       <c r="AC39">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD39">
-        <v>9.4</v>
+        <v>19</v>
       </c>
       <c r="AE39">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AF39">
-        <v>3.52</v>
+        <v>5</v>
       </c>
       <c r="AG39">
         <v>1.58</v>
@@ -8781,106 +8766,106 @@
         <v>2.23</v>
       </c>
       <c r="AI39">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AJ39">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="AK39">
-        <v>1.2</v>
+        <v>1.78</v>
       </c>
       <c r="AL39">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AM39">
-        <v>2.15</v>
+        <v>1.35</v>
       </c>
       <c r="AN39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ39">
+        <v>1.33</v>
+      </c>
+      <c r="AR39">
+        <v>1.28</v>
+      </c>
+      <c r="AS39">
+        <v>1.25</v>
+      </c>
+      <c r="AT39">
+        <v>2.53</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>3</v>
+      </c>
+      <c r="AW39">
+        <v>3</v>
+      </c>
+      <c r="AX39">
+        <v>5</v>
+      </c>
+      <c r="AY39">
+        <v>3</v>
+      </c>
+      <c r="AZ39">
+        <v>8</v>
+      </c>
+      <c r="BA39">
         <v>1</v>
       </c>
-      <c r="AR39">
-        <v>1.82</v>
-      </c>
-      <c r="AS39">
-        <v>0.97</v>
-      </c>
-      <c r="AT39">
-        <v>2.79</v>
-      </c>
-      <c r="AU39">
-        <v>4</v>
-      </c>
-      <c r="AV39">
-        <v>3</v>
-      </c>
-      <c r="AW39">
-        <v>3</v>
-      </c>
-      <c r="AX39">
-        <v>1</v>
-      </c>
-      <c r="AY39">
-        <v>7</v>
-      </c>
-      <c r="AZ39">
-        <v>4</v>
-      </c>
-      <c r="BA39">
-        <v>4</v>
-      </c>
       <c r="BB39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD39">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="BE39">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF39">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="BG39">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BH39">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="BI39">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BJ39">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="BK39">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="BL39">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="BM39">
-        <v>2.23</v>
+        <v>2.32</v>
       </c>
       <c r="BN39">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="BO39">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="BP39">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -8897,7 +8882,7 @@
         <v>69</v>
       </c>
       <c r="E40" s="2">
-        <v>45562.875</v>
+        <v>45563.4375</v>
       </c>
       <c r="F40">
         <v>5</v>
@@ -8927,7 +8912,7 @@
         <v>4</v>
       </c>
       <c r="O40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P40" t="s">
         <v>96</v>
@@ -9094,7 +9079,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7491850</v>
+        <v>7491854</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9103,190 +9088,190 @@
         <v>69</v>
       </c>
       <c r="E41" s="2">
-        <v>45562.875</v>
+        <v>45563.4375</v>
       </c>
       <c r="F41">
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H41" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41">
         <v>2</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O41" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
       </c>
       <c r="R41">
+        <v>2.3</v>
+      </c>
+      <c r="S41">
+        <v>5.5</v>
+      </c>
+      <c r="T41">
+        <v>1.36</v>
+      </c>
+      <c r="U41">
+        <v>3</v>
+      </c>
+      <c r="V41">
         <v>2.63</v>
       </c>
-      <c r="S41">
-        <v>4</v>
-      </c>
-      <c r="T41">
-        <v>1.2</v>
-      </c>
-      <c r="U41">
-        <v>4.33</v>
-      </c>
-      <c r="V41">
-        <v>1.91</v>
-      </c>
       <c r="W41">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="X41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y41">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="Z41">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AA41">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="AB41">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AC41">
         <v>1.01</v>
       </c>
       <c r="AD41">
-        <v>29</v>
+        <v>9.4</v>
       </c>
       <c r="AE41">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="AF41">
-        <v>6.1</v>
+        <v>3.52</v>
       </c>
       <c r="AG41">
-        <v>1.31</v>
+        <v>1.58</v>
       </c>
       <c r="AH41">
-        <v>3.27</v>
+        <v>2.23</v>
       </c>
       <c r="AI41">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AJ41">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="AK41">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AL41">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AM41">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AN41">
         <v>3</v>
       </c>
       <c r="AO41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP41">
         <v>2</v>
       </c>
       <c r="AQ41">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AR41">
-        <v>1.17</v>
+        <v>1.82</v>
       </c>
       <c r="AS41">
-        <v>2.29</v>
+        <v>0.97</v>
       </c>
       <c r="AT41">
-        <v>3.46</v>
+        <v>2.79</v>
       </c>
       <c r="AU41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV41">
         <v>3</v>
       </c>
       <c r="AW41">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AX41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY41">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AZ41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA41">
+        <v>4</v>
+      </c>
+      <c r="BB41">
+        <v>2</v>
+      </c>
+      <c r="BC41">
         <v>6</v>
       </c>
-      <c r="BB41">
-        <v>1</v>
-      </c>
-      <c r="BC41">
-        <v>7</v>
-      </c>
       <c r="BD41">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="BE41">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF41">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="BG41">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="BH41">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BI41">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="BJ41">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="BK41">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BL41">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="BM41">
         <v>2.23</v>
       </c>
       <c r="BN41">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="BO41">
         <v>2.8</v>
@@ -9300,7 +9285,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7491855</v>
+        <v>7491858</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9309,16 +9294,16 @@
         <v>69</v>
       </c>
       <c r="E42" s="2">
-        <v>45563.4375</v>
+        <v>45564.4375</v>
       </c>
       <c r="F42">
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -9333,85 +9318,85 @@
         <v>2</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O42" t="s">
         <v>119</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q42">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="R42">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S42">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="T42">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U42">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V42">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W42">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X42">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y42">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Z42">
-        <v>3.27</v>
+        <v>4</v>
       </c>
       <c r="AA42">
-        <v>3.82</v>
+        <v>4.2</v>
       </c>
       <c r="AB42">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="AC42">
         <v>1.02</v>
       </c>
       <c r="AD42">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE42">
+        <v>1.1</v>
+      </c>
+      <c r="AF42">
+        <v>4.85</v>
+      </c>
+      <c r="AG42">
+        <v>1.5</v>
+      </c>
+      <c r="AH42">
+        <v>2.55</v>
+      </c>
+      <c r="AI42">
+        <v>1.53</v>
+      </c>
+      <c r="AJ42">
+        <v>2.38</v>
+      </c>
+      <c r="AK42">
+        <v>2.2</v>
+      </c>
+      <c r="AL42">
         <v>1.18</v>
       </c>
-      <c r="AF42">
-        <v>5</v>
-      </c>
-      <c r="AG42">
-        <v>1.58</v>
-      </c>
-      <c r="AH42">
-        <v>2.23</v>
-      </c>
-      <c r="AI42">
-        <v>1.5</v>
-      </c>
-      <c r="AJ42">
-        <v>2.5</v>
-      </c>
-      <c r="AK42">
-        <v>1.78</v>
-      </c>
-      <c r="AL42">
-        <v>1.22</v>
-      </c>
       <c r="AM42">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="AN42">
         <v>0</v>
@@ -9420,85 +9405,85 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AR42">
+        <v>1</v>
+      </c>
+      <c r="AS42">
         <v>1.28</v>
       </c>
-      <c r="AS42">
-        <v>1.25</v>
-      </c>
       <c r="AT42">
-        <v>2.53</v>
+        <v>2.28</v>
       </c>
       <c r="AU42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV42">
+        <v>8</v>
+      </c>
+      <c r="AW42">
+        <v>1</v>
+      </c>
+      <c r="AX42">
         <v>5</v>
-      </c>
-      <c r="AW42">
-        <v>2</v>
-      </c>
-      <c r="AX42">
-        <v>6</v>
       </c>
       <c r="AY42">
         <v>5</v>
       </c>
       <c r="AZ42">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB42">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BC42">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BD42">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="BE42">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF42">
-        <v>1.9</v>
+        <v>1.54</v>
       </c>
       <c r="BG42">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="BH42">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="BI42">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="BJ42">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="BK42">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="BL42">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="BM42">
-        <v>2.32</v>
+        <v>2.04</v>
       </c>
       <c r="BN42">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="BO42">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="BP42">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9506,7 +9491,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7491856</v>
+        <v>7491853</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9515,813 +9500,195 @@
         <v>69</v>
       </c>
       <c r="E43" s="2">
-        <v>45563.4375</v>
+        <v>45564.52083333334</v>
       </c>
       <c r="F43">
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>6</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <v>7</v>
+      </c>
+      <c r="O43" t="s">
+        <v>120</v>
+      </c>
+      <c r="P43" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q43">
+        <v>2.75</v>
+      </c>
+      <c r="R43">
+        <v>2.5</v>
+      </c>
+      <c r="S43">
+        <v>3.1</v>
+      </c>
+      <c r="T43">
+        <v>1.25</v>
+      </c>
+      <c r="U43">
+        <v>3.75</v>
+      </c>
+      <c r="V43">
+        <v>2.1</v>
+      </c>
+      <c r="W43">
+        <v>1.67</v>
+      </c>
+      <c r="X43">
+        <v>4.5</v>
+      </c>
+      <c r="Y43">
+        <v>1.18</v>
+      </c>
+      <c r="Z43">
+        <v>2.06</v>
+      </c>
+      <c r="AA43">
+        <v>3.85</v>
+      </c>
+      <c r="AB43">
+        <v>3.1</v>
+      </c>
+      <c r="AC43">
+        <v>1.01</v>
+      </c>
+      <c r="AD43">
+        <v>21</v>
+      </c>
+      <c r="AE43">
+        <v>1.08</v>
+      </c>
+      <c r="AF43">
+        <v>5.25</v>
+      </c>
+      <c r="AG43">
+        <v>1.4</v>
+      </c>
+      <c r="AH43">
+        <v>2.9</v>
+      </c>
+      <c r="AI43">
+        <v>1.4</v>
+      </c>
+      <c r="AJ43">
+        <v>2.75</v>
+      </c>
+      <c r="AK43">
+        <v>1.34</v>
+      </c>
+      <c r="AL43">
+        <v>1.21</v>
+      </c>
+      <c r="AM43">
+        <v>1.67</v>
+      </c>
+      <c r="AN43">
+        <v>1.5</v>
+      </c>
+      <c r="AO43">
+        <v>2</v>
+      </c>
+      <c r="AP43">
         <v>1</v>
       </c>
-      <c r="K43">
+      <c r="AQ43">
+        <v>2.33</v>
+      </c>
+      <c r="AR43">
+        <v>1.82</v>
+      </c>
+      <c r="AS43">
+        <v>1.36</v>
+      </c>
+      <c r="AT43">
+        <v>3.18</v>
+      </c>
+      <c r="AU43">
+        <v>3</v>
+      </c>
+      <c r="AV43">
+        <v>8</v>
+      </c>
+      <c r="AW43">
+        <v>3</v>
+      </c>
+      <c r="AX43">
         <v>1</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>2</v>
-      </c>
-      <c r="N43">
-        <v>2</v>
-      </c>
-      <c r="O43" t="s">
-        <v>96</v>
-      </c>
-      <c r="P43" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q43">
-        <v>2.38</v>
-      </c>
-      <c r="R43">
-        <v>2.3</v>
-      </c>
-      <c r="S43">
-        <v>4.5</v>
-      </c>
-      <c r="T43">
-        <v>1.33</v>
-      </c>
-      <c r="U43">
-        <v>3.25</v>
-      </c>
-      <c r="V43">
-        <v>2.63</v>
-      </c>
-      <c r="W43">
-        <v>1.44</v>
-      </c>
-      <c r="X43">
-        <v>6.5</v>
-      </c>
-      <c r="Y43">
-        <v>1.11</v>
-      </c>
-      <c r="Z43">
-        <v>1.65</v>
-      </c>
-      <c r="AA43">
-        <v>4</v>
-      </c>
-      <c r="AB43">
-        <v>4.5</v>
-      </c>
-      <c r="AC43">
-        <v>1.03</v>
-      </c>
-      <c r="AD43">
-        <v>13</v>
-      </c>
-      <c r="AE43">
-        <v>1.25</v>
-      </c>
-      <c r="AF43">
-        <v>4</v>
-      </c>
-      <c r="AG43">
-        <v>1.58</v>
-      </c>
-      <c r="AH43">
-        <v>2.23</v>
-      </c>
-      <c r="AI43">
-        <v>1.67</v>
-      </c>
-      <c r="AJ43">
-        <v>2.1</v>
-      </c>
-      <c r="AK43">
-        <v>1.22</v>
-      </c>
-      <c r="AL43">
-        <v>1.22</v>
-      </c>
-      <c r="AM43">
-        <v>2.1</v>
-      </c>
-      <c r="AN43">
-        <v>0.5</v>
-      </c>
-      <c r="AO43">
-        <v>1.5</v>
-      </c>
-      <c r="AP43">
-        <v>0.33</v>
-      </c>
-      <c r="AQ43">
-        <v>2</v>
-      </c>
-      <c r="AR43">
-        <v>1.48</v>
-      </c>
-      <c r="AS43">
-        <v>0.96</v>
-      </c>
-      <c r="AT43">
-        <v>2.44</v>
-      </c>
-      <c r="AU43">
-        <v>3</v>
-      </c>
-      <c r="AV43">
-        <v>7</v>
-      </c>
-      <c r="AW43">
-        <v>3</v>
-      </c>
-      <c r="AX43">
-        <v>6</v>
       </c>
       <c r="AY43">
         <v>6</v>
       </c>
       <c r="AZ43">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA43">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB43">
         <v>6</v>
       </c>
       <c r="BC43">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD43">
-        <v>1.45</v>
+        <v>1.72</v>
       </c>
       <c r="BE43">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF43">
-        <v>3.05</v>
+        <v>2.38</v>
       </c>
       <c r="BG43">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="BH43">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="BI43">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="BJ43">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="BK43">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="BL43">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="BM43">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="BN43">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="BO43">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="BP43">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:68">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>7491857</v>
-      </c>
-      <c r="C44" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="2">
-        <v>45563.4375</v>
-      </c>
-      <c r="F44">
-        <v>5</v>
-      </c>
-      <c r="G44" t="s">
-        <v>70</v>
-      </c>
-      <c r="H44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44" t="s">
-        <v>120</v>
-      </c>
-      <c r="P44" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q44">
-        <v>2.75</v>
-      </c>
-      <c r="R44">
-        <v>2.25</v>
-      </c>
-      <c r="S44">
-        <v>3.75</v>
-      </c>
-      <c r="T44">
-        <v>1.36</v>
-      </c>
-      <c r="U44">
-        <v>3</v>
-      </c>
-      <c r="V44">
-        <v>2.63</v>
-      </c>
-      <c r="W44">
-        <v>1.44</v>
-      </c>
-      <c r="X44">
-        <v>7</v>
-      </c>
-      <c r="Y44">
-        <v>1.1</v>
-      </c>
-      <c r="Z44">
-        <v>2.19</v>
-      </c>
-      <c r="AA44">
-        <v>3.48</v>
-      </c>
-      <c r="AB44">
-        <v>2.98</v>
-      </c>
-      <c r="AC44">
-        <v>1.04</v>
-      </c>
-      <c r="AD44">
-        <v>10.5</v>
-      </c>
-      <c r="AE44">
-        <v>1.21</v>
-      </c>
-      <c r="AF44">
-        <v>3.6</v>
-      </c>
-      <c r="AG44">
-        <v>1.55</v>
-      </c>
-      <c r="AH44">
-        <v>2.3</v>
-      </c>
-      <c r="AI44">
-        <v>1.67</v>
-      </c>
-      <c r="AJ44">
-        <v>2.1</v>
-      </c>
-      <c r="AK44">
-        <v>1.34</v>
-      </c>
-      <c r="AL44">
-        <v>1.3</v>
-      </c>
-      <c r="AM44">
-        <v>1.76</v>
-      </c>
-      <c r="AN44">
-        <v>0</v>
-      </c>
-      <c r="AO44">
-        <v>1</v>
-      </c>
-      <c r="AP44">
-        <v>1</v>
-      </c>
-      <c r="AQ44">
-        <v>0.67</v>
-      </c>
-      <c r="AR44">
-        <v>1.56</v>
-      </c>
-      <c r="AS44">
-        <v>1.26</v>
-      </c>
-      <c r="AT44">
-        <v>2.82</v>
-      </c>
-      <c r="AU44">
-        <v>3</v>
-      </c>
-      <c r="AV44">
-        <v>3</v>
-      </c>
-      <c r="AW44">
-        <v>3</v>
-      </c>
-      <c r="AX44">
-        <v>6</v>
-      </c>
-      <c r="AY44">
-        <v>6</v>
-      </c>
-      <c r="AZ44">
-        <v>9</v>
-      </c>
-      <c r="BA44">
-        <v>2</v>
-      </c>
-      <c r="BB44">
-        <v>4</v>
-      </c>
-      <c r="BC44">
-        <v>6</v>
-      </c>
-      <c r="BD44">
-        <v>1.68</v>
-      </c>
-      <c r="BE44">
-        <v>6.5</v>
-      </c>
-      <c r="BF44">
-        <v>2.43</v>
-      </c>
-      <c r="BG44">
-        <v>1.26</v>
-      </c>
-      <c r="BH44">
-        <v>3.4</v>
-      </c>
-      <c r="BI44">
-        <v>1.47</v>
-      </c>
-      <c r="BJ44">
-        <v>2.48</v>
-      </c>
-      <c r="BK44">
-        <v>1.74</v>
-      </c>
-      <c r="BL44">
-        <v>1.95</v>
-      </c>
-      <c r="BM44">
-        <v>2.17</v>
-      </c>
-      <c r="BN44">
-        <v>1.58</v>
-      </c>
-      <c r="BO44">
-        <v>2.8</v>
-      </c>
-      <c r="BP44">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:68">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>7491858</v>
-      </c>
-      <c r="C45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="2">
-        <v>45564.4375</v>
-      </c>
-      <c r="F45">
-        <v>5</v>
-      </c>
-      <c r="G45" t="s">
-        <v>80</v>
-      </c>
-      <c r="H45" t="s">
-        <v>84</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>2</v>
-      </c>
-      <c r="L45">
-        <v>2</v>
-      </c>
-      <c r="M45">
-        <v>4</v>
-      </c>
-      <c r="N45">
-        <v>6</v>
-      </c>
-      <c r="O45" t="s">
-        <v>121</v>
-      </c>
-      <c r="P45" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q45">
-        <v>4.5</v>
-      </c>
-      <c r="R45">
-        <v>2.5</v>
-      </c>
-      <c r="S45">
-        <v>2.2</v>
-      </c>
-      <c r="T45">
-        <v>1.25</v>
-      </c>
-      <c r="U45">
-        <v>3.75</v>
-      </c>
-      <c r="V45">
-        <v>2.2</v>
-      </c>
-      <c r="W45">
-        <v>1.62</v>
-      </c>
-      <c r="X45">
-        <v>5</v>
-      </c>
-      <c r="Y45">
-        <v>1.17</v>
-      </c>
-      <c r="Z45">
-        <v>4</v>
-      </c>
-      <c r="AA45">
-        <v>4.2</v>
-      </c>
-      <c r="AB45">
-        <v>1.75</v>
-      </c>
-      <c r="AC45">
-        <v>1.02</v>
-      </c>
-      <c r="AD45">
-        <v>21</v>
-      </c>
-      <c r="AE45">
-        <v>1.1</v>
-      </c>
-      <c r="AF45">
-        <v>4.85</v>
-      </c>
-      <c r="AG45">
-        <v>1.5</v>
-      </c>
-      <c r="AH45">
-        <v>2.55</v>
-      </c>
-      <c r="AI45">
-        <v>1.53</v>
-      </c>
-      <c r="AJ45">
-        <v>2.38</v>
-      </c>
-      <c r="AK45">
-        <v>2.2</v>
-      </c>
-      <c r="AL45">
-        <v>1.18</v>
-      </c>
-      <c r="AM45">
-        <v>1.18</v>
-      </c>
-      <c r="AN45">
-        <v>0</v>
-      </c>
-      <c r="AO45">
-        <v>1.5</v>
-      </c>
-      <c r="AP45">
-        <v>0</v>
-      </c>
-      <c r="AQ45">
-        <v>2</v>
-      </c>
-      <c r="AR45">
-        <v>1</v>
-      </c>
-      <c r="AS45">
-        <v>1.28</v>
-      </c>
-      <c r="AT45">
-        <v>2.28</v>
-      </c>
-      <c r="AU45">
-        <v>6</v>
-      </c>
-      <c r="AV45">
-        <v>11</v>
-      </c>
-      <c r="AW45">
-        <v>2</v>
-      </c>
-      <c r="AX45">
-        <v>3</v>
-      </c>
-      <c r="AY45">
-        <v>8</v>
-      </c>
-      <c r="AZ45">
-        <v>14</v>
-      </c>
-      <c r="BA45">
-        <v>4</v>
-      </c>
-      <c r="BB45">
-        <v>9</v>
-      </c>
-      <c r="BC45">
-        <v>13</v>
-      </c>
-      <c r="BD45">
-        <v>2.7</v>
-      </c>
-      <c r="BE45">
-        <v>6.75</v>
-      </c>
-      <c r="BF45">
-        <v>1.54</v>
-      </c>
-      <c r="BG45">
-        <v>1.23</v>
-      </c>
-      <c r="BH45">
-        <v>3.55</v>
-      </c>
-      <c r="BI45">
-        <v>1.41</v>
-      </c>
-      <c r="BJ45">
-        <v>2.65</v>
-      </c>
-      <c r="BK45">
-        <v>1.67</v>
-      </c>
-      <c r="BL45">
-        <v>2.05</v>
-      </c>
-      <c r="BM45">
-        <v>2.04</v>
-      </c>
-      <c r="BN45">
-        <v>1.68</v>
-      </c>
-      <c r="BO45">
-        <v>2.55</v>
-      </c>
-      <c r="BP45">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:68">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>7491853</v>
-      </c>
-      <c r="C46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="2">
-        <v>45564.52083333334</v>
-      </c>
-      <c r="F46">
-        <v>5</v>
-      </c>
-      <c r="G46" t="s">
-        <v>72</v>
-      </c>
-      <c r="H46" t="s">
-        <v>82</v>
-      </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
-      <c r="J46">
-        <v>3</v>
-      </c>
-      <c r="K46">
-        <v>6</v>
-      </c>
-      <c r="L46">
-        <v>3</v>
-      </c>
-      <c r="M46">
-        <v>4</v>
-      </c>
-      <c r="N46">
-        <v>7</v>
-      </c>
-      <c r="O46" t="s">
-        <v>122</v>
-      </c>
-      <c r="P46" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q46">
-        <v>2.75</v>
-      </c>
-      <c r="R46">
-        <v>2.5</v>
-      </c>
-      <c r="S46">
-        <v>3.1</v>
-      </c>
-      <c r="T46">
-        <v>1.25</v>
-      </c>
-      <c r="U46">
-        <v>3.75</v>
-      </c>
-      <c r="V46">
-        <v>2.1</v>
-      </c>
-      <c r="W46">
-        <v>1.67</v>
-      </c>
-      <c r="X46">
-        <v>4.5</v>
-      </c>
-      <c r="Y46">
-        <v>1.18</v>
-      </c>
-      <c r="Z46">
-        <v>2.06</v>
-      </c>
-      <c r="AA46">
-        <v>3.85</v>
-      </c>
-      <c r="AB46">
-        <v>3.1</v>
-      </c>
-      <c r="AC46">
-        <v>1.01</v>
-      </c>
-      <c r="AD46">
-        <v>21</v>
-      </c>
-      <c r="AE46">
-        <v>1.08</v>
-      </c>
-      <c r="AF46">
-        <v>5.25</v>
-      </c>
-      <c r="AG46">
-        <v>1.4</v>
-      </c>
-      <c r="AH46">
-        <v>2.9</v>
-      </c>
-      <c r="AI46">
-        <v>1.4</v>
-      </c>
-      <c r="AJ46">
-        <v>2.75</v>
-      </c>
-      <c r="AK46">
-        <v>1.34</v>
-      </c>
-      <c r="AL46">
-        <v>1.21</v>
-      </c>
-      <c r="AM46">
-        <v>1.67</v>
-      </c>
-      <c r="AN46">
-        <v>1.5</v>
-      </c>
-      <c r="AO46">
-        <v>2</v>
-      </c>
-      <c r="AP46">
-        <v>1</v>
-      </c>
-      <c r="AQ46">
-        <v>2.33</v>
-      </c>
-      <c r="AR46">
-        <v>1.82</v>
-      </c>
-      <c r="AS46">
-        <v>1.36</v>
-      </c>
-      <c r="AT46">
-        <v>3.18</v>
-      </c>
-      <c r="AU46">
-        <v>7</v>
-      </c>
-      <c r="AV46">
-        <v>11</v>
-      </c>
-      <c r="AW46">
-        <v>4</v>
-      </c>
-      <c r="AX46">
-        <v>4</v>
-      </c>
-      <c r="AY46">
-        <v>11</v>
-      </c>
-      <c r="AZ46">
-        <v>15</v>
-      </c>
-      <c r="BA46">
-        <v>2</v>
-      </c>
-      <c r="BB46">
-        <v>6</v>
-      </c>
-      <c r="BC46">
-        <v>8</v>
-      </c>
-      <c r="BD46">
-        <v>1.72</v>
-      </c>
-      <c r="BE46">
-        <v>6.5</v>
-      </c>
-      <c r="BF46">
-        <v>2.38</v>
-      </c>
-      <c r="BG46">
-        <v>1.26</v>
-      </c>
-      <c r="BH46">
-        <v>3.4</v>
-      </c>
-      <c r="BI46">
-        <v>1.47</v>
-      </c>
-      <c r="BJ46">
-        <v>2.48</v>
-      </c>
-      <c r="BK46">
-        <v>1.75</v>
-      </c>
-      <c r="BL46">
-        <v>1.95</v>
-      </c>
-      <c r="BM46">
-        <v>2.17</v>
-      </c>
-      <c r="BN46">
-        <v>1.6</v>
-      </c>
-      <c r="BO46">
-        <v>2.75</v>
-      </c>
-      <c r="BP46">
         <v>1.38</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="156">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -364,6 +364,9 @@
     <t>['4', '21', '62', '80', '90']</t>
   </si>
   <si>
+    <t>['44', '62', '75', '81']</t>
+  </si>
+  <si>
     <t>['90+6']</t>
   </si>
   <si>
@@ -373,6 +376,9 @@
     <t>['11', '15', '46', '57']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['30', '50']</t>
   </si>
   <si>
@@ -457,10 +463,19 @@
     <t>['75']</t>
   </si>
   <si>
+    <t>['16', '21']</t>
+  </si>
+  <si>
+    <t>['15', '86']</t>
+  </si>
+  <si>
     <t>['32', '90+7']</t>
   </si>
   <si>
     <t>['12', '45', '72']</t>
+  </si>
+  <si>
+    <t>['31']</t>
   </si>
   <si>
     <t>['25', '47', '65', '74']</t>
@@ -828,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1087,7 +1102,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1168,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1192,10 +1207,10 @@
         <v>8</v>
       </c>
       <c r="AY2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="BA2">
         <v>2</v>
@@ -1398,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BA3">
         <v>9</v>
@@ -1499,7 +1514,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1604,10 +1619,10 @@
         <v>7</v>
       </c>
       <c r="AY4">
+        <v>23</v>
+      </c>
+      <c r="AZ4">
         <v>18</v>
-      </c>
-      <c r="AZ4">
-        <v>14</v>
       </c>
       <c r="BA4">
         <v>8</v>
@@ -1705,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1810,10 +1825,10 @@
         <v>5</v>
       </c>
       <c r="AY5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA5">
         <v>6</v>
@@ -1911,7 +1926,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2016,10 +2031,10 @@
         <v>4</v>
       </c>
       <c r="AY6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA6">
         <v>4</v>
@@ -2117,7 +2132,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2195,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ7">
         <v>0.67</v>
@@ -2222,10 +2237,10 @@
         <v>6</v>
       </c>
       <c r="AY7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA7">
         <v>8</v>
@@ -2428,10 +2443,10 @@
         <v>4</v>
       </c>
       <c r="AY8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA8">
         <v>7</v>
@@ -2529,7 +2544,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2634,10 +2649,10 @@
         <v>2</v>
       </c>
       <c r="AY9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ9">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA9">
         <v>1</v>
@@ -2735,7 +2750,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2816,7 +2831,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2840,10 +2855,10 @@
         <v>2</v>
       </c>
       <c r="AY10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA10">
         <v>4</v>
@@ -3046,10 +3061,10 @@
         <v>4</v>
       </c>
       <c r="AY11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA11">
         <v>5</v>
@@ -3147,7 +3162,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3252,10 +3267,10 @@
         <v>1</v>
       </c>
       <c r="AY12">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA12">
         <v>11</v>
@@ -3353,7 +3368,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q13">
         <v>2.3</v>
@@ -3458,10 +3473,10 @@
         <v>4</v>
       </c>
       <c r="AY13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA13">
         <v>1</v>
@@ -3664,10 +3679,10 @@
         <v>3</v>
       </c>
       <c r="AY14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AZ14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA14">
         <v>5</v>
@@ -3765,7 +3780,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3870,10 +3885,10 @@
         <v>5</v>
       </c>
       <c r="AY15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ15">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA15">
         <v>3</v>
@@ -3971,7 +3986,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4076,10 +4091,10 @@
         <v>4</v>
       </c>
       <c r="AY16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA16">
         <v>1</v>
@@ -4177,7 +4192,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4282,10 +4297,10 @@
         <v>3</v>
       </c>
       <c r="AY17">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AZ17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA17">
         <v>18</v>
@@ -4488,10 +4503,10 @@
         <v>11</v>
       </c>
       <c r="AY18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ18">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA18">
         <v>5</v>
@@ -4667,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -4694,10 +4709,10 @@
         <v>4</v>
       </c>
       <c r="AY19">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA19">
         <v>2</v>
@@ -4795,7 +4810,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4876,7 +4891,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR20">
         <v>1.89</v>
@@ -4900,10 +4915,10 @@
         <v>2</v>
       </c>
       <c r="AY20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ20">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA20">
         <v>8</v>
@@ -5001,7 +5016,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5082,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR21">
         <v>2.26</v>
@@ -5106,10 +5121,10 @@
         <v>6</v>
       </c>
       <c r="AY21">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ21">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA21">
         <v>4</v>
@@ -5207,7 +5222,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>2.25</v>
@@ -5312,10 +5327,10 @@
         <v>6</v>
       </c>
       <c r="AY22">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AZ22">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA22">
         <v>5</v>
@@ -5413,7 +5428,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5518,10 +5533,10 @@
         <v>4</v>
       </c>
       <c r="AY23">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ23">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA23">
         <v>5</v>
@@ -5619,7 +5634,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5724,10 +5739,10 @@
         <v>2</v>
       </c>
       <c r="AY24">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ24">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA24">
         <v>6</v>
@@ -5930,10 +5945,10 @@
         <v>4</v>
       </c>
       <c r="AY25">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ25">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA25">
         <v>6</v>
@@ -6031,7 +6046,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6136,10 +6151,10 @@
         <v>6</v>
       </c>
       <c r="AY26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ26">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BA26">
         <v>2</v>
@@ -6237,7 +6252,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6342,10 +6357,10 @@
         <v>4</v>
       </c>
       <c r="AY27">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ27">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA27">
         <v>7</v>
@@ -6443,7 +6458,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6521,7 +6536,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ28">
         <v>2.33</v>
@@ -6548,10 +6563,10 @@
         <v>6</v>
       </c>
       <c r="AY28">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ28">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA28">
         <v>10</v>
@@ -6649,7 +6664,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6754,7 +6769,7 @@
         <v>2</v>
       </c>
       <c r="AY29">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AZ29">
         <v>6</v>
@@ -6855,7 +6870,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>2.5</v>
@@ -6960,10 +6975,10 @@
         <v>8</v>
       </c>
       <c r="AY30">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ30">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA30">
         <v>2</v>
@@ -7061,7 +7076,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q31">
         <v>2.63</v>
@@ -7166,10 +7181,10 @@
         <v>2</v>
       </c>
       <c r="AY31">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA31">
         <v>5</v>
@@ -7267,7 +7282,7 @@
         <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>3.25</v>
@@ -7372,10 +7387,10 @@
         <v>6</v>
       </c>
       <c r="AY32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ32">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA32">
         <v>3</v>
@@ -7473,7 +7488,7 @@
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -7581,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="AZ33">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="BA33">
         <v>1</v>
@@ -7784,10 +7799,10 @@
         <v>6</v>
       </c>
       <c r="AY34">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ34">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="BA34">
         <v>8</v>
@@ -7885,7 +7900,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -7978,22 +7993,22 @@
         <v>4.04</v>
       </c>
       <c r="AU35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW35">
+        <v>7</v>
+      </c>
+      <c r="AX35">
         <v>5</v>
       </c>
-      <c r="AX35">
-        <v>3</v>
-      </c>
       <c r="AY35">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AZ35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA35">
         <v>6</v>
@@ -8091,7 +8106,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8184,22 +8199,22 @@
         <v>3.7</v>
       </c>
       <c r="AU36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY36">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA36">
         <v>6</v>
@@ -8390,22 +8405,22 @@
         <v>2.33</v>
       </c>
       <c r="AU37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV37">
         <v>6</v>
       </c>
       <c r="AW37">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX37">
         <v>4</v>
       </c>
       <c r="AY37">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ37">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA37">
         <v>3</v>
@@ -8461,7 +8476,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7491857</v>
+        <v>7491852</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -8470,94 +8485,94 @@
         <v>69</v>
       </c>
       <c r="E38" s="2">
-        <v>45563.4375</v>
+        <v>45562.64583333334</v>
       </c>
       <c r="F38">
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O38" t="s">
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="Q38">
-        <v>2.75</v>
+        <v>1.62</v>
       </c>
       <c r="R38">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="S38">
+        <v>7.5</v>
+      </c>
+      <c r="T38">
+        <v>1.18</v>
+      </c>
+      <c r="U38">
+        <v>4.5</v>
+      </c>
+      <c r="V38">
+        <v>1.83</v>
+      </c>
+      <c r="W38">
+        <v>1.83</v>
+      </c>
+      <c r="X38">
         <v>3.75</v>
       </c>
-      <c r="T38">
-        <v>1.36</v>
-      </c>
-      <c r="U38">
-        <v>3</v>
-      </c>
-      <c r="V38">
-        <v>2.63</v>
-      </c>
-      <c r="W38">
-        <v>1.44</v>
-      </c>
-      <c r="X38">
-        <v>7</v>
-      </c>
       <c r="Y38">
+        <v>1.25</v>
+      </c>
+      <c r="Z38">
+        <v>1.35</v>
+      </c>
+      <c r="AA38">
+        <v>6.06</v>
+      </c>
+      <c r="AB38">
+        <v>9</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>32.5</v>
+      </c>
+      <c r="AE38">
         <v>1.1</v>
       </c>
-      <c r="Z38">
-        <v>2.19</v>
-      </c>
-      <c r="AA38">
-        <v>3.48</v>
-      </c>
-      <c r="AB38">
-        <v>2.98</v>
-      </c>
-      <c r="AC38">
-        <v>1.04</v>
-      </c>
-      <c r="AD38">
-        <v>10.5</v>
-      </c>
-      <c r="AE38">
-        <v>1.21</v>
-      </c>
       <c r="AF38">
-        <v>3.6</v>
+        <v>6.95</v>
       </c>
       <c r="AG38">
-        <v>1.55</v>
+        <v>1.31</v>
       </c>
       <c r="AH38">
-        <v>2.3</v>
+        <v>3.27</v>
       </c>
       <c r="AI38">
         <v>1.67</v>
@@ -8566,100 +8581,100 @@
         <v>2.1</v>
       </c>
       <c r="AK38">
-        <v>1.34</v>
+        <v>1.08</v>
       </c>
       <c r="AL38">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="AM38">
-        <v>1.76</v>
+        <v>3.8</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ38">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AR38">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="AS38">
-        <v>1.26</v>
+        <v>1.03</v>
       </c>
       <c r="AT38">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="AU38">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW38">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX38">
         <v>3</v>
       </c>
       <c r="AY38">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AZ38">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA38">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BB38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC38">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD38">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="BE38">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="BF38">
-        <v>2.43</v>
+        <v>4.3</v>
       </c>
       <c r="BG38">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="BH38">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="BI38">
+        <v>1.37</v>
+      </c>
+      <c r="BJ38">
+        <v>2.8</v>
+      </c>
+      <c r="BK38">
+        <v>1.61</v>
+      </c>
+      <c r="BL38">
+        <v>2.14</v>
+      </c>
+      <c r="BM38">
+        <v>2</v>
+      </c>
+      <c r="BN38">
+        <v>1.8</v>
+      </c>
+      <c r="BO38">
+        <v>2.48</v>
+      </c>
+      <c r="BP38">
         <v>1.47</v>
-      </c>
-      <c r="BJ38">
-        <v>2.48</v>
-      </c>
-      <c r="BK38">
-        <v>1.74</v>
-      </c>
-      <c r="BL38">
-        <v>1.95</v>
-      </c>
-      <c r="BM38">
-        <v>2.17</v>
-      </c>
-      <c r="BN38">
-        <v>1.58</v>
-      </c>
-      <c r="BO38">
-        <v>2.8</v>
-      </c>
-      <c r="BP38">
-        <v>1.37</v>
       </c>
     </row>
     <row r="39" spans="1:68">
@@ -8667,7 +8682,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7491855</v>
+        <v>7491856</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8682,82 +8697,82 @@
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>2</v>
       </c>
       <c r="N39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O39" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="P39" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q39">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="R39">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S39">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="T39">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U39">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V39">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="W39">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="X39">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y39">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Z39">
-        <v>3.27</v>
+        <v>1.65</v>
       </c>
       <c r="AA39">
-        <v>3.82</v>
+        <v>4</v>
       </c>
       <c r="AB39">
-        <v>1.96</v>
+        <v>4.5</v>
       </c>
       <c r="AC39">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD39">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE39">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AF39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG39">
         <v>1.58</v>
@@ -8766,22 +8781,22 @@
         <v>2.23</v>
       </c>
       <c r="AI39">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AJ39">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AK39">
-        <v>1.78</v>
+        <v>1.22</v>
       </c>
       <c r="AL39">
         <v>1.22</v>
       </c>
       <c r="AM39">
-        <v>1.35</v>
+        <v>2.1</v>
       </c>
       <c r="AN39">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO39">
         <v>1.5</v>
@@ -8790,82 +8805,82 @@
         <v>0.33</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AR39">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AS39">
+        <v>0.96</v>
+      </c>
+      <c r="AT39">
+        <v>2.44</v>
+      </c>
+      <c r="AU39">
+        <v>3</v>
+      </c>
+      <c r="AV39">
+        <v>7</v>
+      </c>
+      <c r="AW39">
+        <v>3</v>
+      </c>
+      <c r="AX39">
+        <v>6</v>
+      </c>
+      <c r="AY39">
+        <v>9</v>
+      </c>
+      <c r="AZ39">
+        <v>15</v>
+      </c>
+      <c r="BA39">
+        <v>7</v>
+      </c>
+      <c r="BB39">
+        <v>6</v>
+      </c>
+      <c r="BC39">
+        <v>13</v>
+      </c>
+      <c r="BD39">
+        <v>1.45</v>
+      </c>
+      <c r="BE39">
+        <v>7</v>
+      </c>
+      <c r="BF39">
+        <v>3.05</v>
+      </c>
+      <c r="BG39">
         <v>1.25</v>
       </c>
-      <c r="AT39">
-        <v>2.53</v>
-      </c>
-      <c r="AU39">
-        <v>0</v>
-      </c>
-      <c r="AV39">
-        <v>3</v>
-      </c>
-      <c r="AW39">
-        <v>3</v>
-      </c>
-      <c r="AX39">
-        <v>5</v>
-      </c>
-      <c r="AY39">
-        <v>3</v>
-      </c>
-      <c r="AZ39">
-        <v>8</v>
-      </c>
-      <c r="BA39">
-        <v>1</v>
-      </c>
-      <c r="BB39">
-        <v>3</v>
-      </c>
-      <c r="BC39">
-        <v>4</v>
-      </c>
-      <c r="BD39">
-        <v>2.1</v>
-      </c>
-      <c r="BE39">
-        <v>6.4</v>
-      </c>
-      <c r="BF39">
-        <v>1.9</v>
-      </c>
-      <c r="BG39">
-        <v>1.3</v>
-      </c>
       <c r="BH39">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="BI39">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="BJ39">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="BK39">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="BL39">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="BM39">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="BN39">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="BO39">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="BP39">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -8873,7 +8888,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7491851</v>
+        <v>7491857</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -8888,190 +8903,190 @@
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H40" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P40" t="s">
         <v>96</v>
       </c>
       <c r="Q40">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
       <c r="R40">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="S40">
+        <v>3.75</v>
+      </c>
+      <c r="T40">
+        <v>1.36</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+      <c r="V40">
+        <v>2.63</v>
+      </c>
+      <c r="W40">
+        <v>1.44</v>
+      </c>
+      <c r="X40">
+        <v>7</v>
+      </c>
+      <c r="Y40">
+        <v>1.1</v>
+      </c>
+      <c r="Z40">
+        <v>2.19</v>
+      </c>
+      <c r="AA40">
+        <v>3.48</v>
+      </c>
+      <c r="AB40">
+        <v>2.98</v>
+      </c>
+      <c r="AC40">
+        <v>1.04</v>
+      </c>
+      <c r="AD40">
+        <v>10.5</v>
+      </c>
+      <c r="AE40">
+        <v>1.21</v>
+      </c>
+      <c r="AF40">
+        <v>3.6</v>
+      </c>
+      <c r="AG40">
+        <v>1.55</v>
+      </c>
+      <c r="AH40">
+        <v>2.3</v>
+      </c>
+      <c r="AI40">
+        <v>1.67</v>
+      </c>
+      <c r="AJ40">
+        <v>2.1</v>
+      </c>
+      <c r="AK40">
+        <v>1.34</v>
+      </c>
+      <c r="AL40">
+        <v>1.3</v>
+      </c>
+      <c r="AM40">
+        <v>1.76</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>1</v>
+      </c>
+      <c r="AP40">
+        <v>1</v>
+      </c>
+      <c r="AQ40">
+        <v>0.67</v>
+      </c>
+      <c r="AR40">
+        <v>1.56</v>
+      </c>
+      <c r="AS40">
+        <v>1.26</v>
+      </c>
+      <c r="AT40">
+        <v>2.82</v>
+      </c>
+      <c r="AU40">
+        <v>3</v>
+      </c>
+      <c r="AV40">
+        <v>3</v>
+      </c>
+      <c r="AW40">
+        <v>3</v>
+      </c>
+      <c r="AX40">
         <v>6</v>
       </c>
-      <c r="T40">
-        <v>1.22</v>
-      </c>
-      <c r="U40">
-        <v>4</v>
-      </c>
-      <c r="V40">
-        <v>2.1</v>
-      </c>
-      <c r="W40">
-        <v>1.67</v>
-      </c>
-      <c r="X40">
-        <v>4.5</v>
-      </c>
-      <c r="Y40">
-        <v>1.18</v>
-      </c>
-      <c r="Z40">
-        <v>1.4</v>
-      </c>
-      <c r="AA40">
-        <v>4.5</v>
-      </c>
-      <c r="AB40">
-        <v>7</v>
-      </c>
-      <c r="AC40">
-        <v>1.01</v>
-      </c>
-      <c r="AD40">
-        <v>26</v>
-      </c>
-      <c r="AE40">
-        <v>1.08</v>
-      </c>
-      <c r="AF40">
-        <v>5.3</v>
-      </c>
-      <c r="AG40">
-        <v>1.41</v>
-      </c>
-      <c r="AH40">
-        <v>2.78</v>
-      </c>
-      <c r="AI40">
-        <v>1.62</v>
-      </c>
-      <c r="AJ40">
-        <v>2.2</v>
-      </c>
-      <c r="AK40">
-        <v>1.1</v>
-      </c>
-      <c r="AL40">
-        <v>1.12</v>
-      </c>
-      <c r="AM40">
-        <v>2.95</v>
-      </c>
-      <c r="AN40">
-        <v>2</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>2.33</v>
-      </c>
-      <c r="AQ40">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>1.14</v>
-      </c>
-      <c r="AS40">
-        <v>1.49</v>
-      </c>
-      <c r="AT40">
-        <v>2.63</v>
-      </c>
-      <c r="AU40">
-        <v>3</v>
-      </c>
-      <c r="AV40">
-        <v>0</v>
-      </c>
-      <c r="AW40">
-        <v>4</v>
-      </c>
-      <c r="AX40">
-        <v>3</v>
-      </c>
       <c r="AY40">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ40">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BA40">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BB40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC40">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD40">
+        <v>1.68</v>
+      </c>
+      <c r="BE40">
+        <v>6.5</v>
+      </c>
+      <c r="BF40">
+        <v>2.43</v>
+      </c>
+      <c r="BG40">
         <v>1.26</v>
       </c>
-      <c r="BE40">
-        <v>8</v>
-      </c>
-      <c r="BF40">
-        <v>4.1</v>
-      </c>
-      <c r="BG40">
-        <v>1.2</v>
-      </c>
       <c r="BH40">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="BI40">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="BJ40">
+        <v>2.48</v>
+      </c>
+      <c r="BK40">
+        <v>1.74</v>
+      </c>
+      <c r="BL40">
+        <v>1.95</v>
+      </c>
+      <c r="BM40">
+        <v>2.17</v>
+      </c>
+      <c r="BN40">
+        <v>1.58</v>
+      </c>
+      <c r="BO40">
         <v>2.8</v>
       </c>
-      <c r="BK40">
-        <v>1.58</v>
-      </c>
-      <c r="BL40">
-        <v>2.18</v>
-      </c>
-      <c r="BM40">
-        <v>1.94</v>
-      </c>
-      <c r="BN40">
-        <v>1.76</v>
-      </c>
-      <c r="BO40">
-        <v>2.4</v>
-      </c>
       <c r="BP40">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9079,7 +9094,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7491854</v>
+        <v>7491855</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9094,82 +9109,82 @@
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>2</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O41" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q41">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="R41">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S41">
+        <v>2.6</v>
+      </c>
+      <c r="T41">
+        <v>1.29</v>
+      </c>
+      <c r="U41">
+        <v>3.5</v>
+      </c>
+      <c r="V41">
+        <v>2.25</v>
+      </c>
+      <c r="W41">
+        <v>1.57</v>
+      </c>
+      <c r="X41">
         <v>5.5</v>
       </c>
-      <c r="T41">
-        <v>1.36</v>
-      </c>
-      <c r="U41">
-        <v>3</v>
-      </c>
-      <c r="V41">
-        <v>2.63</v>
-      </c>
-      <c r="W41">
-        <v>1.44</v>
-      </c>
-      <c r="X41">
-        <v>7</v>
-      </c>
       <c r="Y41">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="Z41">
-        <v>1.83</v>
+        <v>3.27</v>
       </c>
       <c r="AA41">
-        <v>3.75</v>
+        <v>3.82</v>
       </c>
       <c r="AB41">
-        <v>3.75</v>
+        <v>1.96</v>
       </c>
       <c r="AC41">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD41">
-        <v>9.4</v>
+        <v>19</v>
       </c>
       <c r="AE41">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AF41">
-        <v>3.52</v>
+        <v>5</v>
       </c>
       <c r="AG41">
         <v>1.58</v>
@@ -9178,106 +9193,106 @@
         <v>2.23</v>
       </c>
       <c r="AI41">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AJ41">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="AK41">
-        <v>1.2</v>
+        <v>1.78</v>
       </c>
       <c r="AL41">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AM41">
-        <v>2.15</v>
+        <v>1.35</v>
       </c>
       <c r="AN41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO41">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ41">
+        <v>1.33</v>
+      </c>
+      <c r="AR41">
+        <v>1.28</v>
+      </c>
+      <c r="AS41">
+        <v>1.25</v>
+      </c>
+      <c r="AT41">
+        <v>2.53</v>
+      </c>
+      <c r="AU41">
+        <v>3</v>
+      </c>
+      <c r="AV41">
+        <v>5</v>
+      </c>
+      <c r="AW41">
+        <v>2</v>
+      </c>
+      <c r="AX41">
+        <v>6</v>
+      </c>
+      <c r="AY41">
+        <v>6</v>
+      </c>
+      <c r="AZ41">
+        <v>19</v>
+      </c>
+      <c r="BA41">
         <v>1</v>
       </c>
-      <c r="AR41">
-        <v>1.82</v>
-      </c>
-      <c r="AS41">
-        <v>0.97</v>
-      </c>
-      <c r="AT41">
-        <v>2.79</v>
-      </c>
-      <c r="AU41">
-        <v>4</v>
-      </c>
-      <c r="AV41">
-        <v>3</v>
-      </c>
-      <c r="AW41">
-        <v>3</v>
-      </c>
-      <c r="AX41">
-        <v>1</v>
-      </c>
-      <c r="AY41">
-        <v>7</v>
-      </c>
-      <c r="AZ41">
-        <v>4</v>
-      </c>
-      <c r="BA41">
-        <v>4</v>
-      </c>
       <c r="BB41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD41">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="BE41">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF41">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="BG41">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BH41">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="BI41">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BJ41">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="BK41">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="BL41">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="BM41">
-        <v>2.23</v>
+        <v>2.32</v>
       </c>
       <c r="BN41">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="BO41">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="BP41">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9285,7 +9300,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7491858</v>
+        <v>7491851</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9294,196 +9309,196 @@
         <v>69</v>
       </c>
       <c r="E42" s="2">
-        <v>45564.4375</v>
+        <v>45563.4375</v>
       </c>
       <c r="F42">
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H42" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>2</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O42" t="s">
         <v>119</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="Q42">
+        <v>1.83</v>
+      </c>
+      <c r="R42">
+        <v>2.75</v>
+      </c>
+      <c r="S42">
+        <v>6</v>
+      </c>
+      <c r="T42">
+        <v>1.22</v>
+      </c>
+      <c r="U42">
+        <v>4</v>
+      </c>
+      <c r="V42">
+        <v>2.1</v>
+      </c>
+      <c r="W42">
+        <v>1.67</v>
+      </c>
+      <c r="X42">
         <v>4.5</v>
       </c>
-      <c r="R42">
-        <v>2.5</v>
-      </c>
-      <c r="S42">
+      <c r="Y42">
+        <v>1.18</v>
+      </c>
+      <c r="Z42">
+        <v>1.4</v>
+      </c>
+      <c r="AA42">
+        <v>4.5</v>
+      </c>
+      <c r="AB42">
+        <v>7</v>
+      </c>
+      <c r="AC42">
+        <v>1.01</v>
+      </c>
+      <c r="AD42">
+        <v>26</v>
+      </c>
+      <c r="AE42">
+        <v>1.08</v>
+      </c>
+      <c r="AF42">
+        <v>5.3</v>
+      </c>
+      <c r="AG42">
+        <v>1.41</v>
+      </c>
+      <c r="AH42">
+        <v>2.78</v>
+      </c>
+      <c r="AI42">
+        <v>1.62</v>
+      </c>
+      <c r="AJ42">
         <v>2.2</v>
       </c>
-      <c r="T42">
-        <v>1.25</v>
-      </c>
-      <c r="U42">
-        <v>3.75</v>
-      </c>
-      <c r="V42">
-        <v>2.2</v>
-      </c>
-      <c r="W42">
-        <v>1.62</v>
-      </c>
-      <c r="X42">
+      <c r="AK42">
+        <v>1.1</v>
+      </c>
+      <c r="AL42">
+        <v>1.12</v>
+      </c>
+      <c r="AM42">
+        <v>2.95</v>
+      </c>
+      <c r="AN42">
+        <v>2</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>2.33</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>1.14</v>
+      </c>
+      <c r="AS42">
+        <v>1.49</v>
+      </c>
+      <c r="AT42">
+        <v>2.63</v>
+      </c>
+      <c r="AU42">
+        <v>8</v>
+      </c>
+      <c r="AV42">
+        <v>2</v>
+      </c>
+      <c r="AW42">
         <v>5</v>
       </c>
-      <c r="Y42">
-        <v>1.17</v>
-      </c>
-      <c r="Z42">
-        <v>4</v>
-      </c>
-      <c r="AA42">
-        <v>4.2</v>
-      </c>
-      <c r="AB42">
-        <v>1.75</v>
-      </c>
-      <c r="AC42">
-        <v>1.02</v>
-      </c>
-      <c r="AD42">
-        <v>21</v>
-      </c>
-      <c r="AE42">
-        <v>1.1</v>
-      </c>
-      <c r="AF42">
-        <v>4.85</v>
-      </c>
-      <c r="AG42">
-        <v>1.5</v>
-      </c>
-      <c r="AH42">
-        <v>2.55</v>
-      </c>
-      <c r="AI42">
-        <v>1.53</v>
-      </c>
-      <c r="AJ42">
-        <v>2.38</v>
-      </c>
-      <c r="AK42">
-        <v>2.2</v>
-      </c>
-      <c r="AL42">
-        <v>1.18</v>
-      </c>
-      <c r="AM42">
-        <v>1.18</v>
-      </c>
-      <c r="AN42">
-        <v>0</v>
-      </c>
-      <c r="AO42">
-        <v>1.5</v>
-      </c>
-      <c r="AP42">
-        <v>0</v>
-      </c>
-      <c r="AQ42">
-        <v>2</v>
-      </c>
-      <c r="AR42">
-        <v>1</v>
-      </c>
-      <c r="AS42">
-        <v>1.28</v>
-      </c>
-      <c r="AT42">
-        <v>2.28</v>
-      </c>
-      <c r="AU42">
-        <v>4</v>
-      </c>
-      <c r="AV42">
+      <c r="AX42">
+        <v>3</v>
+      </c>
+      <c r="AY42">
+        <v>19</v>
+      </c>
+      <c r="AZ42">
         <v>8</v>
       </c>
-      <c r="AW42">
-        <v>1</v>
-      </c>
-      <c r="AX42">
+      <c r="BA42">
+        <v>8</v>
+      </c>
+      <c r="BB42">
         <v>5</v>
-      </c>
-      <c r="AY42">
-        <v>5</v>
-      </c>
-      <c r="AZ42">
-        <v>13</v>
-      </c>
-      <c r="BA42">
-        <v>4</v>
-      </c>
-      <c r="BB42">
-        <v>9</v>
       </c>
       <c r="BC42">
         <v>13</v>
       </c>
       <c r="BD42">
-        <v>2.7</v>
+        <v>1.26</v>
       </c>
       <c r="BE42">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="BF42">
-        <v>1.54</v>
+        <v>4.1</v>
       </c>
       <c r="BG42">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="BH42">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="BI42">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="BJ42">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BK42">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="BL42">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="BM42">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="BN42">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="BO42">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="BP42">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9491,7 +9506,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7491853</v>
+        <v>7491854</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9500,195 +9515,813 @@
         <v>69</v>
       </c>
       <c r="E43" s="2">
-        <v>45564.52083333334</v>
+        <v>45563.4375</v>
       </c>
       <c r="F43">
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>96</v>
+      </c>
+      <c r="P43" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q43">
+        <v>2.2</v>
+      </c>
+      <c r="R43">
+        <v>2.3</v>
+      </c>
+      <c r="S43">
+        <v>5.5</v>
+      </c>
+      <c r="T43">
+        <v>1.36</v>
+      </c>
+      <c r="U43">
+        <v>3</v>
+      </c>
+      <c r="V43">
+        <v>2.63</v>
+      </c>
+      <c r="W43">
+        <v>1.44</v>
+      </c>
+      <c r="X43">
         <v>7</v>
       </c>
-      <c r="O43" t="s">
-        <v>120</v>
-      </c>
-      <c r="P43" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q43">
-        <v>2.75</v>
-      </c>
-      <c r="R43">
-        <v>2.5</v>
-      </c>
-      <c r="S43">
-        <v>3.1</v>
-      </c>
-      <c r="T43">
-        <v>1.25</v>
-      </c>
-      <c r="U43">
+      <c r="Y43">
+        <v>1.1</v>
+      </c>
+      <c r="Z43">
+        <v>1.83</v>
+      </c>
+      <c r="AA43">
         <v>3.75</v>
       </c>
-      <c r="V43">
-        <v>2.1</v>
-      </c>
-      <c r="W43">
-        <v>1.67</v>
-      </c>
-      <c r="X43">
-        <v>4.5</v>
-      </c>
-      <c r="Y43">
-        <v>1.18</v>
-      </c>
-      <c r="Z43">
-        <v>2.06</v>
-      </c>
-      <c r="AA43">
-        <v>3.85</v>
-      </c>
       <c r="AB43">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="AC43">
         <v>1.01</v>
       </c>
       <c r="AD43">
-        <v>21</v>
+        <v>9.4</v>
       </c>
       <c r="AE43">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="AF43">
-        <v>5.25</v>
+        <v>3.52</v>
       </c>
       <c r="AG43">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="AH43">
-        <v>2.9</v>
+        <v>2.23</v>
       </c>
       <c r="AI43">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AJ43">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="AK43">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="AL43">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AM43">
-        <v>1.67</v>
+        <v>2.15</v>
       </c>
       <c r="AN43">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP43">
+        <v>2</v>
+      </c>
+      <c r="AQ43">
         <v>1</v>
-      </c>
-      <c r="AQ43">
-        <v>2.33</v>
       </c>
       <c r="AR43">
         <v>1.82</v>
       </c>
       <c r="AS43">
-        <v>1.36</v>
+        <v>0.97</v>
       </c>
       <c r="AT43">
-        <v>3.18</v>
+        <v>2.79</v>
       </c>
       <c r="AU43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AW43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY43">
+        <v>11</v>
+      </c>
+      <c r="AZ43">
+        <v>11</v>
+      </c>
+      <c r="BA43">
+        <v>4</v>
+      </c>
+      <c r="BB43">
+        <v>2</v>
+      </c>
+      <c r="BC43">
         <v>6</v>
       </c>
-      <c r="AZ43">
-        <v>9</v>
-      </c>
-      <c r="BA43">
-        <v>2</v>
-      </c>
-      <c r="BB43">
-        <v>6</v>
-      </c>
-      <c r="BC43">
-        <v>8</v>
-      </c>
       <c r="BD43">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="BE43">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF43">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="BG43">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="BH43">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BI43">
         <v>1.47</v>
       </c>
       <c r="BJ43">
+        <v>2.4</v>
+      </c>
+      <c r="BK43">
+        <v>2</v>
+      </c>
+      <c r="BL43">
+        <v>1.8</v>
+      </c>
+      <c r="BM43">
+        <v>2.23</v>
+      </c>
+      <c r="BN43">
+        <v>1.58</v>
+      </c>
+      <c r="BO43">
+        <v>2.8</v>
+      </c>
+      <c r="BP43">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7491850</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45563.5625</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" t="s">
+        <v>85</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>120</v>
+      </c>
+      <c r="P44" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q44">
+        <v>2.2</v>
+      </c>
+      <c r="R44">
+        <v>2.63</v>
+      </c>
+      <c r="S44">
+        <v>4</v>
+      </c>
+      <c r="T44">
+        <v>1.2</v>
+      </c>
+      <c r="U44">
+        <v>4.33</v>
+      </c>
+      <c r="V44">
+        <v>1.91</v>
+      </c>
+      <c r="W44">
+        <v>1.8</v>
+      </c>
+      <c r="X44">
+        <v>4</v>
+      </c>
+      <c r="Y44">
+        <v>1.22</v>
+      </c>
+      <c r="Z44">
+        <v>1.73</v>
+      </c>
+      <c r="AA44">
+        <v>4.4</v>
+      </c>
+      <c r="AB44">
+        <v>3.8</v>
+      </c>
+      <c r="AC44">
+        <v>1.01</v>
+      </c>
+      <c r="AD44">
+        <v>29</v>
+      </c>
+      <c r="AE44">
+        <v>1.05</v>
+      </c>
+      <c r="AF44">
+        <v>6.1</v>
+      </c>
+      <c r="AG44">
+        <v>1.31</v>
+      </c>
+      <c r="AH44">
+        <v>3.27</v>
+      </c>
+      <c r="AI44">
+        <v>1.4</v>
+      </c>
+      <c r="AJ44">
+        <v>2.75</v>
+      </c>
+      <c r="AK44">
+        <v>1.22</v>
+      </c>
+      <c r="AL44">
+        <v>1.17</v>
+      </c>
+      <c r="AM44">
+        <v>2.1</v>
+      </c>
+      <c r="AN44">
+        <v>3</v>
+      </c>
+      <c r="AO44">
+        <v>3</v>
+      </c>
+      <c r="AP44">
+        <v>2</v>
+      </c>
+      <c r="AQ44">
+        <v>2.33</v>
+      </c>
+      <c r="AR44">
+        <v>1.17</v>
+      </c>
+      <c r="AS44">
+        <v>2.29</v>
+      </c>
+      <c r="AT44">
+        <v>3.46</v>
+      </c>
+      <c r="AU44">
+        <v>4</v>
+      </c>
+      <c r="AV44">
+        <v>3</v>
+      </c>
+      <c r="AW44">
+        <v>11</v>
+      </c>
+      <c r="AX44">
+        <v>1</v>
+      </c>
+      <c r="AY44">
+        <v>19</v>
+      </c>
+      <c r="AZ44">
+        <v>4</v>
+      </c>
+      <c r="BA44">
+        <v>6</v>
+      </c>
+      <c r="BB44">
+        <v>1</v>
+      </c>
+      <c r="BC44">
+        <v>7</v>
+      </c>
+      <c r="BD44">
+        <v>1.57</v>
+      </c>
+      <c r="BE44">
+        <v>6.5</v>
+      </c>
+      <c r="BF44">
+        <v>2.65</v>
+      </c>
+      <c r="BG44">
+        <v>1.26</v>
+      </c>
+      <c r="BH44">
+        <v>3.4</v>
+      </c>
+      <c r="BI44">
+        <v>1.48</v>
+      </c>
+      <c r="BJ44">
+        <v>2.45</v>
+      </c>
+      <c r="BK44">
+        <v>1.9</v>
+      </c>
+      <c r="BL44">
+        <v>1.9</v>
+      </c>
+      <c r="BM44">
+        <v>2.23</v>
+      </c>
+      <c r="BN44">
+        <v>1.57</v>
+      </c>
+      <c r="BO44">
+        <v>2.8</v>
+      </c>
+      <c r="BP44">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7491858</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45564.4375</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>4</v>
+      </c>
+      <c r="N45">
+        <v>6</v>
+      </c>
+      <c r="O45" t="s">
+        <v>121</v>
+      </c>
+      <c r="P45" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q45">
+        <v>4.5</v>
+      </c>
+      <c r="R45">
+        <v>2.5</v>
+      </c>
+      <c r="S45">
+        <v>2.2</v>
+      </c>
+      <c r="T45">
+        <v>1.25</v>
+      </c>
+      <c r="U45">
+        <v>3.75</v>
+      </c>
+      <c r="V45">
+        <v>2.2</v>
+      </c>
+      <c r="W45">
+        <v>1.62</v>
+      </c>
+      <c r="X45">
+        <v>5</v>
+      </c>
+      <c r="Y45">
+        <v>1.17</v>
+      </c>
+      <c r="Z45">
+        <v>4</v>
+      </c>
+      <c r="AA45">
+        <v>4.2</v>
+      </c>
+      <c r="AB45">
+        <v>1.75</v>
+      </c>
+      <c r="AC45">
+        <v>1.02</v>
+      </c>
+      <c r="AD45">
+        <v>21</v>
+      </c>
+      <c r="AE45">
+        <v>1.1</v>
+      </c>
+      <c r="AF45">
+        <v>4.85</v>
+      </c>
+      <c r="AG45">
+        <v>1.5</v>
+      </c>
+      <c r="AH45">
+        <v>2.55</v>
+      </c>
+      <c r="AI45">
+        <v>1.53</v>
+      </c>
+      <c r="AJ45">
+        <v>2.38</v>
+      </c>
+      <c r="AK45">
+        <v>2.2</v>
+      </c>
+      <c r="AL45">
+        <v>1.18</v>
+      </c>
+      <c r="AM45">
+        <v>1.18</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>1.5</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <v>2</v>
+      </c>
+      <c r="AR45">
+        <v>1</v>
+      </c>
+      <c r="AS45">
+        <v>1.28</v>
+      </c>
+      <c r="AT45">
+        <v>2.28</v>
+      </c>
+      <c r="AU45">
+        <v>6</v>
+      </c>
+      <c r="AV45">
+        <v>11</v>
+      </c>
+      <c r="AW45">
+        <v>2</v>
+      </c>
+      <c r="AX45">
+        <v>3</v>
+      </c>
+      <c r="AY45">
+        <v>11</v>
+      </c>
+      <c r="AZ45">
+        <v>21</v>
+      </c>
+      <c r="BA45">
+        <v>4</v>
+      </c>
+      <c r="BB45">
+        <v>9</v>
+      </c>
+      <c r="BC45">
+        <v>13</v>
+      </c>
+      <c r="BD45">
+        <v>2.7</v>
+      </c>
+      <c r="BE45">
+        <v>6.75</v>
+      </c>
+      <c r="BF45">
+        <v>1.54</v>
+      </c>
+      <c r="BG45">
+        <v>1.23</v>
+      </c>
+      <c r="BH45">
+        <v>3.55</v>
+      </c>
+      <c r="BI45">
+        <v>1.41</v>
+      </c>
+      <c r="BJ45">
+        <v>2.65</v>
+      </c>
+      <c r="BK45">
+        <v>1.67</v>
+      </c>
+      <c r="BL45">
+        <v>2.05</v>
+      </c>
+      <c r="BM45">
+        <v>2.04</v>
+      </c>
+      <c r="BN45">
+        <v>1.68</v>
+      </c>
+      <c r="BO45">
+        <v>2.55</v>
+      </c>
+      <c r="BP45">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7491853</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45564.52083333334</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>6</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <v>7</v>
+      </c>
+      <c r="O46" t="s">
+        <v>122</v>
+      </c>
+      <c r="P46" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q46">
+        <v>2.75</v>
+      </c>
+      <c r="R46">
+        <v>2.5</v>
+      </c>
+      <c r="S46">
+        <v>3.1</v>
+      </c>
+      <c r="T46">
+        <v>1.25</v>
+      </c>
+      <c r="U46">
+        <v>3.75</v>
+      </c>
+      <c r="V46">
+        <v>2.1</v>
+      </c>
+      <c r="W46">
+        <v>1.67</v>
+      </c>
+      <c r="X46">
+        <v>4.5</v>
+      </c>
+      <c r="Y46">
+        <v>1.18</v>
+      </c>
+      <c r="Z46">
+        <v>2.06</v>
+      </c>
+      <c r="AA46">
+        <v>3.85</v>
+      </c>
+      <c r="AB46">
+        <v>3.1</v>
+      </c>
+      <c r="AC46">
+        <v>1.01</v>
+      </c>
+      <c r="AD46">
+        <v>21</v>
+      </c>
+      <c r="AE46">
+        <v>1.08</v>
+      </c>
+      <c r="AF46">
+        <v>5.25</v>
+      </c>
+      <c r="AG46">
+        <v>1.4</v>
+      </c>
+      <c r="AH46">
+        <v>2.9</v>
+      </c>
+      <c r="AI46">
+        <v>1.4</v>
+      </c>
+      <c r="AJ46">
+        <v>2.75</v>
+      </c>
+      <c r="AK46">
+        <v>1.34</v>
+      </c>
+      <c r="AL46">
+        <v>1.21</v>
+      </c>
+      <c r="AM46">
+        <v>1.67</v>
+      </c>
+      <c r="AN46">
+        <v>1.5</v>
+      </c>
+      <c r="AO46">
+        <v>2</v>
+      </c>
+      <c r="AP46">
+        <v>1</v>
+      </c>
+      <c r="AQ46">
+        <v>2.33</v>
+      </c>
+      <c r="AR46">
+        <v>1.82</v>
+      </c>
+      <c r="AS46">
+        <v>1.36</v>
+      </c>
+      <c r="AT46">
+        <v>3.18</v>
+      </c>
+      <c r="AU46">
+        <v>7</v>
+      </c>
+      <c r="AV46">
+        <v>11</v>
+      </c>
+      <c r="AW46">
+        <v>4</v>
+      </c>
+      <c r="AX46">
+        <v>4</v>
+      </c>
+      <c r="AY46">
+        <v>12</v>
+      </c>
+      <c r="AZ46">
+        <v>25</v>
+      </c>
+      <c r="BA46">
+        <v>2</v>
+      </c>
+      <c r="BB46">
+        <v>6</v>
+      </c>
+      <c r="BC46">
+        <v>8</v>
+      </c>
+      <c r="BD46">
+        <v>1.72</v>
+      </c>
+      <c r="BE46">
+        <v>6.5</v>
+      </c>
+      <c r="BF46">
+        <v>2.38</v>
+      </c>
+      <c r="BG46">
+        <v>1.26</v>
+      </c>
+      <c r="BH46">
+        <v>3.4</v>
+      </c>
+      <c r="BI46">
+        <v>1.47</v>
+      </c>
+      <c r="BJ46">
         <v>2.48</v>
       </c>
-      <c r="BK43">
+      <c r="BK46">
         <v>1.75</v>
       </c>
-      <c r="BL43">
+      <c r="BL46">
         <v>1.95</v>
       </c>
-      <c r="BM43">
+      <c r="BM46">
         <v>2.17</v>
       </c>
-      <c r="BN43">
+      <c r="BN46">
         <v>1.6</v>
       </c>
-      <c r="BO43">
+      <c r="BO46">
         <v>2.75</v>
       </c>
-      <c r="BP43">
+      <c r="BP46">
         <v>1.38</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -385,6 +385,9 @@
     <t>['5', '8', '12']</t>
   </si>
   <si>
+    <t>['38', '65']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -482,6 +485,9 @@
   </si>
   <si>
     <t>['21', '26', '39', '49']</t>
+  </si>
+  <si>
+    <t>['72']</t>
   </si>
 </sst>
 </file>
@@ -843,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1102,7 +1108,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1514,7 +1520,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1720,7 +1726,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1926,7 +1932,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2004,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ6">
         <v>2.33</v>
@@ -2132,7 +2138,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2544,7 +2550,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2750,7 +2756,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3162,7 +3168,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3368,7 +3374,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>2.3</v>
@@ -3780,7 +3786,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3861,7 +3867,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3986,7 +3992,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4192,7 +4198,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4810,7 +4816,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5016,7 +5022,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5222,7 +5228,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q22">
         <v>2.25</v>
@@ -5428,7 +5434,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5634,7 +5640,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6046,7 +6052,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6252,7 +6258,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6330,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6458,7 +6464,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6664,7 +6670,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6742,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -6870,7 +6876,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>2.5</v>
@@ -7076,7 +7082,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>2.63</v>
@@ -7282,7 +7288,7 @@
         <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>3.25</v>
@@ -7488,7 +7494,7 @@
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -7775,7 +7781,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.86</v>
@@ -7900,7 +7906,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8106,7 +8112,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8518,7 +8524,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -8724,7 +8730,7 @@
         <v>96</v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q39">
         <v>2.38</v>
@@ -9136,7 +9142,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9548,7 +9554,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -9754,7 +9760,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -9960,7 +9966,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10166,7 +10172,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10322,6 +10328,212 @@
         <v>2.75</v>
       </c>
       <c r="BP46">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7491864</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45569.64583333334</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s">
+        <v>70</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>123</v>
+      </c>
+      <c r="P47" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q47">
+        <v>2.88</v>
+      </c>
+      <c r="R47">
+        <v>2.4</v>
+      </c>
+      <c r="S47">
+        <v>3.2</v>
+      </c>
+      <c r="T47">
+        <v>1.25</v>
+      </c>
+      <c r="U47">
+        <v>3.75</v>
+      </c>
+      <c r="V47">
+        <v>2.25</v>
+      </c>
+      <c r="W47">
+        <v>1.57</v>
+      </c>
+      <c r="X47">
+        <v>5.5</v>
+      </c>
+      <c r="Y47">
+        <v>1.14</v>
+      </c>
+      <c r="Z47">
+        <v>2.31</v>
+      </c>
+      <c r="AA47">
+        <v>3.5</v>
+      </c>
+      <c r="AB47">
+        <v>2.6</v>
+      </c>
+      <c r="AC47">
+        <v>1.02</v>
+      </c>
+      <c r="AD47">
+        <v>21</v>
+      </c>
+      <c r="AE47">
+        <v>1.17</v>
+      </c>
+      <c r="AF47">
+        <v>5</v>
+      </c>
+      <c r="AG47">
+        <v>1.57</v>
+      </c>
+      <c r="AH47">
+        <v>2.38</v>
+      </c>
+      <c r="AI47">
+        <v>1.44</v>
+      </c>
+      <c r="AJ47">
+        <v>2.63</v>
+      </c>
+      <c r="AK47">
+        <v>1.52</v>
+      </c>
+      <c r="AL47">
+        <v>1.22</v>
+      </c>
+      <c r="AM47">
+        <v>1.58</v>
+      </c>
+      <c r="AN47">
+        <v>1.33</v>
+      </c>
+      <c r="AO47">
+        <v>1.5</v>
+      </c>
+      <c r="AP47">
+        <v>1.75</v>
+      </c>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AR47">
+        <v>2.02</v>
+      </c>
+      <c r="AS47">
+        <v>1.75</v>
+      </c>
+      <c r="AT47">
+        <v>3.77</v>
+      </c>
+      <c r="AU47">
+        <v>6</v>
+      </c>
+      <c r="AV47">
+        <v>5</v>
+      </c>
+      <c r="AW47">
+        <v>6</v>
+      </c>
+      <c r="AX47">
+        <v>6</v>
+      </c>
+      <c r="AY47">
+        <v>16</v>
+      </c>
+      <c r="AZ47">
+        <v>12</v>
+      </c>
+      <c r="BA47">
+        <v>6</v>
+      </c>
+      <c r="BB47">
+        <v>5</v>
+      </c>
+      <c r="BC47">
+        <v>11</v>
+      </c>
+      <c r="BD47">
+        <v>1.78</v>
+      </c>
+      <c r="BE47">
+        <v>6.4</v>
+      </c>
+      <c r="BF47">
+        <v>2.23</v>
+      </c>
+      <c r="BG47">
+        <v>1.25</v>
+      </c>
+      <c r="BH47">
+        <v>3.45</v>
+      </c>
+      <c r="BI47">
+        <v>1.44</v>
+      </c>
+      <c r="BJ47">
+        <v>2.55</v>
+      </c>
+      <c r="BK47">
+        <v>1.72</v>
+      </c>
+      <c r="BL47">
+        <v>1.98</v>
+      </c>
+      <c r="BM47">
+        <v>2.15</v>
+      </c>
+      <c r="BN47">
+        <v>1.61</v>
+      </c>
+      <c r="BO47">
+        <v>2.7</v>
+      </c>
+      <c r="BP47">
         <v>1.38</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="164">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -388,6 +388,15 @@
     <t>['38', '65']</t>
   </si>
   <si>
+    <t>['4', '8']</t>
+  </si>
+  <si>
+    <t>['26', '45']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -487,7 +496,16 @@
     <t>['21', '26', '39', '49']</t>
   </si>
   <si>
-    <t>['72']</t>
+    <t>['45+5', '69']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['21', '37', '88']</t>
+  </si>
+  <si>
+    <t>['5', '16', '62']</t>
   </si>
 </sst>
 </file>
@@ -849,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP47"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1126,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1520,7 +1538,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1601,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1726,7 +1744,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1932,7 +1950,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2138,7 +2156,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2550,7 +2568,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2756,7 +2774,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2834,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -3168,7 +3186,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3249,7 +3267,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3374,7 +3392,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q13">
         <v>2.3</v>
@@ -3658,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3786,7 +3804,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3864,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -3992,7 +4010,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4073,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4198,7 +4216,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4276,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -4691,7 +4709,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4816,7 +4834,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5022,7 +5040,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5228,7 +5246,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q22">
         <v>2.25</v>
@@ -5434,7 +5452,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5640,7 +5658,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6052,7 +6070,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6258,7 +6276,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6464,7 +6482,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6670,7 +6688,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6751,7 +6769,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR29">
         <v>1.7</v>
@@ -6876,7 +6894,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>2.5</v>
@@ -6954,10 +6972,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
         <v>1.57</v>
@@ -7082,7 +7100,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q31">
         <v>2.63</v>
@@ -7288,7 +7306,7 @@
         <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q32">
         <v>3.25</v>
@@ -7369,7 +7387,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>1.69</v>
@@ -7494,7 +7512,7 @@
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -7572,7 +7590,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ33">
         <v>3</v>
@@ -7906,7 +7924,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -7984,10 +8002,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>2.58</v>
@@ -8112,7 +8130,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8193,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR36">
         <v>2.62</v>
@@ -8396,7 +8414,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -8524,7 +8542,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -8730,7 +8748,7 @@
         <v>96</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q39">
         <v>2.38</v>
@@ -9142,7 +9160,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9554,7 +9572,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -9760,7 +9778,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -9966,7 +9984,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10172,7 +10190,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10378,7 +10396,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10535,6 +10553,1036 @@
       </c>
       <c r="BP47">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7491859</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45570.4375</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48" t="s">
+        <v>84</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48" t="s">
+        <v>124</v>
+      </c>
+      <c r="P48" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q48">
+        <v>1.36</v>
+      </c>
+      <c r="R48">
+        <v>3.75</v>
+      </c>
+      <c r="S48">
+        <v>13</v>
+      </c>
+      <c r="T48">
+        <v>1.14</v>
+      </c>
+      <c r="U48">
+        <v>5.5</v>
+      </c>
+      <c r="V48">
+        <v>1.73</v>
+      </c>
+      <c r="W48">
+        <v>2</v>
+      </c>
+      <c r="X48">
+        <v>3.4</v>
+      </c>
+      <c r="Y48">
+        <v>1.3</v>
+      </c>
+      <c r="Z48">
+        <v>1.1</v>
+      </c>
+      <c r="AA48">
+        <v>10</v>
+      </c>
+      <c r="AB48">
+        <v>23</v>
+      </c>
+      <c r="AC48">
+        <v>1.01</v>
+      </c>
+      <c r="AD48">
+        <v>62</v>
+      </c>
+      <c r="AE48">
+        <v>1.06</v>
+      </c>
+      <c r="AF48">
+        <v>8.5</v>
+      </c>
+      <c r="AG48">
+        <v>1.23</v>
+      </c>
+      <c r="AH48">
+        <v>3.9</v>
+      </c>
+      <c r="AI48">
+        <v>2</v>
+      </c>
+      <c r="AJ48">
+        <v>1.75</v>
+      </c>
+      <c r="AK48">
+        <v>1.01</v>
+      </c>
+      <c r="AL48">
+        <v>1.05</v>
+      </c>
+      <c r="AM48">
+        <v>8</v>
+      </c>
+      <c r="AN48">
+        <v>1.5</v>
+      </c>
+      <c r="AO48">
+        <v>0.5</v>
+      </c>
+      <c r="AP48">
+        <v>1.33</v>
+      </c>
+      <c r="AQ48">
+        <v>0.67</v>
+      </c>
+      <c r="AR48">
+        <v>2.42</v>
+      </c>
+      <c r="AS48">
+        <v>1.54</v>
+      </c>
+      <c r="AT48">
+        <v>3.96</v>
+      </c>
+      <c r="AU48">
+        <v>8</v>
+      </c>
+      <c r="AV48">
+        <v>5</v>
+      </c>
+      <c r="AW48">
+        <v>6</v>
+      </c>
+      <c r="AX48">
+        <v>2</v>
+      </c>
+      <c r="AY48">
+        <v>24</v>
+      </c>
+      <c r="AZ48">
+        <v>9</v>
+      </c>
+      <c r="BA48">
+        <v>12</v>
+      </c>
+      <c r="BB48">
+        <v>3</v>
+      </c>
+      <c r="BC48">
+        <v>15</v>
+      </c>
+      <c r="BD48">
+        <v>1.06</v>
+      </c>
+      <c r="BE48">
+        <v>14</v>
+      </c>
+      <c r="BF48">
+        <v>9.5</v>
+      </c>
+      <c r="BG48">
+        <v>1.16</v>
+      </c>
+      <c r="BH48">
+        <v>4.4</v>
+      </c>
+      <c r="BI48">
+        <v>1.29</v>
+      </c>
+      <c r="BJ48">
+        <v>3.2</v>
+      </c>
+      <c r="BK48">
+        <v>1.48</v>
+      </c>
+      <c r="BL48">
+        <v>2.43</v>
+      </c>
+      <c r="BM48">
+        <v>1.77</v>
+      </c>
+      <c r="BN48">
+        <v>1.92</v>
+      </c>
+      <c r="BO48">
+        <v>2.17</v>
+      </c>
+      <c r="BP48">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7491863</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45570.4375</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" t="s">
+        <v>73</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>96</v>
+      </c>
+      <c r="P49" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q49">
+        <v>3.1</v>
+      </c>
+      <c r="R49">
+        <v>2.3</v>
+      </c>
+      <c r="S49">
+        <v>3.1</v>
+      </c>
+      <c r="T49">
+        <v>1.3</v>
+      </c>
+      <c r="U49">
+        <v>3.4</v>
+      </c>
+      <c r="V49">
+        <v>2.5</v>
+      </c>
+      <c r="W49">
+        <v>1.5</v>
+      </c>
+      <c r="X49">
+        <v>6</v>
+      </c>
+      <c r="Y49">
+        <v>1.13</v>
+      </c>
+      <c r="Z49">
+        <v>2.62</v>
+      </c>
+      <c r="AA49">
+        <v>3.6</v>
+      </c>
+      <c r="AB49">
+        <v>2.5</v>
+      </c>
+      <c r="AC49">
+        <v>1.04</v>
+      </c>
+      <c r="AD49">
+        <v>10</v>
+      </c>
+      <c r="AE49">
+        <v>1.16</v>
+      </c>
+      <c r="AF49">
+        <v>4.1</v>
+      </c>
+      <c r="AG49">
+        <v>1.66</v>
+      </c>
+      <c r="AH49">
+        <v>2.23</v>
+      </c>
+      <c r="AI49">
+        <v>1.57</v>
+      </c>
+      <c r="AJ49">
+        <v>2.25</v>
+      </c>
+      <c r="AK49">
+        <v>1.52</v>
+      </c>
+      <c r="AL49">
+        <v>1.3</v>
+      </c>
+      <c r="AM49">
+        <v>1.53</v>
+      </c>
+      <c r="AN49">
+        <v>0.5</v>
+      </c>
+      <c r="AO49">
+        <v>1.5</v>
+      </c>
+      <c r="AP49">
+        <v>0.33</v>
+      </c>
+      <c r="AQ49">
+        <v>2</v>
+      </c>
+      <c r="AR49">
+        <v>0.41</v>
+      </c>
+      <c r="AS49">
+        <v>1.3</v>
+      </c>
+      <c r="AT49">
+        <v>1.71</v>
+      </c>
+      <c r="AU49">
+        <v>4</v>
+      </c>
+      <c r="AV49">
+        <v>4</v>
+      </c>
+      <c r="AW49">
+        <v>5</v>
+      </c>
+      <c r="AX49">
+        <v>6</v>
+      </c>
+      <c r="AY49">
+        <v>13</v>
+      </c>
+      <c r="AZ49">
+        <v>16</v>
+      </c>
+      <c r="BA49">
+        <v>7</v>
+      </c>
+      <c r="BB49">
+        <v>5</v>
+      </c>
+      <c r="BC49">
+        <v>12</v>
+      </c>
+      <c r="BD49">
+        <v>1.77</v>
+      </c>
+      <c r="BE49">
+        <v>6.4</v>
+      </c>
+      <c r="BF49">
+        <v>2.25</v>
+      </c>
+      <c r="BG49">
+        <v>1.3</v>
+      </c>
+      <c r="BH49">
+        <v>3.05</v>
+      </c>
+      <c r="BI49">
+        <v>1.53</v>
+      </c>
+      <c r="BJ49">
+        <v>2.3</v>
+      </c>
+      <c r="BK49">
+        <v>1.86</v>
+      </c>
+      <c r="BL49">
+        <v>1.82</v>
+      </c>
+      <c r="BM49">
+        <v>2.33</v>
+      </c>
+      <c r="BN49">
+        <v>1.5</v>
+      </c>
+      <c r="BO49">
+        <v>3.05</v>
+      </c>
+      <c r="BP49">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7491865</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45570.4375</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>125</v>
+      </c>
+      <c r="P50" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q50">
+        <v>3.6</v>
+      </c>
+      <c r="R50">
+        <v>2.25</v>
+      </c>
+      <c r="S50">
+        <v>2.75</v>
+      </c>
+      <c r="T50">
+        <v>1.36</v>
+      </c>
+      <c r="U50">
+        <v>3</v>
+      </c>
+      <c r="V50">
+        <v>2.63</v>
+      </c>
+      <c r="W50">
+        <v>1.44</v>
+      </c>
+      <c r="X50">
+        <v>7</v>
+      </c>
+      <c r="Y50">
+        <v>1.1</v>
+      </c>
+      <c r="Z50">
+        <v>3.2</v>
+      </c>
+      <c r="AA50">
+        <v>3.5</v>
+      </c>
+      <c r="AB50">
+        <v>2.2</v>
+      </c>
+      <c r="AC50">
+        <v>1.02</v>
+      </c>
+      <c r="AD50">
+        <v>10</v>
+      </c>
+      <c r="AE50">
+        <v>1.21</v>
+      </c>
+      <c r="AF50">
+        <v>3.6</v>
+      </c>
+      <c r="AG50">
+        <v>1.79</v>
+      </c>
+      <c r="AH50">
+        <v>2.02</v>
+      </c>
+      <c r="AI50">
+        <v>1.67</v>
+      </c>
+      <c r="AJ50">
+        <v>2.1</v>
+      </c>
+      <c r="AK50">
+        <v>1.65</v>
+      </c>
+      <c r="AL50">
+        <v>1.25</v>
+      </c>
+      <c r="AM50">
+        <v>1.35</v>
+      </c>
+      <c r="AN50">
+        <v>3</v>
+      </c>
+      <c r="AO50">
+        <v>0.5</v>
+      </c>
+      <c r="AP50">
+        <v>3</v>
+      </c>
+      <c r="AQ50">
+        <v>0.33</v>
+      </c>
+      <c r="AR50">
+        <v>1.16</v>
+      </c>
+      <c r="AS50">
+        <v>0.99</v>
+      </c>
+      <c r="AT50">
+        <v>2.15</v>
+      </c>
+      <c r="AU50">
+        <v>6</v>
+      </c>
+      <c r="AV50">
+        <v>5</v>
+      </c>
+      <c r="AW50">
+        <v>4</v>
+      </c>
+      <c r="AX50">
+        <v>3</v>
+      </c>
+      <c r="AY50">
+        <v>15</v>
+      </c>
+      <c r="AZ50">
+        <v>9</v>
+      </c>
+      <c r="BA50">
+        <v>3</v>
+      </c>
+      <c r="BB50">
+        <v>3</v>
+      </c>
+      <c r="BC50">
+        <v>6</v>
+      </c>
+      <c r="BD50">
+        <v>2.23</v>
+      </c>
+      <c r="BE50">
+        <v>6.5</v>
+      </c>
+      <c r="BF50">
+        <v>1.79</v>
+      </c>
+      <c r="BG50">
+        <v>1.28</v>
+      </c>
+      <c r="BH50">
+        <v>3.3</v>
+      </c>
+      <c r="BI50">
+        <v>1.49</v>
+      </c>
+      <c r="BJ50">
+        <v>2.4</v>
+      </c>
+      <c r="BK50">
+        <v>1.8</v>
+      </c>
+      <c r="BL50">
+        <v>1.88</v>
+      </c>
+      <c r="BM50">
+        <v>2.25</v>
+      </c>
+      <c r="BN50">
+        <v>1.55</v>
+      </c>
+      <c r="BO50">
+        <v>2.9</v>
+      </c>
+      <c r="BP50">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7491866</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45570.4375</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+      <c r="O51" t="s">
+        <v>126</v>
+      </c>
+      <c r="P51" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q51">
+        <v>3.4</v>
+      </c>
+      <c r="R51">
+        <v>2.38</v>
+      </c>
+      <c r="S51">
+        <v>2.75</v>
+      </c>
+      <c r="T51">
+        <v>1.3</v>
+      </c>
+      <c r="U51">
+        <v>3.4</v>
+      </c>
+      <c r="V51">
+        <v>2.38</v>
+      </c>
+      <c r="W51">
+        <v>1.53</v>
+      </c>
+      <c r="X51">
+        <v>6</v>
+      </c>
+      <c r="Y51">
+        <v>1.13</v>
+      </c>
+      <c r="Z51">
+        <v>3.1</v>
+      </c>
+      <c r="AA51">
+        <v>3.6</v>
+      </c>
+      <c r="AB51">
+        <v>2.2</v>
+      </c>
+      <c r="AC51">
+        <v>1.04</v>
+      </c>
+      <c r="AD51">
+        <v>10</v>
+      </c>
+      <c r="AE51">
+        <v>1.2</v>
+      </c>
+      <c r="AF51">
+        <v>4.33</v>
+      </c>
+      <c r="AG51">
+        <v>1.63</v>
+      </c>
+      <c r="AH51">
+        <v>2.28</v>
+      </c>
+      <c r="AI51">
+        <v>1.53</v>
+      </c>
+      <c r="AJ51">
+        <v>2.38</v>
+      </c>
+      <c r="AK51">
+        <v>1.68</v>
+      </c>
+      <c r="AL51">
+        <v>1.27</v>
+      </c>
+      <c r="AM51">
+        <v>1.38</v>
+      </c>
+      <c r="AN51">
+        <v>0.5</v>
+      </c>
+      <c r="AO51">
+        <v>1.5</v>
+      </c>
+      <c r="AP51">
+        <v>0.33</v>
+      </c>
+      <c r="AQ51">
+        <v>2</v>
+      </c>
+      <c r="AR51">
+        <v>1.37</v>
+      </c>
+      <c r="AS51">
+        <v>1.28</v>
+      </c>
+      <c r="AT51">
+        <v>2.65</v>
+      </c>
+      <c r="AU51">
+        <v>6</v>
+      </c>
+      <c r="AV51">
+        <v>6</v>
+      </c>
+      <c r="AW51">
+        <v>5</v>
+      </c>
+      <c r="AX51">
+        <v>5</v>
+      </c>
+      <c r="AY51">
+        <v>19</v>
+      </c>
+      <c r="AZ51">
+        <v>18</v>
+      </c>
+      <c r="BA51">
+        <v>7</v>
+      </c>
+      <c r="BB51">
+        <v>6</v>
+      </c>
+      <c r="BC51">
+        <v>13</v>
+      </c>
+      <c r="BD51">
+        <v>2.28</v>
+      </c>
+      <c r="BE51">
+        <v>6.5</v>
+      </c>
+      <c r="BF51">
+        <v>1.76</v>
+      </c>
+      <c r="BG51">
+        <v>1.21</v>
+      </c>
+      <c r="BH51">
+        <v>3.8</v>
+      </c>
+      <c r="BI51">
+        <v>1.38</v>
+      </c>
+      <c r="BJ51">
+        <v>2.7</v>
+      </c>
+      <c r="BK51">
+        <v>1.63</v>
+      </c>
+      <c r="BL51">
+        <v>2.12</v>
+      </c>
+      <c r="BM51">
+        <v>2</v>
+      </c>
+      <c r="BN51">
+        <v>1.71</v>
+      </c>
+      <c r="BO51">
+        <v>2.5</v>
+      </c>
+      <c r="BP51">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7491867</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45570.5625</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>96</v>
+      </c>
+      <c r="P52" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q52">
+        <v>3</v>
+      </c>
+      <c r="R52">
+        <v>2.2</v>
+      </c>
+      <c r="S52">
+        <v>3.5</v>
+      </c>
+      <c r="T52">
+        <v>1.36</v>
+      </c>
+      <c r="U52">
+        <v>3</v>
+      </c>
+      <c r="V52">
+        <v>2.75</v>
+      </c>
+      <c r="W52">
+        <v>1.4</v>
+      </c>
+      <c r="X52">
+        <v>7</v>
+      </c>
+      <c r="Y52">
+        <v>1.1</v>
+      </c>
+      <c r="Z52">
+        <v>2.6</v>
+      </c>
+      <c r="AA52">
+        <v>3.4</v>
+      </c>
+      <c r="AB52">
+        <v>2.7</v>
+      </c>
+      <c r="AC52">
+        <v>1.05</v>
+      </c>
+      <c r="AD52">
+        <v>12</v>
+      </c>
+      <c r="AE52">
+        <v>1.24</v>
+      </c>
+      <c r="AF52">
+        <v>3.36</v>
+      </c>
+      <c r="AG52">
+        <v>1.9</v>
+      </c>
+      <c r="AH52">
+        <v>1.91</v>
+      </c>
+      <c r="AI52">
+        <v>1.7</v>
+      </c>
+      <c r="AJ52">
+        <v>2.05</v>
+      </c>
+      <c r="AK52">
+        <v>1.45</v>
+      </c>
+      <c r="AL52">
+        <v>1.33</v>
+      </c>
+      <c r="AM52">
+        <v>1.61</v>
+      </c>
+      <c r="AN52">
+        <v>0.5</v>
+      </c>
+      <c r="AO52">
+        <v>2</v>
+      </c>
+      <c r="AP52">
+        <v>0.33</v>
+      </c>
+      <c r="AQ52">
+        <v>2.33</v>
+      </c>
+      <c r="AR52">
+        <v>1.52</v>
+      </c>
+      <c r="AS52">
+        <v>1.03</v>
+      </c>
+      <c r="AT52">
+        <v>2.55</v>
+      </c>
+      <c r="AU52">
+        <v>5</v>
+      </c>
+      <c r="AV52">
+        <v>5</v>
+      </c>
+      <c r="AW52">
+        <v>6</v>
+      </c>
+      <c r="AX52">
+        <v>3</v>
+      </c>
+      <c r="AY52">
+        <v>20</v>
+      </c>
+      <c r="AZ52">
+        <v>9</v>
+      </c>
+      <c r="BA52">
+        <v>2</v>
+      </c>
+      <c r="BB52">
+        <v>2</v>
+      </c>
+      <c r="BC52">
+        <v>4</v>
+      </c>
+      <c r="BD52">
+        <v>1.9</v>
+      </c>
+      <c r="BE52">
+        <v>6.25</v>
+      </c>
+      <c r="BF52">
+        <v>2.1</v>
+      </c>
+      <c r="BG52">
+        <v>1.36</v>
+      </c>
+      <c r="BH52">
+        <v>2.8</v>
+      </c>
+      <c r="BI52">
+        <v>1.61</v>
+      </c>
+      <c r="BJ52">
+        <v>2.15</v>
+      </c>
+      <c r="BK52">
+        <v>1.98</v>
+      </c>
+      <c r="BL52">
+        <v>1.72</v>
+      </c>
+      <c r="BM52">
+        <v>2.55</v>
+      </c>
+      <c r="BN52">
+        <v>1.44</v>
+      </c>
+      <c r="BO52">
+        <v>3.4</v>
+      </c>
+      <c r="BP52">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="168">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,12 @@
     <t>['72']</t>
   </si>
   <si>
+    <t>['22', '35', '90+4']</t>
+  </si>
+  <si>
+    <t>['90+9']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -506,6 +512,12 @@
   </si>
   <si>
     <t>['5', '16', '62']</t>
+  </si>
+  <si>
+    <t>['15', '38', '53']</t>
+  </si>
+  <si>
+    <t>['44']</t>
   </si>
 </sst>
 </file>
@@ -867,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1126,7 +1138,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1538,7 +1550,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1744,7 +1756,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1950,7 +1962,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2156,7 +2168,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2568,7 +2580,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2649,7 +2661,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ9">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2774,7 +2786,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3186,7 +3198,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3264,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ12">
         <v>2.33</v>
@@ -3392,7 +3404,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q13">
         <v>2.3</v>
@@ -3470,10 +3482,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3804,7 +3816,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4010,7 +4022,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4216,7 +4228,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4297,7 +4309,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4500,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4834,7 +4846,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5040,7 +5052,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5246,7 +5258,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>2.25</v>
@@ -5452,7 +5464,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5658,7 +5670,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6070,7 +6082,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6151,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="AQ26">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR26">
         <v>1.4</v>
@@ -6276,7 +6288,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6482,7 +6494,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6688,7 +6700,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6894,7 +6906,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>2.5</v>
@@ -7100,7 +7112,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q31">
         <v>2.63</v>
@@ -7181,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR31">
         <v>1.36</v>
@@ -7306,7 +7318,7 @@
         <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q32">
         <v>3.25</v>
@@ -7384,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>2</v>
@@ -7512,7 +7524,7 @@
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -7593,7 +7605,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ33">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR33">
         <v>0.65</v>
@@ -7796,7 +7808,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -7924,7 +7936,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8130,7 +8142,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8208,7 +8220,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36">
         <v>0.33</v>
@@ -8417,7 +8429,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR37">
         <v>1.27</v>
@@ -8542,7 +8554,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -8748,7 +8760,7 @@
         <v>96</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q39">
         <v>2.38</v>
@@ -9160,7 +9172,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9572,7 +9584,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -9778,7 +9790,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -9984,7 +9996,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10190,7 +10202,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10569,7 +10581,7 @@
         <v>69</v>
       </c>
       <c r="E48" s="2">
-        <v>45570.4375</v>
+        <v>45569.875</v>
       </c>
       <c r="F48">
         <v>6</v>
@@ -10602,7 +10614,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -10695,22 +10707,22 @@
         <v>3.96</v>
       </c>
       <c r="AU48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW48">
         <v>6</v>
       </c>
       <c r="AX48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY48">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AZ48">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA48">
         <v>12</v>
@@ -10775,7 +10787,7 @@
         <v>69</v>
       </c>
       <c r="E49" s="2">
-        <v>45570.4375</v>
+        <v>45569.875</v>
       </c>
       <c r="F49">
         <v>6</v>
@@ -10808,7 +10820,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -10901,22 +10913,22 @@
         <v>1.71</v>
       </c>
       <c r="AU49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW49">
         <v>5</v>
       </c>
       <c r="AX49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY49">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ49">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BA49">
         <v>7</v>
@@ -10981,7 +10993,7 @@
         <v>69</v>
       </c>
       <c r="E50" s="2">
-        <v>45570.4375</v>
+        <v>45569.875</v>
       </c>
       <c r="F50">
         <v>6</v>
@@ -11014,7 +11026,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11107,22 +11119,22 @@
         <v>2.15</v>
       </c>
       <c r="AU50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV50">
+        <v>4</v>
+      </c>
+      <c r="AW50">
         <v>5</v>
       </c>
-      <c r="AW50">
-        <v>4</v>
-      </c>
       <c r="AX50">
         <v>3</v>
       </c>
       <c r="AY50">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA50">
         <v>3</v>
@@ -11187,7 +11199,7 @@
         <v>69</v>
       </c>
       <c r="E51" s="2">
-        <v>45570.4375</v>
+        <v>45569.875</v>
       </c>
       <c r="F51">
         <v>6</v>
@@ -11220,7 +11232,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11313,22 +11325,22 @@
         <v>2.65</v>
       </c>
       <c r="AU51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW51">
         <v>5</v>
       </c>
       <c r="AX51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY51">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AZ51">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="BA51">
         <v>7</v>
@@ -11393,7 +11405,7 @@
         <v>69</v>
       </c>
       <c r="E52" s="2">
-        <v>45570.5625</v>
+        <v>45569.875</v>
       </c>
       <c r="F52">
         <v>6</v>
@@ -11426,7 +11438,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11519,22 +11531,22 @@
         <v>2.55</v>
       </c>
       <c r="AU52">
+        <v>7</v>
+      </c>
+      <c r="AV52">
+        <v>3</v>
+      </c>
+      <c r="AW52">
         <v>5</v>
       </c>
-      <c r="AV52">
-        <v>5</v>
-      </c>
-      <c r="AW52">
+      <c r="AX52">
+        <v>3</v>
+      </c>
+      <c r="AY52">
+        <v>12</v>
+      </c>
+      <c r="AZ52">
         <v>6</v>
-      </c>
-      <c r="AX52">
-        <v>3</v>
-      </c>
-      <c r="AY52">
-        <v>20</v>
-      </c>
-      <c r="AZ52">
-        <v>9</v>
       </c>
       <c r="BA52">
         <v>2</v>
@@ -11583,6 +11595,624 @@
       </c>
       <c r="BP52">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7491862</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45571.4375</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H53" t="s">
+        <v>71</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>96</v>
+      </c>
+      <c r="P53" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q53">
+        <v>4.5</v>
+      </c>
+      <c r="R53">
+        <v>2.5</v>
+      </c>
+      <c r="S53">
+        <v>2.2</v>
+      </c>
+      <c r="T53">
+        <v>1.29</v>
+      </c>
+      <c r="U53">
+        <v>3.5</v>
+      </c>
+      <c r="V53">
+        <v>2.25</v>
+      </c>
+      <c r="W53">
+        <v>1.57</v>
+      </c>
+      <c r="X53">
+        <v>5.5</v>
+      </c>
+      <c r="Y53">
+        <v>1.14</v>
+      </c>
+      <c r="Z53">
+        <v>4.75</v>
+      </c>
+      <c r="AA53">
+        <v>4.33</v>
+      </c>
+      <c r="AB53">
+        <v>1.6</v>
+      </c>
+      <c r="AC53">
+        <v>1.01</v>
+      </c>
+      <c r="AD53">
+        <v>21</v>
+      </c>
+      <c r="AE53">
+        <v>1.12</v>
+      </c>
+      <c r="AF53">
+        <v>4.5</v>
+      </c>
+      <c r="AG53">
+        <v>1.55</v>
+      </c>
+      <c r="AH53">
+        <v>2.4</v>
+      </c>
+      <c r="AI53">
+        <v>1.57</v>
+      </c>
+      <c r="AJ53">
+        <v>2.25</v>
+      </c>
+      <c r="AK53">
+        <v>2.27</v>
+      </c>
+      <c r="AL53">
+        <v>1.27</v>
+      </c>
+      <c r="AM53">
+        <v>1.19</v>
+      </c>
+      <c r="AN53">
+        <v>1.5</v>
+      </c>
+      <c r="AO53">
+        <v>2</v>
+      </c>
+      <c r="AP53">
+        <v>1</v>
+      </c>
+      <c r="AQ53">
+        <v>2.33</v>
+      </c>
+      <c r="AR53">
+        <v>1.25</v>
+      </c>
+      <c r="AS53">
+        <v>1.2</v>
+      </c>
+      <c r="AT53">
+        <v>2.45</v>
+      </c>
+      <c r="AU53">
+        <v>5</v>
+      </c>
+      <c r="AV53">
+        <v>3</v>
+      </c>
+      <c r="AW53">
+        <v>6</v>
+      </c>
+      <c r="AX53">
+        <v>6</v>
+      </c>
+      <c r="AY53">
+        <v>15</v>
+      </c>
+      <c r="AZ53">
+        <v>14</v>
+      </c>
+      <c r="BA53">
+        <v>3</v>
+      </c>
+      <c r="BB53">
+        <v>2</v>
+      </c>
+      <c r="BC53">
+        <v>5</v>
+      </c>
+      <c r="BD53">
+        <v>2.84</v>
+      </c>
+      <c r="BE53">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF53">
+        <v>1.61</v>
+      </c>
+      <c r="BG53">
+        <v>1.24</v>
+      </c>
+      <c r="BH53">
+        <v>3.22</v>
+      </c>
+      <c r="BI53">
+        <v>1.51</v>
+      </c>
+      <c r="BJ53">
+        <v>2.35</v>
+      </c>
+      <c r="BK53">
+        <v>1.91</v>
+      </c>
+      <c r="BL53">
+        <v>1.85</v>
+      </c>
+      <c r="BM53">
+        <v>2.43</v>
+      </c>
+      <c r="BN53">
+        <v>1.48</v>
+      </c>
+      <c r="BO53">
+        <v>3.22</v>
+      </c>
+      <c r="BP53">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7491861</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45571.52083333334</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s">
+        <v>87</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>6</v>
+      </c>
+      <c r="O54" t="s">
+        <v>127</v>
+      </c>
+      <c r="P54" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q54">
+        <v>5</v>
+      </c>
+      <c r="R54">
+        <v>2.75</v>
+      </c>
+      <c r="S54">
+        <v>1.95</v>
+      </c>
+      <c r="T54">
+        <v>1.2</v>
+      </c>
+      <c r="U54">
+        <v>4.33</v>
+      </c>
+      <c r="V54">
+        <v>2</v>
+      </c>
+      <c r="W54">
+        <v>1.73</v>
+      </c>
+      <c r="X54">
+        <v>4</v>
+      </c>
+      <c r="Y54">
+        <v>1.22</v>
+      </c>
+      <c r="Z54">
+        <v>5.6</v>
+      </c>
+      <c r="AA54">
+        <v>5</v>
+      </c>
+      <c r="AB54">
+        <v>1.46</v>
+      </c>
+      <c r="AC54">
+        <v>1.01</v>
+      </c>
+      <c r="AD54">
+        <v>29</v>
+      </c>
+      <c r="AE54">
+        <v>1.06</v>
+      </c>
+      <c r="AF54">
+        <v>5.85</v>
+      </c>
+      <c r="AG54">
+        <v>1.33</v>
+      </c>
+      <c r="AH54">
+        <v>3.15</v>
+      </c>
+      <c r="AI54">
+        <v>1.5</v>
+      </c>
+      <c r="AJ54">
+        <v>2.5</v>
+      </c>
+      <c r="AK54">
+        <v>2.62</v>
+      </c>
+      <c r="AL54">
+        <v>1.21</v>
+      </c>
+      <c r="AM54">
+        <v>1.17</v>
+      </c>
+      <c r="AN54">
+        <v>3</v>
+      </c>
+      <c r="AO54">
+        <v>3</v>
+      </c>
+      <c r="AP54">
+        <v>2.33</v>
+      </c>
+      <c r="AQ54">
+        <v>2.5</v>
+      </c>
+      <c r="AR54">
+        <v>1.7</v>
+      </c>
+      <c r="AS54">
+        <v>2.1</v>
+      </c>
+      <c r="AT54">
+        <v>3.8</v>
+      </c>
+      <c r="AU54">
+        <v>5</v>
+      </c>
+      <c r="AV54">
+        <v>14</v>
+      </c>
+      <c r="AW54">
+        <v>2</v>
+      </c>
+      <c r="AX54">
+        <v>6</v>
+      </c>
+      <c r="AY54">
+        <v>7</v>
+      </c>
+      <c r="AZ54">
+        <v>26</v>
+      </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
+      <c r="BB54">
+        <v>11</v>
+      </c>
+      <c r="BC54">
+        <v>11</v>
+      </c>
+      <c r="BD54">
+        <v>3.95</v>
+      </c>
+      <c r="BE54">
+        <v>9.9</v>
+      </c>
+      <c r="BF54">
+        <v>1.36</v>
+      </c>
+      <c r="BG54">
+        <v>1.23</v>
+      </c>
+      <c r="BH54">
+        <v>3.28</v>
+      </c>
+      <c r="BI54">
+        <v>1.49</v>
+      </c>
+      <c r="BJ54">
+        <v>2.4</v>
+      </c>
+      <c r="BK54">
+        <v>1.88</v>
+      </c>
+      <c r="BL54">
+        <v>1.88</v>
+      </c>
+      <c r="BM54">
+        <v>2.38</v>
+      </c>
+      <c r="BN54">
+        <v>1.5</v>
+      </c>
+      <c r="BO54">
+        <v>3.08</v>
+      </c>
+      <c r="BP54">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7491860</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45571.60416666666</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>128</v>
+      </c>
+      <c r="P55" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q55">
+        <v>1.67</v>
+      </c>
+      <c r="R55">
+        <v>3.1</v>
+      </c>
+      <c r="S55">
+        <v>6</v>
+      </c>
+      <c r="T55">
+        <v>1.14</v>
+      </c>
+      <c r="U55">
+        <v>5.5</v>
+      </c>
+      <c r="V55">
+        <v>1.73</v>
+      </c>
+      <c r="W55">
+        <v>2</v>
+      </c>
+      <c r="X55">
+        <v>3.4</v>
+      </c>
+      <c r="Y55">
+        <v>1.3</v>
+      </c>
+      <c r="Z55">
+        <v>1.3</v>
+      </c>
+      <c r="AA55">
+        <v>6.1</v>
+      </c>
+      <c r="AB55">
+        <v>7.5</v>
+      </c>
+      <c r="AC55">
+        <v>1.01</v>
+      </c>
+      <c r="AD55">
+        <v>41</v>
+      </c>
+      <c r="AE55">
+        <v>1.01</v>
+      </c>
+      <c r="AF55">
+        <v>7.7</v>
+      </c>
+      <c r="AG55">
+        <v>1.25</v>
+      </c>
+      <c r="AH55">
+        <v>3.71</v>
+      </c>
+      <c r="AI55">
+        <v>1.44</v>
+      </c>
+      <c r="AJ55">
+        <v>2.63</v>
+      </c>
+      <c r="AK55">
+        <v>1.08</v>
+      </c>
+      <c r="AL55">
+        <v>1.08</v>
+      </c>
+      <c r="AM55">
+        <v>3.4</v>
+      </c>
+      <c r="AN55">
+        <v>2</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>1.67</v>
+      </c>
+      <c r="AQ55">
+        <v>0.33</v>
+      </c>
+      <c r="AR55">
+        <v>2.29</v>
+      </c>
+      <c r="AS55">
+        <v>1.06</v>
+      </c>
+      <c r="AT55">
+        <v>3.35</v>
+      </c>
+      <c r="AU55">
+        <v>7</v>
+      </c>
+      <c r="AV55">
+        <v>6</v>
+      </c>
+      <c r="AW55">
+        <v>7</v>
+      </c>
+      <c r="AX55">
+        <v>2</v>
+      </c>
+      <c r="AY55">
+        <v>22</v>
+      </c>
+      <c r="AZ55">
+        <v>8</v>
+      </c>
+      <c r="BA55">
+        <v>10</v>
+      </c>
+      <c r="BB55">
+        <v>5</v>
+      </c>
+      <c r="BC55">
+        <v>15</v>
+      </c>
+      <c r="BD55">
+        <v>1.19</v>
+      </c>
+      <c r="BE55">
+        <v>14.5</v>
+      </c>
+      <c r="BF55">
+        <v>6</v>
+      </c>
+      <c r="BG55">
+        <v>1.21</v>
+      </c>
+      <c r="BH55">
+        <v>4</v>
+      </c>
+      <c r="BI55">
+        <v>1.39</v>
+      </c>
+      <c r="BJ55">
+        <v>2.75</v>
+      </c>
+      <c r="BK55">
+        <v>1.7</v>
+      </c>
+      <c r="BL55">
+        <v>2.14</v>
+      </c>
+      <c r="BM55">
+        <v>2.11</v>
+      </c>
+      <c r="BN55">
+        <v>1.72</v>
+      </c>
+      <c r="BO55">
+        <v>2.6</v>
+      </c>
+      <c r="BP55">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -397,12 +397,12 @@
     <t>['72']</t>
   </si>
   <si>
+    <t>['90+9']</t>
+  </si>
+  <si>
     <t>['22', '35', '90+4']</t>
   </si>
   <si>
-    <t>['90+9']</t>
-  </si>
-  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -514,10 +514,10 @@
     <t>['5', '16', '62']</t>
   </si>
   <si>
+    <t>['44']</t>
+  </si>
+  <si>
     <t>['15', '38', '53']</t>
-  </si>
-  <si>
-    <t>['44']</t>
   </si>
 </sst>
 </file>
@@ -11602,7 +11602,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7491862</v>
+        <v>7491860</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -11611,196 +11611,196 @@
         <v>69</v>
       </c>
       <c r="E53" s="2">
-        <v>45571.4375</v>
+        <v>45570.875</v>
       </c>
       <c r="F53">
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53">
         <v>1</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O53" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="Q53">
-        <v>4.5</v>
+        <v>1.67</v>
       </c>
       <c r="R53">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="S53">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="T53">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="U53">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="V53">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="W53">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="X53">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y53">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="Z53">
-        <v>4.75</v>
+        <v>1.3</v>
       </c>
       <c r="AA53">
-        <v>4.33</v>
+        <v>6.1</v>
       </c>
       <c r="AB53">
-        <v>1.6</v>
+        <v>7.5</v>
       </c>
       <c r="AC53">
         <v>1.01</v>
       </c>
       <c r="AD53">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AE53">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="AF53">
-        <v>4.5</v>
+        <v>7.7</v>
       </c>
       <c r="AG53">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="AH53">
-        <v>2.4</v>
+        <v>3.71</v>
       </c>
       <c r="AI53">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AJ53">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AK53">
-        <v>2.27</v>
+        <v>1.08</v>
       </c>
       <c r="AL53">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="AM53">
+        <v>3.4</v>
+      </c>
+      <c r="AN53">
+        <v>2</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>1.67</v>
+      </c>
+      <c r="AQ53">
+        <v>0.33</v>
+      </c>
+      <c r="AR53">
+        <v>2.29</v>
+      </c>
+      <c r="AS53">
+        <v>1.06</v>
+      </c>
+      <c r="AT53">
+        <v>3.35</v>
+      </c>
+      <c r="AU53">
+        <v>6</v>
+      </c>
+      <c r="AV53">
+        <v>5</v>
+      </c>
+      <c r="AW53">
+        <v>4</v>
+      </c>
+      <c r="AX53">
+        <v>2</v>
+      </c>
+      <c r="AY53">
+        <v>10</v>
+      </c>
+      <c r="AZ53">
+        <v>7</v>
+      </c>
+      <c r="BA53">
+        <v>10</v>
+      </c>
+      <c r="BB53">
+        <v>5</v>
+      </c>
+      <c r="BC53">
+        <v>15</v>
+      </c>
+      <c r="BD53">
         <v>1.19</v>
       </c>
-      <c r="AN53">
-        <v>1.5</v>
-      </c>
-      <c r="AO53">
-        <v>2</v>
-      </c>
-      <c r="AP53">
-        <v>1</v>
-      </c>
-      <c r="AQ53">
-        <v>2.33</v>
-      </c>
-      <c r="AR53">
-        <v>1.25</v>
-      </c>
-      <c r="AS53">
-        <v>1.2</v>
-      </c>
-      <c r="AT53">
-        <v>2.45</v>
-      </c>
-      <c r="AU53">
-        <v>5</v>
-      </c>
-      <c r="AV53">
-        <v>3</v>
-      </c>
-      <c r="AW53">
+      <c r="BE53">
+        <v>14.5</v>
+      </c>
+      <c r="BF53">
         <v>6</v>
       </c>
-      <c r="AX53">
-        <v>6</v>
-      </c>
-      <c r="AY53">
-        <v>15</v>
-      </c>
-      <c r="AZ53">
-        <v>14</v>
-      </c>
-      <c r="BA53">
-        <v>3</v>
-      </c>
-      <c r="BB53">
-        <v>2</v>
-      </c>
-      <c r="BC53">
-        <v>5</v>
-      </c>
-      <c r="BD53">
-        <v>2.84</v>
-      </c>
-      <c r="BE53">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BF53">
-        <v>1.61</v>
-      </c>
       <c r="BG53">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="BH53">
-        <v>3.22</v>
+        <v>4</v>
       </c>
       <c r="BI53">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="BJ53">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="BK53">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="BL53">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="BM53">
-        <v>2.43</v>
+        <v>2.11</v>
       </c>
       <c r="BN53">
-        <v>1.48</v>
+        <v>1.72</v>
       </c>
       <c r="BO53">
-        <v>3.22</v>
+        <v>2.6</v>
       </c>
       <c r="BP53">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -11817,7 +11817,7 @@
         <v>69</v>
       </c>
       <c r="E54" s="2">
-        <v>45571.52083333334</v>
+        <v>45570.875</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -11847,10 +11847,10 @@
         <v>6</v>
       </c>
       <c r="O54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11943,22 +11943,22 @@
         <v>3.8</v>
       </c>
       <c r="AU54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV54">
+        <v>10</v>
+      </c>
+      <c r="AW54">
+        <v>0</v>
+      </c>
+      <c r="AX54">
+        <v>4</v>
+      </c>
+      <c r="AY54">
+        <v>2</v>
+      </c>
+      <c r="AZ54">
         <v>14</v>
-      </c>
-      <c r="AW54">
-        <v>2</v>
-      </c>
-      <c r="AX54">
-        <v>6</v>
-      </c>
-      <c r="AY54">
-        <v>7</v>
-      </c>
-      <c r="AZ54">
-        <v>26</v>
       </c>
       <c r="BA54">
         <v>0</v>
@@ -12014,7 +12014,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7491860</v>
+        <v>7491862</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12023,196 +12023,196 @@
         <v>69</v>
       </c>
       <c r="E55" s="2">
-        <v>45571.60416666666</v>
+        <v>45570.875</v>
       </c>
       <c r="F55">
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>1</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O55" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="P55" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="Q55">
-        <v>1.67</v>
+        <v>4.5</v>
       </c>
       <c r="R55">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="S55">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="T55">
+        <v>1.29</v>
+      </c>
+      <c r="U55">
+        <v>3.5</v>
+      </c>
+      <c r="V55">
+        <v>2.25</v>
+      </c>
+      <c r="W55">
+        <v>1.57</v>
+      </c>
+      <c r="X55">
+        <v>5.5</v>
+      </c>
+      <c r="Y55">
         <v>1.14</v>
       </c>
-      <c r="U55">
-        <v>5.5</v>
-      </c>
-      <c r="V55">
-        <v>1.73</v>
-      </c>
-      <c r="W55">
-        <v>2</v>
-      </c>
-      <c r="X55">
-        <v>3.4</v>
-      </c>
-      <c r="Y55">
-        <v>1.3</v>
-      </c>
       <c r="Z55">
-        <v>1.3</v>
+        <v>4.75</v>
       </c>
       <c r="AA55">
-        <v>6.1</v>
+        <v>4.33</v>
       </c>
       <c r="AB55">
-        <v>7.5</v>
+        <v>1.6</v>
       </c>
       <c r="AC55">
         <v>1.01</v>
       </c>
       <c r="AD55">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AE55">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="AF55">
-        <v>7.7</v>
+        <v>4.5</v>
       </c>
       <c r="AG55">
+        <v>1.55</v>
+      </c>
+      <c r="AH55">
+        <v>2.4</v>
+      </c>
+      <c r="AI55">
+        <v>1.57</v>
+      </c>
+      <c r="AJ55">
+        <v>2.25</v>
+      </c>
+      <c r="AK55">
+        <v>2.27</v>
+      </c>
+      <c r="AL55">
+        <v>1.27</v>
+      </c>
+      <c r="AM55">
+        <v>1.19</v>
+      </c>
+      <c r="AN55">
+        <v>1.5</v>
+      </c>
+      <c r="AO55">
+        <v>2</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>2.33</v>
+      </c>
+      <c r="AR55">
         <v>1.25</v>
       </c>
-      <c r="AH55">
-        <v>3.71</v>
-      </c>
-      <c r="AI55">
-        <v>1.44</v>
-      </c>
-      <c r="AJ55">
-        <v>2.63</v>
-      </c>
-      <c r="AK55">
-        <v>1.08</v>
-      </c>
-      <c r="AL55">
-        <v>1.08</v>
-      </c>
-      <c r="AM55">
-        <v>3.4</v>
-      </c>
-      <c r="AN55">
-        <v>2</v>
-      </c>
-      <c r="AO55">
-        <v>0</v>
-      </c>
-      <c r="AP55">
-        <v>1.67</v>
-      </c>
-      <c r="AQ55">
-        <v>0.33</v>
-      </c>
-      <c r="AR55">
-        <v>2.29</v>
-      </c>
       <c r="AS55">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="AT55">
-        <v>3.35</v>
+        <v>2.45</v>
       </c>
       <c r="AU55">
+        <v>6</v>
+      </c>
+      <c r="AV55">
+        <v>2</v>
+      </c>
+      <c r="AW55">
+        <v>4</v>
+      </c>
+      <c r="AX55">
+        <v>5</v>
+      </c>
+      <c r="AY55">
+        <v>10</v>
+      </c>
+      <c r="AZ55">
         <v>7</v>
       </c>
-      <c r="AV55">
-        <v>6</v>
-      </c>
-      <c r="AW55">
-        <v>7</v>
-      </c>
-      <c r="AX55">
-        <v>2</v>
-      </c>
-      <c r="AY55">
-        <v>22</v>
-      </c>
-      <c r="AZ55">
-        <v>8</v>
-      </c>
       <c r="BA55">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BB55">
+        <v>2</v>
+      </c>
+      <c r="BC55">
         <v>5</v>
       </c>
-      <c r="BC55">
-        <v>15</v>
-      </c>
       <c r="BD55">
-        <v>1.19</v>
+        <v>2.84</v>
       </c>
       <c r="BE55">
-        <v>14.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF55">
-        <v>6</v>
+        <v>1.61</v>
       </c>
       <c r="BG55">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="BH55">
-        <v>4</v>
+        <v>3.22</v>
       </c>
       <c r="BI55">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="BJ55">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="BK55">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="BL55">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="BM55">
-        <v>2.11</v>
+        <v>2.43</v>
       </c>
       <c r="BN55">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="BO55">
-        <v>2.6</v>
+        <v>3.22</v>
       </c>
       <c r="BP55">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -397,12 +397,12 @@
     <t>['72']</t>
   </si>
   <si>
+    <t>['22', '35', '90+4']</t>
+  </si>
+  <si>
     <t>['90+9']</t>
   </si>
   <si>
-    <t>['22', '35', '90+4']</t>
-  </si>
-  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -514,10 +514,10 @@
     <t>['5', '16', '62']</t>
   </si>
   <si>
+    <t>['15', '38', '53']</t>
+  </si>
+  <si>
     <t>['44']</t>
-  </si>
-  <si>
-    <t>['15', '38', '53']</t>
   </si>
 </sst>
 </file>
@@ -10581,7 +10581,7 @@
         <v>69</v>
       </c>
       <c r="E48" s="2">
-        <v>45569.875</v>
+        <v>45570.4375</v>
       </c>
       <c r="F48">
         <v>6</v>
@@ -10787,7 +10787,7 @@
         <v>69</v>
       </c>
       <c r="E49" s="2">
-        <v>45569.875</v>
+        <v>45570.4375</v>
       </c>
       <c r="F49">
         <v>6</v>
@@ -10993,7 +10993,7 @@
         <v>69</v>
       </c>
       <c r="E50" s="2">
-        <v>45569.875</v>
+        <v>45570.4375</v>
       </c>
       <c r="F50">
         <v>6</v>
@@ -11199,7 +11199,7 @@
         <v>69</v>
       </c>
       <c r="E51" s="2">
-        <v>45569.875</v>
+        <v>45570.4375</v>
       </c>
       <c r="F51">
         <v>6</v>
@@ -11405,7 +11405,7 @@
         <v>69</v>
       </c>
       <c r="E52" s="2">
-        <v>45569.875</v>
+        <v>45570.5625</v>
       </c>
       <c r="F52">
         <v>6</v>
@@ -11602,7 +11602,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7491860</v>
+        <v>7491862</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -11611,142 +11611,142 @@
         <v>69</v>
       </c>
       <c r="E53" s="2">
-        <v>45570.875</v>
+        <v>45571.4375</v>
       </c>
       <c r="F53">
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>1</v>
       </c>
       <c r="N53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O53" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="P53" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="Q53">
-        <v>1.67</v>
+        <v>4.5</v>
       </c>
       <c r="R53">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="S53">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="T53">
+        <v>1.29</v>
+      </c>
+      <c r="U53">
+        <v>3.5</v>
+      </c>
+      <c r="V53">
+        <v>2.25</v>
+      </c>
+      <c r="W53">
+        <v>1.57</v>
+      </c>
+      <c r="X53">
+        <v>5.5</v>
+      </c>
+      <c r="Y53">
         <v>1.14</v>
       </c>
-      <c r="U53">
-        <v>5.5</v>
-      </c>
-      <c r="V53">
-        <v>1.73</v>
-      </c>
-      <c r="W53">
-        <v>2</v>
-      </c>
-      <c r="X53">
-        <v>3.4</v>
-      </c>
-      <c r="Y53">
-        <v>1.3</v>
-      </c>
       <c r="Z53">
-        <v>1.3</v>
+        <v>4.75</v>
       </c>
       <c r="AA53">
-        <v>6.1</v>
+        <v>4.33</v>
       </c>
       <c r="AB53">
-        <v>7.5</v>
+        <v>1.6</v>
       </c>
       <c r="AC53">
         <v>1.01</v>
       </c>
       <c r="AD53">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AE53">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="AF53">
-        <v>7.7</v>
+        <v>4.5</v>
       </c>
       <c r="AG53">
+        <v>1.55</v>
+      </c>
+      <c r="AH53">
+        <v>2.4</v>
+      </c>
+      <c r="AI53">
+        <v>1.57</v>
+      </c>
+      <c r="AJ53">
+        <v>2.25</v>
+      </c>
+      <c r="AK53">
+        <v>2.27</v>
+      </c>
+      <c r="AL53">
+        <v>1.27</v>
+      </c>
+      <c r="AM53">
+        <v>1.19</v>
+      </c>
+      <c r="AN53">
+        <v>1.5</v>
+      </c>
+      <c r="AO53">
+        <v>2</v>
+      </c>
+      <c r="AP53">
+        <v>1</v>
+      </c>
+      <c r="AQ53">
+        <v>2.33</v>
+      </c>
+      <c r="AR53">
         <v>1.25</v>
       </c>
-      <c r="AH53">
-        <v>3.71</v>
-      </c>
-      <c r="AI53">
-        <v>1.44</v>
-      </c>
-      <c r="AJ53">
-        <v>2.63</v>
-      </c>
-      <c r="AK53">
-        <v>1.08</v>
-      </c>
-      <c r="AL53">
-        <v>1.08</v>
-      </c>
-      <c r="AM53">
-        <v>3.4</v>
-      </c>
-      <c r="AN53">
-        <v>2</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>1.67</v>
-      </c>
-      <c r="AQ53">
-        <v>0.33</v>
-      </c>
-      <c r="AR53">
-        <v>2.29</v>
-      </c>
       <c r="AS53">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="AT53">
-        <v>3.35</v>
+        <v>2.45</v>
       </c>
       <c r="AU53">
         <v>6</v>
       </c>
       <c r="AV53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW53">
         <v>4</v>
       </c>
       <c r="AX53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY53">
         <v>10</v>
@@ -11755,52 +11755,52 @@
         <v>7</v>
       </c>
       <c r="BA53">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BB53">
+        <v>2</v>
+      </c>
+      <c r="BC53">
         <v>5</v>
       </c>
-      <c r="BC53">
-        <v>15</v>
-      </c>
       <c r="BD53">
-        <v>1.19</v>
+        <v>2.84</v>
       </c>
       <c r="BE53">
-        <v>14.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF53">
-        <v>6</v>
+        <v>1.61</v>
       </c>
       <c r="BG53">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="BH53">
-        <v>4</v>
+        <v>3.22</v>
       </c>
       <c r="BI53">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="BJ53">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="BK53">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="BL53">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="BM53">
-        <v>2.11</v>
+        <v>2.43</v>
       </c>
       <c r="BN53">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="BO53">
-        <v>2.6</v>
+        <v>3.22</v>
       </c>
       <c r="BP53">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -11817,7 +11817,7 @@
         <v>69</v>
       </c>
       <c r="E54" s="2">
-        <v>45570.875</v>
+        <v>45571.52083333334</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -11847,10 +11847,10 @@
         <v>6</v>
       </c>
       <c r="O54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12014,7 +12014,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7491862</v>
+        <v>7491860</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12023,142 +12023,142 @@
         <v>69</v>
       </c>
       <c r="E55" s="2">
-        <v>45570.875</v>
+        <v>45571.60416666666</v>
       </c>
       <c r="F55">
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55">
         <v>1</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O55" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="Q55">
-        <v>4.5</v>
+        <v>1.67</v>
       </c>
       <c r="R55">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="S55">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="T55">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="U55">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="V55">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="W55">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="X55">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y55">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="Z55">
-        <v>4.75</v>
+        <v>1.3</v>
       </c>
       <c r="AA55">
-        <v>4.33</v>
+        <v>6.1</v>
       </c>
       <c r="AB55">
-        <v>1.6</v>
+        <v>7.5</v>
       </c>
       <c r="AC55">
         <v>1.01</v>
       </c>
       <c r="AD55">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AE55">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="AF55">
-        <v>4.5</v>
+        <v>7.7</v>
       </c>
       <c r="AG55">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="AH55">
-        <v>2.4</v>
+        <v>3.71</v>
       </c>
       <c r="AI55">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AJ55">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AK55">
-        <v>2.27</v>
+        <v>1.08</v>
       </c>
       <c r="AL55">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="AM55">
-        <v>1.19</v>
+        <v>3.4</v>
       </c>
       <c r="AN55">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ55">
-        <v>2.33</v>
+        <v>0.33</v>
       </c>
       <c r="AR55">
-        <v>1.25</v>
+        <v>2.29</v>
       </c>
       <c r="AS55">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AT55">
-        <v>2.45</v>
+        <v>3.35</v>
       </c>
       <c r="AU55">
         <v>6</v>
       </c>
       <c r="AV55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW55">
         <v>4</v>
       </c>
       <c r="AX55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY55">
         <v>10</v>
@@ -12167,52 +12167,52 @@
         <v>7</v>
       </c>
       <c r="BA55">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BB55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BD55">
-        <v>2.84</v>
+        <v>1.19</v>
       </c>
       <c r="BE55">
-        <v>8.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="BF55">
-        <v>1.61</v>
+        <v>6</v>
       </c>
       <c r="BG55">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="BH55">
-        <v>3.22</v>
+        <v>4</v>
       </c>
       <c r="BI55">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="BJ55">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="BK55">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="BL55">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="BM55">
-        <v>2.43</v>
+        <v>2.11</v>
       </c>
       <c r="BN55">
-        <v>1.48</v>
+        <v>1.72</v>
       </c>
       <c r="BO55">
-        <v>3.22</v>
+        <v>2.6</v>
       </c>
       <c r="BP55">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -10707,22 +10707,22 @@
         <v>3.96</v>
       </c>
       <c r="AU48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW48">
         <v>6</v>
       </c>
       <c r="AX48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY48">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AZ48">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA48">
         <v>12</v>
@@ -10913,22 +10913,22 @@
         <v>1.71</v>
       </c>
       <c r="AU49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW49">
         <v>5</v>
       </c>
       <c r="AX49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY49">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ49">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA49">
         <v>7</v>
@@ -11119,22 +11119,22 @@
         <v>2.15</v>
       </c>
       <c r="AU50">
+        <v>6</v>
+      </c>
+      <c r="AV50">
         <v>5</v>
       </c>
-      <c r="AV50">
+      <c r="AW50">
         <v>4</v>
       </c>
-      <c r="AW50">
-        <v>5</v>
-      </c>
       <c r="AX50">
         <v>3</v>
       </c>
       <c r="AY50">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ50">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA50">
         <v>3</v>
@@ -11325,22 +11325,22 @@
         <v>2.65</v>
       </c>
       <c r="AU51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW51">
         <v>5</v>
       </c>
       <c r="AX51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY51">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AZ51">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="BA51">
         <v>7</v>
@@ -11531,22 +11531,22 @@
         <v>2.55</v>
       </c>
       <c r="AU52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX52">
         <v>3</v>
       </c>
       <c r="AY52">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AZ52">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA52">
         <v>2</v>
@@ -11737,22 +11737,22 @@
         <v>2.45</v>
       </c>
       <c r="AU53">
+        <v>5</v>
+      </c>
+      <c r="AV53">
+        <v>3</v>
+      </c>
+      <c r="AW53">
         <v>6</v>
       </c>
-      <c r="AV53">
-        <v>2</v>
-      </c>
-      <c r="AW53">
-        <v>4</v>
-      </c>
       <c r="AX53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY53">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ53">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA53">
         <v>3</v>
@@ -11943,22 +11943,22 @@
         <v>3.8</v>
       </c>
       <c r="AU54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV54">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AW54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY54">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AZ54">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="BA54">
         <v>0</v>
@@ -12149,22 +12149,22 @@
         <v>3.35</v>
       </c>
       <c r="AU55">
+        <v>7</v>
+      </c>
+      <c r="AV55">
         <v>6</v>
       </c>
-      <c r="AV55">
-        <v>5</v>
-      </c>
       <c r="AW55">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX55">
         <v>2</v>
       </c>
       <c r="AY55">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AZ55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA55">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -259,18 +259,18 @@
     <t>Stuttgart</t>
   </si>
   <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
     <t>Eintracht Frankfurt</t>
   </si>
   <si>
+    <t>Bochum</t>
+  </si>
+  <si>
     <t>Werder Bremen</t>
   </si>
   <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Holstein Kiel</t>
-  </si>
-  <si>
     <t>Bayer Leverkusen</t>
   </si>
   <si>
@@ -349,12 +349,12 @@
     <t>['25', '57']</t>
   </si>
   <si>
+    <t>['4', '6']</t>
+  </si>
+  <si>
     <t>['22', '35']</t>
   </si>
   <si>
-    <t>['4', '6']</t>
-  </si>
-  <si>
     <t>['30', '80']</t>
   </si>
   <si>
@@ -403,6 +403,9 @@
     <t>['90+9']</t>
   </si>
   <si>
+    <t>['43', '83']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -427,15 +430,15 @@
     <t>['43', '62', '90+4']</t>
   </si>
   <si>
+    <t>['27', '30']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
     <t>['67', '78']</t>
   </si>
   <si>
-    <t>['27', '30']</t>
-  </si>
-  <si>
     <t>['45+7', '57', '80']</t>
   </si>
   <si>
@@ -463,18 +466,18 @@
     <t>['13', '15', '49']</t>
   </si>
   <si>
+    <t>['54', '59', '65']</t>
+  </si>
+  <si>
+    <t>['23', '32', '57', '60', '65']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['15', '89']</t>
   </si>
   <si>
-    <t>['67']</t>
-  </si>
-  <si>
-    <t>['54', '59', '65']</t>
-  </si>
-  <si>
-    <t>['23', '32', '57', '60', '65']</t>
-  </si>
-  <si>
     <t>['5', '37', '45+1']</t>
   </si>
   <si>
@@ -518,6 +521,9 @@
   </si>
   <si>
     <t>['44']</t>
+  </si>
+  <si>
+    <t>['78']</t>
   </si>
 </sst>
 </file>
@@ -879,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1138,7 +1144,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1526,7 +1532,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1550,7 +1556,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1756,7 +1762,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1938,7 +1944,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1962,7 +1968,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2168,7 +2174,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2350,7 +2356,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2580,7 +2586,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2786,7 +2792,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3073,7 +3079,7 @@
         <v>3</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3198,7 +3204,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3362,7 +3368,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7491826</v>
+        <v>7491831</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3380,100 +3386,100 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q13">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="R13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S13">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="T13">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U13">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V13">
+        <v>2.63</v>
+      </c>
+      <c r="W13">
+        <v>1.44</v>
+      </c>
+      <c r="X13">
+        <v>6.5</v>
+      </c>
+      <c r="Y13">
+        <v>1.11</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AA13">
+        <v>3.5</v>
+      </c>
+      <c r="AB13">
+        <v>2.25</v>
+      </c>
+      <c r="AC13">
+        <v>1.04</v>
+      </c>
+      <c r="AD13">
+        <v>14.75</v>
+      </c>
+      <c r="AE13">
+        <v>1.23</v>
+      </c>
+      <c r="AF13">
+        <v>4.2</v>
+      </c>
+      <c r="AG13">
+        <v>1.77</v>
+      </c>
+      <c r="AH13">
+        <v>1.97</v>
+      </c>
+      <c r="AI13">
+        <v>1.62</v>
+      </c>
+      <c r="AJ13">
         <v>2.2</v>
       </c>
-      <c r="W13">
-        <v>1.62</v>
-      </c>
-      <c r="X13">
-        <v>5</v>
-      </c>
-      <c r="Y13">
-        <v>1.17</v>
-      </c>
-      <c r="Z13">
-        <v>2</v>
-      </c>
-      <c r="AA13">
-        <v>3.75</v>
-      </c>
-      <c r="AB13">
-        <v>3.4</v>
-      </c>
-      <c r="AC13">
-        <v>1.02</v>
-      </c>
-      <c r="AD13">
-        <v>21</v>
-      </c>
-      <c r="AE13">
-        <v>1.11</v>
-      </c>
-      <c r="AF13">
-        <v>5.15</v>
-      </c>
-      <c r="AG13">
-        <v>1.63</v>
-      </c>
-      <c r="AH13">
-        <v>2.29</v>
-      </c>
-      <c r="AI13">
-        <v>1.5</v>
-      </c>
-      <c r="AJ13">
-        <v>2.5</v>
-      </c>
       <c r="AK13">
-        <v>1.27</v>
+        <v>1.7</v>
       </c>
       <c r="AL13">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AM13">
-        <v>2.02</v>
+        <v>1.36</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -3482,10 +3488,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AQ13">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3497,70 +3503,70 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX13">
         <v>4</v>
       </c>
       <c r="AY13">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA13">
         <v>1</v>
       </c>
       <c r="BB13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD13">
-        <v>1.45</v>
+        <v>1.98</v>
       </c>
       <c r="BE13">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF13">
-        <v>3.05</v>
+        <v>1.98</v>
       </c>
       <c r="BG13">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="BH13">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="BI13">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="BJ13">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="BK13">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="BL13">
         <v>2</v>
       </c>
       <c r="BM13">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="BN13">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="BO13">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BP13">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3568,7 +3574,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7491828</v>
+        <v>7491826</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3586,100 +3592,100 @@
         <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="R14">
         <v>2.5</v>
       </c>
       <c r="S14">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="T14">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U14">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V14">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W14">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X14">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Y14">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Z14">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="AA14">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="AB14">
-        <v>1.78</v>
+        <v>3.4</v>
       </c>
       <c r="AC14">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD14">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE14">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AF14">
-        <v>5.5</v>
+        <v>5.15</v>
       </c>
       <c r="AG14">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="AH14">
-        <v>2.7</v>
+        <v>2.29</v>
       </c>
       <c r="AI14">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AJ14">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AK14">
-        <v>2</v>
+        <v>1.27</v>
       </c>
       <c r="AL14">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM14">
-        <v>1.28</v>
+        <v>2.02</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -3688,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.33</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
         <v>0.33</v>
@@ -3703,70 +3709,70 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV14">
+        <v>4</v>
+      </c>
+      <c r="AW14">
+        <v>8</v>
+      </c>
+      <c r="AX14">
+        <v>4</v>
+      </c>
+      <c r="AY14">
+        <v>19</v>
+      </c>
+      <c r="AZ14">
+        <v>12</v>
+      </c>
+      <c r="BA14">
+        <v>1</v>
+      </c>
+      <c r="BB14">
+        <v>4</v>
+      </c>
+      <c r="BC14">
         <v>5</v>
       </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>3</v>
-      </c>
-      <c r="AY14">
-        <v>6</v>
-      </c>
-      <c r="AZ14">
-        <v>10</v>
-      </c>
-      <c r="BA14">
-        <v>5</v>
-      </c>
-      <c r="BB14">
-        <v>6</v>
-      </c>
-      <c r="BC14">
-        <v>11</v>
-      </c>
       <c r="BD14">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="BE14">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF14">
-        <v>1.6</v>
+        <v>3.05</v>
       </c>
       <c r="BG14">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="BH14">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BI14">
         <v>1.48</v>
       </c>
       <c r="BJ14">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="BK14">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="BL14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BM14">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="BN14">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="BO14">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="BP14">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3816,7 +3822,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3980,7 +3986,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7491831</v>
+        <v>7491828</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -3998,100 +4004,100 @@
         <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="Q16">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R16">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S16">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="T16">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="U16">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="V16">
+        <v>2.1</v>
+      </c>
+      <c r="W16">
+        <v>1.67</v>
+      </c>
+      <c r="X16">
+        <v>4.5</v>
+      </c>
+      <c r="Y16">
+        <v>1.18</v>
+      </c>
+      <c r="Z16">
+        <v>3.9</v>
+      </c>
+      <c r="AA16">
+        <v>4.1</v>
+      </c>
+      <c r="AB16">
+        <v>1.78</v>
+      </c>
+      <c r="AC16">
+        <v>1.01</v>
+      </c>
+      <c r="AD16">
+        <v>23</v>
+      </c>
+      <c r="AE16">
+        <v>1.1</v>
+      </c>
+      <c r="AF16">
+        <v>5.5</v>
+      </c>
+      <c r="AG16">
+        <v>1.45</v>
+      </c>
+      <c r="AH16">
+        <v>2.7</v>
+      </c>
+      <c r="AI16">
+        <v>1.44</v>
+      </c>
+      <c r="AJ16">
         <v>2.63</v>
       </c>
-      <c r="W16">
-        <v>1.44</v>
-      </c>
-      <c r="X16">
-        <v>6.5</v>
-      </c>
-      <c r="Y16">
-        <v>1.11</v>
-      </c>
-      <c r="Z16">
-        <v>3</v>
-      </c>
-      <c r="AA16">
-        <v>3.5</v>
-      </c>
-      <c r="AB16">
-        <v>2.25</v>
-      </c>
-      <c r="AC16">
-        <v>1.04</v>
-      </c>
-      <c r="AD16">
-        <v>14.75</v>
-      </c>
-      <c r="AE16">
-        <v>1.23</v>
-      </c>
-      <c r="AF16">
-        <v>4.2</v>
-      </c>
-      <c r="AG16">
-        <v>1.77</v>
-      </c>
-      <c r="AH16">
-        <v>1.97</v>
-      </c>
-      <c r="AI16">
-        <v>1.62</v>
-      </c>
-      <c r="AJ16">
-        <v>2.2</v>
-      </c>
       <c r="AK16">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AL16">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AM16">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AN16">
         <v>0</v>
@@ -4100,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4115,70 +4121,70 @@
         <v>0</v>
       </c>
       <c r="AU16">
+        <v>2</v>
+      </c>
+      <c r="AV16">
+        <v>5</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>3</v>
+      </c>
+      <c r="AY16">
         <v>6</v>
       </c>
-      <c r="AV16">
+      <c r="AZ16">
+        <v>10</v>
+      </c>
+      <c r="BA16">
+        <v>5</v>
+      </c>
+      <c r="BB16">
         <v>6</v>
       </c>
-      <c r="AW16">
-        <v>6</v>
-      </c>
-      <c r="AX16">
-        <v>4</v>
-      </c>
-      <c r="AY16">
-        <v>14</v>
-      </c>
-      <c r="AZ16">
-        <v>14</v>
-      </c>
-      <c r="BA16">
-        <v>1</v>
-      </c>
-      <c r="BB16">
-        <v>7</v>
-      </c>
       <c r="BC16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD16">
-        <v>1.98</v>
+        <v>2.55</v>
       </c>
       <c r="BE16">
         <v>6.5</v>
       </c>
       <c r="BF16">
-        <v>1.98</v>
+        <v>1.6</v>
       </c>
       <c r="BG16">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="BH16">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="BI16">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="BJ16">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="BK16">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="BL16">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BM16">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="BN16">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="BO16">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="BP16">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4228,7 +4234,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4846,7 +4852,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5010,7 +5016,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7491834</v>
+        <v>7491832</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -5025,190 +5031,190 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="Q21">
+        <v>1.95</v>
+      </c>
+      <c r="R21">
+        <v>2.5</v>
+      </c>
+      <c r="S21">
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <v>1.3</v>
+      </c>
+      <c r="U21">
+        <v>3.4</v>
+      </c>
+      <c r="V21">
+        <v>2.5</v>
+      </c>
+      <c r="W21">
+        <v>1.5</v>
+      </c>
+      <c r="X21">
+        <v>6</v>
+      </c>
+      <c r="Y21">
+        <v>1.13</v>
+      </c>
+      <c r="Z21">
+        <v>1.47</v>
+      </c>
+      <c r="AA21">
+        <v>4.6</v>
+      </c>
+      <c r="AB21">
+        <v>6.25</v>
+      </c>
+      <c r="AC21">
+        <v>1.02</v>
+      </c>
+      <c r="AD21">
+        <v>17</v>
+      </c>
+      <c r="AE21">
+        <v>1.19</v>
+      </c>
+      <c r="AF21">
         <v>4.75</v>
       </c>
-      <c r="R21">
-        <v>2.75</v>
-      </c>
-      <c r="S21">
+      <c r="AG21">
+        <v>1.62</v>
+      </c>
+      <c r="AH21">
+        <v>2.25</v>
+      </c>
+      <c r="AI21">
+        <v>1.8</v>
+      </c>
+      <c r="AJ21">
         <v>1.95</v>
       </c>
-      <c r="T21">
-        <v>1.18</v>
-      </c>
-      <c r="U21">
-        <v>4.5</v>
-      </c>
-      <c r="V21">
-        <v>1.83</v>
-      </c>
-      <c r="W21">
-        <v>1.83</v>
-      </c>
-      <c r="X21">
-        <v>4</v>
-      </c>
-      <c r="Y21">
-        <v>1.22</v>
-      </c>
-      <c r="Z21">
-        <v>5.25</v>
-      </c>
-      <c r="AA21">
-        <v>5</v>
-      </c>
-      <c r="AB21">
-        <v>1.53</v>
-      </c>
-      <c r="AC21">
-        <v>1.01</v>
-      </c>
-      <c r="AD21">
-        <v>34</v>
-      </c>
-      <c r="AE21">
+      <c r="AK21">
         <v>1.09</v>
-      </c>
-      <c r="AF21">
-        <v>7.5</v>
-      </c>
-      <c r="AG21">
-        <v>1.45</v>
-      </c>
-      <c r="AH21">
-        <v>2.7</v>
-      </c>
-      <c r="AI21">
-        <v>1.44</v>
-      </c>
-      <c r="AJ21">
-        <v>2.63</v>
-      </c>
-      <c r="AK21">
-        <v>2.45</v>
       </c>
       <c r="AL21">
         <v>1.15</v>
       </c>
       <c r="AM21">
-        <v>1.18</v>
+        <v>2.85</v>
       </c>
       <c r="AN21">
         <v>3</v>
       </c>
       <c r="AO21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21">
-        <v>2.33</v>
+        <v>0.67</v>
       </c>
       <c r="AR21">
-        <v>2.26</v>
+        <v>1.16</v>
       </c>
       <c r="AS21">
+        <v>1.54</v>
+      </c>
+      <c r="AT21">
+        <v>2.7</v>
+      </c>
+      <c r="AU21">
+        <v>4</v>
+      </c>
+      <c r="AV21">
+        <v>4</v>
+      </c>
+      <c r="AW21">
+        <v>5</v>
+      </c>
+      <c r="AX21">
+        <v>4</v>
+      </c>
+      <c r="AY21">
+        <v>15</v>
+      </c>
+      <c r="AZ21">
+        <v>11</v>
+      </c>
+      <c r="BA21">
+        <v>6</v>
+      </c>
+      <c r="BB21">
+        <v>5</v>
+      </c>
+      <c r="BC21">
+        <v>11</v>
+      </c>
+      <c r="BD21">
+        <v>1.28</v>
+      </c>
+      <c r="BE21">
+        <v>7.5</v>
+      </c>
+      <c r="BF21">
+        <v>4.1</v>
+      </c>
+      <c r="BG21">
+        <v>1.28</v>
+      </c>
+      <c r="BH21">
+        <v>3.25</v>
+      </c>
+      <c r="BI21">
+        <v>1.48</v>
+      </c>
+      <c r="BJ21">
         <v>2.43</v>
       </c>
-      <c r="AT21">
-        <v>4.69</v>
-      </c>
-      <c r="AU21">
-        <v>6</v>
-      </c>
-      <c r="AV21">
-        <v>9</v>
-      </c>
-      <c r="AW21">
-        <v>4</v>
-      </c>
-      <c r="AX21">
-        <v>6</v>
-      </c>
-      <c r="AY21">
-        <v>16</v>
-      </c>
-      <c r="AZ21">
-        <v>21</v>
-      </c>
-      <c r="BA21">
-        <v>4</v>
-      </c>
-      <c r="BB21">
-        <v>12</v>
-      </c>
-      <c r="BC21">
-        <v>16</v>
-      </c>
-      <c r="BD21">
-        <v>3.3</v>
-      </c>
-      <c r="BE21">
-        <v>7</v>
-      </c>
-      <c r="BF21">
-        <v>1.4</v>
-      </c>
-      <c r="BG21">
-        <v>1.2</v>
-      </c>
-      <c r="BH21">
-        <v>3.9</v>
-      </c>
-      <c r="BI21">
-        <v>1.37</v>
-      </c>
-      <c r="BJ21">
-        <v>2.8</v>
-      </c>
       <c r="BK21">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="BL21">
-        <v>2.17</v>
+        <v>1.9</v>
       </c>
       <c r="BM21">
-        <v>1.96</v>
+        <v>2.23</v>
       </c>
       <c r="BN21">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="BO21">
-        <v>2.43</v>
+        <v>2.85</v>
       </c>
       <c r="BP21">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5216,7 +5222,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7491835</v>
+        <v>7491834</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5231,190 +5237,190 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
         <v>1</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
       <c r="M22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P22" t="s">
         <v>143</v>
       </c>
       <c r="Q22">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="R22">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="S22">
+        <v>1.95</v>
+      </c>
+      <c r="T22">
+        <v>1.18</v>
+      </c>
+      <c r="U22">
         <v>4.5</v>
       </c>
-      <c r="T22">
-        <v>1.3</v>
-      </c>
-      <c r="U22">
-        <v>3.4</v>
-      </c>
       <c r="V22">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="W22">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="X22">
+        <v>4</v>
+      </c>
+      <c r="Y22">
+        <v>1.22</v>
+      </c>
+      <c r="Z22">
+        <v>5.25</v>
+      </c>
+      <c r="AA22">
+        <v>5</v>
+      </c>
+      <c r="AB22">
+        <v>1.53</v>
+      </c>
+      <c r="AC22">
+        <v>1.01</v>
+      </c>
+      <c r="AD22">
+        <v>34</v>
+      </c>
+      <c r="AE22">
+        <v>1.09</v>
+      </c>
+      <c r="AF22">
+        <v>7.5</v>
+      </c>
+      <c r="AG22">
+        <v>1.45</v>
+      </c>
+      <c r="AH22">
+        <v>2.7</v>
+      </c>
+      <c r="AI22">
+        <v>1.44</v>
+      </c>
+      <c r="AJ22">
+        <v>2.63</v>
+      </c>
+      <c r="AK22">
+        <v>2.45</v>
+      </c>
+      <c r="AL22">
+        <v>1.15</v>
+      </c>
+      <c r="AM22">
+        <v>1.18</v>
+      </c>
+      <c r="AN22">
+        <v>3</v>
+      </c>
+      <c r="AO22">
+        <v>3</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+      <c r="AQ22">
+        <v>2.33</v>
+      </c>
+      <c r="AR22">
+        <v>2.26</v>
+      </c>
+      <c r="AS22">
+        <v>2.43</v>
+      </c>
+      <c r="AT22">
+        <v>4.69</v>
+      </c>
+      <c r="AU22">
         <v>6</v>
       </c>
-      <c r="Y22">
-        <v>1.13</v>
-      </c>
-      <c r="Z22">
-        <v>1.7</v>
-      </c>
-      <c r="AA22">
+      <c r="AV22">
+        <v>9</v>
+      </c>
+      <c r="AW22">
         <v>4</v>
-      </c>
-      <c r="AB22">
-        <v>4.6</v>
-      </c>
-      <c r="AC22">
-        <v>1.03</v>
-      </c>
-      <c r="AD22">
-        <v>15</v>
-      </c>
-      <c r="AE22">
-        <v>1.22</v>
-      </c>
-      <c r="AF22">
-        <v>4.33</v>
-      </c>
-      <c r="AG22">
-        <v>1.62</v>
-      </c>
-      <c r="AH22">
-        <v>2.25</v>
-      </c>
-      <c r="AI22">
-        <v>1.67</v>
-      </c>
-      <c r="AJ22">
-        <v>2.1</v>
-      </c>
-      <c r="AK22">
-        <v>1.2</v>
-      </c>
-      <c r="AL22">
-        <v>1.2</v>
-      </c>
-      <c r="AM22">
-        <v>2.15</v>
-      </c>
-      <c r="AN22">
-        <v>3</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>2</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>1.5</v>
-      </c>
-      <c r="AS22">
-        <v>0.87</v>
-      </c>
-      <c r="AT22">
-        <v>2.37</v>
-      </c>
-      <c r="AU22">
-        <v>10</v>
-      </c>
-      <c r="AV22">
-        <v>4</v>
-      </c>
-      <c r="AW22">
-        <v>8</v>
       </c>
       <c r="AX22">
         <v>6</v>
       </c>
       <c r="AY22">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AZ22">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BA22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BC22">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BD22">
-        <v>1.64</v>
+        <v>3.3</v>
       </c>
       <c r="BE22">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF22">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="BG22">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="BH22">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="BI22">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="BJ22">
-        <v>2.33</v>
+        <v>2.8</v>
       </c>
       <c r="BK22">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="BL22">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="BM22">
-        <v>2.32</v>
+        <v>1.96</v>
       </c>
       <c r="BN22">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="BO22">
-        <v>2.95</v>
+        <v>2.43</v>
       </c>
       <c r="BP22">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -5422,7 +5428,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7491837</v>
+        <v>7491835</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -5437,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5452,34 +5458,34 @@
         <v>1</v>
       </c>
       <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
         <v>1</v>
       </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
       <c r="N23">
         <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P23" t="s">
         <v>144</v>
       </c>
       <c r="Q23">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="R23">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S23">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="T23">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U23">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V23">
         <v>2.5</v>
@@ -5488,25 +5494,25 @@
         <v>1.5</v>
       </c>
       <c r="X23">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y23">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z23">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="AA23">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AB23">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="AC23">
         <v>1.03</v>
       </c>
       <c r="AD23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE23">
         <v>1.22</v>
@@ -5515,112 +5521,112 @@
         <v>4.33</v>
       </c>
       <c r="AG23">
+        <v>1.62</v>
+      </c>
+      <c r="AH23">
+        <v>2.25</v>
+      </c>
+      <c r="AI23">
         <v>1.67</v>
       </c>
-      <c r="AH23">
+      <c r="AJ23">
+        <v>2.1</v>
+      </c>
+      <c r="AK23">
+        <v>1.2</v>
+      </c>
+      <c r="AL23">
+        <v>1.2</v>
+      </c>
+      <c r="AM23">
         <v>2.15</v>
       </c>
-      <c r="AI23">
-        <v>1.57</v>
-      </c>
-      <c r="AJ23">
-        <v>2.25</v>
-      </c>
-      <c r="AK23">
-        <v>1.53</v>
-      </c>
-      <c r="AL23">
-        <v>1.26</v>
-      </c>
-      <c r="AM23">
+      <c r="AN23">
+        <v>3</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>2</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
         <v>1.5</v>
       </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0.33</v>
-      </c>
-      <c r="AQ23">
-        <v>2</v>
-      </c>
-      <c r="AR23">
-        <v>1.03</v>
-      </c>
       <c r="AS23">
-        <v>1.12</v>
+        <v>0.87</v>
       </c>
       <c r="AT23">
-        <v>2.15</v>
+        <v>2.37</v>
       </c>
       <c r="AU23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW23">
+        <v>8</v>
+      </c>
+      <c r="AX23">
         <v>6</v>
       </c>
-      <c r="AX23">
-        <v>4</v>
-      </c>
       <c r="AY23">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AZ23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA23">
         <v>5</v>
       </c>
       <c r="BB23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD23">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="BE23">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF23">
-        <v>2.07</v>
+        <v>2.5</v>
       </c>
       <c r="BG23">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="BH23">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BI23">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="BJ23">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="BK23">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BL23">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="BM23">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="BN23">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="BO23">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="BP23">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="24" spans="1:68">
@@ -5628,7 +5634,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7491839</v>
+        <v>7491837</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -5643,190 +5649,190 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P24" t="s">
         <v>145</v>
       </c>
       <c r="Q24">
+        <v>3.2</v>
+      </c>
+      <c r="R24">
+        <v>2.3</v>
+      </c>
+      <c r="S24">
         <v>3.1</v>
       </c>
-      <c r="R24">
+      <c r="T24">
+        <v>1.33</v>
+      </c>
+      <c r="U24">
+        <v>3.25</v>
+      </c>
+      <c r="V24">
         <v>2.5</v>
       </c>
-      <c r="S24">
-        <v>2.75</v>
-      </c>
-      <c r="T24">
+      <c r="W24">
+        <v>1.5</v>
+      </c>
+      <c r="X24">
+        <v>6.5</v>
+      </c>
+      <c r="Y24">
+        <v>1.11</v>
+      </c>
+      <c r="Z24">
+        <v>2.7</v>
+      </c>
+      <c r="AA24">
+        <v>3.6</v>
+      </c>
+      <c r="AB24">
+        <v>2.5</v>
+      </c>
+      <c r="AC24">
+        <v>1.03</v>
+      </c>
+      <c r="AD24">
+        <v>13</v>
+      </c>
+      <c r="AE24">
+        <v>1.22</v>
+      </c>
+      <c r="AF24">
+        <v>4.33</v>
+      </c>
+      <c r="AG24">
+        <v>1.67</v>
+      </c>
+      <c r="AH24">
+        <v>2.15</v>
+      </c>
+      <c r="AI24">
+        <v>1.57</v>
+      </c>
+      <c r="AJ24">
+        <v>2.25</v>
+      </c>
+      <c r="AK24">
+        <v>1.53</v>
+      </c>
+      <c r="AL24">
+        <v>1.26</v>
+      </c>
+      <c r="AM24">
+        <v>1.5</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0.33</v>
+      </c>
+      <c r="AQ24">
+        <v>2</v>
+      </c>
+      <c r="AR24">
+        <v>1.03</v>
+      </c>
+      <c r="AS24">
+        <v>1.12</v>
+      </c>
+      <c r="AT24">
+        <v>2.15</v>
+      </c>
+      <c r="AU24">
+        <v>5</v>
+      </c>
+      <c r="AV24">
+        <v>7</v>
+      </c>
+      <c r="AW24">
+        <v>6</v>
+      </c>
+      <c r="AX24">
+        <v>4</v>
+      </c>
+      <c r="AY24">
+        <v>19</v>
+      </c>
+      <c r="AZ24">
+        <v>15</v>
+      </c>
+      <c r="BA24">
+        <v>5</v>
+      </c>
+      <c r="BB24">
+        <v>4</v>
+      </c>
+      <c r="BC24">
+        <v>9</v>
+      </c>
+      <c r="BD24">
+        <v>1.93</v>
+      </c>
+      <c r="BE24">
+        <v>6.4</v>
+      </c>
+      <c r="BF24">
+        <v>2.07</v>
+      </c>
+      <c r="BG24">
         <v>1.25</v>
       </c>
-      <c r="U24">
-        <v>3.75</v>
-      </c>
-      <c r="V24">
-        <v>2.1</v>
-      </c>
-      <c r="W24">
-        <v>1.67</v>
-      </c>
-      <c r="X24">
-        <v>4.5</v>
-      </c>
-      <c r="Y24">
-        <v>1.18</v>
-      </c>
-      <c r="Z24">
-        <v>2.75</v>
-      </c>
-      <c r="AA24">
-        <v>3.95</v>
-      </c>
-      <c r="AB24">
-        <v>2.3</v>
-      </c>
-      <c r="AC24">
-        <v>1.01</v>
-      </c>
-      <c r="AD24">
-        <v>23</v>
-      </c>
-      <c r="AE24">
-        <v>1.14</v>
-      </c>
-      <c r="AF24">
-        <v>6</v>
-      </c>
-      <c r="AG24">
-        <v>1.5</v>
-      </c>
-      <c r="AH24">
+      <c r="BH24">
+        <v>3.4</v>
+      </c>
+      <c r="BI24">
+        <v>1.44</v>
+      </c>
+      <c r="BJ24">
         <v>2.55</v>
       </c>
-      <c r="AI24">
-        <v>1.44</v>
-      </c>
-      <c r="AJ24">
-        <v>2.63</v>
-      </c>
-      <c r="AK24">
-        <v>1.68</v>
-      </c>
-      <c r="AL24">
-        <v>1.22</v>
-      </c>
-      <c r="AM24">
-        <v>1.45</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>1</v>
-      </c>
-      <c r="AQ24">
-        <v>1.33</v>
-      </c>
-      <c r="AR24">
-        <v>1.46</v>
-      </c>
-      <c r="AS24">
-        <v>1.03</v>
-      </c>
-      <c r="AT24">
-        <v>2.49</v>
-      </c>
-      <c r="AU24">
-        <v>8</v>
-      </c>
-      <c r="AV24">
-        <v>8</v>
-      </c>
-      <c r="AW24">
-        <v>4</v>
-      </c>
-      <c r="AX24">
-        <v>2</v>
-      </c>
-      <c r="AY24">
-        <v>16</v>
-      </c>
-      <c r="AZ24">
-        <v>13</v>
-      </c>
-      <c r="BA24">
-        <v>6</v>
-      </c>
-      <c r="BB24">
-        <v>2</v>
-      </c>
-      <c r="BC24">
-        <v>8</v>
-      </c>
-      <c r="BD24">
-        <v>2.17</v>
-      </c>
-      <c r="BE24">
-        <v>6.75</v>
-      </c>
-      <c r="BF24">
-        <v>1.82</v>
-      </c>
-      <c r="BG24">
-        <v>1.19</v>
-      </c>
-      <c r="BH24">
-        <v>3.9</v>
-      </c>
-      <c r="BI24">
-        <v>1.36</v>
-      </c>
-      <c r="BJ24">
-        <v>2.8</v>
-      </c>
       <c r="BK24">
+        <v>1.73</v>
+      </c>
+      <c r="BL24">
+        <v>1.96</v>
+      </c>
+      <c r="BM24">
+        <v>2.15</v>
+      </c>
+      <c r="BN24">
         <v>1.61</v>
       </c>
-      <c r="BL24">
-        <v>2.15</v>
-      </c>
-      <c r="BM24">
-        <v>1.95</v>
-      </c>
-      <c r="BN24">
-        <v>1.74</v>
-      </c>
       <c r="BO24">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="BP24">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="25" spans="1:68">
@@ -5834,7 +5840,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7491832</v>
+        <v>7491839</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -5849,190 +5855,190 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O25" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="Q25">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="R25">
         <v>2.5</v>
       </c>
       <c r="S25">
+        <v>2.75</v>
+      </c>
+      <c r="T25">
+        <v>1.25</v>
+      </c>
+      <c r="U25">
+        <v>3.75</v>
+      </c>
+      <c r="V25">
+        <v>2.1</v>
+      </c>
+      <c r="W25">
+        <v>1.67</v>
+      </c>
+      <c r="X25">
+        <v>4.5</v>
+      </c>
+      <c r="Y25">
+        <v>1.18</v>
+      </c>
+      <c r="Z25">
+        <v>2.75</v>
+      </c>
+      <c r="AA25">
+        <v>3.95</v>
+      </c>
+      <c r="AB25">
+        <v>2.3</v>
+      </c>
+      <c r="AC25">
+        <v>1.01</v>
+      </c>
+      <c r="AD25">
+        <v>23</v>
+      </c>
+      <c r="AE25">
+        <v>1.14</v>
+      </c>
+      <c r="AF25">
         <v>6</v>
       </c>
-      <c r="T25">
-        <v>1.3</v>
-      </c>
-      <c r="U25">
-        <v>3.4</v>
-      </c>
-      <c r="V25">
-        <v>2.5</v>
-      </c>
-      <c r="W25">
+      <c r="AG25">
         <v>1.5</v>
       </c>
-      <c r="X25">
-        <v>6</v>
-      </c>
-      <c r="Y25">
-        <v>1.13</v>
-      </c>
-      <c r="Z25">
-        <v>1.47</v>
-      </c>
-      <c r="AA25">
-        <v>4.6</v>
-      </c>
-      <c r="AB25">
-        <v>6.25</v>
-      </c>
-      <c r="AC25">
-        <v>1.02</v>
-      </c>
-      <c r="AD25">
-        <v>17</v>
-      </c>
-      <c r="AE25">
-        <v>1.19</v>
-      </c>
-      <c r="AF25">
-        <v>4.75</v>
-      </c>
-      <c r="AG25">
-        <v>1.62</v>
-      </c>
       <c r="AH25">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="AI25">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="AJ25">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="AK25">
-        <v>1.09</v>
+        <v>1.68</v>
       </c>
       <c r="AL25">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AM25">
-        <v>2.85</v>
+        <v>1.45</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
         <v>1</v>
       </c>
-      <c r="AP25">
-        <v>2.33</v>
-      </c>
       <c r="AQ25">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
-        <v>1.16</v>
+        <v>1.46</v>
       </c>
       <c r="AS25">
-        <v>1.54</v>
+        <v>1.03</v>
       </c>
       <c r="AT25">
-        <v>2.7</v>
+        <v>2.49</v>
       </c>
       <c r="AU25">
+        <v>8</v>
+      </c>
+      <c r="AV25">
+        <v>8</v>
+      </c>
+      <c r="AW25">
         <v>4</v>
       </c>
-      <c r="AV25">
-        <v>4</v>
-      </c>
-      <c r="AW25">
-        <v>5</v>
-      </c>
       <c r="AX25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ25">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA25">
         <v>6</v>
       </c>
       <c r="BB25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD25">
-        <v>1.28</v>
+        <v>2.17</v>
       </c>
       <c r="BE25">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF25">
-        <v>4.1</v>
+        <v>1.82</v>
       </c>
       <c r="BG25">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="BH25">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="BI25">
+        <v>1.36</v>
+      </c>
+      <c r="BJ25">
+        <v>2.8</v>
+      </c>
+      <c r="BK25">
+        <v>1.61</v>
+      </c>
+      <c r="BL25">
+        <v>2.15</v>
+      </c>
+      <c r="BM25">
+        <v>1.95</v>
+      </c>
+      <c r="BN25">
+        <v>1.74</v>
+      </c>
+      <c r="BO25">
+        <v>2.43</v>
+      </c>
+      <c r="BP25">
         <v>1.48</v>
-      </c>
-      <c r="BJ25">
-        <v>2.43</v>
-      </c>
-      <c r="BK25">
-        <v>1.79</v>
-      </c>
-      <c r="BL25">
-        <v>1.9</v>
-      </c>
-      <c r="BM25">
-        <v>2.23</v>
-      </c>
-      <c r="BN25">
-        <v>1.57</v>
-      </c>
-      <c r="BO25">
-        <v>2.85</v>
-      </c>
-      <c r="BP25">
-        <v>1.36</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -6055,7 +6061,7 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
         <v>87</v>
@@ -6082,7 +6088,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6288,7 +6294,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6369,7 +6375,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6470,7 +6476,7 @@
         <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -6494,7 +6500,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6700,7 +6706,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6864,7 +6870,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7491848</v>
+        <v>7491844</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -6879,190 +6885,190 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
+        <v>96</v>
+      </c>
+      <c r="P30" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q30">
+        <v>3.25</v>
+      </c>
+      <c r="R30">
+        <v>2.25</v>
+      </c>
+      <c r="S30">
+        <v>3</v>
+      </c>
+      <c r="T30">
+        <v>1.33</v>
+      </c>
+      <c r="U30">
+        <v>3.25</v>
+      </c>
+      <c r="V30">
+        <v>2.63</v>
+      </c>
+      <c r="W30">
+        <v>1.44</v>
+      </c>
+      <c r="X30">
+        <v>6.5</v>
+      </c>
+      <c r="Y30">
+        <v>1.11</v>
+      </c>
+      <c r="Z30">
+        <v>2.7</v>
+      </c>
+      <c r="AA30">
+        <v>3.4</v>
+      </c>
+      <c r="AB30">
+        <v>2.55</v>
+      </c>
+      <c r="AC30">
+        <v>1.04</v>
+      </c>
+      <c r="AD30">
+        <v>13</v>
+      </c>
+      <c r="AE30">
+        <v>1.24</v>
+      </c>
+      <c r="AF30">
+        <v>4.2</v>
+      </c>
+      <c r="AG30">
+        <v>1.67</v>
+      </c>
+      <c r="AH30">
+        <v>2.1</v>
+      </c>
+      <c r="AI30">
+        <v>1.57</v>
+      </c>
+      <c r="AJ30">
+        <v>2.25</v>
+      </c>
+      <c r="AK30">
+        <v>1.58</v>
+      </c>
+      <c r="AL30">
+        <v>1.26</v>
+      </c>
+      <c r="AM30">
+        <v>1.47</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
         <v>1</v>
       </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>2</v>
-      </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-      <c r="N30">
-        <v>4</v>
-      </c>
-      <c r="O30" t="s">
-        <v>111</v>
-      </c>
-      <c r="P30" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q30">
-        <v>2.5</v>
-      </c>
-      <c r="R30">
-        <v>2.38</v>
-      </c>
-      <c r="S30">
-        <v>3.75</v>
-      </c>
-      <c r="T30">
-        <v>1.29</v>
-      </c>
-      <c r="U30">
-        <v>3.5</v>
-      </c>
-      <c r="V30">
-        <v>2.38</v>
-      </c>
-      <c r="W30">
-        <v>1.53</v>
-      </c>
-      <c r="X30">
-        <v>5.5</v>
-      </c>
-      <c r="Y30">
-        <v>1.14</v>
-      </c>
-      <c r="Z30">
-        <v>1.95</v>
-      </c>
-      <c r="AA30">
-        <v>3.6</v>
-      </c>
-      <c r="AB30">
-        <v>3.7</v>
-      </c>
-      <c r="AC30">
+      <c r="AQ30">
+        <v>2</v>
+      </c>
+      <c r="AR30">
+        <v>1.69</v>
+      </c>
+      <c r="AS30">
         <v>1.03</v>
       </c>
-      <c r="AD30">
-        <v>17.25</v>
-      </c>
-      <c r="AE30">
-        <v>1.19</v>
-      </c>
-      <c r="AF30">
-        <v>4.83</v>
-      </c>
-      <c r="AG30">
-        <v>1.6</v>
-      </c>
-      <c r="AH30">
-        <v>2.2</v>
-      </c>
-      <c r="AI30">
-        <v>1.53</v>
-      </c>
-      <c r="AJ30">
-        <v>2.38</v>
-      </c>
-      <c r="AK30">
-        <v>1.32</v>
-      </c>
-      <c r="AL30">
-        <v>1.28</v>
-      </c>
-      <c r="AM30">
-        <v>1.86</v>
-      </c>
-      <c r="AN30">
-        <v>0</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0.33</v>
-      </c>
-      <c r="AQ30">
-        <v>0.67</v>
-      </c>
-      <c r="AR30">
-        <v>1.57</v>
-      </c>
-      <c r="AS30">
-        <v>1.61</v>
-      </c>
       <c r="AT30">
-        <v>3.18</v>
+        <v>2.72</v>
       </c>
       <c r="AU30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV30">
+        <v>6</v>
+      </c>
+      <c r="AW30">
         <v>5</v>
       </c>
-      <c r="AW30">
-        <v>7</v>
-      </c>
       <c r="AX30">
+        <v>6</v>
+      </c>
+      <c r="AY30">
         <v>8</v>
       </c>
-      <c r="AY30">
-        <v>15</v>
-      </c>
       <c r="AZ30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC30">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD30">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="BE30">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF30">
         <v>2.7</v>
       </c>
       <c r="BG30">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="BH30">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="BI30">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="BJ30">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="BK30">
+        <v>1.83</v>
+      </c>
+      <c r="BL30">
+        <v>1.85</v>
+      </c>
+      <c r="BM30">
+        <v>2.3</v>
+      </c>
+      <c r="BN30">
         <v>1.54</v>
       </c>
-      <c r="BL30">
-        <v>2.3</v>
-      </c>
-      <c r="BM30">
-        <v>1.85</v>
-      </c>
-      <c r="BN30">
-        <v>1.83</v>
-      </c>
       <c r="BO30">
-        <v>2.28</v>
+        <v>2.9</v>
       </c>
       <c r="BP30">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7070,7 +7076,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7491847</v>
+        <v>7491845</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7085,190 +7091,190 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31">
         <v>2</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31" t="s">
+        <v>96</v>
+      </c>
+      <c r="P31" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q31">
+        <v>5.5</v>
+      </c>
+      <c r="R31">
+        <v>2.75</v>
+      </c>
+      <c r="S31">
+        <v>1.83</v>
+      </c>
+      <c r="T31">
+        <v>1.2</v>
+      </c>
+      <c r="U31">
+        <v>4.33</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>1.73</v>
+      </c>
+      <c r="X31">
+        <v>4</v>
+      </c>
+      <c r="Y31">
+        <v>1.22</v>
+      </c>
+      <c r="Z31">
+        <v>6.5</v>
+      </c>
+      <c r="AA31">
+        <v>4.75</v>
+      </c>
+      <c r="AB31">
+        <v>1.4</v>
+      </c>
+      <c r="AC31">
+        <v>1.01</v>
+      </c>
+      <c r="AD31">
+        <v>15</v>
+      </c>
+      <c r="AE31">
+        <v>1.06</v>
+      </c>
+      <c r="AF31">
+        <v>5.75</v>
+      </c>
+      <c r="AG31">
+        <v>1.34</v>
+      </c>
+      <c r="AH31">
+        <v>3.09</v>
+      </c>
+      <c r="AI31">
+        <v>1.53</v>
+      </c>
+      <c r="AJ31">
+        <v>2.38</v>
+      </c>
+      <c r="AK31">
+        <v>2.98</v>
+      </c>
+      <c r="AL31">
+        <v>1.18</v>
+      </c>
+      <c r="AM31">
+        <v>1.12</v>
+      </c>
+      <c r="AN31">
         <v>1</v>
       </c>
-      <c r="N31">
-        <v>3</v>
-      </c>
-      <c r="O31" t="s">
-        <v>112</v>
-      </c>
-      <c r="P31" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q31">
-        <v>2.63</v>
-      </c>
-      <c r="R31">
-        <v>2.3</v>
-      </c>
-      <c r="S31">
-        <v>3.75</v>
-      </c>
-      <c r="T31">
-        <v>1.33</v>
-      </c>
-      <c r="U31">
-        <v>3.25</v>
-      </c>
-      <c r="V31">
-        <v>2.63</v>
-      </c>
-      <c r="W31">
-        <v>1.44</v>
-      </c>
-      <c r="X31">
-        <v>6.5</v>
-      </c>
-      <c r="Y31">
-        <v>1.11</v>
-      </c>
-      <c r="Z31">
-        <v>2.1</v>
-      </c>
-      <c r="AA31">
-        <v>3.4</v>
-      </c>
-      <c r="AB31">
-        <v>3.4</v>
-      </c>
-      <c r="AC31">
-        <v>1.03</v>
-      </c>
-      <c r="AD31">
-        <v>13</v>
-      </c>
-      <c r="AE31">
-        <v>1.24</v>
-      </c>
-      <c r="AF31">
-        <v>4.2</v>
-      </c>
-      <c r="AG31">
-        <v>1.7</v>
-      </c>
-      <c r="AH31">
-        <v>2.05</v>
-      </c>
-      <c r="AI31">
-        <v>1.62</v>
-      </c>
-      <c r="AJ31">
-        <v>2.2</v>
-      </c>
-      <c r="AK31">
-        <v>1.33</v>
-      </c>
-      <c r="AL31">
-        <v>1.25</v>
-      </c>
-      <c r="AM31">
-        <v>1.78</v>
-      </c>
-      <c r="AN31">
-        <v>3</v>
-      </c>
       <c r="AO31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP31">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="AQ31">
-        <v>0.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR31">
-        <v>1.36</v>
+        <v>0.65</v>
       </c>
       <c r="AS31">
-        <v>1.08</v>
+        <v>2.21</v>
       </c>
       <c r="AT31">
-        <v>2.44</v>
+        <v>2.86</v>
       </c>
       <c r="AU31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV31">
+        <v>8</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>5</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>26</v>
+      </c>
+      <c r="BA31">
+        <v>1</v>
+      </c>
+      <c r="BB31">
         <v>4</v>
       </c>
-      <c r="AW31">
-        <v>4</v>
-      </c>
-      <c r="AX31">
-        <v>2</v>
-      </c>
-      <c r="AY31">
-        <v>13</v>
-      </c>
-      <c r="AZ31">
-        <v>8</v>
-      </c>
-      <c r="BA31">
+      <c r="BC31">
         <v>5</v>
       </c>
-      <c r="BB31">
-        <v>5</v>
-      </c>
-      <c r="BC31">
-        <v>10</v>
-      </c>
       <c r="BD31">
-        <v>1.65</v>
+        <v>3.9</v>
       </c>
       <c r="BE31">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF31">
-        <v>2.48</v>
+        <v>1.3</v>
       </c>
       <c r="BG31">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="BH31">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="BI31">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="BJ31">
-        <v>2.55</v>
+        <v>2.23</v>
       </c>
       <c r="BK31">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="BL31">
-        <v>1.98</v>
+        <v>1.77</v>
       </c>
       <c r="BM31">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="BN31">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="BO31">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="BP31">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -7276,7 +7282,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7491844</v>
+        <v>7491847</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7291,43 +7297,43 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>3</v>
       </c>
       <c r="O32" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q32">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="R32">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S32">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T32">
         <v>1.33</v>
@@ -7348,16 +7354,16 @@
         <v>1.11</v>
       </c>
       <c r="Z32">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="AA32">
         <v>3.4</v>
       </c>
       <c r="AB32">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="AC32">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD32">
         <v>13</v>
@@ -7369,25 +7375,25 @@
         <v>4.2</v>
       </c>
       <c r="AG32">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AH32">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AI32">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AJ32">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AK32">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="AL32">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AM32">
-        <v>1.47</v>
+        <v>1.78</v>
       </c>
       <c r="AN32">
         <v>3</v>
@@ -7396,85 +7402,85 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AR32">
-        <v>1.69</v>
+        <v>1.36</v>
       </c>
       <c r="AS32">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="AT32">
-        <v>2.72</v>
+        <v>2.44</v>
       </c>
       <c r="AU32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW32">
+        <v>4</v>
+      </c>
+      <c r="AX32">
+        <v>2</v>
+      </c>
+      <c r="AY32">
+        <v>13</v>
+      </c>
+      <c r="AZ32">
+        <v>8</v>
+      </c>
+      <c r="BA32">
         <v>5</v>
       </c>
-      <c r="AX32">
-        <v>6</v>
-      </c>
-      <c r="AY32">
-        <v>8</v>
-      </c>
-      <c r="AZ32">
-        <v>16</v>
-      </c>
-      <c r="BA32">
-        <v>3</v>
-      </c>
       <c r="BB32">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BC32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD32">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="BE32">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF32">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="BG32">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BH32">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="BI32">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="BJ32">
-        <v>2.33</v>
+        <v>2.55</v>
       </c>
       <c r="BK32">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="BL32">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="BM32">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="BN32">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="BO32">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="BP32">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="33" spans="1:68">
@@ -7482,7 +7488,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>7491845</v>
+        <v>7491848</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -7497,88 +7503,88 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O33" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q33">
+        <v>2.5</v>
+      </c>
+      <c r="R33">
+        <v>2.38</v>
+      </c>
+      <c r="S33">
+        <v>3.75</v>
+      </c>
+      <c r="T33">
+        <v>1.29</v>
+      </c>
+      <c r="U33">
+        <v>3.5</v>
+      </c>
+      <c r="V33">
+        <v>2.38</v>
+      </c>
+      <c r="W33">
+        <v>1.53</v>
+      </c>
+      <c r="X33">
         <v>5.5</v>
       </c>
-      <c r="R33">
-        <v>2.75</v>
-      </c>
-      <c r="S33">
-        <v>1.83</v>
-      </c>
-      <c r="T33">
-        <v>1.2</v>
-      </c>
-      <c r="U33">
-        <v>4.33</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
-      <c r="W33">
-        <v>1.73</v>
-      </c>
-      <c r="X33">
-        <v>4</v>
-      </c>
       <c r="Y33">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="Z33">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="AA33">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="AB33">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="AC33">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD33">
-        <v>15</v>
+        <v>17.25</v>
       </c>
       <c r="AE33">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="AF33">
-        <v>5.75</v>
+        <v>4.83</v>
       </c>
       <c r="AG33">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="AH33">
-        <v>3.09</v>
+        <v>2.2</v>
       </c>
       <c r="AI33">
         <v>1.53</v>
@@ -7587,100 +7593,100 @@
         <v>2.38</v>
       </c>
       <c r="AK33">
-        <v>2.98</v>
+        <v>1.32</v>
       </c>
       <c r="AL33">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AM33">
-        <v>1.12</v>
+        <v>1.86</v>
       </c>
       <c r="AN33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP33">
         <v>0.33</v>
       </c>
       <c r="AQ33">
-        <v>2.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR33">
-        <v>0.65</v>
+        <v>1.57</v>
       </c>
       <c r="AS33">
-        <v>2.21</v>
+        <v>1.61</v>
       </c>
       <c r="AT33">
-        <v>2.86</v>
+        <v>3.18</v>
       </c>
       <c r="AU33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV33">
+        <v>5</v>
+      </c>
+      <c r="AW33">
+        <v>7</v>
+      </c>
+      <c r="AX33">
         <v>8</v>
       </c>
-      <c r="AW33">
-        <v>0</v>
-      </c>
-      <c r="AX33">
+      <c r="AY33">
+        <v>15</v>
+      </c>
+      <c r="AZ33">
+        <v>15</v>
+      </c>
+      <c r="BA33">
+        <v>2</v>
+      </c>
+      <c r="BB33">
         <v>5</v>
       </c>
-      <c r="AY33">
-        <v>0</v>
-      </c>
-      <c r="AZ33">
-        <v>26</v>
-      </c>
-      <c r="BA33">
-        <v>1</v>
-      </c>
-      <c r="BB33">
-        <v>4</v>
-      </c>
       <c r="BC33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD33">
-        <v>3.9</v>
+        <v>1.54</v>
       </c>
       <c r="BE33">
         <v>7</v>
       </c>
       <c r="BF33">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="BG33">
+        <v>1.19</v>
+      </c>
+      <c r="BH33">
+        <v>4.1</v>
+      </c>
+      <c r="BI33">
         <v>1.32</v>
       </c>
-      <c r="BH33">
-        <v>3</v>
-      </c>
-      <c r="BI33">
-        <v>1.56</v>
-      </c>
       <c r="BJ33">
-        <v>2.23</v>
+        <v>3</v>
       </c>
       <c r="BK33">
-        <v>1.91</v>
+        <v>1.54</v>
       </c>
       <c r="BL33">
-        <v>1.77</v>
+        <v>2.3</v>
       </c>
       <c r="BM33">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="BN33">
-        <v>1.49</v>
+        <v>1.83</v>
       </c>
       <c r="BO33">
-        <v>3.15</v>
+        <v>2.28</v>
       </c>
       <c r="BP33">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="34" spans="1:68">
@@ -7703,7 +7709,7 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s">
         <v>70</v>
@@ -7936,7 +7942,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8142,7 +8148,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8554,7 +8560,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -8718,7 +8724,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7491856</v>
+        <v>7491857</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8733,49 +8739,49 @@
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>1</v>
       </c>
-      <c r="K39">
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
         <v>1</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>2</v>
-      </c>
-      <c r="N39">
-        <v>2</v>
-      </c>
       <c r="O39" t="s">
+        <v>117</v>
+      </c>
+      <c r="P39" t="s">
         <v>96</v>
       </c>
-      <c r="P39" t="s">
-        <v>156</v>
-      </c>
       <c r="Q39">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="R39">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S39">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T39">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U39">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V39">
         <v>2.63</v>
@@ -8784,37 +8790,37 @@
         <v>1.44</v>
       </c>
       <c r="X39">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y39">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z39">
-        <v>1.65</v>
+        <v>2.19</v>
       </c>
       <c r="AA39">
-        <v>4</v>
+        <v>3.48</v>
       </c>
       <c r="AB39">
-        <v>4.5</v>
+        <v>2.98</v>
       </c>
       <c r="AC39">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD39">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AE39">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AF39">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AG39">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AH39">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="AI39">
         <v>1.67</v>
@@ -8823,40 +8829,40 @@
         <v>2.1</v>
       </c>
       <c r="AK39">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="AL39">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AM39">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="AN39">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AR39">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="AS39">
-        <v>0.96</v>
+        <v>1.26</v>
       </c>
       <c r="AT39">
-        <v>2.44</v>
+        <v>2.82</v>
       </c>
       <c r="AU39">
         <v>3</v>
       </c>
       <c r="AV39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW39">
         <v>3</v>
@@ -8865,58 +8871,58 @@
         <v>6</v>
       </c>
       <c r="AY39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ39">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA39">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB39">
+        <v>4</v>
+      </c>
+      <c r="BC39">
         <v>6</v>
       </c>
-      <c r="BC39">
-        <v>13</v>
-      </c>
       <c r="BD39">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="BE39">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF39">
-        <v>3.05</v>
+        <v>2.43</v>
       </c>
       <c r="BG39">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="BH39">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="BI39">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="BJ39">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="BK39">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="BL39">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="BM39">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="BN39">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="BO39">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BP39">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -8924,7 +8930,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7491857</v>
+        <v>7491856</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -8939,49 +8945,49 @@
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O40" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="Q40">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="R40">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S40">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T40">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V40">
         <v>2.63</v>
@@ -8990,37 +8996,37 @@
         <v>1.44</v>
       </c>
       <c r="X40">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y40">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z40">
-        <v>2.19</v>
+        <v>1.65</v>
       </c>
       <c r="AA40">
-        <v>3.48</v>
+        <v>4</v>
       </c>
       <c r="AB40">
-        <v>2.98</v>
+        <v>4.5</v>
       </c>
       <c r="AC40">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD40">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AE40">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AF40">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AG40">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AH40">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="AI40">
         <v>1.67</v>
@@ -9029,40 +9035,40 @@
         <v>2.1</v>
       </c>
       <c r="AK40">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="AL40">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AM40">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="AN40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO40">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AR40">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="AS40">
-        <v>1.26</v>
+        <v>0.96</v>
       </c>
       <c r="AT40">
-        <v>2.82</v>
+        <v>2.44</v>
       </c>
       <c r="AU40">
         <v>3</v>
       </c>
       <c r="AV40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW40">
         <v>3</v>
@@ -9071,58 +9077,58 @@
         <v>6</v>
       </c>
       <c r="AY40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ40">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA40">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC40">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD40">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="BE40">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="BF40">
-        <v>2.43</v>
+        <v>3.05</v>
       </c>
       <c r="BG40">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="BH40">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="BI40">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="BJ40">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="BK40">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="BL40">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="BM40">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="BN40">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="BO40">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BP40">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9172,7 +9178,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9336,7 +9342,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7491851</v>
+        <v>7491854</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9351,190 +9357,190 @@
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K42">
         <v>2</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O42" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="Q42">
+        <v>2.2</v>
+      </c>
+      <c r="R42">
+        <v>2.3</v>
+      </c>
+      <c r="S42">
+        <v>5.5</v>
+      </c>
+      <c r="T42">
+        <v>1.36</v>
+      </c>
+      <c r="U42">
+        <v>3</v>
+      </c>
+      <c r="V42">
+        <v>2.63</v>
+      </c>
+      <c r="W42">
+        <v>1.44</v>
+      </c>
+      <c r="X42">
+        <v>7</v>
+      </c>
+      <c r="Y42">
+        <v>1.1</v>
+      </c>
+      <c r="Z42">
         <v>1.83</v>
       </c>
-      <c r="R42">
-        <v>2.75</v>
-      </c>
-      <c r="S42">
-        <v>6</v>
-      </c>
-      <c r="T42">
-        <v>1.22</v>
-      </c>
-      <c r="U42">
-        <v>4</v>
-      </c>
-      <c r="V42">
-        <v>2.1</v>
-      </c>
-      <c r="W42">
-        <v>1.67</v>
-      </c>
-      <c r="X42">
-        <v>4.5</v>
-      </c>
-      <c r="Y42">
-        <v>1.18</v>
-      </c>
-      <c r="Z42">
-        <v>1.4</v>
-      </c>
       <c r="AA42">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AB42">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="AC42">
         <v>1.01</v>
       </c>
       <c r="AD42">
-        <v>26</v>
+        <v>9.4</v>
       </c>
       <c r="AE42">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="AF42">
-        <v>5.3</v>
+        <v>3.52</v>
       </c>
       <c r="AG42">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="AH42">
-        <v>2.78</v>
+        <v>2.23</v>
       </c>
       <c r="AI42">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AJ42">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AK42">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AL42">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="AM42">
-        <v>2.95</v>
+        <v>2.15</v>
       </c>
       <c r="AN42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO42">
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
-        <v>1.14</v>
+        <v>1.82</v>
       </c>
       <c r="AS42">
-        <v>1.49</v>
+        <v>0.97</v>
       </c>
       <c r="AT42">
-        <v>2.63</v>
+        <v>2.79</v>
       </c>
       <c r="AU42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY42">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AZ42">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC42">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD42">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="BE42">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="BF42">
-        <v>4.1</v>
+        <v>2.55</v>
       </c>
       <c r="BG42">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="BH42">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="BI42">
+        <v>1.47</v>
+      </c>
+      <c r="BJ42">
+        <v>2.4</v>
+      </c>
+      <c r="BK42">
+        <v>2</v>
+      </c>
+      <c r="BL42">
+        <v>1.8</v>
+      </c>
+      <c r="BM42">
+        <v>2.23</v>
+      </c>
+      <c r="BN42">
+        <v>1.58</v>
+      </c>
+      <c r="BO42">
+        <v>2.8</v>
+      </c>
+      <c r="BP42">
         <v>1.36</v>
-      </c>
-      <c r="BJ42">
-        <v>2.8</v>
-      </c>
-      <c r="BK42">
-        <v>1.58</v>
-      </c>
-      <c r="BL42">
-        <v>2.18</v>
-      </c>
-      <c r="BM42">
-        <v>1.94</v>
-      </c>
-      <c r="BN42">
-        <v>1.76</v>
-      </c>
-      <c r="BO42">
-        <v>2.4</v>
-      </c>
-      <c r="BP42">
-        <v>1.49</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9542,7 +9548,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7491854</v>
+        <v>7491851</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9557,190 +9563,190 @@
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H43" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>2</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O43" t="s">
+        <v>119</v>
+      </c>
+      <c r="P43" t="s">
         <v>96</v>
       </c>
-      <c r="P43" t="s">
-        <v>158</v>
-      </c>
       <c r="Q43">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="R43">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="S43">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T43">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="U43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V43">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="W43">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="X43">
+        <v>4.5</v>
+      </c>
+      <c r="Y43">
+        <v>1.18</v>
+      </c>
+      <c r="Z43">
+        <v>1.4</v>
+      </c>
+      <c r="AA43">
+        <v>4.5</v>
+      </c>
+      <c r="AB43">
         <v>7</v>
-      </c>
-      <c r="Y43">
-        <v>1.1</v>
-      </c>
-      <c r="Z43">
-        <v>1.83</v>
-      </c>
-      <c r="AA43">
-        <v>3.75</v>
-      </c>
-      <c r="AB43">
-        <v>3.75</v>
       </c>
       <c r="AC43">
         <v>1.01</v>
       </c>
       <c r="AD43">
-        <v>9.4</v>
+        <v>26</v>
       </c>
       <c r="AE43">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="AF43">
-        <v>3.52</v>
+        <v>5.3</v>
       </c>
       <c r="AG43">
+        <v>1.41</v>
+      </c>
+      <c r="AH43">
+        <v>2.78</v>
+      </c>
+      <c r="AI43">
+        <v>1.62</v>
+      </c>
+      <c r="AJ43">
+        <v>2.2</v>
+      </c>
+      <c r="AK43">
+        <v>1.1</v>
+      </c>
+      <c r="AL43">
+        <v>1.12</v>
+      </c>
+      <c r="AM43">
+        <v>2.95</v>
+      </c>
+      <c r="AN43">
+        <v>2</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>2.33</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>1.14</v>
+      </c>
+      <c r="AS43">
+        <v>1.49</v>
+      </c>
+      <c r="AT43">
+        <v>2.63</v>
+      </c>
+      <c r="AU43">
+        <v>8</v>
+      </c>
+      <c r="AV43">
+        <v>2</v>
+      </c>
+      <c r="AW43">
+        <v>5</v>
+      </c>
+      <c r="AX43">
+        <v>3</v>
+      </c>
+      <c r="AY43">
+        <v>19</v>
+      </c>
+      <c r="AZ43">
+        <v>8</v>
+      </c>
+      <c r="BA43">
+        <v>8</v>
+      </c>
+      <c r="BB43">
+        <v>5</v>
+      </c>
+      <c r="BC43">
+        <v>13</v>
+      </c>
+      <c r="BD43">
+        <v>1.26</v>
+      </c>
+      <c r="BE43">
+        <v>8</v>
+      </c>
+      <c r="BF43">
+        <v>4.1</v>
+      </c>
+      <c r="BG43">
+        <v>1.2</v>
+      </c>
+      <c r="BH43">
+        <v>3.9</v>
+      </c>
+      <c r="BI43">
+        <v>1.36</v>
+      </c>
+      <c r="BJ43">
+        <v>2.8</v>
+      </c>
+      <c r="BK43">
         <v>1.58</v>
       </c>
-      <c r="AH43">
-        <v>2.23</v>
-      </c>
-      <c r="AI43">
-        <v>1.8</v>
-      </c>
-      <c r="AJ43">
-        <v>1.95</v>
-      </c>
-      <c r="AK43">
-        <v>1.2</v>
-      </c>
-      <c r="AL43">
-        <v>1.27</v>
-      </c>
-      <c r="AM43">
-        <v>2.15</v>
-      </c>
-      <c r="AN43">
-        <v>3</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>2</v>
-      </c>
-      <c r="AQ43">
-        <v>1</v>
-      </c>
-      <c r="AR43">
-        <v>1.82</v>
-      </c>
-      <c r="AS43">
-        <v>0.97</v>
-      </c>
-      <c r="AT43">
-        <v>2.79</v>
-      </c>
-      <c r="AU43">
-        <v>4</v>
-      </c>
-      <c r="AV43">
-        <v>5</v>
-      </c>
-      <c r="AW43">
-        <v>6</v>
-      </c>
-      <c r="AX43">
-        <v>4</v>
-      </c>
-      <c r="AY43">
-        <v>11</v>
-      </c>
-      <c r="AZ43">
-        <v>11</v>
-      </c>
-      <c r="BA43">
-        <v>4</v>
-      </c>
-      <c r="BB43">
-        <v>2</v>
-      </c>
-      <c r="BC43">
-        <v>6</v>
-      </c>
-      <c r="BD43">
-        <v>1.63</v>
-      </c>
-      <c r="BE43">
-        <v>6.75</v>
-      </c>
-      <c r="BF43">
-        <v>2.55</v>
-      </c>
-      <c r="BG43">
-        <v>1.27</v>
-      </c>
-      <c r="BH43">
-        <v>3.3</v>
-      </c>
-      <c r="BI43">
-        <v>1.47</v>
-      </c>
-      <c r="BJ43">
+      <c r="BL43">
+        <v>2.18</v>
+      </c>
+      <c r="BM43">
+        <v>1.94</v>
+      </c>
+      <c r="BN43">
+        <v>1.76</v>
+      </c>
+      <c r="BO43">
         <v>2.4</v>
       </c>
-      <c r="BK43">
-        <v>2</v>
-      </c>
-      <c r="BL43">
-        <v>1.8</v>
-      </c>
-      <c r="BM43">
-        <v>2.23</v>
-      </c>
-      <c r="BN43">
-        <v>1.58</v>
-      </c>
-      <c r="BO43">
-        <v>2.8</v>
-      </c>
       <c r="BP43">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -9790,7 +9796,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -9969,10 +9975,10 @@
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -9996,7 +10002,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10178,7 +10184,7 @@
         <v>72</v>
       </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I46">
         <v>3</v>
@@ -10202,7 +10208,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10590,7 +10596,7 @@
         <v>85</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -10614,7 +10620,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -10793,7 +10799,7 @@
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s">
         <v>73</v>
@@ -10820,7 +10826,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11026,7 +11032,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11232,7 +11238,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11438,7 +11444,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11823,7 +11829,7 @@
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s">
         <v>87</v>
@@ -11850,7 +11856,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12056,7 +12062,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12213,6 +12219,212 @@
       </c>
       <c r="BP55">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7491870</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45583.64583333334</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s">
+        <v>78</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>129</v>
+      </c>
+      <c r="P56" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q56">
+        <v>1.67</v>
+      </c>
+      <c r="R56">
+        <v>2.88</v>
+      </c>
+      <c r="S56">
+        <v>7.5</v>
+      </c>
+      <c r="T56">
+        <v>1.22</v>
+      </c>
+      <c r="U56">
+        <v>4</v>
+      </c>
+      <c r="V56">
+        <v>2</v>
+      </c>
+      <c r="W56">
+        <v>1.73</v>
+      </c>
+      <c r="X56">
+        <v>4.33</v>
+      </c>
+      <c r="Y56">
+        <v>1.2</v>
+      </c>
+      <c r="Z56">
+        <v>1.3</v>
+      </c>
+      <c r="AA56">
+        <v>5.25</v>
+      </c>
+      <c r="AB56">
+        <v>9.5</v>
+      </c>
+      <c r="AC56">
+        <v>1.01</v>
+      </c>
+      <c r="AD56">
+        <v>26</v>
+      </c>
+      <c r="AE56">
+        <v>1.13</v>
+      </c>
+      <c r="AF56">
+        <v>6</v>
+      </c>
+      <c r="AG56">
+        <v>1.45</v>
+      </c>
+      <c r="AH56">
+        <v>2.7</v>
+      </c>
+      <c r="AI56">
+        <v>1.75</v>
+      </c>
+      <c r="AJ56">
+        <v>2</v>
+      </c>
+      <c r="AK56">
+        <v>1.03</v>
+      </c>
+      <c r="AL56">
+        <v>1.1</v>
+      </c>
+      <c r="AM56">
+        <v>3.75</v>
+      </c>
+      <c r="AN56">
+        <v>3</v>
+      </c>
+      <c r="AO56">
+        <v>1</v>
+      </c>
+      <c r="AP56">
+        <v>3</v>
+      </c>
+      <c r="AQ56">
+        <v>0.75</v>
+      </c>
+      <c r="AR56">
+        <v>1.91</v>
+      </c>
+      <c r="AS56">
+        <v>1.01</v>
+      </c>
+      <c r="AT56">
+        <v>2.92</v>
+      </c>
+      <c r="AU56">
+        <v>8</v>
+      </c>
+      <c r="AV56">
+        <v>4</v>
+      </c>
+      <c r="AW56">
+        <v>9</v>
+      </c>
+      <c r="AX56">
+        <v>2</v>
+      </c>
+      <c r="AY56">
+        <v>21</v>
+      </c>
+      <c r="AZ56">
+        <v>11</v>
+      </c>
+      <c r="BA56">
+        <v>7</v>
+      </c>
+      <c r="BB56">
+        <v>1</v>
+      </c>
+      <c r="BC56">
+        <v>8</v>
+      </c>
+      <c r="BD56">
+        <v>1.27</v>
+      </c>
+      <c r="BE56">
+        <v>7.5</v>
+      </c>
+      <c r="BF56">
+        <v>4.1</v>
+      </c>
+      <c r="BG56">
+        <v>1.28</v>
+      </c>
+      <c r="BH56">
+        <v>3.3</v>
+      </c>
+      <c r="BI56">
+        <v>1.48</v>
+      </c>
+      <c r="BJ56">
+        <v>2.43</v>
+      </c>
+      <c r="BK56">
+        <v>1.79</v>
+      </c>
+      <c r="BL56">
+        <v>1.9</v>
+      </c>
+      <c r="BM56">
+        <v>2.23</v>
+      </c>
+      <c r="BN56">
+        <v>1.57</v>
+      </c>
+      <c r="BO56">
+        <v>2.88</v>
+      </c>
+      <c r="BP56">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -259,18 +259,18 @@
     <t>Stuttgart</t>
   </si>
   <si>
+    <t>Eintracht Frankfurt</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
     <t>Holstein Kiel</t>
   </si>
   <si>
-    <t>Eintracht Frankfurt</t>
-  </si>
-  <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
     <t>Bayer Leverkusen</t>
   </si>
   <si>
@@ -349,12 +349,12 @@
     <t>['25', '57']</t>
   </si>
   <si>
+    <t>['22', '35']</t>
+  </si>
+  <si>
     <t>['4', '6']</t>
   </si>
   <si>
-    <t>['22', '35']</t>
-  </si>
-  <si>
     <t>['30', '80']</t>
   </si>
   <si>
@@ -430,15 +430,15 @@
     <t>['43', '62', '90+4']</t>
   </si>
   <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['67', '78']</t>
+  </si>
+  <si>
     <t>['27', '30']</t>
   </si>
   <si>
-    <t>['54']</t>
-  </si>
-  <si>
-    <t>['67', '78']</t>
-  </si>
-  <si>
     <t>['45+7', '57', '80']</t>
   </si>
   <si>
@@ -466,16 +466,16 @@
     <t>['13', '15', '49']</t>
   </si>
   <si>
+    <t>['15', '89']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['54', '59', '65']</t>
   </si>
   <si>
     <t>['23', '32', '57', '60', '65']</t>
-  </si>
-  <si>
-    <t>['67']</t>
-  </si>
-  <si>
-    <t>['15', '89']</t>
   </si>
   <si>
     <t>['5', '37', '45+1']</t>
@@ -1532,7 +1532,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1944,7 +1944,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -2356,7 +2356,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7491831</v>
+        <v>7491826</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3386,100 +3386,100 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P13" t="s">
         <v>138</v>
       </c>
       <c r="Q13">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="R13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S13">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="T13">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U13">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V13">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="W13">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="X13">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Y13">
+        <v>1.17</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AA13">
+        <v>3.75</v>
+      </c>
+      <c r="AB13">
+        <v>3.4</v>
+      </c>
+      <c r="AC13">
+        <v>1.02</v>
+      </c>
+      <c r="AD13">
+        <v>21</v>
+      </c>
+      <c r="AE13">
         <v>1.11</v>
       </c>
-      <c r="Z13">
-        <v>3</v>
-      </c>
-      <c r="AA13">
-        <v>3.5</v>
-      </c>
-      <c r="AB13">
-        <v>2.25</v>
-      </c>
-      <c r="AC13">
-        <v>1.04</v>
-      </c>
-      <c r="AD13">
-        <v>14.75</v>
-      </c>
-      <c r="AE13">
-        <v>1.23</v>
-      </c>
       <c r="AF13">
-        <v>4.2</v>
+        <v>5.15</v>
       </c>
       <c r="AG13">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="AH13">
-        <v>1.97</v>
+        <v>2.29</v>
       </c>
       <c r="AI13">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AJ13">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AK13">
-        <v>1.7</v>
+        <v>1.27</v>
       </c>
       <c r="AL13">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AM13">
-        <v>1.36</v>
+        <v>2.02</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -3488,10 +3488,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3503,70 +3503,70 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX13">
         <v>4</v>
       </c>
       <c r="AY13">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA13">
         <v>1</v>
       </c>
       <c r="BB13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BD13">
-        <v>1.98</v>
+        <v>1.45</v>
       </c>
       <c r="BE13">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF13">
-        <v>1.98</v>
+        <v>3.05</v>
       </c>
       <c r="BG13">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="BH13">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="BI13">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="BJ13">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="BK13">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="BL13">
         <v>2</v>
       </c>
       <c r="BM13">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="BN13">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="BO13">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BP13">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3574,7 +3574,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7491826</v>
+        <v>7491828</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3592,100 +3592,100 @@
         <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q14">
         <v>4</v>
-      </c>
-      <c r="O14" t="s">
-        <v>99</v>
-      </c>
-      <c r="P14" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q14">
-        <v>2.3</v>
       </c>
       <c r="R14">
         <v>2.5</v>
       </c>
       <c r="S14">
+        <v>2.3</v>
+      </c>
+      <c r="T14">
+        <v>1.22</v>
+      </c>
+      <c r="U14">
         <v>4</v>
       </c>
-      <c r="T14">
-        <v>1.25</v>
-      </c>
-      <c r="U14">
-        <v>3.75</v>
-      </c>
       <c r="V14">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W14">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X14">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Y14">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Z14">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="AA14">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="AB14">
-        <v>3.4</v>
+        <v>1.78</v>
       </c>
       <c r="AC14">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD14">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE14">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AF14">
-        <v>5.15</v>
+        <v>5.5</v>
       </c>
       <c r="AG14">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="AH14">
-        <v>2.29</v>
+        <v>2.7</v>
       </c>
       <c r="AI14">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AJ14">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AK14">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="AL14">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM14">
-        <v>2.02</v>
+        <v>1.28</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>0.33</v>
       </c>
       <c r="AQ14">
         <v>0.33</v>
@@ -3709,70 +3709,70 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AX14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY14">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AZ14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC14">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BD14">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="BE14">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF14">
-        <v>3.05</v>
+        <v>1.6</v>
       </c>
       <c r="BG14">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BH14">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BI14">
         <v>1.48</v>
       </c>
       <c r="BJ14">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="BK14">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="BL14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BM14">
-        <v>2.18</v>
+        <v>2.23</v>
       </c>
       <c r="BN14">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="BO14">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="BP14">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3822,7 +3822,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3986,7 +3986,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7491828</v>
+        <v>7491831</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -4004,187 +4004,187 @@
         <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16" t="s">
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="Q16">
+        <v>3.6</v>
+      </c>
+      <c r="R16">
+        <v>2.25</v>
+      </c>
+      <c r="S16">
+        <v>2.75</v>
+      </c>
+      <c r="T16">
+        <v>1.33</v>
+      </c>
+      <c r="U16">
+        <v>3.25</v>
+      </c>
+      <c r="V16">
+        <v>2.63</v>
+      </c>
+      <c r="W16">
+        <v>1.44</v>
+      </c>
+      <c r="X16">
+        <v>6.5</v>
+      </c>
+      <c r="Y16">
+        <v>1.11</v>
+      </c>
+      <c r="Z16">
+        <v>3</v>
+      </c>
+      <c r="AA16">
+        <v>3.5</v>
+      </c>
+      <c r="AB16">
+        <v>2.25</v>
+      </c>
+      <c r="AC16">
+        <v>1.04</v>
+      </c>
+      <c r="AD16">
+        <v>14.75</v>
+      </c>
+      <c r="AE16">
+        <v>1.23</v>
+      </c>
+      <c r="AF16">
+        <v>4.2</v>
+      </c>
+      <c r="AG16">
+        <v>1.77</v>
+      </c>
+      <c r="AH16">
+        <v>1.97</v>
+      </c>
+      <c r="AI16">
+        <v>1.62</v>
+      </c>
+      <c r="AJ16">
+        <v>2.2</v>
+      </c>
+      <c r="AK16">
+        <v>1.7</v>
+      </c>
+      <c r="AL16">
+        <v>1.29</v>
+      </c>
+      <c r="AM16">
+        <v>1.36</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>2</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>6</v>
+      </c>
+      <c r="AV16">
+        <v>6</v>
+      </c>
+      <c r="AW16">
+        <v>6</v>
+      </c>
+      <c r="AX16">
         <v>4</v>
       </c>
-      <c r="R16">
-        <v>2.5</v>
-      </c>
-      <c r="S16">
-        <v>2.3</v>
-      </c>
-      <c r="T16">
-        <v>1.22</v>
-      </c>
-      <c r="U16">
-        <v>4</v>
-      </c>
-      <c r="V16">
-        <v>2.1</v>
-      </c>
-      <c r="W16">
-        <v>1.67</v>
-      </c>
-      <c r="X16">
-        <v>4.5</v>
-      </c>
-      <c r="Y16">
-        <v>1.18</v>
-      </c>
-      <c r="Z16">
-        <v>3.9</v>
-      </c>
-      <c r="AA16">
-        <v>4.1</v>
-      </c>
-      <c r="AB16">
-        <v>1.78</v>
-      </c>
-      <c r="AC16">
-        <v>1.01</v>
-      </c>
-      <c r="AD16">
-        <v>23</v>
-      </c>
-      <c r="AE16">
-        <v>1.1</v>
-      </c>
-      <c r="AF16">
-        <v>5.5</v>
-      </c>
-      <c r="AG16">
-        <v>1.45</v>
-      </c>
-      <c r="AH16">
-        <v>2.7</v>
-      </c>
-      <c r="AI16">
-        <v>1.44</v>
-      </c>
-      <c r="AJ16">
-        <v>2.63</v>
-      </c>
-      <c r="AK16">
-        <v>2</v>
-      </c>
-      <c r="AL16">
-        <v>1.2</v>
-      </c>
-      <c r="AM16">
-        <v>1.28</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0.33</v>
-      </c>
-      <c r="AQ16">
-        <v>0.33</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>2</v>
-      </c>
-      <c r="AV16">
-        <v>5</v>
-      </c>
-      <c r="AW16">
-        <v>0</v>
-      </c>
-      <c r="AX16">
-        <v>3</v>
-      </c>
       <c r="AY16">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AZ16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC16">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD16">
-        <v>2.55</v>
+        <v>1.98</v>
       </c>
       <c r="BE16">
         <v>6.5</v>
       </c>
       <c r="BF16">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="BG16">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="BH16">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="BI16">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="BJ16">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="BK16">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="BL16">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BM16">
-        <v>2.23</v>
+        <v>2.08</v>
       </c>
       <c r="BN16">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="BO16">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="BP16">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -5016,7 +5016,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7491832</v>
+        <v>7491834</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -5031,190 +5031,190 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O21" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="Q21">
+        <v>4.75</v>
+      </c>
+      <c r="R21">
+        <v>2.75</v>
+      </c>
+      <c r="S21">
         <v>1.95</v>
       </c>
-      <c r="R21">
-        <v>2.5</v>
-      </c>
-      <c r="S21">
-        <v>6</v>
-      </c>
       <c r="T21">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="U21">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="V21">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="W21">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="X21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y21">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="Z21">
-        <v>1.47</v>
+        <v>5.25</v>
       </c>
       <c r="AA21">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="AB21">
-        <v>6.25</v>
+        <v>1.53</v>
       </c>
       <c r="AC21">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD21">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AE21">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="AF21">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="AG21">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="AH21">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="AI21">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="AJ21">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="AK21">
-        <v>1.09</v>
+        <v>2.45</v>
       </c>
       <c r="AL21">
         <v>1.15</v>
       </c>
       <c r="AM21">
-        <v>2.85</v>
+        <v>1.18</v>
       </c>
       <c r="AN21">
         <v>3</v>
       </c>
       <c r="AO21">
+        <v>3</v>
+      </c>
+      <c r="AP21">
         <v>1</v>
       </c>
-      <c r="AP21">
+      <c r="AQ21">
         <v>2.33</v>
       </c>
-      <c r="AQ21">
-        <v>0.67</v>
-      </c>
       <c r="AR21">
-        <v>1.16</v>
+        <v>2.26</v>
       </c>
       <c r="AS21">
-        <v>1.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT21">
-        <v>2.7</v>
+        <v>4.69</v>
       </c>
       <c r="AU21">
+        <v>6</v>
+      </c>
+      <c r="AV21">
+        <v>9</v>
+      </c>
+      <c r="AW21">
         <v>4</v>
       </c>
-      <c r="AV21">
+      <c r="AX21">
+        <v>6</v>
+      </c>
+      <c r="AY21">
+        <v>16</v>
+      </c>
+      <c r="AZ21">
+        <v>21</v>
+      </c>
+      <c r="BA21">
         <v>4</v>
       </c>
-      <c r="AW21">
-        <v>5</v>
-      </c>
-      <c r="AX21">
-        <v>4</v>
-      </c>
-      <c r="AY21">
-        <v>15</v>
-      </c>
-      <c r="AZ21">
-        <v>11</v>
-      </c>
-      <c r="BA21">
-        <v>6</v>
-      </c>
       <c r="BB21">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BC21">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BD21">
-        <v>1.28</v>
+        <v>3.3</v>
       </c>
       <c r="BE21">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BF21">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="BG21">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="BH21">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="BI21">
+        <v>1.37</v>
+      </c>
+      <c r="BJ21">
+        <v>2.8</v>
+      </c>
+      <c r="BK21">
+        <v>1.6</v>
+      </c>
+      <c r="BL21">
+        <v>2.17</v>
+      </c>
+      <c r="BM21">
+        <v>1.96</v>
+      </c>
+      <c r="BN21">
+        <v>1.74</v>
+      </c>
+      <c r="BO21">
+        <v>2.43</v>
+      </c>
+      <c r="BP21">
         <v>1.48</v>
-      </c>
-      <c r="BJ21">
-        <v>2.43</v>
-      </c>
-      <c r="BK21">
-        <v>1.79</v>
-      </c>
-      <c r="BL21">
-        <v>1.9</v>
-      </c>
-      <c r="BM21">
-        <v>2.23</v>
-      </c>
-      <c r="BN21">
-        <v>1.57</v>
-      </c>
-      <c r="BO21">
-        <v>2.85</v>
-      </c>
-      <c r="BP21">
-        <v>1.36</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5222,7 +5222,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7491834</v>
+        <v>7491835</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5237,190 +5237,190 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
         <v>1</v>
       </c>
-      <c r="M22">
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q22">
+        <v>2.25</v>
+      </c>
+      <c r="R22">
+        <v>2.38</v>
+      </c>
+      <c r="S22">
+        <v>4.5</v>
+      </c>
+      <c r="T22">
+        <v>1.3</v>
+      </c>
+      <c r="U22">
+        <v>3.4</v>
+      </c>
+      <c r="V22">
+        <v>2.5</v>
+      </c>
+      <c r="W22">
+        <v>1.5</v>
+      </c>
+      <c r="X22">
+        <v>6</v>
+      </c>
+      <c r="Y22">
+        <v>1.13</v>
+      </c>
+      <c r="Z22">
+        <v>1.7</v>
+      </c>
+      <c r="AA22">
         <v>4</v>
       </c>
-      <c r="N22">
-        <v>5</v>
-      </c>
-      <c r="O22" t="s">
-        <v>104</v>
-      </c>
-      <c r="P22" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q22">
-        <v>4.75</v>
-      </c>
-      <c r="R22">
-        <v>2.75</v>
-      </c>
-      <c r="S22">
-        <v>1.95</v>
-      </c>
-      <c r="T22">
-        <v>1.18</v>
-      </c>
-      <c r="U22">
-        <v>4.5</v>
-      </c>
-      <c r="V22">
-        <v>1.83</v>
-      </c>
-      <c r="W22">
-        <v>1.83</v>
-      </c>
-      <c r="X22">
+      <c r="AB22">
+        <v>4.6</v>
+      </c>
+      <c r="AC22">
+        <v>1.03</v>
+      </c>
+      <c r="AD22">
+        <v>15</v>
+      </c>
+      <c r="AE22">
+        <v>1.22</v>
+      </c>
+      <c r="AF22">
+        <v>4.33</v>
+      </c>
+      <c r="AG22">
+        <v>1.62</v>
+      </c>
+      <c r="AH22">
+        <v>2.25</v>
+      </c>
+      <c r="AI22">
+        <v>1.67</v>
+      </c>
+      <c r="AJ22">
+        <v>2.1</v>
+      </c>
+      <c r="AK22">
+        <v>1.2</v>
+      </c>
+      <c r="AL22">
+        <v>1.2</v>
+      </c>
+      <c r="AM22">
+        <v>2.15</v>
+      </c>
+      <c r="AN22">
+        <v>3</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>2</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>1.5</v>
+      </c>
+      <c r="AS22">
+        <v>0.87</v>
+      </c>
+      <c r="AT22">
+        <v>2.37</v>
+      </c>
+      <c r="AU22">
+        <v>10</v>
+      </c>
+      <c r="AV22">
         <v>4</v>
       </c>
-      <c r="Y22">
-        <v>1.22</v>
-      </c>
-      <c r="Z22">
-        <v>5.25</v>
-      </c>
-      <c r="AA22">
-        <v>5</v>
-      </c>
-      <c r="AB22">
-        <v>1.53</v>
-      </c>
-      <c r="AC22">
-        <v>1.01</v>
-      </c>
-      <c r="AD22">
-        <v>34</v>
-      </c>
-      <c r="AE22">
-        <v>1.09</v>
-      </c>
-      <c r="AF22">
-        <v>7.5</v>
-      </c>
-      <c r="AG22">
-        <v>1.45</v>
-      </c>
-      <c r="AH22">
-        <v>2.7</v>
-      </c>
-      <c r="AI22">
-        <v>1.44</v>
-      </c>
-      <c r="AJ22">
-        <v>2.63</v>
-      </c>
-      <c r="AK22">
-        <v>2.45</v>
-      </c>
-      <c r="AL22">
-        <v>1.15</v>
-      </c>
-      <c r="AM22">
-        <v>1.18</v>
-      </c>
-      <c r="AN22">
-        <v>3</v>
-      </c>
-      <c r="AO22">
-        <v>3</v>
-      </c>
-      <c r="AP22">
-        <v>1</v>
-      </c>
-      <c r="AQ22">
-        <v>2.33</v>
-      </c>
-      <c r="AR22">
-        <v>2.26</v>
-      </c>
-      <c r="AS22">
-        <v>2.43</v>
-      </c>
-      <c r="AT22">
-        <v>4.69</v>
-      </c>
-      <c r="AU22">
-        <v>6</v>
-      </c>
-      <c r="AV22">
-        <v>9</v>
-      </c>
       <c r="AW22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX22">
         <v>6</v>
       </c>
       <c r="AY22">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AZ22">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BA22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BC22">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BD22">
-        <v>3.3</v>
+        <v>1.64</v>
       </c>
       <c r="BE22">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF22">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="BG22">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="BH22">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="BI22">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="BJ22">
-        <v>2.8</v>
+        <v>2.33</v>
       </c>
       <c r="BK22">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="BL22">
-        <v>2.17</v>
+        <v>1.83</v>
       </c>
       <c r="BM22">
-        <v>1.96</v>
+        <v>2.32</v>
       </c>
       <c r="BN22">
-        <v>1.74</v>
+        <v>1.52</v>
       </c>
       <c r="BO22">
-        <v>2.43</v>
+        <v>2.95</v>
       </c>
       <c r="BP22">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -5428,7 +5428,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7491835</v>
+        <v>7491837</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5458,34 +5458,34 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23">
         <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q23">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="R23">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S23">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="T23">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U23">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V23">
         <v>2.5</v>
@@ -5494,25 +5494,25 @@
         <v>1.5</v>
       </c>
       <c r="X23">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y23">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z23">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="AA23">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AB23">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="AC23">
         <v>1.03</v>
       </c>
       <c r="AD23">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE23">
         <v>1.22</v>
@@ -5521,112 +5521,112 @@
         <v>4.33</v>
       </c>
       <c r="AG23">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AH23">
+        <v>2.15</v>
+      </c>
+      <c r="AI23">
+        <v>1.57</v>
+      </c>
+      <c r="AJ23">
         <v>2.25</v>
       </c>
-      <c r="AI23">
-        <v>1.67</v>
-      </c>
-      <c r="AJ23">
-        <v>2.1</v>
-      </c>
       <c r="AK23">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="AL23">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AM23">
+        <v>1.5</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0.33</v>
+      </c>
+      <c r="AQ23">
+        <v>2</v>
+      </c>
+      <c r="AR23">
+        <v>1.03</v>
+      </c>
+      <c r="AS23">
+        <v>1.12</v>
+      </c>
+      <c r="AT23">
         <v>2.15</v>
       </c>
-      <c r="AN23">
-        <v>3</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>2</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>1.5</v>
-      </c>
-      <c r="AS23">
-        <v>0.87</v>
-      </c>
-      <c r="AT23">
-        <v>2.37</v>
-      </c>
       <c r="AU23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV23">
+        <v>7</v>
+      </c>
+      <c r="AW23">
+        <v>6</v>
+      </c>
+      <c r="AX23">
         <v>4</v>
       </c>
-      <c r="AW23">
-        <v>8</v>
-      </c>
-      <c r="AX23">
-        <v>6</v>
-      </c>
       <c r="AY23">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AZ23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA23">
         <v>5</v>
       </c>
       <c r="BB23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD23">
-        <v>1.64</v>
+        <v>1.93</v>
       </c>
       <c r="BE23">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF23">
-        <v>2.5</v>
+        <v>2.07</v>
       </c>
       <c r="BG23">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BH23">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BI23">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="BJ23">
-        <v>2.33</v>
+        <v>2.55</v>
       </c>
       <c r="BK23">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="BL23">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="BM23">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="BN23">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="BO23">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="BP23">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="24" spans="1:68">
@@ -5634,7 +5634,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7491837</v>
+        <v>7491839</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -5649,190 +5649,190 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q24">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="R24">
+        <v>2.5</v>
+      </c>
+      <c r="S24">
+        <v>2.75</v>
+      </c>
+      <c r="T24">
+        <v>1.25</v>
+      </c>
+      <c r="U24">
+        <v>3.75</v>
+      </c>
+      <c r="V24">
+        <v>2.1</v>
+      </c>
+      <c r="W24">
+        <v>1.67</v>
+      </c>
+      <c r="X24">
+        <v>4.5</v>
+      </c>
+      <c r="Y24">
+        <v>1.18</v>
+      </c>
+      <c r="Z24">
+        <v>2.75</v>
+      </c>
+      <c r="AA24">
+        <v>3.95</v>
+      </c>
+      <c r="AB24">
         <v>2.3</v>
       </c>
-      <c r="S24">
-        <v>3.1</v>
-      </c>
-      <c r="T24">
+      <c r="AC24">
+        <v>1.01</v>
+      </c>
+      <c r="AD24">
+        <v>23</v>
+      </c>
+      <c r="AE24">
+        <v>1.14</v>
+      </c>
+      <c r="AF24">
+        <v>6</v>
+      </c>
+      <c r="AG24">
+        <v>1.5</v>
+      </c>
+      <c r="AH24">
+        <v>2.55</v>
+      </c>
+      <c r="AI24">
+        <v>1.44</v>
+      </c>
+      <c r="AJ24">
+        <v>2.63</v>
+      </c>
+      <c r="AK24">
+        <v>1.68</v>
+      </c>
+      <c r="AL24">
+        <v>1.22</v>
+      </c>
+      <c r="AM24">
+        <v>1.45</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
         <v>1.33</v>
       </c>
-      <c r="U24">
-        <v>3.25</v>
-      </c>
-      <c r="V24">
-        <v>2.5</v>
-      </c>
-      <c r="W24">
-        <v>1.5</v>
-      </c>
-      <c r="X24">
-        <v>6.5</v>
-      </c>
-      <c r="Y24">
-        <v>1.11</v>
-      </c>
-      <c r="Z24">
-        <v>2.7</v>
-      </c>
-      <c r="AA24">
-        <v>3.6</v>
-      </c>
-      <c r="AB24">
-        <v>2.5</v>
-      </c>
-      <c r="AC24">
+      <c r="AR24">
+        <v>1.46</v>
+      </c>
+      <c r="AS24">
         <v>1.03</v>
       </c>
-      <c r="AD24">
+      <c r="AT24">
+        <v>2.49</v>
+      </c>
+      <c r="AU24">
+        <v>8</v>
+      </c>
+      <c r="AV24">
+        <v>8</v>
+      </c>
+      <c r="AW24">
+        <v>4</v>
+      </c>
+      <c r="AX24">
+        <v>2</v>
+      </c>
+      <c r="AY24">
+        <v>16</v>
+      </c>
+      <c r="AZ24">
         <v>13</v>
       </c>
-      <c r="AE24">
-        <v>1.22</v>
-      </c>
-      <c r="AF24">
-        <v>4.33</v>
-      </c>
-      <c r="AG24">
-        <v>1.67</v>
-      </c>
-      <c r="AH24">
+      <c r="BA24">
+        <v>6</v>
+      </c>
+      <c r="BB24">
+        <v>2</v>
+      </c>
+      <c r="BC24">
+        <v>8</v>
+      </c>
+      <c r="BD24">
+        <v>2.17</v>
+      </c>
+      <c r="BE24">
+        <v>6.75</v>
+      </c>
+      <c r="BF24">
+        <v>1.82</v>
+      </c>
+      <c r="BG24">
+        <v>1.19</v>
+      </c>
+      <c r="BH24">
+        <v>3.9</v>
+      </c>
+      <c r="BI24">
+        <v>1.36</v>
+      </c>
+      <c r="BJ24">
+        <v>2.8</v>
+      </c>
+      <c r="BK24">
+        <v>1.61</v>
+      </c>
+      <c r="BL24">
         <v>2.15</v>
       </c>
-      <c r="AI24">
-        <v>1.57</v>
-      </c>
-      <c r="AJ24">
-        <v>2.25</v>
-      </c>
-      <c r="AK24">
-        <v>1.53</v>
-      </c>
-      <c r="AL24">
-        <v>1.26</v>
-      </c>
-      <c r="AM24">
-        <v>1.5</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0.33</v>
-      </c>
-      <c r="AQ24">
-        <v>2</v>
-      </c>
-      <c r="AR24">
-        <v>1.03</v>
-      </c>
-      <c r="AS24">
-        <v>1.12</v>
-      </c>
-      <c r="AT24">
-        <v>2.15</v>
-      </c>
-      <c r="AU24">
-        <v>5</v>
-      </c>
-      <c r="AV24">
-        <v>7</v>
-      </c>
-      <c r="AW24">
-        <v>6</v>
-      </c>
-      <c r="AX24">
-        <v>4</v>
-      </c>
-      <c r="AY24">
-        <v>19</v>
-      </c>
-      <c r="AZ24">
-        <v>15</v>
-      </c>
-      <c r="BA24">
-        <v>5</v>
-      </c>
-      <c r="BB24">
-        <v>4</v>
-      </c>
-      <c r="BC24">
-        <v>9</v>
-      </c>
-      <c r="BD24">
-        <v>1.93</v>
-      </c>
-      <c r="BE24">
-        <v>6.4</v>
-      </c>
-      <c r="BF24">
-        <v>2.07</v>
-      </c>
-      <c r="BG24">
-        <v>1.25</v>
-      </c>
-      <c r="BH24">
-        <v>3.4</v>
-      </c>
-      <c r="BI24">
-        <v>1.44</v>
-      </c>
-      <c r="BJ24">
-        <v>2.55</v>
-      </c>
-      <c r="BK24">
-        <v>1.73</v>
-      </c>
-      <c r="BL24">
-        <v>1.96</v>
-      </c>
       <c r="BM24">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="BN24">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="BO24">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="BP24">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="25" spans="1:68">
@@ -5840,7 +5840,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7491839</v>
+        <v>7491832</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -5855,190 +5855,190 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="Q25">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="R25">
         <v>2.5</v>
       </c>
       <c r="S25">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="T25">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U25">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V25">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="W25">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="X25">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Y25">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="Z25">
-        <v>2.75</v>
+        <v>1.47</v>
       </c>
       <c r="AA25">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="AB25">
-        <v>2.3</v>
+        <v>6.25</v>
       </c>
       <c r="AC25">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD25">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE25">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="AF25">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AG25">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AH25">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="AI25">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="AJ25">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="AK25">
-        <v>1.68</v>
+        <v>1.09</v>
       </c>
       <c r="AL25">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AM25">
-        <v>1.45</v>
+        <v>2.85</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AR25">
-        <v>1.46</v>
+        <v>1.16</v>
       </c>
       <c r="AS25">
-        <v>1.03</v>
+        <v>1.54</v>
       </c>
       <c r="AT25">
-        <v>2.49</v>
+        <v>2.7</v>
       </c>
       <c r="AU25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW25">
+        <v>5</v>
+      </c>
+      <c r="AX25">
         <v>4</v>
       </c>
-      <c r="AX25">
-        <v>2</v>
-      </c>
       <c r="AY25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ25">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA25">
         <v>6</v>
       </c>
       <c r="BB25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC25">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD25">
-        <v>2.17</v>
+        <v>1.28</v>
       </c>
       <c r="BE25">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF25">
-        <v>1.82</v>
+        <v>4.1</v>
       </c>
       <c r="BG25">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="BH25">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="BI25">
+        <v>1.48</v>
+      </c>
+      <c r="BJ25">
+        <v>2.43</v>
+      </c>
+      <c r="BK25">
+        <v>1.79</v>
+      </c>
+      <c r="BL25">
+        <v>1.9</v>
+      </c>
+      <c r="BM25">
+        <v>2.23</v>
+      </c>
+      <c r="BN25">
+        <v>1.57</v>
+      </c>
+      <c r="BO25">
+        <v>2.85</v>
+      </c>
+      <c r="BP25">
         <v>1.36</v>
-      </c>
-      <c r="BJ25">
-        <v>2.8</v>
-      </c>
-      <c r="BK25">
-        <v>1.61</v>
-      </c>
-      <c r="BL25">
-        <v>2.15</v>
-      </c>
-      <c r="BM25">
-        <v>1.95</v>
-      </c>
-      <c r="BN25">
-        <v>1.74</v>
-      </c>
-      <c r="BO25">
-        <v>2.43</v>
-      </c>
-      <c r="BP25">
-        <v>1.48</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -6061,7 +6061,7 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s">
         <v>87</v>
@@ -6476,7 +6476,7 @@
         <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -6870,7 +6870,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7491844</v>
+        <v>7491848</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -6885,190 +6885,190 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O30" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="P30" t="s">
         <v>150</v>
       </c>
       <c r="Q30">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="R30">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S30">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T30">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U30">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V30">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W30">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X30">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y30">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z30">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="AA30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AB30">
-        <v>2.55</v>
+        <v>3.7</v>
       </c>
       <c r="AC30">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD30">
-        <v>13</v>
+        <v>17.25</v>
       </c>
       <c r="AE30">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AF30">
-        <v>4.2</v>
+        <v>4.83</v>
       </c>
       <c r="AG30">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AH30">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AI30">
+        <v>1.53</v>
+      </c>
+      <c r="AJ30">
+        <v>2.38</v>
+      </c>
+      <c r="AK30">
+        <v>1.32</v>
+      </c>
+      <c r="AL30">
+        <v>1.28</v>
+      </c>
+      <c r="AM30">
+        <v>1.86</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0.33</v>
+      </c>
+      <c r="AQ30">
+        <v>0.67</v>
+      </c>
+      <c r="AR30">
         <v>1.57</v>
       </c>
-      <c r="AJ30">
-        <v>2.25</v>
-      </c>
-      <c r="AK30">
-        <v>1.58</v>
-      </c>
-      <c r="AL30">
-        <v>1.26</v>
-      </c>
-      <c r="AM30">
-        <v>1.47</v>
-      </c>
-      <c r="AN30">
-        <v>3</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>1</v>
-      </c>
-      <c r="AQ30">
-        <v>2</v>
-      </c>
-      <c r="AR30">
-        <v>1.69</v>
-      </c>
       <c r="AS30">
-        <v>1.03</v>
+        <v>1.61</v>
       </c>
       <c r="AT30">
-        <v>2.72</v>
+        <v>3.18</v>
       </c>
       <c r="AU30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW30">
+        <v>7</v>
+      </c>
+      <c r="AX30">
+        <v>8</v>
+      </c>
+      <c r="AY30">
+        <v>15</v>
+      </c>
+      <c r="AZ30">
+        <v>15</v>
+      </c>
+      <c r="BA30">
+        <v>2</v>
+      </c>
+      <c r="BB30">
         <v>5</v>
       </c>
-      <c r="AX30">
-        <v>6</v>
-      </c>
-      <c r="AY30">
-        <v>8</v>
-      </c>
-      <c r="AZ30">
-        <v>16</v>
-      </c>
-      <c r="BA30">
-        <v>3</v>
-      </c>
-      <c r="BB30">
-        <v>9</v>
-      </c>
       <c r="BC30">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD30">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="BE30">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="BF30">
         <v>2.7</v>
       </c>
       <c r="BG30">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="BH30">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="BI30">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="BJ30">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="BK30">
+        <v>1.54</v>
+      </c>
+      <c r="BL30">
+        <v>2.3</v>
+      </c>
+      <c r="BM30">
+        <v>1.85</v>
+      </c>
+      <c r="BN30">
         <v>1.83</v>
       </c>
-      <c r="BL30">
-        <v>1.85</v>
-      </c>
-      <c r="BM30">
-        <v>2.3</v>
-      </c>
-      <c r="BN30">
+      <c r="BO30">
+        <v>2.28</v>
+      </c>
+      <c r="BP30">
         <v>1.54</v>
-      </c>
-      <c r="BO30">
-        <v>2.9</v>
-      </c>
-      <c r="BP30">
-        <v>1.34</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7076,7 +7076,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7491845</v>
+        <v>7491847</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7091,190 +7091,190 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>2</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O31" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="P31" t="s">
         <v>151</v>
       </c>
       <c r="Q31">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="R31">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="S31">
-        <v>1.83</v>
+        <v>3.75</v>
       </c>
       <c r="T31">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="U31">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="W31">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="X31">
+        <v>6.5</v>
+      </c>
+      <c r="Y31">
+        <v>1.11</v>
+      </c>
+      <c r="Z31">
+        <v>2.1</v>
+      </c>
+      <c r="AA31">
+        <v>3.4</v>
+      </c>
+      <c r="AB31">
+        <v>3.4</v>
+      </c>
+      <c r="AC31">
+        <v>1.03</v>
+      </c>
+      <c r="AD31">
+        <v>13</v>
+      </c>
+      <c r="AE31">
+        <v>1.24</v>
+      </c>
+      <c r="AF31">
+        <v>4.2</v>
+      </c>
+      <c r="AG31">
+        <v>1.7</v>
+      </c>
+      <c r="AH31">
+        <v>2.05</v>
+      </c>
+      <c r="AI31">
+        <v>1.62</v>
+      </c>
+      <c r="AJ31">
+        <v>2.2</v>
+      </c>
+      <c r="AK31">
+        <v>1.33</v>
+      </c>
+      <c r="AL31">
+        <v>1.25</v>
+      </c>
+      <c r="AM31">
+        <v>1.78</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>3</v>
+      </c>
+      <c r="AQ31">
+        <v>0.33</v>
+      </c>
+      <c r="AR31">
+        <v>1.36</v>
+      </c>
+      <c r="AS31">
+        <v>1.08</v>
+      </c>
+      <c r="AT31">
+        <v>2.44</v>
+      </c>
+      <c r="AU31">
+        <v>3</v>
+      </c>
+      <c r="AV31">
         <v>4</v>
       </c>
-      <c r="Y31">
-        <v>1.22</v>
-      </c>
-      <c r="Z31">
-        <v>6.5</v>
-      </c>
-      <c r="AA31">
-        <v>4.75</v>
-      </c>
-      <c r="AB31">
+      <c r="AW31">
+        <v>4</v>
+      </c>
+      <c r="AX31">
+        <v>2</v>
+      </c>
+      <c r="AY31">
+        <v>13</v>
+      </c>
+      <c r="AZ31">
+        <v>8</v>
+      </c>
+      <c r="BA31">
+        <v>5</v>
+      </c>
+      <c r="BB31">
+        <v>5</v>
+      </c>
+      <c r="BC31">
+        <v>10</v>
+      </c>
+      <c r="BD31">
+        <v>1.65</v>
+      </c>
+      <c r="BE31">
+        <v>6.75</v>
+      </c>
+      <c r="BF31">
+        <v>2.48</v>
+      </c>
+      <c r="BG31">
+        <v>1.25</v>
+      </c>
+      <c r="BH31">
+        <v>3.45</v>
+      </c>
+      <c r="BI31">
+        <v>1.44</v>
+      </c>
+      <c r="BJ31">
+        <v>2.55</v>
+      </c>
+      <c r="BK31">
+        <v>1.72</v>
+      </c>
+      <c r="BL31">
+        <v>1.98</v>
+      </c>
+      <c r="BM31">
+        <v>2.12</v>
+      </c>
+      <c r="BN31">
+        <v>1.62</v>
+      </c>
+      <c r="BO31">
+        <v>2.65</v>
+      </c>
+      <c r="BP31">
         <v>1.4</v>
-      </c>
-      <c r="AC31">
-        <v>1.01</v>
-      </c>
-      <c r="AD31">
-        <v>15</v>
-      </c>
-      <c r="AE31">
-        <v>1.06</v>
-      </c>
-      <c r="AF31">
-        <v>5.75</v>
-      </c>
-      <c r="AG31">
-        <v>1.34</v>
-      </c>
-      <c r="AH31">
-        <v>3.09</v>
-      </c>
-      <c r="AI31">
-        <v>1.53</v>
-      </c>
-      <c r="AJ31">
-        <v>2.38</v>
-      </c>
-      <c r="AK31">
-        <v>2.98</v>
-      </c>
-      <c r="AL31">
-        <v>1.18</v>
-      </c>
-      <c r="AM31">
-        <v>1.12</v>
-      </c>
-      <c r="AN31">
-        <v>1</v>
-      </c>
-      <c r="AO31">
-        <v>3</v>
-      </c>
-      <c r="AP31">
-        <v>0.33</v>
-      </c>
-      <c r="AQ31">
-        <v>2.5</v>
-      </c>
-      <c r="AR31">
-        <v>0.65</v>
-      </c>
-      <c r="AS31">
-        <v>2.21</v>
-      </c>
-      <c r="AT31">
-        <v>2.86</v>
-      </c>
-      <c r="AU31">
-        <v>0</v>
-      </c>
-      <c r="AV31">
-        <v>8</v>
-      </c>
-      <c r="AW31">
-        <v>0</v>
-      </c>
-      <c r="AX31">
-        <v>5</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
-      <c r="AZ31">
-        <v>26</v>
-      </c>
-      <c r="BA31">
-        <v>1</v>
-      </c>
-      <c r="BB31">
-        <v>4</v>
-      </c>
-      <c r="BC31">
-        <v>5</v>
-      </c>
-      <c r="BD31">
-        <v>3.9</v>
-      </c>
-      <c r="BE31">
-        <v>7</v>
-      </c>
-      <c r="BF31">
-        <v>1.3</v>
-      </c>
-      <c r="BG31">
-        <v>1.32</v>
-      </c>
-      <c r="BH31">
-        <v>3</v>
-      </c>
-      <c r="BI31">
-        <v>1.56</v>
-      </c>
-      <c r="BJ31">
-        <v>2.23</v>
-      </c>
-      <c r="BK31">
-        <v>1.91</v>
-      </c>
-      <c r="BL31">
-        <v>1.77</v>
-      </c>
-      <c r="BM31">
-        <v>2.4</v>
-      </c>
-      <c r="BN31">
-        <v>1.49</v>
-      </c>
-      <c r="BO31">
-        <v>3.15</v>
-      </c>
-      <c r="BP31">
-        <v>1.3</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -7282,7 +7282,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7491847</v>
+        <v>7491844</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7297,43 +7297,43 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32">
         <v>3</v>
       </c>
       <c r="O32" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="P32" t="s">
         <v>152</v>
       </c>
       <c r="Q32">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="R32">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S32">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T32">
         <v>1.33</v>
@@ -7354,16 +7354,16 @@
         <v>1.11</v>
       </c>
       <c r="Z32">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AA32">
         <v>3.4</v>
       </c>
       <c r="AB32">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="AC32">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD32">
         <v>13</v>
@@ -7375,25 +7375,25 @@
         <v>4.2</v>
       </c>
       <c r="AG32">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AH32">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AI32">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AJ32">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AK32">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="AL32">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AM32">
-        <v>1.78</v>
+        <v>1.47</v>
       </c>
       <c r="AN32">
         <v>3</v>
@@ -7402,85 +7402,85 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AR32">
-        <v>1.36</v>
+        <v>1.69</v>
       </c>
       <c r="AS32">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="AT32">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="AU32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY32">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ32">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD32">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="BE32">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF32">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="BG32">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="BH32">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="BI32">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="BJ32">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="BK32">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="BL32">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="BM32">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="BN32">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="BO32">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="BP32">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="33" spans="1:68">
@@ -7488,7 +7488,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>7491848</v>
+        <v>7491845</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -7503,88 +7503,88 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O33" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P33" t="s">
         <v>153</v>
       </c>
       <c r="Q33">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="R33">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="S33">
-        <v>3.75</v>
+        <v>1.83</v>
       </c>
       <c r="T33">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="U33">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="V33">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="X33">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Y33">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="Z33">
-        <v>1.95</v>
+        <v>6.5</v>
       </c>
       <c r="AA33">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="AB33">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="AC33">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD33">
-        <v>17.25</v>
+        <v>15</v>
       </c>
       <c r="AE33">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="AF33">
-        <v>4.83</v>
+        <v>5.75</v>
       </c>
       <c r="AG33">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="AH33">
-        <v>2.2</v>
+        <v>3.09</v>
       </c>
       <c r="AI33">
         <v>1.53</v>
@@ -7593,100 +7593,100 @@
         <v>2.38</v>
       </c>
       <c r="AK33">
-        <v>1.32</v>
+        <v>2.98</v>
       </c>
       <c r="AL33">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AM33">
-        <v>1.86</v>
+        <v>1.12</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP33">
         <v>0.33</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>2.5</v>
       </c>
       <c r="AR33">
-        <v>1.57</v>
+        <v>0.65</v>
       </c>
       <c r="AS33">
-        <v>1.61</v>
+        <v>2.21</v>
       </c>
       <c r="AT33">
-        <v>3.18</v>
+        <v>2.86</v>
       </c>
       <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>8</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>5</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>26</v>
+      </c>
+      <c r="BA33">
+        <v>1</v>
+      </c>
+      <c r="BB33">
         <v>4</v>
       </c>
-      <c r="AV33">
+      <c r="BC33">
         <v>5</v>
       </c>
-      <c r="AW33">
-        <v>7</v>
-      </c>
-      <c r="AX33">
-        <v>8</v>
-      </c>
-      <c r="AY33">
-        <v>15</v>
-      </c>
-      <c r="AZ33">
-        <v>15</v>
-      </c>
-      <c r="BA33">
-        <v>2</v>
-      </c>
-      <c r="BB33">
-        <v>5</v>
-      </c>
-      <c r="BC33">
-        <v>7</v>
-      </c>
       <c r="BD33">
-        <v>1.54</v>
+        <v>3.9</v>
       </c>
       <c r="BE33">
         <v>7</v>
       </c>
       <c r="BF33">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="BG33">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="BH33">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="BI33">
-        <v>1.32</v>
+        <v>1.56</v>
       </c>
       <c r="BJ33">
-        <v>3</v>
+        <v>2.23</v>
       </c>
       <c r="BK33">
-        <v>1.54</v>
+        <v>1.91</v>
       </c>
       <c r="BL33">
-        <v>2.3</v>
+        <v>1.77</v>
       </c>
       <c r="BM33">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="BN33">
-        <v>1.83</v>
+        <v>1.49</v>
       </c>
       <c r="BO33">
-        <v>2.28</v>
+        <v>3.15</v>
       </c>
       <c r="BP33">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="34" spans="1:68">
@@ -7709,7 +7709,7 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s">
         <v>70</v>
@@ -8724,7 +8724,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7491857</v>
+        <v>7491856</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8739,49 +8739,49 @@
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O39" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="P39" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="Q39">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="R39">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S39">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T39">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U39">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V39">
         <v>2.63</v>
@@ -8790,37 +8790,37 @@
         <v>1.44</v>
       </c>
       <c r="X39">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y39">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z39">
-        <v>2.19</v>
+        <v>1.65</v>
       </c>
       <c r="AA39">
-        <v>3.48</v>
+        <v>4</v>
       </c>
       <c r="AB39">
-        <v>2.98</v>
+        <v>4.5</v>
       </c>
       <c r="AC39">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD39">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AE39">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AF39">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AG39">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AH39">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="AI39">
         <v>1.67</v>
@@ -8829,40 +8829,40 @@
         <v>2.1</v>
       </c>
       <c r="AK39">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="AL39">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AM39">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="AN39">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO39">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AQ39">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AR39">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="AS39">
-        <v>1.26</v>
+        <v>0.96</v>
       </c>
       <c r="AT39">
-        <v>2.82</v>
+        <v>2.44</v>
       </c>
       <c r="AU39">
         <v>3</v>
       </c>
       <c r="AV39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW39">
         <v>3</v>
@@ -8871,58 +8871,58 @@
         <v>6</v>
       </c>
       <c r="AY39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ39">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA39">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC39">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD39">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="BE39">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="BF39">
-        <v>2.43</v>
+        <v>3.05</v>
       </c>
       <c r="BG39">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="BH39">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="BI39">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="BJ39">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="BK39">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="BL39">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="BM39">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="BN39">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="BO39">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BP39">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -8930,7 +8930,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7491856</v>
+        <v>7491857</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -8945,49 +8945,49 @@
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H40" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
         <v>1</v>
       </c>
-      <c r="K40">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
         <v>1</v>
       </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>2</v>
-      </c>
-      <c r="N40">
-        <v>2</v>
-      </c>
       <c r="O40" t="s">
+        <v>117</v>
+      </c>
+      <c r="P40" t="s">
         <v>96</v>
       </c>
-      <c r="P40" t="s">
-        <v>157</v>
-      </c>
       <c r="Q40">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="R40">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S40">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T40">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V40">
         <v>2.63</v>
@@ -8996,37 +8996,37 @@
         <v>1.44</v>
       </c>
       <c r="X40">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y40">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z40">
-        <v>1.65</v>
+        <v>2.19</v>
       </c>
       <c r="AA40">
-        <v>4</v>
+        <v>3.48</v>
       </c>
       <c r="AB40">
-        <v>4.5</v>
+        <v>2.98</v>
       </c>
       <c r="AC40">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD40">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AE40">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AF40">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AG40">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AH40">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="AI40">
         <v>1.67</v>
@@ -9035,40 +9035,40 @@
         <v>2.1</v>
       </c>
       <c r="AK40">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="AL40">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AM40">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="AN40">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO40">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AR40">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="AS40">
-        <v>0.96</v>
+        <v>1.26</v>
       </c>
       <c r="AT40">
-        <v>2.44</v>
+        <v>2.82</v>
       </c>
       <c r="AU40">
         <v>3</v>
       </c>
       <c r="AV40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW40">
         <v>3</v>
@@ -9077,58 +9077,58 @@
         <v>6</v>
       </c>
       <c r="AY40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ40">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA40">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB40">
+        <v>4</v>
+      </c>
+      <c r="BC40">
         <v>6</v>
       </c>
-      <c r="BC40">
-        <v>13</v>
-      </c>
       <c r="BD40">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="BE40">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF40">
-        <v>3.05</v>
+        <v>2.43</v>
       </c>
       <c r="BG40">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="BH40">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="BI40">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="BJ40">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="BK40">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="BL40">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="BM40">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="BN40">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="BO40">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BP40">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9342,7 +9342,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7491854</v>
+        <v>7491851</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9357,190 +9357,190 @@
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H42" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>2</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O42" t="s">
+        <v>119</v>
+      </c>
+      <c r="P42" t="s">
         <v>96</v>
       </c>
-      <c r="P42" t="s">
-        <v>159</v>
-      </c>
       <c r="Q42">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="R42">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="S42">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T42">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="U42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V42">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="W42">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="X42">
+        <v>4.5</v>
+      </c>
+      <c r="Y42">
+        <v>1.18</v>
+      </c>
+      <c r="Z42">
+        <v>1.4</v>
+      </c>
+      <c r="AA42">
+        <v>4.5</v>
+      </c>
+      <c r="AB42">
         <v>7</v>
-      </c>
-      <c r="Y42">
-        <v>1.1</v>
-      </c>
-      <c r="Z42">
-        <v>1.83</v>
-      </c>
-      <c r="AA42">
-        <v>3.75</v>
-      </c>
-      <c r="AB42">
-        <v>3.75</v>
       </c>
       <c r="AC42">
         <v>1.01</v>
       </c>
       <c r="AD42">
-        <v>9.4</v>
+        <v>26</v>
       </c>
       <c r="AE42">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="AF42">
-        <v>3.52</v>
+        <v>5.3</v>
       </c>
       <c r="AG42">
+        <v>1.41</v>
+      </c>
+      <c r="AH42">
+        <v>2.78</v>
+      </c>
+      <c r="AI42">
+        <v>1.62</v>
+      </c>
+      <c r="AJ42">
+        <v>2.2</v>
+      </c>
+      <c r="AK42">
+        <v>1.1</v>
+      </c>
+      <c r="AL42">
+        <v>1.12</v>
+      </c>
+      <c r="AM42">
+        <v>2.95</v>
+      </c>
+      <c r="AN42">
+        <v>2</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>2.33</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>1.14</v>
+      </c>
+      <c r="AS42">
+        <v>1.49</v>
+      </c>
+      <c r="AT42">
+        <v>2.63</v>
+      </c>
+      <c r="AU42">
+        <v>8</v>
+      </c>
+      <c r="AV42">
+        <v>2</v>
+      </c>
+      <c r="AW42">
+        <v>5</v>
+      </c>
+      <c r="AX42">
+        <v>3</v>
+      </c>
+      <c r="AY42">
+        <v>19</v>
+      </c>
+      <c r="AZ42">
+        <v>8</v>
+      </c>
+      <c r="BA42">
+        <v>8</v>
+      </c>
+      <c r="BB42">
+        <v>5</v>
+      </c>
+      <c r="BC42">
+        <v>13</v>
+      </c>
+      <c r="BD42">
+        <v>1.26</v>
+      </c>
+      <c r="BE42">
+        <v>8</v>
+      </c>
+      <c r="BF42">
+        <v>4.1</v>
+      </c>
+      <c r="BG42">
+        <v>1.2</v>
+      </c>
+      <c r="BH42">
+        <v>3.9</v>
+      </c>
+      <c r="BI42">
+        <v>1.36</v>
+      </c>
+      <c r="BJ42">
+        <v>2.8</v>
+      </c>
+      <c r="BK42">
         <v>1.58</v>
       </c>
-      <c r="AH42">
-        <v>2.23</v>
-      </c>
-      <c r="AI42">
-        <v>1.8</v>
-      </c>
-      <c r="AJ42">
-        <v>1.95</v>
-      </c>
-      <c r="AK42">
-        <v>1.2</v>
-      </c>
-      <c r="AL42">
-        <v>1.27</v>
-      </c>
-      <c r="AM42">
-        <v>2.15</v>
-      </c>
-      <c r="AN42">
-        <v>3</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>2</v>
-      </c>
-      <c r="AQ42">
-        <v>0.75</v>
-      </c>
-      <c r="AR42">
-        <v>1.82</v>
-      </c>
-      <c r="AS42">
-        <v>0.97</v>
-      </c>
-      <c r="AT42">
-        <v>2.79</v>
-      </c>
-      <c r="AU42">
-        <v>4</v>
-      </c>
-      <c r="AV42">
-        <v>5</v>
-      </c>
-      <c r="AW42">
-        <v>6</v>
-      </c>
-      <c r="AX42">
-        <v>4</v>
-      </c>
-      <c r="AY42">
-        <v>11</v>
-      </c>
-      <c r="AZ42">
-        <v>11</v>
-      </c>
-      <c r="BA42">
-        <v>4</v>
-      </c>
-      <c r="BB42">
-        <v>2</v>
-      </c>
-      <c r="BC42">
-        <v>6</v>
-      </c>
-      <c r="BD42">
-        <v>1.63</v>
-      </c>
-      <c r="BE42">
-        <v>6.75</v>
-      </c>
-      <c r="BF42">
-        <v>2.55</v>
-      </c>
-      <c r="BG42">
-        <v>1.27</v>
-      </c>
-      <c r="BH42">
-        <v>3.3</v>
-      </c>
-      <c r="BI42">
-        <v>1.47</v>
-      </c>
-      <c r="BJ42">
+      <c r="BL42">
+        <v>2.18</v>
+      </c>
+      <c r="BM42">
+        <v>1.94</v>
+      </c>
+      <c r="BN42">
+        <v>1.76</v>
+      </c>
+      <c r="BO42">
         <v>2.4</v>
       </c>
-      <c r="BK42">
-        <v>2</v>
-      </c>
-      <c r="BL42">
-        <v>1.8</v>
-      </c>
-      <c r="BM42">
-        <v>2.23</v>
-      </c>
-      <c r="BN42">
-        <v>1.58</v>
-      </c>
-      <c r="BO42">
-        <v>2.8</v>
-      </c>
       <c r="BP42">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9548,7 +9548,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7491851</v>
+        <v>7491854</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9563,190 +9563,190 @@
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43">
         <v>2</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O43" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="Q43">
+        <v>2.2</v>
+      </c>
+      <c r="R43">
+        <v>2.3</v>
+      </c>
+      <c r="S43">
+        <v>5.5</v>
+      </c>
+      <c r="T43">
+        <v>1.36</v>
+      </c>
+      <c r="U43">
+        <v>3</v>
+      </c>
+      <c r="V43">
+        <v>2.63</v>
+      </c>
+      <c r="W43">
+        <v>1.44</v>
+      </c>
+      <c r="X43">
+        <v>7</v>
+      </c>
+      <c r="Y43">
+        <v>1.1</v>
+      </c>
+      <c r="Z43">
         <v>1.83</v>
       </c>
-      <c r="R43">
-        <v>2.75</v>
-      </c>
-      <c r="S43">
-        <v>6</v>
-      </c>
-      <c r="T43">
-        <v>1.22</v>
-      </c>
-      <c r="U43">
-        <v>4</v>
-      </c>
-      <c r="V43">
-        <v>2.1</v>
-      </c>
-      <c r="W43">
-        <v>1.67</v>
-      </c>
-      <c r="X43">
-        <v>4.5</v>
-      </c>
-      <c r="Y43">
-        <v>1.18</v>
-      </c>
-      <c r="Z43">
-        <v>1.4</v>
-      </c>
       <c r="AA43">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AB43">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="AC43">
         <v>1.01</v>
       </c>
       <c r="AD43">
-        <v>26</v>
+        <v>9.4</v>
       </c>
       <c r="AE43">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="AF43">
-        <v>5.3</v>
+        <v>3.52</v>
       </c>
       <c r="AG43">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="AH43">
-        <v>2.78</v>
+        <v>2.23</v>
       </c>
       <c r="AI43">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AJ43">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AK43">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AL43">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="AM43">
-        <v>2.95</v>
+        <v>2.15</v>
       </c>
       <c r="AN43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO43">
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR43">
-        <v>1.14</v>
+        <v>1.82</v>
       </c>
       <c r="AS43">
-        <v>1.49</v>
+        <v>0.97</v>
       </c>
       <c r="AT43">
-        <v>2.63</v>
+        <v>2.79</v>
       </c>
       <c r="AU43">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY43">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AZ43">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA43">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC43">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD43">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="BE43">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="BF43">
-        <v>4.1</v>
+        <v>2.55</v>
       </c>
       <c r="BG43">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="BH43">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="BI43">
+        <v>1.47</v>
+      </c>
+      <c r="BJ43">
+        <v>2.4</v>
+      </c>
+      <c r="BK43">
+        <v>2</v>
+      </c>
+      <c r="BL43">
+        <v>1.8</v>
+      </c>
+      <c r="BM43">
+        <v>2.23</v>
+      </c>
+      <c r="BN43">
+        <v>1.58</v>
+      </c>
+      <c r="BO43">
+        <v>2.8</v>
+      </c>
+      <c r="BP43">
         <v>1.36</v>
-      </c>
-      <c r="BJ43">
-        <v>2.8</v>
-      </c>
-      <c r="BK43">
-        <v>1.58</v>
-      </c>
-      <c r="BL43">
-        <v>2.18</v>
-      </c>
-      <c r="BM43">
-        <v>1.94</v>
-      </c>
-      <c r="BN43">
-        <v>1.76</v>
-      </c>
-      <c r="BO43">
-        <v>2.4</v>
-      </c>
-      <c r="BP43">
-        <v>1.49</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -9975,10 +9975,10 @@
         <v>5</v>
       </c>
       <c r="G45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" t="s">
         <v>81</v>
-      </c>
-      <c r="H45" t="s">
-        <v>82</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -10184,7 +10184,7 @@
         <v>72</v>
       </c>
       <c r="H46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I46">
         <v>3</v>
@@ -10596,7 +10596,7 @@
         <v>85</v>
       </c>
       <c r="H48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -10799,7 +10799,7 @@
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s">
         <v>73</v>
@@ -11829,7 +11829,7 @@
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s">
         <v>87</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,24 @@
     <t>['43', '83']</t>
   </si>
   <si>
+    <t>['22', '62', '75']</t>
+  </si>
+  <si>
+    <t>['34', '37', '45+1']</t>
+  </si>
+  <si>
+    <t>['25', '71']</t>
+  </si>
+  <si>
+    <t>['11', '64', '90+3']</t>
+  </si>
+  <si>
+    <t>['57', '60', '80', '89']</t>
+  </si>
+  <si>
+    <t>['19', '79']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -524,6 +542,24 @@
   </si>
   <si>
     <t>['78']</t>
+  </si>
+  <si>
+    <t>['12', '80']</t>
+  </si>
+  <si>
+    <t>['20', '37']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['18', '89']</t>
+  </si>
+  <si>
+    <t>['45+5', '51', '67', '72']</t>
   </si>
 </sst>
 </file>
@@ -885,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1144,7 +1180,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1222,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>2.33</v>
@@ -1556,7 +1592,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1634,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>0.67</v>
@@ -1762,7 +1798,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1840,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1968,7 +2004,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2049,7 +2085,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ6">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2174,7 +2210,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2252,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2461,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2586,7 +2622,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2664,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ9">
         <v>2.5</v>
@@ -2792,7 +2828,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2873,7 +2909,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3204,7 +3240,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3410,7 +3446,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q13">
         <v>2.3</v>
@@ -3822,7 +3858,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4028,7 +4064,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4234,7 +4270,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4312,10 +4348,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4724,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ19">
         <v>2</v>
@@ -4852,7 +4888,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4933,7 +4969,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>1.89</v>
@@ -5058,7 +5094,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5136,7 +5172,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
         <v>2.33</v>
@@ -5264,7 +5300,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>2.25</v>
@@ -5342,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -5470,7 +5506,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5548,10 +5584,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>1.03</v>
@@ -5676,7 +5712,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5754,10 +5790,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
+        <v>1.5</v>
+      </c>
+      <c r="AQ24">
         <v>1</v>
-      </c>
-      <c r="AQ24">
-        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.46</v>
@@ -5963,7 +5999,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ25">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR25">
         <v>1.16</v>
@@ -6088,7 +6124,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6294,7 +6330,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6500,7 +6536,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6578,10 +6614,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ28">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR28">
         <v>1.23</v>
@@ -6706,7 +6742,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6912,7 +6948,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>2.5</v>
@@ -7118,7 +7154,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>2.63</v>
@@ -7324,7 +7360,7 @@
         <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q32">
         <v>3.25</v>
@@ -7530,7 +7566,7 @@
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -7942,7 +7978,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8020,7 +8056,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8148,7 +8184,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8435,7 +8471,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ37">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR37">
         <v>1.27</v>
@@ -8560,7 +8596,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -8766,7 +8802,7 @@
         <v>96</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q39">
         <v>2.38</v>
@@ -8844,10 +8880,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
         <v>1.48</v>
@@ -9050,10 +9086,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR40">
         <v>1.56</v>
@@ -9178,7 +9214,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9256,10 +9292,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.28</v>
@@ -9590,7 +9626,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -9668,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ43">
         <v>0.75</v>
@@ -9796,7 +9832,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -9874,7 +9910,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ44">
         <v>2.33</v>
@@ -10002,7 +10038,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10083,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1</v>
@@ -10208,7 +10244,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10286,10 +10322,10 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR46">
         <v>1.82</v>
@@ -10620,7 +10656,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -10698,7 +10734,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ48">
         <v>0.67</v>
@@ -10826,7 +10862,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11032,7 +11068,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11238,7 +11274,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11444,7 +11480,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11731,7 +11767,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -11856,7 +11892,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12062,7 +12098,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12268,7 +12304,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12361,22 +12397,22 @@
         <v>2.92</v>
       </c>
       <c r="AU56">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW56">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX56">
         <v>2</v>
       </c>
       <c r="AY56">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AZ56">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BA56">
         <v>7</v>
@@ -12425,6 +12461,1654 @@
       </c>
       <c r="BP56">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7491875</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45584.4375</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" t="s">
+        <v>86</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>5</v>
+      </c>
+      <c r="O57" t="s">
+        <v>130</v>
+      </c>
+      <c r="P57" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q57">
+        <v>2.38</v>
+      </c>
+      <c r="R57">
+        <v>2.38</v>
+      </c>
+      <c r="S57">
+        <v>4.33</v>
+      </c>
+      <c r="T57">
+        <v>1.3</v>
+      </c>
+      <c r="U57">
+        <v>3.4</v>
+      </c>
+      <c r="V57">
+        <v>2.5</v>
+      </c>
+      <c r="W57">
+        <v>1.5</v>
+      </c>
+      <c r="X57">
+        <v>6</v>
+      </c>
+      <c r="Y57">
+        <v>1.13</v>
+      </c>
+      <c r="Z57">
+        <v>1.83</v>
+      </c>
+      <c r="AA57">
+        <v>3.41</v>
+      </c>
+      <c r="AB57">
+        <v>3.49</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>1.55</v>
+      </c>
+      <c r="AH57">
+        <v>2.4</v>
+      </c>
+      <c r="AI57">
+        <v>1.57</v>
+      </c>
+      <c r="AJ57">
+        <v>2.25</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
+        <v>2</v>
+      </c>
+      <c r="AP57">
+        <v>1.5</v>
+      </c>
+      <c r="AQ57">
+        <v>1.5</v>
+      </c>
+      <c r="AR57">
+        <v>1.33</v>
+      </c>
+      <c r="AS57">
+        <v>1.18</v>
+      </c>
+      <c r="AT57">
+        <v>2.51</v>
+      </c>
+      <c r="AU57">
+        <v>11</v>
+      </c>
+      <c r="AV57">
+        <v>7</v>
+      </c>
+      <c r="AW57">
+        <v>7</v>
+      </c>
+      <c r="AX57">
+        <v>6</v>
+      </c>
+      <c r="AY57">
+        <v>21</v>
+      </c>
+      <c r="AZ57">
+        <v>20</v>
+      </c>
+      <c r="BA57">
+        <v>6</v>
+      </c>
+      <c r="BB57">
+        <v>3</v>
+      </c>
+      <c r="BC57">
+        <v>9</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>0</v>
+      </c>
+      <c r="BJ57">
+        <v>0</v>
+      </c>
+      <c r="BK57">
+        <v>2.25</v>
+      </c>
+      <c r="BL57">
+        <v>0</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7491874</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45584.4375</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" t="s">
+        <v>71</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58" t="s">
+        <v>96</v>
+      </c>
+      <c r="P58" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q58">
+        <v>4.33</v>
+      </c>
+      <c r="R58">
+        <v>2.4</v>
+      </c>
+      <c r="S58">
+        <v>2.38</v>
+      </c>
+      <c r="T58">
+        <v>1.29</v>
+      </c>
+      <c r="U58">
+        <v>3.5</v>
+      </c>
+      <c r="V58">
+        <v>2.38</v>
+      </c>
+      <c r="W58">
+        <v>1.53</v>
+      </c>
+      <c r="X58">
+        <v>5.5</v>
+      </c>
+      <c r="Y58">
+        <v>1.14</v>
+      </c>
+      <c r="Z58">
+        <v>3.38</v>
+      </c>
+      <c r="AA58">
+        <v>3.31</v>
+      </c>
+      <c r="AB58">
+        <v>1.88</v>
+      </c>
+      <c r="AC58">
+        <v>1.03</v>
+      </c>
+      <c r="AD58">
+        <v>17</v>
+      </c>
+      <c r="AE58">
+        <v>1.2</v>
+      </c>
+      <c r="AF58">
+        <v>4.5</v>
+      </c>
+      <c r="AG58">
+        <v>1.65</v>
+      </c>
+      <c r="AH58">
+        <v>2.15</v>
+      </c>
+      <c r="AI58">
+        <v>1.57</v>
+      </c>
+      <c r="AJ58">
+        <v>2.25</v>
+      </c>
+      <c r="AK58">
+        <v>2</v>
+      </c>
+      <c r="AL58">
+        <v>1.22</v>
+      </c>
+      <c r="AM58">
+        <v>1.25</v>
+      </c>
+      <c r="AN58">
+        <v>0.33</v>
+      </c>
+      <c r="AO58">
+        <v>2.33</v>
+      </c>
+      <c r="AP58">
+        <v>0.25</v>
+      </c>
+      <c r="AQ58">
+        <v>2.5</v>
+      </c>
+      <c r="AR58">
+        <v>1.26</v>
+      </c>
+      <c r="AS58">
+        <v>1.21</v>
+      </c>
+      <c r="AT58">
+        <v>2.47</v>
+      </c>
+      <c r="AU58">
+        <v>3</v>
+      </c>
+      <c r="AV58">
+        <v>6</v>
+      </c>
+      <c r="AW58">
+        <v>4</v>
+      </c>
+      <c r="AX58">
+        <v>3</v>
+      </c>
+      <c r="AY58">
+        <v>17</v>
+      </c>
+      <c r="AZ58">
+        <v>12</v>
+      </c>
+      <c r="BA58">
+        <v>5</v>
+      </c>
+      <c r="BB58">
+        <v>3</v>
+      </c>
+      <c r="BC58">
+        <v>8</v>
+      </c>
+      <c r="BD58">
+        <v>2.3</v>
+      </c>
+      <c r="BE58">
+        <v>6.4</v>
+      </c>
+      <c r="BF58">
+        <v>1.77</v>
+      </c>
+      <c r="BG58">
+        <v>1.36</v>
+      </c>
+      <c r="BH58">
+        <v>2.85</v>
+      </c>
+      <c r="BI58">
+        <v>1.6</v>
+      </c>
+      <c r="BJ58">
+        <v>2.17</v>
+      </c>
+      <c r="BK58">
+        <v>1.98</v>
+      </c>
+      <c r="BL58">
+        <v>1.72</v>
+      </c>
+      <c r="BM58">
+        <v>2.55</v>
+      </c>
+      <c r="BN58">
+        <v>1.44</v>
+      </c>
+      <c r="BO58">
+        <v>3.3</v>
+      </c>
+      <c r="BP58">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7491872</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45584.4375</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s">
+        <v>74</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c r="O59" t="s">
+        <v>131</v>
+      </c>
+      <c r="P59" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q59">
+        <v>2.38</v>
+      </c>
+      <c r="R59">
+        <v>2.38</v>
+      </c>
+      <c r="S59">
+        <v>4.33</v>
+      </c>
+      <c r="T59">
+        <v>1.3</v>
+      </c>
+      <c r="U59">
+        <v>3.4</v>
+      </c>
+      <c r="V59">
+        <v>2.5</v>
+      </c>
+      <c r="W59">
+        <v>1.5</v>
+      </c>
+      <c r="X59">
+        <v>6</v>
+      </c>
+      <c r="Y59">
+        <v>1.13</v>
+      </c>
+      <c r="Z59">
+        <v>1.83</v>
+      </c>
+      <c r="AA59">
+        <v>3.36</v>
+      </c>
+      <c r="AB59">
+        <v>3.54</v>
+      </c>
+      <c r="AC59">
+        <v>1.03</v>
+      </c>
+      <c r="AD59">
+        <v>15</v>
+      </c>
+      <c r="AE59">
+        <v>1.22</v>
+      </c>
+      <c r="AF59">
+        <v>4.33</v>
+      </c>
+      <c r="AG59">
+        <v>1.65</v>
+      </c>
+      <c r="AH59">
+        <v>2.15</v>
+      </c>
+      <c r="AI59">
+        <v>1.62</v>
+      </c>
+      <c r="AJ59">
+        <v>2.2</v>
+      </c>
+      <c r="AK59">
+        <v>1.24</v>
+      </c>
+      <c r="AL59">
+        <v>1.22</v>
+      </c>
+      <c r="AM59">
+        <v>2.05</v>
+      </c>
+      <c r="AN59">
+        <v>2</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>2.25</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <v>1.71</v>
+      </c>
+      <c r="AS59">
+        <v>1.06</v>
+      </c>
+      <c r="AT59">
+        <v>2.77</v>
+      </c>
+      <c r="AU59">
+        <v>7</v>
+      </c>
+      <c r="AV59">
+        <v>4</v>
+      </c>
+      <c r="AW59">
+        <v>4</v>
+      </c>
+      <c r="AX59">
+        <v>6</v>
+      </c>
+      <c r="AY59">
+        <v>16</v>
+      </c>
+      <c r="AZ59">
+        <v>10</v>
+      </c>
+      <c r="BA59">
+        <v>5</v>
+      </c>
+      <c r="BB59">
+        <v>4</v>
+      </c>
+      <c r="BC59">
+        <v>9</v>
+      </c>
+      <c r="BD59">
+        <v>1.7</v>
+      </c>
+      <c r="BE59">
+        <v>6.4</v>
+      </c>
+      <c r="BF59">
+        <v>2.43</v>
+      </c>
+      <c r="BG59">
+        <v>1.32</v>
+      </c>
+      <c r="BH59">
+        <v>3</v>
+      </c>
+      <c r="BI59">
+        <v>1.55</v>
+      </c>
+      <c r="BJ59">
+        <v>2.25</v>
+      </c>
+      <c r="BK59">
+        <v>1.9</v>
+      </c>
+      <c r="BL59">
+        <v>1.79</v>
+      </c>
+      <c r="BM59">
+        <v>2.4</v>
+      </c>
+      <c r="BN59">
+        <v>1.49</v>
+      </c>
+      <c r="BO59">
+        <v>3.15</v>
+      </c>
+      <c r="BP59">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7491868</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45584.4375</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>85</v>
+      </c>
+      <c r="H60" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>132</v>
+      </c>
+      <c r="P60" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q60">
+        <v>1.83</v>
+      </c>
+      <c r="R60">
+        <v>2.75</v>
+      </c>
+      <c r="S60">
+        <v>6</v>
+      </c>
+      <c r="T60">
+        <v>1.2</v>
+      </c>
+      <c r="U60">
+        <v>4.33</v>
+      </c>
+      <c r="V60">
+        <v>2</v>
+      </c>
+      <c r="W60">
+        <v>1.73</v>
+      </c>
+      <c r="X60">
+        <v>4.33</v>
+      </c>
+      <c r="Y60">
+        <v>1.2</v>
+      </c>
+      <c r="Z60">
+        <v>1.36</v>
+      </c>
+      <c r="AA60">
+        <v>4.56</v>
+      </c>
+      <c r="AB60">
+        <v>5.9</v>
+      </c>
+      <c r="AC60">
+        <v>1.01</v>
+      </c>
+      <c r="AD60">
+        <v>29</v>
+      </c>
+      <c r="AE60">
+        <v>1.12</v>
+      </c>
+      <c r="AF60">
+        <v>6.5</v>
+      </c>
+      <c r="AG60">
+        <v>1.45</v>
+      </c>
+      <c r="AH60">
+        <v>2.76</v>
+      </c>
+      <c r="AI60">
+        <v>1.57</v>
+      </c>
+      <c r="AJ60">
+        <v>2.25</v>
+      </c>
+      <c r="AK60">
+        <v>1.1</v>
+      </c>
+      <c r="AL60">
+        <v>1.12</v>
+      </c>
+      <c r="AM60">
+        <v>3</v>
+      </c>
+      <c r="AN60">
+        <v>1.33</v>
+      </c>
+      <c r="AO60">
+        <v>2</v>
+      </c>
+      <c r="AP60">
+        <v>1.75</v>
+      </c>
+      <c r="AQ60">
+        <v>1.5</v>
+      </c>
+      <c r="AR60">
+        <v>2.44</v>
+      </c>
+      <c r="AS60">
+        <v>1.52</v>
+      </c>
+      <c r="AT60">
+        <v>3.96</v>
+      </c>
+      <c r="AU60">
+        <v>10</v>
+      </c>
+      <c r="AV60">
+        <v>3</v>
+      </c>
+      <c r="AW60">
+        <v>10</v>
+      </c>
+      <c r="AX60">
+        <v>4</v>
+      </c>
+      <c r="AY60">
+        <v>28</v>
+      </c>
+      <c r="AZ60">
+        <v>10</v>
+      </c>
+      <c r="BA60">
+        <v>8</v>
+      </c>
+      <c r="BB60">
+        <v>3</v>
+      </c>
+      <c r="BC60">
+        <v>11</v>
+      </c>
+      <c r="BD60">
+        <v>1.24</v>
+      </c>
+      <c r="BE60">
+        <v>8</v>
+      </c>
+      <c r="BF60">
+        <v>4.35</v>
+      </c>
+      <c r="BG60">
+        <v>1.21</v>
+      </c>
+      <c r="BH60">
+        <v>3.8</v>
+      </c>
+      <c r="BI60">
+        <v>1.38</v>
+      </c>
+      <c r="BJ60">
+        <v>2.7</v>
+      </c>
+      <c r="BK60">
+        <v>1.65</v>
+      </c>
+      <c r="BL60">
+        <v>2.08</v>
+      </c>
+      <c r="BM60">
+        <v>1.98</v>
+      </c>
+      <c r="BN60">
+        <v>1.72</v>
+      </c>
+      <c r="BO60">
+        <v>2.5</v>
+      </c>
+      <c r="BP60">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7491871</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45584.4375</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" t="s">
+        <v>83</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>4</v>
+      </c>
+      <c r="O61" t="s">
+        <v>133</v>
+      </c>
+      <c r="P61" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q61">
+        <v>2.2</v>
+      </c>
+      <c r="R61">
+        <v>2.6</v>
+      </c>
+      <c r="S61">
+        <v>4.33</v>
+      </c>
+      <c r="T61">
+        <v>1.22</v>
+      </c>
+      <c r="U61">
+        <v>4</v>
+      </c>
+      <c r="V61">
+        <v>2.1</v>
+      </c>
+      <c r="W61">
+        <v>1.67</v>
+      </c>
+      <c r="X61">
+        <v>4.5</v>
+      </c>
+      <c r="Y61">
+        <v>1.18</v>
+      </c>
+      <c r="Z61">
+        <v>1.69</v>
+      </c>
+      <c r="AA61">
+        <v>3.71</v>
+      </c>
+      <c r="AB61">
+        <v>3.76</v>
+      </c>
+      <c r="AC61">
+        <v>1.01</v>
+      </c>
+      <c r="AD61">
+        <v>26</v>
+      </c>
+      <c r="AE61">
+        <v>1.12</v>
+      </c>
+      <c r="AF61">
+        <v>6.5</v>
+      </c>
+      <c r="AG61">
+        <v>1.6</v>
+      </c>
+      <c r="AH61">
+        <v>2.2</v>
+      </c>
+      <c r="AI61">
+        <v>1.5</v>
+      </c>
+      <c r="AJ61">
+        <v>2.5</v>
+      </c>
+      <c r="AK61">
+        <v>1.2</v>
+      </c>
+      <c r="AL61">
+        <v>1.17</v>
+      </c>
+      <c r="AM61">
+        <v>2.25</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>1.5</v>
+      </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
+      <c r="AR61">
+        <v>1.68</v>
+      </c>
+      <c r="AS61">
+        <v>1.06</v>
+      </c>
+      <c r="AT61">
+        <v>2.74</v>
+      </c>
+      <c r="AU61">
+        <v>8</v>
+      </c>
+      <c r="AV61">
+        <v>6</v>
+      </c>
+      <c r="AW61">
+        <v>4</v>
+      </c>
+      <c r="AX61">
+        <v>5</v>
+      </c>
+      <c r="AY61">
+        <v>13</v>
+      </c>
+      <c r="AZ61">
+        <v>15</v>
+      </c>
+      <c r="BA61">
+        <v>4</v>
+      </c>
+      <c r="BB61">
+        <v>2</v>
+      </c>
+      <c r="BC61">
+        <v>6</v>
+      </c>
+      <c r="BD61">
+        <v>1.49</v>
+      </c>
+      <c r="BE61">
+        <v>6.75</v>
+      </c>
+      <c r="BF61">
+        <v>2.9</v>
+      </c>
+      <c r="BG61">
+        <v>1.26</v>
+      </c>
+      <c r="BH61">
+        <v>3.4</v>
+      </c>
+      <c r="BI61">
+        <v>1.46</v>
+      </c>
+      <c r="BJ61">
+        <v>2.48</v>
+      </c>
+      <c r="BK61">
+        <v>1.74</v>
+      </c>
+      <c r="BL61">
+        <v>1.96</v>
+      </c>
+      <c r="BM61">
+        <v>2.15</v>
+      </c>
+      <c r="BN61">
+        <v>1.61</v>
+      </c>
+      <c r="BO61">
+        <v>2.7</v>
+      </c>
+      <c r="BP61">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7491869</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45584.5625</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>87</v>
+      </c>
+      <c r="H62" t="s">
+        <v>80</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>134</v>
+      </c>
+      <c r="P62" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q62">
+        <v>1.73</v>
+      </c>
+      <c r="R62">
+        <v>2.88</v>
+      </c>
+      <c r="S62">
+        <v>6</v>
+      </c>
+      <c r="T62">
+        <v>1.18</v>
+      </c>
+      <c r="U62">
+        <v>4.5</v>
+      </c>
+      <c r="V62">
+        <v>1.83</v>
+      </c>
+      <c r="W62">
+        <v>1.83</v>
+      </c>
+      <c r="X62">
+        <v>3.75</v>
+      </c>
+      <c r="Y62">
+        <v>1.25</v>
+      </c>
+      <c r="Z62">
+        <v>1.34</v>
+      </c>
+      <c r="AA62">
+        <v>4.77</v>
+      </c>
+      <c r="AB62">
+        <v>6.09</v>
+      </c>
+      <c r="AC62">
+        <v>1.01</v>
+      </c>
+      <c r="AD62">
+        <v>14.9</v>
+      </c>
+      <c r="AE62">
+        <v>1.04</v>
+      </c>
+      <c r="AF62">
+        <v>6.5</v>
+      </c>
+      <c r="AG62">
+        <v>1.3</v>
+      </c>
+      <c r="AH62">
+        <v>3.4</v>
+      </c>
+      <c r="AI62">
+        <v>1.53</v>
+      </c>
+      <c r="AJ62">
+        <v>2.38</v>
+      </c>
+      <c r="AK62">
+        <v>1.06</v>
+      </c>
+      <c r="AL62">
+        <v>1.11</v>
+      </c>
+      <c r="AM62">
+        <v>3.3</v>
+      </c>
+      <c r="AN62">
+        <v>2</v>
+      </c>
+      <c r="AO62">
+        <v>1.33</v>
+      </c>
+      <c r="AP62">
+        <v>2.33</v>
+      </c>
+      <c r="AQ62">
+        <v>1</v>
+      </c>
+      <c r="AR62">
+        <v>1.47</v>
+      </c>
+      <c r="AS62">
+        <v>1.31</v>
+      </c>
+      <c r="AT62">
+        <v>2.78</v>
+      </c>
+      <c r="AU62">
+        <v>11</v>
+      </c>
+      <c r="AV62">
+        <v>2</v>
+      </c>
+      <c r="AW62">
+        <v>8</v>
+      </c>
+      <c r="AX62">
+        <v>2</v>
+      </c>
+      <c r="AY62">
+        <v>23</v>
+      </c>
+      <c r="AZ62">
+        <v>5</v>
+      </c>
+      <c r="BA62">
+        <v>7</v>
+      </c>
+      <c r="BB62">
+        <v>3</v>
+      </c>
+      <c r="BC62">
+        <v>10</v>
+      </c>
+      <c r="BD62">
+        <v>1.27</v>
+      </c>
+      <c r="BE62">
+        <v>7.5</v>
+      </c>
+      <c r="BF62">
+        <v>4.1</v>
+      </c>
+      <c r="BG62">
+        <v>1.33</v>
+      </c>
+      <c r="BH62">
+        <v>2.95</v>
+      </c>
+      <c r="BI62">
+        <v>1.57</v>
+      </c>
+      <c r="BJ62">
+        <v>2.23</v>
+      </c>
+      <c r="BK62">
+        <v>1.92</v>
+      </c>
+      <c r="BL62">
+        <v>1.77</v>
+      </c>
+      <c r="BM62">
+        <v>2.43</v>
+      </c>
+      <c r="BN62">
+        <v>1.48</v>
+      </c>
+      <c r="BO62">
+        <v>3.15</v>
+      </c>
+      <c r="BP62">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7491876</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45585.4375</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>84</v>
+      </c>
+      <c r="H63" t="s">
+        <v>79</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63" t="s">
+        <v>96</v>
+      </c>
+      <c r="P63" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q63">
+        <v>4</v>
+      </c>
+      <c r="R63">
+        <v>2.1</v>
+      </c>
+      <c r="S63">
+        <v>2.75</v>
+      </c>
+      <c r="T63">
+        <v>1.4</v>
+      </c>
+      <c r="U63">
+        <v>2.75</v>
+      </c>
+      <c r="V63">
+        <v>3</v>
+      </c>
+      <c r="W63">
+        <v>1.36</v>
+      </c>
+      <c r="X63">
+        <v>8</v>
+      </c>
+      <c r="Y63">
+        <v>1.08</v>
+      </c>
+      <c r="Z63">
+        <v>3.14</v>
+      </c>
+      <c r="AA63">
+        <v>3.54</v>
+      </c>
+      <c r="AB63">
+        <v>2.21</v>
+      </c>
+      <c r="AC63">
+        <v>1.06</v>
+      </c>
+      <c r="AD63">
+        <v>11</v>
+      </c>
+      <c r="AE63">
+        <v>1.32</v>
+      </c>
+      <c r="AF63">
+        <v>3.4</v>
+      </c>
+      <c r="AG63">
+        <v>1.7</v>
+      </c>
+      <c r="AH63">
+        <v>2.16</v>
+      </c>
+      <c r="AI63">
+        <v>1.8</v>
+      </c>
+      <c r="AJ63">
+        <v>1.95</v>
+      </c>
+      <c r="AK63">
+        <v>1.75</v>
+      </c>
+      <c r="AL63">
+        <v>1.28</v>
+      </c>
+      <c r="AM63">
+        <v>1.3</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>0.67</v>
+      </c>
+      <c r="AP63">
+        <v>0</v>
+      </c>
+      <c r="AQ63">
+        <v>1.25</v>
+      </c>
+      <c r="AR63">
+        <v>1.07</v>
+      </c>
+      <c r="AS63">
+        <v>1.21</v>
+      </c>
+      <c r="AT63">
+        <v>2.28</v>
+      </c>
+      <c r="AU63">
+        <v>6</v>
+      </c>
+      <c r="AV63">
+        <v>5</v>
+      </c>
+      <c r="AW63">
+        <v>6</v>
+      </c>
+      <c r="AX63">
+        <v>6</v>
+      </c>
+      <c r="AY63">
+        <v>13</v>
+      </c>
+      <c r="AZ63">
+        <v>15</v>
+      </c>
+      <c r="BA63">
+        <v>7</v>
+      </c>
+      <c r="BB63">
+        <v>3</v>
+      </c>
+      <c r="BC63">
+        <v>10</v>
+      </c>
+      <c r="BD63">
+        <v>2.84</v>
+      </c>
+      <c r="BE63">
+        <v>7.5</v>
+      </c>
+      <c r="BF63">
+        <v>1.66</v>
+      </c>
+      <c r="BG63">
+        <v>1.14</v>
+      </c>
+      <c r="BH63">
+        <v>4.15</v>
+      </c>
+      <c r="BI63">
+        <v>1.31</v>
+      </c>
+      <c r="BJ63">
+        <v>2.82</v>
+      </c>
+      <c r="BK63">
+        <v>1.6</v>
+      </c>
+      <c r="BL63">
+        <v>2.14</v>
+      </c>
+      <c r="BM63">
+        <v>2</v>
+      </c>
+      <c r="BN63">
+        <v>1.73</v>
+      </c>
+      <c r="BO63">
+        <v>2.6</v>
+      </c>
+      <c r="BP63">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7491873</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45585.52083333334</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" t="s">
+        <v>82</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>4</v>
+      </c>
+      <c r="N64">
+        <v>6</v>
+      </c>
+      <c r="O64" t="s">
+        <v>135</v>
+      </c>
+      <c r="P64" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q64">
+        <v>2.75</v>
+      </c>
+      <c r="R64">
+        <v>2.25</v>
+      </c>
+      <c r="S64">
+        <v>3.75</v>
+      </c>
+      <c r="T64">
+        <v>1.36</v>
+      </c>
+      <c r="U64">
+        <v>3</v>
+      </c>
+      <c r="V64">
+        <v>2.63</v>
+      </c>
+      <c r="W64">
+        <v>1.44</v>
+      </c>
+      <c r="X64">
+        <v>7</v>
+      </c>
+      <c r="Y64">
+        <v>1.1</v>
+      </c>
+      <c r="Z64">
+        <v>2.05</v>
+      </c>
+      <c r="AA64">
+        <v>3.6</v>
+      </c>
+      <c r="AB64">
+        <v>3.3</v>
+      </c>
+      <c r="AC64">
+        <v>1.03</v>
+      </c>
+      <c r="AD64">
+        <v>15</v>
+      </c>
+      <c r="AE64">
+        <v>1.24</v>
+      </c>
+      <c r="AF64">
+        <v>4.2</v>
+      </c>
+      <c r="AG64">
+        <v>1.7</v>
+      </c>
+      <c r="AH64">
+        <v>2.05</v>
+      </c>
+      <c r="AI64">
+        <v>1.62</v>
+      </c>
+      <c r="AJ64">
+        <v>2.2</v>
+      </c>
+      <c r="AK64">
+        <v>1.32</v>
+      </c>
+      <c r="AL64">
+        <v>1.24</v>
+      </c>
+      <c r="AM64">
+        <v>1.83</v>
+      </c>
+      <c r="AN64">
+        <v>0.33</v>
+      </c>
+      <c r="AO64">
+        <v>2.33</v>
+      </c>
+      <c r="AP64">
+        <v>0.25</v>
+      </c>
+      <c r="AQ64">
+        <v>2.5</v>
+      </c>
+      <c r="AR64">
+        <v>1.11</v>
+      </c>
+      <c r="AS64">
+        <v>1.67</v>
+      </c>
+      <c r="AT64">
+        <v>2.78</v>
+      </c>
+      <c r="AU64">
+        <v>7</v>
+      </c>
+      <c r="AV64">
+        <v>8</v>
+      </c>
+      <c r="AW64">
+        <v>7</v>
+      </c>
+      <c r="AX64">
+        <v>4</v>
+      </c>
+      <c r="AY64">
+        <v>15</v>
+      </c>
+      <c r="AZ64">
+        <v>16</v>
+      </c>
+      <c r="BA64">
+        <v>4</v>
+      </c>
+      <c r="BB64">
+        <v>4</v>
+      </c>
+      <c r="BC64">
+        <v>8</v>
+      </c>
+      <c r="BD64">
+        <v>1.58</v>
+      </c>
+      <c r="BE64">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF64">
+        <v>2.99</v>
+      </c>
+      <c r="BG64">
+        <v>1.3</v>
+      </c>
+      <c r="BH64">
+        <v>2.88</v>
+      </c>
+      <c r="BI64">
+        <v>1.59</v>
+      </c>
+      <c r="BJ64">
+        <v>2.16</v>
+      </c>
+      <c r="BK64">
+        <v>2</v>
+      </c>
+      <c r="BL64">
+        <v>1.73</v>
+      </c>
+      <c r="BM64">
+        <v>2.67</v>
+      </c>
+      <c r="BN64">
+        <v>1.39</v>
+      </c>
+      <c r="BO64">
+        <v>3.58</v>
+      </c>
+      <c r="BP64">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -556,10 +556,10 @@
     <t>['16']</t>
   </si>
   <si>
+    <t>['45+5', '51', '67', '72']</t>
+  </si>
+  <si>
     <t>['18', '89']</t>
-  </si>
-  <si>
-    <t>['45+5', '51', '67', '72']</t>
   </si>
 </sst>
 </file>
@@ -13704,7 +13704,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7491876</v>
+        <v>7491873</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13713,196 +13713,196 @@
         <v>69</v>
       </c>
       <c r="E63" s="2">
-        <v>45585.4375</v>
+        <v>45584.875</v>
       </c>
       <c r="F63">
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O63" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="P63" t="s">
         <v>180</v>
       </c>
       <c r="Q63">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="R63">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S63">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="T63">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U63">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V63">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W63">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X63">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y63">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z63">
-        <v>3.14</v>
+        <v>2.05</v>
       </c>
       <c r="AA63">
-        <v>3.54</v>
+        <v>3.6</v>
       </c>
       <c r="AB63">
-        <v>2.21</v>
+        <v>3.3</v>
       </c>
       <c r="AC63">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD63">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE63">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="AF63">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="AG63">
         <v>1.7</v>
       </c>
       <c r="AH63">
+        <v>2.05</v>
+      </c>
+      <c r="AI63">
+        <v>1.62</v>
+      </c>
+      <c r="AJ63">
+        <v>2.2</v>
+      </c>
+      <c r="AK63">
+        <v>1.32</v>
+      </c>
+      <c r="AL63">
+        <v>1.24</v>
+      </c>
+      <c r="AM63">
+        <v>1.83</v>
+      </c>
+      <c r="AN63">
+        <v>0.33</v>
+      </c>
+      <c r="AO63">
+        <v>2.33</v>
+      </c>
+      <c r="AP63">
+        <v>0.25</v>
+      </c>
+      <c r="AQ63">
+        <v>2.5</v>
+      </c>
+      <c r="AR63">
+        <v>1.11</v>
+      </c>
+      <c r="AS63">
+        <v>1.67</v>
+      </c>
+      <c r="AT63">
+        <v>2.78</v>
+      </c>
+      <c r="AU63">
+        <v>7</v>
+      </c>
+      <c r="AV63">
+        <v>8</v>
+      </c>
+      <c r="AW63">
+        <v>7</v>
+      </c>
+      <c r="AX63">
+        <v>4</v>
+      </c>
+      <c r="AY63">
+        <v>15</v>
+      </c>
+      <c r="AZ63">
+        <v>16</v>
+      </c>
+      <c r="BA63">
+        <v>4</v>
+      </c>
+      <c r="BB63">
+        <v>4</v>
+      </c>
+      <c r="BC63">
+        <v>8</v>
+      </c>
+      <c r="BD63">
+        <v>1.58</v>
+      </c>
+      <c r="BE63">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF63">
+        <v>2.99</v>
+      </c>
+      <c r="BG63">
+        <v>1.3</v>
+      </c>
+      <c r="BH63">
+        <v>2.88</v>
+      </c>
+      <c r="BI63">
+        <v>1.59</v>
+      </c>
+      <c r="BJ63">
         <v>2.16</v>
       </c>
-      <c r="AI63">
-        <v>1.8</v>
-      </c>
-      <c r="AJ63">
-        <v>1.95</v>
-      </c>
-      <c r="AK63">
-        <v>1.75</v>
-      </c>
-      <c r="AL63">
-        <v>1.28</v>
-      </c>
-      <c r="AM63">
-        <v>1.3</v>
-      </c>
-      <c r="AN63">
-        <v>0</v>
-      </c>
-      <c r="AO63">
-        <v>0.67</v>
-      </c>
-      <c r="AP63">
-        <v>0</v>
-      </c>
-      <c r="AQ63">
-        <v>1.25</v>
-      </c>
-      <c r="AR63">
-        <v>1.07</v>
-      </c>
-      <c r="AS63">
-        <v>1.21</v>
-      </c>
-      <c r="AT63">
-        <v>2.28</v>
-      </c>
-      <c r="AU63">
-        <v>6</v>
-      </c>
-      <c r="AV63">
-        <v>5</v>
-      </c>
-      <c r="AW63">
-        <v>6</v>
-      </c>
-      <c r="AX63">
-        <v>6</v>
-      </c>
-      <c r="AY63">
-        <v>13</v>
-      </c>
-      <c r="AZ63">
-        <v>15</v>
-      </c>
-      <c r="BA63">
-        <v>7</v>
-      </c>
-      <c r="BB63">
-        <v>3</v>
-      </c>
-      <c r="BC63">
-        <v>10</v>
-      </c>
-      <c r="BD63">
-        <v>2.84</v>
-      </c>
-      <c r="BE63">
-        <v>7.5</v>
-      </c>
-      <c r="BF63">
-        <v>1.66</v>
-      </c>
-      <c r="BG63">
-        <v>1.14</v>
-      </c>
-      <c r="BH63">
-        <v>4.15</v>
-      </c>
-      <c r="BI63">
-        <v>1.31</v>
-      </c>
-      <c r="BJ63">
-        <v>2.82</v>
-      </c>
       <c r="BK63">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="BL63">
-        <v>2.14</v>
+        <v>1.73</v>
       </c>
       <c r="BM63">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="BN63">
-        <v>1.73</v>
+        <v>1.39</v>
       </c>
       <c r="BO63">
-        <v>2.6</v>
+        <v>3.58</v>
       </c>
       <c r="BP63">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -13910,7 +13910,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7491873</v>
+        <v>7491876</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13919,196 +13919,196 @@
         <v>69</v>
       </c>
       <c r="E64" s="2">
-        <v>45585.52083333334</v>
+        <v>45584.875</v>
       </c>
       <c r="F64">
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O64" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="P64" t="s">
         <v>181</v>
       </c>
       <c r="Q64">
+        <v>4</v>
+      </c>
+      <c r="R64">
+        <v>2.1</v>
+      </c>
+      <c r="S64">
         <v>2.75</v>
       </c>
-      <c r="R64">
-        <v>2.25</v>
-      </c>
-      <c r="S64">
-        <v>3.75</v>
-      </c>
       <c r="T64">
+        <v>1.4</v>
+      </c>
+      <c r="U64">
+        <v>2.75</v>
+      </c>
+      <c r="V64">
+        <v>3</v>
+      </c>
+      <c r="W64">
         <v>1.36</v>
       </c>
-      <c r="U64">
-        <v>3</v>
-      </c>
-      <c r="V64">
-        <v>2.63</v>
-      </c>
-      <c r="W64">
-        <v>1.44</v>
-      </c>
       <c r="X64">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y64">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z64">
-        <v>2.05</v>
+        <v>3.14</v>
       </c>
       <c r="AA64">
-        <v>3.6</v>
+        <v>3.54</v>
       </c>
       <c r="AB64">
-        <v>3.3</v>
+        <v>2.21</v>
       </c>
       <c r="AC64">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AD64">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE64">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AF64">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AG64">
         <v>1.7</v>
       </c>
       <c r="AH64">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="AI64">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AJ64">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AK64">
-        <v>1.32</v>
+        <v>1.75</v>
       </c>
       <c r="AL64">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AM64">
-        <v>1.83</v>
+        <v>1.3</v>
       </c>
       <c r="AN64">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO64">
-        <v>2.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ64">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR64">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AS64">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="AT64">
-        <v>2.78</v>
+        <v>2.28</v>
       </c>
       <c r="AU64">
+        <v>6</v>
+      </c>
+      <c r="AV64">
+        <v>5</v>
+      </c>
+      <c r="AW64">
+        <v>6</v>
+      </c>
+      <c r="AX64">
+        <v>6</v>
+      </c>
+      <c r="AY64">
+        <v>13</v>
+      </c>
+      <c r="AZ64">
+        <v>15</v>
+      </c>
+      <c r="BA64">
         <v>7</v>
       </c>
-      <c r="AV64">
-        <v>8</v>
-      </c>
-      <c r="AW64">
-        <v>7</v>
-      </c>
-      <c r="AX64">
-        <v>4</v>
-      </c>
-      <c r="AY64">
-        <v>15</v>
-      </c>
-      <c r="AZ64">
-        <v>16</v>
-      </c>
-      <c r="BA64">
-        <v>4</v>
-      </c>
       <c r="BB64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC64">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD64">
-        <v>1.58</v>
+        <v>2.84</v>
       </c>
       <c r="BE64">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="BF64">
-        <v>2.99</v>
+        <v>1.66</v>
       </c>
       <c r="BG64">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="BH64">
-        <v>2.88</v>
+        <v>4.15</v>
       </c>
       <c r="BI64">
-        <v>1.59</v>
+        <v>1.31</v>
       </c>
       <c r="BJ64">
-        <v>2.16</v>
+        <v>2.82</v>
       </c>
       <c r="BK64">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="BL64">
+        <v>2.14</v>
+      </c>
+      <c r="BM64">
+        <v>2</v>
+      </c>
+      <c r="BN64">
         <v>1.73</v>
       </c>
-      <c r="BM64">
-        <v>2.67</v>
-      </c>
-      <c r="BN64">
-        <v>1.39</v>
-      </c>
       <c r="BO64">
-        <v>3.58</v>
+        <v>2.6</v>
       </c>
       <c r="BP64">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -556,10 +556,10 @@
     <t>['16']</t>
   </si>
   <si>
+    <t>['18', '89']</t>
+  </si>
+  <si>
     <t>['45+5', '51', '67', '72']</t>
-  </si>
-  <si>
-    <t>['18', '89']</t>
   </si>
 </sst>
 </file>
@@ -13704,7 +13704,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7491873</v>
+        <v>7491876</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13713,196 +13713,196 @@
         <v>69</v>
       </c>
       <c r="E63" s="2">
-        <v>45584.875</v>
+        <v>45585.4375</v>
       </c>
       <c r="F63">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N63">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O63" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="P63" t="s">
         <v>180</v>
       </c>
       <c r="Q63">
+        <v>4</v>
+      </c>
+      <c r="R63">
+        <v>2.1</v>
+      </c>
+      <c r="S63">
         <v>2.75</v>
       </c>
-      <c r="R63">
-        <v>2.25</v>
-      </c>
-      <c r="S63">
-        <v>3.75</v>
-      </c>
       <c r="T63">
+        <v>1.4</v>
+      </c>
+      <c r="U63">
+        <v>2.75</v>
+      </c>
+      <c r="V63">
+        <v>3</v>
+      </c>
+      <c r="W63">
         <v>1.36</v>
       </c>
-      <c r="U63">
-        <v>3</v>
-      </c>
-      <c r="V63">
-        <v>2.63</v>
-      </c>
-      <c r="W63">
-        <v>1.44</v>
-      </c>
       <c r="X63">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y63">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z63">
-        <v>2.05</v>
+        <v>3.14</v>
       </c>
       <c r="AA63">
-        <v>3.6</v>
+        <v>3.54</v>
       </c>
       <c r="AB63">
-        <v>3.3</v>
+        <v>2.21</v>
       </c>
       <c r="AC63">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AD63">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE63">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AF63">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AG63">
         <v>1.7</v>
       </c>
       <c r="AH63">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="AI63">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AJ63">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AK63">
-        <v>1.32</v>
+        <v>1.75</v>
       </c>
       <c r="AL63">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AM63">
-        <v>1.83</v>
+        <v>1.3</v>
       </c>
       <c r="AN63">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO63">
-        <v>2.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ63">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR63">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AS63">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="AT63">
-        <v>2.78</v>
+        <v>2.28</v>
       </c>
       <c r="AU63">
+        <v>6</v>
+      </c>
+      <c r="AV63">
+        <v>4</v>
+      </c>
+      <c r="AW63">
+        <v>5</v>
+      </c>
+      <c r="AX63">
+        <v>3</v>
+      </c>
+      <c r="AY63">
+        <v>11</v>
+      </c>
+      <c r="AZ63">
         <v>7</v>
       </c>
-      <c r="AV63">
-        <v>8</v>
-      </c>
-      <c r="AW63">
+      <c r="BA63">
         <v>7</v>
       </c>
-      <c r="AX63">
-        <v>4</v>
-      </c>
-      <c r="AY63">
-        <v>15</v>
-      </c>
-      <c r="AZ63">
-        <v>16</v>
-      </c>
-      <c r="BA63">
-        <v>4</v>
-      </c>
       <c r="BB63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC63">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD63">
-        <v>1.58</v>
+        <v>2.84</v>
       </c>
       <c r="BE63">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="BF63">
-        <v>2.99</v>
+        <v>1.66</v>
       </c>
       <c r="BG63">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="BH63">
-        <v>2.88</v>
+        <v>4.15</v>
       </c>
       <c r="BI63">
-        <v>1.59</v>
+        <v>1.31</v>
       </c>
       <c r="BJ63">
-        <v>2.16</v>
+        <v>2.82</v>
       </c>
       <c r="BK63">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="BL63">
+        <v>2.14</v>
+      </c>
+      <c r="BM63">
+        <v>2</v>
+      </c>
+      <c r="BN63">
         <v>1.73</v>
       </c>
-      <c r="BM63">
-        <v>2.67</v>
-      </c>
-      <c r="BN63">
-        <v>1.39</v>
-      </c>
       <c r="BO63">
-        <v>3.58</v>
+        <v>2.6</v>
       </c>
       <c r="BP63">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -13910,7 +13910,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7491876</v>
+        <v>7491873</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13919,196 +13919,196 @@
         <v>69</v>
       </c>
       <c r="E64" s="2">
-        <v>45584.875</v>
+        <v>45585.52083333334</v>
       </c>
       <c r="F64">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O64" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="P64" t="s">
         <v>181</v>
       </c>
       <c r="Q64">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="R64">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S64">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="T64">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U64">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V64">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W64">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X64">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y64">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z64">
-        <v>3.14</v>
+        <v>2.05</v>
       </c>
       <c r="AA64">
-        <v>3.54</v>
+        <v>3.6</v>
       </c>
       <c r="AB64">
-        <v>2.21</v>
+        <v>3.3</v>
       </c>
       <c r="AC64">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD64">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE64">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="AF64">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="AG64">
         <v>1.7</v>
       </c>
       <c r="AH64">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AI64">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AJ64">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AK64">
-        <v>1.75</v>
+        <v>1.32</v>
       </c>
       <c r="AL64">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AM64">
-        <v>1.3</v>
+        <v>1.83</v>
       </c>
       <c r="AN64">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO64">
-        <v>0.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="AR64">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="AS64">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="AT64">
-        <v>2.28</v>
+        <v>2.78</v>
       </c>
       <c r="AU64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW64">
         <v>6</v>
       </c>
       <c r="AX64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY64">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ64">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BA64">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC64">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD64">
-        <v>2.84</v>
+        <v>1.58</v>
       </c>
       <c r="BE64">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF64">
-        <v>1.66</v>
+        <v>2.99</v>
       </c>
       <c r="BG64">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="BH64">
-        <v>4.15</v>
+        <v>2.88</v>
       </c>
       <c r="BI64">
-        <v>1.31</v>
+        <v>1.59</v>
       </c>
       <c r="BJ64">
-        <v>2.82</v>
+        <v>2.16</v>
       </c>
       <c r="BK64">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="BL64">
-        <v>2.14</v>
+        <v>1.73</v>
       </c>
       <c r="BM64">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="BN64">
-        <v>1.73</v>
+        <v>1.39</v>
       </c>
       <c r="BO64">
-        <v>2.6</v>
+        <v>3.58</v>
       </c>
       <c r="BP64">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,9 @@
     <t>['19', '79']</t>
   </si>
   <si>
+    <t>['55']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -560,6 +563,9 @@
   </si>
   <si>
     <t>['45+5', '51', '67', '72']</t>
+  </si>
+  <si>
+    <t>['57']</t>
   </si>
 </sst>
 </file>
@@ -921,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1180,7 +1186,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1592,7 +1598,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1798,7 +1804,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2004,7 +2010,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2210,7 +2216,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2288,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ7">
         <v>1.25</v>
@@ -2622,7 +2628,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2828,7 +2834,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3240,7 +3246,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3446,7 +3452,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q13">
         <v>2.3</v>
@@ -3858,7 +3864,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4064,7 +4070,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4270,7 +4276,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4888,7 +4894,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5094,7 +5100,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5300,7 +5306,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>2.25</v>
@@ -5506,7 +5512,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5712,7 +5718,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6124,7 +6130,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6330,7 +6336,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6536,7 +6542,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6614,7 +6620,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ28">
         <v>2.5</v>
@@ -6742,7 +6748,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6948,7 +6954,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>2.5</v>
@@ -7154,7 +7160,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q31">
         <v>2.63</v>
@@ -7360,7 +7366,7 @@
         <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q32">
         <v>3.25</v>
@@ -7566,7 +7572,7 @@
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -7978,7 +7984,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8184,7 +8190,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8596,7 +8602,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -8802,7 +8808,7 @@
         <v>96</v>
       </c>
       <c r="P39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q39">
         <v>2.38</v>
@@ -8880,7 +8886,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ39">
         <v>1.5</v>
@@ -9214,7 +9220,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9626,7 +9632,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -9832,7 +9838,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10038,7 +10044,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10244,7 +10250,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10656,7 +10662,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -10862,7 +10868,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11068,7 +11074,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11274,7 +11280,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11480,7 +11486,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11892,7 +11898,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12098,7 +12104,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12304,7 +12310,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12510,7 +12516,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -12716,7 +12722,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q58">
         <v>4.33</v>
@@ -12794,7 +12800,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ58">
         <v>2.5</v>
@@ -12922,7 +12928,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13128,7 +13134,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>1.83</v>
@@ -13746,7 +13752,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13952,7 +13958,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14109,6 +14115,212 @@
       </c>
       <c r="BP64">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7491882</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45590.64583333334</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>75</v>
+      </c>
+      <c r="H65" t="s">
+        <v>70</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>136</v>
+      </c>
+      <c r="P65" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q65">
+        <v>2.6</v>
+      </c>
+      <c r="R65">
+        <v>2.3</v>
+      </c>
+      <c r="S65">
+        <v>3.75</v>
+      </c>
+      <c r="T65">
+        <v>1.3</v>
+      </c>
+      <c r="U65">
+        <v>3.4</v>
+      </c>
+      <c r="V65">
+        <v>2.5</v>
+      </c>
+      <c r="W65">
+        <v>1.5</v>
+      </c>
+      <c r="X65">
+        <v>6</v>
+      </c>
+      <c r="Y65">
+        <v>1.13</v>
+      </c>
+      <c r="Z65">
+        <v>2.3</v>
+      </c>
+      <c r="AA65">
+        <v>3.75</v>
+      </c>
+      <c r="AB65">
+        <v>3</v>
+      </c>
+      <c r="AC65">
+        <v>1.02</v>
+      </c>
+      <c r="AD65">
+        <v>17</v>
+      </c>
+      <c r="AE65">
+        <v>1.19</v>
+      </c>
+      <c r="AF65">
+        <v>4.75</v>
+      </c>
+      <c r="AG65">
+        <v>1.6</v>
+      </c>
+      <c r="AH65">
+        <v>2.35</v>
+      </c>
+      <c r="AI65">
+        <v>1.57</v>
+      </c>
+      <c r="AJ65">
+        <v>2.25</v>
+      </c>
+      <c r="AK65">
+        <v>1.4</v>
+      </c>
+      <c r="AL65">
+        <v>1.22</v>
+      </c>
+      <c r="AM65">
+        <v>1.68</v>
+      </c>
+      <c r="AN65">
+        <v>0.25</v>
+      </c>
+      <c r="AO65">
+        <v>1</v>
+      </c>
+      <c r="AP65">
+        <v>0.4</v>
+      </c>
+      <c r="AQ65">
+        <v>1</v>
+      </c>
+      <c r="AR65">
+        <v>1.22</v>
+      </c>
+      <c r="AS65">
+        <v>1.59</v>
+      </c>
+      <c r="AT65">
+        <v>2.81</v>
+      </c>
+      <c r="AU65">
+        <v>7</v>
+      </c>
+      <c r="AV65">
+        <v>6</v>
+      </c>
+      <c r="AW65">
+        <v>8</v>
+      </c>
+      <c r="AX65">
+        <v>4</v>
+      </c>
+      <c r="AY65">
+        <v>24</v>
+      </c>
+      <c r="AZ65">
+        <v>11</v>
+      </c>
+      <c r="BA65">
+        <v>2</v>
+      </c>
+      <c r="BB65">
+        <v>4</v>
+      </c>
+      <c r="BC65">
+        <v>6</v>
+      </c>
+      <c r="BD65">
+        <v>1.77</v>
+      </c>
+      <c r="BE65">
+        <v>8.9</v>
+      </c>
+      <c r="BF65">
+        <v>2.44</v>
+      </c>
+      <c r="BG65">
+        <v>1.27</v>
+      </c>
+      <c r="BH65">
+        <v>3.3</v>
+      </c>
+      <c r="BI65">
+        <v>1.48</v>
+      </c>
+      <c r="BJ65">
+        <v>2.45</v>
+      </c>
+      <c r="BK65">
+        <v>1.91</v>
+      </c>
+      <c r="BL65">
+        <v>1.91</v>
+      </c>
+      <c r="BM65">
+        <v>2.23</v>
+      </c>
+      <c r="BN65">
+        <v>1.57</v>
+      </c>
+      <c r="BO65">
+        <v>2.9</v>
+      </c>
+      <c r="BP65">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="192">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,18 @@
     <t>['55']</t>
   </si>
   <si>
+    <t>['19', '61']</t>
+  </si>
+  <si>
+    <t>['47', '58', '78']</t>
+  </si>
+  <si>
+    <t>['25', '50']</t>
+  </si>
+  <si>
+    <t>['74', '90']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -566,6 +578,18 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['30', '77']</t>
   </si>
 </sst>
 </file>
@@ -927,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP65"/>
+  <dimension ref="A1:BP70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,7 +1210,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1267,7 +1291,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1470,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1598,7 +1622,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1679,7 +1703,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1804,7 +1828,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2010,7 +2034,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2088,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>2.5</v>
@@ -2216,7 +2240,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2628,7 +2652,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2834,7 +2858,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2912,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3246,7 +3270,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3324,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>2.33</v>
@@ -3452,7 +3476,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>2.3</v>
@@ -3736,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ14">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3864,7 +3888,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4070,7 +4094,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4151,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4276,7 +4300,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4769,7 +4793,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4894,7 +4918,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5100,7 +5124,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5181,7 +5205,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>2.26</v>
@@ -5306,7 +5330,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q22">
         <v>2.25</v>
@@ -5512,7 +5536,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5718,7 +5742,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6002,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ25">
         <v>1.25</v>
@@ -6130,7 +6154,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6336,7 +6360,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6414,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>0.75</v>
@@ -6542,7 +6566,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6748,7 +6772,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6826,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>2.33</v>
@@ -6954,7 +6978,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>2.5</v>
@@ -7035,7 +7059,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ30">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
         <v>1.57</v>
@@ -7160,7 +7184,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q31">
         <v>2.63</v>
@@ -7366,7 +7390,7 @@
         <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q32">
         <v>3.25</v>
@@ -7447,7 +7471,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.69</v>
@@ -7572,7 +7596,7 @@
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -7650,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ33">
         <v>2.5</v>
@@ -7984,7 +8008,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8065,7 +8089,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR35">
         <v>2.58</v>
@@ -8190,7 +8214,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8268,10 +8292,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR36">
         <v>2.62</v>
@@ -8474,7 +8498,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ37">
         <v>2.5</v>
@@ -8602,7 +8626,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -8808,7 +8832,7 @@
         <v>96</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>2.38</v>
@@ -9220,7 +9244,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9504,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ42">
         <v>0</v>
@@ -9632,7 +9656,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -9838,7 +9862,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -9919,7 +9943,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ44">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.17</v>
@@ -10044,7 +10068,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10250,7 +10274,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10534,7 +10558,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10662,7 +10686,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -10743,7 +10767,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ48">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR48">
         <v>2.42</v>
@@ -10868,7 +10892,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -10946,10 +10970,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR49">
         <v>0.41</v>
@@ -11074,7 +11098,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11155,7 +11179,7 @@
         <v>3</v>
       </c>
       <c r="AQ50">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -11280,7 +11304,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11361,7 +11385,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -11486,7 +11510,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11564,7 +11588,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ52">
         <v>2.33</v>
@@ -11898,7 +11922,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12104,7 +12128,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12182,7 +12206,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>0.33</v>
@@ -12310,7 +12334,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12516,7 +12540,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -12722,7 +12746,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q58">
         <v>4.33</v>
@@ -12928,7 +12952,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13134,7 +13158,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q60">
         <v>1.83</v>
@@ -13752,7 +13776,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13958,7 +13982,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14131,7 +14155,7 @@
         <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45590.64583333334</v>
+        <v>45589.875</v>
       </c>
       <c r="F65">
         <v>8</v>
@@ -14164,7 +14188,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14266,13 +14290,13 @@
         <v>8</v>
       </c>
       <c r="AX65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY65">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AZ65">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA65">
         <v>2</v>
@@ -14321,6 +14345,1036 @@
       </c>
       <c r="BP65">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7491885</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45591.4375</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s">
+        <v>77</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
+        <v>96</v>
+      </c>
+      <c r="P66" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q66">
+        <v>3.1</v>
+      </c>
+      <c r="R66">
+        <v>2.3</v>
+      </c>
+      <c r="S66">
+        <v>3.1</v>
+      </c>
+      <c r="T66">
+        <v>1.33</v>
+      </c>
+      <c r="U66">
+        <v>3.25</v>
+      </c>
+      <c r="V66">
+        <v>2.5</v>
+      </c>
+      <c r="W66">
+        <v>1.5</v>
+      </c>
+      <c r="X66">
+        <v>6</v>
+      </c>
+      <c r="Y66">
+        <v>1.13</v>
+      </c>
+      <c r="Z66">
+        <v>2.6</v>
+      </c>
+      <c r="AA66">
+        <v>3.7</v>
+      </c>
+      <c r="AB66">
+        <v>2.5</v>
+      </c>
+      <c r="AC66">
+        <v>1.04</v>
+      </c>
+      <c r="AD66">
+        <v>12</v>
+      </c>
+      <c r="AE66">
+        <v>1.28</v>
+      </c>
+      <c r="AF66">
+        <v>3.75</v>
+      </c>
+      <c r="AG66">
+        <v>1.6</v>
+      </c>
+      <c r="AH66">
+        <v>2.2</v>
+      </c>
+      <c r="AI66">
+        <v>1.57</v>
+      </c>
+      <c r="AJ66">
+        <v>2.25</v>
+      </c>
+      <c r="AK66">
+        <v>1.5</v>
+      </c>
+      <c r="AL66">
+        <v>1.26</v>
+      </c>
+      <c r="AM66">
+        <v>1.52</v>
+      </c>
+      <c r="AN66">
+        <v>0.33</v>
+      </c>
+      <c r="AO66">
+        <v>2</v>
+      </c>
+      <c r="AP66">
+        <v>0.5</v>
+      </c>
+      <c r="AQ66">
+        <v>1.75</v>
+      </c>
+      <c r="AR66">
+        <v>1.52</v>
+      </c>
+      <c r="AS66">
+        <v>1.3</v>
+      </c>
+      <c r="AT66">
+        <v>2.82</v>
+      </c>
+      <c r="AU66">
+        <v>6</v>
+      </c>
+      <c r="AV66">
+        <v>5</v>
+      </c>
+      <c r="AW66">
+        <v>4</v>
+      </c>
+      <c r="AX66">
+        <v>6</v>
+      </c>
+      <c r="AY66">
+        <v>16</v>
+      </c>
+      <c r="AZ66">
+        <v>11</v>
+      </c>
+      <c r="BA66">
+        <v>7</v>
+      </c>
+      <c r="BB66">
+        <v>6</v>
+      </c>
+      <c r="BC66">
+        <v>13</v>
+      </c>
+      <c r="BD66">
+        <v>1.91</v>
+      </c>
+      <c r="BE66">
+        <v>6.5</v>
+      </c>
+      <c r="BF66">
+        <v>2.07</v>
+      </c>
+      <c r="BG66">
+        <v>1.3</v>
+      </c>
+      <c r="BH66">
+        <v>3.05</v>
+      </c>
+      <c r="BI66">
+        <v>1.54</v>
+      </c>
+      <c r="BJ66">
+        <v>2.3</v>
+      </c>
+      <c r="BK66">
+        <v>1.88</v>
+      </c>
+      <c r="BL66">
+        <v>1.81</v>
+      </c>
+      <c r="BM66">
+        <v>2.35</v>
+      </c>
+      <c r="BN66">
+        <v>1.5</v>
+      </c>
+      <c r="BO66">
+        <v>3.05</v>
+      </c>
+      <c r="BP66">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7491877</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45591.4375</v>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>80</v>
+      </c>
+      <c r="H67" t="s">
+        <v>84</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67" t="s">
+        <v>137</v>
+      </c>
+      <c r="P67" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q67">
+        <v>1.8</v>
+      </c>
+      <c r="R67">
+        <v>2.75</v>
+      </c>
+      <c r="S67">
+        <v>6.5</v>
+      </c>
+      <c r="T67">
+        <v>1.22</v>
+      </c>
+      <c r="U67">
+        <v>4</v>
+      </c>
+      <c r="V67">
+        <v>2</v>
+      </c>
+      <c r="W67">
+        <v>1.73</v>
+      </c>
+      <c r="X67">
+        <v>4.33</v>
+      </c>
+      <c r="Y67">
+        <v>1.2</v>
+      </c>
+      <c r="Z67">
+        <v>1.27</v>
+      </c>
+      <c r="AA67">
+        <v>6.25</v>
+      </c>
+      <c r="AB67">
+        <v>9.75</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>34</v>
+      </c>
+      <c r="AE67">
+        <v>1.09</v>
+      </c>
+      <c r="AF67">
+        <v>7.5</v>
+      </c>
+      <c r="AG67">
+        <v>1.31</v>
+      </c>
+      <c r="AH67">
+        <v>3.27</v>
+      </c>
+      <c r="AI67">
+        <v>1.62</v>
+      </c>
+      <c r="AJ67">
+        <v>2.2</v>
+      </c>
+      <c r="AK67">
+        <v>1.01</v>
+      </c>
+      <c r="AL67">
+        <v>1.08</v>
+      </c>
+      <c r="AM67">
+        <v>4.2</v>
+      </c>
+      <c r="AN67">
+        <v>1.67</v>
+      </c>
+      <c r="AO67">
+        <v>0.67</v>
+      </c>
+      <c r="AP67">
+        <v>2</v>
+      </c>
+      <c r="AQ67">
+        <v>0.5</v>
+      </c>
+      <c r="AR67">
+        <v>2.2</v>
+      </c>
+      <c r="AS67">
+        <v>1.33</v>
+      </c>
+      <c r="AT67">
+        <v>3.53</v>
+      </c>
+      <c r="AU67">
+        <v>7</v>
+      </c>
+      <c r="AV67">
+        <v>4</v>
+      </c>
+      <c r="AW67">
+        <v>9</v>
+      </c>
+      <c r="AX67">
+        <v>3</v>
+      </c>
+      <c r="AY67">
+        <v>17</v>
+      </c>
+      <c r="AZ67">
+        <v>10</v>
+      </c>
+      <c r="BA67">
+        <v>8</v>
+      </c>
+      <c r="BB67">
+        <v>5</v>
+      </c>
+      <c r="BC67">
+        <v>13</v>
+      </c>
+      <c r="BD67">
+        <v>1.18</v>
+      </c>
+      <c r="BE67">
+        <v>9</v>
+      </c>
+      <c r="BF67">
+        <v>5.1</v>
+      </c>
+      <c r="BG67">
+        <v>1.23</v>
+      </c>
+      <c r="BH67">
+        <v>3.65</v>
+      </c>
+      <c r="BI67">
+        <v>1.41</v>
+      </c>
+      <c r="BJ67">
+        <v>2.65</v>
+      </c>
+      <c r="BK67">
+        <v>1.67</v>
+      </c>
+      <c r="BL67">
+        <v>2.05</v>
+      </c>
+      <c r="BM67">
+        <v>2.05</v>
+      </c>
+      <c r="BN67">
+        <v>1.67</v>
+      </c>
+      <c r="BO67">
+        <v>2.55</v>
+      </c>
+      <c r="BP67">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7491878</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45591.4375</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>71</v>
+      </c>
+      <c r="H68" t="s">
+        <v>73</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>4</v>
+      </c>
+      <c r="O68" t="s">
+        <v>138</v>
+      </c>
+      <c r="P68" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q68">
+        <v>2.1</v>
+      </c>
+      <c r="R68">
+        <v>2.3</v>
+      </c>
+      <c r="S68">
+        <v>5.5</v>
+      </c>
+      <c r="T68">
+        <v>1.36</v>
+      </c>
+      <c r="U68">
+        <v>3</v>
+      </c>
+      <c r="V68">
+        <v>2.63</v>
+      </c>
+      <c r="W68">
+        <v>1.44</v>
+      </c>
+      <c r="X68">
+        <v>7</v>
+      </c>
+      <c r="Y68">
+        <v>1.1</v>
+      </c>
+      <c r="Z68">
+        <v>1.53</v>
+      </c>
+      <c r="AA68">
+        <v>4.33</v>
+      </c>
+      <c r="AB68">
+        <v>6</v>
+      </c>
+      <c r="AC68">
+        <v>1.03</v>
+      </c>
+      <c r="AD68">
+        <v>17</v>
+      </c>
+      <c r="AE68">
+        <v>1.2</v>
+      </c>
+      <c r="AF68">
+        <v>4.5</v>
+      </c>
+      <c r="AG68">
+        <v>1.75</v>
+      </c>
+      <c r="AH68">
+        <v>1.98</v>
+      </c>
+      <c r="AI68">
+        <v>1.91</v>
+      </c>
+      <c r="AJ68">
+        <v>1.91</v>
+      </c>
+      <c r="AK68">
+        <v>1.17</v>
+      </c>
+      <c r="AL68">
+        <v>1.19</v>
+      </c>
+      <c r="AM68">
+        <v>2.35</v>
+      </c>
+      <c r="AN68">
+        <v>2.33</v>
+      </c>
+      <c r="AO68">
+        <v>2</v>
+      </c>
+      <c r="AP68">
+        <v>2.5</v>
+      </c>
+      <c r="AQ68">
+        <v>1.5</v>
+      </c>
+      <c r="AR68">
+        <v>1.33</v>
+      </c>
+      <c r="AS68">
+        <v>1.29</v>
+      </c>
+      <c r="AT68">
+        <v>2.62</v>
+      </c>
+      <c r="AU68">
+        <v>10</v>
+      </c>
+      <c r="AV68">
+        <v>6</v>
+      </c>
+      <c r="AW68">
+        <v>3</v>
+      </c>
+      <c r="AX68">
+        <v>8</v>
+      </c>
+      <c r="AY68">
+        <v>14</v>
+      </c>
+      <c r="AZ68">
+        <v>16</v>
+      </c>
+      <c r="BA68">
+        <v>3</v>
+      </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
+      <c r="BC68">
+        <v>6</v>
+      </c>
+      <c r="BD68">
+        <v>1.4</v>
+      </c>
+      <c r="BE68">
+        <v>7</v>
+      </c>
+      <c r="BF68">
+        <v>3.3</v>
+      </c>
+      <c r="BG68">
+        <v>1.29</v>
+      </c>
+      <c r="BH68">
+        <v>3.15</v>
+      </c>
+      <c r="BI68">
+        <v>1.5</v>
+      </c>
+      <c r="BJ68">
+        <v>2.35</v>
+      </c>
+      <c r="BK68">
+        <v>2.25</v>
+      </c>
+      <c r="BL68">
+        <v>1.84</v>
+      </c>
+      <c r="BM68">
+        <v>2.32</v>
+      </c>
+      <c r="BN68">
+        <v>1.53</v>
+      </c>
+      <c r="BO68">
+        <v>2.95</v>
+      </c>
+      <c r="BP68">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7491881</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45591.4375</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69" t="s">
+        <v>76</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>139</v>
+      </c>
+      <c r="P69" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q69">
+        <v>4</v>
+      </c>
+      <c r="R69">
+        <v>2.5</v>
+      </c>
+      <c r="S69">
+        <v>2.3</v>
+      </c>
+      <c r="T69">
+        <v>1.25</v>
+      </c>
+      <c r="U69">
+        <v>3.75</v>
+      </c>
+      <c r="V69">
+        <v>2.2</v>
+      </c>
+      <c r="W69">
+        <v>1.62</v>
+      </c>
+      <c r="X69">
+        <v>5</v>
+      </c>
+      <c r="Y69">
+        <v>1.17</v>
+      </c>
+      <c r="Z69">
+        <v>3.7</v>
+      </c>
+      <c r="AA69">
+        <v>4</v>
+      </c>
+      <c r="AB69">
+        <v>1.85</v>
+      </c>
+      <c r="AC69">
+        <v>1.02</v>
+      </c>
+      <c r="AD69">
+        <v>19</v>
+      </c>
+      <c r="AE69">
+        <v>1.18</v>
+      </c>
+      <c r="AF69">
+        <v>5</v>
+      </c>
+      <c r="AG69">
+        <v>1.55</v>
+      </c>
+      <c r="AH69">
+        <v>2.45</v>
+      </c>
+      <c r="AI69">
+        <v>1.5</v>
+      </c>
+      <c r="AJ69">
+        <v>2.5</v>
+      </c>
+      <c r="AK69">
+        <v>1.9</v>
+      </c>
+      <c r="AL69">
+        <v>1.22</v>
+      </c>
+      <c r="AM69">
+        <v>1.3</v>
+      </c>
+      <c r="AN69">
+        <v>1.75</v>
+      </c>
+      <c r="AO69">
+        <v>0.33</v>
+      </c>
+      <c r="AP69">
+        <v>2</v>
+      </c>
+      <c r="AQ69">
+        <v>0.25</v>
+      </c>
+      <c r="AR69">
+        <v>1.91</v>
+      </c>
+      <c r="AS69">
+        <v>1.05</v>
+      </c>
+      <c r="AT69">
+        <v>2.96</v>
+      </c>
+      <c r="AU69">
+        <v>5</v>
+      </c>
+      <c r="AV69">
+        <v>5</v>
+      </c>
+      <c r="AW69">
+        <v>7</v>
+      </c>
+      <c r="AX69">
+        <v>4</v>
+      </c>
+      <c r="AY69">
+        <v>14</v>
+      </c>
+      <c r="AZ69">
+        <v>13</v>
+      </c>
+      <c r="BA69">
+        <v>3</v>
+      </c>
+      <c r="BB69">
+        <v>5</v>
+      </c>
+      <c r="BC69">
+        <v>8</v>
+      </c>
+      <c r="BD69">
+        <v>2.32</v>
+      </c>
+      <c r="BE69">
+        <v>6.4</v>
+      </c>
+      <c r="BF69">
+        <v>1.75</v>
+      </c>
+      <c r="BG69">
+        <v>1.28</v>
+      </c>
+      <c r="BH69">
+        <v>3.2</v>
+      </c>
+      <c r="BI69">
+        <v>1.49</v>
+      </c>
+      <c r="BJ69">
+        <v>2.4</v>
+      </c>
+      <c r="BK69">
+        <v>2.1</v>
+      </c>
+      <c r="BL69">
+        <v>1.89</v>
+      </c>
+      <c r="BM69">
+        <v>2.25</v>
+      </c>
+      <c r="BN69">
+        <v>1.55</v>
+      </c>
+      <c r="BO69">
+        <v>2.9</v>
+      </c>
+      <c r="BP69">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7491880</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45591.5625</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>82</v>
+      </c>
+      <c r="H70" t="s">
+        <v>85</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>4</v>
+      </c>
+      <c r="O70" t="s">
+        <v>140</v>
+      </c>
+      <c r="P70" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q70">
+        <v>4.5</v>
+      </c>
+      <c r="R70">
+        <v>2.63</v>
+      </c>
+      <c r="S70">
+        <v>2.1</v>
+      </c>
+      <c r="T70">
+        <v>1.22</v>
+      </c>
+      <c r="U70">
+        <v>4</v>
+      </c>
+      <c r="V70">
+        <v>2.1</v>
+      </c>
+      <c r="W70">
+        <v>1.67</v>
+      </c>
+      <c r="X70">
+        <v>4.5</v>
+      </c>
+      <c r="Y70">
+        <v>1.18</v>
+      </c>
+      <c r="Z70">
+        <v>4.53</v>
+      </c>
+      <c r="AA70">
+        <v>4.73</v>
+      </c>
+      <c r="AB70">
+        <v>1.5</v>
+      </c>
+      <c r="AC70">
+        <v>1.01</v>
+      </c>
+      <c r="AD70">
+        <v>22</v>
+      </c>
+      <c r="AE70">
+        <v>1.12</v>
+      </c>
+      <c r="AF70">
+        <v>6.5</v>
+      </c>
+      <c r="AG70">
+        <v>1.4</v>
+      </c>
+      <c r="AH70">
+        <v>2.82</v>
+      </c>
+      <c r="AI70">
+        <v>1.5</v>
+      </c>
+      <c r="AJ70">
+        <v>2.5</v>
+      </c>
+      <c r="AK70">
+        <v>2.65</v>
+      </c>
+      <c r="AL70">
+        <v>1.15</v>
+      </c>
+      <c r="AM70">
+        <v>1.14</v>
+      </c>
+      <c r="AN70">
+        <v>0.33</v>
+      </c>
+      <c r="AO70">
+        <v>2.33</v>
+      </c>
+      <c r="AP70">
+        <v>0.5</v>
+      </c>
+      <c r="AQ70">
+        <v>2</v>
+      </c>
+      <c r="AR70">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS70">
+        <v>1.73</v>
+      </c>
+      <c r="AT70">
+        <v>2.42</v>
+      </c>
+      <c r="AU70">
+        <v>7</v>
+      </c>
+      <c r="AV70">
+        <v>5</v>
+      </c>
+      <c r="AW70">
+        <v>5</v>
+      </c>
+      <c r="AX70">
+        <v>5</v>
+      </c>
+      <c r="AY70">
+        <v>12</v>
+      </c>
+      <c r="AZ70">
+        <v>10</v>
+      </c>
+      <c r="BA70">
+        <v>3</v>
+      </c>
+      <c r="BB70">
+        <v>5</v>
+      </c>
+      <c r="BC70">
+        <v>8</v>
+      </c>
+      <c r="BD70">
+        <v>3.95</v>
+      </c>
+      <c r="BE70">
+        <v>7.5</v>
+      </c>
+      <c r="BF70">
+        <v>1.28</v>
+      </c>
+      <c r="BG70">
+        <v>1.26</v>
+      </c>
+      <c r="BH70">
+        <v>3.4</v>
+      </c>
+      <c r="BI70">
+        <v>1.46</v>
+      </c>
+      <c r="BJ70">
+        <v>2.5</v>
+      </c>
+      <c r="BK70">
+        <v>1.73</v>
+      </c>
+      <c r="BL70">
+        <v>1.96</v>
+      </c>
+      <c r="BM70">
+        <v>2.17</v>
+      </c>
+      <c r="BN70">
+        <v>1.6</v>
+      </c>
+      <c r="BO70">
+        <v>2.75</v>
+      </c>
+      <c r="BP70">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14290,13 +14290,13 @@
         <v>8</v>
       </c>
       <c r="AX65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY65">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AZ65">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA65">
         <v>2</v>
@@ -14711,13 +14711,13 @@
         <v>10</v>
       </c>
       <c r="BA67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB67">
         <v>5</v>
       </c>
       <c r="BC67">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD67">
         <v>1.18</v>
@@ -15311,22 +15311,22 @@
         <v>2.42</v>
       </c>
       <c r="AU70">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW70">
         <v>5</v>
       </c>
       <c r="AX70">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY70">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ70">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA70">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,9 @@
     <t>['74', '90']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -590,6 +593,12 @@
   </si>
   <si>
     <t>['30', '77']</t>
+  </si>
+  <si>
+    <t>['16', '26', '57', '65', '71']</t>
+  </si>
+  <si>
+    <t>['14']</t>
   </si>
 </sst>
 </file>
@@ -951,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1210,7 +1219,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1622,7 +1631,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1828,7 +1837,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2034,7 +2043,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2240,7 +2249,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2527,7 +2536,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2652,7 +2661,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2733,7 +2742,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ9">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2858,7 +2867,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3142,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ11">
         <v>0.75</v>
@@ -3270,7 +3279,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3476,7 +3485,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q13">
         <v>2.3</v>
@@ -3557,7 +3566,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ13">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3888,7 +3897,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3966,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4094,7 +4103,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4300,7 +4309,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4918,7 +4927,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5124,7 +5133,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5330,7 +5339,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>2.25</v>
@@ -5536,7 +5545,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5617,7 +5626,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR23">
         <v>1.03</v>
@@ -5742,7 +5751,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6154,7 +6163,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6235,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="AQ26">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR26">
         <v>1.4</v>
@@ -6360,7 +6369,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6566,7 +6575,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6772,7 +6781,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6978,7 +6987,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q30">
         <v>2.5</v>
@@ -7056,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ30">
         <v>0.5</v>
@@ -7184,7 +7193,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q31">
         <v>2.63</v>
@@ -7262,10 +7271,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR31">
         <v>1.36</v>
@@ -7390,7 +7399,7 @@
         <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q32">
         <v>3.25</v>
@@ -7596,7 +7605,7 @@
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -7677,7 +7686,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ33">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR33">
         <v>0.65</v>
@@ -8008,7 +8017,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8214,7 +8223,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8626,7 +8635,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -8832,7 +8841,7 @@
         <v>96</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>2.38</v>
@@ -9244,7 +9253,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9656,7 +9665,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -9862,7 +9871,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10068,7 +10077,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10149,7 +10158,7 @@
         <v>0</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR45">
         <v>1</v>
@@ -10274,7 +10283,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10686,7 +10695,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -10892,7 +10901,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11098,7 +11107,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11176,7 +11185,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ50">
         <v>0.25</v>
@@ -11304,7 +11313,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11382,7 +11391,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ51">
         <v>1.75</v>
@@ -11510,7 +11519,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11922,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12003,7 +12012,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ54">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR54">
         <v>1.7</v>
@@ -12128,7 +12137,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12209,7 +12218,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR55">
         <v>2.29</v>
@@ -12334,7 +12343,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12540,7 +12549,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -12746,7 +12755,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>4.33</v>
@@ -12952,7 +12961,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13158,7 +13167,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>1.83</v>
@@ -13239,7 +13248,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR60">
         <v>2.44</v>
@@ -13776,7 +13785,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13982,7 +13991,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14155,7 +14164,7 @@
         <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45589.875</v>
+        <v>45590.64583333334</v>
       </c>
       <c r="F65">
         <v>8</v>
@@ -14188,7 +14197,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14364,7 +14373,7 @@
         <v>45591.4375</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G66" t="s">
         <v>78</v>
@@ -14600,7 +14609,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>1.8</v>
@@ -14806,7 +14815,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15012,7 +15021,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15188,7 +15197,7 @@
         <v>45591.5625</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G70" t="s">
         <v>82</v>
@@ -15218,7 +15227,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15375,6 +15384,624 @@
       </c>
       <c r="BP70">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7491884</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45592.47916666666</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>83</v>
+      </c>
+      <c r="H71" t="s">
+        <v>87</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>5</v>
+      </c>
+      <c r="N71">
+        <v>5</v>
+      </c>
+      <c r="O71" t="s">
+        <v>96</v>
+      </c>
+      <c r="P71" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q71">
+        <v>7</v>
+      </c>
+      <c r="R71">
+        <v>2.88</v>
+      </c>
+      <c r="S71">
+        <v>1.67</v>
+      </c>
+      <c r="T71">
+        <v>1.2</v>
+      </c>
+      <c r="U71">
+        <v>4.33</v>
+      </c>
+      <c r="V71">
+        <v>2</v>
+      </c>
+      <c r="W71">
+        <v>1.73</v>
+      </c>
+      <c r="X71">
+        <v>4.33</v>
+      </c>
+      <c r="Y71">
+        <v>1.2</v>
+      </c>
+      <c r="Z71">
+        <v>9.4</v>
+      </c>
+      <c r="AA71">
+        <v>6.5</v>
+      </c>
+      <c r="AB71">
+        <v>1.19</v>
+      </c>
+      <c r="AC71">
+        <v>1</v>
+      </c>
+      <c r="AD71">
+        <v>34</v>
+      </c>
+      <c r="AE71">
+        <v>1.06</v>
+      </c>
+      <c r="AF71">
+        <v>9.5</v>
+      </c>
+      <c r="AG71">
+        <v>1.3</v>
+      </c>
+      <c r="AH71">
+        <v>3.4</v>
+      </c>
+      <c r="AI71">
+        <v>1.7</v>
+      </c>
+      <c r="AJ71">
+        <v>2.05</v>
+      </c>
+      <c r="AK71">
+        <v>5.5</v>
+      </c>
+      <c r="AL71">
+        <v>1.04</v>
+      </c>
+      <c r="AM71">
+        <v>1.01</v>
+      </c>
+      <c r="AN71">
+        <v>0.33</v>
+      </c>
+      <c r="AO71">
+        <v>2.5</v>
+      </c>
+      <c r="AP71">
+        <v>0.25</v>
+      </c>
+      <c r="AQ71">
+        <v>2.6</v>
+      </c>
+      <c r="AR71">
+        <v>1.42</v>
+      </c>
+      <c r="AS71">
+        <v>2.3</v>
+      </c>
+      <c r="AT71">
+        <v>3.72</v>
+      </c>
+      <c r="AU71">
+        <v>3</v>
+      </c>
+      <c r="AV71">
+        <v>11</v>
+      </c>
+      <c r="AW71">
+        <v>3</v>
+      </c>
+      <c r="AX71">
+        <v>7</v>
+      </c>
+      <c r="AY71">
+        <v>7</v>
+      </c>
+      <c r="AZ71">
+        <v>20</v>
+      </c>
+      <c r="BA71">
+        <v>2</v>
+      </c>
+      <c r="BB71">
+        <v>6</v>
+      </c>
+      <c r="BC71">
+        <v>8</v>
+      </c>
+      <c r="BD71">
+        <v>6.25</v>
+      </c>
+      <c r="BE71">
+        <v>9.5</v>
+      </c>
+      <c r="BF71">
+        <v>1.13</v>
+      </c>
+      <c r="BG71">
+        <v>1.3</v>
+      </c>
+      <c r="BH71">
+        <v>3.15</v>
+      </c>
+      <c r="BI71">
+        <v>1.53</v>
+      </c>
+      <c r="BJ71">
+        <v>2.32</v>
+      </c>
+      <c r="BK71">
+        <v>1.86</v>
+      </c>
+      <c r="BL71">
+        <v>1.82</v>
+      </c>
+      <c r="BM71">
+        <v>2.32</v>
+      </c>
+      <c r="BN71">
+        <v>1.53</v>
+      </c>
+      <c r="BO71">
+        <v>2.95</v>
+      </c>
+      <c r="BP71">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7491883</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45592.5625</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s">
+        <v>81</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72" t="s">
+        <v>141</v>
+      </c>
+      <c r="P72" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q72">
+        <v>3</v>
+      </c>
+      <c r="R72">
+        <v>2.25</v>
+      </c>
+      <c r="S72">
+        <v>3.25</v>
+      </c>
+      <c r="T72">
+        <v>1.33</v>
+      </c>
+      <c r="U72">
+        <v>3.25</v>
+      </c>
+      <c r="V72">
+        <v>2.63</v>
+      </c>
+      <c r="W72">
+        <v>1.44</v>
+      </c>
+      <c r="X72">
+        <v>6.5</v>
+      </c>
+      <c r="Y72">
+        <v>1.11</v>
+      </c>
+      <c r="Z72">
+        <v>1.34</v>
+      </c>
+      <c r="AA72">
+        <v>6.89</v>
+      </c>
+      <c r="AB72">
+        <v>4.49</v>
+      </c>
+      <c r="AC72">
+        <v>1.05</v>
+      </c>
+      <c r="AD72">
+        <v>11</v>
+      </c>
+      <c r="AE72">
+        <v>1.3</v>
+      </c>
+      <c r="AF72">
+        <v>3.6</v>
+      </c>
+      <c r="AG72">
+        <v>1.87</v>
+      </c>
+      <c r="AH72">
+        <v>1.87</v>
+      </c>
+      <c r="AI72">
+        <v>1.57</v>
+      </c>
+      <c r="AJ72">
+        <v>2.25</v>
+      </c>
+      <c r="AK72">
+        <v>1.47</v>
+      </c>
+      <c r="AL72">
+        <v>1.28</v>
+      </c>
+      <c r="AM72">
+        <v>1.53</v>
+      </c>
+      <c r="AN72">
+        <v>3</v>
+      </c>
+      <c r="AO72">
+        <v>1.5</v>
+      </c>
+      <c r="AP72">
+        <v>2.5</v>
+      </c>
+      <c r="AQ72">
+        <v>1.4</v>
+      </c>
+      <c r="AR72">
+        <v>1.22</v>
+      </c>
+      <c r="AS72">
+        <v>1.37</v>
+      </c>
+      <c r="AT72">
+        <v>2.59</v>
+      </c>
+      <c r="AU72">
+        <v>6</v>
+      </c>
+      <c r="AV72">
+        <v>6</v>
+      </c>
+      <c r="AW72">
+        <v>7</v>
+      </c>
+      <c r="AX72">
+        <v>6</v>
+      </c>
+      <c r="AY72">
+        <v>15</v>
+      </c>
+      <c r="AZ72">
+        <v>18</v>
+      </c>
+      <c r="BA72">
+        <v>4</v>
+      </c>
+      <c r="BB72">
+        <v>5</v>
+      </c>
+      <c r="BC72">
+        <v>9</v>
+      </c>
+      <c r="BD72">
+        <v>1.92</v>
+      </c>
+      <c r="BE72">
+        <v>6.4</v>
+      </c>
+      <c r="BF72">
+        <v>2.08</v>
+      </c>
+      <c r="BG72">
+        <v>1.27</v>
+      </c>
+      <c r="BH72">
+        <v>3.3</v>
+      </c>
+      <c r="BI72">
+        <v>1.49</v>
+      </c>
+      <c r="BJ72">
+        <v>2.4</v>
+      </c>
+      <c r="BK72">
+        <v>1.78</v>
+      </c>
+      <c r="BL72">
+        <v>1.91</v>
+      </c>
+      <c r="BM72">
+        <v>2.23</v>
+      </c>
+      <c r="BN72">
+        <v>1.57</v>
+      </c>
+      <c r="BO72">
+        <v>2.85</v>
+      </c>
+      <c r="BP72">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7491879</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45592.64583333334</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>86</v>
+      </c>
+      <c r="H73" t="s">
+        <v>72</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
+        <v>96</v>
+      </c>
+      <c r="P73" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q73">
+        <v>2.5</v>
+      </c>
+      <c r="R73">
+        <v>2.5</v>
+      </c>
+      <c r="S73">
+        <v>3.5</v>
+      </c>
+      <c r="T73">
+        <v>1.25</v>
+      </c>
+      <c r="U73">
+        <v>3.75</v>
+      </c>
+      <c r="V73">
+        <v>2.1</v>
+      </c>
+      <c r="W73">
+        <v>1.67</v>
+      </c>
+      <c r="X73">
+        <v>5</v>
+      </c>
+      <c r="Y73">
+        <v>1.17</v>
+      </c>
+      <c r="Z73">
+        <v>1.35</v>
+      </c>
+      <c r="AA73">
+        <v>5.48</v>
+      </c>
+      <c r="AB73">
+        <v>5.4</v>
+      </c>
+      <c r="AC73">
+        <v>1.02</v>
+      </c>
+      <c r="AD73">
+        <v>19</v>
+      </c>
+      <c r="AE73">
+        <v>1.18</v>
+      </c>
+      <c r="AF73">
+        <v>5</v>
+      </c>
+      <c r="AG73">
+        <v>1.47</v>
+      </c>
+      <c r="AH73">
+        <v>2.57</v>
+      </c>
+      <c r="AI73">
+        <v>1.44</v>
+      </c>
+      <c r="AJ73">
+        <v>2.63</v>
+      </c>
+      <c r="AK73">
+        <v>1.42</v>
+      </c>
+      <c r="AL73">
+        <v>1.24</v>
+      </c>
+      <c r="AM73">
+        <v>1.68</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>0.33</v>
+      </c>
+      <c r="AP73">
+        <v>1</v>
+      </c>
+      <c r="AQ73">
+        <v>0.5</v>
+      </c>
+      <c r="AR73">
+        <v>1.3</v>
+      </c>
+      <c r="AS73">
+        <v>1.11</v>
+      </c>
+      <c r="AT73">
+        <v>2.41</v>
+      </c>
+      <c r="AU73">
+        <v>4</v>
+      </c>
+      <c r="AV73">
+        <v>5</v>
+      </c>
+      <c r="AW73">
+        <v>12</v>
+      </c>
+      <c r="AX73">
+        <v>3</v>
+      </c>
+      <c r="AY73">
+        <v>18</v>
+      </c>
+      <c r="AZ73">
+        <v>13</v>
+      </c>
+      <c r="BA73">
+        <v>7</v>
+      </c>
+      <c r="BB73">
+        <v>3</v>
+      </c>
+      <c r="BC73">
+        <v>10</v>
+      </c>
+      <c r="BD73">
+        <v>1.66</v>
+      </c>
+      <c r="BE73">
+        <v>6.75</v>
+      </c>
+      <c r="BF73">
+        <v>2.45</v>
+      </c>
+      <c r="BG73">
+        <v>1.23</v>
+      </c>
+      <c r="BH73">
+        <v>3.65</v>
+      </c>
+      <c r="BI73">
+        <v>1.41</v>
+      </c>
+      <c r="BJ73">
+        <v>2.65</v>
+      </c>
+      <c r="BK73">
+        <v>1.66</v>
+      </c>
+      <c r="BL73">
+        <v>2.06</v>
+      </c>
+      <c r="BM73">
+        <v>2.05</v>
+      </c>
+      <c r="BN73">
+        <v>1.67</v>
+      </c>
+      <c r="BO73">
+        <v>2.6</v>
+      </c>
+      <c r="BP73">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -15609,7 +15609,7 @@
         <v>45592.5625</v>
       </c>
       <c r="F72">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G72" t="s">
         <v>79</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -960,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17">
         <v>2.5</v>
@@ -8095,7 +8095,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ35">
         <v>1.75</v>
@@ -10773,7 +10773,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ48">
         <v>0.5</v>
@@ -13245,7 +13245,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ60">
         <v>1.4</v>
@@ -16002,6 +16002,212 @@
       </c>
       <c r="BP73">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7491886</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45597.6875</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>85</v>
+      </c>
+      <c r="H74" t="s">
+        <v>80</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>96</v>
+      </c>
+      <c r="P74" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q74">
+        <v>2</v>
+      </c>
+      <c r="R74">
+        <v>2.75</v>
+      </c>
+      <c r="S74">
+        <v>4.75</v>
+      </c>
+      <c r="T74">
+        <v>1.2</v>
+      </c>
+      <c r="U74">
+        <v>4.33</v>
+      </c>
+      <c r="V74">
+        <v>1.91</v>
+      </c>
+      <c r="W74">
+        <v>1.8</v>
+      </c>
+      <c r="X74">
+        <v>4</v>
+      </c>
+      <c r="Y74">
+        <v>1.22</v>
+      </c>
+      <c r="Z74">
+        <v>1.53</v>
+      </c>
+      <c r="AA74">
+        <v>4.8</v>
+      </c>
+      <c r="AB74">
+        <v>5.25</v>
+      </c>
+      <c r="AC74">
+        <v>1.01</v>
+      </c>
+      <c r="AD74">
+        <v>30.5</v>
+      </c>
+      <c r="AE74">
+        <v>1.1</v>
+      </c>
+      <c r="AF74">
+        <v>7</v>
+      </c>
+      <c r="AG74">
+        <v>1.34</v>
+      </c>
+      <c r="AH74">
+        <v>3.09</v>
+      </c>
+      <c r="AI74">
+        <v>1.44</v>
+      </c>
+      <c r="AJ74">
+        <v>2.63</v>
+      </c>
+      <c r="AK74">
+        <v>1.17</v>
+      </c>
+      <c r="AL74">
+        <v>1.15</v>
+      </c>
+      <c r="AM74">
+        <v>2.55</v>
+      </c>
+      <c r="AN74">
+        <v>1.75</v>
+      </c>
+      <c r="AO74">
+        <v>1</v>
+      </c>
+      <c r="AP74">
+        <v>1.6</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AR74">
+        <v>2.41</v>
+      </c>
+      <c r="AS74">
+        <v>1.12</v>
+      </c>
+      <c r="AT74">
+        <v>3.53</v>
+      </c>
+      <c r="AU74">
+        <v>6</v>
+      </c>
+      <c r="AV74">
+        <v>2</v>
+      </c>
+      <c r="AW74">
+        <v>9</v>
+      </c>
+      <c r="AX74">
+        <v>2</v>
+      </c>
+      <c r="AY74">
+        <v>20</v>
+      </c>
+      <c r="AZ74">
+        <v>6</v>
+      </c>
+      <c r="BA74">
+        <v>10</v>
+      </c>
+      <c r="BB74">
+        <v>2</v>
+      </c>
+      <c r="BC74">
+        <v>12</v>
+      </c>
+      <c r="BD74">
+        <v>1.4</v>
+      </c>
+      <c r="BE74">
+        <v>6.75</v>
+      </c>
+      <c r="BF74">
+        <v>3.4</v>
+      </c>
+      <c r="BG74">
+        <v>1.25</v>
+      </c>
+      <c r="BH74">
+        <v>3.45</v>
+      </c>
+      <c r="BI74">
+        <v>1.44</v>
+      </c>
+      <c r="BJ74">
+        <v>2.55</v>
+      </c>
+      <c r="BK74">
+        <v>1.72</v>
+      </c>
+      <c r="BL74">
+        <v>1.98</v>
+      </c>
+      <c r="BM74">
+        <v>2.1</v>
+      </c>
+      <c r="BN74">
+        <v>1.64</v>
+      </c>
+      <c r="BO74">
+        <v>2.7</v>
+      </c>
+      <c r="BP74">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="202">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,21 @@
     <t>['66']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['15', '43', '51']</t>
+  </si>
+  <si>
+    <t>['9', '18', '20', '32', '61', '66', '69']</t>
+  </si>
+  <si>
+    <t>['30', '65']</t>
+  </si>
+  <si>
+    <t>['11', '12', '45', '66']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -599,6 +614,12 @@
   </si>
   <si>
     <t>['14']</t>
+  </si>
+  <si>
+    <t>['20', '90+3']</t>
+  </si>
+  <si>
+    <t>['35', '51']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1240,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1297,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ2">
         <v>2</v>
@@ -1631,7 +1652,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1709,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ4">
         <v>0.5</v>
@@ -1837,7 +1858,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1915,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2043,7 +2064,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2124,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2249,7 +2270,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2330,7 +2351,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ7">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2661,7 +2682,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2739,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ9">
         <v>2.6</v>
@@ -2867,7 +2888,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2948,7 +2969,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3154,7 +3175,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ11">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3279,7 +3300,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3360,7 +3381,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3485,7 +3506,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>2.3</v>
@@ -3563,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ13">
         <v>0.5</v>
@@ -3897,7 +3918,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4103,7 +4124,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4181,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ16">
         <v>1.75</v>
@@ -4309,7 +4330,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4390,7 +4411,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ17">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4596,7 +4617,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4799,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -4927,7 +4948,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5008,7 +5029,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR20">
         <v>1.89</v>
@@ -5133,7 +5154,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q21">
         <v>4.75</v>
@@ -5211,7 +5232,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ21">
         <v>2</v>
@@ -5339,7 +5360,7 @@
         <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>2.25</v>
@@ -5417,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -5545,7 +5566,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5623,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ23">
         <v>1.4</v>
@@ -5751,7 +5772,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5829,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6038,7 +6059,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ25">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.16</v>
@@ -6163,7 +6184,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6241,7 +6262,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ26">
         <v>2.6</v>
@@ -6369,7 +6390,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6450,7 +6471,7 @@
         <v>2</v>
       </c>
       <c r="AQ27">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6575,7 +6596,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6656,7 +6677,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ28">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>1.23</v>
@@ -6781,7 +6802,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6862,7 +6883,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>1.7</v>
@@ -6987,7 +7008,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>2.5</v>
@@ -7193,7 +7214,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q31">
         <v>2.63</v>
@@ -7399,7 +7420,7 @@
         <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>3.25</v>
@@ -7605,7 +7626,7 @@
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -7889,7 +7910,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8017,7 +8038,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8223,7 +8244,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8510,7 +8531,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ37">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.27</v>
@@ -8635,7 +8656,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -8841,7 +8862,7 @@
         <v>96</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>2.38</v>
@@ -8922,7 +8943,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR39">
         <v>1.48</v>
@@ -9125,10 +9146,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.56</v>
@@ -9253,7 +9274,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9331,7 +9352,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9540,7 +9561,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ42">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR42">
         <v>1.14</v>
@@ -9665,7 +9686,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -9743,10 +9764,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR43">
         <v>1.82</v>
@@ -9871,7 +9892,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -9949,7 +9970,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ44">
         <v>2</v>
@@ -10077,7 +10098,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10155,7 +10176,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ45">
         <v>1.4</v>
@@ -10283,7 +10304,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10361,10 +10382,10 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ46">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR46">
         <v>1.82</v>
@@ -10695,7 +10716,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -10901,7 +10922,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11107,7 +11128,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11313,7 +11334,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11519,7 +11540,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11600,7 +11621,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ52">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -11806,7 +11827,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -11931,7 +11952,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12009,7 +12030,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ54">
         <v>2.6</v>
@@ -12137,7 +12158,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12343,7 +12364,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12424,7 +12445,7 @@
         <v>3</v>
       </c>
       <c r="AQ56">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR56">
         <v>1.91</v>
@@ -12549,7 +12570,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -12627,10 +12648,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR57">
         <v>1.33</v>
@@ -12755,7 +12776,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q58">
         <v>4.33</v>
@@ -12836,7 +12857,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ58">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR58">
         <v>1.26</v>
@@ -12961,7 +12982,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13039,10 +13060,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR59">
         <v>1.71</v>
@@ -13167,7 +13188,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q60">
         <v>1.83</v>
@@ -13451,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ61">
         <v>0</v>
@@ -13657,7 +13678,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -13785,7 +13806,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13863,10 +13884,10 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ63">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.07</v>
@@ -13991,7 +14012,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14069,10 +14090,10 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ64">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR64">
         <v>1.11</v>
@@ -14197,7 +14218,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14609,7 +14630,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>1.8</v>
@@ -14815,7 +14836,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15021,7 +15042,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15227,7 +15248,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15433,7 +15454,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15639,7 +15660,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16208,6 +16229,1654 @@
       </c>
       <c r="BP74">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7491892</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45598.47916666666</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s">
+        <v>74</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>108</v>
+      </c>
+      <c r="P75" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q75">
+        <v>2.5</v>
+      </c>
+      <c r="R75">
+        <v>2.38</v>
+      </c>
+      <c r="S75">
+        <v>3.75</v>
+      </c>
+      <c r="T75">
+        <v>1.3</v>
+      </c>
+      <c r="U75">
+        <v>3.4</v>
+      </c>
+      <c r="V75">
+        <v>2.38</v>
+      </c>
+      <c r="W75">
+        <v>1.53</v>
+      </c>
+      <c r="X75">
+        <v>6</v>
+      </c>
+      <c r="Y75">
+        <v>1.13</v>
+      </c>
+      <c r="Z75">
+        <v>1.97</v>
+      </c>
+      <c r="AA75">
+        <v>3.57</v>
+      </c>
+      <c r="AB75">
+        <v>3.2</v>
+      </c>
+      <c r="AC75">
+        <v>1.03</v>
+      </c>
+      <c r="AD75">
+        <v>17</v>
+      </c>
+      <c r="AE75">
+        <v>1.2</v>
+      </c>
+      <c r="AF75">
+        <v>4.5</v>
+      </c>
+      <c r="AG75">
+        <v>1.62</v>
+      </c>
+      <c r="AH75">
+        <v>2.17</v>
+      </c>
+      <c r="AI75">
+        <v>1.57</v>
+      </c>
+      <c r="AJ75">
+        <v>2.25</v>
+      </c>
+      <c r="AK75">
+        <v>1.32</v>
+      </c>
+      <c r="AL75">
+        <v>1.22</v>
+      </c>
+      <c r="AM75">
+        <v>1.85</v>
+      </c>
+      <c r="AN75">
+        <v>0.25</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>0.4</v>
+      </c>
+      <c r="AQ75">
+        <v>0.25</v>
+      </c>
+      <c r="AR75">
+        <v>1.14</v>
+      </c>
+      <c r="AS75">
+        <v>1.11</v>
+      </c>
+      <c r="AT75">
+        <v>2.25</v>
+      </c>
+      <c r="AU75">
+        <v>7</v>
+      </c>
+      <c r="AV75">
+        <v>2</v>
+      </c>
+      <c r="AW75">
+        <v>5</v>
+      </c>
+      <c r="AX75">
+        <v>2</v>
+      </c>
+      <c r="AY75">
+        <v>19</v>
+      </c>
+      <c r="AZ75">
+        <v>4</v>
+      </c>
+      <c r="BA75">
+        <v>8</v>
+      </c>
+      <c r="BB75">
+        <v>1</v>
+      </c>
+      <c r="BC75">
+        <v>9</v>
+      </c>
+      <c r="BD75">
+        <v>1.65</v>
+      </c>
+      <c r="BE75">
+        <v>6.75</v>
+      </c>
+      <c r="BF75">
+        <v>2.48</v>
+      </c>
+      <c r="BG75">
+        <v>1.29</v>
+      </c>
+      <c r="BH75">
+        <v>3.2</v>
+      </c>
+      <c r="BI75">
+        <v>1.5</v>
+      </c>
+      <c r="BJ75">
+        <v>2.38</v>
+      </c>
+      <c r="BK75">
+        <v>1.82</v>
+      </c>
+      <c r="BL75">
+        <v>1.86</v>
+      </c>
+      <c r="BM75">
+        <v>2.3</v>
+      </c>
+      <c r="BN75">
+        <v>1.54</v>
+      </c>
+      <c r="BO75">
+        <v>2.95</v>
+      </c>
+      <c r="BP75">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7491894</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45598.47916666666</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>84</v>
+      </c>
+      <c r="H76" t="s">
+        <v>86</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76" t="s">
+        <v>142</v>
+      </c>
+      <c r="P76" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q76">
+        <v>3.25</v>
+      </c>
+      <c r="R76">
+        <v>2.25</v>
+      </c>
+      <c r="S76">
+        <v>3</v>
+      </c>
+      <c r="T76">
+        <v>1.33</v>
+      </c>
+      <c r="U76">
+        <v>3.25</v>
+      </c>
+      <c r="V76">
+        <v>2.63</v>
+      </c>
+      <c r="W76">
+        <v>1.44</v>
+      </c>
+      <c r="X76">
+        <v>6.5</v>
+      </c>
+      <c r="Y76">
+        <v>1.11</v>
+      </c>
+      <c r="Z76">
+        <v>2.42</v>
+      </c>
+      <c r="AA76">
+        <v>3.4</v>
+      </c>
+      <c r="AB76">
+        <v>2.55</v>
+      </c>
+      <c r="AC76">
+        <v>1.04</v>
+      </c>
+      <c r="AD76">
+        <v>13</v>
+      </c>
+      <c r="AE76">
+        <v>1.25</v>
+      </c>
+      <c r="AF76">
+        <v>4</v>
+      </c>
+      <c r="AG76">
+        <v>1.61</v>
+      </c>
+      <c r="AH76">
+        <v>2.18</v>
+      </c>
+      <c r="AI76">
+        <v>1.62</v>
+      </c>
+      <c r="AJ76">
+        <v>2.2</v>
+      </c>
+      <c r="AK76">
+        <v>1.55</v>
+      </c>
+      <c r="AL76">
+        <v>1.25</v>
+      </c>
+      <c r="AM76">
+        <v>1.48</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>1.5</v>
+      </c>
+      <c r="AP76">
+        <v>0.6</v>
+      </c>
+      <c r="AQ76">
+        <v>1.2</v>
+      </c>
+      <c r="AR76">
+        <v>1.15</v>
+      </c>
+      <c r="AS76">
+        <v>1.27</v>
+      </c>
+      <c r="AT76">
+        <v>2.42</v>
+      </c>
+      <c r="AU76">
+        <v>7</v>
+      </c>
+      <c r="AV76">
+        <v>6</v>
+      </c>
+      <c r="AW76">
+        <v>4</v>
+      </c>
+      <c r="AX76">
+        <v>9</v>
+      </c>
+      <c r="AY76">
+        <v>12</v>
+      </c>
+      <c r="AZ76">
+        <v>19</v>
+      </c>
+      <c r="BA76">
+        <v>5</v>
+      </c>
+      <c r="BB76">
+        <v>6</v>
+      </c>
+      <c r="BC76">
+        <v>11</v>
+      </c>
+      <c r="BD76">
+        <v>2.08</v>
+      </c>
+      <c r="BE76">
+        <v>6.4</v>
+      </c>
+      <c r="BF76">
+        <v>1.92</v>
+      </c>
+      <c r="BG76">
+        <v>1.26</v>
+      </c>
+      <c r="BH76">
+        <v>3.4</v>
+      </c>
+      <c r="BI76">
+        <v>1.46</v>
+      </c>
+      <c r="BJ76">
+        <v>2.48</v>
+      </c>
+      <c r="BK76">
+        <v>1.74</v>
+      </c>
+      <c r="BL76">
+        <v>1.95</v>
+      </c>
+      <c r="BM76">
+        <v>2.17</v>
+      </c>
+      <c r="BN76">
+        <v>1.6</v>
+      </c>
+      <c r="BO76">
+        <v>2.8</v>
+      </c>
+      <c r="BP76">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7491890</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45598.47916666666</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77" t="s">
+        <v>72</v>
+      </c>
+      <c r="H77" t="s">
+        <v>78</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>96</v>
+      </c>
+      <c r="P77" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q77">
+        <v>2.4</v>
+      </c>
+      <c r="R77">
+        <v>2.38</v>
+      </c>
+      <c r="S77">
+        <v>4</v>
+      </c>
+      <c r="T77">
+        <v>1.3</v>
+      </c>
+      <c r="U77">
+        <v>3.4</v>
+      </c>
+      <c r="V77">
+        <v>2.38</v>
+      </c>
+      <c r="W77">
+        <v>1.53</v>
+      </c>
+      <c r="X77">
+        <v>6</v>
+      </c>
+      <c r="Y77">
+        <v>1.13</v>
+      </c>
+      <c r="Z77">
+        <v>1.82</v>
+      </c>
+      <c r="AA77">
+        <v>3.73</v>
+      </c>
+      <c r="AB77">
+        <v>3.55</v>
+      </c>
+      <c r="AC77">
+        <v>1.03</v>
+      </c>
+      <c r="AD77">
+        <v>17</v>
+      </c>
+      <c r="AE77">
+        <v>1.2</v>
+      </c>
+      <c r="AF77">
+        <v>4.5</v>
+      </c>
+      <c r="AG77">
+        <v>1.55</v>
+      </c>
+      <c r="AH77">
+        <v>2.31</v>
+      </c>
+      <c r="AI77">
+        <v>1.57</v>
+      </c>
+      <c r="AJ77">
+        <v>2.25</v>
+      </c>
+      <c r="AK77">
+        <v>1.3</v>
+      </c>
+      <c r="AL77">
+        <v>1.22</v>
+      </c>
+      <c r="AM77">
+        <v>1.9</v>
+      </c>
+      <c r="AN77">
+        <v>1.5</v>
+      </c>
+      <c r="AO77">
+        <v>0.75</v>
+      </c>
+      <c r="AP77">
+        <v>1.2</v>
+      </c>
+      <c r="AQ77">
+        <v>1.2</v>
+      </c>
+      <c r="AR77">
+        <v>1.67</v>
+      </c>
+      <c r="AS77">
+        <v>0.93</v>
+      </c>
+      <c r="AT77">
+        <v>2.6</v>
+      </c>
+      <c r="AU77">
+        <v>7</v>
+      </c>
+      <c r="AV77">
+        <v>4</v>
+      </c>
+      <c r="AW77">
+        <v>4</v>
+      </c>
+      <c r="AX77">
+        <v>2</v>
+      </c>
+      <c r="AY77">
+        <v>14</v>
+      </c>
+      <c r="AZ77">
+        <v>9</v>
+      </c>
+      <c r="BA77">
+        <v>7</v>
+      </c>
+      <c r="BB77">
+        <v>2</v>
+      </c>
+      <c r="BC77">
+        <v>9</v>
+      </c>
+      <c r="BD77">
+        <v>1.7</v>
+      </c>
+      <c r="BE77">
+        <v>6.4</v>
+      </c>
+      <c r="BF77">
+        <v>2.43</v>
+      </c>
+      <c r="BG77">
+        <v>1.33</v>
+      </c>
+      <c r="BH77">
+        <v>2.95</v>
+      </c>
+      <c r="BI77">
+        <v>1.57</v>
+      </c>
+      <c r="BJ77">
+        <v>2.23</v>
+      </c>
+      <c r="BK77">
+        <v>1.94</v>
+      </c>
+      <c r="BL77">
+        <v>1.76</v>
+      </c>
+      <c r="BM77">
+        <v>2.45</v>
+      </c>
+      <c r="BN77">
+        <v>1.48</v>
+      </c>
+      <c r="BO77">
+        <v>3.15</v>
+      </c>
+      <c r="BP77">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7491887</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45598.47916666666</v>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>87</v>
+      </c>
+      <c r="H78" t="s">
+        <v>79</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78" t="s">
+        <v>143</v>
+      </c>
+      <c r="P78" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q78">
+        <v>1.57</v>
+      </c>
+      <c r="R78">
+        <v>3</v>
+      </c>
+      <c r="S78">
+        <v>9.5</v>
+      </c>
+      <c r="T78">
+        <v>1.22</v>
+      </c>
+      <c r="U78">
+        <v>4</v>
+      </c>
+      <c r="V78">
+        <v>2</v>
+      </c>
+      <c r="W78">
+        <v>1.73</v>
+      </c>
+      <c r="X78">
+        <v>4.33</v>
+      </c>
+      <c r="Y78">
+        <v>1.2</v>
+      </c>
+      <c r="Z78">
+        <v>1.18</v>
+      </c>
+      <c r="AA78">
+        <v>6.2</v>
+      </c>
+      <c r="AB78">
+        <v>11</v>
+      </c>
+      <c r="AC78">
+        <v>1.01</v>
+      </c>
+      <c r="AD78">
+        <v>27.5</v>
+      </c>
+      <c r="AE78">
+        <v>1.11</v>
+      </c>
+      <c r="AF78">
+        <v>6.5</v>
+      </c>
+      <c r="AG78">
+        <v>1.38</v>
+      </c>
+      <c r="AH78">
+        <v>2.9</v>
+      </c>
+      <c r="AI78">
+        <v>2</v>
+      </c>
+      <c r="AJ78">
+        <v>1.75</v>
+      </c>
+      <c r="AK78">
+        <v>1.03</v>
+      </c>
+      <c r="AL78">
+        <v>1.08</v>
+      </c>
+      <c r="AM78">
+        <v>4.5</v>
+      </c>
+      <c r="AN78">
+        <v>2.33</v>
+      </c>
+      <c r="AO78">
+        <v>1.25</v>
+      </c>
+      <c r="AP78">
+        <v>2.5</v>
+      </c>
+      <c r="AQ78">
+        <v>1</v>
+      </c>
+      <c r="AR78">
+        <v>1.82</v>
+      </c>
+      <c r="AS78">
+        <v>1.18</v>
+      </c>
+      <c r="AT78">
+        <v>3</v>
+      </c>
+      <c r="AU78">
+        <v>8</v>
+      </c>
+      <c r="AV78">
+        <v>2</v>
+      </c>
+      <c r="AW78">
+        <v>4</v>
+      </c>
+      <c r="AX78">
+        <v>3</v>
+      </c>
+      <c r="AY78">
+        <v>17</v>
+      </c>
+      <c r="AZ78">
+        <v>9</v>
+      </c>
+      <c r="BA78">
+        <v>7</v>
+      </c>
+      <c r="BB78">
+        <v>4</v>
+      </c>
+      <c r="BC78">
+        <v>11</v>
+      </c>
+      <c r="BD78">
+        <v>1.11</v>
+      </c>
+      <c r="BE78">
+        <v>10.5</v>
+      </c>
+      <c r="BF78">
+        <v>6.5</v>
+      </c>
+      <c r="BG78">
+        <v>1.2</v>
+      </c>
+      <c r="BH78">
+        <v>3.9</v>
+      </c>
+      <c r="BI78">
+        <v>1.37</v>
+      </c>
+      <c r="BJ78">
+        <v>2.8</v>
+      </c>
+      <c r="BK78">
+        <v>1.61</v>
+      </c>
+      <c r="BL78">
+        <v>2.15</v>
+      </c>
+      <c r="BM78">
+        <v>1.96</v>
+      </c>
+      <c r="BN78">
+        <v>1.74</v>
+      </c>
+      <c r="BO78">
+        <v>2.43</v>
+      </c>
+      <c r="BP78">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7491889</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45598.47916666666</v>
+      </c>
+      <c r="F79">
+        <v>9</v>
+      </c>
+      <c r="G79" t="s">
+        <v>81</v>
+      </c>
+      <c r="H79" t="s">
+        <v>83</v>
+      </c>
+      <c r="I79">
+        <v>4</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>5</v>
+      </c>
+      <c r="L79">
+        <v>7</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>9</v>
+      </c>
+      <c r="O79" t="s">
+        <v>144</v>
+      </c>
+      <c r="P79" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q79">
+        <v>1.73</v>
+      </c>
+      <c r="R79">
+        <v>2.88</v>
+      </c>
+      <c r="S79">
+        <v>6.5</v>
+      </c>
+      <c r="T79">
+        <v>1.2</v>
+      </c>
+      <c r="U79">
+        <v>4.33</v>
+      </c>
+      <c r="V79">
+        <v>1.91</v>
+      </c>
+      <c r="W79">
+        <v>1.8</v>
+      </c>
+      <c r="X79">
+        <v>4</v>
+      </c>
+      <c r="Y79">
+        <v>1.22</v>
+      </c>
+      <c r="Z79">
+        <v>1.3</v>
+      </c>
+      <c r="AA79">
+        <v>5.15</v>
+      </c>
+      <c r="AB79">
+        <v>7.5</v>
+      </c>
+      <c r="AC79">
+        <v>1.01</v>
+      </c>
+      <c r="AD79">
+        <v>31.5</v>
+      </c>
+      <c r="AE79">
+        <v>1.1</v>
+      </c>
+      <c r="AF79">
+        <v>7</v>
+      </c>
+      <c r="AG79">
+        <v>1.37</v>
+      </c>
+      <c r="AH79">
+        <v>2.94</v>
+      </c>
+      <c r="AI79">
+        <v>1.62</v>
+      </c>
+      <c r="AJ79">
+        <v>2.2</v>
+      </c>
+      <c r="AK79">
+        <v>1.05</v>
+      </c>
+      <c r="AL79">
+        <v>1.1</v>
+      </c>
+      <c r="AM79">
+        <v>3.5</v>
+      </c>
+      <c r="AN79">
+        <v>2.33</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>2.5</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
+      <c r="AR79">
+        <v>1.42</v>
+      </c>
+      <c r="AS79">
+        <v>1.14</v>
+      </c>
+      <c r="AT79">
+        <v>2.56</v>
+      </c>
+      <c r="AU79">
+        <v>10</v>
+      </c>
+      <c r="AV79">
+        <v>9</v>
+      </c>
+      <c r="AW79">
+        <v>3</v>
+      </c>
+      <c r="AX79">
+        <v>3</v>
+      </c>
+      <c r="AY79">
+        <v>19</v>
+      </c>
+      <c r="AZ79">
+        <v>12</v>
+      </c>
+      <c r="BA79">
+        <v>5</v>
+      </c>
+      <c r="BB79">
+        <v>2</v>
+      </c>
+      <c r="BC79">
+        <v>7</v>
+      </c>
+      <c r="BD79">
+        <v>1.29</v>
+      </c>
+      <c r="BE79">
+        <v>7.5</v>
+      </c>
+      <c r="BF79">
+        <v>3.9</v>
+      </c>
+      <c r="BG79">
+        <v>1.2</v>
+      </c>
+      <c r="BH79">
+        <v>3.8</v>
+      </c>
+      <c r="BI79">
+        <v>1.37</v>
+      </c>
+      <c r="BJ79">
+        <v>2.8</v>
+      </c>
+      <c r="BK79">
+        <v>1.61</v>
+      </c>
+      <c r="BL79">
+        <v>2.15</v>
+      </c>
+      <c r="BM79">
+        <v>1.96</v>
+      </c>
+      <c r="BN79">
+        <v>1.74</v>
+      </c>
+      <c r="BO79">
+        <v>2.43</v>
+      </c>
+      <c r="BP79">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7491888</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45598.60416666666</v>
+      </c>
+      <c r="F80">
+        <v>9</v>
+      </c>
+      <c r="G80" t="s">
+        <v>76</v>
+      </c>
+      <c r="H80" t="s">
+        <v>71</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>3</v>
+      </c>
+      <c r="O80" t="s">
+        <v>145</v>
+      </c>
+      <c r="P80" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q80">
+        <v>2.75</v>
+      </c>
+      <c r="R80">
+        <v>2.5</v>
+      </c>
+      <c r="S80">
+        <v>3.2</v>
+      </c>
+      <c r="T80">
+        <v>1.25</v>
+      </c>
+      <c r="U80">
+        <v>3.75</v>
+      </c>
+      <c r="V80">
+        <v>2.2</v>
+      </c>
+      <c r="W80">
+        <v>1.62</v>
+      </c>
+      <c r="X80">
+        <v>5</v>
+      </c>
+      <c r="Y80">
+        <v>1.17</v>
+      </c>
+      <c r="Z80">
+        <v>2</v>
+      </c>
+      <c r="AA80">
+        <v>3.69</v>
+      </c>
+      <c r="AB80">
+        <v>3.19</v>
+      </c>
+      <c r="AC80">
+        <v>1.01</v>
+      </c>
+      <c r="AD80">
+        <v>21</v>
+      </c>
+      <c r="AE80">
+        <v>1.15</v>
+      </c>
+      <c r="AF80">
+        <v>5.5</v>
+      </c>
+      <c r="AG80">
+        <v>1.45</v>
+      </c>
+      <c r="AH80">
+        <v>2.7</v>
+      </c>
+      <c r="AI80">
+        <v>1.4</v>
+      </c>
+      <c r="AJ80">
+        <v>2.75</v>
+      </c>
+      <c r="AK80">
+        <v>1.42</v>
+      </c>
+      <c r="AL80">
+        <v>1.22</v>
+      </c>
+      <c r="AM80">
+        <v>1.68</v>
+      </c>
+      <c r="AN80">
+        <v>3</v>
+      </c>
+      <c r="AO80">
+        <v>2.5</v>
+      </c>
+      <c r="AP80">
+        <v>3</v>
+      </c>
+      <c r="AQ80">
+        <v>2</v>
+      </c>
+      <c r="AR80">
+        <v>1.88</v>
+      </c>
+      <c r="AS80">
+        <v>1.2</v>
+      </c>
+      <c r="AT80">
+        <v>3.08</v>
+      </c>
+      <c r="AU80">
+        <v>8</v>
+      </c>
+      <c r="AV80">
+        <v>4</v>
+      </c>
+      <c r="AW80">
+        <v>5</v>
+      </c>
+      <c r="AX80">
+        <v>1</v>
+      </c>
+      <c r="AY80">
+        <v>20</v>
+      </c>
+      <c r="AZ80">
+        <v>8</v>
+      </c>
+      <c r="BA80">
+        <v>4</v>
+      </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
+      <c r="BC80">
+        <v>4</v>
+      </c>
+      <c r="BD80">
+        <v>1.78</v>
+      </c>
+      <c r="BE80">
+        <v>6.5</v>
+      </c>
+      <c r="BF80">
+        <v>2.23</v>
+      </c>
+      <c r="BG80">
+        <v>1.26</v>
+      </c>
+      <c r="BH80">
+        <v>3.4</v>
+      </c>
+      <c r="BI80">
+        <v>1.47</v>
+      </c>
+      <c r="BJ80">
+        <v>2.48</v>
+      </c>
+      <c r="BK80">
+        <v>1.76</v>
+      </c>
+      <c r="BL80">
+        <v>1.93</v>
+      </c>
+      <c r="BM80">
+        <v>2.18</v>
+      </c>
+      <c r="BN80">
+        <v>1.58</v>
+      </c>
+      <c r="BO80">
+        <v>2.8</v>
+      </c>
+      <c r="BP80">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7491893</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45598.875</v>
+      </c>
+      <c r="F81">
+        <v>9</v>
+      </c>
+      <c r="G81" t="s">
+        <v>70</v>
+      </c>
+      <c r="H81" t="s">
+        <v>82</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>5</v>
+      </c>
+      <c r="O81" t="s">
+        <v>146</v>
+      </c>
+      <c r="P81" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q81">
+        <v>2.6</v>
+      </c>
+      <c r="R81">
+        <v>2.5</v>
+      </c>
+      <c r="S81">
+        <v>3.5</v>
+      </c>
+      <c r="T81">
+        <v>1.25</v>
+      </c>
+      <c r="U81">
+        <v>3.75</v>
+      </c>
+      <c r="V81">
+        <v>2.2</v>
+      </c>
+      <c r="W81">
+        <v>1.62</v>
+      </c>
+      <c r="X81">
+        <v>5</v>
+      </c>
+      <c r="Y81">
+        <v>1.17</v>
+      </c>
+      <c r="Z81">
+        <v>1.97</v>
+      </c>
+      <c r="AA81">
+        <v>4.17</v>
+      </c>
+      <c r="AB81">
+        <v>3.72</v>
+      </c>
+      <c r="AC81">
+        <v>1.01</v>
+      </c>
+      <c r="AD81">
+        <v>21</v>
+      </c>
+      <c r="AE81">
+        <v>1.15</v>
+      </c>
+      <c r="AF81">
+        <v>5.5</v>
+      </c>
+      <c r="AG81">
+        <v>1.44</v>
+      </c>
+      <c r="AH81">
+        <v>2.67</v>
+      </c>
+      <c r="AI81">
+        <v>1.44</v>
+      </c>
+      <c r="AJ81">
+        <v>2.63</v>
+      </c>
+      <c r="AK81">
+        <v>1.36</v>
+      </c>
+      <c r="AL81">
+        <v>1.22</v>
+      </c>
+      <c r="AM81">
+        <v>1.78</v>
+      </c>
+      <c r="AN81">
+        <v>1.5</v>
+      </c>
+      <c r="AO81">
+        <v>2.5</v>
+      </c>
+      <c r="AP81">
+        <v>1.8</v>
+      </c>
+      <c r="AQ81">
+        <v>2</v>
+      </c>
+      <c r="AR81">
+        <v>1.57</v>
+      </c>
+      <c r="AS81">
+        <v>1.48</v>
+      </c>
+      <c r="AT81">
+        <v>3.05</v>
+      </c>
+      <c r="AU81">
+        <v>9</v>
+      </c>
+      <c r="AV81">
+        <v>6</v>
+      </c>
+      <c r="AW81">
+        <v>7</v>
+      </c>
+      <c r="AX81">
+        <v>5</v>
+      </c>
+      <c r="AY81">
+        <v>17</v>
+      </c>
+      <c r="AZ81">
+        <v>16</v>
+      </c>
+      <c r="BA81">
+        <v>7</v>
+      </c>
+      <c r="BB81">
+        <v>7</v>
+      </c>
+      <c r="BC81">
+        <v>14</v>
+      </c>
+      <c r="BD81">
+        <v>1.65</v>
+      </c>
+      <c r="BE81">
+        <v>6.4</v>
+      </c>
+      <c r="BF81">
+        <v>2.55</v>
+      </c>
+      <c r="BG81">
+        <v>1.29</v>
+      </c>
+      <c r="BH81">
+        <v>3.15</v>
+      </c>
+      <c r="BI81">
+        <v>1.49</v>
+      </c>
+      <c r="BJ81">
+        <v>2.4</v>
+      </c>
+      <c r="BK81">
+        <v>1.81</v>
+      </c>
+      <c r="BL81">
+        <v>1.88</v>
+      </c>
+      <c r="BM81">
+        <v>2.25</v>
+      </c>
+      <c r="BN81">
+        <v>1.55</v>
+      </c>
+      <c r="BO81">
+        <v>2.9</v>
+      </c>
+      <c r="BP81">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7491891</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45599.47916666666</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>73</v>
+      </c>
+      <c r="H82" t="s">
+        <v>75</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
+        <v>96</v>
+      </c>
+      <c r="P82" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q82">
+        <v>2.3</v>
+      </c>
+      <c r="R82">
+        <v>2.3</v>
+      </c>
+      <c r="S82">
+        <v>4.75</v>
+      </c>
+      <c r="T82">
+        <v>1.33</v>
+      </c>
+      <c r="U82">
+        <v>3.25</v>
+      </c>
+      <c r="V82">
+        <v>2.5</v>
+      </c>
+      <c r="W82">
+        <v>1.5</v>
+      </c>
+      <c r="X82">
+        <v>6.5</v>
+      </c>
+      <c r="Y82">
+        <v>1.11</v>
+      </c>
+      <c r="Z82">
+        <v>1.77</v>
+      </c>
+      <c r="AA82">
+        <v>3.9</v>
+      </c>
+      <c r="AB82">
+        <v>4.2</v>
+      </c>
+      <c r="AC82">
+        <v>1.03</v>
+      </c>
+      <c r="AD82">
+        <v>15</v>
+      </c>
+      <c r="AE82">
+        <v>1.22</v>
+      </c>
+      <c r="AF82">
+        <v>4.33</v>
+      </c>
+      <c r="AG82">
+        <v>1.66</v>
+      </c>
+      <c r="AH82">
+        <v>2.1</v>
+      </c>
+      <c r="AI82">
+        <v>1.7</v>
+      </c>
+      <c r="AJ82">
+        <v>2.05</v>
+      </c>
+      <c r="AK82">
+        <v>1.2</v>
+      </c>
+      <c r="AL82">
+        <v>1.2</v>
+      </c>
+      <c r="AM82">
+        <v>2.15</v>
+      </c>
+      <c r="AN82">
+        <v>2.25</v>
+      </c>
+      <c r="AO82">
+        <v>2.33</v>
+      </c>
+      <c r="AP82">
+        <v>2</v>
+      </c>
+      <c r="AQ82">
+        <v>2</v>
+      </c>
+      <c r="AR82">
+        <v>1.64</v>
+      </c>
+      <c r="AS82">
+        <v>1.01</v>
+      </c>
+      <c r="AT82">
+        <v>2.65</v>
+      </c>
+      <c r="AU82">
+        <v>3</v>
+      </c>
+      <c r="AV82">
+        <v>3</v>
+      </c>
+      <c r="AW82">
+        <v>3</v>
+      </c>
+      <c r="AX82">
+        <v>5</v>
+      </c>
+      <c r="AY82">
+        <v>11</v>
+      </c>
+      <c r="AZ82">
+        <v>10</v>
+      </c>
+      <c r="BA82">
+        <v>8</v>
+      </c>
+      <c r="BB82">
+        <v>4</v>
+      </c>
+      <c r="BC82">
+        <v>12</v>
+      </c>
+      <c r="BD82">
+        <v>1.53</v>
+      </c>
+      <c r="BE82">
+        <v>6.75</v>
+      </c>
+      <c r="BF82">
+        <v>2.8</v>
+      </c>
+      <c r="BG82">
+        <v>1.26</v>
+      </c>
+      <c r="BH82">
+        <v>3.4</v>
+      </c>
+      <c r="BI82">
+        <v>1.46</v>
+      </c>
+      <c r="BJ82">
+        <v>2.5</v>
+      </c>
+      <c r="BK82">
+        <v>1.74</v>
+      </c>
+      <c r="BL82">
+        <v>1.96</v>
+      </c>
+      <c r="BM82">
+        <v>2.17</v>
+      </c>
+      <c r="BN82">
+        <v>1.6</v>
+      </c>
+      <c r="BO82">
+        <v>2.8</v>
+      </c>
+      <c r="BP82">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -17472,7 +17472,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7491893</v>
+        <v>7491891</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17481,196 +17481,196 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45598.875</v>
+        <v>45599.47916666666</v>
       </c>
       <c r="F81">
         <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H81" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="Q81">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="R81">
+        <v>2.3</v>
+      </c>
+      <c r="S81">
+        <v>4.75</v>
+      </c>
+      <c r="T81">
+        <v>1.33</v>
+      </c>
+      <c r="U81">
+        <v>3.25</v>
+      </c>
+      <c r="V81">
         <v>2.5</v>
       </c>
-      <c r="S81">
-        <v>3.5</v>
-      </c>
-      <c r="T81">
-        <v>1.25</v>
-      </c>
-      <c r="U81">
-        <v>3.75</v>
-      </c>
-      <c r="V81">
-        <v>2.2</v>
-      </c>
       <c r="W81">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="X81">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Y81">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="Z81">
-        <v>1.97</v>
+        <v>1.77</v>
       </c>
       <c r="AA81">
-        <v>4.17</v>
+        <v>3.9</v>
       </c>
       <c r="AB81">
-        <v>3.72</v>
+        <v>4.2</v>
       </c>
       <c r="AC81">
+        <v>1.03</v>
+      </c>
+      <c r="AD81">
+        <v>15</v>
+      </c>
+      <c r="AE81">
+        <v>1.22</v>
+      </c>
+      <c r="AF81">
+        <v>4.33</v>
+      </c>
+      <c r="AG81">
+        <v>1.66</v>
+      </c>
+      <c r="AH81">
+        <v>2.1</v>
+      </c>
+      <c r="AI81">
+        <v>1.7</v>
+      </c>
+      <c r="AJ81">
+        <v>2.05</v>
+      </c>
+      <c r="AK81">
+        <v>1.2</v>
+      </c>
+      <c r="AL81">
+        <v>1.2</v>
+      </c>
+      <c r="AM81">
+        <v>2.15</v>
+      </c>
+      <c r="AN81">
+        <v>2.25</v>
+      </c>
+      <c r="AO81">
+        <v>2.33</v>
+      </c>
+      <c r="AP81">
+        <v>2</v>
+      </c>
+      <c r="AQ81">
+        <v>2</v>
+      </c>
+      <c r="AR81">
+        <v>1.64</v>
+      </c>
+      <c r="AS81">
         <v>1.01</v>
       </c>
-      <c r="AD81">
-        <v>21</v>
-      </c>
-      <c r="AE81">
-        <v>1.15</v>
-      </c>
-      <c r="AF81">
-        <v>5.5</v>
-      </c>
-      <c r="AG81">
-        <v>1.44</v>
-      </c>
-      <c r="AH81">
-        <v>2.67</v>
-      </c>
-      <c r="AI81">
-        <v>1.44</v>
-      </c>
-      <c r="AJ81">
-        <v>2.63</v>
-      </c>
-      <c r="AK81">
-        <v>1.36</v>
-      </c>
-      <c r="AL81">
-        <v>1.22</v>
-      </c>
-      <c r="AM81">
-        <v>1.78</v>
-      </c>
-      <c r="AN81">
-        <v>1.5</v>
-      </c>
-      <c r="AO81">
-        <v>2.5</v>
-      </c>
-      <c r="AP81">
-        <v>1.8</v>
-      </c>
-      <c r="AQ81">
-        <v>2</v>
-      </c>
-      <c r="AR81">
-        <v>1.57</v>
-      </c>
-      <c r="AS81">
-        <v>1.48</v>
-      </c>
       <c r="AT81">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="AU81">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AV81">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW81">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX81">
         <v>5</v>
       </c>
       <c r="AY81">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ81">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BA81">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB81">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC81">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD81">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="BE81">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF81">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="BG81">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="BH81">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BI81">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="BJ81">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="BK81">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="BL81">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="BM81">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="BN81">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="BO81">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BP81">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -17678,7 +17678,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7491891</v>
+        <v>7491893</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17687,196 +17687,196 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45599.47916666666</v>
+        <v>45599.5625</v>
       </c>
       <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>70</v>
+      </c>
+      <c r="H82" t="s">
+        <v>82</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>5</v>
+      </c>
+      <c r="O82" t="s">
+        <v>146</v>
+      </c>
+      <c r="P82" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q82">
+        <v>2.6</v>
+      </c>
+      <c r="R82">
+        <v>2.5</v>
+      </c>
+      <c r="S82">
+        <v>3.5</v>
+      </c>
+      <c r="T82">
+        <v>1.25</v>
+      </c>
+      <c r="U82">
+        <v>3.75</v>
+      </c>
+      <c r="V82">
+        <v>2.2</v>
+      </c>
+      <c r="W82">
+        <v>1.62</v>
+      </c>
+      <c r="X82">
+        <v>5</v>
+      </c>
+      <c r="Y82">
+        <v>1.17</v>
+      </c>
+      <c r="Z82">
+        <v>1.97</v>
+      </c>
+      <c r="AA82">
+        <v>4.17</v>
+      </c>
+      <c r="AB82">
+        <v>3.72</v>
+      </c>
+      <c r="AC82">
+        <v>1.01</v>
+      </c>
+      <c r="AD82">
+        <v>21</v>
+      </c>
+      <c r="AE82">
+        <v>1.15</v>
+      </c>
+      <c r="AF82">
+        <v>5.5</v>
+      </c>
+      <c r="AG82">
+        <v>1.44</v>
+      </c>
+      <c r="AH82">
+        <v>2.67</v>
+      </c>
+      <c r="AI82">
+        <v>1.44</v>
+      </c>
+      <c r="AJ82">
+        <v>2.63</v>
+      </c>
+      <c r="AK82">
+        <v>1.36</v>
+      </c>
+      <c r="AL82">
+        <v>1.22</v>
+      </c>
+      <c r="AM82">
+        <v>1.78</v>
+      </c>
+      <c r="AN82">
+        <v>1.5</v>
+      </c>
+      <c r="AO82">
+        <v>2.5</v>
+      </c>
+      <c r="AP82">
+        <v>1.8</v>
+      </c>
+      <c r="AQ82">
+        <v>2</v>
+      </c>
+      <c r="AR82">
+        <v>1.57</v>
+      </c>
+      <c r="AS82">
+        <v>1.48</v>
+      </c>
+      <c r="AT82">
+        <v>3.05</v>
+      </c>
+      <c r="AU82">
         <v>9</v>
       </c>
-      <c r="G82" t="s">
-        <v>73</v>
-      </c>
-      <c r="H82" t="s">
-        <v>75</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82" t="s">
-        <v>96</v>
-      </c>
-      <c r="P82" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q82">
-        <v>2.3</v>
-      </c>
-      <c r="R82">
-        <v>2.3</v>
-      </c>
-      <c r="S82">
-        <v>4.75</v>
-      </c>
-      <c r="T82">
-        <v>1.33</v>
-      </c>
-      <c r="U82">
-        <v>3.25</v>
-      </c>
-      <c r="V82">
-        <v>2.5</v>
-      </c>
-      <c r="W82">
-        <v>1.5</v>
-      </c>
-      <c r="X82">
-        <v>6.5</v>
-      </c>
-      <c r="Y82">
-        <v>1.11</v>
-      </c>
-      <c r="Z82">
-        <v>1.77</v>
-      </c>
-      <c r="AA82">
-        <v>3.9</v>
-      </c>
-      <c r="AB82">
-        <v>4.2</v>
-      </c>
-      <c r="AC82">
-        <v>1.03</v>
-      </c>
-      <c r="AD82">
-        <v>15</v>
-      </c>
-      <c r="AE82">
-        <v>1.22</v>
-      </c>
-      <c r="AF82">
-        <v>4.33</v>
-      </c>
-      <c r="AG82">
-        <v>1.66</v>
-      </c>
-      <c r="AH82">
-        <v>2.1</v>
-      </c>
-      <c r="AI82">
-        <v>1.7</v>
-      </c>
-      <c r="AJ82">
-        <v>2.05</v>
-      </c>
-      <c r="AK82">
-        <v>1.2</v>
-      </c>
-      <c r="AL82">
-        <v>1.2</v>
-      </c>
-      <c r="AM82">
-        <v>2.15</v>
-      </c>
-      <c r="AN82">
-        <v>2.25</v>
-      </c>
-      <c r="AO82">
-        <v>2.33</v>
-      </c>
-      <c r="AP82">
-        <v>2</v>
-      </c>
-      <c r="AQ82">
-        <v>2</v>
-      </c>
-      <c r="AR82">
-        <v>1.64</v>
-      </c>
-      <c r="AS82">
-        <v>1.01</v>
-      </c>
-      <c r="AT82">
-        <v>2.65</v>
-      </c>
-      <c r="AU82">
-        <v>3</v>
-      </c>
       <c r="AV82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW82">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX82">
         <v>5</v>
       </c>
       <c r="AY82">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ82">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA82">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB82">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC82">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD82">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="BE82">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF82">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="BG82">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="BH82">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BI82">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="BJ82">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BK82">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="BL82">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="BM82">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="BN82">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="BO82">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="BP82">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="202">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -259,18 +259,18 @@
     <t>Stuttgart</t>
   </si>
   <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
     <t>Eintracht Frankfurt</t>
   </si>
   <si>
+    <t>Bochum</t>
+  </si>
+  <si>
     <t>Werder Bremen</t>
   </si>
   <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Holstein Kiel</t>
-  </si>
-  <si>
     <t>Bayer Leverkusen</t>
   </si>
   <si>
@@ -349,12 +349,12 @@
     <t>['25', '57']</t>
   </si>
   <si>
+    <t>['4', '6']</t>
+  </si>
+  <si>
     <t>['22', '35']</t>
   </si>
   <si>
-    <t>['4', '6']</t>
-  </si>
-  <si>
     <t>['30', '80']</t>
   </si>
   <si>
@@ -406,18 +406,18 @@
     <t>['43', '83']</t>
   </si>
   <si>
+    <t>['25', '71']</t>
+  </si>
+  <si>
+    <t>['11', '64', '90+3']</t>
+  </si>
+  <si>
+    <t>['34', '37', '45+1']</t>
+  </si>
+  <si>
     <t>['22', '62', '75']</t>
   </si>
   <si>
-    <t>['34', '37', '45+1']</t>
-  </si>
-  <si>
-    <t>['25', '71']</t>
-  </si>
-  <si>
-    <t>['11', '64', '90+3']</t>
-  </si>
-  <si>
     <t>['57', '60', '80', '89']</t>
   </si>
   <si>
@@ -427,30 +427,30 @@
     <t>['55']</t>
   </si>
   <si>
+    <t>['25', '50']</t>
+  </si>
+  <si>
+    <t>['47', '58', '78']</t>
+  </si>
+  <si>
     <t>['19', '61']</t>
   </si>
   <si>
-    <t>['47', '58', '78']</t>
-  </si>
-  <si>
-    <t>['25', '50']</t>
-  </si>
-  <si>
     <t>['74', '90']</t>
   </si>
   <si>
     <t>['66']</t>
   </si>
   <si>
+    <t>['15', '43', '51']</t>
+  </si>
+  <si>
+    <t>['9', '18', '20', '32', '61', '66', '69']</t>
+  </si>
+  <si>
     <t>['28']</t>
   </si>
   <si>
-    <t>['15', '43', '51']</t>
-  </si>
-  <si>
-    <t>['9', '18', '20', '32', '61', '66', '69']</t>
-  </si>
-  <si>
     <t>['30', '65']</t>
   </si>
   <si>
@@ -481,15 +481,15 @@
     <t>['43', '62', '90+4']</t>
   </si>
   <si>
+    <t>['27', '30']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
     <t>['67', '78']</t>
   </si>
   <si>
-    <t>['27', '30']</t>
-  </si>
-  <si>
     <t>['45+7', '57', '80']</t>
   </si>
   <si>
@@ -517,18 +517,18 @@
     <t>['13', '15', '49']</t>
   </si>
   <si>
+    <t>['54', '59', '65']</t>
+  </si>
+  <si>
+    <t>['23', '32', '57', '60', '65']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['15', '89']</t>
   </si>
   <si>
-    <t>['67']</t>
-  </si>
-  <si>
-    <t>['54', '59', '65']</t>
-  </si>
-  <si>
-    <t>['23', '32', '57', '60', '65']</t>
-  </si>
-  <si>
     <t>['5', '37', '45+1']</t>
   </si>
   <si>
@@ -577,18 +577,18 @@
     <t>['78']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['20', '37']</t>
+  </si>
+  <si>
     <t>['12', '80']</t>
   </si>
   <si>
-    <t>['20', '37']</t>
-  </si>
-  <si>
-    <t>['65']</t>
-  </si>
-  <si>
-    <t>['16']</t>
-  </si>
-  <si>
     <t>['18', '89']</t>
   </si>
   <si>
@@ -598,15 +598,15 @@
     <t>['57']</t>
   </si>
   <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['84']</t>
   </si>
   <si>
-    <t>['15']</t>
-  </si>
-  <si>
-    <t>['4']</t>
-  </si>
-  <si>
     <t>['30', '77']</t>
   </si>
   <si>
@@ -616,10 +616,10 @@
     <t>['14']</t>
   </si>
   <si>
+    <t>['35', '51']</t>
+  </si>
+  <si>
     <t>['20', '90+3']</t>
-  </si>
-  <si>
-    <t>['35', '51']</t>
   </si>
 </sst>
 </file>
@@ -981,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1628,7 +1628,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -2040,7 +2040,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -2452,7 +2452,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ11">
         <v>1.2</v>
@@ -3464,7 +3464,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7491826</v>
+        <v>7491831</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3482,100 +3482,100 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P13" t="s">
         <v>155</v>
       </c>
       <c r="Q13">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="R13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S13">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="T13">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U13">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V13">
+        <v>2.63</v>
+      </c>
+      <c r="W13">
+        <v>1.44</v>
+      </c>
+      <c r="X13">
+        <v>6.5</v>
+      </c>
+      <c r="Y13">
+        <v>1.11</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AA13">
+        <v>3.5</v>
+      </c>
+      <c r="AB13">
+        <v>2.25</v>
+      </c>
+      <c r="AC13">
+        <v>1.04</v>
+      </c>
+      <c r="AD13">
+        <v>14.75</v>
+      </c>
+      <c r="AE13">
+        <v>1.23</v>
+      </c>
+      <c r="AF13">
+        <v>4.2</v>
+      </c>
+      <c r="AG13">
+        <v>1.77</v>
+      </c>
+      <c r="AH13">
+        <v>1.97</v>
+      </c>
+      <c r="AI13">
+        <v>1.62</v>
+      </c>
+      <c r="AJ13">
         <v>2.2</v>
       </c>
-      <c r="W13">
-        <v>1.62</v>
-      </c>
-      <c r="X13">
-        <v>5</v>
-      </c>
-      <c r="Y13">
-        <v>1.17</v>
-      </c>
-      <c r="Z13">
-        <v>2</v>
-      </c>
-      <c r="AA13">
-        <v>3.75</v>
-      </c>
-      <c r="AB13">
-        <v>3.4</v>
-      </c>
-      <c r="AC13">
-        <v>1.02</v>
-      </c>
-      <c r="AD13">
-        <v>21</v>
-      </c>
-      <c r="AE13">
-        <v>1.11</v>
-      </c>
-      <c r="AF13">
-        <v>5.15</v>
-      </c>
-      <c r="AG13">
-        <v>1.63</v>
-      </c>
-      <c r="AH13">
-        <v>2.29</v>
-      </c>
-      <c r="AI13">
-        <v>1.5</v>
-      </c>
-      <c r="AJ13">
-        <v>2.5</v>
-      </c>
       <c r="AK13">
-        <v>1.27</v>
+        <v>1.7</v>
       </c>
       <c r="AL13">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AM13">
-        <v>2.02</v>
+        <v>1.36</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -3584,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3599,70 +3599,70 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX13">
         <v>4</v>
       </c>
       <c r="AY13">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA13">
         <v>1</v>
       </c>
       <c r="BB13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD13">
-        <v>1.45</v>
+        <v>1.98</v>
       </c>
       <c r="BE13">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF13">
-        <v>3.05</v>
+        <v>1.98</v>
       </c>
       <c r="BG13">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="BH13">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="BI13">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="BJ13">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="BK13">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="BL13">
         <v>2</v>
       </c>
       <c r="BM13">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="BN13">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="BO13">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BP13">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3670,7 +3670,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7491828</v>
+        <v>7491826</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3688,187 +3688,187 @@
         <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="R14">
         <v>2.5</v>
       </c>
       <c r="S14">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="T14">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U14">
+        <v>3.75</v>
+      </c>
+      <c r="V14">
+        <v>2.2</v>
+      </c>
+      <c r="W14">
+        <v>1.62</v>
+      </c>
+      <c r="X14">
+        <v>5</v>
+      </c>
+      <c r="Y14">
+        <v>1.17</v>
+      </c>
+      <c r="Z14">
+        <v>2</v>
+      </c>
+      <c r="AA14">
+        <v>3.75</v>
+      </c>
+      <c r="AB14">
+        <v>3.4</v>
+      </c>
+      <c r="AC14">
+        <v>1.02</v>
+      </c>
+      <c r="AD14">
+        <v>21</v>
+      </c>
+      <c r="AE14">
+        <v>1.11</v>
+      </c>
+      <c r="AF14">
+        <v>5.15</v>
+      </c>
+      <c r="AG14">
+        <v>1.63</v>
+      </c>
+      <c r="AH14">
+        <v>2.29</v>
+      </c>
+      <c r="AI14">
+        <v>1.5</v>
+      </c>
+      <c r="AJ14">
+        <v>2.5</v>
+      </c>
+      <c r="AK14">
+        <v>1.27</v>
+      </c>
+      <c r="AL14">
+        <v>1.25</v>
+      </c>
+      <c r="AM14">
+        <v>2.02</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>2.5</v>
+      </c>
+      <c r="AQ14">
+        <v>0.5</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>8</v>
+      </c>
+      <c r="AV14">
         <v>4</v>
       </c>
-      <c r="V14">
-        <v>2.1</v>
-      </c>
-      <c r="W14">
-        <v>1.67</v>
-      </c>
-      <c r="X14">
-        <v>4.5</v>
-      </c>
-      <c r="Y14">
-        <v>1.18</v>
-      </c>
-      <c r="Z14">
-        <v>3.9</v>
-      </c>
-      <c r="AA14">
-        <v>4.1</v>
-      </c>
-      <c r="AB14">
-        <v>1.78</v>
-      </c>
-      <c r="AC14">
-        <v>1.01</v>
-      </c>
-      <c r="AD14">
-        <v>23</v>
-      </c>
-      <c r="AE14">
-        <v>1.1</v>
-      </c>
-      <c r="AF14">
-        <v>5.5</v>
-      </c>
-      <c r="AG14">
+      <c r="AW14">
+        <v>8</v>
+      </c>
+      <c r="AX14">
+        <v>4</v>
+      </c>
+      <c r="AY14">
+        <v>19</v>
+      </c>
+      <c r="AZ14">
+        <v>12</v>
+      </c>
+      <c r="BA14">
+        <v>1</v>
+      </c>
+      <c r="BB14">
+        <v>4</v>
+      </c>
+      <c r="BC14">
+        <v>5</v>
+      </c>
+      <c r="BD14">
         <v>1.45</v>
       </c>
-      <c r="AH14">
-        <v>2.7</v>
-      </c>
-      <c r="AI14">
-        <v>1.44</v>
-      </c>
-      <c r="AJ14">
-        <v>2.63</v>
-      </c>
-      <c r="AK14">
-        <v>2</v>
-      </c>
-      <c r="AL14">
-        <v>1.2</v>
-      </c>
-      <c r="AM14">
-        <v>1.28</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0.5</v>
-      </c>
-      <c r="AQ14">
-        <v>0.25</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>2</v>
-      </c>
-      <c r="AV14">
-        <v>5</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>3</v>
-      </c>
-      <c r="AY14">
-        <v>6</v>
-      </c>
-      <c r="AZ14">
-        <v>10</v>
-      </c>
-      <c r="BA14">
-        <v>5</v>
-      </c>
-      <c r="BB14">
-        <v>6</v>
-      </c>
-      <c r="BC14">
-        <v>11</v>
-      </c>
-      <c r="BD14">
-        <v>2.55</v>
-      </c>
       <c r="BE14">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF14">
-        <v>1.6</v>
+        <v>3.05</v>
       </c>
       <c r="BG14">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="BH14">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BI14">
         <v>1.48</v>
       </c>
       <c r="BJ14">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="BK14">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="BL14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BM14">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="BN14">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="BO14">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="BP14">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3918,7 +3918,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4082,7 +4082,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7491831</v>
+        <v>7491828</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -4100,100 +4100,100 @@
         <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="Q16">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R16">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S16">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="T16">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="U16">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="V16">
+        <v>2.1</v>
+      </c>
+      <c r="W16">
+        <v>1.67</v>
+      </c>
+      <c r="X16">
+        <v>4.5</v>
+      </c>
+      <c r="Y16">
+        <v>1.18</v>
+      </c>
+      <c r="Z16">
+        <v>3.9</v>
+      </c>
+      <c r="AA16">
+        <v>4.1</v>
+      </c>
+      <c r="AB16">
+        <v>1.78</v>
+      </c>
+      <c r="AC16">
+        <v>1.01</v>
+      </c>
+      <c r="AD16">
+        <v>23</v>
+      </c>
+      <c r="AE16">
+        <v>1.1</v>
+      </c>
+      <c r="AF16">
+        <v>5.5</v>
+      </c>
+      <c r="AG16">
+        <v>1.45</v>
+      </c>
+      <c r="AH16">
+        <v>2.7</v>
+      </c>
+      <c r="AI16">
+        <v>1.44</v>
+      </c>
+      <c r="AJ16">
         <v>2.63</v>
       </c>
-      <c r="W16">
-        <v>1.44</v>
-      </c>
-      <c r="X16">
-        <v>6.5</v>
-      </c>
-      <c r="Y16">
-        <v>1.11</v>
-      </c>
-      <c r="Z16">
-        <v>3</v>
-      </c>
-      <c r="AA16">
-        <v>3.5</v>
-      </c>
-      <c r="AB16">
-        <v>2.25</v>
-      </c>
-      <c r="AC16">
-        <v>1.04</v>
-      </c>
-      <c r="AD16">
-        <v>14.75</v>
-      </c>
-      <c r="AE16">
-        <v>1.23</v>
-      </c>
-      <c r="AF16">
-        <v>4.2</v>
-      </c>
-      <c r="AG16">
-        <v>1.77</v>
-      </c>
-      <c r="AH16">
-        <v>1.97</v>
-      </c>
-      <c r="AI16">
-        <v>1.62</v>
-      </c>
-      <c r="AJ16">
-        <v>2.2</v>
-      </c>
       <c r="AK16">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AL16">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AM16">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AN16">
         <v>0</v>
@@ -4202,10 +4202,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ16">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4217,70 +4217,70 @@
         <v>0</v>
       </c>
       <c r="AU16">
+        <v>2</v>
+      </c>
+      <c r="AV16">
+        <v>5</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>3</v>
+      </c>
+      <c r="AY16">
         <v>6</v>
       </c>
-      <c r="AV16">
+      <c r="AZ16">
+        <v>10</v>
+      </c>
+      <c r="BA16">
+        <v>5</v>
+      </c>
+      <c r="BB16">
         <v>6</v>
       </c>
-      <c r="AW16">
-        <v>6</v>
-      </c>
-      <c r="AX16">
-        <v>4</v>
-      </c>
-      <c r="AY16">
-        <v>14</v>
-      </c>
-      <c r="AZ16">
-        <v>14</v>
-      </c>
-      <c r="BA16">
-        <v>1</v>
-      </c>
-      <c r="BB16">
-        <v>7</v>
-      </c>
       <c r="BC16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD16">
-        <v>1.98</v>
+        <v>2.55</v>
       </c>
       <c r="BE16">
         <v>6.5</v>
       </c>
       <c r="BF16">
-        <v>1.98</v>
+        <v>1.6</v>
       </c>
       <c r="BG16">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="BH16">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="BI16">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="BJ16">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="BK16">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="BL16">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BM16">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="BN16">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="BO16">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="BP16">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4823,7 +4823,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7491834</v>
+        <v>7491832</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -5127,190 +5127,190 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="Q21">
+        <v>1.95</v>
+      </c>
+      <c r="R21">
+        <v>2.5</v>
+      </c>
+      <c r="S21">
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <v>1.3</v>
+      </c>
+      <c r="U21">
+        <v>3.4</v>
+      </c>
+      <c r="V21">
+        <v>2.5</v>
+      </c>
+      <c r="W21">
+        <v>1.5</v>
+      </c>
+      <c r="X21">
+        <v>6</v>
+      </c>
+      <c r="Y21">
+        <v>1.13</v>
+      </c>
+      <c r="Z21">
+        <v>1.47</v>
+      </c>
+      <c r="AA21">
+        <v>4.6</v>
+      </c>
+      <c r="AB21">
+        <v>6.25</v>
+      </c>
+      <c r="AC21">
+        <v>1.02</v>
+      </c>
+      <c r="AD21">
+        <v>17</v>
+      </c>
+      <c r="AE21">
+        <v>1.19</v>
+      </c>
+      <c r="AF21">
         <v>4.75</v>
       </c>
-      <c r="R21">
-        <v>2.75</v>
-      </c>
-      <c r="S21">
+      <c r="AG21">
+        <v>1.62</v>
+      </c>
+      <c r="AH21">
+        <v>2.25</v>
+      </c>
+      <c r="AI21">
+        <v>1.8</v>
+      </c>
+      <c r="AJ21">
         <v>1.95</v>
       </c>
-      <c r="T21">
-        <v>1.18</v>
-      </c>
-      <c r="U21">
-        <v>4.5</v>
-      </c>
-      <c r="V21">
-        <v>1.83</v>
-      </c>
-      <c r="W21">
-        <v>1.83</v>
-      </c>
-      <c r="X21">
-        <v>4</v>
-      </c>
-      <c r="Y21">
-        <v>1.22</v>
-      </c>
-      <c r="Z21">
-        <v>5.25</v>
-      </c>
-      <c r="AA21">
-        <v>5</v>
-      </c>
-      <c r="AB21">
-        <v>1.53</v>
-      </c>
-      <c r="AC21">
-        <v>1.01</v>
-      </c>
-      <c r="AD21">
-        <v>34</v>
-      </c>
-      <c r="AE21">
+      <c r="AK21">
         <v>1.09</v>
-      </c>
-      <c r="AF21">
-        <v>7.5</v>
-      </c>
-      <c r="AG21">
-        <v>1.45</v>
-      </c>
-      <c r="AH21">
-        <v>2.7</v>
-      </c>
-      <c r="AI21">
-        <v>1.44</v>
-      </c>
-      <c r="AJ21">
-        <v>2.63</v>
-      </c>
-      <c r="AK21">
-        <v>2.45</v>
       </c>
       <c r="AL21">
         <v>1.15</v>
       </c>
       <c r="AM21">
-        <v>1.18</v>
+        <v>2.85</v>
       </c>
       <c r="AN21">
         <v>3</v>
       </c>
       <c r="AO21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>2.26</v>
+        <v>1.16</v>
       </c>
       <c r="AS21">
+        <v>1.54</v>
+      </c>
+      <c r="AT21">
+        <v>2.7</v>
+      </c>
+      <c r="AU21">
+        <v>4</v>
+      </c>
+      <c r="AV21">
+        <v>4</v>
+      </c>
+      <c r="AW21">
+        <v>5</v>
+      </c>
+      <c r="AX21">
+        <v>4</v>
+      </c>
+      <c r="AY21">
+        <v>15</v>
+      </c>
+      <c r="AZ21">
+        <v>11</v>
+      </c>
+      <c r="BA21">
+        <v>6</v>
+      </c>
+      <c r="BB21">
+        <v>5</v>
+      </c>
+      <c r="BC21">
+        <v>11</v>
+      </c>
+      <c r="BD21">
+        <v>1.28</v>
+      </c>
+      <c r="BE21">
+        <v>7.5</v>
+      </c>
+      <c r="BF21">
+        <v>4.1</v>
+      </c>
+      <c r="BG21">
+        <v>1.28</v>
+      </c>
+      <c r="BH21">
+        <v>3.25</v>
+      </c>
+      <c r="BI21">
+        <v>1.48</v>
+      </c>
+      <c r="BJ21">
         <v>2.43</v>
       </c>
-      <c r="AT21">
-        <v>4.69</v>
-      </c>
-      <c r="AU21">
-        <v>6</v>
-      </c>
-      <c r="AV21">
-        <v>9</v>
-      </c>
-      <c r="AW21">
-        <v>4</v>
-      </c>
-      <c r="AX21">
-        <v>6</v>
-      </c>
-      <c r="AY21">
-        <v>16</v>
-      </c>
-      <c r="AZ21">
-        <v>21</v>
-      </c>
-      <c r="BA21">
-        <v>4</v>
-      </c>
-      <c r="BB21">
-        <v>12</v>
-      </c>
-      <c r="BC21">
-        <v>16</v>
-      </c>
-      <c r="BD21">
-        <v>3.3</v>
-      </c>
-      <c r="BE21">
-        <v>7</v>
-      </c>
-      <c r="BF21">
-        <v>1.4</v>
-      </c>
-      <c r="BG21">
-        <v>1.2</v>
-      </c>
-      <c r="BH21">
-        <v>3.9</v>
-      </c>
-      <c r="BI21">
-        <v>1.37</v>
-      </c>
-      <c r="BJ21">
-        <v>2.8</v>
-      </c>
       <c r="BK21">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="BL21">
-        <v>2.17</v>
+        <v>1.9</v>
       </c>
       <c r="BM21">
-        <v>1.96</v>
+        <v>2.23</v>
       </c>
       <c r="BN21">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="BO21">
-        <v>2.43</v>
+        <v>2.85</v>
       </c>
       <c r="BP21">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5318,7 +5318,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7491835</v>
+        <v>7491834</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5333,190 +5333,190 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
         <v>1</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
       <c r="M22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q22">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="R22">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="S22">
+        <v>1.95</v>
+      </c>
+      <c r="T22">
+        <v>1.18</v>
+      </c>
+      <c r="U22">
         <v>4.5</v>
       </c>
-      <c r="T22">
-        <v>1.3</v>
-      </c>
-      <c r="U22">
-        <v>3.4</v>
-      </c>
       <c r="V22">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="W22">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="X22">
+        <v>4</v>
+      </c>
+      <c r="Y22">
+        <v>1.22</v>
+      </c>
+      <c r="Z22">
+        <v>5.25</v>
+      </c>
+      <c r="AA22">
+        <v>5</v>
+      </c>
+      <c r="AB22">
+        <v>1.53</v>
+      </c>
+      <c r="AC22">
+        <v>1.01</v>
+      </c>
+      <c r="AD22">
+        <v>34</v>
+      </c>
+      <c r="AE22">
+        <v>1.09</v>
+      </c>
+      <c r="AF22">
+        <v>7.5</v>
+      </c>
+      <c r="AG22">
+        <v>1.45</v>
+      </c>
+      <c r="AH22">
+        <v>2.7</v>
+      </c>
+      <c r="AI22">
+        <v>1.44</v>
+      </c>
+      <c r="AJ22">
+        <v>2.63</v>
+      </c>
+      <c r="AK22">
+        <v>2.45</v>
+      </c>
+      <c r="AL22">
+        <v>1.15</v>
+      </c>
+      <c r="AM22">
+        <v>1.18</v>
+      </c>
+      <c r="AN22">
+        <v>3</v>
+      </c>
+      <c r="AO22">
+        <v>3</v>
+      </c>
+      <c r="AP22">
+        <v>1.2</v>
+      </c>
+      <c r="AQ22">
+        <v>2</v>
+      </c>
+      <c r="AR22">
+        <v>2.26</v>
+      </c>
+      <c r="AS22">
+        <v>2.43</v>
+      </c>
+      <c r="AT22">
+        <v>4.69</v>
+      </c>
+      <c r="AU22">
         <v>6</v>
       </c>
-      <c r="Y22">
-        <v>1.13</v>
-      </c>
-      <c r="Z22">
-        <v>1.7</v>
-      </c>
-      <c r="AA22">
+      <c r="AV22">
+        <v>9</v>
+      </c>
+      <c r="AW22">
         <v>4</v>
-      </c>
-      <c r="AB22">
-        <v>4.6</v>
-      </c>
-      <c r="AC22">
-        <v>1.03</v>
-      </c>
-      <c r="AD22">
-        <v>15</v>
-      </c>
-      <c r="AE22">
-        <v>1.22</v>
-      </c>
-      <c r="AF22">
-        <v>4.33</v>
-      </c>
-      <c r="AG22">
-        <v>1.62</v>
-      </c>
-      <c r="AH22">
-        <v>2.25</v>
-      </c>
-      <c r="AI22">
-        <v>1.67</v>
-      </c>
-      <c r="AJ22">
-        <v>2.1</v>
-      </c>
-      <c r="AK22">
-        <v>1.2</v>
-      </c>
-      <c r="AL22">
-        <v>1.2</v>
-      </c>
-      <c r="AM22">
-        <v>2.15</v>
-      </c>
-      <c r="AN22">
-        <v>3</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>2</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>1.5</v>
-      </c>
-      <c r="AS22">
-        <v>0.87</v>
-      </c>
-      <c r="AT22">
-        <v>2.37</v>
-      </c>
-      <c r="AU22">
-        <v>10</v>
-      </c>
-      <c r="AV22">
-        <v>4</v>
-      </c>
-      <c r="AW22">
-        <v>8</v>
       </c>
       <c r="AX22">
         <v>6</v>
       </c>
       <c r="AY22">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AZ22">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BA22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BC22">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BD22">
-        <v>1.64</v>
+        <v>3.3</v>
       </c>
       <c r="BE22">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF22">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="BG22">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="BH22">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="BI22">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="BJ22">
-        <v>2.33</v>
+        <v>2.8</v>
       </c>
       <c r="BK22">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="BL22">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="BM22">
-        <v>2.32</v>
+        <v>1.96</v>
       </c>
       <c r="BN22">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="BO22">
-        <v>2.95</v>
+        <v>2.43</v>
       </c>
       <c r="BP22">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -5524,7 +5524,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7491837</v>
+        <v>7491835</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -5539,10 +5539,10 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5554,34 +5554,34 @@
         <v>1</v>
       </c>
       <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
         <v>1</v>
       </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
       <c r="N23">
         <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q23">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="R23">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S23">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="T23">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U23">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V23">
         <v>2.5</v>
@@ -5590,25 +5590,25 @@
         <v>1.5</v>
       </c>
       <c r="X23">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y23">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z23">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="AA23">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AB23">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="AC23">
         <v>1.03</v>
       </c>
       <c r="AD23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE23">
         <v>1.22</v>
@@ -5617,112 +5617,112 @@
         <v>4.33</v>
       </c>
       <c r="AG23">
+        <v>1.62</v>
+      </c>
+      <c r="AH23">
+        <v>2.25</v>
+      </c>
+      <c r="AI23">
         <v>1.67</v>
       </c>
-      <c r="AH23">
+      <c r="AJ23">
+        <v>2.1</v>
+      </c>
+      <c r="AK23">
+        <v>1.2</v>
+      </c>
+      <c r="AL23">
+        <v>1.2</v>
+      </c>
+      <c r="AM23">
         <v>2.15</v>
       </c>
-      <c r="AI23">
-        <v>1.57</v>
-      </c>
-      <c r="AJ23">
-        <v>2.25</v>
-      </c>
-      <c r="AK23">
-        <v>1.53</v>
-      </c>
-      <c r="AL23">
-        <v>1.26</v>
-      </c>
-      <c r="AM23">
+      <c r="AN23">
+        <v>3</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>2</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
         <v>1.5</v>
       </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0.4</v>
-      </c>
-      <c r="AQ23">
-        <v>1.4</v>
-      </c>
-      <c r="AR23">
-        <v>1.03</v>
-      </c>
       <c r="AS23">
-        <v>1.12</v>
+        <v>0.87</v>
       </c>
       <c r="AT23">
-        <v>2.15</v>
+        <v>2.37</v>
       </c>
       <c r="AU23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW23">
+        <v>8</v>
+      </c>
+      <c r="AX23">
         <v>6</v>
       </c>
-      <c r="AX23">
-        <v>4</v>
-      </c>
       <c r="AY23">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AZ23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA23">
         <v>5</v>
       </c>
       <c r="BB23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD23">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="BE23">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF23">
-        <v>2.07</v>
+        <v>2.5</v>
       </c>
       <c r="BG23">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="BH23">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BI23">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="BJ23">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="BK23">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BL23">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="BM23">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="BN23">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="BO23">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="BP23">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="24" spans="1:68">
@@ -5730,7 +5730,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7491839</v>
+        <v>7491837</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -5745,190 +5745,190 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>106</v>
+      </c>
+      <c r="P24" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q24">
+        <v>3.2</v>
+      </c>
+      <c r="R24">
+        <v>2.3</v>
+      </c>
+      <c r="S24">
+        <v>3.1</v>
+      </c>
+      <c r="T24">
+        <v>1.33</v>
+      </c>
+      <c r="U24">
+        <v>3.25</v>
+      </c>
+      <c r="V24">
+        <v>2.5</v>
+      </c>
+      <c r="W24">
+        <v>1.5</v>
+      </c>
+      <c r="X24">
+        <v>6.5</v>
+      </c>
+      <c r="Y24">
+        <v>1.11</v>
+      </c>
+      <c r="Z24">
+        <v>2.7</v>
+      </c>
+      <c r="AA24">
+        <v>3.6</v>
+      </c>
+      <c r="AB24">
+        <v>2.5</v>
+      </c>
+      <c r="AC24">
+        <v>1.03</v>
+      </c>
+      <c r="AD24">
+        <v>13</v>
+      </c>
+      <c r="AE24">
+        <v>1.22</v>
+      </c>
+      <c r="AF24">
+        <v>4.33</v>
+      </c>
+      <c r="AG24">
+        <v>1.67</v>
+      </c>
+      <c r="AH24">
+        <v>2.15</v>
+      </c>
+      <c r="AI24">
+        <v>1.57</v>
+      </c>
+      <c r="AJ24">
+        <v>2.25</v>
+      </c>
+      <c r="AK24">
+        <v>1.53</v>
+      </c>
+      <c r="AL24">
+        <v>1.26</v>
+      </c>
+      <c r="AM24">
+        <v>1.5</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0.4</v>
+      </c>
+      <c r="AQ24">
+        <v>1.4</v>
+      </c>
+      <c r="AR24">
+        <v>1.03</v>
+      </c>
+      <c r="AS24">
+        <v>1.12</v>
+      </c>
+      <c r="AT24">
+        <v>2.15</v>
+      </c>
+      <c r="AU24">
+        <v>5</v>
+      </c>
+      <c r="AV24">
+        <v>7</v>
+      </c>
+      <c r="AW24">
+        <v>6</v>
+      </c>
+      <c r="AX24">
         <v>4</v>
       </c>
-      <c r="O24" t="s">
-        <v>107</v>
-      </c>
-      <c r="P24" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q24">
-        <v>3.1</v>
-      </c>
-      <c r="R24">
-        <v>2.5</v>
-      </c>
-      <c r="S24">
-        <v>2.75</v>
-      </c>
-      <c r="T24">
+      <c r="AY24">
+        <v>19</v>
+      </c>
+      <c r="AZ24">
+        <v>15</v>
+      </c>
+      <c r="BA24">
+        <v>5</v>
+      </c>
+      <c r="BB24">
+        <v>4</v>
+      </c>
+      <c r="BC24">
+        <v>9</v>
+      </c>
+      <c r="BD24">
+        <v>1.93</v>
+      </c>
+      <c r="BE24">
+        <v>6.4</v>
+      </c>
+      <c r="BF24">
+        <v>2.07</v>
+      </c>
+      <c r="BG24">
         <v>1.25</v>
       </c>
-      <c r="U24">
-        <v>3.75</v>
-      </c>
-      <c r="V24">
-        <v>2.1</v>
-      </c>
-      <c r="W24">
-        <v>1.67</v>
-      </c>
-      <c r="X24">
-        <v>4.5</v>
-      </c>
-      <c r="Y24">
-        <v>1.18</v>
-      </c>
-      <c r="Z24">
-        <v>2.75</v>
-      </c>
-      <c r="AA24">
-        <v>3.95</v>
-      </c>
-      <c r="AB24">
-        <v>2.3</v>
-      </c>
-      <c r="AC24">
-        <v>1.01</v>
-      </c>
-      <c r="AD24">
-        <v>23</v>
-      </c>
-      <c r="AE24">
-        <v>1.14</v>
-      </c>
-      <c r="AF24">
-        <v>6</v>
-      </c>
-      <c r="AG24">
-        <v>1.5</v>
-      </c>
-      <c r="AH24">
+      <c r="BH24">
+        <v>3.4</v>
+      </c>
+      <c r="BI24">
+        <v>1.44</v>
+      </c>
+      <c r="BJ24">
         <v>2.55</v>
       </c>
-      <c r="AI24">
-        <v>1.44</v>
-      </c>
-      <c r="AJ24">
-        <v>2.63</v>
-      </c>
-      <c r="AK24">
-        <v>1.68</v>
-      </c>
-      <c r="AL24">
-        <v>1.22</v>
-      </c>
-      <c r="AM24">
-        <v>1.45</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>1.8</v>
-      </c>
-      <c r="AQ24">
-        <v>1</v>
-      </c>
-      <c r="AR24">
-        <v>1.46</v>
-      </c>
-      <c r="AS24">
-        <v>1.03</v>
-      </c>
-      <c r="AT24">
-        <v>2.49</v>
-      </c>
-      <c r="AU24">
-        <v>8</v>
-      </c>
-      <c r="AV24">
-        <v>8</v>
-      </c>
-      <c r="AW24">
-        <v>4</v>
-      </c>
-      <c r="AX24">
-        <v>2</v>
-      </c>
-      <c r="AY24">
-        <v>16</v>
-      </c>
-      <c r="AZ24">
-        <v>13</v>
-      </c>
-      <c r="BA24">
-        <v>6</v>
-      </c>
-      <c r="BB24">
-        <v>2</v>
-      </c>
-      <c r="BC24">
-        <v>8</v>
-      </c>
-      <c r="BD24">
-        <v>2.17</v>
-      </c>
-      <c r="BE24">
-        <v>6.75</v>
-      </c>
-      <c r="BF24">
-        <v>1.82</v>
-      </c>
-      <c r="BG24">
-        <v>1.19</v>
-      </c>
-      <c r="BH24">
-        <v>3.9</v>
-      </c>
-      <c r="BI24">
-        <v>1.36</v>
-      </c>
-      <c r="BJ24">
-        <v>2.8</v>
-      </c>
       <c r="BK24">
+        <v>1.73</v>
+      </c>
+      <c r="BL24">
+        <v>1.96</v>
+      </c>
+      <c r="BM24">
+        <v>2.15</v>
+      </c>
+      <c r="BN24">
         <v>1.61</v>
       </c>
-      <c r="BL24">
-        <v>2.15</v>
-      </c>
-      <c r="BM24">
-        <v>1.95</v>
-      </c>
-      <c r="BN24">
-        <v>1.74</v>
-      </c>
       <c r="BO24">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="BP24">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="25" spans="1:68">
@@ -5936,7 +5936,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7491832</v>
+        <v>7491839</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -5951,190 +5951,190 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O25" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="Q25">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="R25">
         <v>2.5</v>
       </c>
       <c r="S25">
+        <v>2.75</v>
+      </c>
+      <c r="T25">
+        <v>1.25</v>
+      </c>
+      <c r="U25">
+        <v>3.75</v>
+      </c>
+      <c r="V25">
+        <v>2.1</v>
+      </c>
+      <c r="W25">
+        <v>1.67</v>
+      </c>
+      <c r="X25">
+        <v>4.5</v>
+      </c>
+      <c r="Y25">
+        <v>1.18</v>
+      </c>
+      <c r="Z25">
+        <v>2.75</v>
+      </c>
+      <c r="AA25">
+        <v>3.95</v>
+      </c>
+      <c r="AB25">
+        <v>2.3</v>
+      </c>
+      <c r="AC25">
+        <v>1.01</v>
+      </c>
+      <c r="AD25">
+        <v>23</v>
+      </c>
+      <c r="AE25">
+        <v>1.14</v>
+      </c>
+      <c r="AF25">
         <v>6</v>
       </c>
-      <c r="T25">
-        <v>1.3</v>
-      </c>
-      <c r="U25">
-        <v>3.4</v>
-      </c>
-      <c r="V25">
-        <v>2.5</v>
-      </c>
-      <c r="W25">
+      <c r="AG25">
         <v>1.5</v>
       </c>
-      <c r="X25">
-        <v>6</v>
-      </c>
-      <c r="Y25">
-        <v>1.13</v>
-      </c>
-      <c r="Z25">
-        <v>1.47</v>
-      </c>
-      <c r="AA25">
-        <v>4.6</v>
-      </c>
-      <c r="AB25">
-        <v>6.25</v>
-      </c>
-      <c r="AC25">
-        <v>1.02</v>
-      </c>
-      <c r="AD25">
-        <v>17</v>
-      </c>
-      <c r="AE25">
-        <v>1.19</v>
-      </c>
-      <c r="AF25">
-        <v>4.75</v>
-      </c>
-      <c r="AG25">
-        <v>1.62</v>
-      </c>
       <c r="AH25">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="AI25">
+        <v>1.44</v>
+      </c>
+      <c r="AJ25">
+        <v>2.63</v>
+      </c>
+      <c r="AK25">
+        <v>1.68</v>
+      </c>
+      <c r="AL25">
+        <v>1.22</v>
+      </c>
+      <c r="AM25">
+        <v>1.45</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
         <v>1.8</v>
-      </c>
-      <c r="AJ25">
-        <v>1.95</v>
-      </c>
-      <c r="AK25">
-        <v>1.09</v>
-      </c>
-      <c r="AL25">
-        <v>1.15</v>
-      </c>
-      <c r="AM25">
-        <v>2.85</v>
-      </c>
-      <c r="AN25">
-        <v>3</v>
-      </c>
-      <c r="AO25">
-        <v>1</v>
-      </c>
-      <c r="AP25">
-        <v>2.5</v>
       </c>
       <c r="AQ25">
         <v>1</v>
       </c>
       <c r="AR25">
-        <v>1.16</v>
+        <v>1.46</v>
       </c>
       <c r="AS25">
-        <v>1.54</v>
+        <v>1.03</v>
       </c>
       <c r="AT25">
-        <v>2.7</v>
+        <v>2.49</v>
       </c>
       <c r="AU25">
+        <v>8</v>
+      </c>
+      <c r="AV25">
+        <v>8</v>
+      </c>
+      <c r="AW25">
         <v>4</v>
       </c>
-      <c r="AV25">
-        <v>4</v>
-      </c>
-      <c r="AW25">
-        <v>5</v>
-      </c>
       <c r="AX25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ25">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA25">
         <v>6</v>
       </c>
       <c r="BB25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD25">
-        <v>1.28</v>
+        <v>2.17</v>
       </c>
       <c r="BE25">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF25">
-        <v>4.1</v>
+        <v>1.82</v>
       </c>
       <c r="BG25">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="BH25">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="BI25">
+        <v>1.36</v>
+      </c>
+      <c r="BJ25">
+        <v>2.8</v>
+      </c>
+      <c r="BK25">
+        <v>1.61</v>
+      </c>
+      <c r="BL25">
+        <v>2.15</v>
+      </c>
+      <c r="BM25">
+        <v>1.95</v>
+      </c>
+      <c r="BN25">
+        <v>1.74</v>
+      </c>
+      <c r="BO25">
+        <v>2.43</v>
+      </c>
+      <c r="BP25">
         <v>1.48</v>
-      </c>
-      <c r="BJ25">
-        <v>2.43</v>
-      </c>
-      <c r="BK25">
-        <v>1.79</v>
-      </c>
-      <c r="BL25">
-        <v>1.9</v>
-      </c>
-      <c r="BM25">
-        <v>2.23</v>
-      </c>
-      <c r="BN25">
-        <v>1.57</v>
-      </c>
-      <c r="BO25">
-        <v>2.85</v>
-      </c>
-      <c r="BP25">
-        <v>1.36</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -6157,7 +6157,7 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
         <v>87</v>
@@ -6572,7 +6572,7 @@
         <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -6966,7 +6966,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7491848</v>
+        <v>7491844</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -6981,190 +6981,190 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O30" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="P30" t="s">
         <v>167</v>
       </c>
       <c r="Q30">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="R30">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S30">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T30">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U30">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V30">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W30">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X30">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y30">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Z30">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="AA30">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AB30">
-        <v>3.7</v>
+        <v>2.55</v>
       </c>
       <c r="AC30">
+        <v>1.04</v>
+      </c>
+      <c r="AD30">
+        <v>13</v>
+      </c>
+      <c r="AE30">
+        <v>1.24</v>
+      </c>
+      <c r="AF30">
+        <v>4.2</v>
+      </c>
+      <c r="AG30">
+        <v>1.67</v>
+      </c>
+      <c r="AH30">
+        <v>2.1</v>
+      </c>
+      <c r="AI30">
+        <v>1.57</v>
+      </c>
+      <c r="AJ30">
+        <v>2.25</v>
+      </c>
+      <c r="AK30">
+        <v>1.58</v>
+      </c>
+      <c r="AL30">
+        <v>1.26</v>
+      </c>
+      <c r="AM30">
+        <v>1.47</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+      <c r="AQ30">
+        <v>1.4</v>
+      </c>
+      <c r="AR30">
+        <v>1.69</v>
+      </c>
+      <c r="AS30">
         <v>1.03</v>
       </c>
-      <c r="AD30">
-        <v>17.25</v>
-      </c>
-      <c r="AE30">
-        <v>1.19</v>
-      </c>
-      <c r="AF30">
-        <v>4.83</v>
-      </c>
-      <c r="AG30">
-        <v>1.6</v>
-      </c>
-      <c r="AH30">
-        <v>2.2</v>
-      </c>
-      <c r="AI30">
-        <v>1.53</v>
-      </c>
-      <c r="AJ30">
-        <v>2.38</v>
-      </c>
-      <c r="AK30">
-        <v>1.32</v>
-      </c>
-      <c r="AL30">
-        <v>1.28</v>
-      </c>
-      <c r="AM30">
-        <v>1.86</v>
-      </c>
-      <c r="AN30">
-        <v>0</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0.25</v>
-      </c>
-      <c r="AQ30">
-        <v>0.5</v>
-      </c>
-      <c r="AR30">
-        <v>1.57</v>
-      </c>
-      <c r="AS30">
-        <v>1.61</v>
-      </c>
       <c r="AT30">
-        <v>3.18</v>
+        <v>2.72</v>
       </c>
       <c r="AU30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV30">
+        <v>6</v>
+      </c>
+      <c r="AW30">
         <v>5</v>
       </c>
-      <c r="AW30">
-        <v>7</v>
-      </c>
       <c r="AX30">
+        <v>6</v>
+      </c>
+      <c r="AY30">
         <v>8</v>
       </c>
-      <c r="AY30">
-        <v>15</v>
-      </c>
       <c r="AZ30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC30">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD30">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="BE30">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF30">
         <v>2.7</v>
       </c>
       <c r="BG30">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="BH30">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="BI30">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="BJ30">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="BK30">
+        <v>1.83</v>
+      </c>
+      <c r="BL30">
+        <v>1.85</v>
+      </c>
+      <c r="BM30">
+        <v>2.3</v>
+      </c>
+      <c r="BN30">
         <v>1.54</v>
       </c>
-      <c r="BL30">
-        <v>2.3</v>
-      </c>
-      <c r="BM30">
-        <v>1.85</v>
-      </c>
-      <c r="BN30">
-        <v>1.83</v>
-      </c>
       <c r="BO30">
-        <v>2.28</v>
+        <v>2.9</v>
       </c>
       <c r="BP30">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7172,7 +7172,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7491847</v>
+        <v>7491845</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7187,190 +7187,190 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31">
         <v>2</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O31" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P31" t="s">
         <v>168</v>
       </c>
       <c r="Q31">
-        <v>2.63</v>
+        <v>5.5</v>
       </c>
       <c r="R31">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="S31">
-        <v>3.75</v>
+        <v>1.83</v>
       </c>
       <c r="T31">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="U31">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="V31">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="X31">
+        <v>4</v>
+      </c>
+      <c r="Y31">
+        <v>1.22</v>
+      </c>
+      <c r="Z31">
         <v>6.5</v>
       </c>
-      <c r="Y31">
-        <v>1.11</v>
-      </c>
-      <c r="Z31">
-        <v>2.1</v>
-      </c>
       <c r="AA31">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="AB31">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="AC31">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE31">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="AF31">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="AG31">
-        <v>1.7</v>
+        <v>1.34</v>
       </c>
       <c r="AH31">
-        <v>2.05</v>
+        <v>3.09</v>
       </c>
       <c r="AI31">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AJ31">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AK31">
-        <v>1.33</v>
+        <v>2.98</v>
       </c>
       <c r="AL31">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AM31">
-        <v>1.78</v>
+        <v>1.12</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="AQ31">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR31">
-        <v>1.36</v>
+        <v>0.65</v>
       </c>
       <c r="AS31">
-        <v>1.08</v>
+        <v>2.21</v>
       </c>
       <c r="AT31">
-        <v>2.44</v>
+        <v>2.86</v>
       </c>
       <c r="AU31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV31">
+        <v>8</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>5</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>26</v>
+      </c>
+      <c r="BA31">
+        <v>1</v>
+      </c>
+      <c r="BB31">
         <v>4</v>
       </c>
-      <c r="AW31">
-        <v>4</v>
-      </c>
-      <c r="AX31">
-        <v>2</v>
-      </c>
-      <c r="AY31">
-        <v>13</v>
-      </c>
-      <c r="AZ31">
-        <v>8</v>
-      </c>
-      <c r="BA31">
+      <c r="BC31">
         <v>5</v>
       </c>
-      <c r="BB31">
-        <v>5</v>
-      </c>
-      <c r="BC31">
-        <v>10</v>
-      </c>
       <c r="BD31">
-        <v>1.65</v>
+        <v>3.9</v>
       </c>
       <c r="BE31">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF31">
-        <v>2.48</v>
+        <v>1.3</v>
       </c>
       <c r="BG31">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="BH31">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="BI31">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="BJ31">
-        <v>2.55</v>
+        <v>2.23</v>
       </c>
       <c r="BK31">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="BL31">
-        <v>1.98</v>
+        <v>1.77</v>
       </c>
       <c r="BM31">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="BN31">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="BO31">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="BP31">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -7378,7 +7378,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7491844</v>
+        <v>7491847</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7393,43 +7393,43 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>3</v>
       </c>
       <c r="O32" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="P32" t="s">
         <v>169</v>
       </c>
       <c r="Q32">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="R32">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S32">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T32">
         <v>1.33</v>
@@ -7450,16 +7450,16 @@
         <v>1.11</v>
       </c>
       <c r="Z32">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="AA32">
         <v>3.4</v>
       </c>
       <c r="AB32">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="AC32">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD32">
         <v>13</v>
@@ -7471,25 +7471,25 @@
         <v>4.2</v>
       </c>
       <c r="AG32">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AH32">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AI32">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AJ32">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AK32">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="AL32">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AM32">
-        <v>1.47</v>
+        <v>1.78</v>
       </c>
       <c r="AN32">
         <v>3</v>
@@ -7498,85 +7498,85 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AR32">
-        <v>1.69</v>
+        <v>1.36</v>
       </c>
       <c r="AS32">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="AT32">
-        <v>2.72</v>
+        <v>2.44</v>
       </c>
       <c r="AU32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW32">
+        <v>4</v>
+      </c>
+      <c r="AX32">
+        <v>2</v>
+      </c>
+      <c r="AY32">
+        <v>13</v>
+      </c>
+      <c r="AZ32">
+        <v>8</v>
+      </c>
+      <c r="BA32">
         <v>5</v>
       </c>
-      <c r="AX32">
-        <v>6</v>
-      </c>
-      <c r="AY32">
-        <v>8</v>
-      </c>
-      <c r="AZ32">
-        <v>16</v>
-      </c>
-      <c r="BA32">
-        <v>3</v>
-      </c>
       <c r="BB32">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BC32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD32">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="BE32">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF32">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="BG32">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BH32">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="BI32">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="BJ32">
-        <v>2.33</v>
+        <v>2.55</v>
       </c>
       <c r="BK32">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="BL32">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="BM32">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="BN32">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="BO32">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="BP32">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="33" spans="1:68">
@@ -7584,7 +7584,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>7491845</v>
+        <v>7491848</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -7599,88 +7599,88 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O33" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="P33" t="s">
         <v>170</v>
       </c>
       <c r="Q33">
+        <v>2.5</v>
+      </c>
+      <c r="R33">
+        <v>2.38</v>
+      </c>
+      <c r="S33">
+        <v>3.75</v>
+      </c>
+      <c r="T33">
+        <v>1.29</v>
+      </c>
+      <c r="U33">
+        <v>3.5</v>
+      </c>
+      <c r="V33">
+        <v>2.38</v>
+      </c>
+      <c r="W33">
+        <v>1.53</v>
+      </c>
+      <c r="X33">
         <v>5.5</v>
       </c>
-      <c r="R33">
-        <v>2.75</v>
-      </c>
-      <c r="S33">
-        <v>1.83</v>
-      </c>
-      <c r="T33">
-        <v>1.2</v>
-      </c>
-      <c r="U33">
-        <v>4.33</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
-      <c r="W33">
-        <v>1.73</v>
-      </c>
-      <c r="X33">
-        <v>4</v>
-      </c>
       <c r="Y33">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="Z33">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="AA33">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="AB33">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="AC33">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD33">
-        <v>15</v>
+        <v>17.25</v>
       </c>
       <c r="AE33">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="AF33">
-        <v>5.75</v>
+        <v>4.83</v>
       </c>
       <c r="AG33">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="AH33">
-        <v>3.09</v>
+        <v>2.2</v>
       </c>
       <c r="AI33">
         <v>1.53</v>
@@ -7689,100 +7689,100 @@
         <v>2.38</v>
       </c>
       <c r="AK33">
-        <v>2.98</v>
+        <v>1.32</v>
       </c>
       <c r="AL33">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AM33">
-        <v>1.12</v>
+        <v>1.86</v>
       </c>
       <c r="AN33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP33">
+        <v>0.25</v>
+      </c>
+      <c r="AQ33">
         <v>0.5</v>
       </c>
-      <c r="AQ33">
-        <v>2.6</v>
-      </c>
       <c r="AR33">
-        <v>0.65</v>
+        <v>1.57</v>
       </c>
       <c r="AS33">
-        <v>2.21</v>
+        <v>1.61</v>
       </c>
       <c r="AT33">
-        <v>2.86</v>
+        <v>3.18</v>
       </c>
       <c r="AU33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV33">
+        <v>5</v>
+      </c>
+      <c r="AW33">
+        <v>7</v>
+      </c>
+      <c r="AX33">
         <v>8</v>
       </c>
-      <c r="AW33">
-        <v>0</v>
-      </c>
-      <c r="AX33">
+      <c r="AY33">
+        <v>15</v>
+      </c>
+      <c r="AZ33">
+        <v>15</v>
+      </c>
+      <c r="BA33">
+        <v>2</v>
+      </c>
+      <c r="BB33">
         <v>5</v>
       </c>
-      <c r="AY33">
-        <v>0</v>
-      </c>
-      <c r="AZ33">
-        <v>26</v>
-      </c>
-      <c r="BA33">
-        <v>1</v>
-      </c>
-      <c r="BB33">
-        <v>4</v>
-      </c>
       <c r="BC33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD33">
-        <v>3.9</v>
+        <v>1.54</v>
       </c>
       <c r="BE33">
         <v>7</v>
       </c>
       <c r="BF33">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="BG33">
+        <v>1.19</v>
+      </c>
+      <c r="BH33">
+        <v>4.1</v>
+      </c>
+      <c r="BI33">
         <v>1.32</v>
       </c>
-      <c r="BH33">
-        <v>3</v>
-      </c>
-      <c r="BI33">
-        <v>1.56</v>
-      </c>
       <c r="BJ33">
-        <v>2.23</v>
+        <v>3</v>
       </c>
       <c r="BK33">
-        <v>1.91</v>
+        <v>1.54</v>
       </c>
       <c r="BL33">
-        <v>1.77</v>
+        <v>2.3</v>
       </c>
       <c r="BM33">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="BN33">
-        <v>1.49</v>
+        <v>1.83</v>
       </c>
       <c r="BO33">
-        <v>3.15</v>
+        <v>2.28</v>
       </c>
       <c r="BP33">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="34" spans="1:68">
@@ -7805,7 +7805,7 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s">
         <v>70</v>
@@ -8820,7 +8820,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7491856</v>
+        <v>7491857</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8835,49 +8835,49 @@
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>1</v>
       </c>
-      <c r="K39">
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
         <v>1</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>2</v>
-      </c>
-      <c r="N39">
-        <v>2</v>
-      </c>
       <c r="O39" t="s">
+        <v>117</v>
+      </c>
+      <c r="P39" t="s">
         <v>96</v>
       </c>
-      <c r="P39" t="s">
-        <v>174</v>
-      </c>
       <c r="Q39">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="R39">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S39">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T39">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U39">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V39">
         <v>2.63</v>
@@ -8886,37 +8886,37 @@
         <v>1.44</v>
       </c>
       <c r="X39">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y39">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z39">
-        <v>1.65</v>
+        <v>2.19</v>
       </c>
       <c r="AA39">
-        <v>4</v>
+        <v>3.48</v>
       </c>
       <c r="AB39">
-        <v>4.5</v>
+        <v>2.98</v>
       </c>
       <c r="AC39">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD39">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AE39">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AF39">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AG39">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AH39">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="AI39">
         <v>1.67</v>
@@ -8925,40 +8925,40 @@
         <v>2.1</v>
       </c>
       <c r="AK39">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="AL39">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AM39">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="AN39">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR39">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="AS39">
-        <v>0.96</v>
+        <v>1.26</v>
       </c>
       <c r="AT39">
-        <v>2.44</v>
+        <v>2.82</v>
       </c>
       <c r="AU39">
         <v>3</v>
       </c>
       <c r="AV39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW39">
         <v>3</v>
@@ -8967,58 +8967,58 @@
         <v>6</v>
       </c>
       <c r="AY39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ39">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA39">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB39">
+        <v>4</v>
+      </c>
+      <c r="BC39">
         <v>6</v>
       </c>
-      <c r="BC39">
-        <v>13</v>
-      </c>
       <c r="BD39">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="BE39">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF39">
-        <v>3.05</v>
+        <v>2.43</v>
       </c>
       <c r="BG39">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="BH39">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="BI39">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="BJ39">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="BK39">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="BL39">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="BM39">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="BN39">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="BO39">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BP39">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -9026,7 +9026,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7491857</v>
+        <v>7491856</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -9041,49 +9041,49 @@
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O40" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="Q40">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="R40">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S40">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T40">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V40">
         <v>2.63</v>
@@ -9092,37 +9092,37 @@
         <v>1.44</v>
       </c>
       <c r="X40">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y40">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z40">
-        <v>2.19</v>
+        <v>1.65</v>
       </c>
       <c r="AA40">
-        <v>3.48</v>
+        <v>4</v>
       </c>
       <c r="AB40">
-        <v>2.98</v>
+        <v>4.5</v>
       </c>
       <c r="AC40">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD40">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AE40">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AF40">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AG40">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AH40">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="AI40">
         <v>1.67</v>
@@ -9131,40 +9131,40 @@
         <v>2.1</v>
       </c>
       <c r="AK40">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="AL40">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AM40">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="AN40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO40">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR40">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="AS40">
-        <v>1.26</v>
+        <v>0.96</v>
       </c>
       <c r="AT40">
-        <v>2.82</v>
+        <v>2.44</v>
       </c>
       <c r="AU40">
         <v>3</v>
       </c>
       <c r="AV40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW40">
         <v>3</v>
@@ -9173,58 +9173,58 @@
         <v>6</v>
       </c>
       <c r="AY40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ40">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA40">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC40">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD40">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="BE40">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="BF40">
-        <v>2.43</v>
+        <v>3.05</v>
       </c>
       <c r="BG40">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="BH40">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="BI40">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="BJ40">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="BK40">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="BL40">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="BM40">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="BN40">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="BO40">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BP40">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9438,7 +9438,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7491851</v>
+        <v>7491854</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9453,190 +9453,190 @@
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K42">
         <v>2</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O42" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="Q42">
+        <v>2.2</v>
+      </c>
+      <c r="R42">
+        <v>2.3</v>
+      </c>
+      <c r="S42">
+        <v>5.5</v>
+      </c>
+      <c r="T42">
+        <v>1.36</v>
+      </c>
+      <c r="U42">
+        <v>3</v>
+      </c>
+      <c r="V42">
+        <v>2.63</v>
+      </c>
+      <c r="W42">
+        <v>1.44</v>
+      </c>
+      <c r="X42">
+        <v>7</v>
+      </c>
+      <c r="Y42">
+        <v>1.1</v>
+      </c>
+      <c r="Z42">
         <v>1.83</v>
       </c>
-      <c r="R42">
-        <v>2.75</v>
-      </c>
-      <c r="S42">
-        <v>6</v>
-      </c>
-      <c r="T42">
-        <v>1.22</v>
-      </c>
-      <c r="U42">
-        <v>4</v>
-      </c>
-      <c r="V42">
-        <v>2.1</v>
-      </c>
-      <c r="W42">
-        <v>1.67</v>
-      </c>
-      <c r="X42">
-        <v>4.5</v>
-      </c>
-      <c r="Y42">
-        <v>1.18</v>
-      </c>
-      <c r="Z42">
-        <v>1.4</v>
-      </c>
       <c r="AA42">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AB42">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="AC42">
         <v>1.01</v>
       </c>
       <c r="AD42">
-        <v>26</v>
+        <v>9.4</v>
       </c>
       <c r="AE42">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="AF42">
-        <v>5.3</v>
+        <v>3.52</v>
       </c>
       <c r="AG42">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="AH42">
-        <v>2.78</v>
+        <v>2.23</v>
       </c>
       <c r="AI42">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AJ42">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AK42">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AL42">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="AM42">
-        <v>2.95</v>
+        <v>2.15</v>
       </c>
       <c r="AN42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO42">
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR42">
-        <v>1.14</v>
+        <v>1.82</v>
       </c>
       <c r="AS42">
-        <v>1.49</v>
+        <v>0.97</v>
       </c>
       <c r="AT42">
-        <v>2.63</v>
+        <v>2.79</v>
       </c>
       <c r="AU42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY42">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AZ42">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC42">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD42">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="BE42">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="BF42">
-        <v>4.1</v>
+        <v>2.55</v>
       </c>
       <c r="BG42">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="BH42">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="BI42">
+        <v>1.47</v>
+      </c>
+      <c r="BJ42">
+        <v>2.4</v>
+      </c>
+      <c r="BK42">
+        <v>2</v>
+      </c>
+      <c r="BL42">
+        <v>1.8</v>
+      </c>
+      <c r="BM42">
+        <v>2.23</v>
+      </c>
+      <c r="BN42">
+        <v>1.58</v>
+      </c>
+      <c r="BO42">
+        <v>2.8</v>
+      </c>
+      <c r="BP42">
         <v>1.36</v>
-      </c>
-      <c r="BJ42">
-        <v>2.8</v>
-      </c>
-      <c r="BK42">
-        <v>1.58</v>
-      </c>
-      <c r="BL42">
-        <v>2.18</v>
-      </c>
-      <c r="BM42">
-        <v>1.94</v>
-      </c>
-      <c r="BN42">
-        <v>1.76</v>
-      </c>
-      <c r="BO42">
-        <v>2.4</v>
-      </c>
-      <c r="BP42">
-        <v>1.49</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9644,7 +9644,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7491854</v>
+        <v>7491851</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9659,190 +9659,190 @@
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H43" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>2</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O43" t="s">
+        <v>119</v>
+      </c>
+      <c r="P43" t="s">
         <v>96</v>
       </c>
-      <c r="P43" t="s">
-        <v>176</v>
-      </c>
       <c r="Q43">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="R43">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="S43">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T43">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="U43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V43">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="W43">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="X43">
+        <v>4.5</v>
+      </c>
+      <c r="Y43">
+        <v>1.18</v>
+      </c>
+      <c r="Z43">
+        <v>1.4</v>
+      </c>
+      <c r="AA43">
+        <v>4.5</v>
+      </c>
+      <c r="AB43">
         <v>7</v>
-      </c>
-      <c r="Y43">
-        <v>1.1</v>
-      </c>
-      <c r="Z43">
-        <v>1.83</v>
-      </c>
-      <c r="AA43">
-        <v>3.75</v>
-      </c>
-      <c r="AB43">
-        <v>3.75</v>
       </c>
       <c r="AC43">
         <v>1.01</v>
       </c>
       <c r="AD43">
-        <v>9.4</v>
+        <v>26</v>
       </c>
       <c r="AE43">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="AF43">
-        <v>3.52</v>
+        <v>5.3</v>
       </c>
       <c r="AG43">
+        <v>1.41</v>
+      </c>
+      <c r="AH43">
+        <v>2.78</v>
+      </c>
+      <c r="AI43">
+        <v>1.62</v>
+      </c>
+      <c r="AJ43">
+        <v>2.2</v>
+      </c>
+      <c r="AK43">
+        <v>1.1</v>
+      </c>
+      <c r="AL43">
+        <v>1.12</v>
+      </c>
+      <c r="AM43">
+        <v>2.95</v>
+      </c>
+      <c r="AN43">
+        <v>2</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>2.5</v>
+      </c>
+      <c r="AQ43">
+        <v>0.25</v>
+      </c>
+      <c r="AR43">
+        <v>1.14</v>
+      </c>
+      <c r="AS43">
+        <v>1.49</v>
+      </c>
+      <c r="AT43">
+        <v>2.63</v>
+      </c>
+      <c r="AU43">
+        <v>8</v>
+      </c>
+      <c r="AV43">
+        <v>2</v>
+      </c>
+      <c r="AW43">
+        <v>5</v>
+      </c>
+      <c r="AX43">
+        <v>3</v>
+      </c>
+      <c r="AY43">
+        <v>19</v>
+      </c>
+      <c r="AZ43">
+        <v>8</v>
+      </c>
+      <c r="BA43">
+        <v>8</v>
+      </c>
+      <c r="BB43">
+        <v>5</v>
+      </c>
+      <c r="BC43">
+        <v>13</v>
+      </c>
+      <c r="BD43">
+        <v>1.26</v>
+      </c>
+      <c r="BE43">
+        <v>8</v>
+      </c>
+      <c r="BF43">
+        <v>4.1</v>
+      </c>
+      <c r="BG43">
+        <v>1.2</v>
+      </c>
+      <c r="BH43">
+        <v>3.9</v>
+      </c>
+      <c r="BI43">
+        <v>1.36</v>
+      </c>
+      <c r="BJ43">
+        <v>2.8</v>
+      </c>
+      <c r="BK43">
         <v>1.58</v>
       </c>
-      <c r="AH43">
-        <v>2.23</v>
-      </c>
-      <c r="AI43">
-        <v>1.8</v>
-      </c>
-      <c r="AJ43">
-        <v>1.95</v>
-      </c>
-      <c r="AK43">
-        <v>1.2</v>
-      </c>
-      <c r="AL43">
-        <v>1.27</v>
-      </c>
-      <c r="AM43">
-        <v>2.15</v>
-      </c>
-      <c r="AN43">
-        <v>3</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>2</v>
-      </c>
-      <c r="AQ43">
-        <v>1.2</v>
-      </c>
-      <c r="AR43">
-        <v>1.82</v>
-      </c>
-      <c r="AS43">
-        <v>0.97</v>
-      </c>
-      <c r="AT43">
-        <v>2.79</v>
-      </c>
-      <c r="AU43">
-        <v>4</v>
-      </c>
-      <c r="AV43">
-        <v>5</v>
-      </c>
-      <c r="AW43">
-        <v>6</v>
-      </c>
-      <c r="AX43">
-        <v>4</v>
-      </c>
-      <c r="AY43">
-        <v>11</v>
-      </c>
-      <c r="AZ43">
-        <v>11</v>
-      </c>
-      <c r="BA43">
-        <v>4</v>
-      </c>
-      <c r="BB43">
-        <v>2</v>
-      </c>
-      <c r="BC43">
-        <v>6</v>
-      </c>
-      <c r="BD43">
-        <v>1.63</v>
-      </c>
-      <c r="BE43">
-        <v>6.75</v>
-      </c>
-      <c r="BF43">
-        <v>2.55</v>
-      </c>
-      <c r="BG43">
-        <v>1.27</v>
-      </c>
-      <c r="BH43">
-        <v>3.3</v>
-      </c>
-      <c r="BI43">
-        <v>1.47</v>
-      </c>
-      <c r="BJ43">
+      <c r="BL43">
+        <v>2.18</v>
+      </c>
+      <c r="BM43">
+        <v>1.94</v>
+      </c>
+      <c r="BN43">
+        <v>1.76</v>
+      </c>
+      <c r="BO43">
         <v>2.4</v>
       </c>
-      <c r="BK43">
-        <v>2</v>
-      </c>
-      <c r="BL43">
-        <v>1.8</v>
-      </c>
-      <c r="BM43">
-        <v>2.23</v>
-      </c>
-      <c r="BN43">
-        <v>1.58</v>
-      </c>
-      <c r="BO43">
-        <v>2.8</v>
-      </c>
       <c r="BP43">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -10071,10 +10071,10 @@
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -10280,7 +10280,7 @@
         <v>72</v>
       </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I46">
         <v>3</v>
@@ -10692,7 +10692,7 @@
         <v>85</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -10895,7 +10895,7 @@
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s">
         <v>73</v>
@@ -11003,7 +11003,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR49">
         <v>0.41</v>
@@ -11206,7 +11206,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ50">
         <v>0.25</v>
@@ -11925,7 +11925,7 @@
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s">
         <v>87</v>
@@ -12528,7 +12528,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7491875</v>
+        <v>7491868</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -12543,10 +12543,10 @@
         <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -12558,13 +12558,13 @@
         <v>2</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O57" t="s">
         <v>130</v>
@@ -12573,58 +12573,58 @@
         <v>187</v>
       </c>
       <c r="Q57">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="R57">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="S57">
+        <v>6</v>
+      </c>
+      <c r="T57">
+        <v>1.2</v>
+      </c>
+      <c r="U57">
         <v>4.33</v>
       </c>
-      <c r="T57">
-        <v>1.3</v>
-      </c>
-      <c r="U57">
-        <v>3.4</v>
-      </c>
       <c r="V57">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W57">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="X57">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="Y57">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="Z57">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AA57">
-        <v>3.41</v>
+        <v>4.56</v>
       </c>
       <c r="AB57">
-        <v>3.49</v>
+        <v>5.9</v>
       </c>
       <c r="AC57">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD57">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE57">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF57">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AG57">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AH57">
-        <v>2.4</v>
+        <v>2.76</v>
       </c>
       <c r="AI57">
         <v>1.57</v>
@@ -12633,100 +12633,100 @@
         <v>2.25</v>
       </c>
       <c r="AK57">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AL57">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AM57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN57">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO57">
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ57">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
-        <v>1.33</v>
+        <v>2.44</v>
       </c>
       <c r="AS57">
-        <v>1.18</v>
+        <v>1.52</v>
       </c>
       <c r="AT57">
-        <v>2.51</v>
+        <v>3.96</v>
       </c>
       <c r="AU57">
+        <v>10</v>
+      </c>
+      <c r="AV57">
+        <v>3</v>
+      </c>
+      <c r="AW57">
+        <v>10</v>
+      </c>
+      <c r="AX57">
+        <v>4</v>
+      </c>
+      <c r="AY57">
+        <v>28</v>
+      </c>
+      <c r="AZ57">
+        <v>10</v>
+      </c>
+      <c r="BA57">
+        <v>8</v>
+      </c>
+      <c r="BB57">
+        <v>3</v>
+      </c>
+      <c r="BC57">
         <v>11</v>
       </c>
-      <c r="AV57">
-        <v>7</v>
-      </c>
-      <c r="AW57">
-        <v>7</v>
-      </c>
-      <c r="AX57">
-        <v>6</v>
-      </c>
-      <c r="AY57">
-        <v>21</v>
-      </c>
-      <c r="AZ57">
-        <v>20</v>
-      </c>
-      <c r="BA57">
-        <v>6</v>
-      </c>
-      <c r="BB57">
-        <v>3</v>
-      </c>
-      <c r="BC57">
-        <v>9</v>
-      </c>
       <c r="BD57">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BE57">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BF57">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="BG57">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="BH57">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BI57">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="BJ57">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="BK57">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="BL57">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="BM57">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="BN57">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="BO57">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BP57">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="58" spans="1:68">
@@ -12734,7 +12734,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7491874</v>
+        <v>7491871</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12746,130 +12746,130 @@
         <v>45584.4375</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H58" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O58" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="Q58">
+        <v>2.2</v>
+      </c>
+      <c r="R58">
+        <v>2.6</v>
+      </c>
+      <c r="S58">
         <v>4.33</v>
       </c>
-      <c r="R58">
-        <v>2.4</v>
-      </c>
-      <c r="S58">
-        <v>2.38</v>
-      </c>
       <c r="T58">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U58">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V58">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="W58">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="X58">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y58">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="Z58">
-        <v>3.38</v>
+        <v>1.69</v>
       </c>
       <c r="AA58">
-        <v>3.31</v>
+        <v>3.71</v>
       </c>
       <c r="AB58">
-        <v>1.88</v>
+        <v>3.76</v>
       </c>
       <c r="AC58">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD58">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE58">
+        <v>1.12</v>
+      </c>
+      <c r="AF58">
+        <v>6.5</v>
+      </c>
+      <c r="AG58">
+        <v>1.6</v>
+      </c>
+      <c r="AH58">
+        <v>2.2</v>
+      </c>
+      <c r="AI58">
+        <v>1.5</v>
+      </c>
+      <c r="AJ58">
+        <v>2.5</v>
+      </c>
+      <c r="AK58">
         <v>1.2</v>
       </c>
-      <c r="AF58">
-        <v>4.5</v>
-      </c>
-      <c r="AG58">
-        <v>1.65</v>
-      </c>
-      <c r="AH58">
-        <v>2.15</v>
-      </c>
-      <c r="AI58">
-        <v>1.57</v>
-      </c>
-      <c r="AJ58">
+      <c r="AL58">
+        <v>1.17</v>
+      </c>
+      <c r="AM58">
         <v>2.25</v>
       </c>
-      <c r="AK58">
-        <v>2</v>
-      </c>
-      <c r="AL58">
-        <v>1.22</v>
-      </c>
-      <c r="AM58">
-        <v>1.25</v>
-      </c>
       <c r="AN58">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AO58">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AP58">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="AQ58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR58">
-        <v>1.26</v>
+        <v>1.68</v>
       </c>
       <c r="AS58">
-        <v>1.21</v>
+        <v>1.06</v>
       </c>
       <c r="AT58">
-        <v>2.47</v>
+        <v>2.74</v>
       </c>
       <c r="AU58">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV58">
         <v>6</v>
@@ -12878,61 +12878,61 @@
         <v>4</v>
       </c>
       <c r="AX58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY58">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ58">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC58">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD58">
-        <v>2.3</v>
+        <v>1.49</v>
       </c>
       <c r="BE58">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF58">
-        <v>1.77</v>
+        <v>2.9</v>
       </c>
       <c r="BG58">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="BH58">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="BI58">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="BJ58">
-        <v>2.17</v>
+        <v>2.48</v>
       </c>
       <c r="BK58">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="BL58">
-        <v>1.72</v>
+        <v>1.96</v>
       </c>
       <c r="BM58">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="BN58">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="BO58">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="BP58">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12979,10 +12979,10 @@
         <v>4</v>
       </c>
       <c r="O59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13146,7 +13146,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7491868</v>
+        <v>7491874</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13161,88 +13161,88 @@
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K60">
         <v>2</v>
       </c>
       <c r="L60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O60" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q60">
-        <v>1.83</v>
+        <v>4.33</v>
       </c>
       <c r="R60">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="S60">
-        <v>6</v>
+        <v>2.38</v>
       </c>
       <c r="T60">
+        <v>1.29</v>
+      </c>
+      <c r="U60">
+        <v>3.5</v>
+      </c>
+      <c r="V60">
+        <v>2.38</v>
+      </c>
+      <c r="W60">
+        <v>1.53</v>
+      </c>
+      <c r="X60">
+        <v>5.5</v>
+      </c>
+      <c r="Y60">
+        <v>1.14</v>
+      </c>
+      <c r="Z60">
+        <v>3.38</v>
+      </c>
+      <c r="AA60">
+        <v>3.31</v>
+      </c>
+      <c r="AB60">
+        <v>1.88</v>
+      </c>
+      <c r="AC60">
+        <v>1.03</v>
+      </c>
+      <c r="AD60">
+        <v>17</v>
+      </c>
+      <c r="AE60">
         <v>1.2</v>
       </c>
-      <c r="U60">
-        <v>4.33</v>
-      </c>
-      <c r="V60">
-        <v>2</v>
-      </c>
-      <c r="W60">
-        <v>1.73</v>
-      </c>
-      <c r="X60">
-        <v>4.33</v>
-      </c>
-      <c r="Y60">
-        <v>1.2</v>
-      </c>
-      <c r="Z60">
-        <v>1.36</v>
-      </c>
-      <c r="AA60">
-        <v>4.56</v>
-      </c>
-      <c r="AB60">
-        <v>5.9</v>
-      </c>
-      <c r="AC60">
-        <v>1.01</v>
-      </c>
-      <c r="AD60">
-        <v>29</v>
-      </c>
-      <c r="AE60">
-        <v>1.12</v>
-      </c>
       <c r="AF60">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AG60">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AH60">
-        <v>2.76</v>
+        <v>2.15</v>
       </c>
       <c r="AI60">
         <v>1.57</v>
@@ -13251,100 +13251,100 @@
         <v>2.25</v>
       </c>
       <c r="AK60">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="AL60">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AM60">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="AN60">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="AO60">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP60">
+        <v>0.4</v>
+      </c>
+      <c r="AQ60">
+        <v>2</v>
+      </c>
+      <c r="AR60">
+        <v>1.26</v>
+      </c>
+      <c r="AS60">
+        <v>1.21</v>
+      </c>
+      <c r="AT60">
+        <v>2.47</v>
+      </c>
+      <c r="AU60">
+        <v>3</v>
+      </c>
+      <c r="AV60">
+        <v>6</v>
+      </c>
+      <c r="AW60">
+        <v>4</v>
+      </c>
+      <c r="AX60">
+        <v>3</v>
+      </c>
+      <c r="AY60">
+        <v>17</v>
+      </c>
+      <c r="AZ60">
+        <v>12</v>
+      </c>
+      <c r="BA60">
+        <v>5</v>
+      </c>
+      <c r="BB60">
+        <v>3</v>
+      </c>
+      <c r="BC60">
+        <v>8</v>
+      </c>
+      <c r="BD60">
+        <v>2.3</v>
+      </c>
+      <c r="BE60">
+        <v>6.4</v>
+      </c>
+      <c r="BF60">
+        <v>1.77</v>
+      </c>
+      <c r="BG60">
+        <v>1.36</v>
+      </c>
+      <c r="BH60">
+        <v>2.85</v>
+      </c>
+      <c r="BI60">
         <v>1.6</v>
       </c>
-      <c r="AQ60">
-        <v>1.4</v>
-      </c>
-      <c r="AR60">
-        <v>2.44</v>
-      </c>
-      <c r="AS60">
-        <v>1.52</v>
-      </c>
-      <c r="AT60">
-        <v>3.96</v>
-      </c>
-      <c r="AU60">
-        <v>10</v>
-      </c>
-      <c r="AV60">
-        <v>3</v>
-      </c>
-      <c r="AW60">
-        <v>10</v>
-      </c>
-      <c r="AX60">
-        <v>4</v>
-      </c>
-      <c r="AY60">
-        <v>28</v>
-      </c>
-      <c r="AZ60">
-        <v>10</v>
-      </c>
-      <c r="BA60">
-        <v>8</v>
-      </c>
-      <c r="BB60">
-        <v>3</v>
-      </c>
-      <c r="BC60">
-        <v>11</v>
-      </c>
-      <c r="BD60">
-        <v>1.24</v>
-      </c>
-      <c r="BE60">
-        <v>8</v>
-      </c>
-      <c r="BF60">
-        <v>4.35</v>
-      </c>
-      <c r="BG60">
-        <v>1.21</v>
-      </c>
-      <c r="BH60">
-        <v>3.8</v>
-      </c>
-      <c r="BI60">
-        <v>1.38</v>
-      </c>
       <c r="BJ60">
-        <v>2.7</v>
+        <v>2.17</v>
       </c>
       <c r="BK60">
-        <v>1.65</v>
+        <v>1.98</v>
       </c>
       <c r="BL60">
-        <v>2.08</v>
+        <v>1.72</v>
       </c>
       <c r="BM60">
-        <v>1.98</v>
+        <v>2.55</v>
       </c>
       <c r="BN60">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="BO60">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="BP60">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13352,7 +13352,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7491871</v>
+        <v>7491875</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13364,193 +13364,193 @@
         <v>45584.4375</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L61">
         <v>3</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O61" t="s">
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="Q61">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="R61">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="S61">
         <v>4.33</v>
       </c>
       <c r="T61">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="U61">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="V61">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="W61">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="X61">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Y61">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="Z61">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AA61">
-        <v>3.71</v>
+        <v>3.41</v>
       </c>
       <c r="AB61">
-        <v>3.76</v>
+        <v>3.49</v>
       </c>
       <c r="AC61">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD61">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AE61">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AF61">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="AG61">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AH61">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AI61">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AJ61">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AK61">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AL61">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AM61">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AN61">
         <v>1</v>
       </c>
       <c r="AO61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP61">
+        <v>1.8</v>
+      </c>
+      <c r="AQ61">
         <v>1.2</v>
       </c>
-      <c r="AQ61">
-        <v>0</v>
-      </c>
       <c r="AR61">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT61">
-        <v>2.74</v>
+        <v>2.51</v>
       </c>
       <c r="AU61">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV61">
+        <v>7</v>
+      </c>
+      <c r="AW61">
+        <v>7</v>
+      </c>
+      <c r="AX61">
         <v>6</v>
       </c>
-      <c r="AW61">
-        <v>4</v>
-      </c>
-      <c r="AX61">
-        <v>5</v>
-      </c>
       <c r="AY61">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ61">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA61">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC61">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD61">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="BE61">
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="BF61">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="BG61">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="BH61">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="BI61">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="BJ61">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="BK61">
-        <v>1.74</v>
+        <v>2.25</v>
       </c>
       <c r="BL61">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="BM61">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="BN61">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="BO61">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BP61">
-        <v>1.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13779,7 +13779,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s">
         <v>79</v>
@@ -13988,7 +13988,7 @@
         <v>77</v>
       </c>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -14382,7 +14382,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7491885</v>
+        <v>7491881</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14394,193 +14394,193 @@
         <v>45591.4375</v>
       </c>
       <c r="F66">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O66" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="Q66">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="R66">
+        <v>2.5</v>
+      </c>
+      <c r="S66">
         <v>2.3</v>
       </c>
-      <c r="S66">
-        <v>3.1</v>
-      </c>
       <c r="T66">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U66">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V66">
+        <v>2.2</v>
+      </c>
+      <c r="W66">
+        <v>1.62</v>
+      </c>
+      <c r="X66">
+        <v>5</v>
+      </c>
+      <c r="Y66">
+        <v>1.17</v>
+      </c>
+      <c r="Z66">
+        <v>3.7</v>
+      </c>
+      <c r="AA66">
+        <v>4</v>
+      </c>
+      <c r="AB66">
+        <v>1.85</v>
+      </c>
+      <c r="AC66">
+        <v>1.02</v>
+      </c>
+      <c r="AD66">
+        <v>19</v>
+      </c>
+      <c r="AE66">
+        <v>1.18</v>
+      </c>
+      <c r="AF66">
+        <v>5</v>
+      </c>
+      <c r="AG66">
+        <v>1.55</v>
+      </c>
+      <c r="AH66">
+        <v>2.45</v>
+      </c>
+      <c r="AI66">
+        <v>1.5</v>
+      </c>
+      <c r="AJ66">
         <v>2.5</v>
       </c>
-      <c r="W66">
-        <v>1.5</v>
-      </c>
-      <c r="X66">
-        <v>6</v>
-      </c>
-      <c r="Y66">
-        <v>1.13</v>
-      </c>
-      <c r="Z66">
-        <v>2.6</v>
-      </c>
-      <c r="AA66">
-        <v>3.7</v>
-      </c>
-      <c r="AB66">
-        <v>2.5</v>
-      </c>
-      <c r="AC66">
-        <v>1.04</v>
-      </c>
-      <c r="AD66">
-        <v>12</v>
-      </c>
-      <c r="AE66">
-        <v>1.28</v>
-      </c>
-      <c r="AF66">
-        <v>3.75</v>
-      </c>
-      <c r="AG66">
-        <v>1.6</v>
-      </c>
-      <c r="AH66">
-        <v>2.2</v>
-      </c>
-      <c r="AI66">
-        <v>1.57</v>
-      </c>
-      <c r="AJ66">
-        <v>2.25</v>
-      </c>
       <c r="AK66">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AL66">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AM66">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="AN66">
+        <v>1.75</v>
+      </c>
+      <c r="AO66">
         <v>0.33</v>
       </c>
-      <c r="AO66">
-        <v>2</v>
-      </c>
       <c r="AP66">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="AR66">
-        <v>1.52</v>
+        <v>1.91</v>
       </c>
       <c r="AS66">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="AT66">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="AU66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV66">
         <v>5</v>
       </c>
       <c r="AW66">
+        <v>7</v>
+      </c>
+      <c r="AX66">
         <v>4</v>
       </c>
-      <c r="AX66">
-        <v>6</v>
-      </c>
       <c r="AY66">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ66">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA66">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BB66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC66">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD66">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="BE66">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF66">
-        <v>2.07</v>
+        <v>1.75</v>
       </c>
       <c r="BG66">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="BH66">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="BI66">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="BJ66">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="BK66">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="BL66">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="BM66">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="BN66">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="BO66">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="BP66">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="67" spans="1:68">
@@ -14588,7 +14588,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7491877</v>
+        <v>7491885</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14603,190 +14603,190 @@
         <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O67" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="P67" t="s">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="Q67">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="R67">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="S67">
+        <v>3.1</v>
+      </c>
+      <c r="T67">
+        <v>1.33</v>
+      </c>
+      <c r="U67">
+        <v>3.25</v>
+      </c>
+      <c r="V67">
+        <v>2.5</v>
+      </c>
+      <c r="W67">
+        <v>1.5</v>
+      </c>
+      <c r="X67">
+        <v>6</v>
+      </c>
+      <c r="Y67">
+        <v>1.13</v>
+      </c>
+      <c r="Z67">
+        <v>2.6</v>
+      </c>
+      <c r="AA67">
+        <v>3.7</v>
+      </c>
+      <c r="AB67">
+        <v>2.5</v>
+      </c>
+      <c r="AC67">
+        <v>1.04</v>
+      </c>
+      <c r="AD67">
+        <v>12</v>
+      </c>
+      <c r="AE67">
+        <v>1.28</v>
+      </c>
+      <c r="AF67">
+        <v>3.75</v>
+      </c>
+      <c r="AG67">
+        <v>1.6</v>
+      </c>
+      <c r="AH67">
+        <v>2.2</v>
+      </c>
+      <c r="AI67">
+        <v>1.57</v>
+      </c>
+      <c r="AJ67">
+        <v>2.25</v>
+      </c>
+      <c r="AK67">
+        <v>1.5</v>
+      </c>
+      <c r="AL67">
+        <v>1.26</v>
+      </c>
+      <c r="AM67">
+        <v>1.52</v>
+      </c>
+      <c r="AN67">
+        <v>0.33</v>
+      </c>
+      <c r="AO67">
+        <v>2</v>
+      </c>
+      <c r="AP67">
+        <v>0.5</v>
+      </c>
+      <c r="AQ67">
+        <v>1.75</v>
+      </c>
+      <c r="AR67">
+        <v>1.52</v>
+      </c>
+      <c r="AS67">
+        <v>1.3</v>
+      </c>
+      <c r="AT67">
+        <v>2.82</v>
+      </c>
+      <c r="AU67">
+        <v>6</v>
+      </c>
+      <c r="AV67">
+        <v>5</v>
+      </c>
+      <c r="AW67">
+        <v>4</v>
+      </c>
+      <c r="AX67">
+        <v>6</v>
+      </c>
+      <c r="AY67">
+        <v>16</v>
+      </c>
+      <c r="AZ67">
+        <v>11</v>
+      </c>
+      <c r="BA67">
+        <v>7</v>
+      </c>
+      <c r="BB67">
+        <v>6</v>
+      </c>
+      <c r="BC67">
+        <v>13</v>
+      </c>
+      <c r="BD67">
+        <v>1.91</v>
+      </c>
+      <c r="BE67">
         <v>6.5</v>
       </c>
-      <c r="T67">
-        <v>1.22</v>
-      </c>
-      <c r="U67">
-        <v>4</v>
-      </c>
-      <c r="V67">
-        <v>2</v>
-      </c>
-      <c r="W67">
-        <v>1.73</v>
-      </c>
-      <c r="X67">
-        <v>4.33</v>
-      </c>
-      <c r="Y67">
-        <v>1.2</v>
-      </c>
-      <c r="Z67">
-        <v>1.27</v>
-      </c>
-      <c r="AA67">
-        <v>6.25</v>
-      </c>
-      <c r="AB67">
-        <v>9.75</v>
-      </c>
-      <c r="AC67">
-        <v>0</v>
-      </c>
-      <c r="AD67">
-        <v>34</v>
-      </c>
-      <c r="AE67">
-        <v>1.09</v>
-      </c>
-      <c r="AF67">
-        <v>7.5</v>
-      </c>
-      <c r="AG67">
-        <v>1.31</v>
-      </c>
-      <c r="AH67">
-        <v>3.27</v>
-      </c>
-      <c r="AI67">
-        <v>1.62</v>
-      </c>
-      <c r="AJ67">
-        <v>2.2</v>
-      </c>
-      <c r="AK67">
-        <v>1.01</v>
-      </c>
-      <c r="AL67">
-        <v>1.08</v>
-      </c>
-      <c r="AM67">
-        <v>4.2</v>
-      </c>
-      <c r="AN67">
-        <v>1.67</v>
-      </c>
-      <c r="AO67">
-        <v>0.67</v>
-      </c>
-      <c r="AP67">
-        <v>2</v>
-      </c>
-      <c r="AQ67">
-        <v>0.5</v>
-      </c>
-      <c r="AR67">
-        <v>2.2</v>
-      </c>
-      <c r="AS67">
-        <v>1.33</v>
-      </c>
-      <c r="AT67">
-        <v>3.53</v>
-      </c>
-      <c r="AU67">
-        <v>7</v>
-      </c>
-      <c r="AV67">
-        <v>4</v>
-      </c>
-      <c r="AW67">
-        <v>9</v>
-      </c>
-      <c r="AX67">
-        <v>3</v>
-      </c>
-      <c r="AY67">
-        <v>17</v>
-      </c>
-      <c r="AZ67">
-        <v>10</v>
-      </c>
-      <c r="BA67">
-        <v>9</v>
-      </c>
-      <c r="BB67">
-        <v>5</v>
-      </c>
-      <c r="BC67">
-        <v>14</v>
-      </c>
-      <c r="BD67">
-        <v>1.18</v>
-      </c>
-      <c r="BE67">
-        <v>9</v>
-      </c>
       <c r="BF67">
-        <v>5.1</v>
+        <v>2.07</v>
       </c>
       <c r="BG67">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="BH67">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="BI67">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="BJ67">
-        <v>2.65</v>
+        <v>2.3</v>
       </c>
       <c r="BK67">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="BL67">
-        <v>2.05</v>
+        <v>1.81</v>
       </c>
       <c r="BM67">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="BN67">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="BO67">
-        <v>2.55</v>
+        <v>3.05</v>
       </c>
       <c r="BP67">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14917,7 +14917,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR68">
         <v>1.33</v>
@@ -15000,7 +15000,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7491881</v>
+        <v>7491877</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15012,22 +15012,22 @@
         <v>45591.4375</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
         <v>1</v>
-      </c>
-      <c r="K69">
-        <v>2</v>
       </c>
       <c r="L69">
         <v>2</v>
@@ -15045,160 +15045,160 @@
         <v>196</v>
       </c>
       <c r="Q69">
+        <v>1.8</v>
+      </c>
+      <c r="R69">
+        <v>2.75</v>
+      </c>
+      <c r="S69">
+        <v>6.5</v>
+      </c>
+      <c r="T69">
+        <v>1.22</v>
+      </c>
+      <c r="U69">
         <v>4</v>
       </c>
-      <c r="R69">
-        <v>2.5</v>
-      </c>
-      <c r="S69">
-        <v>2.3</v>
-      </c>
-      <c r="T69">
-        <v>1.25</v>
-      </c>
-      <c r="U69">
-        <v>3.75</v>
-      </c>
       <c r="V69">
+        <v>2</v>
+      </c>
+      <c r="W69">
+        <v>1.73</v>
+      </c>
+      <c r="X69">
+        <v>4.33</v>
+      </c>
+      <c r="Y69">
+        <v>1.2</v>
+      </c>
+      <c r="Z69">
+        <v>1.27</v>
+      </c>
+      <c r="AA69">
+        <v>6.25</v>
+      </c>
+      <c r="AB69">
+        <v>9.75</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>34</v>
+      </c>
+      <c r="AE69">
+        <v>1.09</v>
+      </c>
+      <c r="AF69">
+        <v>7.5</v>
+      </c>
+      <c r="AG69">
+        <v>1.31</v>
+      </c>
+      <c r="AH69">
+        <v>3.27</v>
+      </c>
+      <c r="AI69">
+        <v>1.62</v>
+      </c>
+      <c r="AJ69">
         <v>2.2</v>
       </c>
-      <c r="W69">
-        <v>1.62</v>
-      </c>
-      <c r="X69">
-        <v>5</v>
-      </c>
-      <c r="Y69">
-        <v>1.17</v>
-      </c>
-      <c r="Z69">
-        <v>3.7</v>
-      </c>
-      <c r="AA69">
+      <c r="AK69">
+        <v>1.01</v>
+      </c>
+      <c r="AL69">
+        <v>1.08</v>
+      </c>
+      <c r="AM69">
+        <v>4.2</v>
+      </c>
+      <c r="AN69">
+        <v>1.67</v>
+      </c>
+      <c r="AO69">
+        <v>0.67</v>
+      </c>
+      <c r="AP69">
+        <v>2</v>
+      </c>
+      <c r="AQ69">
+        <v>0.5</v>
+      </c>
+      <c r="AR69">
+        <v>2.2</v>
+      </c>
+      <c r="AS69">
+        <v>1.33</v>
+      </c>
+      <c r="AT69">
+        <v>3.53</v>
+      </c>
+      <c r="AU69">
+        <v>7</v>
+      </c>
+      <c r="AV69">
         <v>4</v>
       </c>
-      <c r="AB69">
-        <v>1.85</v>
-      </c>
-      <c r="AC69">
-        <v>1.02</v>
-      </c>
-      <c r="AD69">
-        <v>19</v>
-      </c>
-      <c r="AE69">
-        <v>1.18</v>
-      </c>
-      <c r="AF69">
-        <v>5</v>
-      </c>
-      <c r="AG69">
-        <v>1.55</v>
-      </c>
-      <c r="AH69">
-        <v>2.45</v>
-      </c>
-      <c r="AI69">
-        <v>1.5</v>
-      </c>
-      <c r="AJ69">
-        <v>2.5</v>
-      </c>
-      <c r="AK69">
-        <v>1.9</v>
-      </c>
-      <c r="AL69">
-        <v>1.22</v>
-      </c>
-      <c r="AM69">
-        <v>1.3</v>
-      </c>
-      <c r="AN69">
-        <v>1.75</v>
-      </c>
-      <c r="AO69">
-        <v>0.33</v>
-      </c>
-      <c r="AP69">
-        <v>2</v>
-      </c>
-      <c r="AQ69">
-        <v>0.25</v>
-      </c>
-      <c r="AR69">
-        <v>1.91</v>
-      </c>
-      <c r="AS69">
-        <v>1.05</v>
-      </c>
-      <c r="AT69">
-        <v>2.96</v>
-      </c>
-      <c r="AU69">
-        <v>5</v>
-      </c>
-      <c r="AV69">
-        <v>5</v>
-      </c>
       <c r="AW69">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY69">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ69">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA69">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BB69">
         <v>5</v>
       </c>
       <c r="BC69">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD69">
-        <v>2.32</v>
+        <v>1.18</v>
       </c>
       <c r="BE69">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="BF69">
-        <v>1.75</v>
+        <v>5.1</v>
       </c>
       <c r="BG69">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="BH69">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="BI69">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="BJ69">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="BK69">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="BL69">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="BM69">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="BN69">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="BO69">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="BP69">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15221,7 +15221,7 @@
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s">
         <v>85</v>
@@ -15636,7 +15636,7 @@
         <v>79</v>
       </c>
       <c r="H72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -15738,7 +15738,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ72">
         <v>1.4</v>
@@ -16236,7 +16236,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7491892</v>
+        <v>7491887</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16251,190 +16251,190 @@
         <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>142</v>
+      </c>
+      <c r="P75" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q75">
+        <v>1.57</v>
+      </c>
+      <c r="R75">
+        <v>3</v>
+      </c>
+      <c r="S75">
+        <v>9.5</v>
+      </c>
+      <c r="T75">
+        <v>1.22</v>
+      </c>
+      <c r="U75">
+        <v>4</v>
+      </c>
+      <c r="V75">
+        <v>2</v>
+      </c>
+      <c r="W75">
+        <v>1.73</v>
+      </c>
+      <c r="X75">
+        <v>4.33</v>
+      </c>
+      <c r="Y75">
+        <v>1.2</v>
+      </c>
+      <c r="Z75">
+        <v>1.18</v>
+      </c>
+      <c r="AA75">
+        <v>6.2</v>
+      </c>
+      <c r="AB75">
+        <v>11</v>
+      </c>
+      <c r="AC75">
+        <v>1.01</v>
+      </c>
+      <c r="AD75">
+        <v>27.5</v>
+      </c>
+      <c r="AE75">
+        <v>1.11</v>
+      </c>
+      <c r="AF75">
+        <v>6.5</v>
+      </c>
+      <c r="AG75">
+        <v>1.38</v>
+      </c>
+      <c r="AH75">
+        <v>2.9</v>
+      </c>
+      <c r="AI75">
+        <v>2</v>
+      </c>
+      <c r="AJ75">
+        <v>1.75</v>
+      </c>
+      <c r="AK75">
+        <v>1.03</v>
+      </c>
+      <c r="AL75">
+        <v>1.08</v>
+      </c>
+      <c r="AM75">
+        <v>4.5</v>
+      </c>
+      <c r="AN75">
+        <v>2.33</v>
+      </c>
+      <c r="AO75">
+        <v>1.25</v>
+      </c>
+      <c r="AP75">
+        <v>2.5</v>
+      </c>
+      <c r="AQ75">
         <v>1</v>
       </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>2</v>
-      </c>
-      <c r="O75" t="s">
-        <v>108</v>
-      </c>
-      <c r="P75" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q75">
-        <v>2.5</v>
-      </c>
-      <c r="R75">
-        <v>2.38</v>
-      </c>
-      <c r="S75">
-        <v>3.75</v>
-      </c>
-      <c r="T75">
-        <v>1.3</v>
-      </c>
-      <c r="U75">
-        <v>3.4</v>
-      </c>
-      <c r="V75">
-        <v>2.38</v>
-      </c>
-      <c r="W75">
-        <v>1.53</v>
-      </c>
-      <c r="X75">
-        <v>6</v>
-      </c>
-      <c r="Y75">
-        <v>1.13</v>
-      </c>
-      <c r="Z75">
-        <v>1.97</v>
-      </c>
-      <c r="AA75">
-        <v>3.57</v>
-      </c>
-      <c r="AB75">
-        <v>3.2</v>
-      </c>
-      <c r="AC75">
-        <v>1.03</v>
-      </c>
-      <c r="AD75">
+      <c r="AR75">
+        <v>1.82</v>
+      </c>
+      <c r="AS75">
+        <v>1.18</v>
+      </c>
+      <c r="AT75">
+        <v>3</v>
+      </c>
+      <c r="AU75">
+        <v>8</v>
+      </c>
+      <c r="AV75">
+        <v>2</v>
+      </c>
+      <c r="AW75">
+        <v>4</v>
+      </c>
+      <c r="AX75">
+        <v>3</v>
+      </c>
+      <c r="AY75">
         <v>17</v>
       </c>
-      <c r="AE75">
+      <c r="AZ75">
+        <v>9</v>
+      </c>
+      <c r="BA75">
+        <v>7</v>
+      </c>
+      <c r="BB75">
+        <v>4</v>
+      </c>
+      <c r="BC75">
+        <v>11</v>
+      </c>
+      <c r="BD75">
+        <v>1.11</v>
+      </c>
+      <c r="BE75">
+        <v>10.5</v>
+      </c>
+      <c r="BF75">
+        <v>6.5</v>
+      </c>
+      <c r="BG75">
         <v>1.2</v>
       </c>
-      <c r="AF75">
-        <v>4.5</v>
-      </c>
-      <c r="AG75">
-        <v>1.62</v>
-      </c>
-      <c r="AH75">
-        <v>2.17</v>
-      </c>
-      <c r="AI75">
-        <v>1.57</v>
-      </c>
-      <c r="AJ75">
-        <v>2.25</v>
-      </c>
-      <c r="AK75">
-        <v>1.32</v>
-      </c>
-      <c r="AL75">
-        <v>1.22</v>
-      </c>
-      <c r="AM75">
-        <v>1.85</v>
-      </c>
-      <c r="AN75">
-        <v>0.25</v>
-      </c>
-      <c r="AO75">
-        <v>0</v>
-      </c>
-      <c r="AP75">
-        <v>0.4</v>
-      </c>
-      <c r="AQ75">
-        <v>0.25</v>
-      </c>
-      <c r="AR75">
-        <v>1.14</v>
-      </c>
-      <c r="AS75">
-        <v>1.11</v>
-      </c>
-      <c r="AT75">
-        <v>2.25</v>
-      </c>
-      <c r="AU75">
-        <v>7</v>
-      </c>
-      <c r="AV75">
-        <v>2</v>
-      </c>
-      <c r="AW75">
-        <v>5</v>
-      </c>
-      <c r="AX75">
-        <v>2</v>
-      </c>
-      <c r="AY75">
-        <v>19</v>
-      </c>
-      <c r="AZ75">
-        <v>4</v>
-      </c>
-      <c r="BA75">
-        <v>8</v>
-      </c>
-      <c r="BB75">
-        <v>1</v>
-      </c>
-      <c r="BC75">
-        <v>9</v>
-      </c>
-      <c r="BD75">
-        <v>1.65</v>
-      </c>
-      <c r="BE75">
-        <v>6.75</v>
-      </c>
-      <c r="BF75">
-        <v>2.48</v>
-      </c>
-      <c r="BG75">
-        <v>1.29</v>
-      </c>
       <c r="BH75">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="BI75">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="BJ75">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="BK75">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="BL75">
-        <v>1.86</v>
+        <v>2.15</v>
       </c>
       <c r="BM75">
-        <v>2.3</v>
+        <v>1.96</v>
       </c>
       <c r="BN75">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
       <c r="BO75">
-        <v>2.95</v>
+        <v>2.43</v>
       </c>
       <c r="BP75">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16442,7 +16442,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7491894</v>
+        <v>7491889</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16454,91 +16454,91 @@
         <v>45598.47916666666</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H76" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I76">
+        <v>4</v>
+      </c>
+      <c r="J76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
       <c r="K76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O76" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="Q76">
-        <v>3.25</v>
+        <v>1.73</v>
       </c>
       <c r="R76">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="S76">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="T76">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="U76">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="V76">
-        <v>2.63</v>
+        <v>1.91</v>
       </c>
       <c r="W76">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="X76">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Y76">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="Z76">
-        <v>2.42</v>
+        <v>1.3</v>
       </c>
       <c r="AA76">
-        <v>3.4</v>
+        <v>5.15</v>
       </c>
       <c r="AB76">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="AC76">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD76">
-        <v>13</v>
+        <v>31.5</v>
       </c>
       <c r="AE76">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AF76">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG76">
-        <v>1.61</v>
+        <v>1.37</v>
       </c>
       <c r="AH76">
-        <v>2.18</v>
+        <v>2.94</v>
       </c>
       <c r="AI76">
         <v>1.62</v>
@@ -16547,100 +16547,100 @@
         <v>2.2</v>
       </c>
       <c r="AK76">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="AL76">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AM76">
-        <v>1.48</v>
+        <v>3.5</v>
       </c>
       <c r="AN76">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AO76">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP76">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="AQ76">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AR76">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="AS76">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AT76">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="AU76">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV76">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX76">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AY76">
+        <v>19</v>
+      </c>
+      <c r="AZ76">
         <v>12</v>
-      </c>
-      <c r="AZ76">
-        <v>19</v>
       </c>
       <c r="BA76">
         <v>5</v>
       </c>
       <c r="BB76">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC76">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD76">
-        <v>2.08</v>
+        <v>1.29</v>
       </c>
       <c r="BE76">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="BF76">
-        <v>1.92</v>
+        <v>3.9</v>
       </c>
       <c r="BG76">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="BH76">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="BI76">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="BJ76">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="BK76">
+        <v>1.61</v>
+      </c>
+      <c r="BL76">
+        <v>2.15</v>
+      </c>
+      <c r="BM76">
+        <v>1.96</v>
+      </c>
+      <c r="BN76">
         <v>1.74</v>
       </c>
-      <c r="BL76">
-        <v>1.95</v>
-      </c>
-      <c r="BM76">
-        <v>2.17</v>
-      </c>
-      <c r="BN76">
-        <v>1.6</v>
-      </c>
       <c r="BO76">
-        <v>2.8</v>
+        <v>2.43</v>
       </c>
       <c r="BP76">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16690,7 +16690,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -16854,7 +16854,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7491887</v>
+        <v>7491894</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16866,193 +16866,193 @@
         <v>45598.47916666666</v>
       </c>
       <c r="F78">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H78" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P78" t="s">
         <v>96</v>
       </c>
       <c r="Q78">
-        <v>1.57</v>
+        <v>3.25</v>
       </c>
       <c r="R78">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="S78">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="T78">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="U78">
+        <v>3.25</v>
+      </c>
+      <c r="V78">
+        <v>2.63</v>
+      </c>
+      <c r="W78">
+        <v>1.44</v>
+      </c>
+      <c r="X78">
+        <v>6.5</v>
+      </c>
+      <c r="Y78">
+        <v>1.11</v>
+      </c>
+      <c r="Z78">
+        <v>2.42</v>
+      </c>
+      <c r="AA78">
+        <v>3.4</v>
+      </c>
+      <c r="AB78">
+        <v>2.55</v>
+      </c>
+      <c r="AC78">
+        <v>1.04</v>
+      </c>
+      <c r="AD78">
+        <v>13</v>
+      </c>
+      <c r="AE78">
+        <v>1.25</v>
+      </c>
+      <c r="AF78">
         <v>4</v>
       </c>
-      <c r="V78">
-        <v>2</v>
-      </c>
-      <c r="W78">
-        <v>1.73</v>
-      </c>
-      <c r="X78">
-        <v>4.33</v>
-      </c>
-      <c r="Y78">
+      <c r="AG78">
+        <v>1.61</v>
+      </c>
+      <c r="AH78">
+        <v>2.18</v>
+      </c>
+      <c r="AI78">
+        <v>1.62</v>
+      </c>
+      <c r="AJ78">
+        <v>2.2</v>
+      </c>
+      <c r="AK78">
+        <v>1.55</v>
+      </c>
+      <c r="AL78">
+        <v>1.25</v>
+      </c>
+      <c r="AM78">
+        <v>1.48</v>
+      </c>
+      <c r="AN78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>1.5</v>
+      </c>
+      <c r="AP78">
+        <v>0.6</v>
+      </c>
+      <c r="AQ78">
         <v>1.2</v>
       </c>
-      <c r="Z78">
-        <v>1.18</v>
-      </c>
-      <c r="AA78">
-        <v>6.2</v>
-      </c>
-      <c r="AB78">
-        <v>11</v>
-      </c>
-      <c r="AC78">
-        <v>1.01</v>
-      </c>
-      <c r="AD78">
-        <v>27.5</v>
-      </c>
-      <c r="AE78">
-        <v>1.11</v>
-      </c>
-      <c r="AF78">
-        <v>6.5</v>
-      </c>
-      <c r="AG78">
-        <v>1.38</v>
-      </c>
-      <c r="AH78">
-        <v>2.9</v>
-      </c>
-      <c r="AI78">
-        <v>2</v>
-      </c>
-      <c r="AJ78">
-        <v>1.75</v>
-      </c>
-      <c r="AK78">
-        <v>1.03</v>
-      </c>
-      <c r="AL78">
-        <v>1.08</v>
-      </c>
-      <c r="AM78">
-        <v>4.5</v>
-      </c>
-      <c r="AN78">
-        <v>2.33</v>
-      </c>
-      <c r="AO78">
-        <v>1.25</v>
-      </c>
-      <c r="AP78">
-        <v>2.5</v>
-      </c>
-      <c r="AQ78">
-        <v>1</v>
-      </c>
       <c r="AR78">
-        <v>1.82</v>
+        <v>1.15</v>
       </c>
       <c r="AS78">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AT78">
-        <v>3</v>
+        <v>2.42</v>
       </c>
       <c r="AU78">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV78">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW78">
         <v>4</v>
       </c>
       <c r="AX78">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AY78">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ78">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="BA78">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB78">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC78">
         <v>11</v>
       </c>
       <c r="BD78">
-        <v>1.11</v>
+        <v>2.08</v>
       </c>
       <c r="BE78">
-        <v>10.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF78">
-        <v>6.5</v>
+        <v>1.92</v>
       </c>
       <c r="BG78">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="BH78">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="BI78">
+        <v>1.46</v>
+      </c>
+      <c r="BJ78">
+        <v>2.48</v>
+      </c>
+      <c r="BK78">
+        <v>1.74</v>
+      </c>
+      <c r="BL78">
+        <v>1.95</v>
+      </c>
+      <c r="BM78">
+        <v>2.17</v>
+      </c>
+      <c r="BN78">
+        <v>1.6</v>
+      </c>
+      <c r="BO78">
+        <v>2.8</v>
+      </c>
+      <c r="BP78">
         <v>1.37</v>
-      </c>
-      <c r="BJ78">
-        <v>2.8</v>
-      </c>
-      <c r="BK78">
-        <v>1.61</v>
-      </c>
-      <c r="BL78">
-        <v>2.15</v>
-      </c>
-      <c r="BM78">
-        <v>1.96</v>
-      </c>
-      <c r="BN78">
-        <v>1.74</v>
-      </c>
-      <c r="BO78">
-        <v>2.43</v>
-      </c>
-      <c r="BP78">
-        <v>1.48</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17060,7 +17060,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7491889</v>
+        <v>7491892</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17075,190 +17075,190 @@
         <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H79" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+      <c r="O79" t="s">
+        <v>108</v>
+      </c>
+      <c r="P79" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q79">
+        <v>2.5</v>
+      </c>
+      <c r="R79">
+        <v>2.38</v>
+      </c>
+      <c r="S79">
+        <v>3.75</v>
+      </c>
+      <c r="T79">
+        <v>1.3</v>
+      </c>
+      <c r="U79">
+        <v>3.4</v>
+      </c>
+      <c r="V79">
+        <v>2.38</v>
+      </c>
+      <c r="W79">
+        <v>1.53</v>
+      </c>
+      <c r="X79">
+        <v>6</v>
+      </c>
+      <c r="Y79">
+        <v>1.13</v>
+      </c>
+      <c r="Z79">
+        <v>1.97</v>
+      </c>
+      <c r="AA79">
+        <v>3.57</v>
+      </c>
+      <c r="AB79">
+        <v>3.2</v>
+      </c>
+      <c r="AC79">
+        <v>1.03</v>
+      </c>
+      <c r="AD79">
+        <v>17</v>
+      </c>
+      <c r="AE79">
+        <v>1.2</v>
+      </c>
+      <c r="AF79">
+        <v>4.5</v>
+      </c>
+      <c r="AG79">
+        <v>1.62</v>
+      </c>
+      <c r="AH79">
+        <v>2.17</v>
+      </c>
+      <c r="AI79">
+        <v>1.57</v>
+      </c>
+      <c r="AJ79">
+        <v>2.25</v>
+      </c>
+      <c r="AK79">
+        <v>1.32</v>
+      </c>
+      <c r="AL79">
+        <v>1.22</v>
+      </c>
+      <c r="AM79">
+        <v>1.85</v>
+      </c>
+      <c r="AN79">
+        <v>0.25</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>0.4</v>
+      </c>
+      <c r="AQ79">
+        <v>0.25</v>
+      </c>
+      <c r="AR79">
+        <v>1.14</v>
+      </c>
+      <c r="AS79">
+        <v>1.11</v>
+      </c>
+      <c r="AT79">
+        <v>2.25</v>
+      </c>
+      <c r="AU79">
+        <v>7</v>
+      </c>
+      <c r="AV79">
+        <v>2</v>
+      </c>
+      <c r="AW79">
         <v>5</v>
       </c>
-      <c r="L79">
-        <v>7</v>
-      </c>
-      <c r="M79">
-        <v>2</v>
-      </c>
-      <c r="N79">
-        <v>9</v>
-      </c>
-      <c r="O79" t="s">
-        <v>144</v>
-      </c>
-      <c r="P79" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q79">
-        <v>1.73</v>
-      </c>
-      <c r="R79">
-        <v>2.88</v>
-      </c>
-      <c r="S79">
-        <v>6.5</v>
-      </c>
-      <c r="T79">
-        <v>1.2</v>
-      </c>
-      <c r="U79">
-        <v>4.33</v>
-      </c>
-      <c r="V79">
-        <v>1.91</v>
-      </c>
-      <c r="W79">
-        <v>1.8</v>
-      </c>
-      <c r="X79">
-        <v>4</v>
-      </c>
-      <c r="Y79">
-        <v>1.22</v>
-      </c>
-      <c r="Z79">
-        <v>1.3</v>
-      </c>
-      <c r="AA79">
-        <v>5.15</v>
-      </c>
-      <c r="AB79">
-        <v>7.5</v>
-      </c>
-      <c r="AC79">
-        <v>1.01</v>
-      </c>
-      <c r="AD79">
-        <v>31.5</v>
-      </c>
-      <c r="AE79">
-        <v>1.1</v>
-      </c>
-      <c r="AF79">
-        <v>7</v>
-      </c>
-      <c r="AG79">
-        <v>1.37</v>
-      </c>
-      <c r="AH79">
-        <v>2.94</v>
-      </c>
-      <c r="AI79">
-        <v>1.62</v>
-      </c>
-      <c r="AJ79">
-        <v>2.2</v>
-      </c>
-      <c r="AK79">
-        <v>1.05</v>
-      </c>
-      <c r="AL79">
-        <v>1.1</v>
-      </c>
-      <c r="AM79">
-        <v>3.5</v>
-      </c>
-      <c r="AN79">
-        <v>2.33</v>
-      </c>
-      <c r="AO79">
-        <v>0</v>
-      </c>
-      <c r="AP79">
-        <v>2.5</v>
-      </c>
-      <c r="AQ79">
-        <v>0</v>
-      </c>
-      <c r="AR79">
-        <v>1.42</v>
-      </c>
-      <c r="AS79">
-        <v>1.14</v>
-      </c>
-      <c r="AT79">
-        <v>2.56</v>
-      </c>
-      <c r="AU79">
-        <v>10</v>
-      </c>
-      <c r="AV79">
-        <v>9</v>
-      </c>
-      <c r="AW79">
-        <v>3</v>
-      </c>
       <c r="AX79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY79">
         <v>19</v>
       </c>
       <c r="AZ79">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BA79">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC79">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD79">
+        <v>1.65</v>
+      </c>
+      <c r="BE79">
+        <v>6.75</v>
+      </c>
+      <c r="BF79">
+        <v>2.48</v>
+      </c>
+      <c r="BG79">
         <v>1.29</v>
       </c>
-      <c r="BE79">
-        <v>7.5</v>
-      </c>
-      <c r="BF79">
-        <v>3.9</v>
-      </c>
-      <c r="BG79">
-        <v>1.2</v>
-      </c>
       <c r="BH79">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="BI79">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="BJ79">
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
       <c r="BK79">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="BL79">
-        <v>2.15</v>
+        <v>1.86</v>
       </c>
       <c r="BM79">
-        <v>1.96</v>
+        <v>2.3</v>
       </c>
       <c r="BN79">
-        <v>1.74</v>
+        <v>1.54</v>
       </c>
       <c r="BO79">
-        <v>2.43</v>
+        <v>2.95</v>
       </c>
       <c r="BP79">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17696,7 +17696,7 @@
         <v>70</v>
       </c>
       <c r="H82" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I82">
         <v>3</v>
@@ -17877,6 +17877,212 @@
       </c>
       <c r="BP82">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7491901</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45604.6875</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s">
+        <v>73</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83" t="s">
+        <v>96</v>
+      </c>
+      <c r="P83" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q83">
+        <v>3.2</v>
+      </c>
+      <c r="R83">
+        <v>2.05</v>
+      </c>
+      <c r="S83">
+        <v>3.6</v>
+      </c>
+      <c r="T83">
+        <v>1.44</v>
+      </c>
+      <c r="U83">
+        <v>2.63</v>
+      </c>
+      <c r="V83">
+        <v>3.25</v>
+      </c>
+      <c r="W83">
+        <v>1.33</v>
+      </c>
+      <c r="X83">
+        <v>10</v>
+      </c>
+      <c r="Y83">
+        <v>1.06</v>
+      </c>
+      <c r="Z83">
+        <v>1.68</v>
+      </c>
+      <c r="AA83">
+        <v>4.2</v>
+      </c>
+      <c r="AB83">
+        <v>3.65</v>
+      </c>
+      <c r="AC83">
+        <v>1.07</v>
+      </c>
+      <c r="AD83">
+        <v>9</v>
+      </c>
+      <c r="AE83">
+        <v>1.4</v>
+      </c>
+      <c r="AF83">
+        <v>3</v>
+      </c>
+      <c r="AG83">
+        <v>2.05</v>
+      </c>
+      <c r="AH83">
+        <v>1.75</v>
+      </c>
+      <c r="AI83">
+        <v>1.95</v>
+      </c>
+      <c r="AJ83">
+        <v>1.8</v>
+      </c>
+      <c r="AK83">
+        <v>1.42</v>
+      </c>
+      <c r="AL83">
+        <v>1.3</v>
+      </c>
+      <c r="AM83">
+        <v>1.58</v>
+      </c>
+      <c r="AN83">
+        <v>2.5</v>
+      </c>
+      <c r="AO83">
+        <v>1.5</v>
+      </c>
+      <c r="AP83">
+        <v>2.2</v>
+      </c>
+      <c r="AQ83">
+        <v>1.4</v>
+      </c>
+      <c r="AR83">
+        <v>1.3</v>
+      </c>
+      <c r="AS83">
+        <v>1.37</v>
+      </c>
+      <c r="AT83">
+        <v>2.67</v>
+      </c>
+      <c r="AU83">
+        <v>7</v>
+      </c>
+      <c r="AV83">
+        <v>5</v>
+      </c>
+      <c r="AW83">
+        <v>3</v>
+      </c>
+      <c r="AX83">
+        <v>7</v>
+      </c>
+      <c r="AY83">
+        <v>14</v>
+      </c>
+      <c r="AZ83">
+        <v>15</v>
+      </c>
+      <c r="BA83">
+        <v>4</v>
+      </c>
+      <c r="BB83">
+        <v>1</v>
+      </c>
+      <c r="BC83">
+        <v>5</v>
+      </c>
+      <c r="BD83">
+        <v>1.74</v>
+      </c>
+      <c r="BE83">
+        <v>6.4</v>
+      </c>
+      <c r="BF83">
+        <v>2.32</v>
+      </c>
+      <c r="BG83">
+        <v>1.29</v>
+      </c>
+      <c r="BH83">
+        <v>3.15</v>
+      </c>
+      <c r="BI83">
+        <v>1.5</v>
+      </c>
+      <c r="BJ83">
+        <v>2.35</v>
+      </c>
+      <c r="BK83">
+        <v>1.83</v>
+      </c>
+      <c r="BL83">
+        <v>1.85</v>
+      </c>
+      <c r="BM83">
+        <v>2.3</v>
+      </c>
+      <c r="BN83">
+        <v>1.54</v>
+      </c>
+      <c r="BO83">
+        <v>2.95</v>
+      </c>
+      <c r="BP83">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,15 @@
     <t>['11', '12', '45', '66']</t>
   </si>
   <si>
+    <t>['36', '89']</t>
+  </si>
+  <si>
+    <t>['36', '45+3', '54']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -620,6 +629,18 @@
   </si>
   <si>
     <t>['20', '90+3']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['18']</t>
   </si>
 </sst>
 </file>
@@ -981,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP83"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1240,7 +1261,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1321,7 +1342,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1524,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1652,7 +1673,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1733,7 +1754,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1858,7 +1879,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2064,7 +2085,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2270,7 +2291,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2348,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2682,7 +2703,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2763,7 +2784,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ9">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2888,7 +2909,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2966,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ10">
         <v>1.2</v>
@@ -3300,7 +3321,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3506,7 +3527,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3712,7 +3733,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -3918,7 +3939,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3996,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4202,10 +4223,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4330,7 +4351,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4948,7 +4969,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5232,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5360,7 +5381,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5441,7 +5462,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR22">
         <v>2.26</v>
@@ -5566,7 +5587,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q23">
         <v>2.25</v>
@@ -5772,7 +5793,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5978,7 +5999,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6184,7 +6205,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6265,7 +6286,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ26">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR26">
         <v>1.4</v>
@@ -6390,7 +6411,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6596,7 +6617,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6674,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ28">
         <v>2</v>
@@ -6802,7 +6823,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7008,7 +7029,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7214,7 +7235,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -7292,10 +7313,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR31">
         <v>0.65</v>
@@ -7420,7 +7441,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7626,7 +7647,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7704,10 +7725,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR33">
         <v>1.57</v>
@@ -8038,7 +8059,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8244,7 +8265,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8325,7 +8346,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR36">
         <v>2.62</v>
@@ -8528,7 +8549,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -8656,7 +8677,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9068,7 +9089,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9146,7 +9167,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ40">
         <v>1.2</v>
@@ -9274,7 +9295,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9480,7 +9501,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -9764,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ43">
         <v>0.25</v>
@@ -9892,7 +9913,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -9973,7 +9994,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR44">
         <v>1.17</v>
@@ -10098,7 +10119,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10304,7 +10325,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10716,7 +10737,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -10797,7 +10818,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR48">
         <v>2.42</v>
@@ -10922,7 +10943,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11000,7 +11021,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>1.4</v>
@@ -11128,7 +11149,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11209,7 +11230,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ50">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -11334,7 +11355,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11412,7 +11433,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ51">
         <v>1.75</v>
@@ -11540,7 +11561,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11618,7 +11639,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ52">
         <v>2</v>
@@ -11952,7 +11973,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12033,7 +12054,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ54">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR54">
         <v>1.7</v>
@@ -12158,7 +12179,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12364,7 +12385,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12570,7 +12591,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -12982,7 +13003,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13188,7 +13209,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -13266,7 +13287,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ60">
         <v>2</v>
@@ -13394,7 +13415,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13806,7 +13827,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14012,7 +14033,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14218,7 +14239,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14296,7 +14317,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14424,7 +14445,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14505,7 +14526,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR66">
         <v>1.91</v>
@@ -14708,7 +14729,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ67">
         <v>1.75</v>
@@ -14836,7 +14857,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -14914,7 +14935,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ68">
         <v>1.4</v>
@@ -15042,7 +15063,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q69">
         <v>1.8</v>
@@ -15123,7 +15144,7 @@
         <v>2</v>
       </c>
       <c r="AQ69">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR69">
         <v>2.2</v>
@@ -15248,7 +15269,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15326,10 +15347,10 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR70">
         <v>0.6899999999999999</v>
@@ -15454,7 +15475,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15532,10 +15553,10 @@
         <v>2.5</v>
       </c>
       <c r="AP71">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ71">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR71">
         <v>1.42</v>
@@ -15660,7 +15681,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16484,7 +16505,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -16690,7 +16711,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17720,7 +17741,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q82">
         <v>2.6</v>
@@ -17893,7 +17914,7 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45604.6875</v>
+        <v>45603.875</v>
       </c>
       <c r="F83">
         <v>10</v>
@@ -18083,6 +18104,1036 @@
       </c>
       <c r="BP83">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7491903</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45605.47916666666</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>78</v>
+      </c>
+      <c r="H84" t="s">
+        <v>87</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84" t="s">
+        <v>96</v>
+      </c>
+      <c r="P84" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q84">
+        <v>8</v>
+      </c>
+      <c r="R84">
+        <v>2.88</v>
+      </c>
+      <c r="S84">
+        <v>1.67</v>
+      </c>
+      <c r="T84">
+        <v>1.22</v>
+      </c>
+      <c r="U84">
+        <v>4</v>
+      </c>
+      <c r="V84">
+        <v>2</v>
+      </c>
+      <c r="W84">
+        <v>1.73</v>
+      </c>
+      <c r="X84">
+        <v>4.33</v>
+      </c>
+      <c r="Y84">
+        <v>1.2</v>
+      </c>
+      <c r="Z84">
+        <v>11</v>
+      </c>
+      <c r="AA84">
+        <v>6.5</v>
+      </c>
+      <c r="AB84">
+        <v>1.18</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>1.12</v>
+      </c>
+      <c r="AF84">
+        <v>6.5</v>
+      </c>
+      <c r="AG84">
+        <v>1.38</v>
+      </c>
+      <c r="AH84">
+        <v>2.9</v>
+      </c>
+      <c r="AI84">
+        <v>1.8</v>
+      </c>
+      <c r="AJ84">
+        <v>1.95</v>
+      </c>
+      <c r="AK84">
+        <v>4</v>
+      </c>
+      <c r="AL84">
+        <v>1.09</v>
+      </c>
+      <c r="AM84">
+        <v>1.02</v>
+      </c>
+      <c r="AN84">
+        <v>0.5</v>
+      </c>
+      <c r="AO84">
+        <v>2.6</v>
+      </c>
+      <c r="AP84">
+        <v>0.4</v>
+      </c>
+      <c r="AQ84">
+        <v>2.67</v>
+      </c>
+      <c r="AR84">
+        <v>1.49</v>
+      </c>
+      <c r="AS84">
+        <v>2.32</v>
+      </c>
+      <c r="AT84">
+        <v>3.81</v>
+      </c>
+      <c r="AU84">
+        <v>0</v>
+      </c>
+      <c r="AV84">
+        <v>7</v>
+      </c>
+      <c r="AW84">
+        <v>3</v>
+      </c>
+      <c r="AX84">
+        <v>4</v>
+      </c>
+      <c r="AY84">
+        <v>4</v>
+      </c>
+      <c r="AZ84">
+        <v>14</v>
+      </c>
+      <c r="BA84">
+        <v>5</v>
+      </c>
+      <c r="BB84">
+        <v>10</v>
+      </c>
+      <c r="BC84">
+        <v>15</v>
+      </c>
+      <c r="BD84">
+        <v>4.8</v>
+      </c>
+      <c r="BE84">
+        <v>8.5</v>
+      </c>
+      <c r="BF84">
+        <v>1.21</v>
+      </c>
+      <c r="BG84">
+        <v>1.35</v>
+      </c>
+      <c r="BH84">
+        <v>2.9</v>
+      </c>
+      <c r="BI84">
+        <v>1.58</v>
+      </c>
+      <c r="BJ84">
+        <v>2.18</v>
+      </c>
+      <c r="BK84">
+        <v>1.96</v>
+      </c>
+      <c r="BL84">
+        <v>1.73</v>
+      </c>
+      <c r="BM84">
+        <v>2.48</v>
+      </c>
+      <c r="BN84">
+        <v>1.46</v>
+      </c>
+      <c r="BO84">
+        <v>3.2</v>
+      </c>
+      <c r="BP84">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7491898</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45605.47916666666</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>84</v>
+      </c>
+      <c r="H85" t="s">
+        <v>81</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>147</v>
+      </c>
+      <c r="P85" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q85">
+        <v>2.1</v>
+      </c>
+      <c r="R85">
+        <v>2.6</v>
+      </c>
+      <c r="S85">
+        <v>4.75</v>
+      </c>
+      <c r="T85">
+        <v>1.25</v>
+      </c>
+      <c r="U85">
+        <v>3.75</v>
+      </c>
+      <c r="V85">
+        <v>2.1</v>
+      </c>
+      <c r="W85">
+        <v>1.67</v>
+      </c>
+      <c r="X85">
+        <v>5</v>
+      </c>
+      <c r="Y85">
+        <v>1.17</v>
+      </c>
+      <c r="Z85">
+        <v>1.5</v>
+      </c>
+      <c r="AA85">
+        <v>4.5</v>
+      </c>
+      <c r="AB85">
+        <v>5.5</v>
+      </c>
+      <c r="AC85">
+        <v>1.01</v>
+      </c>
+      <c r="AD85">
+        <v>23</v>
+      </c>
+      <c r="AE85">
+        <v>1.14</v>
+      </c>
+      <c r="AF85">
+        <v>6</v>
+      </c>
+      <c r="AG85">
+        <v>1.43</v>
+      </c>
+      <c r="AH85">
+        <v>2.7</v>
+      </c>
+      <c r="AI85">
+        <v>1.53</v>
+      </c>
+      <c r="AJ85">
+        <v>2.38</v>
+      </c>
+      <c r="AK85">
+        <v>1.17</v>
+      </c>
+      <c r="AL85">
+        <v>1.17</v>
+      </c>
+      <c r="AM85">
+        <v>2.4</v>
+      </c>
+      <c r="AN85">
+        <v>0.5</v>
+      </c>
+      <c r="AO85">
+        <v>0.5</v>
+      </c>
+      <c r="AP85">
+        <v>1</v>
+      </c>
+      <c r="AQ85">
+        <v>0.4</v>
+      </c>
+      <c r="AR85">
+        <v>0.97</v>
+      </c>
+      <c r="AS85">
+        <v>1.24</v>
+      </c>
+      <c r="AT85">
+        <v>2.21</v>
+      </c>
+      <c r="AU85">
+        <v>6</v>
+      </c>
+      <c r="AV85">
+        <v>6</v>
+      </c>
+      <c r="AW85">
+        <v>7</v>
+      </c>
+      <c r="AX85">
+        <v>3</v>
+      </c>
+      <c r="AY85">
+        <v>17</v>
+      </c>
+      <c r="AZ85">
+        <v>13</v>
+      </c>
+      <c r="BA85">
+        <v>6</v>
+      </c>
+      <c r="BB85">
+        <v>3</v>
+      </c>
+      <c r="BC85">
+        <v>9</v>
+      </c>
+      <c r="BD85">
+        <v>1.41</v>
+      </c>
+      <c r="BE85">
+        <v>7</v>
+      </c>
+      <c r="BF85">
+        <v>3.2</v>
+      </c>
+      <c r="BG85">
+        <v>1.22</v>
+      </c>
+      <c r="BH85">
+        <v>3.7</v>
+      </c>
+      <c r="BI85">
+        <v>1.38</v>
+      </c>
+      <c r="BJ85">
+        <v>2.7</v>
+      </c>
+      <c r="BK85">
+        <v>1.65</v>
+      </c>
+      <c r="BL85">
+        <v>2.08</v>
+      </c>
+      <c r="BM85">
+        <v>2</v>
+      </c>
+      <c r="BN85">
+        <v>1.71</v>
+      </c>
+      <c r="BO85">
+        <v>2.48</v>
+      </c>
+      <c r="BP85">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7491900</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45605.47916666666</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>75</v>
+      </c>
+      <c r="H86" t="s">
+        <v>76</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86" t="s">
+        <v>148</v>
+      </c>
+      <c r="P86" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q86">
+        <v>3.6</v>
+      </c>
+      <c r="R86">
+        <v>2.38</v>
+      </c>
+      <c r="S86">
+        <v>2.6</v>
+      </c>
+      <c r="T86">
+        <v>1.29</v>
+      </c>
+      <c r="U86">
+        <v>3.5</v>
+      </c>
+      <c r="V86">
+        <v>2.38</v>
+      </c>
+      <c r="W86">
+        <v>1.53</v>
+      </c>
+      <c r="X86">
+        <v>5.5</v>
+      </c>
+      <c r="Y86">
+        <v>1.14</v>
+      </c>
+      <c r="Z86">
+        <v>3.25</v>
+      </c>
+      <c r="AA86">
+        <v>3.7</v>
+      </c>
+      <c r="AB86">
+        <v>2</v>
+      </c>
+      <c r="AC86">
+        <v>1.02</v>
+      </c>
+      <c r="AD86">
+        <v>19</v>
+      </c>
+      <c r="AE86">
+        <v>1.18</v>
+      </c>
+      <c r="AF86">
+        <v>5</v>
+      </c>
+      <c r="AG86">
+        <v>1.57</v>
+      </c>
+      <c r="AH86">
+        <v>2.31</v>
+      </c>
+      <c r="AI86">
+        <v>1.5</v>
+      </c>
+      <c r="AJ86">
+        <v>2.5</v>
+      </c>
+      <c r="AK86">
+        <v>1.78</v>
+      </c>
+      <c r="AL86">
+        <v>1.22</v>
+      </c>
+      <c r="AM86">
+        <v>1.35</v>
+      </c>
+      <c r="AN86">
+        <v>0.4</v>
+      </c>
+      <c r="AO86">
+        <v>0.25</v>
+      </c>
+      <c r="AP86">
+        <v>0.83</v>
+      </c>
+      <c r="AQ86">
+        <v>0.2</v>
+      </c>
+      <c r="AR86">
+        <v>1.34</v>
+      </c>
+      <c r="AS86">
+        <v>1.1</v>
+      </c>
+      <c r="AT86">
+        <v>2.44</v>
+      </c>
+      <c r="AU86">
+        <v>10</v>
+      </c>
+      <c r="AV86">
+        <v>2</v>
+      </c>
+      <c r="AW86">
+        <v>4</v>
+      </c>
+      <c r="AX86">
+        <v>1</v>
+      </c>
+      <c r="AY86">
+        <v>15</v>
+      </c>
+      <c r="AZ86">
+        <v>3</v>
+      </c>
+      <c r="BA86">
+        <v>8</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>8</v>
+      </c>
+      <c r="BD86">
+        <v>2.12</v>
+      </c>
+      <c r="BE86">
+        <v>6.5</v>
+      </c>
+      <c r="BF86">
+        <v>1.86</v>
+      </c>
+      <c r="BG86">
+        <v>1.21</v>
+      </c>
+      <c r="BH86">
+        <v>3.8</v>
+      </c>
+      <c r="BI86">
+        <v>1.4</v>
+      </c>
+      <c r="BJ86">
+        <v>2.7</v>
+      </c>
+      <c r="BK86">
+        <v>1.64</v>
+      </c>
+      <c r="BL86">
+        <v>2.1</v>
+      </c>
+      <c r="BM86">
+        <v>1.98</v>
+      </c>
+      <c r="BN86">
+        <v>1.72</v>
+      </c>
+      <c r="BO86">
+        <v>2.5</v>
+      </c>
+      <c r="BP86">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7491902</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45605.47916666666</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>83</v>
+      </c>
+      <c r="H87" t="s">
+        <v>85</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>149</v>
+      </c>
+      <c r="P87" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q87">
+        <v>7</v>
+      </c>
+      <c r="R87">
+        <v>3</v>
+      </c>
+      <c r="S87">
+        <v>1.62</v>
+      </c>
+      <c r="T87">
+        <v>1.17</v>
+      </c>
+      <c r="U87">
+        <v>5</v>
+      </c>
+      <c r="V87">
+        <v>1.83</v>
+      </c>
+      <c r="W87">
+        <v>1.83</v>
+      </c>
+      <c r="X87">
+        <v>3.75</v>
+      </c>
+      <c r="Y87">
+        <v>1.25</v>
+      </c>
+      <c r="Z87">
+        <v>9.5</v>
+      </c>
+      <c r="AA87">
+        <v>6</v>
+      </c>
+      <c r="AB87">
+        <v>1.22</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>1.08</v>
+      </c>
+      <c r="AF87">
+        <v>8</v>
+      </c>
+      <c r="AG87">
+        <v>1.28</v>
+      </c>
+      <c r="AH87">
+        <v>3.47</v>
+      </c>
+      <c r="AI87">
+        <v>1.62</v>
+      </c>
+      <c r="AJ87">
+        <v>2.2</v>
+      </c>
+      <c r="AK87">
+        <v>3.75</v>
+      </c>
+      <c r="AL87">
+        <v>1.09</v>
+      </c>
+      <c r="AM87">
+        <v>1.02</v>
+      </c>
+      <c r="AN87">
+        <v>0.25</v>
+      </c>
+      <c r="AO87">
+        <v>2</v>
+      </c>
+      <c r="AP87">
+        <v>0.4</v>
+      </c>
+      <c r="AQ87">
+        <v>1.8</v>
+      </c>
+      <c r="AR87">
+        <v>1.27</v>
+      </c>
+      <c r="AS87">
+        <v>1.72</v>
+      </c>
+      <c r="AT87">
+        <v>2.99</v>
+      </c>
+      <c r="AU87">
+        <v>4</v>
+      </c>
+      <c r="AV87">
+        <v>4</v>
+      </c>
+      <c r="AW87">
+        <v>6</v>
+      </c>
+      <c r="AX87">
+        <v>4</v>
+      </c>
+      <c r="AY87">
+        <v>16</v>
+      </c>
+      <c r="AZ87">
+        <v>12</v>
+      </c>
+      <c r="BA87">
+        <v>6</v>
+      </c>
+      <c r="BB87">
+        <v>4</v>
+      </c>
+      <c r="BC87">
+        <v>10</v>
+      </c>
+      <c r="BD87">
+        <v>4.4</v>
+      </c>
+      <c r="BE87">
+        <v>8.5</v>
+      </c>
+      <c r="BF87">
+        <v>1.23</v>
+      </c>
+      <c r="BG87">
+        <v>1.23</v>
+      </c>
+      <c r="BH87">
+        <v>3.65</v>
+      </c>
+      <c r="BI87">
+        <v>1.41</v>
+      </c>
+      <c r="BJ87">
+        <v>2.65</v>
+      </c>
+      <c r="BK87">
+        <v>1.67</v>
+      </c>
+      <c r="BL87">
+        <v>2.04</v>
+      </c>
+      <c r="BM87">
+        <v>2.06</v>
+      </c>
+      <c r="BN87">
+        <v>1.66</v>
+      </c>
+      <c r="BO87">
+        <v>2.6</v>
+      </c>
+      <c r="BP87">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7491896</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45605.60416666666</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>71</v>
+      </c>
+      <c r="H88" t="s">
+        <v>70</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
+        <v>96</v>
+      </c>
+      <c r="P88" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q88">
+        <v>2</v>
+      </c>
+      <c r="R88">
+        <v>2.63</v>
+      </c>
+      <c r="S88">
+        <v>5</v>
+      </c>
+      <c r="T88">
+        <v>1.22</v>
+      </c>
+      <c r="U88">
+        <v>4</v>
+      </c>
+      <c r="V88">
+        <v>2</v>
+      </c>
+      <c r="W88">
+        <v>1.73</v>
+      </c>
+      <c r="X88">
+        <v>4.33</v>
+      </c>
+      <c r="Y88">
+        <v>1.2</v>
+      </c>
+      <c r="Z88">
+        <v>1.51</v>
+      </c>
+      <c r="AA88">
+        <v>5.19</v>
+      </c>
+      <c r="AB88">
+        <v>6.17</v>
+      </c>
+      <c r="AC88">
+        <v>1.01</v>
+      </c>
+      <c r="AD88">
+        <v>17</v>
+      </c>
+      <c r="AE88">
+        <v>1.12</v>
+      </c>
+      <c r="AF88">
+        <v>6.5</v>
+      </c>
+      <c r="AG88">
+        <v>1.45</v>
+      </c>
+      <c r="AH88">
+        <v>2.7</v>
+      </c>
+      <c r="AI88">
+        <v>1.5</v>
+      </c>
+      <c r="AJ88">
+        <v>2.5</v>
+      </c>
+      <c r="AK88">
+        <v>1.14</v>
+      </c>
+      <c r="AL88">
+        <v>1.15</v>
+      </c>
+      <c r="AM88">
+        <v>2.65</v>
+      </c>
+      <c r="AN88">
+        <v>2.5</v>
+      </c>
+      <c r="AO88">
+        <v>1</v>
+      </c>
+      <c r="AP88">
+        <v>2.2</v>
+      </c>
+      <c r="AQ88">
+        <v>1</v>
+      </c>
+      <c r="AR88">
+        <v>1.44</v>
+      </c>
+      <c r="AS88">
+        <v>1.51</v>
+      </c>
+      <c r="AT88">
+        <v>2.95</v>
+      </c>
+      <c r="AU88">
+        <v>6</v>
+      </c>
+      <c r="AV88">
+        <v>5</v>
+      </c>
+      <c r="AW88">
+        <v>4</v>
+      </c>
+      <c r="AX88">
+        <v>4</v>
+      </c>
+      <c r="AY88">
+        <v>13</v>
+      </c>
+      <c r="AZ88">
+        <v>15</v>
+      </c>
+      <c r="BA88">
+        <v>8</v>
+      </c>
+      <c r="BB88">
+        <v>4</v>
+      </c>
+      <c r="BC88">
+        <v>12</v>
+      </c>
+      <c r="BD88">
+        <v>1.41</v>
+      </c>
+      <c r="BE88">
+        <v>7</v>
+      </c>
+      <c r="BF88">
+        <v>3.3</v>
+      </c>
+      <c r="BG88">
+        <v>1.23</v>
+      </c>
+      <c r="BH88">
+        <v>3.65</v>
+      </c>
+      <c r="BI88">
+        <v>1.41</v>
+      </c>
+      <c r="BJ88">
+        <v>2.65</v>
+      </c>
+      <c r="BK88">
+        <v>1.67</v>
+      </c>
+      <c r="BL88">
+        <v>2.04</v>
+      </c>
+      <c r="BM88">
+        <v>2.06</v>
+      </c>
+      <c r="BN88">
+        <v>1.66</v>
+      </c>
+      <c r="BO88">
+        <v>2.55</v>
+      </c>
+      <c r="BP88">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="213">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,28 +442,34 @@
     <t>['66']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
     <t>['15', '43', '51']</t>
   </si>
   <si>
     <t>['9', '18', '20', '32', '61', '66', '69']</t>
   </si>
   <si>
-    <t>['28']</t>
-  </si>
-  <si>
     <t>['30', '65']</t>
   </si>
   <si>
     <t>['11', '12', '45', '66']</t>
   </si>
   <si>
+    <t>['89']</t>
+  </si>
+  <si>
     <t>['36', '89']</t>
   </si>
   <si>
     <t>['36', '45+3', '54']</t>
   </si>
   <si>
-    <t>['89']</t>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['86', '90']</t>
   </si>
   <si>
     <t>['12', '38', '90+11']</t>
@@ -625,10 +631,13 @@
     <t>['14']</t>
   </si>
   <si>
+    <t>['20', '90+3']</t>
+  </si>
+  <si>
     <t>['35', '51']</t>
   </si>
   <si>
-    <t>['20', '90+3']</t>
+    <t>['18']</t>
   </si>
   <si>
     <t>['22']</t>
@@ -640,7 +649,10 @@
     <t>['40']</t>
   </si>
   <si>
-    <t>['18']</t>
+    <t>['3', '42', '90']</t>
+  </si>
+  <si>
+    <t>['45', '55', '62']</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1261,7 +1273,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1673,7 +1685,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1879,7 +1891,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2085,7 +2097,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2163,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ6">
         <v>2</v>
@@ -2291,7 +2303,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2578,7 +2590,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2703,7 +2715,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2909,7 +2921,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3321,7 +3333,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3399,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3527,7 +3539,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3608,7 +3620,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ13">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3733,7 +3745,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -3814,7 +3826,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3939,7 +3951,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4351,7 +4363,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4635,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ18">
         <v>0.25</v>
@@ -4969,7 +4981,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5381,7 +5393,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5587,7 +5599,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q23">
         <v>2.25</v>
@@ -5793,7 +5805,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5874,7 +5886,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.03</v>
@@ -5999,7 +6011,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6205,7 +6217,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6411,7 +6423,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6489,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ27">
         <v>1.2</v>
@@ -6617,7 +6629,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6823,7 +6835,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6901,7 +6913,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -7029,7 +7041,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7107,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ30">
         <v>1.4</v>
@@ -7235,7 +7247,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -7441,7 +7453,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7522,7 +7534,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR32">
         <v>1.36</v>
@@ -7647,7 +7659,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8059,7 +8071,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8140,7 +8152,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ35">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>2.58</v>
@@ -8265,7 +8277,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8343,7 +8355,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ36">
         <v>0.2</v>
@@ -8677,7 +8689,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9089,7 +9101,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9295,7 +9307,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9501,7 +9513,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -9913,7 +9925,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10119,7 +10131,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10200,7 +10212,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ45">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR45">
         <v>1</v>
@@ -10325,7 +10337,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10609,7 +10621,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10737,7 +10749,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -10943,7 +10955,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11149,7 +11161,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11355,7 +11367,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11436,7 +11448,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -11561,7 +11573,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11845,7 +11857,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ53">
         <v>2</v>
@@ -11973,7 +11985,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12179,7 +12191,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12257,10 +12269,10 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ55">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR55">
         <v>2.29</v>
@@ -12385,7 +12397,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12591,7 +12603,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -12672,7 +12684,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR57">
         <v>2.44</v>
@@ -13003,7 +13015,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13209,7 +13221,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -13415,7 +13427,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13827,7 +13839,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14033,7 +14045,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14239,7 +14251,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14445,7 +14457,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14523,7 +14535,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ66">
         <v>0.2</v>
@@ -14732,7 +14744,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ67">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR67">
         <v>1.52</v>
@@ -14857,7 +14869,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15063,7 +15075,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q69">
         <v>1.8</v>
@@ -15141,7 +15153,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ69">
         <v>0.4</v>
@@ -15269,7 +15281,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15475,7 +15487,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15681,7 +15693,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15762,7 +15774,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ72">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR72">
         <v>1.22</v>
@@ -15965,10 +15977,10 @@
         <v>0.33</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR73">
         <v>1.3</v>
@@ -16257,7 +16269,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7491887</v>
+        <v>7491894</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16269,31 +16281,31 @@
         <v>45598.47916666666</v>
       </c>
       <c r="F75">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O75" t="s">
         <v>142</v>
@@ -16302,160 +16314,160 @@
         <v>96</v>
       </c>
       <c r="Q75">
-        <v>1.57</v>
+        <v>3.25</v>
       </c>
       <c r="R75">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="S75">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="T75">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="U75">
+        <v>3.25</v>
+      </c>
+      <c r="V75">
+        <v>2.63</v>
+      </c>
+      <c r="W75">
+        <v>1.44</v>
+      </c>
+      <c r="X75">
+        <v>6.5</v>
+      </c>
+      <c r="Y75">
+        <v>1.11</v>
+      </c>
+      <c r="Z75">
+        <v>2.42</v>
+      </c>
+      <c r="AA75">
+        <v>3.4</v>
+      </c>
+      <c r="AB75">
+        <v>2.55</v>
+      </c>
+      <c r="AC75">
+        <v>1.04</v>
+      </c>
+      <c r="AD75">
+        <v>13</v>
+      </c>
+      <c r="AE75">
+        <v>1.25</v>
+      </c>
+      <c r="AF75">
         <v>4</v>
       </c>
-      <c r="V75">
-        <v>2</v>
-      </c>
-      <c r="W75">
-        <v>1.73</v>
-      </c>
-      <c r="X75">
-        <v>4.33</v>
-      </c>
-      <c r="Y75">
+      <c r="AG75">
+        <v>1.61</v>
+      </c>
+      <c r="AH75">
+        <v>2.18</v>
+      </c>
+      <c r="AI75">
+        <v>1.62</v>
+      </c>
+      <c r="AJ75">
+        <v>2.2</v>
+      </c>
+      <c r="AK75">
+        <v>1.55</v>
+      </c>
+      <c r="AL75">
+        <v>1.25</v>
+      </c>
+      <c r="AM75">
+        <v>1.48</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>1.5</v>
+      </c>
+      <c r="AP75">
+        <v>0.6</v>
+      </c>
+      <c r="AQ75">
         <v>1.2</v>
       </c>
-      <c r="Z75">
-        <v>1.18</v>
-      </c>
-      <c r="AA75">
-        <v>6.2</v>
-      </c>
-      <c r="AB75">
-        <v>11</v>
-      </c>
-      <c r="AC75">
-        <v>1.01</v>
-      </c>
-      <c r="AD75">
-        <v>27.5</v>
-      </c>
-      <c r="AE75">
-        <v>1.11</v>
-      </c>
-      <c r="AF75">
-        <v>6.5</v>
-      </c>
-      <c r="AG75">
-        <v>1.38</v>
-      </c>
-      <c r="AH75">
-        <v>2.9</v>
-      </c>
-      <c r="AI75">
-        <v>2</v>
-      </c>
-      <c r="AJ75">
-        <v>1.75</v>
-      </c>
-      <c r="AK75">
-        <v>1.03</v>
-      </c>
-      <c r="AL75">
-        <v>1.08</v>
-      </c>
-      <c r="AM75">
-        <v>4.5</v>
-      </c>
-      <c r="AN75">
-        <v>2.33</v>
-      </c>
-      <c r="AO75">
-        <v>1.25</v>
-      </c>
-      <c r="AP75">
-        <v>2.5</v>
-      </c>
-      <c r="AQ75">
-        <v>1</v>
-      </c>
       <c r="AR75">
-        <v>1.82</v>
+        <v>1.15</v>
       </c>
       <c r="AS75">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AT75">
-        <v>3</v>
+        <v>2.42</v>
       </c>
       <c r="AU75">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV75">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW75">
         <v>4</v>
       </c>
       <c r="AX75">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AY75">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ75">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="BA75">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC75">
         <v>11</v>
       </c>
       <c r="BD75">
-        <v>1.11</v>
+        <v>2.08</v>
       </c>
       <c r="BE75">
-        <v>10.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF75">
-        <v>6.5</v>
+        <v>1.92</v>
       </c>
       <c r="BG75">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="BH75">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="BI75">
+        <v>1.46</v>
+      </c>
+      <c r="BJ75">
+        <v>2.48</v>
+      </c>
+      <c r="BK75">
+        <v>1.74</v>
+      </c>
+      <c r="BL75">
+        <v>1.95</v>
+      </c>
+      <c r="BM75">
+        <v>2.17</v>
+      </c>
+      <c r="BN75">
+        <v>1.6</v>
+      </c>
+      <c r="BO75">
+        <v>2.8</v>
+      </c>
+      <c r="BP75">
         <v>1.37</v>
-      </c>
-      <c r="BJ75">
-        <v>2.8</v>
-      </c>
-      <c r="BK75">
-        <v>1.61</v>
-      </c>
-      <c r="BL75">
-        <v>2.15</v>
-      </c>
-      <c r="BM75">
-        <v>1.96</v>
-      </c>
-      <c r="BN75">
-        <v>1.74</v>
-      </c>
-      <c r="BO75">
-        <v>2.43</v>
-      </c>
-      <c r="BP75">
-        <v>1.48</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16463,7 +16475,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7491889</v>
+        <v>7491892</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16478,190 +16490,190 @@
         <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H76" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>108</v>
+      </c>
+      <c r="P76" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q76">
+        <v>2.5</v>
+      </c>
+      <c r="R76">
+        <v>2.38</v>
+      </c>
+      <c r="S76">
+        <v>3.75</v>
+      </c>
+      <c r="T76">
+        <v>1.3</v>
+      </c>
+      <c r="U76">
+        <v>3.4</v>
+      </c>
+      <c r="V76">
+        <v>2.38</v>
+      </c>
+      <c r="W76">
+        <v>1.53</v>
+      </c>
+      <c r="X76">
+        <v>6</v>
+      </c>
+      <c r="Y76">
+        <v>1.13</v>
+      </c>
+      <c r="Z76">
+        <v>1.97</v>
+      </c>
+      <c r="AA76">
+        <v>3.57</v>
+      </c>
+      <c r="AB76">
+        <v>3.2</v>
+      </c>
+      <c r="AC76">
+        <v>1.03</v>
+      </c>
+      <c r="AD76">
+        <v>17</v>
+      </c>
+      <c r="AE76">
+        <v>1.2</v>
+      </c>
+      <c r="AF76">
+        <v>4.5</v>
+      </c>
+      <c r="AG76">
+        <v>1.62</v>
+      </c>
+      <c r="AH76">
+        <v>2.17</v>
+      </c>
+      <c r="AI76">
+        <v>1.57</v>
+      </c>
+      <c r="AJ76">
+        <v>2.25</v>
+      </c>
+      <c r="AK76">
+        <v>1.32</v>
+      </c>
+      <c r="AL76">
+        <v>1.22</v>
+      </c>
+      <c r="AM76">
+        <v>1.85</v>
+      </c>
+      <c r="AN76">
+        <v>0.25</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>0.4</v>
+      </c>
+      <c r="AQ76">
+        <v>0.25</v>
+      </c>
+      <c r="AR76">
+        <v>1.14</v>
+      </c>
+      <c r="AS76">
+        <v>1.11</v>
+      </c>
+      <c r="AT76">
+        <v>2.25</v>
+      </c>
+      <c r="AU76">
+        <v>7</v>
+      </c>
+      <c r="AV76">
+        <v>2</v>
+      </c>
+      <c r="AW76">
         <v>5</v>
       </c>
-      <c r="L76">
-        <v>7</v>
-      </c>
-      <c r="M76">
-        <v>2</v>
-      </c>
-      <c r="N76">
-        <v>9</v>
-      </c>
-      <c r="O76" t="s">
-        <v>143</v>
-      </c>
-      <c r="P76" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q76">
-        <v>1.73</v>
-      </c>
-      <c r="R76">
-        <v>2.88</v>
-      </c>
-      <c r="S76">
-        <v>6.5</v>
-      </c>
-      <c r="T76">
-        <v>1.2</v>
-      </c>
-      <c r="U76">
-        <v>4.33</v>
-      </c>
-      <c r="V76">
-        <v>1.91</v>
-      </c>
-      <c r="W76">
-        <v>1.8</v>
-      </c>
-      <c r="X76">
-        <v>4</v>
-      </c>
-      <c r="Y76">
-        <v>1.22</v>
-      </c>
-      <c r="Z76">
-        <v>1.3</v>
-      </c>
-      <c r="AA76">
-        <v>5.15</v>
-      </c>
-      <c r="AB76">
-        <v>7.5</v>
-      </c>
-      <c r="AC76">
-        <v>1.01</v>
-      </c>
-      <c r="AD76">
-        <v>31.5</v>
-      </c>
-      <c r="AE76">
-        <v>1.1</v>
-      </c>
-      <c r="AF76">
-        <v>7</v>
-      </c>
-      <c r="AG76">
-        <v>1.37</v>
-      </c>
-      <c r="AH76">
-        <v>2.94</v>
-      </c>
-      <c r="AI76">
-        <v>1.62</v>
-      </c>
-      <c r="AJ76">
-        <v>2.2</v>
-      </c>
-      <c r="AK76">
-        <v>1.05</v>
-      </c>
-      <c r="AL76">
-        <v>1.1</v>
-      </c>
-      <c r="AM76">
-        <v>3.5</v>
-      </c>
-      <c r="AN76">
-        <v>2.33</v>
-      </c>
-      <c r="AO76">
-        <v>0</v>
-      </c>
-      <c r="AP76">
-        <v>2.5</v>
-      </c>
-      <c r="AQ76">
-        <v>0</v>
-      </c>
-      <c r="AR76">
-        <v>1.42</v>
-      </c>
-      <c r="AS76">
-        <v>1.14</v>
-      </c>
-      <c r="AT76">
-        <v>2.56</v>
-      </c>
-      <c r="AU76">
-        <v>10</v>
-      </c>
-      <c r="AV76">
-        <v>9</v>
-      </c>
-      <c r="AW76">
-        <v>3</v>
-      </c>
       <c r="AX76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY76">
         <v>19</v>
       </c>
       <c r="AZ76">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BA76">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC76">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD76">
+        <v>1.65</v>
+      </c>
+      <c r="BE76">
+        <v>6.75</v>
+      </c>
+      <c r="BF76">
+        <v>2.48</v>
+      </c>
+      <c r="BG76">
         <v>1.29</v>
       </c>
-      <c r="BE76">
-        <v>7.5</v>
-      </c>
-      <c r="BF76">
-        <v>3.9</v>
-      </c>
-      <c r="BG76">
-        <v>1.2</v>
-      </c>
       <c r="BH76">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="BI76">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="BJ76">
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
       <c r="BK76">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="BL76">
-        <v>2.15</v>
+        <v>1.86</v>
       </c>
       <c r="BM76">
-        <v>1.96</v>
+        <v>2.3</v>
       </c>
       <c r="BN76">
-        <v>1.74</v>
+        <v>1.54</v>
       </c>
       <c r="BO76">
-        <v>2.43</v>
+        <v>2.95</v>
       </c>
       <c r="BP76">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16711,7 +16723,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -16875,7 +16887,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7491894</v>
+        <v>7491887</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16887,193 +16899,193 @@
         <v>45598.47916666666</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H78" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P78" t="s">
         <v>96</v>
       </c>
       <c r="Q78">
-        <v>3.25</v>
+        <v>1.57</v>
       </c>
       <c r="R78">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="S78">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="T78">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="U78">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="V78">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="X78">
+        <v>4.33</v>
+      </c>
+      <c r="Y78">
+        <v>1.2</v>
+      </c>
+      <c r="Z78">
+        <v>1.18</v>
+      </c>
+      <c r="AA78">
+        <v>6.2</v>
+      </c>
+      <c r="AB78">
+        <v>11</v>
+      </c>
+      <c r="AC78">
+        <v>1.01</v>
+      </c>
+      <c r="AD78">
+        <v>27.5</v>
+      </c>
+      <c r="AE78">
+        <v>1.11</v>
+      </c>
+      <c r="AF78">
         <v>6.5</v>
       </c>
-      <c r="Y78">
-        <v>1.11</v>
-      </c>
-      <c r="Z78">
-        <v>2.42</v>
-      </c>
-      <c r="AA78">
-        <v>3.4</v>
-      </c>
-      <c r="AB78">
-        <v>2.55</v>
-      </c>
-      <c r="AC78">
-        <v>1.04</v>
-      </c>
-      <c r="AD78">
-        <v>13</v>
-      </c>
-      <c r="AE78">
+      <c r="AG78">
+        <v>1.38</v>
+      </c>
+      <c r="AH78">
+        <v>2.9</v>
+      </c>
+      <c r="AI78">
+        <v>2</v>
+      </c>
+      <c r="AJ78">
+        <v>1.75</v>
+      </c>
+      <c r="AK78">
+        <v>1.03</v>
+      </c>
+      <c r="AL78">
+        <v>1.08</v>
+      </c>
+      <c r="AM78">
+        <v>4.5</v>
+      </c>
+      <c r="AN78">
+        <v>2.33</v>
+      </c>
+      <c r="AO78">
         <v>1.25</v>
       </c>
-      <c r="AF78">
-        <v>4</v>
-      </c>
-      <c r="AG78">
-        <v>1.61</v>
-      </c>
-      <c r="AH78">
-        <v>2.18</v>
-      </c>
-      <c r="AI78">
-        <v>1.62</v>
-      </c>
-      <c r="AJ78">
-        <v>2.2</v>
-      </c>
-      <c r="AK78">
-        <v>1.55</v>
-      </c>
-      <c r="AL78">
-        <v>1.25</v>
-      </c>
-      <c r="AM78">
-        <v>1.48</v>
-      </c>
-      <c r="AN78">
-        <v>0</v>
-      </c>
-      <c r="AO78">
-        <v>1.5</v>
-      </c>
       <c r="AP78">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="AQ78">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR78">
-        <v>1.15</v>
+        <v>1.82</v>
       </c>
       <c r="AS78">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="AT78">
-        <v>2.42</v>
+        <v>3</v>
       </c>
       <c r="AU78">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV78">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW78">
         <v>4</v>
       </c>
       <c r="AX78">
+        <v>3</v>
+      </c>
+      <c r="AY78">
+        <v>17</v>
+      </c>
+      <c r="AZ78">
         <v>9</v>
       </c>
-      <c r="AY78">
-        <v>12</v>
-      </c>
-      <c r="AZ78">
-        <v>19</v>
-      </c>
       <c r="BA78">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB78">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC78">
         <v>11</v>
       </c>
       <c r="BD78">
-        <v>2.08</v>
+        <v>1.11</v>
       </c>
       <c r="BE78">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="BF78">
-        <v>1.92</v>
+        <v>6.5</v>
       </c>
       <c r="BG78">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="BH78">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="BI78">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="BJ78">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="BK78">
+        <v>1.61</v>
+      </c>
+      <c r="BL78">
+        <v>2.15</v>
+      </c>
+      <c r="BM78">
+        <v>1.96</v>
+      </c>
+      <c r="BN78">
         <v>1.74</v>
       </c>
-      <c r="BL78">
-        <v>1.95</v>
-      </c>
-      <c r="BM78">
-        <v>2.17</v>
-      </c>
-      <c r="BN78">
-        <v>1.6</v>
-      </c>
       <c r="BO78">
-        <v>2.8</v>
+        <v>2.43</v>
       </c>
       <c r="BP78">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17081,7 +17093,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7491892</v>
+        <v>7491889</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17096,190 +17108,190 @@
         <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H79" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O79" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="Q79">
+        <v>1.73</v>
+      </c>
+      <c r="R79">
+        <v>2.88</v>
+      </c>
+      <c r="S79">
+        <v>6.5</v>
+      </c>
+      <c r="T79">
+        <v>1.2</v>
+      </c>
+      <c r="U79">
+        <v>4.33</v>
+      </c>
+      <c r="V79">
+        <v>1.91</v>
+      </c>
+      <c r="W79">
+        <v>1.8</v>
+      </c>
+      <c r="X79">
+        <v>4</v>
+      </c>
+      <c r="Y79">
+        <v>1.22</v>
+      </c>
+      <c r="Z79">
+        <v>1.3</v>
+      </c>
+      <c r="AA79">
+        <v>5.15</v>
+      </c>
+      <c r="AB79">
+        <v>7.5</v>
+      </c>
+      <c r="AC79">
+        <v>1.01</v>
+      </c>
+      <c r="AD79">
+        <v>31.5</v>
+      </c>
+      <c r="AE79">
+        <v>1.1</v>
+      </c>
+      <c r="AF79">
+        <v>7</v>
+      </c>
+      <c r="AG79">
+        <v>1.37</v>
+      </c>
+      <c r="AH79">
+        <v>2.94</v>
+      </c>
+      <c r="AI79">
+        <v>1.62</v>
+      </c>
+      <c r="AJ79">
+        <v>2.2</v>
+      </c>
+      <c r="AK79">
+        <v>1.05</v>
+      </c>
+      <c r="AL79">
+        <v>1.1</v>
+      </c>
+      <c r="AM79">
+        <v>3.5</v>
+      </c>
+      <c r="AN79">
+        <v>2.33</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
         <v>2.5</v>
       </c>
-      <c r="R79">
-        <v>2.38</v>
-      </c>
-      <c r="S79">
-        <v>3.75</v>
-      </c>
-      <c r="T79">
-        <v>1.3</v>
-      </c>
-      <c r="U79">
-        <v>3.4</v>
-      </c>
-      <c r="V79">
-        <v>2.38</v>
-      </c>
-      <c r="W79">
-        <v>1.53</v>
-      </c>
-      <c r="X79">
-        <v>6</v>
-      </c>
-      <c r="Y79">
-        <v>1.13</v>
-      </c>
-      <c r="Z79">
-        <v>1.97</v>
-      </c>
-      <c r="AA79">
-        <v>3.57</v>
-      </c>
-      <c r="AB79">
-        <v>3.2</v>
-      </c>
-      <c r="AC79">
-        <v>1.03</v>
-      </c>
-      <c r="AD79">
-        <v>17</v>
-      </c>
-      <c r="AE79">
-        <v>1.2</v>
-      </c>
-      <c r="AF79">
-        <v>4.5</v>
-      </c>
-      <c r="AG79">
-        <v>1.62</v>
-      </c>
-      <c r="AH79">
-        <v>2.17</v>
-      </c>
-      <c r="AI79">
-        <v>1.57</v>
-      </c>
-      <c r="AJ79">
-        <v>2.25</v>
-      </c>
-      <c r="AK79">
-        <v>1.32</v>
-      </c>
-      <c r="AL79">
-        <v>1.22</v>
-      </c>
-      <c r="AM79">
-        <v>1.85</v>
-      </c>
-      <c r="AN79">
-        <v>0.25</v>
-      </c>
-      <c r="AO79">
-        <v>0</v>
-      </c>
-      <c r="AP79">
-        <v>0.4</v>
-      </c>
       <c r="AQ79">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR79">
+        <v>1.42</v>
+      </c>
+      <c r="AS79">
         <v>1.14</v>
       </c>
-      <c r="AS79">
-        <v>1.11</v>
-      </c>
       <c r="AT79">
-        <v>2.25</v>
+        <v>2.56</v>
       </c>
       <c r="AU79">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV79">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AW79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY79">
         <v>19</v>
       </c>
       <c r="AZ79">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BA79">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BB79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC79">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD79">
-        <v>1.65</v>
+        <v>1.29</v>
       </c>
       <c r="BE79">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF79">
-        <v>2.48</v>
+        <v>3.9</v>
       </c>
       <c r="BG79">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="BH79">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="BI79">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="BJ79">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="BK79">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="BL79">
-        <v>1.86</v>
+        <v>2.15</v>
       </c>
       <c r="BM79">
-        <v>2.3</v>
+        <v>1.96</v>
       </c>
       <c r="BN79">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
       <c r="BO79">
-        <v>2.95</v>
+        <v>2.43</v>
       </c>
       <c r="BP79">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17741,7 +17753,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q82">
         <v>2.6</v>
@@ -17914,7 +17926,7 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45603.875</v>
+        <v>45604.6875</v>
       </c>
       <c r="F83">
         <v>10</v>
@@ -18111,7 +18123,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7491903</v>
+        <v>7491902</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18126,10 +18138,10 @@
         <v>10</v>
       </c>
       <c r="G84" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H84" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -18141,82 +18153,82 @@
         <v>1</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84">
         <v>1</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O84" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q84">
+        <v>7</v>
+      </c>
+      <c r="R84">
+        <v>3</v>
+      </c>
+      <c r="S84">
+        <v>1.62</v>
+      </c>
+      <c r="T84">
+        <v>1.17</v>
+      </c>
+      <c r="U84">
+        <v>5</v>
+      </c>
+      <c r="V84">
+        <v>1.83</v>
+      </c>
+      <c r="W84">
+        <v>1.83</v>
+      </c>
+      <c r="X84">
+        <v>3.75</v>
+      </c>
+      <c r="Y84">
+        <v>1.25</v>
+      </c>
+      <c r="Z84">
+        <v>9.5</v>
+      </c>
+      <c r="AA84">
+        <v>6</v>
+      </c>
+      <c r="AB84">
+        <v>1.22</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>1.08</v>
+      </c>
+      <c r="AF84">
         <v>8</v>
       </c>
-      <c r="R84">
-        <v>2.88</v>
-      </c>
-      <c r="S84">
-        <v>1.67</v>
-      </c>
-      <c r="T84">
-        <v>1.22</v>
-      </c>
-      <c r="U84">
-        <v>4</v>
-      </c>
-      <c r="V84">
-        <v>2</v>
-      </c>
-      <c r="W84">
-        <v>1.73</v>
-      </c>
-      <c r="X84">
-        <v>4.33</v>
-      </c>
-      <c r="Y84">
-        <v>1.2</v>
-      </c>
-      <c r="Z84">
-        <v>11</v>
-      </c>
-      <c r="AA84">
-        <v>6.5</v>
-      </c>
-      <c r="AB84">
-        <v>1.18</v>
-      </c>
-      <c r="AC84">
-        <v>0</v>
-      </c>
-      <c r="AD84">
-        <v>0</v>
-      </c>
-      <c r="AE84">
-        <v>1.12</v>
-      </c>
-      <c r="AF84">
-        <v>6.5</v>
-      </c>
       <c r="AG84">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AH84">
-        <v>2.9</v>
+        <v>3.47</v>
       </c>
       <c r="AI84">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AJ84">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AK84">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AL84">
         <v>1.09</v>
@@ -18225,91 +18237,91 @@
         <v>1.02</v>
       </c>
       <c r="AN84">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO84">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AP84">
         <v>0.4</v>
       </c>
       <c r="AQ84">
-        <v>2.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR84">
-        <v>1.49</v>
+        <v>1.27</v>
       </c>
       <c r="AS84">
-        <v>2.32</v>
+        <v>1.72</v>
       </c>
       <c r="AT84">
-        <v>3.81</v>
+        <v>2.99</v>
       </c>
       <c r="AU84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV84">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW84">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX84">
         <v>4</v>
       </c>
       <c r="AY84">
+        <v>16</v>
+      </c>
+      <c r="AZ84">
+        <v>12</v>
+      </c>
+      <c r="BA84">
+        <v>6</v>
+      </c>
+      <c r="BB84">
         <v>4</v>
       </c>
-      <c r="AZ84">
-        <v>14</v>
-      </c>
-      <c r="BA84">
-        <v>5</v>
-      </c>
-      <c r="BB84">
+      <c r="BC84">
         <v>10</v>
       </c>
-      <c r="BC84">
-        <v>15</v>
-      </c>
       <c r="BD84">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="BE84">
         <v>8.5</v>
       </c>
       <c r="BF84">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="BG84">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="BH84">
-        <v>2.9</v>
+        <v>3.65</v>
       </c>
       <c r="BI84">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="BJ84">
-        <v>2.18</v>
+        <v>2.65</v>
       </c>
       <c r="BK84">
-        <v>1.96</v>
+        <v>1.67</v>
       </c>
       <c r="BL84">
-        <v>1.73</v>
+        <v>2.04</v>
       </c>
       <c r="BM84">
-        <v>2.48</v>
+        <v>2.06</v>
       </c>
       <c r="BN84">
-        <v>1.46</v>
+        <v>1.66</v>
       </c>
       <c r="BO84">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="BP84">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18317,7 +18329,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7491898</v>
+        <v>7491903</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18332,190 +18344,190 @@
         <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H85" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
       <c r="L85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M85">
         <v>1</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O85" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q85">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="R85">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="S85">
-        <v>4.75</v>
+        <v>1.67</v>
       </c>
       <c r="T85">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U85">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V85">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X85">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Y85">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Z85">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="AA85">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB85">
-        <v>5.5</v>
+        <v>1.18</v>
       </c>
       <c r="AC85">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD85">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AE85">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AF85">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG85">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AH85">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AI85">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="AJ85">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="AK85">
-        <v>1.17</v>
+        <v>4</v>
       </c>
       <c r="AL85">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="AM85">
-        <v>2.4</v>
+        <v>1.02</v>
       </c>
       <c r="AN85">
         <v>0.5</v>
       </c>
       <c r="AO85">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AQ85">
-        <v>0.4</v>
+        <v>2.67</v>
       </c>
       <c r="AR85">
-        <v>0.97</v>
+        <v>1.49</v>
       </c>
       <c r="AS85">
-        <v>1.24</v>
+        <v>2.32</v>
       </c>
       <c r="AT85">
-        <v>2.21</v>
+        <v>3.81</v>
       </c>
       <c r="AU85">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AV85">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW85">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY85">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AZ85">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA85">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB85">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BC85">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BD85">
-        <v>1.41</v>
+        <v>4.8</v>
       </c>
       <c r="BE85">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BF85">
+        <v>1.21</v>
+      </c>
+      <c r="BG85">
+        <v>1.35</v>
+      </c>
+      <c r="BH85">
+        <v>2.9</v>
+      </c>
+      <c r="BI85">
+        <v>1.58</v>
+      </c>
+      <c r="BJ85">
+        <v>2.18</v>
+      </c>
+      <c r="BK85">
+        <v>1.96</v>
+      </c>
+      <c r="BL85">
+        <v>1.73</v>
+      </c>
+      <c r="BM85">
+        <v>2.48</v>
+      </c>
+      <c r="BN85">
+        <v>1.46</v>
+      </c>
+      <c r="BO85">
         <v>3.2</v>
       </c>
-      <c r="BG85">
-        <v>1.22</v>
-      </c>
-      <c r="BH85">
-        <v>3.7</v>
-      </c>
-      <c r="BI85">
-        <v>1.38</v>
-      </c>
-      <c r="BJ85">
-        <v>2.7</v>
-      </c>
-      <c r="BK85">
-        <v>1.65</v>
-      </c>
-      <c r="BL85">
-        <v>2.08</v>
-      </c>
-      <c r="BM85">
-        <v>2</v>
-      </c>
-      <c r="BN85">
-        <v>1.71</v>
-      </c>
-      <c r="BO85">
-        <v>2.48</v>
-      </c>
       <c r="BP85">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18523,7 +18535,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7491900</v>
+        <v>7491898</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18535,190 +18547,190 @@
         <v>45605.47916666666</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H86" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M86">
         <v>1</v>
       </c>
       <c r="N86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O86" t="s">
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q86">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="R86">
+        <v>2.6</v>
+      </c>
+      <c r="S86">
+        <v>4.75</v>
+      </c>
+      <c r="T86">
+        <v>1.25</v>
+      </c>
+      <c r="U86">
+        <v>3.75</v>
+      </c>
+      <c r="V86">
+        <v>2.1</v>
+      </c>
+      <c r="W86">
+        <v>1.67</v>
+      </c>
+      <c r="X86">
+        <v>5</v>
+      </c>
+      <c r="Y86">
+        <v>1.17</v>
+      </c>
+      <c r="Z86">
+        <v>1.5</v>
+      </c>
+      <c r="AA86">
+        <v>4.5</v>
+      </c>
+      <c r="AB86">
+        <v>5.5</v>
+      </c>
+      <c r="AC86">
+        <v>1.01</v>
+      </c>
+      <c r="AD86">
+        <v>23</v>
+      </c>
+      <c r="AE86">
+        <v>1.14</v>
+      </c>
+      <c r="AF86">
+        <v>6</v>
+      </c>
+      <c r="AG86">
+        <v>1.43</v>
+      </c>
+      <c r="AH86">
+        <v>2.7</v>
+      </c>
+      <c r="AI86">
+        <v>1.53</v>
+      </c>
+      <c r="AJ86">
         <v>2.38</v>
       </c>
-      <c r="S86">
-        <v>2.6</v>
-      </c>
-      <c r="T86">
-        <v>1.29</v>
-      </c>
-      <c r="U86">
-        <v>3.5</v>
-      </c>
-      <c r="V86">
-        <v>2.38</v>
-      </c>
-      <c r="W86">
-        <v>1.53</v>
-      </c>
-      <c r="X86">
-        <v>5.5</v>
-      </c>
-      <c r="Y86">
-        <v>1.14</v>
-      </c>
-      <c r="Z86">
-        <v>3.25</v>
-      </c>
-      <c r="AA86">
+      <c r="AK86">
+        <v>1.17</v>
+      </c>
+      <c r="AL86">
+        <v>1.17</v>
+      </c>
+      <c r="AM86">
+        <v>2.4</v>
+      </c>
+      <c r="AN86">
+        <v>0.5</v>
+      </c>
+      <c r="AO86">
+        <v>0.5</v>
+      </c>
+      <c r="AP86">
+        <v>1</v>
+      </c>
+      <c r="AQ86">
+        <v>0.4</v>
+      </c>
+      <c r="AR86">
+        <v>0.97</v>
+      </c>
+      <c r="AS86">
+        <v>1.24</v>
+      </c>
+      <c r="AT86">
+        <v>2.21</v>
+      </c>
+      <c r="AU86">
+        <v>6</v>
+      </c>
+      <c r="AV86">
+        <v>6</v>
+      </c>
+      <c r="AW86">
+        <v>7</v>
+      </c>
+      <c r="AX86">
+        <v>3</v>
+      </c>
+      <c r="AY86">
+        <v>17</v>
+      </c>
+      <c r="AZ86">
+        <v>13</v>
+      </c>
+      <c r="BA86">
+        <v>6</v>
+      </c>
+      <c r="BB86">
+        <v>3</v>
+      </c>
+      <c r="BC86">
+        <v>9</v>
+      </c>
+      <c r="BD86">
+        <v>1.41</v>
+      </c>
+      <c r="BE86">
+        <v>7</v>
+      </c>
+      <c r="BF86">
+        <v>3.2</v>
+      </c>
+      <c r="BG86">
+        <v>1.22</v>
+      </c>
+      <c r="BH86">
         <v>3.7</v>
       </c>
-      <c r="AB86">
-        <v>2</v>
-      </c>
-      <c r="AC86">
-        <v>1.02</v>
-      </c>
-      <c r="AD86">
-        <v>19</v>
-      </c>
-      <c r="AE86">
-        <v>1.18</v>
-      </c>
-      <c r="AF86">
-        <v>5</v>
-      </c>
-      <c r="AG86">
-        <v>1.57</v>
-      </c>
-      <c r="AH86">
-        <v>2.31</v>
-      </c>
-      <c r="AI86">
-        <v>1.5</v>
-      </c>
-      <c r="AJ86">
-        <v>2.5</v>
-      </c>
-      <c r="AK86">
-        <v>1.78</v>
-      </c>
-      <c r="AL86">
-        <v>1.22</v>
-      </c>
-      <c r="AM86">
-        <v>1.35</v>
-      </c>
-      <c r="AN86">
-        <v>0.4</v>
-      </c>
-      <c r="AO86">
-        <v>0.25</v>
-      </c>
-      <c r="AP86">
-        <v>0.83</v>
-      </c>
-      <c r="AQ86">
-        <v>0.2</v>
-      </c>
-      <c r="AR86">
-        <v>1.34</v>
-      </c>
-      <c r="AS86">
-        <v>1.1</v>
-      </c>
-      <c r="AT86">
-        <v>2.44</v>
-      </c>
-      <c r="AU86">
-        <v>10</v>
-      </c>
-      <c r="AV86">
-        <v>2</v>
-      </c>
-      <c r="AW86">
-        <v>4</v>
-      </c>
-      <c r="AX86">
-        <v>1</v>
-      </c>
-      <c r="AY86">
-        <v>15</v>
-      </c>
-      <c r="AZ86">
-        <v>3</v>
-      </c>
-      <c r="BA86">
-        <v>8</v>
-      </c>
-      <c r="BB86">
-        <v>0</v>
-      </c>
-      <c r="BC86">
-        <v>8</v>
-      </c>
-      <c r="BD86">
-        <v>2.12</v>
-      </c>
-      <c r="BE86">
-        <v>6.5</v>
-      </c>
-      <c r="BF86">
-        <v>1.86</v>
-      </c>
-      <c r="BG86">
-        <v>1.21</v>
-      </c>
-      <c r="BH86">
-        <v>3.8</v>
-      </c>
       <c r="BI86">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="BJ86">
         <v>2.7</v>
       </c>
       <c r="BK86">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="BL86">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="BM86">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BN86">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="BO86">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="BP86">
         <v>1.46</v>
@@ -18729,7 +18741,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7491902</v>
+        <v>7491900</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18744,190 +18756,190 @@
         <v>10</v>
       </c>
       <c r="G87" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H87" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M87">
         <v>1</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O87" t="s">
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q87">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="R87">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="S87">
-        <v>1.62</v>
+        <v>2.6</v>
       </c>
       <c r="T87">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="U87">
+        <v>3.5</v>
+      </c>
+      <c r="V87">
+        <v>2.38</v>
+      </c>
+      <c r="W87">
+        <v>1.53</v>
+      </c>
+      <c r="X87">
+        <v>5.5</v>
+      </c>
+      <c r="Y87">
+        <v>1.14</v>
+      </c>
+      <c r="Z87">
+        <v>3.25</v>
+      </c>
+      <c r="AA87">
+        <v>3.7</v>
+      </c>
+      <c r="AB87">
+        <v>2</v>
+      </c>
+      <c r="AC87">
+        <v>1.02</v>
+      </c>
+      <c r="AD87">
+        <v>19</v>
+      </c>
+      <c r="AE87">
+        <v>1.18</v>
+      </c>
+      <c r="AF87">
         <v>5</v>
       </c>
-      <c r="V87">
-        <v>1.83</v>
-      </c>
-      <c r="W87">
-        <v>1.83</v>
-      </c>
-      <c r="X87">
-        <v>3.75</v>
-      </c>
-      <c r="Y87">
-        <v>1.25</v>
-      </c>
-      <c r="Z87">
-        <v>9.5</v>
-      </c>
-      <c r="AA87">
-        <v>6</v>
-      </c>
-      <c r="AB87">
+      <c r="AG87">
+        <v>1.57</v>
+      </c>
+      <c r="AH87">
+        <v>2.31</v>
+      </c>
+      <c r="AI87">
+        <v>1.5</v>
+      </c>
+      <c r="AJ87">
+        <v>2.5</v>
+      </c>
+      <c r="AK87">
+        <v>1.78</v>
+      </c>
+      <c r="AL87">
         <v>1.22</v>
       </c>
-      <c r="AC87">
-        <v>0</v>
-      </c>
-      <c r="AD87">
-        <v>0</v>
-      </c>
-      <c r="AE87">
-        <v>1.08</v>
-      </c>
-      <c r="AF87">
+      <c r="AM87">
+        <v>1.35</v>
+      </c>
+      <c r="AN87">
+        <v>0.4</v>
+      </c>
+      <c r="AO87">
+        <v>0.25</v>
+      </c>
+      <c r="AP87">
+        <v>0.83</v>
+      </c>
+      <c r="AQ87">
+        <v>0.2</v>
+      </c>
+      <c r="AR87">
+        <v>1.34</v>
+      </c>
+      <c r="AS87">
+        <v>1.1</v>
+      </c>
+      <c r="AT87">
+        <v>2.44</v>
+      </c>
+      <c r="AU87">
+        <v>10</v>
+      </c>
+      <c r="AV87">
+        <v>2</v>
+      </c>
+      <c r="AW87">
+        <v>4</v>
+      </c>
+      <c r="AX87">
+        <v>1</v>
+      </c>
+      <c r="AY87">
+        <v>15</v>
+      </c>
+      <c r="AZ87">
+        <v>3</v>
+      </c>
+      <c r="BA87">
         <v>8</v>
       </c>
-      <c r="AG87">
-        <v>1.28</v>
-      </c>
-      <c r="AH87">
-        <v>3.47</v>
-      </c>
-      <c r="AI87">
-        <v>1.62</v>
-      </c>
-      <c r="AJ87">
-        <v>2.2</v>
-      </c>
-      <c r="AK87">
-        <v>3.75</v>
-      </c>
-      <c r="AL87">
-        <v>1.09</v>
-      </c>
-      <c r="AM87">
-        <v>1.02</v>
-      </c>
-      <c r="AN87">
-        <v>0.25</v>
-      </c>
-      <c r="AO87">
-        <v>2</v>
-      </c>
-      <c r="AP87">
-        <v>0.4</v>
-      </c>
-      <c r="AQ87">
-        <v>1.8</v>
-      </c>
-      <c r="AR87">
-        <v>1.27</v>
-      </c>
-      <c r="AS87">
+      <c r="BB87">
+        <v>0</v>
+      </c>
+      <c r="BC87">
+        <v>8</v>
+      </c>
+      <c r="BD87">
+        <v>2.12</v>
+      </c>
+      <c r="BE87">
+        <v>6.5</v>
+      </c>
+      <c r="BF87">
+        <v>1.86</v>
+      </c>
+      <c r="BG87">
+        <v>1.21</v>
+      </c>
+      <c r="BH87">
+        <v>3.8</v>
+      </c>
+      <c r="BI87">
+        <v>1.4</v>
+      </c>
+      <c r="BJ87">
+        <v>2.7</v>
+      </c>
+      <c r="BK87">
+        <v>1.64</v>
+      </c>
+      <c r="BL87">
+        <v>2.1</v>
+      </c>
+      <c r="BM87">
+        <v>1.98</v>
+      </c>
+      <c r="BN87">
         <v>1.72</v>
       </c>
-      <c r="AT87">
-        <v>2.99</v>
-      </c>
-      <c r="AU87">
-        <v>4</v>
-      </c>
-      <c r="AV87">
-        <v>4</v>
-      </c>
-      <c r="AW87">
-        <v>6</v>
-      </c>
-      <c r="AX87">
-        <v>4</v>
-      </c>
-      <c r="AY87">
-        <v>16</v>
-      </c>
-      <c r="AZ87">
-        <v>12</v>
-      </c>
-      <c r="BA87">
-        <v>6</v>
-      </c>
-      <c r="BB87">
-        <v>4</v>
-      </c>
-      <c r="BC87">
-        <v>10</v>
-      </c>
-      <c r="BD87">
-        <v>4.4</v>
-      </c>
-      <c r="BE87">
-        <v>8.5</v>
-      </c>
-      <c r="BF87">
-        <v>1.23</v>
-      </c>
-      <c r="BG87">
-        <v>1.23</v>
-      </c>
-      <c r="BH87">
-        <v>3.65</v>
-      </c>
-      <c r="BI87">
-        <v>1.41</v>
-      </c>
-      <c r="BJ87">
-        <v>2.65</v>
-      </c>
-      <c r="BK87">
-        <v>1.67</v>
-      </c>
-      <c r="BL87">
-        <v>2.04</v>
-      </c>
-      <c r="BM87">
-        <v>2.06</v>
-      </c>
-      <c r="BN87">
-        <v>1.66</v>
-      </c>
       <c r="BO87">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="BP87">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -18947,7 +18959,7 @@
         <v>45605.60416666666</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G88" t="s">
         <v>71</v>
@@ -19134,6 +19146,624 @@
       </c>
       <c r="BP88">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7491897</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>86</v>
+      </c>
+      <c r="H89" t="s">
+        <v>77</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>2</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89" t="s">
+        <v>150</v>
+      </c>
+      <c r="P89" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q89">
+        <v>3.25</v>
+      </c>
+      <c r="R89">
+        <v>2.2</v>
+      </c>
+      <c r="S89">
+        <v>3.2</v>
+      </c>
+      <c r="T89">
+        <v>1.4</v>
+      </c>
+      <c r="U89">
+        <v>2.75</v>
+      </c>
+      <c r="V89">
+        <v>2.75</v>
+      </c>
+      <c r="W89">
+        <v>1.4</v>
+      </c>
+      <c r="X89">
+        <v>8</v>
+      </c>
+      <c r="Y89">
+        <v>1.08</v>
+      </c>
+      <c r="Z89">
+        <v>2.87</v>
+      </c>
+      <c r="AA89">
+        <v>3.25</v>
+      </c>
+      <c r="AB89">
+        <v>2.57</v>
+      </c>
+      <c r="AC89">
+        <v>1.05</v>
+      </c>
+      <c r="AD89">
+        <v>11</v>
+      </c>
+      <c r="AE89">
+        <v>1.3</v>
+      </c>
+      <c r="AF89">
+        <v>3.6</v>
+      </c>
+      <c r="AG89">
+        <v>1.87</v>
+      </c>
+      <c r="AH89">
+        <v>1.87</v>
+      </c>
+      <c r="AI89">
+        <v>1.7</v>
+      </c>
+      <c r="AJ89">
+        <v>2.05</v>
+      </c>
+      <c r="AK89">
+        <v>1.52</v>
+      </c>
+      <c r="AL89">
+        <v>1.28</v>
+      </c>
+      <c r="AM89">
+        <v>1.5</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
+        <v>1.75</v>
+      </c>
+      <c r="AP89">
+        <v>0.8</v>
+      </c>
+      <c r="AQ89">
+        <v>2</v>
+      </c>
+      <c r="AR89">
+        <v>1.38</v>
+      </c>
+      <c r="AS89">
+        <v>1.3</v>
+      </c>
+      <c r="AT89">
+        <v>2.68</v>
+      </c>
+      <c r="AU89">
+        <v>5</v>
+      </c>
+      <c r="AV89">
+        <v>7</v>
+      </c>
+      <c r="AW89">
+        <v>7</v>
+      </c>
+      <c r="AX89">
+        <v>3</v>
+      </c>
+      <c r="AY89">
+        <v>20</v>
+      </c>
+      <c r="AZ89">
+        <v>15</v>
+      </c>
+      <c r="BA89">
+        <v>5</v>
+      </c>
+      <c r="BB89">
+        <v>5</v>
+      </c>
+      <c r="BC89">
+        <v>10</v>
+      </c>
+      <c r="BD89">
+        <v>1.9</v>
+      </c>
+      <c r="BE89">
+        <v>6.4</v>
+      </c>
+      <c r="BF89">
+        <v>2.08</v>
+      </c>
+      <c r="BG89">
+        <v>1.28</v>
+      </c>
+      <c r="BH89">
+        <v>3.3</v>
+      </c>
+      <c r="BI89">
+        <v>1.48</v>
+      </c>
+      <c r="BJ89">
+        <v>2.43</v>
+      </c>
+      <c r="BK89">
+        <v>1.77</v>
+      </c>
+      <c r="BL89">
+        <v>1.92</v>
+      </c>
+      <c r="BM89">
+        <v>2.2</v>
+      </c>
+      <c r="BN89">
+        <v>1.57</v>
+      </c>
+      <c r="BO89">
+        <v>2.85</v>
+      </c>
+      <c r="BP89">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7491895</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>80</v>
+      </c>
+      <c r="H90" t="s">
+        <v>82</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+      <c r="N90">
+        <v>5</v>
+      </c>
+      <c r="O90" t="s">
+        <v>151</v>
+      </c>
+      <c r="P90" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q90">
+        <v>2.3</v>
+      </c>
+      <c r="R90">
+        <v>2.5</v>
+      </c>
+      <c r="S90">
+        <v>4</v>
+      </c>
+      <c r="T90">
+        <v>1.25</v>
+      </c>
+      <c r="U90">
+        <v>3.75</v>
+      </c>
+      <c r="V90">
+        <v>2.1</v>
+      </c>
+      <c r="W90">
+        <v>1.67</v>
+      </c>
+      <c r="X90">
+        <v>4.5</v>
+      </c>
+      <c r="Y90">
+        <v>1.18</v>
+      </c>
+      <c r="Z90">
+        <v>1.8</v>
+      </c>
+      <c r="AA90">
+        <v>4.1</v>
+      </c>
+      <c r="AB90">
+        <v>3.8</v>
+      </c>
+      <c r="AC90">
+        <v>1.01</v>
+      </c>
+      <c r="AD90">
+        <v>17</v>
+      </c>
+      <c r="AE90">
+        <v>1.14</v>
+      </c>
+      <c r="AF90">
+        <v>6</v>
+      </c>
+      <c r="AG90">
+        <v>1.44</v>
+      </c>
+      <c r="AH90">
+        <v>2.75</v>
+      </c>
+      <c r="AI90">
+        <v>1.44</v>
+      </c>
+      <c r="AJ90">
+        <v>2.63</v>
+      </c>
+      <c r="AK90">
+        <v>1.26</v>
+      </c>
+      <c r="AL90">
+        <v>1.2</v>
+      </c>
+      <c r="AM90">
+        <v>2.05</v>
+      </c>
+      <c r="AN90">
+        <v>2</v>
+      </c>
+      <c r="AO90">
+        <v>1.4</v>
+      </c>
+      <c r="AP90">
+        <v>1.6</v>
+      </c>
+      <c r="AQ90">
+        <v>1.67</v>
+      </c>
+      <c r="AR90">
+        <v>2.13</v>
+      </c>
+      <c r="AS90">
+        <v>1.36</v>
+      </c>
+      <c r="AT90">
+        <v>3.49</v>
+      </c>
+      <c r="AU90">
+        <v>13</v>
+      </c>
+      <c r="AV90">
+        <v>6</v>
+      </c>
+      <c r="AW90">
+        <v>5</v>
+      </c>
+      <c r="AX90">
+        <v>3</v>
+      </c>
+      <c r="AY90">
+        <v>24</v>
+      </c>
+      <c r="AZ90">
+        <v>10</v>
+      </c>
+      <c r="BA90">
+        <v>8</v>
+      </c>
+      <c r="BB90">
+        <v>3</v>
+      </c>
+      <c r="BC90">
+        <v>11</v>
+      </c>
+      <c r="BD90">
+        <v>1.52</v>
+      </c>
+      <c r="BE90">
+        <v>6.75</v>
+      </c>
+      <c r="BF90">
+        <v>2.8</v>
+      </c>
+      <c r="BG90">
+        <v>1.26</v>
+      </c>
+      <c r="BH90">
+        <v>3.4</v>
+      </c>
+      <c r="BI90">
+        <v>1.47</v>
+      </c>
+      <c r="BJ90">
+        <v>2.48</v>
+      </c>
+      <c r="BK90">
+        <v>1.75</v>
+      </c>
+      <c r="BL90">
+        <v>1.95</v>
+      </c>
+      <c r="BM90">
+        <v>2.18</v>
+      </c>
+      <c r="BN90">
+        <v>1.58</v>
+      </c>
+      <c r="BO90">
+        <v>2.8</v>
+      </c>
+      <c r="BP90">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7491899</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>74</v>
+      </c>
+      <c r="H91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91" t="s">
+        <v>96</v>
+      </c>
+      <c r="P91" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q91">
+        <v>2.63</v>
+      </c>
+      <c r="R91">
+        <v>2.4</v>
+      </c>
+      <c r="S91">
+        <v>3.5</v>
+      </c>
+      <c r="T91">
+        <v>1.29</v>
+      </c>
+      <c r="U91">
+        <v>3.5</v>
+      </c>
+      <c r="V91">
+        <v>2.25</v>
+      </c>
+      <c r="W91">
+        <v>1.57</v>
+      </c>
+      <c r="X91">
+        <v>5.5</v>
+      </c>
+      <c r="Y91">
+        <v>1.14</v>
+      </c>
+      <c r="Z91">
+        <v>1.64</v>
+      </c>
+      <c r="AA91">
+        <v>3.73</v>
+      </c>
+      <c r="AB91">
+        <v>4.32</v>
+      </c>
+      <c r="AC91">
+        <v>1.02</v>
+      </c>
+      <c r="AD91">
+        <v>19</v>
+      </c>
+      <c r="AE91">
+        <v>1.18</v>
+      </c>
+      <c r="AF91">
+        <v>5</v>
+      </c>
+      <c r="AG91">
+        <v>1.52</v>
+      </c>
+      <c r="AH91">
+        <v>2.43</v>
+      </c>
+      <c r="AI91">
+        <v>1.5</v>
+      </c>
+      <c r="AJ91">
+        <v>2.5</v>
+      </c>
+      <c r="AK91">
+        <v>1.36</v>
+      </c>
+      <c r="AL91">
+        <v>1.22</v>
+      </c>
+      <c r="AM91">
+        <v>1.75</v>
+      </c>
+      <c r="AN91">
+        <v>2</v>
+      </c>
+      <c r="AO91">
+        <v>0.5</v>
+      </c>
+      <c r="AP91">
+        <v>1.83</v>
+      </c>
+      <c r="AQ91">
+        <v>0.6</v>
+      </c>
+      <c r="AR91">
+        <v>1.8</v>
+      </c>
+      <c r="AS91">
+        <v>1.12</v>
+      </c>
+      <c r="AT91">
+        <v>2.92</v>
+      </c>
+      <c r="AU91">
+        <v>5</v>
+      </c>
+      <c r="AV91">
+        <v>3</v>
+      </c>
+      <c r="AW91">
+        <v>5</v>
+      </c>
+      <c r="AX91">
+        <v>4</v>
+      </c>
+      <c r="AY91">
+        <v>17</v>
+      </c>
+      <c r="AZ91">
+        <v>12</v>
+      </c>
+      <c r="BA91">
+        <v>10</v>
+      </c>
+      <c r="BB91">
+        <v>6</v>
+      </c>
+      <c r="BC91">
+        <v>16</v>
+      </c>
+      <c r="BD91">
+        <v>1.63</v>
+      </c>
+      <c r="BE91">
+        <v>6.5</v>
+      </c>
+      <c r="BF91">
+        <v>2.55</v>
+      </c>
+      <c r="BG91">
+        <v>1.26</v>
+      </c>
+      <c r="BH91">
+        <v>3.4</v>
+      </c>
+      <c r="BI91">
+        <v>1.46</v>
+      </c>
+      <c r="BJ91">
+        <v>2.5</v>
+      </c>
+      <c r="BK91">
+        <v>1.74</v>
+      </c>
+      <c r="BL91">
+        <v>1.96</v>
+      </c>
+      <c r="BM91">
+        <v>2.15</v>
+      </c>
+      <c r="BN91">
+        <v>1.61</v>
+      </c>
+      <c r="BO91">
+        <v>2.7</v>
+      </c>
+      <c r="BP91">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -442,36 +442,36 @@
     <t>['66']</t>
   </si>
   <si>
+    <t>['15', '43', '51']</t>
+  </si>
+  <si>
+    <t>['9', '18', '20', '32', '61', '66', '69']</t>
+  </si>
+  <si>
     <t>['28']</t>
   </si>
   <si>
-    <t>['15', '43', '51']</t>
-  </si>
-  <si>
-    <t>['9', '18', '20', '32', '61', '66', '69']</t>
-  </si>
-  <si>
     <t>['30', '65']</t>
   </si>
   <si>
     <t>['11', '12', '45', '66']</t>
   </si>
   <si>
+    <t>['36', '89']</t>
+  </si>
+  <si>
+    <t>['36', '45+3', '54']</t>
+  </si>
+  <si>
     <t>['89']</t>
   </si>
   <si>
-    <t>['36', '89']</t>
-  </si>
-  <si>
-    <t>['36', '45+3', '54']</t>
+    <t>['86', '90']</t>
   </si>
   <si>
     <t>['64']</t>
   </si>
   <si>
-    <t>['86', '90']</t>
-  </si>
-  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -631,28 +631,28 @@
     <t>['14']</t>
   </si>
   <si>
+    <t>['35', '51']</t>
+  </si>
+  <si>
     <t>['20', '90+3']</t>
   </si>
   <si>
-    <t>['35', '51']</t>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['40']</t>
   </si>
   <si>
     <t>['18']</t>
   </si>
   <si>
-    <t>['22']</t>
-  </si>
-  <si>
-    <t>['48']</t>
-  </si>
-  <si>
-    <t>['40']</t>
+    <t>['45', '55', '62']</t>
   </si>
   <si>
     <t>['3', '42', '90']</t>
-  </si>
-  <si>
-    <t>['45', '55', '62']</t>
   </si>
 </sst>
 </file>
@@ -16269,7 +16269,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7491894</v>
+        <v>7491887</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16281,31 +16281,31 @@
         <v>45598.47916666666</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O75" t="s">
         <v>142</v>
@@ -16314,160 +16314,160 @@
         <v>96</v>
       </c>
       <c r="Q75">
-        <v>3.25</v>
+        <v>1.57</v>
       </c>
       <c r="R75">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="S75">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="T75">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="U75">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="V75">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="W75">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="X75">
+        <v>4.33</v>
+      </c>
+      <c r="Y75">
+        <v>1.2</v>
+      </c>
+      <c r="Z75">
+        <v>1.18</v>
+      </c>
+      <c r="AA75">
+        <v>6.2</v>
+      </c>
+      <c r="AB75">
+        <v>11</v>
+      </c>
+      <c r="AC75">
+        <v>1.01</v>
+      </c>
+      <c r="AD75">
+        <v>27.5</v>
+      </c>
+      <c r="AE75">
+        <v>1.11</v>
+      </c>
+      <c r="AF75">
         <v>6.5</v>
       </c>
-      <c r="Y75">
-        <v>1.11</v>
-      </c>
-      <c r="Z75">
-        <v>2.42</v>
-      </c>
-      <c r="AA75">
-        <v>3.4</v>
-      </c>
-      <c r="AB75">
-        <v>2.55</v>
-      </c>
-      <c r="AC75">
-        <v>1.04</v>
-      </c>
-      <c r="AD75">
-        <v>13</v>
-      </c>
-      <c r="AE75">
+      <c r="AG75">
+        <v>1.38</v>
+      </c>
+      <c r="AH75">
+        <v>2.9</v>
+      </c>
+      <c r="AI75">
+        <v>2</v>
+      </c>
+      <c r="AJ75">
+        <v>1.75</v>
+      </c>
+      <c r="AK75">
+        <v>1.03</v>
+      </c>
+      <c r="AL75">
+        <v>1.08</v>
+      </c>
+      <c r="AM75">
+        <v>4.5</v>
+      </c>
+      <c r="AN75">
+        <v>2.33</v>
+      </c>
+      <c r="AO75">
         <v>1.25</v>
       </c>
-      <c r="AF75">
-        <v>4</v>
-      </c>
-      <c r="AG75">
-        <v>1.61</v>
-      </c>
-      <c r="AH75">
-        <v>2.18</v>
-      </c>
-      <c r="AI75">
-        <v>1.62</v>
-      </c>
-      <c r="AJ75">
-        <v>2.2</v>
-      </c>
-      <c r="AK75">
-        <v>1.55</v>
-      </c>
-      <c r="AL75">
-        <v>1.25</v>
-      </c>
-      <c r="AM75">
-        <v>1.48</v>
-      </c>
-      <c r="AN75">
-        <v>0</v>
-      </c>
-      <c r="AO75">
-        <v>1.5</v>
-      </c>
       <c r="AP75">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="AQ75">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR75">
-        <v>1.15</v>
+        <v>1.82</v>
       </c>
       <c r="AS75">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="AT75">
-        <v>2.42</v>
+        <v>3</v>
       </c>
       <c r="AU75">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV75">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW75">
         <v>4</v>
       </c>
       <c r="AX75">
+        <v>3</v>
+      </c>
+      <c r="AY75">
+        <v>17</v>
+      </c>
+      <c r="AZ75">
         <v>9</v>
       </c>
-      <c r="AY75">
-        <v>12</v>
-      </c>
-      <c r="AZ75">
-        <v>19</v>
-      </c>
       <c r="BA75">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC75">
         <v>11</v>
       </c>
       <c r="BD75">
-        <v>2.08</v>
+        <v>1.11</v>
       </c>
       <c r="BE75">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="BF75">
-        <v>1.92</v>
+        <v>6.5</v>
       </c>
       <c r="BG75">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="BH75">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="BI75">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="BJ75">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="BK75">
+        <v>1.61</v>
+      </c>
+      <c r="BL75">
+        <v>2.15</v>
+      </c>
+      <c r="BM75">
+        <v>1.96</v>
+      </c>
+      <c r="BN75">
         <v>1.74</v>
       </c>
-      <c r="BL75">
-        <v>1.95</v>
-      </c>
-      <c r="BM75">
-        <v>2.17</v>
-      </c>
-      <c r="BN75">
-        <v>1.6</v>
-      </c>
       <c r="BO75">
-        <v>2.8</v>
+        <v>2.43</v>
       </c>
       <c r="BP75">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16475,7 +16475,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7491892</v>
+        <v>7491889</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16490,190 +16490,190 @@
         <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H76" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N76">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O76" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="Q76">
+        <v>1.73</v>
+      </c>
+      <c r="R76">
+        <v>2.88</v>
+      </c>
+      <c r="S76">
+        <v>6.5</v>
+      </c>
+      <c r="T76">
+        <v>1.2</v>
+      </c>
+      <c r="U76">
+        <v>4.33</v>
+      </c>
+      <c r="V76">
+        <v>1.91</v>
+      </c>
+      <c r="W76">
+        <v>1.8</v>
+      </c>
+      <c r="X76">
+        <v>4</v>
+      </c>
+      <c r="Y76">
+        <v>1.22</v>
+      </c>
+      <c r="Z76">
+        <v>1.3</v>
+      </c>
+      <c r="AA76">
+        <v>5.15</v>
+      </c>
+      <c r="AB76">
+        <v>7.5</v>
+      </c>
+      <c r="AC76">
+        <v>1.01</v>
+      </c>
+      <c r="AD76">
+        <v>31.5</v>
+      </c>
+      <c r="AE76">
+        <v>1.1</v>
+      </c>
+      <c r="AF76">
+        <v>7</v>
+      </c>
+      <c r="AG76">
+        <v>1.37</v>
+      </c>
+      <c r="AH76">
+        <v>2.94</v>
+      </c>
+      <c r="AI76">
+        <v>1.62</v>
+      </c>
+      <c r="AJ76">
+        <v>2.2</v>
+      </c>
+      <c r="AK76">
+        <v>1.05</v>
+      </c>
+      <c r="AL76">
+        <v>1.1</v>
+      </c>
+      <c r="AM76">
+        <v>3.5</v>
+      </c>
+      <c r="AN76">
+        <v>2.33</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
         <v>2.5</v>
       </c>
-      <c r="R76">
-        <v>2.38</v>
-      </c>
-      <c r="S76">
-        <v>3.75</v>
-      </c>
-      <c r="T76">
-        <v>1.3</v>
-      </c>
-      <c r="U76">
-        <v>3.4</v>
-      </c>
-      <c r="V76">
-        <v>2.38</v>
-      </c>
-      <c r="W76">
-        <v>1.53</v>
-      </c>
-      <c r="X76">
-        <v>6</v>
-      </c>
-      <c r="Y76">
-        <v>1.13</v>
-      </c>
-      <c r="Z76">
-        <v>1.97</v>
-      </c>
-      <c r="AA76">
-        <v>3.57</v>
-      </c>
-      <c r="AB76">
-        <v>3.2</v>
-      </c>
-      <c r="AC76">
-        <v>1.03</v>
-      </c>
-      <c r="AD76">
-        <v>17</v>
-      </c>
-      <c r="AE76">
-        <v>1.2</v>
-      </c>
-      <c r="AF76">
-        <v>4.5</v>
-      </c>
-      <c r="AG76">
-        <v>1.62</v>
-      </c>
-      <c r="AH76">
-        <v>2.17</v>
-      </c>
-      <c r="AI76">
-        <v>1.57</v>
-      </c>
-      <c r="AJ76">
-        <v>2.25</v>
-      </c>
-      <c r="AK76">
-        <v>1.32</v>
-      </c>
-      <c r="AL76">
-        <v>1.22</v>
-      </c>
-      <c r="AM76">
-        <v>1.85</v>
-      </c>
-      <c r="AN76">
-        <v>0.25</v>
-      </c>
-      <c r="AO76">
-        <v>0</v>
-      </c>
-      <c r="AP76">
-        <v>0.4</v>
-      </c>
       <c r="AQ76">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR76">
+        <v>1.42</v>
+      </c>
+      <c r="AS76">
         <v>1.14</v>
       </c>
-      <c r="AS76">
-        <v>1.11</v>
-      </c>
       <c r="AT76">
-        <v>2.25</v>
+        <v>2.56</v>
       </c>
       <c r="AU76">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV76">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AW76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY76">
         <v>19</v>
       </c>
       <c r="AZ76">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BA76">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BB76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC76">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD76">
-        <v>1.65</v>
+        <v>1.29</v>
       </c>
       <c r="BE76">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF76">
-        <v>2.48</v>
+        <v>3.9</v>
       </c>
       <c r="BG76">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="BH76">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="BI76">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="BJ76">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="BK76">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="BL76">
-        <v>1.86</v>
+        <v>2.15</v>
       </c>
       <c r="BM76">
-        <v>2.3</v>
+        <v>1.96</v>
       </c>
       <c r="BN76">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
       <c r="BO76">
-        <v>2.95</v>
+        <v>2.43</v>
       </c>
       <c r="BP76">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16723,7 +16723,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -16887,7 +16887,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7491887</v>
+        <v>7491894</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16899,193 +16899,193 @@
         <v>45598.47916666666</v>
       </c>
       <c r="F78">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H78" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P78" t="s">
         <v>96</v>
       </c>
       <c r="Q78">
-        <v>1.57</v>
+        <v>3.25</v>
       </c>
       <c r="R78">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="S78">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="T78">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="U78">
+        <v>3.25</v>
+      </c>
+      <c r="V78">
+        <v>2.63</v>
+      </c>
+      <c r="W78">
+        <v>1.44</v>
+      </c>
+      <c r="X78">
+        <v>6.5</v>
+      </c>
+      <c r="Y78">
+        <v>1.11</v>
+      </c>
+      <c r="Z78">
+        <v>2.42</v>
+      </c>
+      <c r="AA78">
+        <v>3.4</v>
+      </c>
+      <c r="AB78">
+        <v>2.55</v>
+      </c>
+      <c r="AC78">
+        <v>1.04</v>
+      </c>
+      <c r="AD78">
+        <v>13</v>
+      </c>
+      <c r="AE78">
+        <v>1.25</v>
+      </c>
+      <c r="AF78">
         <v>4</v>
       </c>
-      <c r="V78">
-        <v>2</v>
-      </c>
-      <c r="W78">
-        <v>1.73</v>
-      </c>
-      <c r="X78">
-        <v>4.33</v>
-      </c>
-      <c r="Y78">
+      <c r="AG78">
+        <v>1.61</v>
+      </c>
+      <c r="AH78">
+        <v>2.18</v>
+      </c>
+      <c r="AI78">
+        <v>1.62</v>
+      </c>
+      <c r="AJ78">
+        <v>2.2</v>
+      </c>
+      <c r="AK78">
+        <v>1.55</v>
+      </c>
+      <c r="AL78">
+        <v>1.25</v>
+      </c>
+      <c r="AM78">
+        <v>1.48</v>
+      </c>
+      <c r="AN78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>1.5</v>
+      </c>
+      <c r="AP78">
+        <v>0.6</v>
+      </c>
+      <c r="AQ78">
         <v>1.2</v>
       </c>
-      <c r="Z78">
-        <v>1.18</v>
-      </c>
-      <c r="AA78">
-        <v>6.2</v>
-      </c>
-      <c r="AB78">
-        <v>11</v>
-      </c>
-      <c r="AC78">
-        <v>1.01</v>
-      </c>
-      <c r="AD78">
-        <v>27.5</v>
-      </c>
-      <c r="AE78">
-        <v>1.11</v>
-      </c>
-      <c r="AF78">
-        <v>6.5</v>
-      </c>
-      <c r="AG78">
-        <v>1.38</v>
-      </c>
-      <c r="AH78">
-        <v>2.9</v>
-      </c>
-      <c r="AI78">
-        <v>2</v>
-      </c>
-      <c r="AJ78">
-        <v>1.75</v>
-      </c>
-      <c r="AK78">
-        <v>1.03</v>
-      </c>
-      <c r="AL78">
-        <v>1.08</v>
-      </c>
-      <c r="AM78">
-        <v>4.5</v>
-      </c>
-      <c r="AN78">
-        <v>2.33</v>
-      </c>
-      <c r="AO78">
-        <v>1.25</v>
-      </c>
-      <c r="AP78">
-        <v>2.5</v>
-      </c>
-      <c r="AQ78">
-        <v>1</v>
-      </c>
       <c r="AR78">
-        <v>1.82</v>
+        <v>1.15</v>
       </c>
       <c r="AS78">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AT78">
-        <v>3</v>
+        <v>2.42</v>
       </c>
       <c r="AU78">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV78">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW78">
         <v>4</v>
       </c>
       <c r="AX78">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AY78">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ78">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="BA78">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB78">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC78">
         <v>11</v>
       </c>
       <c r="BD78">
-        <v>1.11</v>
+        <v>2.08</v>
       </c>
       <c r="BE78">
-        <v>10.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF78">
-        <v>6.5</v>
+        <v>1.92</v>
       </c>
       <c r="BG78">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="BH78">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="BI78">
+        <v>1.46</v>
+      </c>
+      <c r="BJ78">
+        <v>2.48</v>
+      </c>
+      <c r="BK78">
+        <v>1.74</v>
+      </c>
+      <c r="BL78">
+        <v>1.95</v>
+      </c>
+      <c r="BM78">
+        <v>2.17</v>
+      </c>
+      <c r="BN78">
+        <v>1.6</v>
+      </c>
+      <c r="BO78">
+        <v>2.8</v>
+      </c>
+      <c r="BP78">
         <v>1.37</v>
-      </c>
-      <c r="BJ78">
-        <v>2.8</v>
-      </c>
-      <c r="BK78">
-        <v>1.61</v>
-      </c>
-      <c r="BL78">
-        <v>2.15</v>
-      </c>
-      <c r="BM78">
-        <v>1.96</v>
-      </c>
-      <c r="BN78">
-        <v>1.74</v>
-      </c>
-      <c r="BO78">
-        <v>2.43</v>
-      </c>
-      <c r="BP78">
-        <v>1.48</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17093,7 +17093,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7491889</v>
+        <v>7491892</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17108,190 +17108,190 @@
         <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H79" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+      <c r="O79" t="s">
+        <v>108</v>
+      </c>
+      <c r="P79" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q79">
+        <v>2.5</v>
+      </c>
+      <c r="R79">
+        <v>2.38</v>
+      </c>
+      <c r="S79">
+        <v>3.75</v>
+      </c>
+      <c r="T79">
+        <v>1.3</v>
+      </c>
+      <c r="U79">
+        <v>3.4</v>
+      </c>
+      <c r="V79">
+        <v>2.38</v>
+      </c>
+      <c r="W79">
+        <v>1.53</v>
+      </c>
+      <c r="X79">
+        <v>6</v>
+      </c>
+      <c r="Y79">
+        <v>1.13</v>
+      </c>
+      <c r="Z79">
+        <v>1.97</v>
+      </c>
+      <c r="AA79">
+        <v>3.57</v>
+      </c>
+      <c r="AB79">
+        <v>3.2</v>
+      </c>
+      <c r="AC79">
+        <v>1.03</v>
+      </c>
+      <c r="AD79">
+        <v>17</v>
+      </c>
+      <c r="AE79">
+        <v>1.2</v>
+      </c>
+      <c r="AF79">
+        <v>4.5</v>
+      </c>
+      <c r="AG79">
+        <v>1.62</v>
+      </c>
+      <c r="AH79">
+        <v>2.17</v>
+      </c>
+      <c r="AI79">
+        <v>1.57</v>
+      </c>
+      <c r="AJ79">
+        <v>2.25</v>
+      </c>
+      <c r="AK79">
+        <v>1.32</v>
+      </c>
+      <c r="AL79">
+        <v>1.22</v>
+      </c>
+      <c r="AM79">
+        <v>1.85</v>
+      </c>
+      <c r="AN79">
+        <v>0.25</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>0.4</v>
+      </c>
+      <c r="AQ79">
+        <v>0.25</v>
+      </c>
+      <c r="AR79">
+        <v>1.14</v>
+      </c>
+      <c r="AS79">
+        <v>1.11</v>
+      </c>
+      <c r="AT79">
+        <v>2.25</v>
+      </c>
+      <c r="AU79">
+        <v>7</v>
+      </c>
+      <c r="AV79">
+        <v>2</v>
+      </c>
+      <c r="AW79">
         <v>5</v>
       </c>
-      <c r="L79">
-        <v>7</v>
-      </c>
-      <c r="M79">
-        <v>2</v>
-      </c>
-      <c r="N79">
-        <v>9</v>
-      </c>
-      <c r="O79" t="s">
-        <v>144</v>
-      </c>
-      <c r="P79" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q79">
-        <v>1.73</v>
-      </c>
-      <c r="R79">
-        <v>2.88</v>
-      </c>
-      <c r="S79">
-        <v>6.5</v>
-      </c>
-      <c r="T79">
-        <v>1.2</v>
-      </c>
-      <c r="U79">
-        <v>4.33</v>
-      </c>
-      <c r="V79">
-        <v>1.91</v>
-      </c>
-      <c r="W79">
-        <v>1.8</v>
-      </c>
-      <c r="X79">
-        <v>4</v>
-      </c>
-      <c r="Y79">
-        <v>1.22</v>
-      </c>
-      <c r="Z79">
-        <v>1.3</v>
-      </c>
-      <c r="AA79">
-        <v>5.15</v>
-      </c>
-      <c r="AB79">
-        <v>7.5</v>
-      </c>
-      <c r="AC79">
-        <v>1.01</v>
-      </c>
-      <c r="AD79">
-        <v>31.5</v>
-      </c>
-      <c r="AE79">
-        <v>1.1</v>
-      </c>
-      <c r="AF79">
-        <v>7</v>
-      </c>
-      <c r="AG79">
-        <v>1.37</v>
-      </c>
-      <c r="AH79">
-        <v>2.94</v>
-      </c>
-      <c r="AI79">
-        <v>1.62</v>
-      </c>
-      <c r="AJ79">
-        <v>2.2</v>
-      </c>
-      <c r="AK79">
-        <v>1.05</v>
-      </c>
-      <c r="AL79">
-        <v>1.1</v>
-      </c>
-      <c r="AM79">
-        <v>3.5</v>
-      </c>
-      <c r="AN79">
-        <v>2.33</v>
-      </c>
-      <c r="AO79">
-        <v>0</v>
-      </c>
-      <c r="AP79">
-        <v>2.5</v>
-      </c>
-      <c r="AQ79">
-        <v>0</v>
-      </c>
-      <c r="AR79">
-        <v>1.42</v>
-      </c>
-      <c r="AS79">
-        <v>1.14</v>
-      </c>
-      <c r="AT79">
-        <v>2.56</v>
-      </c>
-      <c r="AU79">
-        <v>10</v>
-      </c>
-      <c r="AV79">
-        <v>9</v>
-      </c>
-      <c r="AW79">
-        <v>3</v>
-      </c>
       <c r="AX79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY79">
         <v>19</v>
       </c>
       <c r="AZ79">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BA79">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC79">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD79">
+        <v>1.65</v>
+      </c>
+      <c r="BE79">
+        <v>6.75</v>
+      </c>
+      <c r="BF79">
+        <v>2.48</v>
+      </c>
+      <c r="BG79">
         <v>1.29</v>
       </c>
-      <c r="BE79">
-        <v>7.5</v>
-      </c>
-      <c r="BF79">
-        <v>3.9</v>
-      </c>
-      <c r="BG79">
-        <v>1.2</v>
-      </c>
       <c r="BH79">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="BI79">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="BJ79">
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
       <c r="BK79">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="BL79">
-        <v>2.15</v>
+        <v>1.86</v>
       </c>
       <c r="BM79">
-        <v>1.96</v>
+        <v>2.3</v>
       </c>
       <c r="BN79">
-        <v>1.74</v>
+        <v>1.54</v>
       </c>
       <c r="BO79">
-        <v>2.43</v>
+        <v>2.95</v>
       </c>
       <c r="BP79">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -18123,7 +18123,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7491902</v>
+        <v>7491903</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18138,10 +18138,10 @@
         <v>10</v>
       </c>
       <c r="G84" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H84" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -18153,55 +18153,55 @@
         <v>1</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84">
         <v>1</v>
       </c>
       <c r="N84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O84" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="P84" t="s">
         <v>207</v>
       </c>
       <c r="Q84">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R84">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="S84">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T84">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="U84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V84">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W84">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="X84">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Y84">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Z84">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA84">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB84">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -18210,25 +18210,25 @@
         <v>0</v>
       </c>
       <c r="AE84">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AF84">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AG84">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AH84">
-        <v>3.47</v>
+        <v>2.9</v>
       </c>
       <c r="AI84">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AJ84">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AK84">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AL84">
         <v>1.09</v>
@@ -18237,91 +18237,91 @@
         <v>1.02</v>
       </c>
       <c r="AN84">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO84">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AP84">
         <v>0.4</v>
       </c>
       <c r="AQ84">
-        <v>1.8</v>
+        <v>2.67</v>
       </c>
       <c r="AR84">
-        <v>1.27</v>
+        <v>1.49</v>
       </c>
       <c r="AS84">
-        <v>1.72</v>
+        <v>2.32</v>
       </c>
       <c r="AT84">
-        <v>2.99</v>
+        <v>3.81</v>
       </c>
       <c r="AU84">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV84">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW84">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX84">
         <v>4</v>
       </c>
       <c r="AY84">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AZ84">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB84">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BC84">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BD84">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="BE84">
         <v>8.5</v>
       </c>
       <c r="BF84">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="BG84">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="BH84">
-        <v>3.65</v>
+        <v>2.9</v>
       </c>
       <c r="BI84">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="BJ84">
-        <v>2.65</v>
+        <v>2.18</v>
       </c>
       <c r="BK84">
-        <v>1.67</v>
+        <v>1.96</v>
       </c>
       <c r="BL84">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="BM84">
-        <v>2.06</v>
+        <v>2.48</v>
       </c>
       <c r="BN84">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="BO84">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="BP84">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18329,7 +18329,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7491903</v>
+        <v>7491898</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18341,193 +18341,193 @@
         <v>45605.47916666666</v>
       </c>
       <c r="F85">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H85" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M85">
         <v>1</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O85" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="P85" t="s">
         <v>208</v>
       </c>
       <c r="Q85">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="R85">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="S85">
+        <v>4.75</v>
+      </c>
+      <c r="T85">
+        <v>1.25</v>
+      </c>
+      <c r="U85">
+        <v>3.75</v>
+      </c>
+      <c r="V85">
+        <v>2.1</v>
+      </c>
+      <c r="W85">
         <v>1.67</v>
       </c>
-      <c r="T85">
-        <v>1.22</v>
-      </c>
-      <c r="U85">
-        <v>4</v>
-      </c>
-      <c r="V85">
-        <v>2</v>
-      </c>
-      <c r="W85">
-        <v>1.73</v>
-      </c>
       <c r="X85">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Y85">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="Z85">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="AA85">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AB85">
-        <v>1.18</v>
+        <v>5.5</v>
       </c>
       <c r="AC85">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD85">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE85">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AF85">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG85">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AH85">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AI85">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="AJ85">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="AK85">
-        <v>4</v>
+        <v>1.17</v>
       </c>
       <c r="AL85">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="AM85">
-        <v>1.02</v>
+        <v>2.4</v>
       </c>
       <c r="AN85">
         <v>0.5</v>
       </c>
       <c r="AO85">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="AP85">
+        <v>1</v>
+      </c>
+      <c r="AQ85">
         <v>0.4</v>
       </c>
-      <c r="AQ85">
-        <v>2.67</v>
-      </c>
       <c r="AR85">
-        <v>1.49</v>
+        <v>0.97</v>
       </c>
       <c r="AS85">
-        <v>2.32</v>
+        <v>1.24</v>
       </c>
       <c r="AT85">
-        <v>3.81</v>
+        <v>2.21</v>
       </c>
       <c r="AU85">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV85">
+        <v>6</v>
+      </c>
+      <c r="AW85">
         <v>7</v>
       </c>
-      <c r="AW85">
-        <v>3</v>
-      </c>
       <c r="AX85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY85">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AZ85">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB85">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BC85">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BD85">
-        <v>4.8</v>
+        <v>1.41</v>
       </c>
       <c r="BE85">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="BF85">
-        <v>1.21</v>
+        <v>3.2</v>
       </c>
       <c r="BG85">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="BH85">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="BI85">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="BJ85">
-        <v>2.18</v>
+        <v>2.7</v>
       </c>
       <c r="BK85">
-        <v>1.96</v>
+        <v>1.65</v>
       </c>
       <c r="BL85">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
       <c r="BM85">
+        <v>2</v>
+      </c>
+      <c r="BN85">
+        <v>1.71</v>
+      </c>
+      <c r="BO85">
         <v>2.48</v>
       </c>
-      <c r="BN85">
+      <c r="BP85">
         <v>1.46</v>
-      </c>
-      <c r="BO85">
-        <v>3.2</v>
-      </c>
-      <c r="BP85">
-        <v>1.28</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18535,7 +18535,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7491898</v>
+        <v>7491900</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18547,31 +18547,31 @@
         <v>45605.47916666666</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G86" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H86" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M86">
         <v>1</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O86" t="s">
         <v>148</v>
@@ -18580,157 +18580,157 @@
         <v>209</v>
       </c>
       <c r="Q86">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="R86">
+        <v>2.38</v>
+      </c>
+      <c r="S86">
         <v>2.6</v>
       </c>
-      <c r="S86">
-        <v>4.75</v>
-      </c>
       <c r="T86">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V86">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="W86">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="X86">
+        <v>5.5</v>
+      </c>
+      <c r="Y86">
+        <v>1.14</v>
+      </c>
+      <c r="Z86">
+        <v>3.25</v>
+      </c>
+      <c r="AA86">
+        <v>3.7</v>
+      </c>
+      <c r="AB86">
+        <v>2</v>
+      </c>
+      <c r="AC86">
+        <v>1.02</v>
+      </c>
+      <c r="AD86">
+        <v>19</v>
+      </c>
+      <c r="AE86">
+        <v>1.18</v>
+      </c>
+      <c r="AF86">
         <v>5</v>
       </c>
-      <c r="Y86">
-        <v>1.17</v>
-      </c>
-      <c r="Z86">
+      <c r="AG86">
+        <v>1.57</v>
+      </c>
+      <c r="AH86">
+        <v>2.31</v>
+      </c>
+      <c r="AI86">
         <v>1.5</v>
       </c>
-      <c r="AA86">
-        <v>4.5</v>
-      </c>
-      <c r="AB86">
-        <v>5.5</v>
-      </c>
-      <c r="AC86">
-        <v>1.01</v>
-      </c>
-      <c r="AD86">
-        <v>23</v>
-      </c>
-      <c r="AE86">
-        <v>1.14</v>
-      </c>
-      <c r="AF86">
-        <v>6</v>
-      </c>
-      <c r="AG86">
-        <v>1.43</v>
-      </c>
-      <c r="AH86">
-        <v>2.7</v>
-      </c>
-      <c r="AI86">
-        <v>1.53</v>
-      </c>
       <c r="AJ86">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AK86">
-        <v>1.17</v>
+        <v>1.78</v>
       </c>
       <c r="AL86">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AM86">
-        <v>2.4</v>
+        <v>1.35</v>
       </c>
       <c r="AN86">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO86">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ86">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AR86">
-        <v>0.97</v>
+        <v>1.34</v>
       </c>
       <c r="AS86">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="AT86">
-        <v>2.21</v>
+        <v>2.44</v>
       </c>
       <c r="AU86">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV86">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW86">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY86">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ86">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="BA86">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC86">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD86">
-        <v>1.41</v>
+        <v>2.12</v>
       </c>
       <c r="BE86">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF86">
-        <v>3.2</v>
+        <v>1.86</v>
       </c>
       <c r="BG86">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="BH86">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="BI86">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="BJ86">
         <v>2.7</v>
       </c>
       <c r="BK86">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="BL86">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="BM86">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BN86">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="BO86">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="BP86">
         <v>1.46</v>
@@ -18741,7 +18741,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7491900</v>
+        <v>7491902</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18756,28 +18756,28 @@
         <v>10</v>
       </c>
       <c r="G87" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H87" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M87">
         <v>1</v>
       </c>
       <c r="N87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O87" t="s">
         <v>149</v>
@@ -18786,160 +18786,160 @@
         <v>210</v>
       </c>
       <c r="Q87">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="R87">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="S87">
+        <v>1.62</v>
+      </c>
+      <c r="T87">
+        <v>1.17</v>
+      </c>
+      <c r="U87">
+        <v>5</v>
+      </c>
+      <c r="V87">
+        <v>1.83</v>
+      </c>
+      <c r="W87">
+        <v>1.83</v>
+      </c>
+      <c r="X87">
+        <v>3.75</v>
+      </c>
+      <c r="Y87">
+        <v>1.25</v>
+      </c>
+      <c r="Z87">
+        <v>9.5</v>
+      </c>
+      <c r="AA87">
+        <v>6</v>
+      </c>
+      <c r="AB87">
+        <v>1.22</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>1.08</v>
+      </c>
+      <c r="AF87">
+        <v>8</v>
+      </c>
+      <c r="AG87">
+        <v>1.28</v>
+      </c>
+      <c r="AH87">
+        <v>3.47</v>
+      </c>
+      <c r="AI87">
+        <v>1.62</v>
+      </c>
+      <c r="AJ87">
+        <v>2.2</v>
+      </c>
+      <c r="AK87">
+        <v>3.75</v>
+      </c>
+      <c r="AL87">
+        <v>1.09</v>
+      </c>
+      <c r="AM87">
+        <v>1.02</v>
+      </c>
+      <c r="AN87">
+        <v>0.25</v>
+      </c>
+      <c r="AO87">
+        <v>2</v>
+      </c>
+      <c r="AP87">
+        <v>0.4</v>
+      </c>
+      <c r="AQ87">
+        <v>1.8</v>
+      </c>
+      <c r="AR87">
+        <v>1.27</v>
+      </c>
+      <c r="AS87">
+        <v>1.72</v>
+      </c>
+      <c r="AT87">
+        <v>2.99</v>
+      </c>
+      <c r="AU87">
+        <v>4</v>
+      </c>
+      <c r="AV87">
+        <v>4</v>
+      </c>
+      <c r="AW87">
+        <v>6</v>
+      </c>
+      <c r="AX87">
+        <v>4</v>
+      </c>
+      <c r="AY87">
+        <v>16</v>
+      </c>
+      <c r="AZ87">
+        <v>12</v>
+      </c>
+      <c r="BA87">
+        <v>6</v>
+      </c>
+      <c r="BB87">
+        <v>4</v>
+      </c>
+      <c r="BC87">
+        <v>10</v>
+      </c>
+      <c r="BD87">
+        <v>4.4</v>
+      </c>
+      <c r="BE87">
+        <v>8.5</v>
+      </c>
+      <c r="BF87">
+        <v>1.23</v>
+      </c>
+      <c r="BG87">
+        <v>1.23</v>
+      </c>
+      <c r="BH87">
+        <v>3.65</v>
+      </c>
+      <c r="BI87">
+        <v>1.41</v>
+      </c>
+      <c r="BJ87">
+        <v>2.65</v>
+      </c>
+      <c r="BK87">
+        <v>1.67</v>
+      </c>
+      <c r="BL87">
+        <v>2.04</v>
+      </c>
+      <c r="BM87">
+        <v>2.06</v>
+      </c>
+      <c r="BN87">
+        <v>1.66</v>
+      </c>
+      <c r="BO87">
         <v>2.6</v>
       </c>
-      <c r="T87">
-        <v>1.29</v>
-      </c>
-      <c r="U87">
-        <v>3.5</v>
-      </c>
-      <c r="V87">
-        <v>2.38</v>
-      </c>
-      <c r="W87">
-        <v>1.53</v>
-      </c>
-      <c r="X87">
-        <v>5.5</v>
-      </c>
-      <c r="Y87">
-        <v>1.14</v>
-      </c>
-      <c r="Z87">
-        <v>3.25</v>
-      </c>
-      <c r="AA87">
-        <v>3.7</v>
-      </c>
-      <c r="AB87">
-        <v>2</v>
-      </c>
-      <c r="AC87">
-        <v>1.02</v>
-      </c>
-      <c r="AD87">
-        <v>19</v>
-      </c>
-      <c r="AE87">
-        <v>1.18</v>
-      </c>
-      <c r="AF87">
-        <v>5</v>
-      </c>
-      <c r="AG87">
-        <v>1.57</v>
-      </c>
-      <c r="AH87">
-        <v>2.31</v>
-      </c>
-      <c r="AI87">
-        <v>1.5</v>
-      </c>
-      <c r="AJ87">
-        <v>2.5</v>
-      </c>
-      <c r="AK87">
-        <v>1.78</v>
-      </c>
-      <c r="AL87">
-        <v>1.22</v>
-      </c>
-      <c r="AM87">
-        <v>1.35</v>
-      </c>
-      <c r="AN87">
-        <v>0.4</v>
-      </c>
-      <c r="AO87">
-        <v>0.25</v>
-      </c>
-      <c r="AP87">
-        <v>0.83</v>
-      </c>
-      <c r="AQ87">
-        <v>0.2</v>
-      </c>
-      <c r="AR87">
-        <v>1.34</v>
-      </c>
-      <c r="AS87">
-        <v>1.1</v>
-      </c>
-      <c r="AT87">
-        <v>2.44</v>
-      </c>
-      <c r="AU87">
-        <v>10</v>
-      </c>
-      <c r="AV87">
-        <v>2</v>
-      </c>
-      <c r="AW87">
-        <v>4</v>
-      </c>
-      <c r="AX87">
-        <v>1</v>
-      </c>
-      <c r="AY87">
-        <v>15</v>
-      </c>
-      <c r="AZ87">
-        <v>3</v>
-      </c>
-      <c r="BA87">
-        <v>8</v>
-      </c>
-      <c r="BB87">
-        <v>0</v>
-      </c>
-      <c r="BC87">
-        <v>8</v>
-      </c>
-      <c r="BD87">
-        <v>2.12</v>
-      </c>
-      <c r="BE87">
-        <v>6.5</v>
-      </c>
-      <c r="BF87">
-        <v>1.86</v>
-      </c>
-      <c r="BG87">
-        <v>1.21</v>
-      </c>
-      <c r="BH87">
-        <v>3.8</v>
-      </c>
-      <c r="BI87">
-        <v>1.4</v>
-      </c>
-      <c r="BJ87">
-        <v>2.7</v>
-      </c>
-      <c r="BK87">
-        <v>1.64</v>
-      </c>
-      <c r="BL87">
-        <v>2.1</v>
-      </c>
-      <c r="BM87">
-        <v>1.98</v>
-      </c>
-      <c r="BN87">
-        <v>1.72</v>
-      </c>
-      <c r="BO87">
-        <v>2.5</v>
-      </c>
       <c r="BP87">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -19153,7 +19153,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7491897</v>
+        <v>7491899</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19162,196 +19162,196 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45605.875</v>
+        <v>45606.47916666666</v>
       </c>
       <c r="F89">
         <v>10</v>
       </c>
       <c r="G89" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H89" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O89" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="P89" t="s">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="Q89">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="R89">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S89">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T89">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="U89">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V89">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="W89">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="X89">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Y89">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="Z89">
-        <v>2.87</v>
+        <v>1.64</v>
       </c>
       <c r="AA89">
-        <v>3.25</v>
+        <v>3.73</v>
       </c>
       <c r="AB89">
-        <v>2.57</v>
+        <v>4.32</v>
       </c>
       <c r="AC89">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD89">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE89">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AF89">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="AG89">
-        <v>1.87</v>
+        <v>1.52</v>
       </c>
       <c r="AH89">
-        <v>1.87</v>
+        <v>2.43</v>
       </c>
       <c r="AI89">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AJ89">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="AK89">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="AL89">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM89">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AN89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO89">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>0.8</v>
+        <v>1.83</v>
       </c>
       <c r="AQ89">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="AR89">
-        <v>1.38</v>
+        <v>1.8</v>
       </c>
       <c r="AS89">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="AT89">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="AU89">
         <v>5</v>
       </c>
       <c r="AV89">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY89">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ89">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA89">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BB89">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC89">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BD89">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="BE89">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="BF89">
-        <v>2.08</v>
+        <v>2.55</v>
       </c>
       <c r="BG89">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="BH89">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BI89">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="BJ89">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="BK89">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="BL89">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="BM89">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="BN89">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="BO89">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="BP89">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="90" spans="1:68">
@@ -19368,10 +19368,10 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45605.875</v>
+        <v>45606.5625</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G90" t="s">
         <v>80</v>
@@ -19398,10 +19398,10 @@
         <v>5</v>
       </c>
       <c r="O90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -19565,7 +19565,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7491899</v>
+        <v>7491897</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19574,196 +19574,196 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45605.875</v>
+        <v>45606.64583333334</v>
       </c>
       <c r="F91">
         <v>10</v>
       </c>
       <c r="G91" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H91" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O91" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="Q91">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="R91">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S91">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="T91">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="U91">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V91">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="W91">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="X91">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Y91">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="Z91">
-        <v>1.64</v>
+        <v>2.87</v>
       </c>
       <c r="AA91">
-        <v>3.73</v>
+        <v>3.25</v>
       </c>
       <c r="AB91">
-        <v>4.32</v>
+        <v>2.57</v>
       </c>
       <c r="AC91">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD91">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE91">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AF91">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="AG91">
+        <v>1.87</v>
+      </c>
+      <c r="AH91">
+        <v>1.87</v>
+      </c>
+      <c r="AI91">
+        <v>1.7</v>
+      </c>
+      <c r="AJ91">
+        <v>2.05</v>
+      </c>
+      <c r="AK91">
         <v>1.52</v>
       </c>
-      <c r="AH91">
-        <v>2.43</v>
-      </c>
-      <c r="AI91">
+      <c r="AL91">
+        <v>1.28</v>
+      </c>
+      <c r="AM91">
         <v>1.5</v>
       </c>
-      <c r="AJ91">
-        <v>2.5</v>
-      </c>
-      <c r="AK91">
-        <v>1.36</v>
-      </c>
-      <c r="AL91">
-        <v>1.22</v>
-      </c>
-      <c r="AM91">
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
         <v>1.75</v>
       </c>
-      <c r="AN91">
-        <v>2</v>
-      </c>
-      <c r="AO91">
-        <v>0.5</v>
-      </c>
       <c r="AP91">
-        <v>1.83</v>
+        <v>0.8</v>
       </c>
       <c r="AQ91">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="AR91">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="AS91">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AT91">
-        <v>2.92</v>
+        <v>2.68</v>
       </c>
       <c r="AU91">
         <v>5</v>
       </c>
       <c r="AV91">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW91">
+        <v>7</v>
+      </c>
+      <c r="AX91">
+        <v>3</v>
+      </c>
+      <c r="AY91">
+        <v>20</v>
+      </c>
+      <c r="AZ91">
+        <v>15</v>
+      </c>
+      <c r="BA91">
         <v>5</v>
       </c>
-      <c r="AX91">
-        <v>4</v>
-      </c>
-      <c r="AY91">
-        <v>17</v>
-      </c>
-      <c r="AZ91">
-        <v>12</v>
-      </c>
-      <c r="BA91">
+      <c r="BB91">
+        <v>5</v>
+      </c>
+      <c r="BC91">
         <v>10</v>
       </c>
-      <c r="BB91">
-        <v>6</v>
-      </c>
-      <c r="BC91">
-        <v>16</v>
-      </c>
       <c r="BD91">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="BE91">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF91">
-        <v>2.55</v>
+        <v>2.08</v>
       </c>
       <c r="BG91">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BH91">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BI91">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="BJ91">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="BK91">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="BL91">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="BM91">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="BN91">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="BO91">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="BP91">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
